--- a/2023년 락클럽 에버관리.xlsx
+++ b/2023년 락클럽 에버관리.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="287">
   <si>
     <t>적요</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -1071,6 +1071,62 @@
   <si>
     <t>2023 樂 클럽 2월 셋째주 정기전 종합</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023 樂 클럽 3월 첫째주 정기전 종합</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>김준호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이선화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박재성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김인기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박신호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이정훈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박정구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진해진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김범승</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정승우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이유선</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박찬용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박찬용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2257,156 +2313,59 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="10"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="10"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="10"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="10"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2453,52 +2412,152 @@
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="10"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="10"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="10"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="distributed" vertical="center" indent="10"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2516,9 +2575,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="11" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2531,6 +2587,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="182" fontId="11" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2540,21 +2599,32 @@
     <xf numFmtId="0" fontId="16" fillId="8" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="83">
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2578,11 +2648,11 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2599,67 +2669,11 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2956,11 +2970,102 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -3830,33 +3935,33 @@
       <c r="DG4" s="4"/>
     </row>
     <row r="5" spans="2:111" ht="20.100000000000001" customHeight="1">
-      <c r="S5" s="170" t="s">
+      <c r="S5" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="177" t="s">
+      <c r="T5" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="U5" s="178"/>
-      <c r="V5" s="178"/>
-      <c r="W5" s="179"/>
-      <c r="X5" s="177" t="s">
+      <c r="U5" s="131"/>
+      <c r="V5" s="131"/>
+      <c r="W5" s="132"/>
+      <c r="X5" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="Y5" s="178"/>
-      <c r="Z5" s="178"/>
-      <c r="AA5" s="179"/>
-      <c r="AB5" s="177" t="s">
+      <c r="Y5" s="131"/>
+      <c r="Z5" s="131"/>
+      <c r="AA5" s="132"/>
+      <c r="AB5" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="AC5" s="178"/>
-      <c r="AD5" s="178"/>
-      <c r="AE5" s="179"/>
-      <c r="AF5" s="177" t="s">
+      <c r="AC5" s="131"/>
+      <c r="AD5" s="131"/>
+      <c r="AE5" s="132"/>
+      <c r="AF5" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="AG5" s="178"/>
-      <c r="AH5" s="178"/>
-      <c r="AI5" s="180"/>
+      <c r="AG5" s="131"/>
+      <c r="AH5" s="131"/>
+      <c r="AI5" s="133"/>
       <c r="AM5" s="4"/>
       <c r="AN5" s="4"/>
       <c r="AO5" s="4"/>
@@ -3875,23 +3980,23 @@
       <c r="BB5" s="4"/>
       <c r="BC5" s="4"/>
       <c r="BD5" s="4"/>
-      <c r="BE5" s="181"/>
-      <c r="BF5" s="122"/>
-      <c r="BG5" s="122"/>
-      <c r="BH5" s="122"/>
-      <c r="BI5" s="122"/>
-      <c r="BJ5" s="122"/>
-      <c r="BK5" s="122"/>
-      <c r="BL5" s="122"/>
-      <c r="BM5" s="122"/>
-      <c r="BN5" s="122"/>
-      <c r="BO5" s="122"/>
-      <c r="BP5" s="122"/>
-      <c r="BQ5" s="122"/>
-      <c r="BR5" s="122"/>
-      <c r="BS5" s="122"/>
-      <c r="BT5" s="122"/>
-      <c r="BU5" s="122"/>
+      <c r="BE5" s="134"/>
+      <c r="BF5" s="124"/>
+      <c r="BG5" s="124"/>
+      <c r="BH5" s="124"/>
+      <c r="BI5" s="124"/>
+      <c r="BJ5" s="124"/>
+      <c r="BK5" s="124"/>
+      <c r="BL5" s="124"/>
+      <c r="BM5" s="124"/>
+      <c r="BN5" s="124"/>
+      <c r="BO5" s="124"/>
+      <c r="BP5" s="124"/>
+      <c r="BQ5" s="124"/>
+      <c r="BR5" s="124"/>
+      <c r="BS5" s="124"/>
+      <c r="BT5" s="124"/>
+      <c r="BU5" s="124"/>
       <c r="BV5" s="14"/>
       <c r="BW5" s="14"/>
       <c r="BX5" s="14"/>
@@ -3941,23 +4046,23 @@
       <c r="O6" s="17"/>
       <c r="P6" s="17"/>
       <c r="Q6" s="17"/>
-      <c r="S6" s="171"/>
-      <c r="T6" s="172"/>
-      <c r="U6" s="173"/>
-      <c r="V6" s="173"/>
-      <c r="W6" s="174"/>
-      <c r="X6" s="172"/>
-      <c r="Y6" s="173"/>
-      <c r="Z6" s="173"/>
-      <c r="AA6" s="174"/>
-      <c r="AB6" s="172"/>
-      <c r="AC6" s="173"/>
-      <c r="AD6" s="173"/>
-      <c r="AE6" s="174"/>
-      <c r="AF6" s="172"/>
-      <c r="AG6" s="173"/>
-      <c r="AH6" s="173"/>
-      <c r="AI6" s="175"/>
+      <c r="S6" s="123"/>
+      <c r="T6" s="125"/>
+      <c r="U6" s="126"/>
+      <c r="V6" s="126"/>
+      <c r="W6" s="127"/>
+      <c r="X6" s="125"/>
+      <c r="Y6" s="126"/>
+      <c r="Z6" s="126"/>
+      <c r="AA6" s="127"/>
+      <c r="AB6" s="125"/>
+      <c r="AC6" s="126"/>
+      <c r="AD6" s="126"/>
+      <c r="AE6" s="127"/>
+      <c r="AF6" s="125"/>
+      <c r="AG6" s="126"/>
+      <c r="AH6" s="126"/>
+      <c r="AI6" s="128"/>
       <c r="AM6" s="18"/>
       <c r="AN6" s="4"/>
       <c r="AO6" s="4"/>
@@ -3976,23 +4081,23 @@
       <c r="BB6" s="19"/>
       <c r="BC6" s="19"/>
       <c r="BD6" s="4"/>
-      <c r="BE6" s="181"/>
-      <c r="BF6" s="176"/>
-      <c r="BG6" s="176"/>
-      <c r="BH6" s="176"/>
-      <c r="BI6" s="176"/>
-      <c r="BJ6" s="176"/>
-      <c r="BK6" s="176"/>
-      <c r="BL6" s="176"/>
-      <c r="BM6" s="176"/>
-      <c r="BN6" s="176"/>
-      <c r="BO6" s="176"/>
-      <c r="BP6" s="176"/>
-      <c r="BQ6" s="176"/>
-      <c r="BR6" s="176"/>
-      <c r="BS6" s="176"/>
-      <c r="BT6" s="176"/>
-      <c r="BU6" s="176"/>
+      <c r="BE6" s="134"/>
+      <c r="BF6" s="129"/>
+      <c r="BG6" s="129"/>
+      <c r="BH6" s="129"/>
+      <c r="BI6" s="129"/>
+      <c r="BJ6" s="129"/>
+      <c r="BK6" s="129"/>
+      <c r="BL6" s="129"/>
+      <c r="BM6" s="129"/>
+      <c r="BN6" s="129"/>
+      <c r="BO6" s="129"/>
+      <c r="BP6" s="129"/>
+      <c r="BQ6" s="129"/>
+      <c r="BR6" s="129"/>
+      <c r="BS6" s="129"/>
+      <c r="BT6" s="129"/>
+      <c r="BU6" s="129"/>
       <c r="BV6" s="20"/>
       <c r="BW6" s="20"/>
       <c r="BX6" s="20"/>
@@ -4018,77 +4123,77 @@
       <c r="DG6" s="20"/>
     </row>
     <row r="7" spans="2:111" ht="65.099999999999994" customHeight="1">
-      <c r="B7" s="159" t="s">
+      <c r="B7" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="160"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="160"/>
-      <c r="H7" s="160"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="160"/>
-      <c r="K7" s="160"/>
-      <c r="L7" s="160"/>
-      <c r="M7" s="160"/>
-      <c r="N7" s="160"/>
-      <c r="O7" s="160"/>
-      <c r="P7" s="160"/>
-      <c r="Q7" s="160"/>
-      <c r="R7" s="160"/>
-      <c r="S7" s="160"/>
-      <c r="T7" s="160"/>
-      <c r="U7" s="160"/>
-      <c r="V7" s="160"/>
-      <c r="W7" s="160"/>
-      <c r="X7" s="160"/>
-      <c r="Y7" s="160"/>
-      <c r="Z7" s="160"/>
-      <c r="AA7" s="160"/>
-      <c r="AB7" s="160"/>
-      <c r="AC7" s="160"/>
-      <c r="AD7" s="160"/>
-      <c r="AE7" s="160"/>
-      <c r="AF7" s="160"/>
-      <c r="AG7" s="160"/>
-      <c r="AH7" s="160"/>
-      <c r="AI7" s="161"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="136"/>
+      <c r="O7" s="136"/>
+      <c r="P7" s="136"/>
+      <c r="Q7" s="136"/>
+      <c r="R7" s="136"/>
+      <c r="S7" s="136"/>
+      <c r="T7" s="136"/>
+      <c r="U7" s="136"/>
+      <c r="V7" s="136"/>
+      <c r="W7" s="136"/>
+      <c r="X7" s="136"/>
+      <c r="Y7" s="136"/>
+      <c r="Z7" s="136"/>
+      <c r="AA7" s="136"/>
+      <c r="AB7" s="136"/>
+      <c r="AC7" s="136"/>
+      <c r="AD7" s="136"/>
+      <c r="AE7" s="136"/>
+      <c r="AF7" s="136"/>
+      <c r="AG7" s="136"/>
+      <c r="AH7" s="136"/>
+      <c r="AI7" s="137"/>
       <c r="AM7" s="18"/>
-      <c r="AN7" s="162"/>
-      <c r="AO7" s="162"/>
-      <c r="AP7" s="162"/>
-      <c r="AQ7" s="162"/>
-      <c r="AR7" s="162"/>
-      <c r="AS7" s="162"/>
-      <c r="AT7" s="162"/>
-      <c r="AU7" s="162"/>
-      <c r="AV7" s="162"/>
-      <c r="AW7" s="162"/>
-      <c r="AX7" s="162"/>
-      <c r="AY7" s="162"/>
-      <c r="AZ7" s="162"/>
-      <c r="BA7" s="162"/>
-      <c r="BB7" s="162"/>
-      <c r="BC7" s="162"/>
-      <c r="BD7" s="162"/>
-      <c r="BE7" s="162"/>
-      <c r="BF7" s="162"/>
-      <c r="BG7" s="162"/>
-      <c r="BH7" s="162"/>
-      <c r="BI7" s="162"/>
-      <c r="BJ7" s="162"/>
-      <c r="BK7" s="162"/>
-      <c r="BL7" s="162"/>
-      <c r="BM7" s="162"/>
-      <c r="BN7" s="162"/>
-      <c r="BO7" s="162"/>
-      <c r="BP7" s="162"/>
-      <c r="BQ7" s="162"/>
-      <c r="BR7" s="162"/>
-      <c r="BS7" s="162"/>
-      <c r="BT7" s="162"/>
-      <c r="BU7" s="162"/>
+      <c r="AN7" s="138"/>
+      <c r="AO7" s="138"/>
+      <c r="AP7" s="138"/>
+      <c r="AQ7" s="138"/>
+      <c r="AR7" s="138"/>
+      <c r="AS7" s="138"/>
+      <c r="AT7" s="138"/>
+      <c r="AU7" s="138"/>
+      <c r="AV7" s="138"/>
+      <c r="AW7" s="138"/>
+      <c r="AX7" s="138"/>
+      <c r="AY7" s="138"/>
+      <c r="AZ7" s="138"/>
+      <c r="BA7" s="138"/>
+      <c r="BB7" s="138"/>
+      <c r="BC7" s="138"/>
+      <c r="BD7" s="138"/>
+      <c r="BE7" s="138"/>
+      <c r="BF7" s="138"/>
+      <c r="BG7" s="138"/>
+      <c r="BH7" s="138"/>
+      <c r="BI7" s="138"/>
+      <c r="BJ7" s="138"/>
+      <c r="BK7" s="138"/>
+      <c r="BL7" s="138"/>
+      <c r="BM7" s="138"/>
+      <c r="BN7" s="138"/>
+      <c r="BO7" s="138"/>
+      <c r="BP7" s="138"/>
+      <c r="BQ7" s="138"/>
+      <c r="BR7" s="138"/>
+      <c r="BS7" s="138"/>
+      <c r="BT7" s="138"/>
+      <c r="BU7" s="138"/>
       <c r="BV7" s="21"/>
       <c r="BW7" s="21"/>
       <c r="BX7" s="21"/>
@@ -4117,30 +4222,30 @@
       <c r="DG7" s="21"/>
     </row>
     <row r="8" spans="2:111" ht="30" customHeight="1">
-      <c r="B8" s="163" t="s">
+      <c r="B8" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="165">
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="141">
         <f>SUM(S14:AA23)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="165"/>
-      <c r="G8" s="165"/>
-      <c r="H8" s="165"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="165"/>
-      <c r="K8" s="165"/>
-      <c r="L8" s="165"/>
-      <c r="M8" s="165"/>
-      <c r="N8" s="165"/>
-      <c r="O8" s="165"/>
-      <c r="P8" s="165"/>
-      <c r="Q8" s="165"/>
-      <c r="R8" s="165"/>
-      <c r="S8" s="165"/>
-      <c r="T8" s="165"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="141"/>
+      <c r="K8" s="141"/>
+      <c r="L8" s="141"/>
+      <c r="M8" s="141"/>
+      <c r="N8" s="141"/>
+      <c r="O8" s="141"/>
+      <c r="P8" s="141"/>
+      <c r="Q8" s="141"/>
+      <c r="R8" s="141"/>
+      <c r="S8" s="141"/>
+      <c r="T8" s="141"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4" t="s">
         <v>23</v>
@@ -4153,54 +4258,54 @@
       <c r="Z8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA8" s="166">
+      <c r="AA8" s="142">
         <f>E8</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="166"/>
-      <c r="AC8" s="166"/>
-      <c r="AD8" s="166"/>
-      <c r="AE8" s="166"/>
-      <c r="AF8" s="166"/>
-      <c r="AG8" s="166"/>
-      <c r="AH8" s="166"/>
+      <c r="AB8" s="142"/>
+      <c r="AC8" s="142"/>
+      <c r="AD8" s="142"/>
+      <c r="AE8" s="142"/>
+      <c r="AF8" s="142"/>
+      <c r="AG8" s="142"/>
+      <c r="AH8" s="142"/>
       <c r="AI8" s="23" t="s">
         <v>26</v>
       </c>
       <c r="AM8" s="4"/>
-      <c r="AN8" s="167"/>
-      <c r="AO8" s="167"/>
-      <c r="AP8" s="167"/>
-      <c r="AQ8" s="168"/>
-      <c r="AR8" s="168"/>
-      <c r="AS8" s="168"/>
-      <c r="AT8" s="168"/>
-      <c r="AU8" s="168"/>
-      <c r="AV8" s="168"/>
-      <c r="AW8" s="168"/>
-      <c r="AX8" s="168"/>
-      <c r="AY8" s="168"/>
-      <c r="AZ8" s="168"/>
-      <c r="BA8" s="168"/>
-      <c r="BB8" s="168"/>
-      <c r="BC8" s="168"/>
-      <c r="BD8" s="168"/>
-      <c r="BE8" s="168"/>
-      <c r="BF8" s="168"/>
+      <c r="AN8" s="143"/>
+      <c r="AO8" s="143"/>
+      <c r="AP8" s="143"/>
+      <c r="AQ8" s="144"/>
+      <c r="AR8" s="144"/>
+      <c r="AS8" s="144"/>
+      <c r="AT8" s="144"/>
+      <c r="AU8" s="144"/>
+      <c r="AV8" s="144"/>
+      <c r="AW8" s="144"/>
+      <c r="AX8" s="144"/>
+      <c r="AY8" s="144"/>
+      <c r="AZ8" s="144"/>
+      <c r="BA8" s="144"/>
+      <c r="BB8" s="144"/>
+      <c r="BC8" s="144"/>
+      <c r="BD8" s="144"/>
+      <c r="BE8" s="144"/>
+      <c r="BF8" s="144"/>
       <c r="BG8" s="4"/>
       <c r="BH8" s="4"/>
       <c r="BI8" s="4"/>
       <c r="BJ8" s="4"/>
       <c r="BK8" s="4"/>
       <c r="BL8" s="4"/>
-      <c r="BM8" s="169"/>
-      <c r="BN8" s="169"/>
-      <c r="BO8" s="169"/>
-      <c r="BP8" s="169"/>
-      <c r="BQ8" s="169"/>
-      <c r="BR8" s="169"/>
-      <c r="BS8" s="169"/>
-      <c r="BT8" s="169"/>
+      <c r="BM8" s="145"/>
+      <c r="BN8" s="145"/>
+      <c r="BO8" s="145"/>
+      <c r="BP8" s="145"/>
+      <c r="BQ8" s="145"/>
+      <c r="BR8" s="145"/>
+      <c r="BS8" s="145"/>
+      <c r="BT8" s="145"/>
       <c r="BU8" s="4"/>
       <c r="BV8" s="4"/>
       <c r="BW8" s="4"/>
@@ -4232,83 +4337,83 @@
       <c r="DG8" s="4"/>
     </row>
     <row r="9" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B9" s="151" t="s">
+      <c r="B9" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="152"/>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154">
+      <c r="C9" s="148"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="150">
         <v>44351</v>
       </c>
-      <c r="F9" s="155"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="155"/>
-      <c r="I9" s="155"/>
-      <c r="J9" s="155"/>
-      <c r="K9" s="155"/>
-      <c r="L9" s="155"/>
-      <c r="M9" s="155"/>
-      <c r="N9" s="155"/>
-      <c r="O9" s="155"/>
-      <c r="P9" s="155"/>
-      <c r="Q9" s="155"/>
-      <c r="R9" s="156"/>
-      <c r="S9" s="157" t="s">
+      <c r="F9" s="151"/>
+      <c r="G9" s="151"/>
+      <c r="H9" s="151"/>
+      <c r="I9" s="151"/>
+      <c r="J9" s="151"/>
+      <c r="K9" s="151"/>
+      <c r="L9" s="151"/>
+      <c r="M9" s="151"/>
+      <c r="N9" s="151"/>
+      <c r="O9" s="151"/>
+      <c r="P9" s="151"/>
+      <c r="Q9" s="151"/>
+      <c r="R9" s="152"/>
+      <c r="S9" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="T9" s="153"/>
-      <c r="U9" s="157"/>
-      <c r="V9" s="152"/>
-      <c r="W9" s="152"/>
-      <c r="X9" s="152"/>
-      <c r="Y9" s="152"/>
-      <c r="Z9" s="152"/>
-      <c r="AA9" s="153"/>
-      <c r="AB9" s="157" t="s">
+      <c r="T9" s="149"/>
+      <c r="U9" s="153"/>
+      <c r="V9" s="148"/>
+      <c r="W9" s="148"/>
+      <c r="X9" s="148"/>
+      <c r="Y9" s="148"/>
+      <c r="Z9" s="148"/>
+      <c r="AA9" s="149"/>
+      <c r="AB9" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="AC9" s="152"/>
-      <c r="AD9" s="152"/>
-      <c r="AE9" s="153"/>
-      <c r="AF9" s="157"/>
-      <c r="AG9" s="152"/>
-      <c r="AH9" s="152"/>
-      <c r="AI9" s="158"/>
+      <c r="AC9" s="148"/>
+      <c r="AD9" s="148"/>
+      <c r="AE9" s="149"/>
+      <c r="AF9" s="153"/>
+      <c r="AG9" s="148"/>
+      <c r="AH9" s="148"/>
+      <c r="AI9" s="154"/>
       <c r="AM9" s="4"/>
-      <c r="AN9" s="122"/>
-      <c r="AO9" s="122"/>
-      <c r="AP9" s="122"/>
-      <c r="AQ9" s="127"/>
-      <c r="AR9" s="127"/>
-      <c r="AS9" s="127"/>
-      <c r="AT9" s="127"/>
-      <c r="AU9" s="127"/>
-      <c r="AV9" s="127"/>
-      <c r="AW9" s="127"/>
-      <c r="AX9" s="127"/>
-      <c r="AY9" s="127"/>
-      <c r="AZ9" s="127"/>
-      <c r="BA9" s="127"/>
-      <c r="BB9" s="127"/>
-      <c r="BC9" s="127"/>
-      <c r="BD9" s="127"/>
-      <c r="BE9" s="122"/>
-      <c r="BF9" s="122"/>
-      <c r="BG9" s="122"/>
-      <c r="BH9" s="122"/>
-      <c r="BI9" s="122"/>
-      <c r="BJ9" s="122"/>
-      <c r="BK9" s="122"/>
-      <c r="BL9" s="122"/>
-      <c r="BM9" s="122"/>
-      <c r="BN9" s="122"/>
-      <c r="BO9" s="122"/>
-      <c r="BP9" s="122"/>
-      <c r="BQ9" s="122"/>
-      <c r="BR9" s="122"/>
-      <c r="BS9" s="122"/>
-      <c r="BT9" s="122"/>
-      <c r="BU9" s="122"/>
+      <c r="AN9" s="124"/>
+      <c r="AO9" s="124"/>
+      <c r="AP9" s="124"/>
+      <c r="AQ9" s="146"/>
+      <c r="AR9" s="146"/>
+      <c r="AS9" s="146"/>
+      <c r="AT9" s="146"/>
+      <c r="AU9" s="146"/>
+      <c r="AV9" s="146"/>
+      <c r="AW9" s="146"/>
+      <c r="AX9" s="146"/>
+      <c r="AY9" s="146"/>
+      <c r="AZ9" s="146"/>
+      <c r="BA9" s="146"/>
+      <c r="BB9" s="146"/>
+      <c r="BC9" s="146"/>
+      <c r="BD9" s="146"/>
+      <c r="BE9" s="124"/>
+      <c r="BF9" s="124"/>
+      <c r="BG9" s="124"/>
+      <c r="BH9" s="124"/>
+      <c r="BI9" s="124"/>
+      <c r="BJ9" s="124"/>
+      <c r="BK9" s="124"/>
+      <c r="BL9" s="124"/>
+      <c r="BM9" s="124"/>
+      <c r="BN9" s="124"/>
+      <c r="BO9" s="124"/>
+      <c r="BP9" s="124"/>
+      <c r="BQ9" s="124"/>
+      <c r="BR9" s="124"/>
+      <c r="BS9" s="124"/>
+      <c r="BT9" s="124"/>
+      <c r="BU9" s="124"/>
       <c r="BV9" s="14"/>
       <c r="BW9" s="14"/>
       <c r="BX9" s="14"/>
@@ -4349,83 +4454,83 @@
       <c r="DG9" s="14"/>
     </row>
     <row r="10" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B10" s="151" t="s">
+      <c r="B10" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="152"/>
-      <c r="D10" s="153"/>
-      <c r="E10" s="154" t="s">
+      <c r="C10" s="148"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="155"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="155"/>
-      <c r="I10" s="155"/>
-      <c r="J10" s="155"/>
-      <c r="K10" s="155"/>
-      <c r="L10" s="155"/>
-      <c r="M10" s="155"/>
-      <c r="N10" s="155"/>
-      <c r="O10" s="155"/>
-      <c r="P10" s="155"/>
-      <c r="Q10" s="155"/>
-      <c r="R10" s="156"/>
-      <c r="S10" s="157" t="s">
+      <c r="F10" s="151"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="151"/>
+      <c r="J10" s="151"/>
+      <c r="K10" s="151"/>
+      <c r="L10" s="151"/>
+      <c r="M10" s="151"/>
+      <c r="N10" s="151"/>
+      <c r="O10" s="151"/>
+      <c r="P10" s="151"/>
+      <c r="Q10" s="151"/>
+      <c r="R10" s="152"/>
+      <c r="S10" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="T10" s="153"/>
-      <c r="U10" s="157"/>
-      <c r="V10" s="152"/>
-      <c r="W10" s="152"/>
-      <c r="X10" s="152"/>
-      <c r="Y10" s="152"/>
-      <c r="Z10" s="152"/>
-      <c r="AA10" s="153"/>
-      <c r="AB10" s="157" t="s">
+      <c r="T10" s="149"/>
+      <c r="U10" s="153"/>
+      <c r="V10" s="148"/>
+      <c r="W10" s="148"/>
+      <c r="X10" s="148"/>
+      <c r="Y10" s="148"/>
+      <c r="Z10" s="148"/>
+      <c r="AA10" s="149"/>
+      <c r="AB10" s="153" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="152"/>
-      <c r="AD10" s="152"/>
-      <c r="AE10" s="152"/>
-      <c r="AF10" s="152"/>
-      <c r="AG10" s="152"/>
-      <c r="AH10" s="152"/>
-      <c r="AI10" s="158"/>
+      <c r="AC10" s="148"/>
+      <c r="AD10" s="148"/>
+      <c r="AE10" s="148"/>
+      <c r="AF10" s="148"/>
+      <c r="AG10" s="148"/>
+      <c r="AH10" s="148"/>
+      <c r="AI10" s="154"/>
       <c r="AM10" s="4"/>
-      <c r="AN10" s="122"/>
-      <c r="AO10" s="122"/>
-      <c r="AP10" s="122"/>
-      <c r="AQ10" s="127"/>
-      <c r="AR10" s="127"/>
-      <c r="AS10" s="127"/>
-      <c r="AT10" s="127"/>
-      <c r="AU10" s="127"/>
-      <c r="AV10" s="127"/>
-      <c r="AW10" s="127"/>
-      <c r="AX10" s="127"/>
-      <c r="AY10" s="127"/>
-      <c r="AZ10" s="127"/>
-      <c r="BA10" s="127"/>
-      <c r="BB10" s="127"/>
-      <c r="BC10" s="127"/>
-      <c r="BD10" s="127"/>
-      <c r="BE10" s="122"/>
-      <c r="BF10" s="122"/>
-      <c r="BG10" s="122"/>
-      <c r="BH10" s="122"/>
-      <c r="BI10" s="122"/>
-      <c r="BJ10" s="122"/>
-      <c r="BK10" s="122"/>
-      <c r="BL10" s="122"/>
-      <c r="BM10" s="122"/>
-      <c r="BN10" s="122"/>
-      <c r="BO10" s="122"/>
-      <c r="BP10" s="122"/>
-      <c r="BQ10" s="122"/>
-      <c r="BR10" s="122"/>
-      <c r="BS10" s="122"/>
-      <c r="BT10" s="122"/>
-      <c r="BU10" s="122"/>
+      <c r="AN10" s="124"/>
+      <c r="AO10" s="124"/>
+      <c r="AP10" s="124"/>
+      <c r="AQ10" s="146"/>
+      <c r="AR10" s="146"/>
+      <c r="AS10" s="146"/>
+      <c r="AT10" s="146"/>
+      <c r="AU10" s="146"/>
+      <c r="AV10" s="146"/>
+      <c r="AW10" s="146"/>
+      <c r="AX10" s="146"/>
+      <c r="AY10" s="146"/>
+      <c r="AZ10" s="146"/>
+      <c r="BA10" s="146"/>
+      <c r="BB10" s="146"/>
+      <c r="BC10" s="146"/>
+      <c r="BD10" s="146"/>
+      <c r="BE10" s="124"/>
+      <c r="BF10" s="124"/>
+      <c r="BG10" s="124"/>
+      <c r="BH10" s="124"/>
+      <c r="BI10" s="124"/>
+      <c r="BJ10" s="124"/>
+      <c r="BK10" s="124"/>
+      <c r="BL10" s="124"/>
+      <c r="BM10" s="124"/>
+      <c r="BN10" s="124"/>
+      <c r="BO10" s="124"/>
+      <c r="BP10" s="124"/>
+      <c r="BQ10" s="124"/>
+      <c r="BR10" s="124"/>
+      <c r="BS10" s="124"/>
+      <c r="BT10" s="124"/>
+      <c r="BU10" s="124"/>
       <c r="BV10" s="14"/>
       <c r="BW10" s="14"/>
       <c r="BX10" s="14"/>
@@ -4466,81 +4571,81 @@
       <c r="DG10" s="14"/>
     </row>
     <row r="11" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B11" s="151" t="s">
+      <c r="B11" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="152"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="154" t="s">
+      <c r="C11" s="148"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="155"/>
-      <c r="G11" s="155"/>
-      <c r="H11" s="155"/>
-      <c r="I11" s="155"/>
-      <c r="J11" s="155"/>
-      <c r="K11" s="155"/>
-      <c r="L11" s="155"/>
-      <c r="M11" s="155"/>
-      <c r="N11" s="155"/>
-      <c r="O11" s="155"/>
-      <c r="P11" s="155"/>
-      <c r="Q11" s="155"/>
-      <c r="R11" s="156"/>
-      <c r="S11" s="157" t="s">
+      <c r="F11" s="151"/>
+      <c r="G11" s="151"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="151"/>
+      <c r="J11" s="151"/>
+      <c r="K11" s="151"/>
+      <c r="L11" s="151"/>
+      <c r="M11" s="151"/>
+      <c r="N11" s="151"/>
+      <c r="O11" s="151"/>
+      <c r="P11" s="151"/>
+      <c r="Q11" s="151"/>
+      <c r="R11" s="152"/>
+      <c r="S11" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="T11" s="153"/>
-      <c r="U11" s="157"/>
-      <c r="V11" s="152"/>
-      <c r="W11" s="152"/>
-      <c r="X11" s="152"/>
-      <c r="Y11" s="152"/>
-      <c r="Z11" s="152"/>
-      <c r="AA11" s="153"/>
-      <c r="AB11" s="157"/>
-      <c r="AC11" s="152"/>
-      <c r="AD11" s="152"/>
-      <c r="AE11" s="152"/>
-      <c r="AF11" s="152"/>
-      <c r="AG11" s="152"/>
-      <c r="AH11" s="152"/>
-      <c r="AI11" s="158"/>
+      <c r="T11" s="149"/>
+      <c r="U11" s="153"/>
+      <c r="V11" s="148"/>
+      <c r="W11" s="148"/>
+      <c r="X11" s="148"/>
+      <c r="Y11" s="148"/>
+      <c r="Z11" s="148"/>
+      <c r="AA11" s="149"/>
+      <c r="AB11" s="153"/>
+      <c r="AC11" s="148"/>
+      <c r="AD11" s="148"/>
+      <c r="AE11" s="148"/>
+      <c r="AF11" s="148"/>
+      <c r="AG11" s="148"/>
+      <c r="AH11" s="148"/>
+      <c r="AI11" s="154"/>
       <c r="AM11" s="4"/>
-      <c r="AN11" s="122"/>
-      <c r="AO11" s="122"/>
-      <c r="AP11" s="122"/>
-      <c r="AQ11" s="127"/>
-      <c r="AR11" s="127"/>
-      <c r="AS11" s="127"/>
-      <c r="AT11" s="127"/>
-      <c r="AU11" s="127"/>
-      <c r="AV11" s="127"/>
-      <c r="AW11" s="127"/>
-      <c r="AX11" s="127"/>
-      <c r="AY11" s="127"/>
-      <c r="AZ11" s="127"/>
-      <c r="BA11" s="127"/>
-      <c r="BB11" s="127"/>
-      <c r="BC11" s="127"/>
-      <c r="BD11" s="127"/>
-      <c r="BE11" s="122"/>
-      <c r="BF11" s="122"/>
-      <c r="BG11" s="122"/>
-      <c r="BH11" s="122"/>
-      <c r="BI11" s="122"/>
-      <c r="BJ11" s="122"/>
-      <c r="BK11" s="122"/>
-      <c r="BL11" s="122"/>
-      <c r="BM11" s="122"/>
-      <c r="BN11" s="122"/>
-      <c r="BO11" s="122"/>
-      <c r="BP11" s="122"/>
-      <c r="BQ11" s="122"/>
-      <c r="BR11" s="122"/>
-      <c r="BS11" s="122"/>
-      <c r="BT11" s="122"/>
-      <c r="BU11" s="122"/>
+      <c r="AN11" s="124"/>
+      <c r="AO11" s="124"/>
+      <c r="AP11" s="124"/>
+      <c r="AQ11" s="146"/>
+      <c r="AR11" s="146"/>
+      <c r="AS11" s="146"/>
+      <c r="AT11" s="146"/>
+      <c r="AU11" s="146"/>
+      <c r="AV11" s="146"/>
+      <c r="AW11" s="146"/>
+      <c r="AX11" s="146"/>
+      <c r="AY11" s="146"/>
+      <c r="AZ11" s="146"/>
+      <c r="BA11" s="146"/>
+      <c r="BB11" s="146"/>
+      <c r="BC11" s="146"/>
+      <c r="BD11" s="146"/>
+      <c r="BE11" s="124"/>
+      <c r="BF11" s="124"/>
+      <c r="BG11" s="124"/>
+      <c r="BH11" s="124"/>
+      <c r="BI11" s="124"/>
+      <c r="BJ11" s="124"/>
+      <c r="BK11" s="124"/>
+      <c r="BL11" s="124"/>
+      <c r="BM11" s="124"/>
+      <c r="BN11" s="124"/>
+      <c r="BO11" s="124"/>
+      <c r="BP11" s="124"/>
+      <c r="BQ11" s="124"/>
+      <c r="BR11" s="124"/>
+      <c r="BS11" s="124"/>
+      <c r="BT11" s="124"/>
+      <c r="BU11" s="124"/>
       <c r="BV11" s="14"/>
       <c r="BW11" s="14"/>
       <c r="BX11" s="14"/>
@@ -4581,77 +4686,77 @@
       <c r="DG11" s="14"/>
     </row>
     <row r="12" spans="2:111" ht="30" customHeight="1">
-      <c r="B12" s="147" t="s">
+      <c r="B12" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="148"/>
-      <c r="D12" s="148"/>
-      <c r="E12" s="148"/>
-      <c r="F12" s="148"/>
-      <c r="G12" s="148"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="148"/>
-      <c r="K12" s="148"/>
-      <c r="L12" s="148"/>
-      <c r="M12" s="148"/>
-      <c r="N12" s="148"/>
-      <c r="O12" s="148"/>
-      <c r="P12" s="148"/>
-      <c r="Q12" s="148"/>
-      <c r="R12" s="148"/>
-      <c r="S12" s="148"/>
-      <c r="T12" s="148"/>
-      <c r="U12" s="148"/>
-      <c r="V12" s="148"/>
-      <c r="W12" s="148"/>
-      <c r="X12" s="148"/>
-      <c r="Y12" s="148"/>
-      <c r="Z12" s="148"/>
-      <c r="AA12" s="148"/>
-      <c r="AB12" s="148"/>
-      <c r="AC12" s="148"/>
-      <c r="AD12" s="148"/>
-      <c r="AE12" s="148"/>
-      <c r="AF12" s="148"/>
-      <c r="AG12" s="148"/>
-      <c r="AH12" s="148"/>
-      <c r="AI12" s="149"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="156"/>
+      <c r="L12" s="156"/>
+      <c r="M12" s="156"/>
+      <c r="N12" s="156"/>
+      <c r="O12" s="156"/>
+      <c r="P12" s="156"/>
+      <c r="Q12" s="156"/>
+      <c r="R12" s="156"/>
+      <c r="S12" s="156"/>
+      <c r="T12" s="156"/>
+      <c r="U12" s="156"/>
+      <c r="V12" s="156"/>
+      <c r="W12" s="156"/>
+      <c r="X12" s="156"/>
+      <c r="Y12" s="156"/>
+      <c r="Z12" s="156"/>
+      <c r="AA12" s="156"/>
+      <c r="AB12" s="156"/>
+      <c r="AC12" s="156"/>
+      <c r="AD12" s="156"/>
+      <c r="AE12" s="156"/>
+      <c r="AF12" s="156"/>
+      <c r="AG12" s="156"/>
+      <c r="AH12" s="156"/>
+      <c r="AI12" s="157"/>
       <c r="AM12" s="4"/>
-      <c r="AN12" s="150"/>
-      <c r="AO12" s="150"/>
-      <c r="AP12" s="150"/>
-      <c r="AQ12" s="150"/>
-      <c r="AR12" s="150"/>
-      <c r="AS12" s="150"/>
-      <c r="AT12" s="150"/>
-      <c r="AU12" s="150"/>
-      <c r="AV12" s="150"/>
-      <c r="AW12" s="150"/>
-      <c r="AX12" s="150"/>
-      <c r="AY12" s="150"/>
-      <c r="AZ12" s="150"/>
-      <c r="BA12" s="150"/>
-      <c r="BB12" s="150"/>
-      <c r="BC12" s="150"/>
-      <c r="BD12" s="150"/>
-      <c r="BE12" s="150"/>
-      <c r="BF12" s="150"/>
-      <c r="BG12" s="150"/>
-      <c r="BH12" s="150"/>
-      <c r="BI12" s="150"/>
-      <c r="BJ12" s="150"/>
-      <c r="BK12" s="150"/>
-      <c r="BL12" s="150"/>
-      <c r="BM12" s="150"/>
-      <c r="BN12" s="150"/>
-      <c r="BO12" s="150"/>
-      <c r="BP12" s="150"/>
-      <c r="BQ12" s="150"/>
-      <c r="BR12" s="150"/>
-      <c r="BS12" s="150"/>
-      <c r="BT12" s="150"/>
-      <c r="BU12" s="150"/>
+      <c r="AN12" s="158"/>
+      <c r="AO12" s="158"/>
+      <c r="AP12" s="158"/>
+      <c r="AQ12" s="158"/>
+      <c r="AR12" s="158"/>
+      <c r="AS12" s="158"/>
+      <c r="AT12" s="158"/>
+      <c r="AU12" s="158"/>
+      <c r="AV12" s="158"/>
+      <c r="AW12" s="158"/>
+      <c r="AX12" s="158"/>
+      <c r="AY12" s="158"/>
+      <c r="AZ12" s="158"/>
+      <c r="BA12" s="158"/>
+      <c r="BB12" s="158"/>
+      <c r="BC12" s="158"/>
+      <c r="BD12" s="158"/>
+      <c r="BE12" s="158"/>
+      <c r="BF12" s="158"/>
+      <c r="BG12" s="158"/>
+      <c r="BH12" s="158"/>
+      <c r="BI12" s="158"/>
+      <c r="BJ12" s="158"/>
+      <c r="BK12" s="158"/>
+      <c r="BL12" s="158"/>
+      <c r="BM12" s="158"/>
+      <c r="BN12" s="158"/>
+      <c r="BO12" s="158"/>
+      <c r="BP12" s="158"/>
+      <c r="BQ12" s="158"/>
+      <c r="BR12" s="158"/>
+      <c r="BS12" s="158"/>
+      <c r="BT12" s="158"/>
+      <c r="BU12" s="158"/>
       <c r="BV12" s="14"/>
       <c r="BW12" s="14"/>
       <c r="BX12" s="14"/>
@@ -4692,83 +4797,83 @@
       <c r="DG12" s="14"/>
     </row>
     <row r="13" spans="2:111" ht="30" customHeight="1">
-      <c r="B13" s="142" t="s">
+      <c r="B13" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="143"/>
-      <c r="D13" s="143"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="143"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="144"/>
-      <c r="J13" s="145" t="s">
+      <c r="C13" s="173"/>
+      <c r="D13" s="173"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="174"/>
+      <c r="J13" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="143"/>
-      <c r="L13" s="143"/>
-      <c r="M13" s="143"/>
-      <c r="N13" s="143"/>
-      <c r="O13" s="143"/>
-      <c r="P13" s="143"/>
-      <c r="Q13" s="143"/>
-      <c r="R13" s="144"/>
-      <c r="S13" s="145" t="s">
+      <c r="K13" s="173"/>
+      <c r="L13" s="173"/>
+      <c r="M13" s="173"/>
+      <c r="N13" s="173"/>
+      <c r="O13" s="173"/>
+      <c r="P13" s="173"/>
+      <c r="Q13" s="173"/>
+      <c r="R13" s="174"/>
+      <c r="S13" s="175" t="s">
         <v>35</v>
       </c>
-      <c r="T13" s="143"/>
-      <c r="U13" s="143"/>
-      <c r="V13" s="143"/>
-      <c r="W13" s="143"/>
-      <c r="X13" s="143"/>
-      <c r="Y13" s="143"/>
-      <c r="Z13" s="143"/>
-      <c r="AA13" s="144"/>
-      <c r="AB13" s="145" t="s">
+      <c r="T13" s="173"/>
+      <c r="U13" s="173"/>
+      <c r="V13" s="173"/>
+      <c r="W13" s="173"/>
+      <c r="X13" s="173"/>
+      <c r="Y13" s="173"/>
+      <c r="Z13" s="173"/>
+      <c r="AA13" s="174"/>
+      <c r="AB13" s="175" t="s">
         <v>36</v>
       </c>
-      <c r="AC13" s="143"/>
-      <c r="AD13" s="143"/>
-      <c r="AE13" s="143"/>
-      <c r="AF13" s="143"/>
-      <c r="AG13" s="143"/>
-      <c r="AH13" s="143"/>
-      <c r="AI13" s="146"/>
+      <c r="AC13" s="173"/>
+      <c r="AD13" s="173"/>
+      <c r="AE13" s="173"/>
+      <c r="AF13" s="173"/>
+      <c r="AG13" s="173"/>
+      <c r="AH13" s="173"/>
+      <c r="AI13" s="176"/>
       <c r="AM13" s="4"/>
-      <c r="AN13" s="141"/>
-      <c r="AO13" s="141"/>
-      <c r="AP13" s="141"/>
-      <c r="AQ13" s="141"/>
-      <c r="AR13" s="141"/>
-      <c r="AS13" s="141"/>
-      <c r="AT13" s="141"/>
-      <c r="AU13" s="141"/>
-      <c r="AV13" s="141"/>
-      <c r="AW13" s="141"/>
-      <c r="AX13" s="141"/>
-      <c r="AY13" s="141"/>
-      <c r="AZ13" s="141"/>
-      <c r="BA13" s="141"/>
-      <c r="BB13" s="141"/>
-      <c r="BC13" s="141"/>
-      <c r="BD13" s="141"/>
-      <c r="BE13" s="141"/>
-      <c r="BF13" s="141"/>
-      <c r="BG13" s="141"/>
-      <c r="BH13" s="141"/>
-      <c r="BI13" s="141"/>
-      <c r="BJ13" s="141"/>
-      <c r="BK13" s="141"/>
-      <c r="BL13" s="141"/>
-      <c r="BM13" s="141"/>
-      <c r="BN13" s="141"/>
-      <c r="BO13" s="141"/>
-      <c r="BP13" s="141"/>
-      <c r="BQ13" s="141"/>
-      <c r="BR13" s="141"/>
-      <c r="BS13" s="141"/>
-      <c r="BT13" s="141"/>
-      <c r="BU13" s="141"/>
+      <c r="AN13" s="159"/>
+      <c r="AO13" s="159"/>
+      <c r="AP13" s="159"/>
+      <c r="AQ13" s="159"/>
+      <c r="AR13" s="159"/>
+      <c r="AS13" s="159"/>
+      <c r="AT13" s="159"/>
+      <c r="AU13" s="159"/>
+      <c r="AV13" s="159"/>
+      <c r="AW13" s="159"/>
+      <c r="AX13" s="159"/>
+      <c r="AY13" s="159"/>
+      <c r="AZ13" s="159"/>
+      <c r="BA13" s="159"/>
+      <c r="BB13" s="159"/>
+      <c r="BC13" s="159"/>
+      <c r="BD13" s="159"/>
+      <c r="BE13" s="159"/>
+      <c r="BF13" s="159"/>
+      <c r="BG13" s="159"/>
+      <c r="BH13" s="159"/>
+      <c r="BI13" s="159"/>
+      <c r="BJ13" s="159"/>
+      <c r="BK13" s="159"/>
+      <c r="BL13" s="159"/>
+      <c r="BM13" s="159"/>
+      <c r="BN13" s="159"/>
+      <c r="BO13" s="159"/>
+      <c r="BP13" s="159"/>
+      <c r="BQ13" s="159"/>
+      <c r="BR13" s="159"/>
+      <c r="BS13" s="159"/>
+      <c r="BT13" s="159"/>
+      <c r="BU13" s="159"/>
       <c r="BV13" s="14"/>
       <c r="BW13" s="14"/>
       <c r="BX13" s="14"/>
@@ -4809,75 +4914,75 @@
       <c r="DG13" s="14"/>
     </row>
     <row r="14" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B14" s="129"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="130"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="132"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="130"/>
-      <c r="M14" s="130"/>
-      <c r="N14" s="130"/>
-      <c r="O14" s="130"/>
-      <c r="P14" s="130"/>
-      <c r="Q14" s="130"/>
-      <c r="R14" s="131"/>
-      <c r="S14" s="133"/>
-      <c r="T14" s="134"/>
-      <c r="U14" s="134"/>
-      <c r="V14" s="134"/>
-      <c r="W14" s="134"/>
-      <c r="X14" s="134"/>
-      <c r="Y14" s="134"/>
-      <c r="Z14" s="134"/>
-      <c r="AA14" s="135"/>
-      <c r="AB14" s="138"/>
-      <c r="AC14" s="130"/>
-      <c r="AD14" s="130"/>
-      <c r="AE14" s="130"/>
-      <c r="AF14" s="130"/>
-      <c r="AG14" s="130"/>
-      <c r="AH14" s="130"/>
-      <c r="AI14" s="136"/>
+      <c r="B14" s="160"/>
+      <c r="C14" s="161"/>
+      <c r="D14" s="161"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="162"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="161"/>
+      <c r="L14" s="161"/>
+      <c r="M14" s="161"/>
+      <c r="N14" s="161"/>
+      <c r="O14" s="161"/>
+      <c r="P14" s="161"/>
+      <c r="Q14" s="161"/>
+      <c r="R14" s="162"/>
+      <c r="S14" s="164"/>
+      <c r="T14" s="165"/>
+      <c r="U14" s="165"/>
+      <c r="V14" s="165"/>
+      <c r="W14" s="165"/>
+      <c r="X14" s="165"/>
+      <c r="Y14" s="165"/>
+      <c r="Z14" s="165"/>
+      <c r="AA14" s="166"/>
+      <c r="AB14" s="167"/>
+      <c r="AC14" s="161"/>
+      <c r="AD14" s="161"/>
+      <c r="AE14" s="161"/>
+      <c r="AF14" s="161"/>
+      <c r="AG14" s="161"/>
+      <c r="AH14" s="161"/>
+      <c r="AI14" s="168"/>
       <c r="AM14" s="4"/>
-      <c r="AN14" s="125"/>
-      <c r="AO14" s="125"/>
-      <c r="AP14" s="125"/>
-      <c r="AQ14" s="125"/>
-      <c r="AR14" s="125"/>
-      <c r="AS14" s="125"/>
-      <c r="AT14" s="125"/>
-      <c r="AU14" s="125"/>
-      <c r="AV14" s="125"/>
-      <c r="AW14" s="125"/>
-      <c r="AX14" s="125"/>
-      <c r="AY14" s="125"/>
-      <c r="AZ14" s="125"/>
-      <c r="BA14" s="125"/>
-      <c r="BB14" s="125"/>
-      <c r="BC14" s="125"/>
-      <c r="BD14" s="125"/>
-      <c r="BE14" s="124"/>
-      <c r="BF14" s="124"/>
-      <c r="BG14" s="124"/>
-      <c r="BH14" s="124"/>
-      <c r="BI14" s="124"/>
-      <c r="BJ14" s="124"/>
-      <c r="BK14" s="124"/>
-      <c r="BL14" s="124"/>
-      <c r="BM14" s="124"/>
-      <c r="BN14" s="137"/>
-      <c r="BO14" s="125"/>
-      <c r="BP14" s="125"/>
-      <c r="BQ14" s="125"/>
-      <c r="BR14" s="125"/>
-      <c r="BS14" s="125"/>
-      <c r="BT14" s="125"/>
-      <c r="BU14" s="125"/>
+      <c r="AN14" s="169"/>
+      <c r="AO14" s="169"/>
+      <c r="AP14" s="169"/>
+      <c r="AQ14" s="169"/>
+      <c r="AR14" s="169"/>
+      <c r="AS14" s="169"/>
+      <c r="AT14" s="169"/>
+      <c r="AU14" s="169"/>
+      <c r="AV14" s="169"/>
+      <c r="AW14" s="169"/>
+      <c r="AX14" s="169"/>
+      <c r="AY14" s="169"/>
+      <c r="AZ14" s="169"/>
+      <c r="BA14" s="169"/>
+      <c r="BB14" s="169"/>
+      <c r="BC14" s="169"/>
+      <c r="BD14" s="169"/>
+      <c r="BE14" s="170"/>
+      <c r="BF14" s="170"/>
+      <c r="BG14" s="170"/>
+      <c r="BH14" s="170"/>
+      <c r="BI14" s="170"/>
+      <c r="BJ14" s="170"/>
+      <c r="BK14" s="170"/>
+      <c r="BL14" s="170"/>
+      <c r="BM14" s="170"/>
+      <c r="BN14" s="171"/>
+      <c r="BO14" s="169"/>
+      <c r="BP14" s="169"/>
+      <c r="BQ14" s="169"/>
+      <c r="BR14" s="169"/>
+      <c r="BS14" s="169"/>
+      <c r="BT14" s="169"/>
+      <c r="BU14" s="169"/>
       <c r="BV14" s="26"/>
       <c r="BW14" s="26"/>
       <c r="BX14" s="26"/>
@@ -4918,75 +5023,75 @@
       <c r="DG14" s="5"/>
     </row>
     <row r="15" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B15" s="129"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
-      <c r="J15" s="132"/>
-      <c r="K15" s="130"/>
-      <c r="L15" s="130"/>
-      <c r="M15" s="130"/>
-      <c r="N15" s="130"/>
-      <c r="O15" s="130"/>
-      <c r="P15" s="130"/>
-      <c r="Q15" s="130"/>
-      <c r="R15" s="131"/>
-      <c r="S15" s="133"/>
-      <c r="T15" s="134"/>
-      <c r="U15" s="134"/>
-      <c r="V15" s="134"/>
-      <c r="W15" s="134"/>
-      <c r="X15" s="134"/>
-      <c r="Y15" s="134"/>
-      <c r="Z15" s="134"/>
-      <c r="AA15" s="135"/>
-      <c r="AB15" s="138"/>
-      <c r="AC15" s="130"/>
-      <c r="AD15" s="130"/>
-      <c r="AE15" s="130"/>
-      <c r="AF15" s="130"/>
-      <c r="AG15" s="130"/>
-      <c r="AH15" s="130"/>
-      <c r="AI15" s="136"/>
+      <c r="B15" s="160"/>
+      <c r="C15" s="161"/>
+      <c r="D15" s="161"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="161"/>
+      <c r="I15" s="162"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="161"/>
+      <c r="L15" s="161"/>
+      <c r="M15" s="161"/>
+      <c r="N15" s="161"/>
+      <c r="O15" s="161"/>
+      <c r="P15" s="161"/>
+      <c r="Q15" s="161"/>
+      <c r="R15" s="162"/>
+      <c r="S15" s="164"/>
+      <c r="T15" s="165"/>
+      <c r="U15" s="165"/>
+      <c r="V15" s="165"/>
+      <c r="W15" s="165"/>
+      <c r="X15" s="165"/>
+      <c r="Y15" s="165"/>
+      <c r="Z15" s="165"/>
+      <c r="AA15" s="166"/>
+      <c r="AB15" s="167"/>
+      <c r="AC15" s="161"/>
+      <c r="AD15" s="161"/>
+      <c r="AE15" s="161"/>
+      <c r="AF15" s="161"/>
+      <c r="AG15" s="161"/>
+      <c r="AH15" s="161"/>
+      <c r="AI15" s="168"/>
       <c r="AM15" s="4"/>
-      <c r="AN15" s="125"/>
-      <c r="AO15" s="125"/>
-      <c r="AP15" s="125"/>
-      <c r="AQ15" s="125"/>
-      <c r="AR15" s="125"/>
-      <c r="AS15" s="125"/>
-      <c r="AT15" s="125"/>
-      <c r="AU15" s="125"/>
-      <c r="AV15" s="125"/>
-      <c r="AW15" s="125"/>
-      <c r="AX15" s="125"/>
-      <c r="AY15" s="125"/>
-      <c r="AZ15" s="125"/>
-      <c r="BA15" s="125"/>
-      <c r="BB15" s="125"/>
-      <c r="BC15" s="125"/>
-      <c r="BD15" s="125"/>
-      <c r="BE15" s="124"/>
-      <c r="BF15" s="124"/>
-      <c r="BG15" s="124"/>
-      <c r="BH15" s="124"/>
-      <c r="BI15" s="124"/>
-      <c r="BJ15" s="124"/>
-      <c r="BK15" s="124"/>
-      <c r="BL15" s="124"/>
-      <c r="BM15" s="124"/>
-      <c r="BN15" s="137"/>
-      <c r="BO15" s="125"/>
-      <c r="BP15" s="125"/>
-      <c r="BQ15" s="125"/>
-      <c r="BR15" s="125"/>
-      <c r="BS15" s="125"/>
-      <c r="BT15" s="125"/>
-      <c r="BU15" s="125"/>
+      <c r="AN15" s="169"/>
+      <c r="AO15" s="169"/>
+      <c r="AP15" s="169"/>
+      <c r="AQ15" s="169"/>
+      <c r="AR15" s="169"/>
+      <c r="AS15" s="169"/>
+      <c r="AT15" s="169"/>
+      <c r="AU15" s="169"/>
+      <c r="AV15" s="169"/>
+      <c r="AW15" s="169"/>
+      <c r="AX15" s="169"/>
+      <c r="AY15" s="169"/>
+      <c r="AZ15" s="169"/>
+      <c r="BA15" s="169"/>
+      <c r="BB15" s="169"/>
+      <c r="BC15" s="169"/>
+      <c r="BD15" s="169"/>
+      <c r="BE15" s="170"/>
+      <c r="BF15" s="170"/>
+      <c r="BG15" s="170"/>
+      <c r="BH15" s="170"/>
+      <c r="BI15" s="170"/>
+      <c r="BJ15" s="170"/>
+      <c r="BK15" s="170"/>
+      <c r="BL15" s="170"/>
+      <c r="BM15" s="170"/>
+      <c r="BN15" s="171"/>
+      <c r="BO15" s="169"/>
+      <c r="BP15" s="169"/>
+      <c r="BQ15" s="169"/>
+      <c r="BR15" s="169"/>
+      <c r="BS15" s="169"/>
+      <c r="BT15" s="169"/>
+      <c r="BU15" s="169"/>
       <c r="BV15" s="26"/>
       <c r="BW15" s="26"/>
       <c r="BX15" s="26"/>
@@ -5027,75 +5132,75 @@
       <c r="DG15" s="5"/>
     </row>
     <row r="16" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B16" s="129"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
-      <c r="J16" s="132"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="130"/>
-      <c r="M16" s="130"/>
-      <c r="N16" s="130"/>
-      <c r="O16" s="130"/>
-      <c r="P16" s="130"/>
-      <c r="Q16" s="130"/>
-      <c r="R16" s="131"/>
-      <c r="S16" s="133"/>
-      <c r="T16" s="134"/>
-      <c r="U16" s="134"/>
-      <c r="V16" s="134"/>
-      <c r="W16" s="134"/>
-      <c r="X16" s="134"/>
-      <c r="Y16" s="134"/>
-      <c r="Z16" s="134"/>
-      <c r="AA16" s="135"/>
-      <c r="AB16" s="138"/>
-      <c r="AC16" s="130"/>
-      <c r="AD16" s="130"/>
-      <c r="AE16" s="130"/>
-      <c r="AF16" s="130"/>
-      <c r="AG16" s="130"/>
-      <c r="AH16" s="130"/>
-      <c r="AI16" s="136"/>
+      <c r="B16" s="160"/>
+      <c r="C16" s="161"/>
+      <c r="D16" s="161"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="161"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="161"/>
+      <c r="I16" s="162"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="161"/>
+      <c r="L16" s="161"/>
+      <c r="M16" s="161"/>
+      <c r="N16" s="161"/>
+      <c r="O16" s="161"/>
+      <c r="P16" s="161"/>
+      <c r="Q16" s="161"/>
+      <c r="R16" s="162"/>
+      <c r="S16" s="164"/>
+      <c r="T16" s="165"/>
+      <c r="U16" s="165"/>
+      <c r="V16" s="165"/>
+      <c r="W16" s="165"/>
+      <c r="X16" s="165"/>
+      <c r="Y16" s="165"/>
+      <c r="Z16" s="165"/>
+      <c r="AA16" s="166"/>
+      <c r="AB16" s="167"/>
+      <c r="AC16" s="161"/>
+      <c r="AD16" s="161"/>
+      <c r="AE16" s="161"/>
+      <c r="AF16" s="161"/>
+      <c r="AG16" s="161"/>
+      <c r="AH16" s="161"/>
+      <c r="AI16" s="168"/>
       <c r="AM16" s="4"/>
-      <c r="AN16" s="125"/>
-      <c r="AO16" s="125"/>
-      <c r="AP16" s="125"/>
-      <c r="AQ16" s="125"/>
-      <c r="AR16" s="125"/>
-      <c r="AS16" s="125"/>
-      <c r="AT16" s="125"/>
-      <c r="AU16" s="125"/>
-      <c r="AV16" s="125"/>
-      <c r="AW16" s="125"/>
-      <c r="AX16" s="125"/>
-      <c r="AY16" s="125"/>
-      <c r="AZ16" s="125"/>
-      <c r="BA16" s="125"/>
-      <c r="BB16" s="125"/>
-      <c r="BC16" s="125"/>
-      <c r="BD16" s="125"/>
-      <c r="BE16" s="124"/>
-      <c r="BF16" s="124"/>
-      <c r="BG16" s="124"/>
-      <c r="BH16" s="124"/>
-      <c r="BI16" s="124"/>
-      <c r="BJ16" s="124"/>
-      <c r="BK16" s="124"/>
-      <c r="BL16" s="124"/>
-      <c r="BM16" s="124"/>
-      <c r="BN16" s="137"/>
-      <c r="BO16" s="125"/>
-      <c r="BP16" s="125"/>
-      <c r="BQ16" s="125"/>
-      <c r="BR16" s="125"/>
-      <c r="BS16" s="125"/>
-      <c r="BT16" s="125"/>
-      <c r="BU16" s="125"/>
+      <c r="AN16" s="169"/>
+      <c r="AO16" s="169"/>
+      <c r="AP16" s="169"/>
+      <c r="AQ16" s="169"/>
+      <c r="AR16" s="169"/>
+      <c r="AS16" s="169"/>
+      <c r="AT16" s="169"/>
+      <c r="AU16" s="169"/>
+      <c r="AV16" s="169"/>
+      <c r="AW16" s="169"/>
+      <c r="AX16" s="169"/>
+      <c r="AY16" s="169"/>
+      <c r="AZ16" s="169"/>
+      <c r="BA16" s="169"/>
+      <c r="BB16" s="169"/>
+      <c r="BC16" s="169"/>
+      <c r="BD16" s="169"/>
+      <c r="BE16" s="170"/>
+      <c r="BF16" s="170"/>
+      <c r="BG16" s="170"/>
+      <c r="BH16" s="170"/>
+      <c r="BI16" s="170"/>
+      <c r="BJ16" s="170"/>
+      <c r="BK16" s="170"/>
+      <c r="BL16" s="170"/>
+      <c r="BM16" s="170"/>
+      <c r="BN16" s="171"/>
+      <c r="BO16" s="169"/>
+      <c r="BP16" s="169"/>
+      <c r="BQ16" s="169"/>
+      <c r="BR16" s="169"/>
+      <c r="BS16" s="169"/>
+      <c r="BT16" s="169"/>
+      <c r="BU16" s="169"/>
       <c r="BV16" s="26"/>
       <c r="BW16" s="26"/>
       <c r="BX16" s="26"/>
@@ -5136,75 +5241,75 @@
       <c r="DG16" s="5"/>
     </row>
     <row r="17" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B17" s="129"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="131"/>
-      <c r="J17" s="132"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="130"/>
-      <c r="M17" s="130"/>
-      <c r="N17" s="130"/>
-      <c r="O17" s="130"/>
-      <c r="P17" s="130"/>
-      <c r="Q17" s="130"/>
-      <c r="R17" s="131"/>
-      <c r="S17" s="133"/>
-      <c r="T17" s="134"/>
-      <c r="U17" s="134"/>
-      <c r="V17" s="134"/>
-      <c r="W17" s="134"/>
-      <c r="X17" s="134"/>
-      <c r="Y17" s="134"/>
-      <c r="Z17" s="134"/>
-      <c r="AA17" s="135"/>
-      <c r="AB17" s="138"/>
-      <c r="AC17" s="139"/>
-      <c r="AD17" s="139"/>
-      <c r="AE17" s="139"/>
-      <c r="AF17" s="139"/>
-      <c r="AG17" s="139"/>
-      <c r="AH17" s="139"/>
-      <c r="AI17" s="140"/>
+      <c r="B17" s="160"/>
+      <c r="C17" s="161"/>
+      <c r="D17" s="161"/>
+      <c r="E17" s="161"/>
+      <c r="F17" s="161"/>
+      <c r="G17" s="161"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="162"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="161"/>
+      <c r="L17" s="161"/>
+      <c r="M17" s="161"/>
+      <c r="N17" s="161"/>
+      <c r="O17" s="161"/>
+      <c r="P17" s="161"/>
+      <c r="Q17" s="161"/>
+      <c r="R17" s="162"/>
+      <c r="S17" s="164"/>
+      <c r="T17" s="165"/>
+      <c r="U17" s="165"/>
+      <c r="V17" s="165"/>
+      <c r="W17" s="165"/>
+      <c r="X17" s="165"/>
+      <c r="Y17" s="165"/>
+      <c r="Z17" s="165"/>
+      <c r="AA17" s="166"/>
+      <c r="AB17" s="167"/>
+      <c r="AC17" s="177"/>
+      <c r="AD17" s="177"/>
+      <c r="AE17" s="177"/>
+      <c r="AF17" s="177"/>
+      <c r="AG17" s="177"/>
+      <c r="AH17" s="177"/>
+      <c r="AI17" s="178"/>
       <c r="AM17" s="4"/>
-      <c r="AN17" s="125"/>
-      <c r="AO17" s="125"/>
-      <c r="AP17" s="125"/>
-      <c r="AQ17" s="125"/>
-      <c r="AR17" s="125"/>
-      <c r="AS17" s="125"/>
-      <c r="AT17" s="125"/>
-      <c r="AU17" s="125"/>
-      <c r="AV17" s="125"/>
-      <c r="AW17" s="125"/>
-      <c r="AX17" s="125"/>
-      <c r="AY17" s="125"/>
-      <c r="AZ17" s="125"/>
-      <c r="BA17" s="125"/>
-      <c r="BB17" s="125"/>
-      <c r="BC17" s="125"/>
-      <c r="BD17" s="125"/>
-      <c r="BE17" s="124"/>
-      <c r="BF17" s="124"/>
-      <c r="BG17" s="124"/>
-      <c r="BH17" s="124"/>
-      <c r="BI17" s="124"/>
-      <c r="BJ17" s="124"/>
-      <c r="BK17" s="124"/>
-      <c r="BL17" s="124"/>
-      <c r="BM17" s="124"/>
-      <c r="BN17" s="137"/>
-      <c r="BO17" s="125"/>
-      <c r="BP17" s="125"/>
-      <c r="BQ17" s="125"/>
-      <c r="BR17" s="125"/>
-      <c r="BS17" s="125"/>
-      <c r="BT17" s="125"/>
-      <c r="BU17" s="125"/>
+      <c r="AN17" s="169"/>
+      <c r="AO17" s="169"/>
+      <c r="AP17" s="169"/>
+      <c r="AQ17" s="169"/>
+      <c r="AR17" s="169"/>
+      <c r="AS17" s="169"/>
+      <c r="AT17" s="169"/>
+      <c r="AU17" s="169"/>
+      <c r="AV17" s="169"/>
+      <c r="AW17" s="169"/>
+      <c r="AX17" s="169"/>
+      <c r="AY17" s="169"/>
+      <c r="AZ17" s="169"/>
+      <c r="BA17" s="169"/>
+      <c r="BB17" s="169"/>
+      <c r="BC17" s="169"/>
+      <c r="BD17" s="169"/>
+      <c r="BE17" s="170"/>
+      <c r="BF17" s="170"/>
+      <c r="BG17" s="170"/>
+      <c r="BH17" s="170"/>
+      <c r="BI17" s="170"/>
+      <c r="BJ17" s="170"/>
+      <c r="BK17" s="170"/>
+      <c r="BL17" s="170"/>
+      <c r="BM17" s="170"/>
+      <c r="BN17" s="171"/>
+      <c r="BO17" s="169"/>
+      <c r="BP17" s="169"/>
+      <c r="BQ17" s="169"/>
+      <c r="BR17" s="169"/>
+      <c r="BS17" s="169"/>
+      <c r="BT17" s="169"/>
+      <c r="BU17" s="169"/>
       <c r="BV17" s="26"/>
       <c r="BW17" s="26"/>
       <c r="BX17" s="26"/>
@@ -5245,75 +5350,75 @@
       <c r="DG17" s="5"/>
     </row>
     <row r="18" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B18" s="129"/>
-      <c r="C18" s="130"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="131"/>
-      <c r="J18" s="132"/>
-      <c r="K18" s="130"/>
-      <c r="L18" s="130"/>
-      <c r="M18" s="130"/>
-      <c r="N18" s="130"/>
-      <c r="O18" s="130"/>
-      <c r="P18" s="130"/>
-      <c r="Q18" s="130"/>
-      <c r="R18" s="131"/>
-      <c r="S18" s="133"/>
-      <c r="T18" s="134"/>
-      <c r="U18" s="134"/>
-      <c r="V18" s="134"/>
-      <c r="W18" s="134"/>
-      <c r="X18" s="134"/>
-      <c r="Y18" s="134"/>
-      <c r="Z18" s="134"/>
-      <c r="AA18" s="135"/>
-      <c r="AB18" s="138"/>
-      <c r="AC18" s="130"/>
-      <c r="AD18" s="130"/>
-      <c r="AE18" s="130"/>
-      <c r="AF18" s="130"/>
-      <c r="AG18" s="130"/>
-      <c r="AH18" s="130"/>
-      <c r="AI18" s="136"/>
+      <c r="B18" s="160"/>
+      <c r="C18" s="161"/>
+      <c r="D18" s="161"/>
+      <c r="E18" s="161"/>
+      <c r="F18" s="161"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="162"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="161"/>
+      <c r="L18" s="161"/>
+      <c r="M18" s="161"/>
+      <c r="N18" s="161"/>
+      <c r="O18" s="161"/>
+      <c r="P18" s="161"/>
+      <c r="Q18" s="161"/>
+      <c r="R18" s="162"/>
+      <c r="S18" s="164"/>
+      <c r="T18" s="165"/>
+      <c r="U18" s="165"/>
+      <c r="V18" s="165"/>
+      <c r="W18" s="165"/>
+      <c r="X18" s="165"/>
+      <c r="Y18" s="165"/>
+      <c r="Z18" s="165"/>
+      <c r="AA18" s="166"/>
+      <c r="AB18" s="167"/>
+      <c r="AC18" s="161"/>
+      <c r="AD18" s="161"/>
+      <c r="AE18" s="161"/>
+      <c r="AF18" s="161"/>
+      <c r="AG18" s="161"/>
+      <c r="AH18" s="161"/>
+      <c r="AI18" s="168"/>
       <c r="AM18" s="4"/>
-      <c r="AN18" s="125"/>
-      <c r="AO18" s="125"/>
-      <c r="AP18" s="125"/>
-      <c r="AQ18" s="125"/>
-      <c r="AR18" s="125"/>
-      <c r="AS18" s="125"/>
-      <c r="AT18" s="125"/>
-      <c r="AU18" s="125"/>
-      <c r="AV18" s="125"/>
-      <c r="AW18" s="125"/>
-      <c r="AX18" s="125"/>
-      <c r="AY18" s="125"/>
-      <c r="AZ18" s="125"/>
-      <c r="BA18" s="125"/>
-      <c r="BB18" s="125"/>
-      <c r="BC18" s="125"/>
-      <c r="BD18" s="125"/>
-      <c r="BE18" s="124"/>
-      <c r="BF18" s="124"/>
-      <c r="BG18" s="124"/>
-      <c r="BH18" s="124"/>
-      <c r="BI18" s="124"/>
-      <c r="BJ18" s="124"/>
-      <c r="BK18" s="124"/>
-      <c r="BL18" s="124"/>
-      <c r="BM18" s="124"/>
-      <c r="BN18" s="137"/>
-      <c r="BO18" s="125"/>
-      <c r="BP18" s="125"/>
-      <c r="BQ18" s="125"/>
-      <c r="BR18" s="125"/>
-      <c r="BS18" s="125"/>
-      <c r="BT18" s="125"/>
-      <c r="BU18" s="125"/>
+      <c r="AN18" s="169"/>
+      <c r="AO18" s="169"/>
+      <c r="AP18" s="169"/>
+      <c r="AQ18" s="169"/>
+      <c r="AR18" s="169"/>
+      <c r="AS18" s="169"/>
+      <c r="AT18" s="169"/>
+      <c r="AU18" s="169"/>
+      <c r="AV18" s="169"/>
+      <c r="AW18" s="169"/>
+      <c r="AX18" s="169"/>
+      <c r="AY18" s="169"/>
+      <c r="AZ18" s="169"/>
+      <c r="BA18" s="169"/>
+      <c r="BB18" s="169"/>
+      <c r="BC18" s="169"/>
+      <c r="BD18" s="169"/>
+      <c r="BE18" s="170"/>
+      <c r="BF18" s="170"/>
+      <c r="BG18" s="170"/>
+      <c r="BH18" s="170"/>
+      <c r="BI18" s="170"/>
+      <c r="BJ18" s="170"/>
+      <c r="BK18" s="170"/>
+      <c r="BL18" s="170"/>
+      <c r="BM18" s="170"/>
+      <c r="BN18" s="171"/>
+      <c r="BO18" s="169"/>
+      <c r="BP18" s="169"/>
+      <c r="BQ18" s="169"/>
+      <c r="BR18" s="169"/>
+      <c r="BS18" s="169"/>
+      <c r="BT18" s="169"/>
+      <c r="BU18" s="169"/>
       <c r="BV18" s="26"/>
       <c r="BW18" s="26"/>
       <c r="BX18" s="26"/>
@@ -5354,75 +5459,75 @@
       <c r="DG18" s="5"/>
     </row>
     <row r="19" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B19" s="129"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="130"/>
-      <c r="F19" s="130"/>
-      <c r="G19" s="130"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
-      <c r="K19" s="130"/>
-      <c r="L19" s="130"/>
-      <c r="M19" s="130"/>
-      <c r="N19" s="130"/>
-      <c r="O19" s="130"/>
-      <c r="P19" s="130"/>
-      <c r="Q19" s="130"/>
-      <c r="R19" s="131"/>
-      <c r="S19" s="133"/>
-      <c r="T19" s="134"/>
-      <c r="U19" s="134"/>
-      <c r="V19" s="134"/>
-      <c r="W19" s="134"/>
-      <c r="X19" s="134"/>
-      <c r="Y19" s="134"/>
-      <c r="Z19" s="134"/>
-      <c r="AA19" s="135"/>
-      <c r="AB19" s="138"/>
-      <c r="AC19" s="130"/>
-      <c r="AD19" s="130"/>
-      <c r="AE19" s="130"/>
-      <c r="AF19" s="130"/>
-      <c r="AG19" s="130"/>
-      <c r="AH19" s="130"/>
-      <c r="AI19" s="136"/>
+      <c r="B19" s="160"/>
+      <c r="C19" s="161"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="161"/>
+      <c r="G19" s="161"/>
+      <c r="H19" s="161"/>
+      <c r="I19" s="162"/>
+      <c r="J19" s="163"/>
+      <c r="K19" s="161"/>
+      <c r="L19" s="161"/>
+      <c r="M19" s="161"/>
+      <c r="N19" s="161"/>
+      <c r="O19" s="161"/>
+      <c r="P19" s="161"/>
+      <c r="Q19" s="161"/>
+      <c r="R19" s="162"/>
+      <c r="S19" s="164"/>
+      <c r="T19" s="165"/>
+      <c r="U19" s="165"/>
+      <c r="V19" s="165"/>
+      <c r="W19" s="165"/>
+      <c r="X19" s="165"/>
+      <c r="Y19" s="165"/>
+      <c r="Z19" s="165"/>
+      <c r="AA19" s="166"/>
+      <c r="AB19" s="167"/>
+      <c r="AC19" s="161"/>
+      <c r="AD19" s="161"/>
+      <c r="AE19" s="161"/>
+      <c r="AF19" s="161"/>
+      <c r="AG19" s="161"/>
+      <c r="AH19" s="161"/>
+      <c r="AI19" s="168"/>
       <c r="AM19" s="4"/>
-      <c r="AN19" s="125"/>
-      <c r="AO19" s="125"/>
-      <c r="AP19" s="125"/>
-      <c r="AQ19" s="125"/>
-      <c r="AR19" s="125"/>
-      <c r="AS19" s="125"/>
-      <c r="AT19" s="125"/>
-      <c r="AU19" s="125"/>
-      <c r="AV19" s="125"/>
-      <c r="AW19" s="125"/>
-      <c r="AX19" s="125"/>
-      <c r="AY19" s="125"/>
-      <c r="AZ19" s="125"/>
-      <c r="BA19" s="125"/>
-      <c r="BB19" s="125"/>
-      <c r="BC19" s="125"/>
-      <c r="BD19" s="125"/>
-      <c r="BE19" s="124"/>
-      <c r="BF19" s="124"/>
-      <c r="BG19" s="124"/>
-      <c r="BH19" s="124"/>
-      <c r="BI19" s="124"/>
-      <c r="BJ19" s="124"/>
-      <c r="BK19" s="124"/>
-      <c r="BL19" s="124"/>
-      <c r="BM19" s="124"/>
-      <c r="BN19" s="137"/>
-      <c r="BO19" s="125"/>
-      <c r="BP19" s="125"/>
-      <c r="BQ19" s="125"/>
-      <c r="BR19" s="125"/>
-      <c r="BS19" s="125"/>
-      <c r="BT19" s="125"/>
-      <c r="BU19" s="125"/>
+      <c r="AN19" s="169"/>
+      <c r="AO19" s="169"/>
+      <c r="AP19" s="169"/>
+      <c r="AQ19" s="169"/>
+      <c r="AR19" s="169"/>
+      <c r="AS19" s="169"/>
+      <c r="AT19" s="169"/>
+      <c r="AU19" s="169"/>
+      <c r="AV19" s="169"/>
+      <c r="AW19" s="169"/>
+      <c r="AX19" s="169"/>
+      <c r="AY19" s="169"/>
+      <c r="AZ19" s="169"/>
+      <c r="BA19" s="169"/>
+      <c r="BB19" s="169"/>
+      <c r="BC19" s="169"/>
+      <c r="BD19" s="169"/>
+      <c r="BE19" s="170"/>
+      <c r="BF19" s="170"/>
+      <c r="BG19" s="170"/>
+      <c r="BH19" s="170"/>
+      <c r="BI19" s="170"/>
+      <c r="BJ19" s="170"/>
+      <c r="BK19" s="170"/>
+      <c r="BL19" s="170"/>
+      <c r="BM19" s="170"/>
+      <c r="BN19" s="171"/>
+      <c r="BO19" s="169"/>
+      <c r="BP19" s="169"/>
+      <c r="BQ19" s="169"/>
+      <c r="BR19" s="169"/>
+      <c r="BS19" s="169"/>
+      <c r="BT19" s="169"/>
+      <c r="BU19" s="169"/>
       <c r="BV19" s="26"/>
       <c r="BW19" s="26"/>
       <c r="BX19" s="26"/>
@@ -5463,75 +5568,75 @@
       <c r="DG19" s="5"/>
     </row>
     <row r="20" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B20" s="129"/>
-      <c r="C20" s="130"/>
-      <c r="D20" s="130"/>
-      <c r="E20" s="130"/>
-      <c r="F20" s="130"/>
-      <c r="G20" s="130"/>
-      <c r="H20" s="130"/>
-      <c r="I20" s="131"/>
-      <c r="J20" s="132"/>
-      <c r="K20" s="130"/>
-      <c r="L20" s="130"/>
-      <c r="M20" s="130"/>
-      <c r="N20" s="130"/>
-      <c r="O20" s="130"/>
-      <c r="P20" s="130"/>
-      <c r="Q20" s="130"/>
-      <c r="R20" s="131"/>
-      <c r="S20" s="133"/>
-      <c r="T20" s="134"/>
-      <c r="U20" s="134"/>
-      <c r="V20" s="134"/>
-      <c r="W20" s="134"/>
-      <c r="X20" s="134"/>
-      <c r="Y20" s="134"/>
-      <c r="Z20" s="134"/>
-      <c r="AA20" s="135"/>
-      <c r="AB20" s="138"/>
-      <c r="AC20" s="130"/>
-      <c r="AD20" s="130"/>
-      <c r="AE20" s="130"/>
-      <c r="AF20" s="130"/>
-      <c r="AG20" s="130"/>
-      <c r="AH20" s="130"/>
-      <c r="AI20" s="136"/>
+      <c r="B20" s="160"/>
+      <c r="C20" s="161"/>
+      <c r="D20" s="161"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="161"/>
+      <c r="I20" s="162"/>
+      <c r="J20" s="163"/>
+      <c r="K20" s="161"/>
+      <c r="L20" s="161"/>
+      <c r="M20" s="161"/>
+      <c r="N20" s="161"/>
+      <c r="O20" s="161"/>
+      <c r="P20" s="161"/>
+      <c r="Q20" s="161"/>
+      <c r="R20" s="162"/>
+      <c r="S20" s="164"/>
+      <c r="T20" s="165"/>
+      <c r="U20" s="165"/>
+      <c r="V20" s="165"/>
+      <c r="W20" s="165"/>
+      <c r="X20" s="165"/>
+      <c r="Y20" s="165"/>
+      <c r="Z20" s="165"/>
+      <c r="AA20" s="166"/>
+      <c r="AB20" s="167"/>
+      <c r="AC20" s="161"/>
+      <c r="AD20" s="161"/>
+      <c r="AE20" s="161"/>
+      <c r="AF20" s="161"/>
+      <c r="AG20" s="161"/>
+      <c r="AH20" s="161"/>
+      <c r="AI20" s="168"/>
       <c r="AM20" s="4"/>
-      <c r="AN20" s="125"/>
-      <c r="AO20" s="125"/>
-      <c r="AP20" s="125"/>
-      <c r="AQ20" s="125"/>
-      <c r="AR20" s="125"/>
-      <c r="AS20" s="125"/>
-      <c r="AT20" s="125"/>
-      <c r="AU20" s="125"/>
-      <c r="AV20" s="125"/>
-      <c r="AW20" s="125"/>
-      <c r="AX20" s="125"/>
-      <c r="AY20" s="125"/>
-      <c r="AZ20" s="125"/>
-      <c r="BA20" s="125"/>
-      <c r="BB20" s="125"/>
-      <c r="BC20" s="125"/>
-      <c r="BD20" s="125"/>
-      <c r="BE20" s="124"/>
-      <c r="BF20" s="124"/>
-      <c r="BG20" s="124"/>
-      <c r="BH20" s="124"/>
-      <c r="BI20" s="124"/>
-      <c r="BJ20" s="124"/>
-      <c r="BK20" s="124"/>
-      <c r="BL20" s="124"/>
-      <c r="BM20" s="124"/>
-      <c r="BN20" s="137"/>
-      <c r="BO20" s="125"/>
-      <c r="BP20" s="125"/>
-      <c r="BQ20" s="125"/>
-      <c r="BR20" s="125"/>
-      <c r="BS20" s="125"/>
-      <c r="BT20" s="125"/>
-      <c r="BU20" s="125"/>
+      <c r="AN20" s="169"/>
+      <c r="AO20" s="169"/>
+      <c r="AP20" s="169"/>
+      <c r="AQ20" s="169"/>
+      <c r="AR20" s="169"/>
+      <c r="AS20" s="169"/>
+      <c r="AT20" s="169"/>
+      <c r="AU20" s="169"/>
+      <c r="AV20" s="169"/>
+      <c r="AW20" s="169"/>
+      <c r="AX20" s="169"/>
+      <c r="AY20" s="169"/>
+      <c r="AZ20" s="169"/>
+      <c r="BA20" s="169"/>
+      <c r="BB20" s="169"/>
+      <c r="BC20" s="169"/>
+      <c r="BD20" s="169"/>
+      <c r="BE20" s="170"/>
+      <c r="BF20" s="170"/>
+      <c r="BG20" s="170"/>
+      <c r="BH20" s="170"/>
+      <c r="BI20" s="170"/>
+      <c r="BJ20" s="170"/>
+      <c r="BK20" s="170"/>
+      <c r="BL20" s="170"/>
+      <c r="BM20" s="170"/>
+      <c r="BN20" s="171"/>
+      <c r="BO20" s="169"/>
+      <c r="BP20" s="169"/>
+      <c r="BQ20" s="169"/>
+      <c r="BR20" s="169"/>
+      <c r="BS20" s="169"/>
+      <c r="BT20" s="169"/>
+      <c r="BU20" s="169"/>
       <c r="BV20" s="26"/>
       <c r="BW20" s="26"/>
       <c r="BX20" s="26"/>
@@ -5572,75 +5677,75 @@
       <c r="DG20" s="5"/>
     </row>
     <row r="21" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B21" s="129"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="130"/>
-      <c r="E21" s="130"/>
-      <c r="F21" s="130"/>
-      <c r="G21" s="130"/>
-      <c r="H21" s="130"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="132"/>
-      <c r="K21" s="130"/>
-      <c r="L21" s="130"/>
-      <c r="M21" s="130"/>
-      <c r="N21" s="130"/>
-      <c r="O21" s="130"/>
-      <c r="P21" s="130"/>
-      <c r="Q21" s="130"/>
-      <c r="R21" s="131"/>
-      <c r="S21" s="133"/>
-      <c r="T21" s="134"/>
-      <c r="U21" s="134"/>
-      <c r="V21" s="134"/>
-      <c r="W21" s="134"/>
-      <c r="X21" s="134"/>
-      <c r="Y21" s="134"/>
-      <c r="Z21" s="134"/>
-      <c r="AA21" s="135"/>
-      <c r="AB21" s="138"/>
-      <c r="AC21" s="130"/>
-      <c r="AD21" s="130"/>
-      <c r="AE21" s="130"/>
-      <c r="AF21" s="130"/>
-      <c r="AG21" s="130"/>
-      <c r="AH21" s="130"/>
-      <c r="AI21" s="136"/>
+      <c r="B21" s="160"/>
+      <c r="C21" s="161"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="161"/>
+      <c r="I21" s="162"/>
+      <c r="J21" s="163"/>
+      <c r="K21" s="161"/>
+      <c r="L21" s="161"/>
+      <c r="M21" s="161"/>
+      <c r="N21" s="161"/>
+      <c r="O21" s="161"/>
+      <c r="P21" s="161"/>
+      <c r="Q21" s="161"/>
+      <c r="R21" s="162"/>
+      <c r="S21" s="164"/>
+      <c r="T21" s="165"/>
+      <c r="U21" s="165"/>
+      <c r="V21" s="165"/>
+      <c r="W21" s="165"/>
+      <c r="X21" s="165"/>
+      <c r="Y21" s="165"/>
+      <c r="Z21" s="165"/>
+      <c r="AA21" s="166"/>
+      <c r="AB21" s="167"/>
+      <c r="AC21" s="161"/>
+      <c r="AD21" s="161"/>
+      <c r="AE21" s="161"/>
+      <c r="AF21" s="161"/>
+      <c r="AG21" s="161"/>
+      <c r="AH21" s="161"/>
+      <c r="AI21" s="168"/>
       <c r="AM21" s="4"/>
-      <c r="AN21" s="125"/>
-      <c r="AO21" s="125"/>
-      <c r="AP21" s="125"/>
-      <c r="AQ21" s="125"/>
-      <c r="AR21" s="125"/>
-      <c r="AS21" s="125"/>
-      <c r="AT21" s="125"/>
-      <c r="AU21" s="125"/>
-      <c r="AV21" s="125"/>
-      <c r="AW21" s="125"/>
-      <c r="AX21" s="125"/>
-      <c r="AY21" s="125"/>
-      <c r="AZ21" s="125"/>
-      <c r="BA21" s="125"/>
-      <c r="BB21" s="125"/>
-      <c r="BC21" s="125"/>
-      <c r="BD21" s="125"/>
-      <c r="BE21" s="124"/>
-      <c r="BF21" s="124"/>
-      <c r="BG21" s="124"/>
-      <c r="BH21" s="124"/>
-      <c r="BI21" s="124"/>
-      <c r="BJ21" s="124"/>
-      <c r="BK21" s="124"/>
-      <c r="BL21" s="124"/>
-      <c r="BM21" s="124"/>
-      <c r="BN21" s="137"/>
-      <c r="BO21" s="125"/>
-      <c r="BP21" s="125"/>
-      <c r="BQ21" s="125"/>
-      <c r="BR21" s="125"/>
-      <c r="BS21" s="125"/>
-      <c r="BT21" s="125"/>
-      <c r="BU21" s="125"/>
+      <c r="AN21" s="169"/>
+      <c r="AO21" s="169"/>
+      <c r="AP21" s="169"/>
+      <c r="AQ21" s="169"/>
+      <c r="AR21" s="169"/>
+      <c r="AS21" s="169"/>
+      <c r="AT21" s="169"/>
+      <c r="AU21" s="169"/>
+      <c r="AV21" s="169"/>
+      <c r="AW21" s="169"/>
+      <c r="AX21" s="169"/>
+      <c r="AY21" s="169"/>
+      <c r="AZ21" s="169"/>
+      <c r="BA21" s="169"/>
+      <c r="BB21" s="169"/>
+      <c r="BC21" s="169"/>
+      <c r="BD21" s="169"/>
+      <c r="BE21" s="170"/>
+      <c r="BF21" s="170"/>
+      <c r="BG21" s="170"/>
+      <c r="BH21" s="170"/>
+      <c r="BI21" s="170"/>
+      <c r="BJ21" s="170"/>
+      <c r="BK21" s="170"/>
+      <c r="BL21" s="170"/>
+      <c r="BM21" s="170"/>
+      <c r="BN21" s="171"/>
+      <c r="BO21" s="169"/>
+      <c r="BP21" s="169"/>
+      <c r="BQ21" s="169"/>
+      <c r="BR21" s="169"/>
+      <c r="BS21" s="169"/>
+      <c r="BT21" s="169"/>
+      <c r="BU21" s="169"/>
       <c r="BV21" s="26"/>
       <c r="BW21" s="26"/>
       <c r="BX21" s="26"/>
@@ -5681,75 +5786,75 @@
       <c r="DG21" s="5"/>
     </row>
     <row r="22" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B22" s="129"/>
-      <c r="C22" s="130"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="130"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="132"/>
-      <c r="K22" s="130"/>
-      <c r="L22" s="130"/>
-      <c r="M22" s="130"/>
-      <c r="N22" s="130"/>
-      <c r="O22" s="130"/>
-      <c r="P22" s="130"/>
-      <c r="Q22" s="130"/>
-      <c r="R22" s="131"/>
-      <c r="S22" s="133"/>
-      <c r="T22" s="134"/>
-      <c r="U22" s="134"/>
-      <c r="V22" s="134"/>
-      <c r="W22" s="134"/>
-      <c r="X22" s="134"/>
-      <c r="Y22" s="134"/>
-      <c r="Z22" s="134"/>
-      <c r="AA22" s="135"/>
-      <c r="AB22" s="138"/>
-      <c r="AC22" s="130"/>
-      <c r="AD22" s="130"/>
-      <c r="AE22" s="130"/>
-      <c r="AF22" s="130"/>
-      <c r="AG22" s="130"/>
-      <c r="AH22" s="130"/>
-      <c r="AI22" s="136"/>
+      <c r="B22" s="160"/>
+      <c r="C22" s="161"/>
+      <c r="D22" s="161"/>
+      <c r="E22" s="161"/>
+      <c r="F22" s="161"/>
+      <c r="G22" s="161"/>
+      <c r="H22" s="161"/>
+      <c r="I22" s="162"/>
+      <c r="J22" s="163"/>
+      <c r="K22" s="161"/>
+      <c r="L22" s="161"/>
+      <c r="M22" s="161"/>
+      <c r="N22" s="161"/>
+      <c r="O22" s="161"/>
+      <c r="P22" s="161"/>
+      <c r="Q22" s="161"/>
+      <c r="R22" s="162"/>
+      <c r="S22" s="164"/>
+      <c r="T22" s="165"/>
+      <c r="U22" s="165"/>
+      <c r="V22" s="165"/>
+      <c r="W22" s="165"/>
+      <c r="X22" s="165"/>
+      <c r="Y22" s="165"/>
+      <c r="Z22" s="165"/>
+      <c r="AA22" s="166"/>
+      <c r="AB22" s="167"/>
+      <c r="AC22" s="161"/>
+      <c r="AD22" s="161"/>
+      <c r="AE22" s="161"/>
+      <c r="AF22" s="161"/>
+      <c r="AG22" s="161"/>
+      <c r="AH22" s="161"/>
+      <c r="AI22" s="168"/>
       <c r="AM22" s="4"/>
-      <c r="AN22" s="125"/>
-      <c r="AO22" s="125"/>
-      <c r="AP22" s="125"/>
-      <c r="AQ22" s="125"/>
-      <c r="AR22" s="125"/>
-      <c r="AS22" s="125"/>
-      <c r="AT22" s="125"/>
-      <c r="AU22" s="125"/>
-      <c r="AV22" s="125"/>
-      <c r="AW22" s="125"/>
-      <c r="AX22" s="125"/>
-      <c r="AY22" s="125"/>
-      <c r="AZ22" s="125"/>
-      <c r="BA22" s="125"/>
-      <c r="BB22" s="125"/>
-      <c r="BC22" s="125"/>
-      <c r="BD22" s="125"/>
-      <c r="BE22" s="124"/>
-      <c r="BF22" s="124"/>
-      <c r="BG22" s="124"/>
-      <c r="BH22" s="124"/>
-      <c r="BI22" s="124"/>
-      <c r="BJ22" s="124"/>
-      <c r="BK22" s="124"/>
-      <c r="BL22" s="124"/>
-      <c r="BM22" s="124"/>
-      <c r="BN22" s="137"/>
-      <c r="BO22" s="125"/>
-      <c r="BP22" s="125"/>
-      <c r="BQ22" s="125"/>
-      <c r="BR22" s="125"/>
-      <c r="BS22" s="125"/>
-      <c r="BT22" s="125"/>
-      <c r="BU22" s="125"/>
+      <c r="AN22" s="169"/>
+      <c r="AO22" s="169"/>
+      <c r="AP22" s="169"/>
+      <c r="AQ22" s="169"/>
+      <c r="AR22" s="169"/>
+      <c r="AS22" s="169"/>
+      <c r="AT22" s="169"/>
+      <c r="AU22" s="169"/>
+      <c r="AV22" s="169"/>
+      <c r="AW22" s="169"/>
+      <c r="AX22" s="169"/>
+      <c r="AY22" s="169"/>
+      <c r="AZ22" s="169"/>
+      <c r="BA22" s="169"/>
+      <c r="BB22" s="169"/>
+      <c r="BC22" s="169"/>
+      <c r="BD22" s="169"/>
+      <c r="BE22" s="170"/>
+      <c r="BF22" s="170"/>
+      <c r="BG22" s="170"/>
+      <c r="BH22" s="170"/>
+      <c r="BI22" s="170"/>
+      <c r="BJ22" s="170"/>
+      <c r="BK22" s="170"/>
+      <c r="BL22" s="170"/>
+      <c r="BM22" s="170"/>
+      <c r="BN22" s="171"/>
+      <c r="BO22" s="169"/>
+      <c r="BP22" s="169"/>
+      <c r="BQ22" s="169"/>
+      <c r="BR22" s="169"/>
+      <c r="BS22" s="169"/>
+      <c r="BT22" s="169"/>
+      <c r="BU22" s="169"/>
       <c r="BV22" s="26"/>
       <c r="BW22" s="26"/>
       <c r="BX22" s="26"/>
@@ -5790,75 +5895,75 @@
       <c r="DG22" s="5"/>
     </row>
     <row r="23" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B23" s="129"/>
-      <c r="C23" s="130"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="130"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="131"/>
-      <c r="J23" s="132"/>
-      <c r="K23" s="130"/>
-      <c r="L23" s="130"/>
-      <c r="M23" s="130"/>
-      <c r="N23" s="130"/>
-      <c r="O23" s="130"/>
-      <c r="P23" s="130"/>
-      <c r="Q23" s="130"/>
-      <c r="R23" s="131"/>
-      <c r="S23" s="133"/>
-      <c r="T23" s="134"/>
-      <c r="U23" s="134"/>
-      <c r="V23" s="134"/>
-      <c r="W23" s="134"/>
-      <c r="X23" s="134"/>
-      <c r="Y23" s="134"/>
-      <c r="Z23" s="134"/>
-      <c r="AA23" s="135"/>
-      <c r="AB23" s="132"/>
-      <c r="AC23" s="130"/>
-      <c r="AD23" s="130"/>
-      <c r="AE23" s="130"/>
-      <c r="AF23" s="130"/>
-      <c r="AG23" s="130"/>
-      <c r="AH23" s="130"/>
-      <c r="AI23" s="136"/>
+      <c r="B23" s="160"/>
+      <c r="C23" s="161"/>
+      <c r="D23" s="161"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="162"/>
+      <c r="J23" s="163"/>
+      <c r="K23" s="161"/>
+      <c r="L23" s="161"/>
+      <c r="M23" s="161"/>
+      <c r="N23" s="161"/>
+      <c r="O23" s="161"/>
+      <c r="P23" s="161"/>
+      <c r="Q23" s="161"/>
+      <c r="R23" s="162"/>
+      <c r="S23" s="164"/>
+      <c r="T23" s="165"/>
+      <c r="U23" s="165"/>
+      <c r="V23" s="165"/>
+      <c r="W23" s="165"/>
+      <c r="X23" s="165"/>
+      <c r="Y23" s="165"/>
+      <c r="Z23" s="165"/>
+      <c r="AA23" s="166"/>
+      <c r="AB23" s="163"/>
+      <c r="AC23" s="161"/>
+      <c r="AD23" s="161"/>
+      <c r="AE23" s="161"/>
+      <c r="AF23" s="161"/>
+      <c r="AG23" s="161"/>
+      <c r="AH23" s="161"/>
+      <c r="AI23" s="168"/>
       <c r="AM23" s="4"/>
-      <c r="AN23" s="125"/>
-      <c r="AO23" s="125"/>
-      <c r="AP23" s="125"/>
-      <c r="AQ23" s="125"/>
-      <c r="AR23" s="125"/>
-      <c r="AS23" s="125"/>
-      <c r="AT23" s="125"/>
-      <c r="AU23" s="125"/>
-      <c r="AV23" s="125"/>
-      <c r="AW23" s="125"/>
-      <c r="AX23" s="125"/>
-      <c r="AY23" s="125"/>
-      <c r="AZ23" s="125"/>
-      <c r="BA23" s="125"/>
-      <c r="BB23" s="125"/>
-      <c r="BC23" s="125"/>
-      <c r="BD23" s="125"/>
-      <c r="BE23" s="124"/>
-      <c r="BF23" s="124"/>
-      <c r="BG23" s="124"/>
-      <c r="BH23" s="124"/>
-      <c r="BI23" s="124"/>
-      <c r="BJ23" s="124"/>
-      <c r="BK23" s="124"/>
-      <c r="BL23" s="124"/>
-      <c r="BM23" s="124"/>
-      <c r="BN23" s="125"/>
-      <c r="BO23" s="125"/>
-      <c r="BP23" s="125"/>
-      <c r="BQ23" s="125"/>
-      <c r="BR23" s="125"/>
-      <c r="BS23" s="125"/>
-      <c r="BT23" s="125"/>
-      <c r="BU23" s="125"/>
+      <c r="AN23" s="169"/>
+      <c r="AO23" s="169"/>
+      <c r="AP23" s="169"/>
+      <c r="AQ23" s="169"/>
+      <c r="AR23" s="169"/>
+      <c r="AS23" s="169"/>
+      <c r="AT23" s="169"/>
+      <c r="AU23" s="169"/>
+      <c r="AV23" s="169"/>
+      <c r="AW23" s="169"/>
+      <c r="AX23" s="169"/>
+      <c r="AY23" s="169"/>
+      <c r="AZ23" s="169"/>
+      <c r="BA23" s="169"/>
+      <c r="BB23" s="169"/>
+      <c r="BC23" s="169"/>
+      <c r="BD23" s="169"/>
+      <c r="BE23" s="170"/>
+      <c r="BF23" s="170"/>
+      <c r="BG23" s="170"/>
+      <c r="BH23" s="170"/>
+      <c r="BI23" s="170"/>
+      <c r="BJ23" s="170"/>
+      <c r="BK23" s="170"/>
+      <c r="BL23" s="170"/>
+      <c r="BM23" s="170"/>
+      <c r="BN23" s="169"/>
+      <c r="BO23" s="169"/>
+      <c r="BP23" s="169"/>
+      <c r="BQ23" s="169"/>
+      <c r="BR23" s="169"/>
+      <c r="BS23" s="169"/>
+      <c r="BT23" s="169"/>
+      <c r="BU23" s="169"/>
       <c r="BV23" s="26"/>
       <c r="BW23" s="26"/>
       <c r="BX23" s="26"/>
@@ -6008,77 +6113,77 @@
       <c r="DG24" s="4"/>
     </row>
     <row r="25" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B25" s="121" t="s">
+      <c r="B25" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="122"/>
-      <c r="D25" s="122"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="122"/>
-      <c r="I25" s="122"/>
-      <c r="J25" s="122"/>
-      <c r="K25" s="122"/>
-      <c r="L25" s="122"/>
-      <c r="M25" s="122"/>
-      <c r="N25" s="122"/>
-      <c r="O25" s="122"/>
-      <c r="P25" s="122"/>
-      <c r="Q25" s="122"/>
-      <c r="R25" s="122"/>
-      <c r="S25" s="122"/>
-      <c r="T25" s="122"/>
-      <c r="U25" s="122"/>
-      <c r="V25" s="122"/>
-      <c r="W25" s="122"/>
-      <c r="X25" s="122"/>
-      <c r="Y25" s="122"/>
-      <c r="Z25" s="122"/>
-      <c r="AA25" s="122"/>
-      <c r="AB25" s="122"/>
-      <c r="AC25" s="122"/>
-      <c r="AD25" s="122"/>
-      <c r="AE25" s="122"/>
-      <c r="AF25" s="122"/>
-      <c r="AG25" s="122"/>
-      <c r="AH25" s="122"/>
-      <c r="AI25" s="123"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="124"/>
+      <c r="F25" s="124"/>
+      <c r="G25" s="124"/>
+      <c r="H25" s="124"/>
+      <c r="I25" s="124"/>
+      <c r="J25" s="124"/>
+      <c r="K25" s="124"/>
+      <c r="L25" s="124"/>
+      <c r="M25" s="124"/>
+      <c r="N25" s="124"/>
+      <c r="O25" s="124"/>
+      <c r="P25" s="124"/>
+      <c r="Q25" s="124"/>
+      <c r="R25" s="124"/>
+      <c r="S25" s="124"/>
+      <c r="T25" s="124"/>
+      <c r="U25" s="124"/>
+      <c r="V25" s="124"/>
+      <c r="W25" s="124"/>
+      <c r="X25" s="124"/>
+      <c r="Y25" s="124"/>
+      <c r="Z25" s="124"/>
+      <c r="AA25" s="124"/>
+      <c r="AB25" s="124"/>
+      <c r="AC25" s="124"/>
+      <c r="AD25" s="124"/>
+      <c r="AE25" s="124"/>
+      <c r="AF25" s="124"/>
+      <c r="AG25" s="124"/>
+      <c r="AH25" s="124"/>
+      <c r="AI25" s="180"/>
       <c r="AM25" s="4"/>
-      <c r="AN25" s="122"/>
-      <c r="AO25" s="122"/>
-      <c r="AP25" s="122"/>
-      <c r="AQ25" s="122"/>
-      <c r="AR25" s="122"/>
-      <c r="AS25" s="122"/>
-      <c r="AT25" s="122"/>
-      <c r="AU25" s="122"/>
-      <c r="AV25" s="122"/>
-      <c r="AW25" s="122"/>
-      <c r="AX25" s="122"/>
-      <c r="AY25" s="122"/>
-      <c r="AZ25" s="122"/>
-      <c r="BA25" s="122"/>
-      <c r="BB25" s="122"/>
-      <c r="BC25" s="122"/>
-      <c r="BD25" s="122"/>
-      <c r="BE25" s="122"/>
-      <c r="BF25" s="122"/>
-      <c r="BG25" s="122"/>
-      <c r="BH25" s="122"/>
-      <c r="BI25" s="122"/>
-      <c r="BJ25" s="122"/>
-      <c r="BK25" s="122"/>
-      <c r="BL25" s="122"/>
-      <c r="BM25" s="122"/>
-      <c r="BN25" s="122"/>
-      <c r="BO25" s="122"/>
-      <c r="BP25" s="122"/>
-      <c r="BQ25" s="122"/>
-      <c r="BR25" s="122"/>
-      <c r="BS25" s="122"/>
-      <c r="BT25" s="122"/>
-      <c r="BU25" s="122"/>
+      <c r="AN25" s="124"/>
+      <c r="AO25" s="124"/>
+      <c r="AP25" s="124"/>
+      <c r="AQ25" s="124"/>
+      <c r="AR25" s="124"/>
+      <c r="AS25" s="124"/>
+      <c r="AT25" s="124"/>
+      <c r="AU25" s="124"/>
+      <c r="AV25" s="124"/>
+      <c r="AW25" s="124"/>
+      <c r="AX25" s="124"/>
+      <c r="AY25" s="124"/>
+      <c r="AZ25" s="124"/>
+      <c r="BA25" s="124"/>
+      <c r="BB25" s="124"/>
+      <c r="BC25" s="124"/>
+      <c r="BD25" s="124"/>
+      <c r="BE25" s="124"/>
+      <c r="BF25" s="124"/>
+      <c r="BG25" s="124"/>
+      <c r="BH25" s="124"/>
+      <c r="BI25" s="124"/>
+      <c r="BJ25" s="124"/>
+      <c r="BK25" s="124"/>
+      <c r="BL25" s="124"/>
+      <c r="BM25" s="124"/>
+      <c r="BN25" s="124"/>
+      <c r="BO25" s="124"/>
+      <c r="BP25" s="124"/>
+      <c r="BQ25" s="124"/>
+      <c r="BR25" s="124"/>
+      <c r="BS25" s="124"/>
+      <c r="BT25" s="124"/>
+      <c r="BU25" s="124"/>
       <c r="BV25" s="26"/>
       <c r="BW25" s="26"/>
       <c r="BX25" s="26"/>
@@ -6228,77 +6333,77 @@
       <c r="DG26" s="4"/>
     </row>
     <row r="27" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B27" s="126">
+      <c r="B27" s="181">
         <v>44351</v>
       </c>
-      <c r="C27" s="127"/>
-      <c r="D27" s="127"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="127"/>
-      <c r="G27" s="127"/>
-      <c r="H27" s="127"/>
-      <c r="I27" s="127"/>
-      <c r="J27" s="127"/>
-      <c r="K27" s="127"/>
-      <c r="L27" s="127"/>
-      <c r="M27" s="127"/>
-      <c r="N27" s="127"/>
-      <c r="O27" s="127"/>
-      <c r="P27" s="127"/>
-      <c r="Q27" s="127"/>
-      <c r="R27" s="127"/>
-      <c r="S27" s="127"/>
-      <c r="T27" s="127"/>
-      <c r="U27" s="127"/>
-      <c r="V27" s="127"/>
-      <c r="W27" s="127"/>
-      <c r="X27" s="127"/>
-      <c r="Y27" s="127"/>
-      <c r="Z27" s="127"/>
-      <c r="AA27" s="127"/>
-      <c r="AB27" s="127"/>
-      <c r="AC27" s="127"/>
-      <c r="AD27" s="127"/>
-      <c r="AE27" s="127"/>
-      <c r="AF27" s="127"/>
-      <c r="AG27" s="127"/>
-      <c r="AH27" s="127"/>
-      <c r="AI27" s="128"/>
+      <c r="C27" s="146"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="146"/>
+      <c r="K27" s="146"/>
+      <c r="L27" s="146"/>
+      <c r="M27" s="146"/>
+      <c r="N27" s="146"/>
+      <c r="O27" s="146"/>
+      <c r="P27" s="146"/>
+      <c r="Q27" s="146"/>
+      <c r="R27" s="146"/>
+      <c r="S27" s="146"/>
+      <c r="T27" s="146"/>
+      <c r="U27" s="146"/>
+      <c r="V27" s="146"/>
+      <c r="W27" s="146"/>
+      <c r="X27" s="146"/>
+      <c r="Y27" s="146"/>
+      <c r="Z27" s="146"/>
+      <c r="AA27" s="146"/>
+      <c r="AB27" s="146"/>
+      <c r="AC27" s="146"/>
+      <c r="AD27" s="146"/>
+      <c r="AE27" s="146"/>
+      <c r="AF27" s="146"/>
+      <c r="AG27" s="146"/>
+      <c r="AH27" s="146"/>
+      <c r="AI27" s="182"/>
       <c r="AM27" s="4"/>
-      <c r="AN27" s="127"/>
-      <c r="AO27" s="127"/>
-      <c r="AP27" s="127"/>
-      <c r="AQ27" s="127"/>
-      <c r="AR27" s="127"/>
-      <c r="AS27" s="127"/>
-      <c r="AT27" s="127"/>
-      <c r="AU27" s="127"/>
-      <c r="AV27" s="127"/>
-      <c r="AW27" s="127"/>
-      <c r="AX27" s="127"/>
-      <c r="AY27" s="127"/>
-      <c r="AZ27" s="127"/>
-      <c r="BA27" s="127"/>
-      <c r="BB27" s="127"/>
-      <c r="BC27" s="127"/>
-      <c r="BD27" s="127"/>
-      <c r="BE27" s="127"/>
-      <c r="BF27" s="127"/>
-      <c r="BG27" s="127"/>
-      <c r="BH27" s="127"/>
-      <c r="BI27" s="127"/>
-      <c r="BJ27" s="127"/>
-      <c r="BK27" s="127"/>
-      <c r="BL27" s="127"/>
-      <c r="BM27" s="127"/>
-      <c r="BN27" s="127"/>
-      <c r="BO27" s="127"/>
-      <c r="BP27" s="127"/>
-      <c r="BQ27" s="127"/>
-      <c r="BR27" s="127"/>
-      <c r="BS27" s="127"/>
-      <c r="BT27" s="127"/>
-      <c r="BU27" s="127"/>
+      <c r="AN27" s="146"/>
+      <c r="AO27" s="146"/>
+      <c r="AP27" s="146"/>
+      <c r="AQ27" s="146"/>
+      <c r="AR27" s="146"/>
+      <c r="AS27" s="146"/>
+      <c r="AT27" s="146"/>
+      <c r="AU27" s="146"/>
+      <c r="AV27" s="146"/>
+      <c r="AW27" s="146"/>
+      <c r="AX27" s="146"/>
+      <c r="AY27" s="146"/>
+      <c r="AZ27" s="146"/>
+      <c r="BA27" s="146"/>
+      <c r="BB27" s="146"/>
+      <c r="BC27" s="146"/>
+      <c r="BD27" s="146"/>
+      <c r="BE27" s="146"/>
+      <c r="BF27" s="146"/>
+      <c r="BG27" s="146"/>
+      <c r="BH27" s="146"/>
+      <c r="BI27" s="146"/>
+      <c r="BJ27" s="146"/>
+      <c r="BK27" s="146"/>
+      <c r="BL27" s="146"/>
+      <c r="BM27" s="146"/>
+      <c r="BN27" s="146"/>
+      <c r="BO27" s="146"/>
+      <c r="BP27" s="146"/>
+      <c r="BQ27" s="146"/>
+      <c r="BR27" s="146"/>
+      <c r="BS27" s="146"/>
+      <c r="BT27" s="146"/>
+      <c r="BU27" s="146"/>
       <c r="BV27" s="26"/>
       <c r="BW27" s="26"/>
       <c r="BX27" s="26"/>
@@ -6448,77 +6553,77 @@
       <c r="DG28" s="4"/>
     </row>
     <row r="29" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B29" s="121" t="s">
+      <c r="B29" s="179" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="122"/>
-      <c r="D29" s="122"/>
-      <c r="E29" s="122"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="122"/>
-      <c r="H29" s="122"/>
-      <c r="I29" s="122"/>
-      <c r="J29" s="122"/>
-      <c r="K29" s="122"/>
-      <c r="L29" s="122"/>
-      <c r="M29" s="122"/>
-      <c r="N29" s="122"/>
-      <c r="O29" s="122"/>
-      <c r="P29" s="122"/>
-      <c r="Q29" s="122"/>
-      <c r="R29" s="122"/>
-      <c r="S29" s="122"/>
-      <c r="T29" s="122"/>
-      <c r="U29" s="122"/>
-      <c r="V29" s="122"/>
-      <c r="W29" s="122"/>
-      <c r="X29" s="122"/>
-      <c r="Y29" s="122"/>
-      <c r="Z29" s="122"/>
-      <c r="AA29" s="122"/>
-      <c r="AB29" s="122"/>
-      <c r="AC29" s="122"/>
-      <c r="AD29" s="122"/>
-      <c r="AE29" s="122"/>
-      <c r="AF29" s="122"/>
-      <c r="AG29" s="122"/>
-      <c r="AH29" s="122"/>
-      <c r="AI29" s="123"/>
+      <c r="C29" s="124"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="124"/>
+      <c r="F29" s="124"/>
+      <c r="G29" s="124"/>
+      <c r="H29" s="124"/>
+      <c r="I29" s="124"/>
+      <c r="J29" s="124"/>
+      <c r="K29" s="124"/>
+      <c r="L29" s="124"/>
+      <c r="M29" s="124"/>
+      <c r="N29" s="124"/>
+      <c r="O29" s="124"/>
+      <c r="P29" s="124"/>
+      <c r="Q29" s="124"/>
+      <c r="R29" s="124"/>
+      <c r="S29" s="124"/>
+      <c r="T29" s="124"/>
+      <c r="U29" s="124"/>
+      <c r="V29" s="124"/>
+      <c r="W29" s="124"/>
+      <c r="X29" s="124"/>
+      <c r="Y29" s="124"/>
+      <c r="Z29" s="124"/>
+      <c r="AA29" s="124"/>
+      <c r="AB29" s="124"/>
+      <c r="AC29" s="124"/>
+      <c r="AD29" s="124"/>
+      <c r="AE29" s="124"/>
+      <c r="AF29" s="124"/>
+      <c r="AG29" s="124"/>
+      <c r="AH29" s="124"/>
+      <c r="AI29" s="180"/>
       <c r="AM29" s="4"/>
-      <c r="AN29" s="122"/>
-      <c r="AO29" s="122"/>
-      <c r="AP29" s="122"/>
-      <c r="AQ29" s="122"/>
-      <c r="AR29" s="122"/>
-      <c r="AS29" s="122"/>
-      <c r="AT29" s="122"/>
-      <c r="AU29" s="122"/>
-      <c r="AV29" s="122"/>
-      <c r="AW29" s="122"/>
-      <c r="AX29" s="122"/>
-      <c r="AY29" s="122"/>
-      <c r="AZ29" s="122"/>
-      <c r="BA29" s="122"/>
-      <c r="BB29" s="122"/>
-      <c r="BC29" s="122"/>
-      <c r="BD29" s="122"/>
-      <c r="BE29" s="122"/>
-      <c r="BF29" s="122"/>
-      <c r="BG29" s="122"/>
-      <c r="BH29" s="122"/>
-      <c r="BI29" s="122"/>
-      <c r="BJ29" s="122"/>
-      <c r="BK29" s="122"/>
-      <c r="BL29" s="122"/>
-      <c r="BM29" s="122"/>
-      <c r="BN29" s="122"/>
-      <c r="BO29" s="122"/>
-      <c r="BP29" s="122"/>
-      <c r="BQ29" s="122"/>
-      <c r="BR29" s="122"/>
-      <c r="BS29" s="122"/>
-      <c r="BT29" s="122"/>
-      <c r="BU29" s="122"/>
+      <c r="AN29" s="124"/>
+      <c r="AO29" s="124"/>
+      <c r="AP29" s="124"/>
+      <c r="AQ29" s="124"/>
+      <c r="AR29" s="124"/>
+      <c r="AS29" s="124"/>
+      <c r="AT29" s="124"/>
+      <c r="AU29" s="124"/>
+      <c r="AV29" s="124"/>
+      <c r="AW29" s="124"/>
+      <c r="AX29" s="124"/>
+      <c r="AY29" s="124"/>
+      <c r="AZ29" s="124"/>
+      <c r="BA29" s="124"/>
+      <c r="BB29" s="124"/>
+      <c r="BC29" s="124"/>
+      <c r="BD29" s="124"/>
+      <c r="BE29" s="124"/>
+      <c r="BF29" s="124"/>
+      <c r="BG29" s="124"/>
+      <c r="BH29" s="124"/>
+      <c r="BI29" s="124"/>
+      <c r="BJ29" s="124"/>
+      <c r="BK29" s="124"/>
+      <c r="BL29" s="124"/>
+      <c r="BM29" s="124"/>
+      <c r="BN29" s="124"/>
+      <c r="BO29" s="124"/>
+      <c r="BP29" s="124"/>
+      <c r="BQ29" s="124"/>
+      <c r="BR29" s="124"/>
+      <c r="BS29" s="124"/>
+      <c r="BT29" s="124"/>
+      <c r="BU29" s="124"/>
       <c r="BV29" s="4"/>
       <c r="BW29" s="4"/>
       <c r="BX29" s="4"/>
@@ -6746,24 +6851,118 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <dataConsolidate/>
   <mergeCells count="154">
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="BF5:BI5"/>
-    <mergeCell ref="BJ5:BM5"/>
-    <mergeCell ref="BN5:BQ5"/>
-    <mergeCell ref="BR5:BU5"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="BF6:BI6"/>
-    <mergeCell ref="BJ6:BM6"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="X5:AA5"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="AF5:AI5"/>
-    <mergeCell ref="BE5:BE6"/>
-    <mergeCell ref="BN6:BQ6"/>
-    <mergeCell ref="BR6:BU6"/>
+    <mergeCell ref="B29:AI29"/>
+    <mergeCell ref="AN29:BU29"/>
+    <mergeCell ref="BE23:BM23"/>
+    <mergeCell ref="BN23:BU23"/>
+    <mergeCell ref="B25:AI25"/>
+    <mergeCell ref="AN25:BU25"/>
+    <mergeCell ref="B27:AI27"/>
+    <mergeCell ref="AN27:BU27"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="J23:R23"/>
+    <mergeCell ref="S23:AA23"/>
+    <mergeCell ref="AB23:AI23"/>
+    <mergeCell ref="AN23:AU23"/>
+    <mergeCell ref="AV23:BD23"/>
+    <mergeCell ref="BE21:BM21"/>
+    <mergeCell ref="BN21:BU21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:R22"/>
+    <mergeCell ref="S22:AA22"/>
+    <mergeCell ref="AB22:AI22"/>
+    <mergeCell ref="AN22:AU22"/>
+    <mergeCell ref="AV22:BD22"/>
+    <mergeCell ref="BE22:BM22"/>
+    <mergeCell ref="BN22:BU22"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="J21:R21"/>
+    <mergeCell ref="S21:AA21"/>
+    <mergeCell ref="AB21:AI21"/>
+    <mergeCell ref="AN21:AU21"/>
+    <mergeCell ref="AV21:BD21"/>
+    <mergeCell ref="BE19:BM19"/>
+    <mergeCell ref="BN19:BU19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="J20:R20"/>
+    <mergeCell ref="S20:AA20"/>
+    <mergeCell ref="AB20:AI20"/>
+    <mergeCell ref="AN20:AU20"/>
+    <mergeCell ref="AV20:BD20"/>
+    <mergeCell ref="BE20:BM20"/>
+    <mergeCell ref="BN20:BU20"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="J19:R19"/>
+    <mergeCell ref="S19:AA19"/>
+    <mergeCell ref="AB19:AI19"/>
+    <mergeCell ref="AN19:AU19"/>
+    <mergeCell ref="AV19:BD19"/>
+    <mergeCell ref="BE17:BM17"/>
+    <mergeCell ref="BN17:BU17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:R18"/>
+    <mergeCell ref="S18:AA18"/>
+    <mergeCell ref="AB18:AI18"/>
+    <mergeCell ref="AN18:AU18"/>
+    <mergeCell ref="AV18:BD18"/>
+    <mergeCell ref="BE18:BM18"/>
+    <mergeCell ref="BN18:BU18"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:R17"/>
+    <mergeCell ref="S17:AA17"/>
+    <mergeCell ref="AB17:AI17"/>
+    <mergeCell ref="AN17:AU17"/>
+    <mergeCell ref="AV17:BD17"/>
+    <mergeCell ref="BE15:BM15"/>
+    <mergeCell ref="BN15:BU15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:R16"/>
+    <mergeCell ref="S16:AA16"/>
+    <mergeCell ref="AB16:AI16"/>
+    <mergeCell ref="AN16:AU16"/>
+    <mergeCell ref="AV16:BD16"/>
+    <mergeCell ref="BE16:BM16"/>
+    <mergeCell ref="BN16:BU16"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:R15"/>
+    <mergeCell ref="S15:AA15"/>
+    <mergeCell ref="AB15:AI15"/>
+    <mergeCell ref="AN15:AU15"/>
+    <mergeCell ref="AV15:BD15"/>
+    <mergeCell ref="BE13:BM13"/>
+    <mergeCell ref="BN13:BU13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:R14"/>
+    <mergeCell ref="S14:AA14"/>
+    <mergeCell ref="AB14:AI14"/>
+    <mergeCell ref="AN14:AU14"/>
+    <mergeCell ref="AV14:BD14"/>
+    <mergeCell ref="BE14:BM14"/>
+    <mergeCell ref="BN14:BU14"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:R13"/>
+    <mergeCell ref="S13:AA13"/>
+    <mergeCell ref="AB13:AI13"/>
+    <mergeCell ref="AN13:AU13"/>
+    <mergeCell ref="AV13:BD13"/>
+    <mergeCell ref="B12:AI12"/>
+    <mergeCell ref="AN12:BU12"/>
+    <mergeCell ref="AQ10:BD10"/>
+    <mergeCell ref="BE10:BF10"/>
+    <mergeCell ref="BG10:BM10"/>
+    <mergeCell ref="BN10:BU10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="AB11:AI11"/>
+    <mergeCell ref="AN11:AP11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="AB10:AI10"/>
+    <mergeCell ref="AN10:AP10"/>
     <mergeCell ref="B7:AI7"/>
     <mergeCell ref="AN7:BU7"/>
     <mergeCell ref="B8:D8"/>
@@ -6788,118 +6987,24 @@
     <mergeCell ref="U9:AA9"/>
     <mergeCell ref="AB9:AE9"/>
     <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B12:AI12"/>
-    <mergeCell ref="AN12:BU12"/>
-    <mergeCell ref="AQ10:BD10"/>
-    <mergeCell ref="BE10:BF10"/>
-    <mergeCell ref="BG10:BM10"/>
-    <mergeCell ref="BN10:BU10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:AA11"/>
-    <mergeCell ref="AB11:AI11"/>
-    <mergeCell ref="AN11:AP11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="AB10:AI10"/>
-    <mergeCell ref="AN10:AP10"/>
-    <mergeCell ref="BE13:BM13"/>
-    <mergeCell ref="BN13:BU13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:R14"/>
-    <mergeCell ref="S14:AA14"/>
-    <mergeCell ref="AB14:AI14"/>
-    <mergeCell ref="AN14:AU14"/>
-    <mergeCell ref="AV14:BD14"/>
-    <mergeCell ref="BE14:BM14"/>
-    <mergeCell ref="BN14:BU14"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:R13"/>
-    <mergeCell ref="S13:AA13"/>
-    <mergeCell ref="AB13:AI13"/>
-    <mergeCell ref="AN13:AU13"/>
-    <mergeCell ref="AV13:BD13"/>
-    <mergeCell ref="BE15:BM15"/>
-    <mergeCell ref="BN15:BU15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:R16"/>
-    <mergeCell ref="S16:AA16"/>
-    <mergeCell ref="AB16:AI16"/>
-    <mergeCell ref="AN16:AU16"/>
-    <mergeCell ref="AV16:BD16"/>
-    <mergeCell ref="BE16:BM16"/>
-    <mergeCell ref="BN16:BU16"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:R15"/>
-    <mergeCell ref="S15:AA15"/>
-    <mergeCell ref="AB15:AI15"/>
-    <mergeCell ref="AN15:AU15"/>
-    <mergeCell ref="AV15:BD15"/>
-    <mergeCell ref="BE17:BM17"/>
-    <mergeCell ref="BN17:BU17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J18:R18"/>
-    <mergeCell ref="S18:AA18"/>
-    <mergeCell ref="AB18:AI18"/>
-    <mergeCell ref="AN18:AU18"/>
-    <mergeCell ref="AV18:BD18"/>
-    <mergeCell ref="BE18:BM18"/>
-    <mergeCell ref="BN18:BU18"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:R17"/>
-    <mergeCell ref="S17:AA17"/>
-    <mergeCell ref="AB17:AI17"/>
-    <mergeCell ref="AN17:AU17"/>
-    <mergeCell ref="AV17:BD17"/>
-    <mergeCell ref="BE19:BM19"/>
-    <mergeCell ref="BN19:BU19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J20:R20"/>
-    <mergeCell ref="S20:AA20"/>
-    <mergeCell ref="AB20:AI20"/>
-    <mergeCell ref="AN20:AU20"/>
-    <mergeCell ref="AV20:BD20"/>
-    <mergeCell ref="BE20:BM20"/>
-    <mergeCell ref="BN20:BU20"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="J19:R19"/>
-    <mergeCell ref="S19:AA19"/>
-    <mergeCell ref="AB19:AI19"/>
-    <mergeCell ref="AN19:AU19"/>
-    <mergeCell ref="AV19:BD19"/>
-    <mergeCell ref="BE21:BM21"/>
-    <mergeCell ref="BN21:BU21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:R22"/>
-    <mergeCell ref="S22:AA22"/>
-    <mergeCell ref="AB22:AI22"/>
-    <mergeCell ref="AN22:AU22"/>
-    <mergeCell ref="AV22:BD22"/>
-    <mergeCell ref="BE22:BM22"/>
-    <mergeCell ref="BN22:BU22"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="J21:R21"/>
-    <mergeCell ref="S21:AA21"/>
-    <mergeCell ref="AB21:AI21"/>
-    <mergeCell ref="AN21:AU21"/>
-    <mergeCell ref="AV21:BD21"/>
-    <mergeCell ref="B29:AI29"/>
-    <mergeCell ref="AN29:BU29"/>
-    <mergeCell ref="BE23:BM23"/>
-    <mergeCell ref="BN23:BU23"/>
-    <mergeCell ref="B25:AI25"/>
-    <mergeCell ref="AN25:BU25"/>
-    <mergeCell ref="B27:AI27"/>
-    <mergeCell ref="AN27:BU27"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="J23:R23"/>
-    <mergeCell ref="S23:AA23"/>
-    <mergeCell ref="AB23:AI23"/>
-    <mergeCell ref="AN23:AU23"/>
-    <mergeCell ref="AV23:BD23"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="BF5:BI5"/>
+    <mergeCell ref="BJ5:BM5"/>
+    <mergeCell ref="BN5:BQ5"/>
+    <mergeCell ref="BR5:BU5"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="BF6:BI6"/>
+    <mergeCell ref="BJ6:BM6"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="BE5:BE6"/>
+    <mergeCell ref="BN6:BQ6"/>
+    <mergeCell ref="BR6:BU6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
@@ -6924,10 +7029,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:L63"/>
+  <dimension ref="A2:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -6944,20 +7049,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="42.75" customHeight="1">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="183" t="s">
         <v>249</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="183"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
     </row>
     <row r="3" spans="1:12" ht="37.5">
       <c r="A3" s="74" t="s">
@@ -7027,15 +7132,15 @@
       </c>
       <c r="I4" s="70">
         <f>VLOOKUP(B4,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J4" s="70">
         <f>VLOOKUP(B4,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1753</v>
+        <v>2263</v>
       </c>
       <c r="K4" s="83">
         <f>VLOOKUP(B4,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>194.77777777777777</v>
+        <v>188.58333333333334</v>
       </c>
       <c r="L4" s="84">
         <f>RANK(K4,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -7072,15 +7177,15 @@
       </c>
       <c r="I5" s="70">
         <f>VLOOKUP(B5,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J5" s="70">
         <f>VLOOKUP(B5,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2421</v>
+        <v>2994</v>
       </c>
       <c r="K5" s="83">
         <f>VLOOKUP(B5,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>201.75</v>
+        <v>199.6</v>
       </c>
       <c r="L5" s="84">
         <f>RANK(K5,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -7117,19 +7222,19 @@
       </c>
       <c r="I6" s="70">
         <f>VLOOKUP(B6,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J6" s="70">
         <f>VLOOKUP(B6,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1908</v>
+        <v>2357</v>
       </c>
       <c r="K6" s="83">
         <f>VLOOKUP(B6,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>173.45454545454547</v>
+        <v>168.35714285714286</v>
       </c>
       <c r="L6" s="84">
         <f>RANK(K6,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18.75">
@@ -7162,19 +7267,19 @@
       </c>
       <c r="I7" s="70">
         <f>VLOOKUP(B7,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J7" s="70">
         <f>VLOOKUP(B7,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1709</v>
+        <v>2159</v>
       </c>
       <c r="K7" s="83">
         <f>VLOOKUP(B7,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>189.88888888888889</v>
+        <v>179.91666666666666</v>
       </c>
       <c r="L7" s="84">
         <f>RANK(K7,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18.75">
@@ -7207,19 +7312,19 @@
       </c>
       <c r="I8" s="70">
         <f>VLOOKUP(B8,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J8" s="70">
         <f>VLOOKUP(B8,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1005</v>
+        <v>1427</v>
       </c>
       <c r="K8" s="83">
         <f>VLOOKUP(B8,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>167.5</v>
+        <v>158.55555555555554</v>
       </c>
       <c r="L8" s="84">
         <f>RANK(K8,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18.75">
@@ -7252,15 +7357,15 @@
       </c>
       <c r="I9" s="70">
         <f>VLOOKUP(B9,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J9" s="70">
         <f>VLOOKUP(B9,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2349</v>
+        <v>2865</v>
       </c>
       <c r="K9" s="83">
         <f>VLOOKUP(B9,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>195.75</v>
+        <v>191</v>
       </c>
       <c r="L9" s="84">
         <f>RANK(K9,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -7297,19 +7402,19 @@
       </c>
       <c r="I10" s="70">
         <f>VLOOKUP(B10,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J10" s="70">
         <f>VLOOKUP(B10,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2235</v>
+        <v>2698</v>
       </c>
       <c r="K10" s="83">
         <f>VLOOKUP(B10,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>186.25</v>
+        <v>179.86666666666667</v>
       </c>
       <c r="L10" s="84">
         <f>RANK(K10,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18.75">
@@ -7342,19 +7447,19 @@
       </c>
       <c r="I11" s="70">
         <f>VLOOKUP(B11,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J11" s="70">
         <f>VLOOKUP(B11,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1629</v>
+        <v>2138</v>
       </c>
       <c r="K11" s="83">
         <f>VLOOKUP(B11,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>181</v>
+        <v>178.16666666666666</v>
       </c>
       <c r="L11" s="84">
         <f>RANK(K11,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75">
@@ -7489,7 +7594,7 @@
       </c>
       <c r="L14" s="84">
         <f>RANK(K14,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.75">
@@ -7522,36 +7627,36 @@
       </c>
       <c r="I15" s="70">
         <f>VLOOKUP(B15,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J15" s="70">
         <f>VLOOKUP(B15,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1105</v>
+        <v>1504</v>
       </c>
       <c r="K15" s="83">
         <f>VLOOKUP(B15,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>122.77777777777777</v>
+        <v>125.33333333333333</v>
       </c>
       <c r="L15" s="84">
         <f>RANK(K15,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="42" customHeight="1">
-      <c r="A19" s="182" t="s">
+      <c r="A19" s="183" t="s">
         <v>253</v>
       </c>
-      <c r="B19" s="183"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="183"/>
-      <c r="E19" s="183"/>
-      <c r="F19" s="183"/>
-      <c r="G19" s="183"/>
-      <c r="H19" s="183"/>
-      <c r="I19" s="183"/>
-      <c r="J19" s="183"/>
-      <c r="K19" s="183"/>
-      <c r="L19" s="183"/>
+      <c r="B19" s="184"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="184"/>
+      <c r="G19" s="184"/>
+      <c r="H19" s="184"/>
+      <c r="I19" s="184"/>
+      <c r="J19" s="184"/>
+      <c r="K19" s="184"/>
+      <c r="L19" s="184"/>
     </row>
     <row r="20" spans="1:12" ht="37.5">
       <c r="A20" s="74" t="s">
@@ -7621,15 +7726,15 @@
       </c>
       <c r="I21" s="70">
         <f>VLOOKUP(B21,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J21" s="70">
         <f>VLOOKUP(B21,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2349</v>
+        <v>2865</v>
       </c>
       <c r="K21" s="83">
         <f>VLOOKUP(B21,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>195.75</v>
+        <v>191</v>
       </c>
       <c r="L21" s="84">
         <f>RANK(K21,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -7678,7 +7783,7 @@
       </c>
       <c r="L22" s="84">
         <f>RANK(K22,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="18.75">
@@ -7711,15 +7816,15 @@
       </c>
       <c r="I23" s="70">
         <f>VLOOKUP(B23,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J23" s="70">
         <f>VLOOKUP(B23,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1753</v>
+        <v>2263</v>
       </c>
       <c r="K23" s="83">
         <f>VLOOKUP(B23,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>194.77777777777777</v>
+        <v>188.58333333333334</v>
       </c>
       <c r="L23" s="84">
         <f>RANK(K23,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -7756,19 +7861,19 @@
       </c>
       <c r="I24" s="70">
         <f>VLOOKUP(B24,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J24" s="70">
         <f>VLOOKUP(B24,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1629</v>
+        <v>2138</v>
       </c>
       <c r="K24" s="83">
         <f>VLOOKUP(B24,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>181</v>
+        <v>178.16666666666666</v>
       </c>
       <c r="L24" s="84">
         <f>RANK(K24,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="18.75">
@@ -7813,7 +7918,7 @@
       </c>
       <c r="L25" s="84">
         <f>RANK(K25,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="18.75">
@@ -7846,15 +7951,15 @@
       </c>
       <c r="I26" s="70">
         <f>VLOOKUP(B26,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J26" s="70">
         <f>VLOOKUP(B26,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2421</v>
+        <v>2994</v>
       </c>
       <c r="K26" s="83">
         <f>VLOOKUP(B26,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>201.75</v>
+        <v>199.6</v>
       </c>
       <c r="L26" s="84">
         <f>RANK(K26,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -7891,19 +7996,19 @@
       </c>
       <c r="I27" s="70">
         <f>VLOOKUP(B27,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J27" s="70">
         <f>VLOOKUP(B27,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1908</v>
+        <v>2357</v>
       </c>
       <c r="K27" s="83">
         <f>VLOOKUP(B27,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>173.45454545454547</v>
+        <v>168.35714285714286</v>
       </c>
       <c r="L27" s="84">
         <f>RANK(K27,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="18.75">
@@ -7936,19 +8041,19 @@
       </c>
       <c r="I28" s="70">
         <f>VLOOKUP(B28,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J28" s="70">
         <f>VLOOKUP(B28,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2235</v>
+        <v>2698</v>
       </c>
       <c r="K28" s="83">
         <f>VLOOKUP(B28,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>186.25</v>
+        <v>179.86666666666667</v>
       </c>
       <c r="L28" s="84">
         <f>RANK(K28,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="18.75">
@@ -7981,19 +8086,19 @@
       </c>
       <c r="I29" s="70">
         <f>VLOOKUP(B29,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J29" s="70">
         <f>VLOOKUP(B29,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1387</v>
+        <v>1821</v>
       </c>
       <c r="K29" s="83">
         <f>VLOOKUP(B29,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>154.11111111111111</v>
+        <v>151.75</v>
       </c>
       <c r="L29" s="84">
         <f>RANK(K29,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="18.75">
@@ -8026,19 +8131,19 @@
       </c>
       <c r="I30" s="70">
         <f>VLOOKUP(B30,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J30" s="70">
         <f>VLOOKUP(B30,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1105</v>
+        <v>1504</v>
       </c>
       <c r="K30" s="83">
         <f>VLOOKUP(B30,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>122.77777777777777</v>
+        <v>125.33333333333333</v>
       </c>
       <c r="L30" s="84">
         <f>RANK(K30,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="18.75">
@@ -8072,20 +8177,20 @@
       <c r="L31" s="84"/>
     </row>
     <row r="34" spans="1:12" ht="36.75" customHeight="1">
-      <c r="A34" s="182" t="s">
+      <c r="A34" s="183" t="s">
         <v>254</v>
       </c>
-      <c r="B34" s="183"/>
-      <c r="C34" s="183"/>
-      <c r="D34" s="183"/>
-      <c r="E34" s="183"/>
-      <c r="F34" s="183"/>
-      <c r="G34" s="183"/>
-      <c r="H34" s="183"/>
-      <c r="I34" s="183"/>
-      <c r="J34" s="183"/>
-      <c r="K34" s="183"/>
-      <c r="L34" s="183"/>
+      <c r="B34" s="184"/>
+      <c r="C34" s="184"/>
+      <c r="D34" s="184"/>
+      <c r="E34" s="184"/>
+      <c r="F34" s="184"/>
+      <c r="G34" s="184"/>
+      <c r="H34" s="184"/>
+      <c r="I34" s="184"/>
+      <c r="J34" s="184"/>
+      <c r="K34" s="184"/>
+      <c r="L34" s="184"/>
     </row>
     <row r="35" spans="1:12" ht="37.5">
       <c r="A35" s="74" t="s">
@@ -8155,15 +8260,15 @@
       </c>
       <c r="I36" s="70">
         <f>VLOOKUP(B36,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J36" s="70">
         <f>VLOOKUP(B36,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2421</v>
+        <v>2994</v>
       </c>
       <c r="K36" s="83">
         <f>VLOOKUP(B36,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>201.75</v>
+        <v>199.6</v>
       </c>
       <c r="L36" s="84">
         <f>RANK(K36,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -8200,19 +8305,19 @@
       </c>
       <c r="I37" s="70">
         <f>VLOOKUP(B37,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J37" s="70">
         <f>VLOOKUP(B37,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1709</v>
+        <v>2159</v>
       </c>
       <c r="K37" s="83">
         <f>VLOOKUP(B37,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>189.88888888888889</v>
+        <v>179.91666666666666</v>
       </c>
       <c r="L37" s="84">
         <f>RANK(K37,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="18.75">
@@ -8257,7 +8362,7 @@
       </c>
       <c r="L38" s="84">
         <f>RANK(K38,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="18.75">
@@ -8290,19 +8395,19 @@
       </c>
       <c r="I39" s="70">
         <f>VLOOKUP(B39,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J39" s="70">
         <f>VLOOKUP(B39,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2235</v>
+        <v>2698</v>
       </c>
       <c r="K39" s="83">
         <f>VLOOKUP(B39,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>186.25</v>
+        <v>179.86666666666667</v>
       </c>
       <c r="L39" s="84">
         <f>RANK(K39,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="18.75">
@@ -8335,15 +8440,15 @@
       </c>
       <c r="I40" s="70">
         <f>VLOOKUP(B40,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J40" s="70">
         <f>VLOOKUP(B40,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2349</v>
+        <v>2865</v>
       </c>
       <c r="K40" s="83">
         <f>VLOOKUP(B40,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>195.75</v>
+        <v>191</v>
       </c>
       <c r="L40" s="84">
         <f>RANK(K40,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -8380,15 +8485,15 @@
       </c>
       <c r="I41" s="70">
         <f>VLOOKUP(B41,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J41" s="70">
         <f>VLOOKUP(B41,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1753</v>
+        <v>2263</v>
       </c>
       <c r="K41" s="83">
         <f>VLOOKUP(B41,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>194.77777777777777</v>
+        <v>188.58333333333334</v>
       </c>
       <c r="L41" s="84">
         <f>RANK(K41,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -8515,19 +8620,19 @@
       </c>
       <c r="I44" s="70">
         <f>VLOOKUP(B44,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J44" s="70">
         <f>VLOOKUP(B44,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1387</v>
+        <v>1821</v>
       </c>
       <c r="K44" s="83">
         <f>VLOOKUP(B44,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>154.11111111111111</v>
+        <v>151.75</v>
       </c>
       <c r="L44" s="84">
         <f>RANK(K44,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="18.75">
@@ -8558,36 +8663,36 @@
       </c>
       <c r="I45" s="70">
         <f>VLOOKUP(B45,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J45" s="70">
         <f>VLOOKUP(B45,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1908</v>
+        <v>2357</v>
       </c>
       <c r="K45" s="83">
         <f>VLOOKUP(B45,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>173.45454545454547</v>
+        <v>168.35714285714286</v>
       </c>
       <c r="L45" s="84">
         <f>RANK(K45,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="36.75" customHeight="1">
-      <c r="A48" s="182" t="s">
+      <c r="A48" s="183" t="s">
         <v>272</v>
       </c>
-      <c r="B48" s="183"/>
-      <c r="C48" s="183"/>
-      <c r="D48" s="183"/>
-      <c r="E48" s="183"/>
-      <c r="F48" s="183"/>
-      <c r="G48" s="183"/>
-      <c r="H48" s="183"/>
-      <c r="I48" s="183"/>
-      <c r="J48" s="183"/>
-      <c r="K48" s="183"/>
-      <c r="L48" s="183"/>
+      <c r="B48" s="184"/>
+      <c r="C48" s="184"/>
+      <c r="D48" s="184"/>
+      <c r="E48" s="184"/>
+      <c r="F48" s="184"/>
+      <c r="G48" s="184"/>
+      <c r="H48" s="184"/>
+      <c r="I48" s="184"/>
+      <c r="J48" s="184"/>
+      <c r="K48" s="184"/>
+      <c r="L48" s="184"/>
     </row>
     <row r="49" spans="1:12" ht="37.5">
       <c r="A49" s="74" t="s">
@@ -8629,7 +8734,7 @@
     </row>
     <row r="50" spans="1:12" ht="19.5" thickBot="1">
       <c r="A50" s="77">
-        <f>RANK(G50,$G$50:$G$63)</f>
+        <f t="shared" ref="A50:A63" si="9">RANK(G50,$G$50:$G$63)</f>
         <v>1</v>
       </c>
       <c r="B50" s="82" t="s">
@@ -8645,11 +8750,11 @@
         <v>223</v>
       </c>
       <c r="F50" s="86">
-        <f>SUM(C50:E50)</f>
+        <f t="shared" ref="F50:F63" si="10">SUM(C50:E50)</f>
         <v>613</v>
       </c>
       <c r="G50" s="87">
-        <f>F50/COUNTA(C50:E50)</f>
+        <f t="shared" ref="G50:G63" si="11">F50/COUNTA(C50:E50)</f>
         <v>204.33333333333334</v>
       </c>
       <c r="H50" s="82" t="s">
@@ -8657,15 +8762,15 @@
       </c>
       <c r="I50" s="70">
         <f>VLOOKUP(B50,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J50" s="70">
         <f>VLOOKUP(B50,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2349</v>
+        <v>2865</v>
       </c>
       <c r="K50" s="83">
         <f>VLOOKUP(B50,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>195.75</v>
+        <v>191</v>
       </c>
       <c r="L50" s="84">
         <f>RANK(K50,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -8674,7 +8779,7 @@
     </row>
     <row r="51" spans="1:12" ht="20.25" thickTop="1" thickBot="1">
       <c r="A51" s="77">
-        <f>RANK(G51,$G$50:$G$63)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="B51" s="61" t="s">
@@ -8683,18 +8788,18 @@
       <c r="C51" s="68">
         <v>224</v>
       </c>
-      <c r="D51" s="195">
+      <c r="D51" s="121">
         <v>197</v>
       </c>
       <c r="E51" s="43">
         <v>180</v>
       </c>
       <c r="F51" s="69">
-        <f>SUM(C51:E51)</f>
+        <f t="shared" si="10"/>
         <v>601</v>
       </c>
       <c r="G51" s="87">
-        <f>F51/COUNTA(C51:E51)</f>
+        <f t="shared" si="11"/>
         <v>200.33333333333334</v>
       </c>
       <c r="H51" s="61" t="s">
@@ -8702,24 +8807,24 @@
       </c>
       <c r="I51" s="70">
         <f>VLOOKUP(B51,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J51" s="70">
         <f>VLOOKUP(B51,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2235</v>
+        <v>2698</v>
       </c>
       <c r="K51" s="83">
         <f>VLOOKUP(B51,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>186.25</v>
+        <v>179.86666666666667</v>
       </c>
       <c r="L51" s="84">
         <f>RANK(K51,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="19.5" thickTop="1">
       <c r="A52" s="77">
-        <f>RANK(G52,$G$50:$G$63)</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="B52" s="72" t="s">
@@ -8735,11 +8840,11 @@
         <v>204</v>
       </c>
       <c r="F52" s="69">
-        <f>SUM(C52:E52)</f>
+        <f t="shared" si="10"/>
         <v>589</v>
       </c>
       <c r="G52" s="87">
-        <f>F52/COUNTA(C52:E52)</f>
+        <f t="shared" si="11"/>
         <v>196.33333333333334</v>
       </c>
       <c r="H52" s="72" t="s">
@@ -8747,15 +8852,15 @@
       </c>
       <c r="I52" s="70">
         <f>VLOOKUP(B52,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J52" s="70">
         <f>VLOOKUP(B52,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2421</v>
+        <v>2994</v>
       </c>
       <c r="K52" s="83">
         <f>VLOOKUP(B52,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>201.75</v>
+        <v>199.6</v>
       </c>
       <c r="L52" s="84">
         <f>RANK(K52,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -8764,7 +8869,7 @@
     </row>
     <row r="53" spans="1:12" ht="18.75">
       <c r="A53" s="77">
-        <f>RANK(G53,$G$50:$G$63)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="B53" s="61" t="s">
@@ -8780,11 +8885,11 @@
         <v>206</v>
       </c>
       <c r="F53" s="63">
-        <f>SUM(C53:E53)</f>
+        <f t="shared" si="10"/>
         <v>555</v>
       </c>
       <c r="G53" s="87">
-        <f>F53/COUNTA(C53:E53)</f>
+        <f t="shared" si="11"/>
         <v>185</v>
       </c>
       <c r="H53" s="61" t="s">
@@ -8804,12 +8909,12 @@
       </c>
       <c r="L53" s="84">
         <f>RANK(K53,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="18.75">
       <c r="A54" s="77">
-        <f>RANK(G54,$G$50:$G$63)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="B54" s="61" t="s">
@@ -8825,11 +8930,11 @@
         <v>196</v>
       </c>
       <c r="F54" s="63">
-        <f>SUM(C54:E54)</f>
+        <f t="shared" si="10"/>
         <v>547</v>
       </c>
       <c r="G54" s="87">
-        <f>F54/COUNTA(C54:E54)</f>
+        <f t="shared" si="11"/>
         <v>182.33333333333334</v>
       </c>
       <c r="H54" s="61" t="s">
@@ -8837,24 +8942,24 @@
       </c>
       <c r="I54" s="70">
         <f>VLOOKUP(B54,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J54" s="70">
         <f>VLOOKUP(B54,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1629</v>
+        <v>2138</v>
       </c>
       <c r="K54" s="83">
         <f>VLOOKUP(B54,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>181</v>
+        <v>178.16666666666666</v>
       </c>
       <c r="L54" s="84">
         <f>RANK(K54,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="18.75">
       <c r="A55" s="77">
-        <f>RANK(G55,$G$50:$G$63)</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="B55" s="72" t="s">
@@ -8870,11 +8975,11 @@
         <v>161</v>
       </c>
       <c r="F55" s="69">
-        <f>SUM(C55:E55)</f>
+        <f t="shared" si="10"/>
         <v>537</v>
       </c>
       <c r="G55" s="87">
-        <f>F55/COUNTA(C55:E55)</f>
+        <f t="shared" si="11"/>
         <v>179</v>
       </c>
       <c r="H55" s="72" t="s">
@@ -8882,24 +8987,24 @@
       </c>
       <c r="I55" s="70">
         <f>VLOOKUP(B55,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J55" s="70">
         <f>VLOOKUP(B55,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1709</v>
+        <v>2159</v>
       </c>
       <c r="K55" s="83">
         <f>VLOOKUP(B55,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>189.88888888888889</v>
+        <v>179.91666666666666</v>
       </c>
       <c r="L55" s="84">
         <f>RANK(K55,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="18.75">
       <c r="A56" s="77">
-        <f>RANK(G56,$G$50:$G$63)</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="B56" s="72" t="s">
@@ -8915,11 +9020,11 @@
         <v>217</v>
       </c>
       <c r="F56" s="43">
-        <f>SUM(C56:E56)</f>
+        <f t="shared" si="10"/>
         <v>521</v>
       </c>
       <c r="G56" s="87">
-        <f>F56/COUNTA(C56:E56)</f>
+        <f t="shared" si="11"/>
         <v>173.66666666666666</v>
       </c>
       <c r="H56" s="72" t="s">
@@ -8939,12 +9044,12 @@
       </c>
       <c r="L56" s="84">
         <f>RANK(K56,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="18.75">
       <c r="A57" s="77">
-        <f>RANK(G57,$G$50:$G$63)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="B57" s="58" t="s">
@@ -8960,11 +9065,11 @@
         <v>173</v>
       </c>
       <c r="F57" s="43">
-        <f>SUM(C57:E57)</f>
+        <f t="shared" si="10"/>
         <v>498</v>
       </c>
       <c r="G57" s="87">
-        <f>F57/COUNTA(C57:E57)</f>
+        <f t="shared" si="11"/>
         <v>166</v>
       </c>
       <c r="H57" s="58" t="s">
@@ -8972,24 +9077,24 @@
       </c>
       <c r="I57" s="70">
         <f>VLOOKUP(B57,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J57" s="70">
         <f>VLOOKUP(B57,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1908</v>
+        <v>2357</v>
       </c>
       <c r="K57" s="83">
         <f>VLOOKUP(B57,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>173.45454545454547</v>
+        <v>168.35714285714286</v>
       </c>
       <c r="L57" s="84">
         <f>RANK(K57,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="18.75">
       <c r="A58" s="77">
-        <f>RANK(G58,$G$50:$G$63)</f>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="B58" s="58" t="s">
@@ -9005,11 +9110,11 @@
         <v>154</v>
       </c>
       <c r="F58" s="43">
-        <f>SUM(C58:E58)</f>
+        <f t="shared" si="10"/>
         <v>497</v>
       </c>
       <c r="G58" s="87">
-        <f>F58/COUNTA(C58:E58)</f>
+        <f t="shared" si="11"/>
         <v>165.66666666666666</v>
       </c>
       <c r="H58" s="58" t="s">
@@ -9034,7 +9139,7 @@
     </row>
     <row r="59" spans="1:12" ht="18.75">
       <c r="A59" s="77">
-        <f>RANK(G59,$G$50:$G$63)</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="B59" s="61" t="s">
@@ -9050,11 +9155,11 @@
         <v>194</v>
       </c>
       <c r="F59" s="58">
-        <f>SUM(C59:E59)</f>
+        <f t="shared" si="10"/>
         <v>477</v>
       </c>
       <c r="G59" s="87">
-        <f>F59/COUNTA(C59:E59)</f>
+        <f t="shared" si="11"/>
         <v>159</v>
       </c>
       <c r="H59" s="61" t="s">
@@ -9079,7 +9184,7 @@
     </row>
     <row r="60" spans="1:12" ht="18.75">
       <c r="A60" s="77">
-        <f>RANK(G60,$G$50:$G$63)</f>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="B60" s="65" t="s">
@@ -9095,11 +9200,11 @@
         <v>149</v>
       </c>
       <c r="F60" s="43">
-        <f>SUM(C60:E60)</f>
+        <f t="shared" si="10"/>
         <v>447</v>
       </c>
       <c r="G60" s="87">
-        <f>F60/COUNTA(C60:E60)</f>
+        <f t="shared" si="11"/>
         <v>149</v>
       </c>
       <c r="H60" s="65" t="s">
@@ -9107,24 +9212,24 @@
       </c>
       <c r="I60" s="70">
         <f>VLOOKUP(B60,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J60" s="70">
         <f>VLOOKUP(B60,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1005</v>
+        <v>1427</v>
       </c>
       <c r="K60" s="83">
         <f>VLOOKUP(B60,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>167.5</v>
+        <v>158.55555555555554</v>
       </c>
       <c r="L60" s="84">
         <f>RANK(K60,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="18.75">
       <c r="A61" s="77">
-        <f>RANK(G61,$G$50:$G$63)</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="B61" s="65" t="s">
@@ -9140,11 +9245,11 @@
         <v>124</v>
       </c>
       <c r="F61" s="43">
-        <f>SUM(C61:E61)</f>
+        <f t="shared" si="10"/>
         <v>444</v>
       </c>
       <c r="G61" s="87">
-        <f>F61/COUNTA(C61:E61)</f>
+        <f t="shared" si="11"/>
         <v>148</v>
       </c>
       <c r="H61" s="65" t="s">
@@ -9164,12 +9269,12 @@
       </c>
       <c r="L61" s="84">
         <f>RANK(K61,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="18.75">
       <c r="A62" s="77">
-        <f>RANK(G62,$G$50:$G$63)</f>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="B62" s="72" t="s">
@@ -9185,11 +9290,11 @@
         <v>150</v>
       </c>
       <c r="F62" s="43">
-        <f>SUM(C62:E62)</f>
+        <f t="shared" si="10"/>
         <v>425</v>
       </c>
       <c r="G62" s="87">
-        <f>F62/COUNTA(C62:E62)</f>
+        <f t="shared" si="11"/>
         <v>141.66666666666666</v>
       </c>
       <c r="H62" s="72" t="s">
@@ -9197,24 +9302,24 @@
       </c>
       <c r="I62" s="70">
         <f>VLOOKUP(B62,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J62" s="70">
         <f>VLOOKUP(B62,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1387</v>
+        <v>1821</v>
       </c>
       <c r="K62" s="83">
         <f>VLOOKUP(B62,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>154.11111111111111</v>
+        <v>151.75</v>
       </c>
       <c r="L62" s="84">
         <f>RANK(K62,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="18.75">
       <c r="A63" s="77">
-        <f>RANK(G63,$G$50:$G$63)</f>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="B63" s="72" t="s">
@@ -9230,11 +9335,11 @@
         <v>115</v>
       </c>
       <c r="F63" s="43">
-        <f>SUM(C63:E63)</f>
+        <f t="shared" si="10"/>
         <v>351</v>
       </c>
       <c r="G63" s="87">
-        <f>F63/COUNTA(C63:E63)</f>
+        <f t="shared" si="11"/>
         <v>117</v>
       </c>
       <c r="H63" s="72" t="s">
@@ -9242,109 +9347,744 @@
       </c>
       <c r="I63" s="70">
         <f>VLOOKUP(B63,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J63" s="70">
         <f>VLOOKUP(B63,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1105</v>
+        <v>1504</v>
       </c>
       <c r="K63" s="83">
         <f>VLOOKUP(B63,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>122.77777777777777</v>
+        <v>125.33333333333333</v>
       </c>
       <c r="L63" s="84">
         <f>RANK(K63,'총에버 관리_2023'!$V$3:$V$20)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="30.75" customHeight="1">
+      <c r="A66" s="183" t="s">
+        <v>273</v>
+      </c>
+      <c r="B66" s="184"/>
+      <c r="C66" s="184"/>
+      <c r="D66" s="184"/>
+      <c r="E66" s="184"/>
+      <c r="F66" s="184"/>
+      <c r="G66" s="184"/>
+      <c r="H66" s="184"/>
+      <c r="I66" s="184"/>
+      <c r="J66" s="184"/>
+      <c r="K66" s="184"/>
+      <c r="L66" s="184"/>
+    </row>
+    <row r="67" spans="1:12" ht="38.25" thickBot="1">
+      <c r="A67" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="E67" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="G67" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I67" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="J67" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="K67" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="L67" s="76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="20.25" thickTop="1" thickBot="1">
+      <c r="A68" s="77">
+        <f>RANK(G68,$G$68:$G$79)</f>
+        <v>1</v>
+      </c>
+      <c r="B68" s="64" t="s">
+        <v>283</v>
+      </c>
+      <c r="C68" s="79">
+        <v>179</v>
+      </c>
+      <c r="D68" s="62">
+        <v>212</v>
+      </c>
+      <c r="E68" s="63">
+        <v>182</v>
+      </c>
+      <c r="F68" s="80">
+        <f>SUM(C68:E68)</f>
+        <v>573</v>
+      </c>
+      <c r="G68" s="87">
+        <f>F68/COUNTA(C68:E68)</f>
+        <v>191</v>
+      </c>
+      <c r="H68" s="64" t="s">
+        <v>283</v>
+      </c>
+      <c r="I68" s="70">
+        <f>VLOOKUP(B68,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
         <v>15</v>
       </c>
+      <c r="J68" s="70">
+        <f>VLOOKUP(B68,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
+        <v>2994</v>
+      </c>
+      <c r="K68" s="83">
+        <f>VLOOKUP(B68,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
+        <v>199.6</v>
+      </c>
+      <c r="L68" s="84">
+        <f>RANK(K68,'총에버 관리_2023'!$V$3:$V$21)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="19.5" thickTop="1">
+      <c r="A69" s="77">
+        <f>RANK(G69,$G$68:$G$79)</f>
+        <v>2</v>
+      </c>
+      <c r="B69" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="C69" s="43">
+        <v>202</v>
+      </c>
+      <c r="D69" s="121">
+        <v>177</v>
+      </c>
+      <c r="E69" s="43">
+        <v>172</v>
+      </c>
+      <c r="F69" s="69">
+        <f>SUM(C69:E69)</f>
+        <v>551</v>
+      </c>
+      <c r="G69" s="87">
+        <f>F69/COUNTA(C69:E69)</f>
+        <v>183.66666666666666</v>
+      </c>
+      <c r="H69" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="I69" s="70">
+        <f>VLOOKUP(B69,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="J69" s="70">
+        <f>VLOOKUP(B69,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
+        <v>551</v>
+      </c>
+      <c r="K69" s="83">
+        <f>VLOOKUP(B69,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
+        <v>183.66666666666666</v>
+      </c>
+      <c r="L69" s="84">
+        <f>RANK(K69,'총에버 관리_2023'!$V$3:$V$21)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="18.75">
+      <c r="A70" s="77">
+        <f>RANK(G70,$G$68:$G$79)</f>
+        <v>3</v>
+      </c>
+      <c r="B70" s="72" t="s">
+        <v>280</v>
+      </c>
+      <c r="C70" s="70">
+        <v>178</v>
+      </c>
+      <c r="D70" s="61">
+        <v>190</v>
+      </c>
+      <c r="E70" s="43">
+        <v>148</v>
+      </c>
+      <c r="F70" s="69">
+        <f>SUM(C70:E70)</f>
+        <v>516</v>
+      </c>
+      <c r="G70" s="87">
+        <f>F70/COUNTA(C70:E70)</f>
+        <v>172</v>
+      </c>
+      <c r="H70" s="72" t="s">
+        <v>280</v>
+      </c>
+      <c r="I70" s="70">
+        <f>VLOOKUP(B70,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="J70" s="70">
+        <f>VLOOKUP(B70,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
+        <v>2865</v>
+      </c>
+      <c r="K70" s="83">
+        <f>VLOOKUP(B70,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
+        <v>191</v>
+      </c>
+      <c r="L70" s="84">
+        <f>RANK(K70,'총에버 관리_2023'!$V$3:$V$21)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="18.75">
+      <c r="A71" s="77">
+        <f>RANK(G71,$G$68:$G$79)</f>
+        <v>4</v>
+      </c>
+      <c r="B71" s="61" t="s">
+        <v>277</v>
+      </c>
+      <c r="C71" s="59">
+        <v>169</v>
+      </c>
+      <c r="D71" s="95">
+        <v>223</v>
+      </c>
+      <c r="E71" s="58">
+        <v>118</v>
+      </c>
+      <c r="F71" s="63">
+        <f>SUM(C71:E71)</f>
+        <v>510</v>
+      </c>
+      <c r="G71" s="87">
+        <f>F71/COUNTA(C71:E71)</f>
+        <v>170</v>
+      </c>
+      <c r="H71" s="61" t="s">
+        <v>277</v>
+      </c>
+      <c r="I71" s="70">
+        <f>VLOOKUP(B71,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="J71" s="70">
+        <f>VLOOKUP(B71,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
+        <v>2263</v>
+      </c>
+      <c r="K71" s="83">
+        <f>VLOOKUP(B71,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
+        <v>188.58333333333334</v>
+      </c>
+      <c r="L71" s="84">
+        <f>RANK(K71,'총에버 관리_2023'!$V$3:$V$21)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="18.75">
+      <c r="A72" s="77">
+        <f>RANK(G72,$G$68:$G$79)</f>
+        <v>5</v>
+      </c>
+      <c r="B72" s="61" t="s">
+        <v>278</v>
+      </c>
+      <c r="C72" s="58">
+        <v>189</v>
+      </c>
+      <c r="D72" s="58">
+        <v>152</v>
+      </c>
+      <c r="E72" s="64">
+        <v>168</v>
+      </c>
+      <c r="F72" s="63">
+        <f>SUM(C72:E72)</f>
+        <v>509</v>
+      </c>
+      <c r="G72" s="87">
+        <f>F72/COUNTA(C72:E72)</f>
+        <v>169.66666666666666</v>
+      </c>
+      <c r="H72" s="61" t="s">
+        <v>278</v>
+      </c>
+      <c r="I72" s="70">
+        <f>VLOOKUP(B72,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="J72" s="70">
+        <f>VLOOKUP(B72,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
+        <v>2138</v>
+      </c>
+      <c r="K72" s="83">
+        <f>VLOOKUP(B72,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
+        <v>178.16666666666666</v>
+      </c>
+      <c r="L72" s="84">
+        <f>RANK(K72,'총에버 관리_2023'!$V$3:$V$21)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="18.75">
+      <c r="A73" s="77">
+        <f>RANK(G73,$G$68:$G$79)</f>
+        <v>6</v>
+      </c>
+      <c r="B73" s="61" t="s">
+        <v>281</v>
+      </c>
+      <c r="C73" s="70">
+        <v>152</v>
+      </c>
+      <c r="D73" s="70">
+        <v>185</v>
+      </c>
+      <c r="E73" s="70">
+        <v>126</v>
+      </c>
+      <c r="F73" s="69">
+        <f>SUM(C73:E73)</f>
+        <v>463</v>
+      </c>
+      <c r="G73" s="87">
+        <f>F73/COUNTA(C73:E73)</f>
+        <v>154.33333333333334</v>
+      </c>
+      <c r="H73" s="61" t="s">
+        <v>281</v>
+      </c>
+      <c r="I73" s="70">
+        <f>VLOOKUP(B73,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="J73" s="70">
+        <f>VLOOKUP(B73,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
+        <v>2698</v>
+      </c>
+      <c r="K73" s="83">
+        <f>VLOOKUP(B73,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
+        <v>179.86666666666667</v>
+      </c>
+      <c r="L73" s="84">
+        <f>RANK(K73,'총에버 관리_2023'!$V$3:$V$21)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="18.75">
+      <c r="A74" s="77">
+        <f>RANK(G74,$G$68:$G$79)</f>
+        <v>7</v>
+      </c>
+      <c r="B74" s="72" t="s">
+        <v>274</v>
+      </c>
+      <c r="C74" s="70">
+        <v>174</v>
+      </c>
+      <c r="D74" s="64">
+        <v>144</v>
+      </c>
+      <c r="E74" s="70">
+        <v>132</v>
+      </c>
+      <c r="F74" s="43">
+        <f>SUM(C74:E74)</f>
+        <v>450</v>
+      </c>
+      <c r="G74" s="87">
+        <f>F74/COUNTA(C74:E74)</f>
+        <v>150</v>
+      </c>
+      <c r="H74" s="72" t="s">
+        <v>274</v>
+      </c>
+      <c r="I74" s="70">
+        <f>VLOOKUP(B74,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="J74" s="70">
+        <f>VLOOKUP(B74,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
+        <v>2159</v>
+      </c>
+      <c r="K74" s="83">
+        <f>VLOOKUP(B74,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
+        <v>179.91666666666666</v>
+      </c>
+      <c r="L74" s="84">
+        <f>RANK(K74,'총에버 관리_2023'!$V$3:$V$21)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="18.75">
+      <c r="A75" s="77">
+        <f>RANK(G75,$G$68:$G$79)</f>
+        <v>8</v>
+      </c>
+      <c r="B75" s="58" t="s">
+        <v>275</v>
+      </c>
+      <c r="C75" s="43">
+        <v>134</v>
+      </c>
+      <c r="D75" s="43">
+        <v>155</v>
+      </c>
+      <c r="E75" s="43">
+        <v>160</v>
+      </c>
+      <c r="F75" s="43">
+        <f>SUM(C75:E75)</f>
+        <v>449</v>
+      </c>
+      <c r="G75" s="87">
+        <f>F75/COUNTA(C75:E75)</f>
+        <v>149.66666666666666</v>
+      </c>
+      <c r="H75" s="58" t="s">
+        <v>275</v>
+      </c>
+      <c r="I75" s="70">
+        <f>VLOOKUP(B75,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="J75" s="70">
+        <f>VLOOKUP(B75,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
+        <v>2357</v>
+      </c>
+      <c r="K75" s="83">
+        <f>VLOOKUP(B75,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
+        <v>168.35714285714286</v>
+      </c>
+      <c r="L75" s="84">
+        <f>RANK(K75,'총에버 관리_2023'!$V$3:$V$21)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="18.75">
+      <c r="A76" s="77">
+        <f>RANK(G76,$G$68:$G$79)</f>
+        <v>9</v>
+      </c>
+      <c r="B76" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="C76" s="43">
+        <v>119</v>
+      </c>
+      <c r="D76" s="43">
+        <v>159</v>
+      </c>
+      <c r="E76" s="43">
+        <v>156</v>
+      </c>
+      <c r="F76" s="43">
+        <f>SUM(C76:E76)</f>
+        <v>434</v>
+      </c>
+      <c r="G76" s="87">
+        <f>F76/COUNTA(C76:E76)</f>
+        <v>144.66666666666666</v>
+      </c>
+      <c r="H76" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="I76" s="70">
+        <f>VLOOKUP(B76,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="J76" s="70">
+        <f>VLOOKUP(B76,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
+        <v>1821</v>
+      </c>
+      <c r="K76" s="83">
+        <f>VLOOKUP(B76,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
+        <v>151.75</v>
+      </c>
+      <c r="L76" s="84">
+        <f>RANK(K76,'총에버 관리_2023'!$V$3:$V$21)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="18.75">
+      <c r="A77" s="77">
+        <f>RANK(G77,$G$68:$G$79)</f>
+        <v>10</v>
+      </c>
+      <c r="B77" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="C77" s="70">
+        <v>127</v>
+      </c>
+      <c r="D77" s="70">
+        <v>122</v>
+      </c>
+      <c r="E77" s="70">
+        <v>173</v>
+      </c>
+      <c r="F77" s="43">
+        <f>SUM(C77:E77)</f>
+        <v>422</v>
+      </c>
+      <c r="G77" s="87">
+        <f>F77/COUNTA(C77:E77)</f>
+        <v>140.66666666666666</v>
+      </c>
+      <c r="H77" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="I77" s="70">
+        <f>VLOOKUP(B77,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="J77" s="70">
+        <f>VLOOKUP(B77,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
+        <v>1427</v>
+      </c>
+      <c r="K77" s="83">
+        <f>VLOOKUP(B77,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
+        <v>158.55555555555554</v>
+      </c>
+      <c r="L77" s="84">
+        <f>RANK(K77,'총에버 관리_2023'!$V$3:$V$21)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="18.75">
+      <c r="A78" s="77">
+        <f>RANK(G78,$G$68:$G$79)</f>
+        <v>11</v>
+      </c>
+      <c r="B78" s="65" t="s">
+        <v>276</v>
+      </c>
+      <c r="C78" s="43">
+        <v>137</v>
+      </c>
+      <c r="D78" s="58">
+        <v>117</v>
+      </c>
+      <c r="E78" s="43">
+        <v>145</v>
+      </c>
+      <c r="F78" s="43">
+        <f>SUM(C78:E78)</f>
+        <v>399</v>
+      </c>
+      <c r="G78" s="87">
+        <f>F78/COUNTA(C78:E78)</f>
+        <v>133</v>
+      </c>
+      <c r="H78" s="65" t="s">
+        <v>276</v>
+      </c>
+      <c r="I78" s="70">
+        <f>VLOOKUP(B78,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="J78" s="70">
+        <f>VLOOKUP(B78,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
+        <v>1504</v>
+      </c>
+      <c r="K78" s="83">
+        <f>VLOOKUP(B78,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
+        <v>125.33333333333333</v>
+      </c>
+      <c r="L78" s="84">
+        <f>RANK(K78,'총에버 관리_2023'!$V$3:$V$21)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="18.75">
+      <c r="A79" s="77">
+        <f>RANK(G79,$G$68:$G$79)</f>
+        <v>12</v>
+      </c>
+      <c r="B79" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="C79" s="43">
+        <v>104</v>
+      </c>
+      <c r="D79" s="58">
+        <v>109</v>
+      </c>
+      <c r="E79" s="43">
+        <v>165</v>
+      </c>
+      <c r="F79" s="43">
+        <f>SUM(C79:E79)</f>
+        <v>378</v>
+      </c>
+      <c r="G79" s="87">
+        <f>F79/COUNTA(C79:E79)</f>
+        <v>126</v>
+      </c>
+      <c r="H79" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="I79" s="70">
+        <f>VLOOKUP(B79,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="J79" s="70">
+        <f>VLOOKUP(B79,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
+        <v>378</v>
+      </c>
+      <c r="K79" s="83">
+        <f>VLOOKUP(B79,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
+        <v>126</v>
+      </c>
+      <c r="L79" s="84">
+        <f>RANK(K79,'총에버 관리_2023'!$V$3:$V$21)</f>
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A50:L63">
-    <sortCondition ref="A49"/>
+  <sortState ref="A68:L79">
+    <sortCondition ref="A67"/>
   </sortState>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A19:L19"/>
     <mergeCell ref="A34:L34"/>
     <mergeCell ref="A48:L48"/>
+    <mergeCell ref="A66:L66"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C4:E15 C21:E31 C36:E45">
-    <cfRule type="cellIs" dxfId="33" priority="261" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="269" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F15 F21:F31 F36:F45">
-    <cfRule type="cellIs" dxfId="32" priority="260" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="81" priority="268" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G15 G21:G31 G36:G45">
-    <cfRule type="cellIs" dxfId="31" priority="259" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="267" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K15 K21:K31 K36:K45">
-    <cfRule type="cellIs" dxfId="30" priority="258" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="79" priority="266" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:E59">
-    <cfRule type="cellIs" dxfId="26" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="20" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50:F59">
-    <cfRule type="cellIs" dxfId="24" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="77" priority="19" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:G59">
-    <cfRule type="cellIs" dxfId="22" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="18" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K50:K59">
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="17" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:E62">
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="16" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60:F62">
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="73" priority="15" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G60:G62">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="14" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K60:K62">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="13" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63:E63">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="12" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="11" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G63">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="10" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K63">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="9" operator="greaterThan">
+      <formula>199.99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68:E77">
+    <cfRule type="cellIs" dxfId="27" priority="8" operator="greaterThan">
+      <formula>199</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F68:F77">
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="greaterThan">
+      <formula>599</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G68:G77">
+    <cfRule type="cellIs" dxfId="23" priority="6" operator="greaterThan">
+      <formula>199.999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K68:K79">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="greaterThan">
+      <formula>199.99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78:E79">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="greaterThan">
+      <formula>199</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F78:F79">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="greaterThan">
+      <formula>599</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G78:G79">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThan">
+      <formula>199.999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K78:K79">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9373,19 +10113,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.9" customHeight="1">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="185" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="186"/>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="187"/>
     </row>
     <row r="2" spans="1:11" ht="27.6" customHeight="1">
       <c r="A2" s="33" t="s">
@@ -9874,19 +10614,19 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="49.5" customHeight="1">
-      <c r="A17" s="184" t="s">
+      <c r="A17" s="185" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="185"/>
-      <c r="C17" s="185"/>
-      <c r="D17" s="185"/>
-      <c r="E17" s="185"/>
-      <c r="F17" s="185"/>
-      <c r="G17" s="185"/>
-      <c r="H17" s="185"/>
-      <c r="I17" s="185"/>
-      <c r="J17" s="185"/>
-      <c r="K17" s="186"/>
+      <c r="B17" s="186"/>
+      <c r="C17" s="186"/>
+      <c r="D17" s="186"/>
+      <c r="E17" s="186"/>
+      <c r="F17" s="186"/>
+      <c r="G17" s="186"/>
+      <c r="H17" s="186"/>
+      <c r="I17" s="186"/>
+      <c r="J17" s="186"/>
+      <c r="K17" s="187"/>
     </row>
     <row r="18" spans="1:11" ht="18.75">
       <c r="A18" s="33" t="s">
@@ -10498,19 +11238,19 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="36" customHeight="1">
-      <c r="A34" s="184" t="s">
+      <c r="A34" s="185" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="185"/>
-      <c r="C34" s="185"/>
-      <c r="D34" s="185"/>
-      <c r="E34" s="185"/>
-      <c r="F34" s="185"/>
-      <c r="G34" s="185"/>
-      <c r="H34" s="185"/>
-      <c r="I34" s="185"/>
-      <c r="J34" s="185"/>
-      <c r="K34" s="186"/>
+      <c r="B34" s="186"/>
+      <c r="C34" s="186"/>
+      <c r="D34" s="186"/>
+      <c r="E34" s="186"/>
+      <c r="F34" s="186"/>
+      <c r="G34" s="186"/>
+      <c r="H34" s="186"/>
+      <c r="I34" s="186"/>
+      <c r="J34" s="186"/>
+      <c r="K34" s="187"/>
     </row>
     <row r="35" spans="1:11" ht="18.75">
       <c r="A35" s="33" t="s">
@@ -10999,19 +11739,19 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="44.25" customHeight="1">
-      <c r="A48" s="184" t="s">
+      <c r="A48" s="185" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="185"/>
-      <c r="C48" s="185"/>
-      <c r="D48" s="185"/>
-      <c r="E48" s="185"/>
-      <c r="F48" s="185"/>
-      <c r="G48" s="185"/>
-      <c r="H48" s="185"/>
-      <c r="I48" s="185"/>
-      <c r="J48" s="185"/>
-      <c r="K48" s="186"/>
+      <c r="B48" s="186"/>
+      <c r="C48" s="186"/>
+      <c r="D48" s="186"/>
+      <c r="E48" s="186"/>
+      <c r="F48" s="186"/>
+      <c r="G48" s="186"/>
+      <c r="H48" s="186"/>
+      <c r="I48" s="186"/>
+      <c r="J48" s="186"/>
+      <c r="K48" s="187"/>
     </row>
     <row r="49" spans="1:11" ht="18.75">
       <c r="A49" s="33" t="s">
@@ -11459,19 +12199,19 @@
       </c>
     </row>
     <row r="62" spans="1:11" ht="44.25" customHeight="1">
-      <c r="A62" s="184" t="s">
+      <c r="A62" s="185" t="s">
         <v>70</v>
       </c>
-      <c r="B62" s="185"/>
-      <c r="C62" s="185"/>
-      <c r="D62" s="185"/>
-      <c r="E62" s="185"/>
-      <c r="F62" s="185"/>
-      <c r="G62" s="185"/>
-      <c r="H62" s="185"/>
-      <c r="I62" s="185"/>
-      <c r="J62" s="185"/>
-      <c r="K62" s="186"/>
+      <c r="B62" s="186"/>
+      <c r="C62" s="186"/>
+      <c r="D62" s="186"/>
+      <c r="E62" s="186"/>
+      <c r="F62" s="186"/>
+      <c r="G62" s="186"/>
+      <c r="H62" s="186"/>
+      <c r="I62" s="186"/>
+      <c r="J62" s="186"/>
+      <c r="K62" s="187"/>
     </row>
     <row r="63" spans="1:11" ht="18.75">
       <c r="A63" s="33" t="s">
@@ -11961,19 +12701,19 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1"/>
     <row r="78" spans="1:11" ht="43.5" customHeight="1">
-      <c r="A78" s="184" t="s">
+      <c r="A78" s="185" t="s">
         <v>71</v>
       </c>
-      <c r="B78" s="185"/>
-      <c r="C78" s="185"/>
-      <c r="D78" s="185"/>
-      <c r="E78" s="185"/>
-      <c r="F78" s="185"/>
-      <c r="G78" s="185"/>
-      <c r="H78" s="185"/>
-      <c r="I78" s="185"/>
-      <c r="J78" s="185"/>
-      <c r="K78" s="186"/>
+      <c r="B78" s="186"/>
+      <c r="C78" s="186"/>
+      <c r="D78" s="186"/>
+      <c r="E78" s="186"/>
+      <c r="F78" s="186"/>
+      <c r="G78" s="186"/>
+      <c r="H78" s="186"/>
+      <c r="I78" s="186"/>
+      <c r="J78" s="186"/>
+      <c r="K78" s="187"/>
     </row>
     <row r="79" spans="1:11" ht="18.75">
       <c r="A79" s="33" t="s">
@@ -12515,20 +13255,20 @@
       </c>
     </row>
     <row r="95" spans="1:12" ht="42.75" customHeight="1">
-      <c r="A95" s="182" t="s">
+      <c r="A95" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="B95" s="183"/>
-      <c r="C95" s="183"/>
-      <c r="D95" s="183"/>
-      <c r="E95" s="183"/>
-      <c r="F95" s="183"/>
-      <c r="G95" s="183"/>
-      <c r="H95" s="183"/>
-      <c r="I95" s="183"/>
-      <c r="J95" s="183"/>
-      <c r="K95" s="183"/>
-      <c r="L95" s="183"/>
+      <c r="B95" s="184"/>
+      <c r="C95" s="184"/>
+      <c r="D95" s="184"/>
+      <c r="E95" s="184"/>
+      <c r="F95" s="184"/>
+      <c r="G95" s="184"/>
+      <c r="H95" s="184"/>
+      <c r="I95" s="184"/>
+      <c r="J95" s="184"/>
+      <c r="K95" s="184"/>
+      <c r="L95" s="184"/>
     </row>
     <row r="96" spans="1:12" ht="38.25" thickBot="1">
       <c r="A96" s="74" t="s">
@@ -12983,20 +13723,20 @@
       </c>
     </row>
     <row r="108" spans="1:12" ht="42.75" customHeight="1">
-      <c r="A108" s="182" t="s">
+      <c r="A108" s="183" t="s">
         <v>75</v>
       </c>
-      <c r="B108" s="183"/>
-      <c r="C108" s="183"/>
-      <c r="D108" s="183"/>
-      <c r="E108" s="183"/>
-      <c r="F108" s="183"/>
-      <c r="G108" s="183"/>
-      <c r="H108" s="183"/>
-      <c r="I108" s="183"/>
-      <c r="J108" s="183"/>
-      <c r="K108" s="183"/>
-      <c r="L108" s="183"/>
+      <c r="B108" s="184"/>
+      <c r="C108" s="184"/>
+      <c r="D108" s="184"/>
+      <c r="E108" s="184"/>
+      <c r="F108" s="184"/>
+      <c r="G108" s="184"/>
+      <c r="H108" s="184"/>
+      <c r="I108" s="184"/>
+      <c r="J108" s="184"/>
+      <c r="K108" s="184"/>
+      <c r="L108" s="184"/>
     </row>
     <row r="109" spans="1:12" ht="38.25" thickBot="1">
       <c r="A109" s="74" t="s">
@@ -13542,82 +14282,82 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C3:E13 C19:E32 C36:E46 C50:E59 C64:E74 C80:E91 C97:E105">
-    <cfRule type="cellIs" dxfId="75" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="16" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F13 F19:F32 F36:F46 F50:F59 F64:F74 F80:F91 F97:F105">
-    <cfRule type="cellIs" dxfId="74" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="15" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G13 G19:G32 G36:G46 G50:G59 G64:G74 G80:G91 G97:G105">
-    <cfRule type="cellIs" dxfId="73" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="14" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K13 K19:K32 K36:K46 K50:K59 K64:K74 K80:K91 K97:K105">
-    <cfRule type="cellIs" dxfId="72" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="13" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C110:E118">
-    <cfRule type="cellIs" dxfId="71" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="12" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F110:F118">
-    <cfRule type="cellIs" dxfId="70" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="11" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G110:G118">
-    <cfRule type="cellIs" dxfId="69" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="10" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K110:K118">
-    <cfRule type="cellIs" dxfId="68" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="9" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C119:E119">
-    <cfRule type="cellIs" dxfId="67" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="8" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119">
-    <cfRule type="cellIs" dxfId="66" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="7" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G119">
-    <cfRule type="cellIs" dxfId="65" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="6" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K119">
-    <cfRule type="cellIs" dxfId="64" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="5" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C120:E120">
-    <cfRule type="cellIs" dxfId="63" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="4" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120">
-    <cfRule type="cellIs" dxfId="62" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="3" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G120">
-    <cfRule type="cellIs" dxfId="61" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="2" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K120">
-    <cfRule type="cellIs" dxfId="60" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="1" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13628,11 +14368,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:Z21"/>
+  <dimension ref="A2:Z22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9"/>
+      <selection pane="topRight" activeCell="T21" sqref="T21:V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13732,7 +14472,10 @@
         <f>IFERROR(VLOOKUP(A3,정기전_2023!$B$50:$F$63,5,FALSE),"")</f>
         <v>447</v>
       </c>
-      <c r="F3" s="91"/>
+      <c r="F3" s="91">
+        <f>IFERROR(VLOOKUP(A3,정기전_2023!$B$68:$F$79,5,FALSE),"")</f>
+        <v>422</v>
+      </c>
       <c r="G3" s="91"/>
       <c r="H3" s="91"/>
       <c r="I3" s="91"/>
@@ -13748,15 +14491,15 @@
       <c r="S3" s="91"/>
       <c r="T3" s="92">
         <f t="shared" ref="T3:T19" si="0">SUM(B3:S3)</f>
-        <v>1005</v>
+        <v>1427</v>
       </c>
       <c r="U3" s="92">
         <f t="shared" ref="U3:U19" si="1">COUNT(B3:S3)*3</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V3" s="93">
         <f t="shared" ref="V3:V14" si="2">IF(U3=0, "",  T3/U3)</f>
-        <v>167.5</v>
+        <v>158.55555555555554</v>
       </c>
       <c r="X3" s="90"/>
       <c r="Y3" s="90"/>
@@ -13782,7 +14525,10 @@
         <f>IFERROR(VLOOKUP(A4,정기전_2023!$B$50:$F$63,5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F4" s="91"/>
+      <c r="F4" s="91">
+        <f>IFERROR(VLOOKUP(A4,정기전_2023!$B$68:$F$79,5,FALSE),"")</f>
+        <v>510</v>
+      </c>
       <c r="G4" s="91"/>
       <c r="H4" s="91"/>
       <c r="I4" s="91"/>
@@ -13798,15 +14544,15 @@
       <c r="S4" s="91"/>
       <c r="T4" s="92">
         <f t="shared" si="0"/>
-        <v>1753</v>
+        <v>2263</v>
       </c>
       <c r="U4" s="92">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V4" s="93">
         <f t="shared" si="2"/>
-        <v>194.77777777777777</v>
+        <v>188.58333333333334</v>
       </c>
       <c r="X4" s="90"/>
       <c r="Y4" s="90"/>
@@ -13832,7 +14578,10 @@
         <f>IFERROR(VLOOKUP(A5,정기전_2023!$B$50:$F$63,5,FALSE),"")</f>
         <v>537</v>
       </c>
-      <c r="F5" s="91"/>
+      <c r="F5" s="91">
+        <f>IFERROR(VLOOKUP(A5,정기전_2023!$B$68:$F$79,5,FALSE),"")</f>
+        <v>450</v>
+      </c>
       <c r="G5" s="91"/>
       <c r="H5" s="91"/>
       <c r="I5" s="91"/>
@@ -13848,15 +14597,15 @@
       <c r="S5" s="91"/>
       <c r="T5" s="92">
         <f t="shared" si="0"/>
-        <v>1709</v>
+        <v>2159</v>
       </c>
       <c r="U5" s="92">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V5" s="93">
         <f t="shared" si="2"/>
-        <v>189.88888888888889</v>
+        <v>179.91666666666666</v>
       </c>
       <c r="X5" s="90"/>
       <c r="Y5" s="90"/>
@@ -13882,7 +14631,10 @@
         <f>IFERROR(VLOOKUP(A6,정기전_2023!$B$50:$F$63,5,FALSE),"")</f>
         <v>477</v>
       </c>
-      <c r="F6" s="91"/>
+      <c r="F6" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A6,정기전_2023!$B$68:$F$79,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="G6" s="91"/>
       <c r="H6" s="91"/>
       <c r="I6" s="91"/>
@@ -13932,7 +14684,10 @@
         <f>IFERROR(VLOOKUP(A7,정기전_2023!$B$50:$F$63,5,FALSE),"")</f>
         <v>547</v>
       </c>
-      <c r="F7" s="91"/>
+      <c r="F7" s="91">
+        <f>IFERROR(VLOOKUP(A7,정기전_2023!$B$68:$F$79,5,FALSE),"")</f>
+        <v>509</v>
+      </c>
       <c r="G7" s="91"/>
       <c r="H7" s="91"/>
       <c r="I7" s="91"/>
@@ -13948,15 +14703,15 @@
       <c r="S7" s="91"/>
       <c r="T7" s="92">
         <f t="shared" si="0"/>
-        <v>1629</v>
+        <v>2138</v>
       </c>
       <c r="U7" s="92">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V7" s="93">
         <f t="shared" si="2"/>
-        <v>181</v>
+        <v>178.16666666666666</v>
       </c>
       <c r="X7" s="90"/>
       <c r="Y7" s="90"/>
@@ -13982,7 +14737,10 @@
         <f>IFERROR(VLOOKUP(A8,정기전_2023!$B$50:$F$63,5,FALSE),"")</f>
         <v>555</v>
       </c>
-      <c r="F8" s="91"/>
+      <c r="F8" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A8,정기전_2023!$B$68:$F$79,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="G8" s="91"/>
       <c r="H8" s="91"/>
       <c r="I8" s="91"/>
@@ -14032,7 +14790,10 @@
         <f>IFERROR(VLOOKUP(A9,정기전_2023!$B$50:$F$63,5,FALSE),"")</f>
         <v>498</v>
       </c>
-      <c r="F9" s="91"/>
+      <c r="F9" s="91">
+        <f>IFERROR(VLOOKUP(A9,정기전_2023!$B$68:$F$79,5,FALSE),"")</f>
+        <v>449</v>
+      </c>
       <c r="G9" s="91"/>
       <c r="H9" s="91"/>
       <c r="I9" s="91"/>
@@ -14048,15 +14809,15 @@
       <c r="S9" s="91"/>
       <c r="T9" s="92">
         <f t="shared" si="0"/>
-        <v>1908</v>
+        <v>2357</v>
       </c>
       <c r="U9" s="92">
         <f>COUNT(B9:S9)*3-1</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="V9" s="93">
         <f t="shared" si="2"/>
-        <v>173.45454545454547</v>
+        <v>168.35714285714286</v>
       </c>
       <c r="X9" s="90"/>
       <c r="Y9" s="90"/>
@@ -14082,7 +14843,10 @@
         <f>IFERROR(VLOOKUP(A10,정기전_2023!$B$50:$F$63,5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F10" s="91"/>
+      <c r="F10" s="91">
+        <f>IFERROR(VLOOKUP(A10,정기전_2023!$B$68:$F$79,5,FALSE),"")</f>
+        <v>551</v>
+      </c>
       <c r="G10" s="91"/>
       <c r="H10" s="91"/>
       <c r="I10" s="91"/>
@@ -14098,15 +14862,15 @@
       <c r="S10" s="91"/>
       <c r="T10" s="92">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>551</v>
       </c>
       <c r="U10" s="92">
         <f>COUNT(B10:S10)*3</f>
-        <v>0</v>
-      </c>
-      <c r="V10" s="93" t="str">
+        <v>3</v>
+      </c>
+      <c r="V10" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>183.66666666666666</v>
       </c>
       <c r="X10" s="90"/>
       <c r="Y10" s="90"/>
@@ -14132,7 +14896,10 @@
         <f>IFERROR(VLOOKUP(A11,정기전_2023!$B$50:$F$63,5,FALSE),"")</f>
         <v>425</v>
       </c>
-      <c r="F11" s="91"/>
+      <c r="F11" s="91">
+        <f>IFERROR(VLOOKUP(A11,정기전_2023!$B$68:$F$79,5,FALSE),"")</f>
+        <v>434</v>
+      </c>
       <c r="G11" s="91"/>
       <c r="H11" s="91"/>
       <c r="I11" s="91"/>
@@ -14148,15 +14915,15 @@
       <c r="S11" s="91"/>
       <c r="T11" s="92">
         <f t="shared" si="0"/>
-        <v>1387</v>
+        <v>1821</v>
       </c>
       <c r="U11" s="92">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V11" s="93">
         <f t="shared" si="2"/>
-        <v>154.11111111111111</v>
+        <v>151.75</v>
       </c>
       <c r="X11" s="90"/>
       <c r="Y11" s="90"/>
@@ -14182,7 +14949,10 @@
         <f>IFERROR(VLOOKUP(A12,정기전_2023!$B$50:$F$63,5,FALSE),"")</f>
         <v>589</v>
       </c>
-      <c r="F12" s="91"/>
+      <c r="F12" s="91">
+        <f>IFERROR(VLOOKUP(A12,정기전_2023!$B$68:$F$79,5,FALSE),"")</f>
+        <v>573</v>
+      </c>
       <c r="G12" s="91"/>
       <c r="H12" s="91"/>
       <c r="I12" s="91"/>
@@ -14198,15 +14968,15 @@
       <c r="S12" s="91"/>
       <c r="T12" s="92">
         <f t="shared" si="0"/>
-        <v>2421</v>
+        <v>2994</v>
       </c>
       <c r="U12" s="92">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="V12" s="93">
         <f t="shared" si="2"/>
-        <v>201.75</v>
+        <v>199.6</v>
       </c>
       <c r="X12" s="90"/>
       <c r="Y12" s="90"/>
@@ -14232,7 +15002,10 @@
         <f>IFERROR(VLOOKUP(A13,정기전_2023!$B$50:$F$63,5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F13" s="91"/>
+      <c r="F13" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A13,정기전_2023!$B$68:$F$79,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="G13" s="91"/>
       <c r="H13" s="91"/>
       <c r="I13" s="91"/>
@@ -14282,7 +15055,10 @@
         <f>IFERROR(VLOOKUP(A14,정기전_2023!$B$50:$F$63,5,FALSE),"")</f>
         <v>601</v>
       </c>
-      <c r="F14" s="91"/>
+      <c r="F14" s="91">
+        <f>IFERROR(VLOOKUP(A14,정기전_2023!$B$68:$F$79,5,FALSE),"")</f>
+        <v>463</v>
+      </c>
       <c r="G14" s="91"/>
       <c r="H14" s="91"/>
       <c r="I14" s="91"/>
@@ -14298,15 +15074,15 @@
       <c r="S14" s="91"/>
       <c r="T14" s="92">
         <f t="shared" si="0"/>
-        <v>2235</v>
+        <v>2698</v>
       </c>
       <c r="U14" s="92">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="V14" s="93">
         <f t="shared" si="2"/>
-        <v>186.25</v>
+        <v>179.86666666666667</v>
       </c>
       <c r="X14" s="90"/>
       <c r="Y14" s="90"/>
@@ -14332,7 +15108,10 @@
         <f>IFERROR(VLOOKUP(A15,정기전_2023!$B$50:$F$63,5,FALSE),"")</f>
         <v>613</v>
       </c>
-      <c r="F15" s="91"/>
+      <c r="F15" s="91">
+        <f>IFERROR(VLOOKUP(A15,정기전_2023!$B$68:$F$79,5,FALSE),"")</f>
+        <v>516</v>
+      </c>
       <c r="G15" s="91"/>
       <c r="H15" s="91"/>
       <c r="I15" s="91"/>
@@ -14348,15 +15127,15 @@
       <c r="S15" s="91"/>
       <c r="T15" s="92">
         <f t="shared" si="0"/>
-        <v>2349</v>
+        <v>2865</v>
       </c>
       <c r="U15" s="92">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="V15" s="93">
         <f t="shared" ref="V15:V16" si="3">IF(U15=0, "",  T15/U15)</f>
-        <v>195.75</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -14379,7 +15158,10 @@
         <f>IFERROR(VLOOKUP(A16,정기전_2023!$B$50:$F$63,5,FALSE),"")</f>
         <v>444</v>
       </c>
-      <c r="F16" s="91"/>
+      <c r="F16" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A16,정기전_2023!$B$68:$F$79,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="G16" s="91"/>
       <c r="H16" s="91"/>
       <c r="I16" s="91"/>
@@ -14426,7 +15208,10 @@
         <f>IFERROR(VLOOKUP(A17,정기전_2023!$B$50:$F$63,5,FALSE),"")</f>
         <v>521</v>
       </c>
-      <c r="F17" s="91"/>
+      <c r="F17" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A17,정기전_2023!$B$68:$F$79,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="G17" s="91"/>
       <c r="H17" s="91"/>
       <c r="I17" s="91"/>
@@ -14473,7 +15258,10 @@
         <f>IFERROR(VLOOKUP(A18,정기전_2023!$B$50:$F$63,5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F18" s="91"/>
+      <c r="F18" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A18,정기전_2023!$B$68:$F$79,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="G18" s="91"/>
       <c r="H18" s="91"/>
       <c r="I18" s="91"/>
@@ -14520,7 +15308,10 @@
         <f>IFERROR(VLOOKUP(A19,정기전_2023!$B$50:$F$63,5,FALSE),"")</f>
         <v>497</v>
       </c>
-      <c r="F19" s="91"/>
+      <c r="F19" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A19,정기전_2023!$B$68:$F$79,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="G19" s="91"/>
       <c r="H19" s="91"/>
       <c r="I19" s="91"/>
@@ -14567,7 +15358,10 @@
         <f>IFERROR(VLOOKUP(A20,정기전_2023!$B$50:$F$63,5,FALSE),"")</f>
         <v>351</v>
       </c>
-      <c r="F20" s="91"/>
+      <c r="F20" s="91">
+        <f>IFERROR(VLOOKUP(A20,정기전_2023!$B$68:$F$79,5,FALSE),"")</f>
+        <v>399</v>
+      </c>
       <c r="G20" s="91"/>
       <c r="H20" s="91"/>
       <c r="I20" s="91"/>
@@ -14583,79 +15377,121 @@
       <c r="S20" s="91"/>
       <c r="T20" s="92">
         <f t="shared" ref="T20" si="6">SUM(B20:S20)</f>
-        <v>1105</v>
+        <v>1504</v>
       </c>
       <c r="U20" s="92">
         <f t="shared" ref="U20" si="7">COUNT(B20:S20)*3</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V20" s="93">
         <f t="shared" ref="V20" si="8">IF(U20=0, "",  T20/U20)</f>
-        <v>122.77777777777777</v>
+        <v>125.33333333333333</v>
       </c>
     </row>
     <row r="21" spans="1:22">
-      <c r="B21" s="90">
+      <c r="A21" s="89" t="s">
+        <v>286</v>
+      </c>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91">
+        <f>IFERROR(VLOOKUP(A21,정기전_2023!$B$68:$F$79,5,FALSE),"")</f>
+        <v>378</v>
+      </c>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
+      <c r="N21" s="91"/>
+      <c r="O21" s="91"/>
+      <c r="P21" s="91"/>
+      <c r="Q21" s="91"/>
+      <c r="R21" s="91"/>
+      <c r="S21" s="91"/>
+      <c r="T21" s="92">
+        <f t="shared" ref="T21" si="9">SUM(B21:S21)</f>
+        <v>378</v>
+      </c>
+      <c r="U21" s="92">
+        <f t="shared" ref="U21" si="10">COUNT(B21:S21)*3</f>
+        <v>3</v>
+      </c>
+      <c r="V21" s="93">
+        <f t="shared" ref="V21" si="11">IF(U21=0, "",  T21/U21)</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="B22" s="90">
         <f>COUNT(B3:B20)</f>
         <v>12</v>
       </c>
-      <c r="C21" s="90">
+      <c r="C22" s="90">
         <f>COUNT(C3:C20)</f>
         <v>10</v>
       </c>
-      <c r="D21" s="90">
+      <c r="D22" s="90">
         <f>COUNT(D3:D20)</f>
         <v>10</v>
       </c>
-      <c r="E21" s="90">
+      <c r="E22" s="90">
         <f>COUNT(E3:E20)</f>
         <v>14</v>
       </c>
-      <c r="H21" s="90">
-        <f t="shared" ref="H21:P21" si="9">COUNT(H3:H19)</f>
+      <c r="F22" s="90">
+        <f>COUNT(F3:F20)</f>
+        <v>11</v>
+      </c>
+      <c r="H22" s="90">
+        <f t="shared" ref="H22:P22" si="12">COUNT(H3:H19)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="90">
-        <f t="shared" si="9"/>
+      <c r="I22" s="90">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J21" s="90">
-        <f t="shared" si="9"/>
+      <c r="J22" s="90">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K21" s="90">
-        <f t="shared" si="9"/>
+      <c r="K22" s="90">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L21" s="90">
-        <f t="shared" si="9"/>
+      <c r="L22" s="90">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M21" s="90">
-        <f t="shared" si="9"/>
+      <c r="M22" s="90">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N21" s="90">
-        <f t="shared" si="9"/>
+      <c r="N22" s="90">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O21" s="90">
-        <f t="shared" si="9"/>
+      <c r="O22" s="90">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="P21" s="90">
-        <f t="shared" si="9"/>
+      <c r="P22" s="90">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="90">
+      <c r="Q22" s="90">
         <f>COUNT(Q3:Q20)</f>
         <v>0</v>
       </c>
-      <c r="R21" s="90">
+      <c r="R22" s="90">
         <f>COUNT(R3:R20)</f>
         <v>0</v>
       </c>
-      <c r="S21" s="90">
+      <c r="S22" s="90">
         <f>COUNT(S3:S20)</f>
         <v>0</v>
       </c>
@@ -14665,16 +15501,16 @@
     <sortCondition ref="A29"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B3:S20">
-    <cfRule type="cellIs" dxfId="59" priority="18" operator="greaterThan">
+  <conditionalFormatting sqref="B3:S21">
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V20">
-    <cfRule type="cellIs" dxfId="58" priority="16" operator="equal">
+  <conditionalFormatting sqref="V3:V21">
+    <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="17" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15869,20 +16705,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:L28 I29:L29">
-    <cfRule type="cellIs" dxfId="56" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="4" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O29">
-    <cfRule type="cellIs" dxfId="55" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="3" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:L29">
-    <cfRule type="cellIs" dxfId="53" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15964,7 +16800,7 @@
       <c r="V2" s="101"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="187">
+      <c r="A3" s="192">
         <v>1</v>
       </c>
       <c r="B3" s="188" t="s">
@@ -16012,7 +16848,7 @@
       <c r="V3" s="101"/>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="187"/>
+      <c r="A4" s="192"/>
       <c r="B4" s="188"/>
       <c r="C4" s="96" t="s">
         <v>121</v>
@@ -16056,7 +16892,7 @@
       <c r="V4" s="101"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="187"/>
+      <c r="A5" s="192"/>
       <c r="B5" s="188"/>
       <c r="C5" s="96" t="s">
         <v>122</v>
@@ -16094,7 +16930,7 @@
       <c r="V5" s="101"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="187">
+      <c r="A6" s="192">
         <v>2</v>
       </c>
       <c r="B6" s="188" t="s">
@@ -16135,7 +16971,7 @@
       <c r="V6" s="101"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="187"/>
+      <c r="A7" s="192"/>
       <c r="B7" s="188"/>
       <c r="C7" s="96" t="s">
         <v>124</v>
@@ -16172,7 +17008,7 @@
       <c r="V7" s="101"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="187"/>
+      <c r="A8" s="192"/>
       <c r="B8" s="188"/>
       <c r="C8" s="96" t="s">
         <v>125</v>
@@ -16209,7 +17045,7 @@
       <c r="V8" s="101"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="187">
+      <c r="A9" s="192">
         <v>3</v>
       </c>
       <c r="B9" s="188" t="s">
@@ -16253,7 +17089,7 @@
       <c r="V9" s="101"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="187"/>
+      <c r="A10" s="192"/>
       <c r="B10" s="188"/>
       <c r="C10" s="96" t="s">
         <v>120</v>
@@ -16291,7 +17127,7 @@
       <c r="V10" s="101"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="187"/>
+      <c r="A11" s="192"/>
       <c r="B11" s="188"/>
       <c r="C11" s="96" t="s">
         <v>125</v>
@@ -16343,7 +17179,7 @@
       <c r="V11" s="101"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="187">
+      <c r="A12" s="192">
         <v>4</v>
       </c>
       <c r="B12" s="188" t="s">
@@ -16405,7 +17241,7 @@
       <c r="V12" s="101"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="187"/>
+      <c r="A13" s="192"/>
       <c r="B13" s="188"/>
       <c r="C13" s="96" t="s">
         <v>124</v>
@@ -16463,7 +17299,7 @@
       <c r="V13" s="101"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="187"/>
+      <c r="A14" s="192"/>
       <c r="B14" s="188"/>
       <c r="C14" s="96" t="s">
         <v>125</v>
@@ -16521,7 +17357,7 @@
       <c r="V14" s="101"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="187">
+      <c r="A15" s="192">
         <v>5</v>
       </c>
       <c r="B15" s="188" t="s">
@@ -16583,7 +17419,7 @@
       <c r="V15" s="101"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="187"/>
+      <c r="A16" s="192"/>
       <c r="B16" s="188"/>
       <c r="C16" s="96" t="s">
         <v>121</v>
@@ -16641,7 +17477,7 @@
       <c r="V16" s="101"/>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="187"/>
+      <c r="A17" s="192"/>
       <c r="B17" s="188"/>
       <c r="C17" s="96" t="s">
         <v>125</v>
@@ -16699,7 +17535,7 @@
       <c r="V17" s="101"/>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="187">
+      <c r="A18" s="192">
         <v>6</v>
       </c>
       <c r="B18" s="188" t="s">
@@ -16761,7 +17597,7 @@
       <c r="V18" s="101"/>
     </row>
     <row r="19" spans="1:22">
-      <c r="A19" s="187"/>
+      <c r="A19" s="192"/>
       <c r="B19" s="188"/>
       <c r="C19" s="96" t="s">
         <v>120</v>
@@ -16785,10 +17621,10 @@
       <c r="I19" s="96">
         <v>0</v>
       </c>
-      <c r="K19" s="192" t="s">
+      <c r="K19" s="193" t="s">
         <v>109</v>
       </c>
-      <c r="L19" s="192"/>
+      <c r="L19" s="193"/>
       <c r="M19" s="106">
         <f ca="1">SUM(M12:M18)</f>
         <v>39</v>
@@ -16807,7 +17643,7 @@
       <c r="V19" s="101"/>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="187"/>
+      <c r="A20" s="192"/>
       <c r="B20" s="188"/>
       <c r="C20" s="96" t="s">
         <v>125</v>
@@ -16844,7 +17680,7 @@
       <c r="V20" s="101"/>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="187">
+      <c r="A21" s="192">
         <v>7</v>
       </c>
       <c r="B21" s="188" t="s">
@@ -16885,7 +17721,7 @@
       <c r="V21" s="101"/>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="187"/>
+      <c r="A22" s="192"/>
       <c r="B22" s="188"/>
       <c r="C22" s="96" t="s">
         <v>142</v>
@@ -16922,7 +17758,7 @@
       <c r="V22" s="101"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="187"/>
+      <c r="A23" s="192"/>
       <c r="B23" s="188"/>
       <c r="C23" s="96" t="s">
         <v>143</v>
@@ -16959,7 +17795,7 @@
       <c r="V23" s="101"/>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="187">
+      <c r="A24" s="192">
         <v>8</v>
       </c>
       <c r="B24" s="188" t="s">
@@ -17000,7 +17836,7 @@
       <c r="V24" s="101"/>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="187"/>
+      <c r="A25" s="192"/>
       <c r="B25" s="188"/>
       <c r="C25" s="96" t="s">
         <v>147</v>
@@ -17037,7 +17873,7 @@
       <c r="V25" s="101"/>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="187"/>
+      <c r="A26" s="192"/>
       <c r="B26" s="188"/>
       <c r="C26" s="96" t="s">
         <v>148</v>
@@ -17075,7 +17911,7 @@
       <c r="V26" s="101"/>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="187">
+      <c r="A27" s="192">
         <v>9</v>
       </c>
       <c r="B27" s="188" t="s">
@@ -17117,7 +17953,7 @@
       <c r="V27" s="101"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="187"/>
+      <c r="A28" s="192"/>
       <c r="B28" s="188"/>
       <c r="C28" s="96" t="s">
         <v>154</v>
@@ -17155,7 +17991,7 @@
       <c r="V28" s="101"/>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="187"/>
+      <c r="A29" s="192"/>
       <c r="B29" s="188"/>
       <c r="C29" s="96" t="s">
         <v>155</v>
@@ -17243,15 +18079,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K9:Q10"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="K19:L19"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="A12:A14"/>
@@ -17264,15 +18091,24 @@
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="B24:B26"/>
+    <mergeCell ref="K9:Q10"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="K19:L19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D3:F29">
-    <cfRule type="cellIs" dxfId="52" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="4" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G30">
-    <cfRule type="cellIs" dxfId="51" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="1" operator="greaterThan">
       <formula>599.99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17350,7 +18186,7 @@
       <c r="R2" s="101"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="187">
+      <c r="A3" s="192">
         <v>1</v>
       </c>
       <c r="B3" s="188" t="s">
@@ -17394,7 +18230,7 @@
       <c r="R3" s="101"/>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="187"/>
+      <c r="A4" s="192"/>
       <c r="B4" s="188"/>
       <c r="C4" s="96" t="s">
         <v>188</v>
@@ -17434,7 +18270,7 @@
       <c r="R4" s="101"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="187"/>
+      <c r="A5" s="192"/>
       <c r="B5" s="188"/>
       <c r="C5" s="96" t="s">
         <v>187</v>
@@ -17468,7 +18304,7 @@
       <c r="R5" s="101"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="187">
+      <c r="A6" s="192">
         <v>2</v>
       </c>
       <c r="B6" s="188" t="s">
@@ -17509,7 +18345,7 @@
       <c r="V6" s="101"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="187"/>
+      <c r="A7" s="192"/>
       <c r="B7" s="188"/>
       <c r="C7" s="96" t="s">
         <v>189</v>
@@ -17546,7 +18382,7 @@
       <c r="V7" s="101"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="187"/>
+      <c r="A8" s="192"/>
       <c r="B8" s="188"/>
       <c r="C8" s="96" t="s">
         <v>190</v>
@@ -17583,7 +18419,7 @@
       <c r="V8" s="101"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="187">
+      <c r="A9" s="192">
         <v>3</v>
       </c>
       <c r="B9" s="188" t="s">
@@ -17627,7 +18463,7 @@
       <c r="V9" s="101"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="187"/>
+      <c r="A10" s="192"/>
       <c r="B10" s="188"/>
       <c r="C10" s="96" t="s">
         <v>189</v>
@@ -17665,7 +18501,7 @@
       <c r="V10" s="101"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="187"/>
+      <c r="A11" s="192"/>
       <c r="B11" s="188"/>
       <c r="C11" s="96" t="s">
         <v>190</v>
@@ -17717,7 +18553,7 @@
       <c r="V11" s="101"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="187">
+      <c r="A12" s="192">
         <v>4</v>
       </c>
       <c r="B12" s="188" t="s">
@@ -17779,7 +18615,7 @@
       <c r="V12" s="101"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="187"/>
+      <c r="A13" s="192"/>
       <c r="B13" s="188"/>
       <c r="C13" s="96" t="s">
         <v>189</v>
@@ -17837,7 +18673,7 @@
       <c r="V13" s="101"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="187"/>
+      <c r="A14" s="192"/>
       <c r="B14" s="188"/>
       <c r="C14" s="96" t="s">
         <v>190</v>
@@ -17895,7 +18731,7 @@
       <c r="V14" s="101"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="187">
+      <c r="A15" s="192">
         <v>5</v>
       </c>
       <c r="B15" s="188" t="s">
@@ -17957,7 +18793,7 @@
       <c r="V15" s="101"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="187"/>
+      <c r="A16" s="192"/>
       <c r="B16" s="188"/>
       <c r="C16" s="96" t="s">
         <v>189</v>
@@ -18015,7 +18851,7 @@
       <c r="V16" s="101"/>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="187"/>
+      <c r="A17" s="192"/>
       <c r="B17" s="188"/>
       <c r="C17" s="96" t="s">
         <v>190</v>
@@ -18039,10 +18875,10 @@
       <c r="I17" s="96">
         <v>1</v>
       </c>
-      <c r="K17" s="192" t="s">
+      <c r="K17" s="193" t="s">
         <v>109</v>
       </c>
-      <c r="L17" s="192"/>
+      <c r="L17" s="193"/>
       <c r="M17" s="106">
         <f ca="1">SUM(M12:M16)</f>
         <v>39</v>
@@ -18061,7 +18897,7 @@
       <c r="V17" s="101"/>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="187">
+      <c r="A18" s="192">
         <v>6</v>
       </c>
       <c r="B18" s="188" t="s">
@@ -18102,7 +18938,7 @@
       <c r="V18" s="101"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="187"/>
+      <c r="A19" s="192"/>
       <c r="B19" s="188"/>
       <c r="C19" s="96" t="s">
         <v>189</v>
@@ -18139,7 +18975,7 @@
       <c r="V19" s="101"/>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="187"/>
+      <c r="A20" s="192"/>
       <c r="B20" s="188"/>
       <c r="C20" s="96" t="s">
         <v>190</v>
@@ -18176,7 +19012,7 @@
       <c r="V20" s="101"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="187">
+      <c r="A21" s="192">
         <v>7</v>
       </c>
       <c r="B21" s="188" t="s">
@@ -18215,7 +19051,7 @@
       <c r="V21" s="101"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="187"/>
+      <c r="A22" s="192"/>
       <c r="B22" s="188"/>
       <c r="C22" s="96" t="s">
         <v>188</v>
@@ -18249,7 +19085,7 @@
       <c r="V22" s="101"/>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" s="187"/>
+      <c r="A23" s="192"/>
       <c r="B23" s="188"/>
       <c r="C23" s="96" t="s">
         <v>189</v>
@@ -18281,7 +19117,7 @@
       <c r="V23" s="101"/>
     </row>
     <row r="24" spans="1:23">
-      <c r="A24" s="187">
+      <c r="A24" s="192">
         <v>8</v>
       </c>
       <c r="B24" s="188" t="s">
@@ -18318,7 +19154,7 @@
       <c r="V24" s="101"/>
     </row>
     <row r="25" spans="1:23">
-      <c r="A25" s="187"/>
+      <c r="A25" s="192"/>
       <c r="B25" s="188"/>
       <c r="C25" s="96" t="s">
         <v>101</v>
@@ -18352,7 +19188,7 @@
       <c r="W25" s="114"/>
     </row>
     <row r="26" spans="1:23">
-      <c r="A26" s="187"/>
+      <c r="A26" s="192"/>
       <c r="B26" s="188"/>
       <c r="C26" s="96" t="s">
         <v>102</v>
@@ -18390,7 +19226,7 @@
       <c r="W26" s="114"/>
     </row>
     <row r="27" spans="1:23">
-      <c r="A27" s="187">
+      <c r="A27" s="192">
         <v>9</v>
       </c>
       <c r="B27" s="188" t="s">
@@ -18432,7 +19268,7 @@
       <c r="W27" s="114"/>
     </row>
     <row r="28" spans="1:23">
-      <c r="A28" s="187"/>
+      <c r="A28" s="192"/>
       <c r="B28" s="188"/>
       <c r="C28" s="96" t="s">
         <v>101</v>
@@ -18470,7 +19306,7 @@
       <c r="V28" s="101"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="187"/>
+      <c r="A29" s="192"/>
       <c r="B29" s="188"/>
       <c r="C29" s="96" t="s">
         <v>102</v>
@@ -18540,6 +19376,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="K17:L17"/>
@@ -18555,21 +19397,15 @@
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D3:F29">
-    <cfRule type="cellIs" dxfId="50" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="9" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G30">
-    <cfRule type="cellIs" dxfId="49" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="8" operator="greaterThan">
       <formula>599.99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19094,56 +19930,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="193" t="s">
+      <c r="A1" s="194" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="193"/>
-      <c r="I1" s="193"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="193"/>
-      <c r="L1" s="193"/>
-      <c r="M1" s="193"/>
-      <c r="N1" s="193"/>
-      <c r="O1" s="193"/>
-      <c r="P1" s="193"/>
-      <c r="Q1" s="193"/>
-      <c r="R1" s="193"/>
-      <c r="S1" s="193"/>
-      <c r="T1" s="193"/>
-      <c r="U1" s="193"/>
-      <c r="V1" s="193"/>
-      <c r="W1" s="193"/>
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="194"/>
+      <c r="L1" s="194"/>
+      <c r="M1" s="194"/>
+      <c r="N1" s="194"/>
+      <c r="O1" s="194"/>
+      <c r="P1" s="194"/>
+      <c r="Q1" s="194"/>
+      <c r="R1" s="194"/>
+      <c r="S1" s="194"/>
+      <c r="T1" s="194"/>
+      <c r="U1" s="194"/>
+      <c r="V1" s="194"/>
+      <c r="W1" s="194"/>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="194"/>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="194"/>
-      <c r="K2" s="194"/>
-      <c r="L2" s="194"/>
-      <c r="M2" s="194"/>
-      <c r="N2" s="194"/>
-      <c r="O2" s="194"/>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="194"/>
-      <c r="S2" s="194"/>
-      <c r="T2" s="194"/>
-      <c r="U2" s="194"/>
-      <c r="V2" s="194"/>
-      <c r="W2" s="194"/>
+      <c r="A2" s="195"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="195"/>
+      <c r="P2" s="195"/>
+      <c r="Q2" s="195"/>
+      <c r="R2" s="195"/>
+      <c r="S2" s="195"/>
+      <c r="T2" s="195"/>
+      <c r="U2" s="195"/>
+      <c r="V2" s="195"/>
+      <c r="W2" s="195"/>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="118" t="s">
@@ -21751,67 +22587,67 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F25:G28 B4:S24 H25:S33">
-    <cfRule type="cellIs" dxfId="48" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="15" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4:W28">
-    <cfRule type="cellIs" dxfId="47" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="13" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="14" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:S25">
-    <cfRule type="cellIs" dxfId="45" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="12" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W25">
-    <cfRule type="cellIs" dxfId="44" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="10" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="11" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:S28">
-    <cfRule type="cellIs" dxfId="42" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="9" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W26:W28">
-    <cfRule type="cellIs" dxfId="41" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="7" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="8" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:G33">
-    <cfRule type="cellIs" dxfId="39" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W29:W33">
-    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:S33">
-    <cfRule type="cellIs" dxfId="36" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W29:W33">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2023년 락클럽 에버관리.xlsx
+++ b/2023년 락클럽 에버관리.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="300">
   <si>
     <t>적요</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -1126,6 +1126,58 @@
   </si>
   <si>
     <t>박찬용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023 樂 클럽 3월 셋째주 정기전 종합</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>이민철</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박신호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이선화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박정구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박찬용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김준호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정승우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이정훈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진해진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김현배</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김범승</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김주성(게)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1928,7 +1980,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2316,56 +2368,156 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="10"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="10"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="10"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="10"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2412,152 +2564,52 @@
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="10"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="10"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="10"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="10"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2575,6 +2627,9 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="182" fontId="11" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2587,9 +2642,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="11" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2599,33 +2651,15 @@
     <xf numFmtId="0" fontId="16" fillId="8" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="83">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="88">
     <dxf>
       <font>
         <b/>
@@ -2648,32 +2682,11 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2954,6 +2967,83 @@
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -3935,33 +4025,33 @@
       <c r="DG4" s="4"/>
     </row>
     <row r="5" spans="2:111" ht="20.100000000000001" customHeight="1">
-      <c r="S5" s="122" t="s">
+      <c r="S5" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="130" t="s">
+      <c r="T5" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="U5" s="131"/>
-      <c r="V5" s="131"/>
-      <c r="W5" s="132"/>
-      <c r="X5" s="130" t="s">
+      <c r="U5" s="179"/>
+      <c r="V5" s="179"/>
+      <c r="W5" s="180"/>
+      <c r="X5" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="Y5" s="131"/>
-      <c r="Z5" s="131"/>
-      <c r="AA5" s="132"/>
-      <c r="AB5" s="130" t="s">
+      <c r="Y5" s="179"/>
+      <c r="Z5" s="179"/>
+      <c r="AA5" s="180"/>
+      <c r="AB5" s="178" t="s">
         <v>19</v>
       </c>
-      <c r="AC5" s="131"/>
-      <c r="AD5" s="131"/>
-      <c r="AE5" s="132"/>
-      <c r="AF5" s="130" t="s">
+      <c r="AC5" s="179"/>
+      <c r="AD5" s="179"/>
+      <c r="AE5" s="180"/>
+      <c r="AF5" s="178" t="s">
         <v>20</v>
       </c>
-      <c r="AG5" s="131"/>
-      <c r="AH5" s="131"/>
-      <c r="AI5" s="133"/>
+      <c r="AG5" s="179"/>
+      <c r="AH5" s="179"/>
+      <c r="AI5" s="181"/>
       <c r="AM5" s="4"/>
       <c r="AN5" s="4"/>
       <c r="AO5" s="4"/>
@@ -3980,23 +4070,23 @@
       <c r="BB5" s="4"/>
       <c r="BC5" s="4"/>
       <c r="BD5" s="4"/>
-      <c r="BE5" s="134"/>
-      <c r="BF5" s="124"/>
-      <c r="BG5" s="124"/>
-      <c r="BH5" s="124"/>
-      <c r="BI5" s="124"/>
-      <c r="BJ5" s="124"/>
-      <c r="BK5" s="124"/>
-      <c r="BL5" s="124"/>
-      <c r="BM5" s="124"/>
-      <c r="BN5" s="124"/>
-      <c r="BO5" s="124"/>
-      <c r="BP5" s="124"/>
-      <c r="BQ5" s="124"/>
-      <c r="BR5" s="124"/>
-      <c r="BS5" s="124"/>
-      <c r="BT5" s="124"/>
-      <c r="BU5" s="124"/>
+      <c r="BE5" s="182"/>
+      <c r="BF5" s="123"/>
+      <c r="BG5" s="123"/>
+      <c r="BH5" s="123"/>
+      <c r="BI5" s="123"/>
+      <c r="BJ5" s="123"/>
+      <c r="BK5" s="123"/>
+      <c r="BL5" s="123"/>
+      <c r="BM5" s="123"/>
+      <c r="BN5" s="123"/>
+      <c r="BO5" s="123"/>
+      <c r="BP5" s="123"/>
+      <c r="BQ5" s="123"/>
+      <c r="BR5" s="123"/>
+      <c r="BS5" s="123"/>
+      <c r="BT5" s="123"/>
+      <c r="BU5" s="123"/>
       <c r="BV5" s="14"/>
       <c r="BW5" s="14"/>
       <c r="BX5" s="14"/>
@@ -4046,23 +4136,23 @@
       <c r="O6" s="17"/>
       <c r="P6" s="17"/>
       <c r="Q6" s="17"/>
-      <c r="S6" s="123"/>
-      <c r="T6" s="125"/>
-      <c r="U6" s="126"/>
-      <c r="V6" s="126"/>
-      <c r="W6" s="127"/>
-      <c r="X6" s="125"/>
-      <c r="Y6" s="126"/>
-      <c r="Z6" s="126"/>
-      <c r="AA6" s="127"/>
-      <c r="AB6" s="125"/>
-      <c r="AC6" s="126"/>
-      <c r="AD6" s="126"/>
-      <c r="AE6" s="127"/>
-      <c r="AF6" s="125"/>
-      <c r="AG6" s="126"/>
-      <c r="AH6" s="126"/>
-      <c r="AI6" s="128"/>
+      <c r="S6" s="172"/>
+      <c r="T6" s="173"/>
+      <c r="U6" s="174"/>
+      <c r="V6" s="174"/>
+      <c r="W6" s="175"/>
+      <c r="X6" s="173"/>
+      <c r="Y6" s="174"/>
+      <c r="Z6" s="174"/>
+      <c r="AA6" s="175"/>
+      <c r="AB6" s="173"/>
+      <c r="AC6" s="174"/>
+      <c r="AD6" s="174"/>
+      <c r="AE6" s="175"/>
+      <c r="AF6" s="173"/>
+      <c r="AG6" s="174"/>
+      <c r="AH6" s="174"/>
+      <c r="AI6" s="176"/>
       <c r="AM6" s="18"/>
       <c r="AN6" s="4"/>
       <c r="AO6" s="4"/>
@@ -4081,23 +4171,23 @@
       <c r="BB6" s="19"/>
       <c r="BC6" s="19"/>
       <c r="BD6" s="4"/>
-      <c r="BE6" s="134"/>
-      <c r="BF6" s="129"/>
-      <c r="BG6" s="129"/>
-      <c r="BH6" s="129"/>
-      <c r="BI6" s="129"/>
-      <c r="BJ6" s="129"/>
-      <c r="BK6" s="129"/>
-      <c r="BL6" s="129"/>
-      <c r="BM6" s="129"/>
-      <c r="BN6" s="129"/>
-      <c r="BO6" s="129"/>
-      <c r="BP6" s="129"/>
-      <c r="BQ6" s="129"/>
-      <c r="BR6" s="129"/>
-      <c r="BS6" s="129"/>
-      <c r="BT6" s="129"/>
-      <c r="BU6" s="129"/>
+      <c r="BE6" s="182"/>
+      <c r="BF6" s="177"/>
+      <c r="BG6" s="177"/>
+      <c r="BH6" s="177"/>
+      <c r="BI6" s="177"/>
+      <c r="BJ6" s="177"/>
+      <c r="BK6" s="177"/>
+      <c r="BL6" s="177"/>
+      <c r="BM6" s="177"/>
+      <c r="BN6" s="177"/>
+      <c r="BO6" s="177"/>
+      <c r="BP6" s="177"/>
+      <c r="BQ6" s="177"/>
+      <c r="BR6" s="177"/>
+      <c r="BS6" s="177"/>
+      <c r="BT6" s="177"/>
+      <c r="BU6" s="177"/>
       <c r="BV6" s="20"/>
       <c r="BW6" s="20"/>
       <c r="BX6" s="20"/>
@@ -4123,77 +4213,77 @@
       <c r="DG6" s="20"/>
     </row>
     <row r="7" spans="2:111" ht="65.099999999999994" customHeight="1">
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
-      <c r="O7" s="136"/>
-      <c r="P7" s="136"/>
-      <c r="Q7" s="136"/>
-      <c r="R7" s="136"/>
-      <c r="S7" s="136"/>
-      <c r="T7" s="136"/>
-      <c r="U7" s="136"/>
-      <c r="V7" s="136"/>
-      <c r="W7" s="136"/>
-      <c r="X7" s="136"/>
-      <c r="Y7" s="136"/>
-      <c r="Z7" s="136"/>
-      <c r="AA7" s="136"/>
-      <c r="AB7" s="136"/>
-      <c r="AC7" s="136"/>
-      <c r="AD7" s="136"/>
-      <c r="AE7" s="136"/>
-      <c r="AF7" s="136"/>
-      <c r="AG7" s="136"/>
-      <c r="AH7" s="136"/>
-      <c r="AI7" s="137"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="161"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="161"/>
+      <c r="L7" s="161"/>
+      <c r="M7" s="161"/>
+      <c r="N7" s="161"/>
+      <c r="O7" s="161"/>
+      <c r="P7" s="161"/>
+      <c r="Q7" s="161"/>
+      <c r="R7" s="161"/>
+      <c r="S7" s="161"/>
+      <c r="T7" s="161"/>
+      <c r="U7" s="161"/>
+      <c r="V7" s="161"/>
+      <c r="W7" s="161"/>
+      <c r="X7" s="161"/>
+      <c r="Y7" s="161"/>
+      <c r="Z7" s="161"/>
+      <c r="AA7" s="161"/>
+      <c r="AB7" s="161"/>
+      <c r="AC7" s="161"/>
+      <c r="AD7" s="161"/>
+      <c r="AE7" s="161"/>
+      <c r="AF7" s="161"/>
+      <c r="AG7" s="161"/>
+      <c r="AH7" s="161"/>
+      <c r="AI7" s="162"/>
       <c r="AM7" s="18"/>
-      <c r="AN7" s="138"/>
-      <c r="AO7" s="138"/>
-      <c r="AP7" s="138"/>
-      <c r="AQ7" s="138"/>
-      <c r="AR7" s="138"/>
-      <c r="AS7" s="138"/>
-      <c r="AT7" s="138"/>
-      <c r="AU7" s="138"/>
-      <c r="AV7" s="138"/>
-      <c r="AW7" s="138"/>
-      <c r="AX7" s="138"/>
-      <c r="AY7" s="138"/>
-      <c r="AZ7" s="138"/>
-      <c r="BA7" s="138"/>
-      <c r="BB7" s="138"/>
-      <c r="BC7" s="138"/>
-      <c r="BD7" s="138"/>
-      <c r="BE7" s="138"/>
-      <c r="BF7" s="138"/>
-      <c r="BG7" s="138"/>
-      <c r="BH7" s="138"/>
-      <c r="BI7" s="138"/>
-      <c r="BJ7" s="138"/>
-      <c r="BK7" s="138"/>
-      <c r="BL7" s="138"/>
-      <c r="BM7" s="138"/>
-      <c r="BN7" s="138"/>
-      <c r="BO7" s="138"/>
-      <c r="BP7" s="138"/>
-      <c r="BQ7" s="138"/>
-      <c r="BR7" s="138"/>
-      <c r="BS7" s="138"/>
-      <c r="BT7" s="138"/>
-      <c r="BU7" s="138"/>
+      <c r="AN7" s="163"/>
+      <c r="AO7" s="163"/>
+      <c r="AP7" s="163"/>
+      <c r="AQ7" s="163"/>
+      <c r="AR7" s="163"/>
+      <c r="AS7" s="163"/>
+      <c r="AT7" s="163"/>
+      <c r="AU7" s="163"/>
+      <c r="AV7" s="163"/>
+      <c r="AW7" s="163"/>
+      <c r="AX7" s="163"/>
+      <c r="AY7" s="163"/>
+      <c r="AZ7" s="163"/>
+      <c r="BA7" s="163"/>
+      <c r="BB7" s="163"/>
+      <c r="BC7" s="163"/>
+      <c r="BD7" s="163"/>
+      <c r="BE7" s="163"/>
+      <c r="BF7" s="163"/>
+      <c r="BG7" s="163"/>
+      <c r="BH7" s="163"/>
+      <c r="BI7" s="163"/>
+      <c r="BJ7" s="163"/>
+      <c r="BK7" s="163"/>
+      <c r="BL7" s="163"/>
+      <c r="BM7" s="163"/>
+      <c r="BN7" s="163"/>
+      <c r="BO7" s="163"/>
+      <c r="BP7" s="163"/>
+      <c r="BQ7" s="163"/>
+      <c r="BR7" s="163"/>
+      <c r="BS7" s="163"/>
+      <c r="BT7" s="163"/>
+      <c r="BU7" s="163"/>
       <c r="BV7" s="21"/>
       <c r="BW7" s="21"/>
       <c r="BX7" s="21"/>
@@ -4222,30 +4312,30 @@
       <c r="DG7" s="21"/>
     </row>
     <row r="8" spans="2:111" ht="30" customHeight="1">
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="141">
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="166">
         <f>SUM(S14:AA23)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="141"/>
-      <c r="G8" s="141"/>
-      <c r="H8" s="141"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="141"/>
-      <c r="K8" s="141"/>
-      <c r="L8" s="141"/>
-      <c r="M8" s="141"/>
-      <c r="N8" s="141"/>
-      <c r="O8" s="141"/>
-      <c r="P8" s="141"/>
-      <c r="Q8" s="141"/>
-      <c r="R8" s="141"/>
-      <c r="S8" s="141"/>
-      <c r="T8" s="141"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="166"/>
+      <c r="L8" s="166"/>
+      <c r="M8" s="166"/>
+      <c r="N8" s="166"/>
+      <c r="O8" s="166"/>
+      <c r="P8" s="166"/>
+      <c r="Q8" s="166"/>
+      <c r="R8" s="166"/>
+      <c r="S8" s="166"/>
+      <c r="T8" s="166"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4" t="s">
         <v>23</v>
@@ -4258,54 +4348,54 @@
       <c r="Z8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA8" s="142">
+      <c r="AA8" s="167">
         <f>E8</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="142"/>
-      <c r="AC8" s="142"/>
-      <c r="AD8" s="142"/>
-      <c r="AE8" s="142"/>
-      <c r="AF8" s="142"/>
-      <c r="AG8" s="142"/>
-      <c r="AH8" s="142"/>
+      <c r="AB8" s="167"/>
+      <c r="AC8" s="167"/>
+      <c r="AD8" s="167"/>
+      <c r="AE8" s="167"/>
+      <c r="AF8" s="167"/>
+      <c r="AG8" s="167"/>
+      <c r="AH8" s="167"/>
       <c r="AI8" s="23" t="s">
         <v>26</v>
       </c>
       <c r="AM8" s="4"/>
-      <c r="AN8" s="143"/>
-      <c r="AO8" s="143"/>
-      <c r="AP8" s="143"/>
-      <c r="AQ8" s="144"/>
-      <c r="AR8" s="144"/>
-      <c r="AS8" s="144"/>
-      <c r="AT8" s="144"/>
-      <c r="AU8" s="144"/>
-      <c r="AV8" s="144"/>
-      <c r="AW8" s="144"/>
-      <c r="AX8" s="144"/>
-      <c r="AY8" s="144"/>
-      <c r="AZ8" s="144"/>
-      <c r="BA8" s="144"/>
-      <c r="BB8" s="144"/>
-      <c r="BC8" s="144"/>
-      <c r="BD8" s="144"/>
-      <c r="BE8" s="144"/>
-      <c r="BF8" s="144"/>
+      <c r="AN8" s="168"/>
+      <c r="AO8" s="168"/>
+      <c r="AP8" s="168"/>
+      <c r="AQ8" s="169"/>
+      <c r="AR8" s="169"/>
+      <c r="AS8" s="169"/>
+      <c r="AT8" s="169"/>
+      <c r="AU8" s="169"/>
+      <c r="AV8" s="169"/>
+      <c r="AW8" s="169"/>
+      <c r="AX8" s="169"/>
+      <c r="AY8" s="169"/>
+      <c r="AZ8" s="169"/>
+      <c r="BA8" s="169"/>
+      <c r="BB8" s="169"/>
+      <c r="BC8" s="169"/>
+      <c r="BD8" s="169"/>
+      <c r="BE8" s="169"/>
+      <c r="BF8" s="169"/>
       <c r="BG8" s="4"/>
       <c r="BH8" s="4"/>
       <c r="BI8" s="4"/>
       <c r="BJ8" s="4"/>
       <c r="BK8" s="4"/>
       <c r="BL8" s="4"/>
-      <c r="BM8" s="145"/>
-      <c r="BN8" s="145"/>
-      <c r="BO8" s="145"/>
-      <c r="BP8" s="145"/>
-      <c r="BQ8" s="145"/>
-      <c r="BR8" s="145"/>
-      <c r="BS8" s="145"/>
-      <c r="BT8" s="145"/>
+      <c r="BM8" s="170"/>
+      <c r="BN8" s="170"/>
+      <c r="BO8" s="170"/>
+      <c r="BP8" s="170"/>
+      <c r="BQ8" s="170"/>
+      <c r="BR8" s="170"/>
+      <c r="BS8" s="170"/>
+      <c r="BT8" s="170"/>
       <c r="BU8" s="4"/>
       <c r="BV8" s="4"/>
       <c r="BW8" s="4"/>
@@ -4337,83 +4427,83 @@
       <c r="DG8" s="4"/>
     </row>
     <row r="9" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B9" s="147" t="s">
+      <c r="B9" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="148"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="150">
+      <c r="C9" s="153"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="155">
         <v>44351</v>
       </c>
-      <c r="F9" s="151"/>
-      <c r="G9" s="151"/>
-      <c r="H9" s="151"/>
-      <c r="I9" s="151"/>
-      <c r="J9" s="151"/>
-      <c r="K9" s="151"/>
-      <c r="L9" s="151"/>
-      <c r="M9" s="151"/>
-      <c r="N9" s="151"/>
-      <c r="O9" s="151"/>
-      <c r="P9" s="151"/>
-      <c r="Q9" s="151"/>
-      <c r="R9" s="152"/>
-      <c r="S9" s="153" t="s">
+      <c r="F9" s="156"/>
+      <c r="G9" s="156"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="156"/>
+      <c r="J9" s="156"/>
+      <c r="K9" s="156"/>
+      <c r="L9" s="156"/>
+      <c r="M9" s="156"/>
+      <c r="N9" s="156"/>
+      <c r="O9" s="156"/>
+      <c r="P9" s="156"/>
+      <c r="Q9" s="156"/>
+      <c r="R9" s="157"/>
+      <c r="S9" s="158" t="s">
         <v>28</v>
       </c>
-      <c r="T9" s="149"/>
-      <c r="U9" s="153"/>
-      <c r="V9" s="148"/>
-      <c r="W9" s="148"/>
-      <c r="X9" s="148"/>
-      <c r="Y9" s="148"/>
-      <c r="Z9" s="148"/>
-      <c r="AA9" s="149"/>
-      <c r="AB9" s="153" t="s">
+      <c r="T9" s="154"/>
+      <c r="U9" s="158"/>
+      <c r="V9" s="153"/>
+      <c r="W9" s="153"/>
+      <c r="X9" s="153"/>
+      <c r="Y9" s="153"/>
+      <c r="Z9" s="153"/>
+      <c r="AA9" s="154"/>
+      <c r="AB9" s="158" t="s">
         <v>29</v>
       </c>
-      <c r="AC9" s="148"/>
-      <c r="AD9" s="148"/>
-      <c r="AE9" s="149"/>
-      <c r="AF9" s="153"/>
-      <c r="AG9" s="148"/>
-      <c r="AH9" s="148"/>
-      <c r="AI9" s="154"/>
+      <c r="AC9" s="153"/>
+      <c r="AD9" s="153"/>
+      <c r="AE9" s="154"/>
+      <c r="AF9" s="158"/>
+      <c r="AG9" s="153"/>
+      <c r="AH9" s="153"/>
+      <c r="AI9" s="159"/>
       <c r="AM9" s="4"/>
-      <c r="AN9" s="124"/>
-      <c r="AO9" s="124"/>
-      <c r="AP9" s="124"/>
-      <c r="AQ9" s="146"/>
-      <c r="AR9" s="146"/>
-      <c r="AS9" s="146"/>
-      <c r="AT9" s="146"/>
-      <c r="AU9" s="146"/>
-      <c r="AV9" s="146"/>
-      <c r="AW9" s="146"/>
-      <c r="AX9" s="146"/>
-      <c r="AY9" s="146"/>
-      <c r="AZ9" s="146"/>
-      <c r="BA9" s="146"/>
-      <c r="BB9" s="146"/>
-      <c r="BC9" s="146"/>
-      <c r="BD9" s="146"/>
-      <c r="BE9" s="124"/>
-      <c r="BF9" s="124"/>
-      <c r="BG9" s="124"/>
-      <c r="BH9" s="124"/>
-      <c r="BI9" s="124"/>
-      <c r="BJ9" s="124"/>
-      <c r="BK9" s="124"/>
-      <c r="BL9" s="124"/>
-      <c r="BM9" s="124"/>
-      <c r="BN9" s="124"/>
-      <c r="BO9" s="124"/>
-      <c r="BP9" s="124"/>
-      <c r="BQ9" s="124"/>
-      <c r="BR9" s="124"/>
-      <c r="BS9" s="124"/>
-      <c r="BT9" s="124"/>
-      <c r="BU9" s="124"/>
+      <c r="AN9" s="123"/>
+      <c r="AO9" s="123"/>
+      <c r="AP9" s="123"/>
+      <c r="AQ9" s="128"/>
+      <c r="AR9" s="128"/>
+      <c r="AS9" s="128"/>
+      <c r="AT9" s="128"/>
+      <c r="AU9" s="128"/>
+      <c r="AV9" s="128"/>
+      <c r="AW9" s="128"/>
+      <c r="AX9" s="128"/>
+      <c r="AY9" s="128"/>
+      <c r="AZ9" s="128"/>
+      <c r="BA9" s="128"/>
+      <c r="BB9" s="128"/>
+      <c r="BC9" s="128"/>
+      <c r="BD9" s="128"/>
+      <c r="BE9" s="123"/>
+      <c r="BF9" s="123"/>
+      <c r="BG9" s="123"/>
+      <c r="BH9" s="123"/>
+      <c r="BI9" s="123"/>
+      <c r="BJ9" s="123"/>
+      <c r="BK9" s="123"/>
+      <c r="BL9" s="123"/>
+      <c r="BM9" s="123"/>
+      <c r="BN9" s="123"/>
+      <c r="BO9" s="123"/>
+      <c r="BP9" s="123"/>
+      <c r="BQ9" s="123"/>
+      <c r="BR9" s="123"/>
+      <c r="BS9" s="123"/>
+      <c r="BT9" s="123"/>
+      <c r="BU9" s="123"/>
       <c r="BV9" s="14"/>
       <c r="BW9" s="14"/>
       <c r="BX9" s="14"/>
@@ -4454,83 +4544,83 @@
       <c r="DG9" s="14"/>
     </row>
     <row r="10" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B10" s="147" t="s">
+      <c r="B10" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="148"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="150" t="s">
+      <c r="C10" s="153"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="155" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="151"/>
-      <c r="G10" s="151"/>
-      <c r="H10" s="151"/>
-      <c r="I10" s="151"/>
-      <c r="J10" s="151"/>
-      <c r="K10" s="151"/>
-      <c r="L10" s="151"/>
-      <c r="M10" s="151"/>
-      <c r="N10" s="151"/>
-      <c r="O10" s="151"/>
-      <c r="P10" s="151"/>
-      <c r="Q10" s="151"/>
-      <c r="R10" s="152"/>
-      <c r="S10" s="153" t="s">
+      <c r="F10" s="156"/>
+      <c r="G10" s="156"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="156"/>
+      <c r="J10" s="156"/>
+      <c r="K10" s="156"/>
+      <c r="L10" s="156"/>
+      <c r="M10" s="156"/>
+      <c r="N10" s="156"/>
+      <c r="O10" s="156"/>
+      <c r="P10" s="156"/>
+      <c r="Q10" s="156"/>
+      <c r="R10" s="157"/>
+      <c r="S10" s="158" t="s">
         <v>28</v>
       </c>
-      <c r="T10" s="149"/>
-      <c r="U10" s="153"/>
-      <c r="V10" s="148"/>
-      <c r="W10" s="148"/>
-      <c r="X10" s="148"/>
-      <c r="Y10" s="148"/>
-      <c r="Z10" s="148"/>
-      <c r="AA10" s="149"/>
-      <c r="AB10" s="153" t="s">
+      <c r="T10" s="154"/>
+      <c r="U10" s="158"/>
+      <c r="V10" s="153"/>
+      <c r="W10" s="153"/>
+      <c r="X10" s="153"/>
+      <c r="Y10" s="153"/>
+      <c r="Z10" s="153"/>
+      <c r="AA10" s="154"/>
+      <c r="AB10" s="158" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="148"/>
-      <c r="AD10" s="148"/>
-      <c r="AE10" s="148"/>
-      <c r="AF10" s="148"/>
-      <c r="AG10" s="148"/>
-      <c r="AH10" s="148"/>
-      <c r="AI10" s="154"/>
+      <c r="AC10" s="153"/>
+      <c r="AD10" s="153"/>
+      <c r="AE10" s="153"/>
+      <c r="AF10" s="153"/>
+      <c r="AG10" s="153"/>
+      <c r="AH10" s="153"/>
+      <c r="AI10" s="159"/>
       <c r="AM10" s="4"/>
-      <c r="AN10" s="124"/>
-      <c r="AO10" s="124"/>
-      <c r="AP10" s="124"/>
-      <c r="AQ10" s="146"/>
-      <c r="AR10" s="146"/>
-      <c r="AS10" s="146"/>
-      <c r="AT10" s="146"/>
-      <c r="AU10" s="146"/>
-      <c r="AV10" s="146"/>
-      <c r="AW10" s="146"/>
-      <c r="AX10" s="146"/>
-      <c r="AY10" s="146"/>
-      <c r="AZ10" s="146"/>
-      <c r="BA10" s="146"/>
-      <c r="BB10" s="146"/>
-      <c r="BC10" s="146"/>
-      <c r="BD10" s="146"/>
-      <c r="BE10" s="124"/>
-      <c r="BF10" s="124"/>
-      <c r="BG10" s="124"/>
-      <c r="BH10" s="124"/>
-      <c r="BI10" s="124"/>
-      <c r="BJ10" s="124"/>
-      <c r="BK10" s="124"/>
-      <c r="BL10" s="124"/>
-      <c r="BM10" s="124"/>
-      <c r="BN10" s="124"/>
-      <c r="BO10" s="124"/>
-      <c r="BP10" s="124"/>
-      <c r="BQ10" s="124"/>
-      <c r="BR10" s="124"/>
-      <c r="BS10" s="124"/>
-      <c r="BT10" s="124"/>
-      <c r="BU10" s="124"/>
+      <c r="AN10" s="123"/>
+      <c r="AO10" s="123"/>
+      <c r="AP10" s="123"/>
+      <c r="AQ10" s="128"/>
+      <c r="AR10" s="128"/>
+      <c r="AS10" s="128"/>
+      <c r="AT10" s="128"/>
+      <c r="AU10" s="128"/>
+      <c r="AV10" s="128"/>
+      <c r="AW10" s="128"/>
+      <c r="AX10" s="128"/>
+      <c r="AY10" s="128"/>
+      <c r="AZ10" s="128"/>
+      <c r="BA10" s="128"/>
+      <c r="BB10" s="128"/>
+      <c r="BC10" s="128"/>
+      <c r="BD10" s="128"/>
+      <c r="BE10" s="123"/>
+      <c r="BF10" s="123"/>
+      <c r="BG10" s="123"/>
+      <c r="BH10" s="123"/>
+      <c r="BI10" s="123"/>
+      <c r="BJ10" s="123"/>
+      <c r="BK10" s="123"/>
+      <c r="BL10" s="123"/>
+      <c r="BM10" s="123"/>
+      <c r="BN10" s="123"/>
+      <c r="BO10" s="123"/>
+      <c r="BP10" s="123"/>
+      <c r="BQ10" s="123"/>
+      <c r="BR10" s="123"/>
+      <c r="BS10" s="123"/>
+      <c r="BT10" s="123"/>
+      <c r="BU10" s="123"/>
       <c r="BV10" s="14"/>
       <c r="BW10" s="14"/>
       <c r="BX10" s="14"/>
@@ -4571,81 +4661,81 @@
       <c r="DG10" s="14"/>
     </row>
     <row r="11" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B11" s="147" t="s">
+      <c r="B11" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="148"/>
-      <c r="D11" s="149"/>
-      <c r="E11" s="150" t="s">
+      <c r="C11" s="153"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="155" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="151"/>
-      <c r="G11" s="151"/>
-      <c r="H11" s="151"/>
-      <c r="I11" s="151"/>
-      <c r="J11" s="151"/>
-      <c r="K11" s="151"/>
-      <c r="L11" s="151"/>
-      <c r="M11" s="151"/>
-      <c r="N11" s="151"/>
-      <c r="O11" s="151"/>
-      <c r="P11" s="151"/>
-      <c r="Q11" s="151"/>
-      <c r="R11" s="152"/>
-      <c r="S11" s="153" t="s">
+      <c r="F11" s="156"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="156"/>
+      <c r="K11" s="156"/>
+      <c r="L11" s="156"/>
+      <c r="M11" s="156"/>
+      <c r="N11" s="156"/>
+      <c r="O11" s="156"/>
+      <c r="P11" s="156"/>
+      <c r="Q11" s="156"/>
+      <c r="R11" s="157"/>
+      <c r="S11" s="158" t="s">
         <v>28</v>
       </c>
-      <c r="T11" s="149"/>
-      <c r="U11" s="153"/>
-      <c r="V11" s="148"/>
-      <c r="W11" s="148"/>
-      <c r="X11" s="148"/>
-      <c r="Y11" s="148"/>
-      <c r="Z11" s="148"/>
-      <c r="AA11" s="149"/>
-      <c r="AB11" s="153"/>
-      <c r="AC11" s="148"/>
-      <c r="AD11" s="148"/>
-      <c r="AE11" s="148"/>
-      <c r="AF11" s="148"/>
-      <c r="AG11" s="148"/>
-      <c r="AH11" s="148"/>
-      <c r="AI11" s="154"/>
+      <c r="T11" s="154"/>
+      <c r="U11" s="158"/>
+      <c r="V11" s="153"/>
+      <c r="W11" s="153"/>
+      <c r="X11" s="153"/>
+      <c r="Y11" s="153"/>
+      <c r="Z11" s="153"/>
+      <c r="AA11" s="154"/>
+      <c r="AB11" s="158"/>
+      <c r="AC11" s="153"/>
+      <c r="AD11" s="153"/>
+      <c r="AE11" s="153"/>
+      <c r="AF11" s="153"/>
+      <c r="AG11" s="153"/>
+      <c r="AH11" s="153"/>
+      <c r="AI11" s="159"/>
       <c r="AM11" s="4"/>
-      <c r="AN11" s="124"/>
-      <c r="AO11" s="124"/>
-      <c r="AP11" s="124"/>
-      <c r="AQ11" s="146"/>
-      <c r="AR11" s="146"/>
-      <c r="AS11" s="146"/>
-      <c r="AT11" s="146"/>
-      <c r="AU11" s="146"/>
-      <c r="AV11" s="146"/>
-      <c r="AW11" s="146"/>
-      <c r="AX11" s="146"/>
-      <c r="AY11" s="146"/>
-      <c r="AZ11" s="146"/>
-      <c r="BA11" s="146"/>
-      <c r="BB11" s="146"/>
-      <c r="BC11" s="146"/>
-      <c r="BD11" s="146"/>
-      <c r="BE11" s="124"/>
-      <c r="BF11" s="124"/>
-      <c r="BG11" s="124"/>
-      <c r="BH11" s="124"/>
-      <c r="BI11" s="124"/>
-      <c r="BJ11" s="124"/>
-      <c r="BK11" s="124"/>
-      <c r="BL11" s="124"/>
-      <c r="BM11" s="124"/>
-      <c r="BN11" s="124"/>
-      <c r="BO11" s="124"/>
-      <c r="BP11" s="124"/>
-      <c r="BQ11" s="124"/>
-      <c r="BR11" s="124"/>
-      <c r="BS11" s="124"/>
-      <c r="BT11" s="124"/>
-      <c r="BU11" s="124"/>
+      <c r="AN11" s="123"/>
+      <c r="AO11" s="123"/>
+      <c r="AP11" s="123"/>
+      <c r="AQ11" s="128"/>
+      <c r="AR11" s="128"/>
+      <c r="AS11" s="128"/>
+      <c r="AT11" s="128"/>
+      <c r="AU11" s="128"/>
+      <c r="AV11" s="128"/>
+      <c r="AW11" s="128"/>
+      <c r="AX11" s="128"/>
+      <c r="AY11" s="128"/>
+      <c r="AZ11" s="128"/>
+      <c r="BA11" s="128"/>
+      <c r="BB11" s="128"/>
+      <c r="BC11" s="128"/>
+      <c r="BD11" s="128"/>
+      <c r="BE11" s="123"/>
+      <c r="BF11" s="123"/>
+      <c r="BG11" s="123"/>
+      <c r="BH11" s="123"/>
+      <c r="BI11" s="123"/>
+      <c r="BJ11" s="123"/>
+      <c r="BK11" s="123"/>
+      <c r="BL11" s="123"/>
+      <c r="BM11" s="123"/>
+      <c r="BN11" s="123"/>
+      <c r="BO11" s="123"/>
+      <c r="BP11" s="123"/>
+      <c r="BQ11" s="123"/>
+      <c r="BR11" s="123"/>
+      <c r="BS11" s="123"/>
+      <c r="BT11" s="123"/>
+      <c r="BU11" s="123"/>
       <c r="BV11" s="14"/>
       <c r="BW11" s="14"/>
       <c r="BX11" s="14"/>
@@ -4686,77 +4776,77 @@
       <c r="DG11" s="14"/>
     </row>
     <row r="12" spans="2:111" ht="30" customHeight="1">
-      <c r="B12" s="155" t="s">
+      <c r="B12" s="148" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="156"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="156"/>
-      <c r="I12" s="156"/>
-      <c r="J12" s="156"/>
-      <c r="K12" s="156"/>
-      <c r="L12" s="156"/>
-      <c r="M12" s="156"/>
-      <c r="N12" s="156"/>
-      <c r="O12" s="156"/>
-      <c r="P12" s="156"/>
-      <c r="Q12" s="156"/>
-      <c r="R12" s="156"/>
-      <c r="S12" s="156"/>
-      <c r="T12" s="156"/>
-      <c r="U12" s="156"/>
-      <c r="V12" s="156"/>
-      <c r="W12" s="156"/>
-      <c r="X12" s="156"/>
-      <c r="Y12" s="156"/>
-      <c r="Z12" s="156"/>
-      <c r="AA12" s="156"/>
-      <c r="AB12" s="156"/>
-      <c r="AC12" s="156"/>
-      <c r="AD12" s="156"/>
-      <c r="AE12" s="156"/>
-      <c r="AF12" s="156"/>
-      <c r="AG12" s="156"/>
-      <c r="AH12" s="156"/>
-      <c r="AI12" s="157"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="149"/>
+      <c r="J12" s="149"/>
+      <c r="K12" s="149"/>
+      <c r="L12" s="149"/>
+      <c r="M12" s="149"/>
+      <c r="N12" s="149"/>
+      <c r="O12" s="149"/>
+      <c r="P12" s="149"/>
+      <c r="Q12" s="149"/>
+      <c r="R12" s="149"/>
+      <c r="S12" s="149"/>
+      <c r="T12" s="149"/>
+      <c r="U12" s="149"/>
+      <c r="V12" s="149"/>
+      <c r="W12" s="149"/>
+      <c r="X12" s="149"/>
+      <c r="Y12" s="149"/>
+      <c r="Z12" s="149"/>
+      <c r="AA12" s="149"/>
+      <c r="AB12" s="149"/>
+      <c r="AC12" s="149"/>
+      <c r="AD12" s="149"/>
+      <c r="AE12" s="149"/>
+      <c r="AF12" s="149"/>
+      <c r="AG12" s="149"/>
+      <c r="AH12" s="149"/>
+      <c r="AI12" s="150"/>
       <c r="AM12" s="4"/>
-      <c r="AN12" s="158"/>
-      <c r="AO12" s="158"/>
-      <c r="AP12" s="158"/>
-      <c r="AQ12" s="158"/>
-      <c r="AR12" s="158"/>
-      <c r="AS12" s="158"/>
-      <c r="AT12" s="158"/>
-      <c r="AU12" s="158"/>
-      <c r="AV12" s="158"/>
-      <c r="AW12" s="158"/>
-      <c r="AX12" s="158"/>
-      <c r="AY12" s="158"/>
-      <c r="AZ12" s="158"/>
-      <c r="BA12" s="158"/>
-      <c r="BB12" s="158"/>
-      <c r="BC12" s="158"/>
-      <c r="BD12" s="158"/>
-      <c r="BE12" s="158"/>
-      <c r="BF12" s="158"/>
-      <c r="BG12" s="158"/>
-      <c r="BH12" s="158"/>
-      <c r="BI12" s="158"/>
-      <c r="BJ12" s="158"/>
-      <c r="BK12" s="158"/>
-      <c r="BL12" s="158"/>
-      <c r="BM12" s="158"/>
-      <c r="BN12" s="158"/>
-      <c r="BO12" s="158"/>
-      <c r="BP12" s="158"/>
-      <c r="BQ12" s="158"/>
-      <c r="BR12" s="158"/>
-      <c r="BS12" s="158"/>
-      <c r="BT12" s="158"/>
-      <c r="BU12" s="158"/>
+      <c r="AN12" s="151"/>
+      <c r="AO12" s="151"/>
+      <c r="AP12" s="151"/>
+      <c r="AQ12" s="151"/>
+      <c r="AR12" s="151"/>
+      <c r="AS12" s="151"/>
+      <c r="AT12" s="151"/>
+      <c r="AU12" s="151"/>
+      <c r="AV12" s="151"/>
+      <c r="AW12" s="151"/>
+      <c r="AX12" s="151"/>
+      <c r="AY12" s="151"/>
+      <c r="AZ12" s="151"/>
+      <c r="BA12" s="151"/>
+      <c r="BB12" s="151"/>
+      <c r="BC12" s="151"/>
+      <c r="BD12" s="151"/>
+      <c r="BE12" s="151"/>
+      <c r="BF12" s="151"/>
+      <c r="BG12" s="151"/>
+      <c r="BH12" s="151"/>
+      <c r="BI12" s="151"/>
+      <c r="BJ12" s="151"/>
+      <c r="BK12" s="151"/>
+      <c r="BL12" s="151"/>
+      <c r="BM12" s="151"/>
+      <c r="BN12" s="151"/>
+      <c r="BO12" s="151"/>
+      <c r="BP12" s="151"/>
+      <c r="BQ12" s="151"/>
+      <c r="BR12" s="151"/>
+      <c r="BS12" s="151"/>
+      <c r="BT12" s="151"/>
+      <c r="BU12" s="151"/>
       <c r="BV12" s="14"/>
       <c r="BW12" s="14"/>
       <c r="BX12" s="14"/>
@@ -4797,83 +4887,83 @@
       <c r="DG12" s="14"/>
     </row>
     <row r="13" spans="2:111" ht="30" customHeight="1">
-      <c r="B13" s="172" t="s">
+      <c r="B13" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="173"/>
-      <c r="D13" s="173"/>
-      <c r="E13" s="173"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="174"/>
-      <c r="J13" s="175" t="s">
+      <c r="C13" s="144"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="173"/>
-      <c r="L13" s="173"/>
-      <c r="M13" s="173"/>
-      <c r="N13" s="173"/>
-      <c r="O13" s="173"/>
-      <c r="P13" s="173"/>
-      <c r="Q13" s="173"/>
-      <c r="R13" s="174"/>
-      <c r="S13" s="175" t="s">
+      <c r="K13" s="144"/>
+      <c r="L13" s="144"/>
+      <c r="M13" s="144"/>
+      <c r="N13" s="144"/>
+      <c r="O13" s="144"/>
+      <c r="P13" s="144"/>
+      <c r="Q13" s="144"/>
+      <c r="R13" s="145"/>
+      <c r="S13" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="T13" s="173"/>
-      <c r="U13" s="173"/>
-      <c r="V13" s="173"/>
-      <c r="W13" s="173"/>
-      <c r="X13" s="173"/>
-      <c r="Y13" s="173"/>
-      <c r="Z13" s="173"/>
-      <c r="AA13" s="174"/>
-      <c r="AB13" s="175" t="s">
+      <c r="T13" s="144"/>
+      <c r="U13" s="144"/>
+      <c r="V13" s="144"/>
+      <c r="W13" s="144"/>
+      <c r="X13" s="144"/>
+      <c r="Y13" s="144"/>
+      <c r="Z13" s="144"/>
+      <c r="AA13" s="145"/>
+      <c r="AB13" s="146" t="s">
         <v>36</v>
       </c>
-      <c r="AC13" s="173"/>
-      <c r="AD13" s="173"/>
-      <c r="AE13" s="173"/>
-      <c r="AF13" s="173"/>
-      <c r="AG13" s="173"/>
-      <c r="AH13" s="173"/>
-      <c r="AI13" s="176"/>
+      <c r="AC13" s="144"/>
+      <c r="AD13" s="144"/>
+      <c r="AE13" s="144"/>
+      <c r="AF13" s="144"/>
+      <c r="AG13" s="144"/>
+      <c r="AH13" s="144"/>
+      <c r="AI13" s="147"/>
       <c r="AM13" s="4"/>
-      <c r="AN13" s="159"/>
-      <c r="AO13" s="159"/>
-      <c r="AP13" s="159"/>
-      <c r="AQ13" s="159"/>
-      <c r="AR13" s="159"/>
-      <c r="AS13" s="159"/>
-      <c r="AT13" s="159"/>
-      <c r="AU13" s="159"/>
-      <c r="AV13" s="159"/>
-      <c r="AW13" s="159"/>
-      <c r="AX13" s="159"/>
-      <c r="AY13" s="159"/>
-      <c r="AZ13" s="159"/>
-      <c r="BA13" s="159"/>
-      <c r="BB13" s="159"/>
-      <c r="BC13" s="159"/>
-      <c r="BD13" s="159"/>
-      <c r="BE13" s="159"/>
-      <c r="BF13" s="159"/>
-      <c r="BG13" s="159"/>
-      <c r="BH13" s="159"/>
-      <c r="BI13" s="159"/>
-      <c r="BJ13" s="159"/>
-      <c r="BK13" s="159"/>
-      <c r="BL13" s="159"/>
-      <c r="BM13" s="159"/>
-      <c r="BN13" s="159"/>
-      <c r="BO13" s="159"/>
-      <c r="BP13" s="159"/>
-      <c r="BQ13" s="159"/>
-      <c r="BR13" s="159"/>
-      <c r="BS13" s="159"/>
-      <c r="BT13" s="159"/>
-      <c r="BU13" s="159"/>
+      <c r="AN13" s="142"/>
+      <c r="AO13" s="142"/>
+      <c r="AP13" s="142"/>
+      <c r="AQ13" s="142"/>
+      <c r="AR13" s="142"/>
+      <c r="AS13" s="142"/>
+      <c r="AT13" s="142"/>
+      <c r="AU13" s="142"/>
+      <c r="AV13" s="142"/>
+      <c r="AW13" s="142"/>
+      <c r="AX13" s="142"/>
+      <c r="AY13" s="142"/>
+      <c r="AZ13" s="142"/>
+      <c r="BA13" s="142"/>
+      <c r="BB13" s="142"/>
+      <c r="BC13" s="142"/>
+      <c r="BD13" s="142"/>
+      <c r="BE13" s="142"/>
+      <c r="BF13" s="142"/>
+      <c r="BG13" s="142"/>
+      <c r="BH13" s="142"/>
+      <c r="BI13" s="142"/>
+      <c r="BJ13" s="142"/>
+      <c r="BK13" s="142"/>
+      <c r="BL13" s="142"/>
+      <c r="BM13" s="142"/>
+      <c r="BN13" s="142"/>
+      <c r="BO13" s="142"/>
+      <c r="BP13" s="142"/>
+      <c r="BQ13" s="142"/>
+      <c r="BR13" s="142"/>
+      <c r="BS13" s="142"/>
+      <c r="BT13" s="142"/>
+      <c r="BU13" s="142"/>
       <c r="BV13" s="14"/>
       <c r="BW13" s="14"/>
       <c r="BX13" s="14"/>
@@ -4914,75 +5004,75 @@
       <c r="DG13" s="14"/>
     </row>
     <row r="14" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B14" s="160"/>
-      <c r="C14" s="161"/>
-      <c r="D14" s="161"/>
-      <c r="E14" s="161"/>
-      <c r="F14" s="161"/>
-      <c r="G14" s="161"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="162"/>
-      <c r="J14" s="163"/>
-      <c r="K14" s="161"/>
-      <c r="L14" s="161"/>
-      <c r="M14" s="161"/>
-      <c r="N14" s="161"/>
-      <c r="O14" s="161"/>
-      <c r="P14" s="161"/>
-      <c r="Q14" s="161"/>
-      <c r="R14" s="162"/>
-      <c r="S14" s="164"/>
-      <c r="T14" s="165"/>
-      <c r="U14" s="165"/>
-      <c r="V14" s="165"/>
-      <c r="W14" s="165"/>
-      <c r="X14" s="165"/>
-      <c r="Y14" s="165"/>
-      <c r="Z14" s="165"/>
-      <c r="AA14" s="166"/>
-      <c r="AB14" s="167"/>
-      <c r="AC14" s="161"/>
-      <c r="AD14" s="161"/>
-      <c r="AE14" s="161"/>
-      <c r="AF14" s="161"/>
-      <c r="AG14" s="161"/>
-      <c r="AH14" s="161"/>
-      <c r="AI14" s="168"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="131"/>
+      <c r="L14" s="131"/>
+      <c r="M14" s="131"/>
+      <c r="N14" s="131"/>
+      <c r="O14" s="131"/>
+      <c r="P14" s="131"/>
+      <c r="Q14" s="131"/>
+      <c r="R14" s="132"/>
+      <c r="S14" s="134"/>
+      <c r="T14" s="135"/>
+      <c r="U14" s="135"/>
+      <c r="V14" s="135"/>
+      <c r="W14" s="135"/>
+      <c r="X14" s="135"/>
+      <c r="Y14" s="135"/>
+      <c r="Z14" s="135"/>
+      <c r="AA14" s="136"/>
+      <c r="AB14" s="139"/>
+      <c r="AC14" s="131"/>
+      <c r="AD14" s="131"/>
+      <c r="AE14" s="131"/>
+      <c r="AF14" s="131"/>
+      <c r="AG14" s="131"/>
+      <c r="AH14" s="131"/>
+      <c r="AI14" s="137"/>
       <c r="AM14" s="4"/>
-      <c r="AN14" s="169"/>
-      <c r="AO14" s="169"/>
-      <c r="AP14" s="169"/>
-      <c r="AQ14" s="169"/>
-      <c r="AR14" s="169"/>
-      <c r="AS14" s="169"/>
-      <c r="AT14" s="169"/>
-      <c r="AU14" s="169"/>
-      <c r="AV14" s="169"/>
-      <c r="AW14" s="169"/>
-      <c r="AX14" s="169"/>
-      <c r="AY14" s="169"/>
-      <c r="AZ14" s="169"/>
-      <c r="BA14" s="169"/>
-      <c r="BB14" s="169"/>
-      <c r="BC14" s="169"/>
-      <c r="BD14" s="169"/>
-      <c r="BE14" s="170"/>
-      <c r="BF14" s="170"/>
-      <c r="BG14" s="170"/>
-      <c r="BH14" s="170"/>
-      <c r="BI14" s="170"/>
-      <c r="BJ14" s="170"/>
-      <c r="BK14" s="170"/>
-      <c r="BL14" s="170"/>
-      <c r="BM14" s="170"/>
-      <c r="BN14" s="171"/>
-      <c r="BO14" s="169"/>
-      <c r="BP14" s="169"/>
-      <c r="BQ14" s="169"/>
-      <c r="BR14" s="169"/>
-      <c r="BS14" s="169"/>
-      <c r="BT14" s="169"/>
-      <c r="BU14" s="169"/>
+      <c r="AN14" s="126"/>
+      <c r="AO14" s="126"/>
+      <c r="AP14" s="126"/>
+      <c r="AQ14" s="126"/>
+      <c r="AR14" s="126"/>
+      <c r="AS14" s="126"/>
+      <c r="AT14" s="126"/>
+      <c r="AU14" s="126"/>
+      <c r="AV14" s="126"/>
+      <c r="AW14" s="126"/>
+      <c r="AX14" s="126"/>
+      <c r="AY14" s="126"/>
+      <c r="AZ14" s="126"/>
+      <c r="BA14" s="126"/>
+      <c r="BB14" s="126"/>
+      <c r="BC14" s="126"/>
+      <c r="BD14" s="126"/>
+      <c r="BE14" s="125"/>
+      <c r="BF14" s="125"/>
+      <c r="BG14" s="125"/>
+      <c r="BH14" s="125"/>
+      <c r="BI14" s="125"/>
+      <c r="BJ14" s="125"/>
+      <c r="BK14" s="125"/>
+      <c r="BL14" s="125"/>
+      <c r="BM14" s="125"/>
+      <c r="BN14" s="138"/>
+      <c r="BO14" s="126"/>
+      <c r="BP14" s="126"/>
+      <c r="BQ14" s="126"/>
+      <c r="BR14" s="126"/>
+      <c r="BS14" s="126"/>
+      <c r="BT14" s="126"/>
+      <c r="BU14" s="126"/>
       <c r="BV14" s="26"/>
       <c r="BW14" s="26"/>
       <c r="BX14" s="26"/>
@@ -5023,75 +5113,75 @@
       <c r="DG14" s="5"/>
     </row>
     <row r="15" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B15" s="160"/>
-      <c r="C15" s="161"/>
-      <c r="D15" s="161"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="162"/>
-      <c r="J15" s="163"/>
-      <c r="K15" s="161"/>
-      <c r="L15" s="161"/>
-      <c r="M15" s="161"/>
-      <c r="N15" s="161"/>
-      <c r="O15" s="161"/>
-      <c r="P15" s="161"/>
-      <c r="Q15" s="161"/>
-      <c r="R15" s="162"/>
-      <c r="S15" s="164"/>
-      <c r="T15" s="165"/>
-      <c r="U15" s="165"/>
-      <c r="V15" s="165"/>
-      <c r="W15" s="165"/>
-      <c r="X15" s="165"/>
-      <c r="Y15" s="165"/>
-      <c r="Z15" s="165"/>
-      <c r="AA15" s="166"/>
-      <c r="AB15" s="167"/>
-      <c r="AC15" s="161"/>
-      <c r="AD15" s="161"/>
-      <c r="AE15" s="161"/>
-      <c r="AF15" s="161"/>
-      <c r="AG15" s="161"/>
-      <c r="AH15" s="161"/>
-      <c r="AI15" s="168"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="133"/>
+      <c r="K15" s="131"/>
+      <c r="L15" s="131"/>
+      <c r="M15" s="131"/>
+      <c r="N15" s="131"/>
+      <c r="O15" s="131"/>
+      <c r="P15" s="131"/>
+      <c r="Q15" s="131"/>
+      <c r="R15" s="132"/>
+      <c r="S15" s="134"/>
+      <c r="T15" s="135"/>
+      <c r="U15" s="135"/>
+      <c r="V15" s="135"/>
+      <c r="W15" s="135"/>
+      <c r="X15" s="135"/>
+      <c r="Y15" s="135"/>
+      <c r="Z15" s="135"/>
+      <c r="AA15" s="136"/>
+      <c r="AB15" s="139"/>
+      <c r="AC15" s="131"/>
+      <c r="AD15" s="131"/>
+      <c r="AE15" s="131"/>
+      <c r="AF15" s="131"/>
+      <c r="AG15" s="131"/>
+      <c r="AH15" s="131"/>
+      <c r="AI15" s="137"/>
       <c r="AM15" s="4"/>
-      <c r="AN15" s="169"/>
-      <c r="AO15" s="169"/>
-      <c r="AP15" s="169"/>
-      <c r="AQ15" s="169"/>
-      <c r="AR15" s="169"/>
-      <c r="AS15" s="169"/>
-      <c r="AT15" s="169"/>
-      <c r="AU15" s="169"/>
-      <c r="AV15" s="169"/>
-      <c r="AW15" s="169"/>
-      <c r="AX15" s="169"/>
-      <c r="AY15" s="169"/>
-      <c r="AZ15" s="169"/>
-      <c r="BA15" s="169"/>
-      <c r="BB15" s="169"/>
-      <c r="BC15" s="169"/>
-      <c r="BD15" s="169"/>
-      <c r="BE15" s="170"/>
-      <c r="BF15" s="170"/>
-      <c r="BG15" s="170"/>
-      <c r="BH15" s="170"/>
-      <c r="BI15" s="170"/>
-      <c r="BJ15" s="170"/>
-      <c r="BK15" s="170"/>
-      <c r="BL15" s="170"/>
-      <c r="BM15" s="170"/>
-      <c r="BN15" s="171"/>
-      <c r="BO15" s="169"/>
-      <c r="BP15" s="169"/>
-      <c r="BQ15" s="169"/>
-      <c r="BR15" s="169"/>
-      <c r="BS15" s="169"/>
-      <c r="BT15" s="169"/>
-      <c r="BU15" s="169"/>
+      <c r="AN15" s="126"/>
+      <c r="AO15" s="126"/>
+      <c r="AP15" s="126"/>
+      <c r="AQ15" s="126"/>
+      <c r="AR15" s="126"/>
+      <c r="AS15" s="126"/>
+      <c r="AT15" s="126"/>
+      <c r="AU15" s="126"/>
+      <c r="AV15" s="126"/>
+      <c r="AW15" s="126"/>
+      <c r="AX15" s="126"/>
+      <c r="AY15" s="126"/>
+      <c r="AZ15" s="126"/>
+      <c r="BA15" s="126"/>
+      <c r="BB15" s="126"/>
+      <c r="BC15" s="126"/>
+      <c r="BD15" s="126"/>
+      <c r="BE15" s="125"/>
+      <c r="BF15" s="125"/>
+      <c r="BG15" s="125"/>
+      <c r="BH15" s="125"/>
+      <c r="BI15" s="125"/>
+      <c r="BJ15" s="125"/>
+      <c r="BK15" s="125"/>
+      <c r="BL15" s="125"/>
+      <c r="BM15" s="125"/>
+      <c r="BN15" s="138"/>
+      <c r="BO15" s="126"/>
+      <c r="BP15" s="126"/>
+      <c r="BQ15" s="126"/>
+      <c r="BR15" s="126"/>
+      <c r="BS15" s="126"/>
+      <c r="BT15" s="126"/>
+      <c r="BU15" s="126"/>
       <c r="BV15" s="26"/>
       <c r="BW15" s="26"/>
       <c r="BX15" s="26"/>
@@ -5132,75 +5222,75 @@
       <c r="DG15" s="5"/>
     </row>
     <row r="16" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B16" s="160"/>
-      <c r="C16" s="161"/>
-      <c r="D16" s="161"/>
-      <c r="E16" s="161"/>
-      <c r="F16" s="161"/>
-      <c r="G16" s="161"/>
-      <c r="H16" s="161"/>
-      <c r="I16" s="162"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="161"/>
-      <c r="L16" s="161"/>
-      <c r="M16" s="161"/>
-      <c r="N16" s="161"/>
-      <c r="O16" s="161"/>
-      <c r="P16" s="161"/>
-      <c r="Q16" s="161"/>
-      <c r="R16" s="162"/>
-      <c r="S16" s="164"/>
-      <c r="T16" s="165"/>
-      <c r="U16" s="165"/>
-      <c r="V16" s="165"/>
-      <c r="W16" s="165"/>
-      <c r="X16" s="165"/>
-      <c r="Y16" s="165"/>
-      <c r="Z16" s="165"/>
-      <c r="AA16" s="166"/>
-      <c r="AB16" s="167"/>
-      <c r="AC16" s="161"/>
-      <c r="AD16" s="161"/>
-      <c r="AE16" s="161"/>
-      <c r="AF16" s="161"/>
-      <c r="AG16" s="161"/>
-      <c r="AH16" s="161"/>
-      <c r="AI16" s="168"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="131"/>
+      <c r="L16" s="131"/>
+      <c r="M16" s="131"/>
+      <c r="N16" s="131"/>
+      <c r="O16" s="131"/>
+      <c r="P16" s="131"/>
+      <c r="Q16" s="131"/>
+      <c r="R16" s="132"/>
+      <c r="S16" s="134"/>
+      <c r="T16" s="135"/>
+      <c r="U16" s="135"/>
+      <c r="V16" s="135"/>
+      <c r="W16" s="135"/>
+      <c r="X16" s="135"/>
+      <c r="Y16" s="135"/>
+      <c r="Z16" s="135"/>
+      <c r="AA16" s="136"/>
+      <c r="AB16" s="139"/>
+      <c r="AC16" s="131"/>
+      <c r="AD16" s="131"/>
+      <c r="AE16" s="131"/>
+      <c r="AF16" s="131"/>
+      <c r="AG16" s="131"/>
+      <c r="AH16" s="131"/>
+      <c r="AI16" s="137"/>
       <c r="AM16" s="4"/>
-      <c r="AN16" s="169"/>
-      <c r="AO16" s="169"/>
-      <c r="AP16" s="169"/>
-      <c r="AQ16" s="169"/>
-      <c r="AR16" s="169"/>
-      <c r="AS16" s="169"/>
-      <c r="AT16" s="169"/>
-      <c r="AU16" s="169"/>
-      <c r="AV16" s="169"/>
-      <c r="AW16" s="169"/>
-      <c r="AX16" s="169"/>
-      <c r="AY16" s="169"/>
-      <c r="AZ16" s="169"/>
-      <c r="BA16" s="169"/>
-      <c r="BB16" s="169"/>
-      <c r="BC16" s="169"/>
-      <c r="BD16" s="169"/>
-      <c r="BE16" s="170"/>
-      <c r="BF16" s="170"/>
-      <c r="BG16" s="170"/>
-      <c r="BH16" s="170"/>
-      <c r="BI16" s="170"/>
-      <c r="BJ16" s="170"/>
-      <c r="BK16" s="170"/>
-      <c r="BL16" s="170"/>
-      <c r="BM16" s="170"/>
-      <c r="BN16" s="171"/>
-      <c r="BO16" s="169"/>
-      <c r="BP16" s="169"/>
-      <c r="BQ16" s="169"/>
-      <c r="BR16" s="169"/>
-      <c r="BS16" s="169"/>
-      <c r="BT16" s="169"/>
-      <c r="BU16" s="169"/>
+      <c r="AN16" s="126"/>
+      <c r="AO16" s="126"/>
+      <c r="AP16" s="126"/>
+      <c r="AQ16" s="126"/>
+      <c r="AR16" s="126"/>
+      <c r="AS16" s="126"/>
+      <c r="AT16" s="126"/>
+      <c r="AU16" s="126"/>
+      <c r="AV16" s="126"/>
+      <c r="AW16" s="126"/>
+      <c r="AX16" s="126"/>
+      <c r="AY16" s="126"/>
+      <c r="AZ16" s="126"/>
+      <c r="BA16" s="126"/>
+      <c r="BB16" s="126"/>
+      <c r="BC16" s="126"/>
+      <c r="BD16" s="126"/>
+      <c r="BE16" s="125"/>
+      <c r="BF16" s="125"/>
+      <c r="BG16" s="125"/>
+      <c r="BH16" s="125"/>
+      <c r="BI16" s="125"/>
+      <c r="BJ16" s="125"/>
+      <c r="BK16" s="125"/>
+      <c r="BL16" s="125"/>
+      <c r="BM16" s="125"/>
+      <c r="BN16" s="138"/>
+      <c r="BO16" s="126"/>
+      <c r="BP16" s="126"/>
+      <c r="BQ16" s="126"/>
+      <c r="BR16" s="126"/>
+      <c r="BS16" s="126"/>
+      <c r="BT16" s="126"/>
+      <c r="BU16" s="126"/>
       <c r="BV16" s="26"/>
       <c r="BW16" s="26"/>
       <c r="BX16" s="26"/>
@@ -5241,75 +5331,75 @@
       <c r="DG16" s="5"/>
     </row>
     <row r="17" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B17" s="160"/>
-      <c r="C17" s="161"/>
-      <c r="D17" s="161"/>
-      <c r="E17" s="161"/>
-      <c r="F17" s="161"/>
-      <c r="G17" s="161"/>
-      <c r="H17" s="161"/>
-      <c r="I17" s="162"/>
-      <c r="J17" s="163"/>
-      <c r="K17" s="161"/>
-      <c r="L17" s="161"/>
-      <c r="M17" s="161"/>
-      <c r="N17" s="161"/>
-      <c r="O17" s="161"/>
-      <c r="P17" s="161"/>
-      <c r="Q17" s="161"/>
-      <c r="R17" s="162"/>
-      <c r="S17" s="164"/>
-      <c r="T17" s="165"/>
-      <c r="U17" s="165"/>
-      <c r="V17" s="165"/>
-      <c r="W17" s="165"/>
-      <c r="X17" s="165"/>
-      <c r="Y17" s="165"/>
-      <c r="Z17" s="165"/>
-      <c r="AA17" s="166"/>
-      <c r="AB17" s="167"/>
-      <c r="AC17" s="177"/>
-      <c r="AD17" s="177"/>
-      <c r="AE17" s="177"/>
-      <c r="AF17" s="177"/>
-      <c r="AG17" s="177"/>
-      <c r="AH17" s="177"/>
-      <c r="AI17" s="178"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="133"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="131"/>
+      <c r="M17" s="131"/>
+      <c r="N17" s="131"/>
+      <c r="O17" s="131"/>
+      <c r="P17" s="131"/>
+      <c r="Q17" s="131"/>
+      <c r="R17" s="132"/>
+      <c r="S17" s="134"/>
+      <c r="T17" s="135"/>
+      <c r="U17" s="135"/>
+      <c r="V17" s="135"/>
+      <c r="W17" s="135"/>
+      <c r="X17" s="135"/>
+      <c r="Y17" s="135"/>
+      <c r="Z17" s="135"/>
+      <c r="AA17" s="136"/>
+      <c r="AB17" s="139"/>
+      <c r="AC17" s="140"/>
+      <c r="AD17" s="140"/>
+      <c r="AE17" s="140"/>
+      <c r="AF17" s="140"/>
+      <c r="AG17" s="140"/>
+      <c r="AH17" s="140"/>
+      <c r="AI17" s="141"/>
       <c r="AM17" s="4"/>
-      <c r="AN17" s="169"/>
-      <c r="AO17" s="169"/>
-      <c r="AP17" s="169"/>
-      <c r="AQ17" s="169"/>
-      <c r="AR17" s="169"/>
-      <c r="AS17" s="169"/>
-      <c r="AT17" s="169"/>
-      <c r="AU17" s="169"/>
-      <c r="AV17" s="169"/>
-      <c r="AW17" s="169"/>
-      <c r="AX17" s="169"/>
-      <c r="AY17" s="169"/>
-      <c r="AZ17" s="169"/>
-      <c r="BA17" s="169"/>
-      <c r="BB17" s="169"/>
-      <c r="BC17" s="169"/>
-      <c r="BD17" s="169"/>
-      <c r="BE17" s="170"/>
-      <c r="BF17" s="170"/>
-      <c r="BG17" s="170"/>
-      <c r="BH17" s="170"/>
-      <c r="BI17" s="170"/>
-      <c r="BJ17" s="170"/>
-      <c r="BK17" s="170"/>
-      <c r="BL17" s="170"/>
-      <c r="BM17" s="170"/>
-      <c r="BN17" s="171"/>
-      <c r="BO17" s="169"/>
-      <c r="BP17" s="169"/>
-      <c r="BQ17" s="169"/>
-      <c r="BR17" s="169"/>
-      <c r="BS17" s="169"/>
-      <c r="BT17" s="169"/>
-      <c r="BU17" s="169"/>
+      <c r="AN17" s="126"/>
+      <c r="AO17" s="126"/>
+      <c r="AP17" s="126"/>
+      <c r="AQ17" s="126"/>
+      <c r="AR17" s="126"/>
+      <c r="AS17" s="126"/>
+      <c r="AT17" s="126"/>
+      <c r="AU17" s="126"/>
+      <c r="AV17" s="126"/>
+      <c r="AW17" s="126"/>
+      <c r="AX17" s="126"/>
+      <c r="AY17" s="126"/>
+      <c r="AZ17" s="126"/>
+      <c r="BA17" s="126"/>
+      <c r="BB17" s="126"/>
+      <c r="BC17" s="126"/>
+      <c r="BD17" s="126"/>
+      <c r="BE17" s="125"/>
+      <c r="BF17" s="125"/>
+      <c r="BG17" s="125"/>
+      <c r="BH17" s="125"/>
+      <c r="BI17" s="125"/>
+      <c r="BJ17" s="125"/>
+      <c r="BK17" s="125"/>
+      <c r="BL17" s="125"/>
+      <c r="BM17" s="125"/>
+      <c r="BN17" s="138"/>
+      <c r="BO17" s="126"/>
+      <c r="BP17" s="126"/>
+      <c r="BQ17" s="126"/>
+      <c r="BR17" s="126"/>
+      <c r="BS17" s="126"/>
+      <c r="BT17" s="126"/>
+      <c r="BU17" s="126"/>
       <c r="BV17" s="26"/>
       <c r="BW17" s="26"/>
       <c r="BX17" s="26"/>
@@ -5350,75 +5440,75 @@
       <c r="DG17" s="5"/>
     </row>
     <row r="18" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B18" s="160"/>
-      <c r="C18" s="161"/>
-      <c r="D18" s="161"/>
-      <c r="E18" s="161"/>
-      <c r="F18" s="161"/>
-      <c r="G18" s="161"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="162"/>
-      <c r="J18" s="163"/>
-      <c r="K18" s="161"/>
-      <c r="L18" s="161"/>
-      <c r="M18" s="161"/>
-      <c r="N18" s="161"/>
-      <c r="O18" s="161"/>
-      <c r="P18" s="161"/>
-      <c r="Q18" s="161"/>
-      <c r="R18" s="162"/>
-      <c r="S18" s="164"/>
-      <c r="T18" s="165"/>
-      <c r="U18" s="165"/>
-      <c r="V18" s="165"/>
-      <c r="W18" s="165"/>
-      <c r="X18" s="165"/>
-      <c r="Y18" s="165"/>
-      <c r="Z18" s="165"/>
-      <c r="AA18" s="166"/>
-      <c r="AB18" s="167"/>
-      <c r="AC18" s="161"/>
-      <c r="AD18" s="161"/>
-      <c r="AE18" s="161"/>
-      <c r="AF18" s="161"/>
-      <c r="AG18" s="161"/>
-      <c r="AH18" s="161"/>
-      <c r="AI18" s="168"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="133"/>
+      <c r="K18" s="131"/>
+      <c r="L18" s="131"/>
+      <c r="M18" s="131"/>
+      <c r="N18" s="131"/>
+      <c r="O18" s="131"/>
+      <c r="P18" s="131"/>
+      <c r="Q18" s="131"/>
+      <c r="R18" s="132"/>
+      <c r="S18" s="134"/>
+      <c r="T18" s="135"/>
+      <c r="U18" s="135"/>
+      <c r="V18" s="135"/>
+      <c r="W18" s="135"/>
+      <c r="X18" s="135"/>
+      <c r="Y18" s="135"/>
+      <c r="Z18" s="135"/>
+      <c r="AA18" s="136"/>
+      <c r="AB18" s="139"/>
+      <c r="AC18" s="131"/>
+      <c r="AD18" s="131"/>
+      <c r="AE18" s="131"/>
+      <c r="AF18" s="131"/>
+      <c r="AG18" s="131"/>
+      <c r="AH18" s="131"/>
+      <c r="AI18" s="137"/>
       <c r="AM18" s="4"/>
-      <c r="AN18" s="169"/>
-      <c r="AO18" s="169"/>
-      <c r="AP18" s="169"/>
-      <c r="AQ18" s="169"/>
-      <c r="AR18" s="169"/>
-      <c r="AS18" s="169"/>
-      <c r="AT18" s="169"/>
-      <c r="AU18" s="169"/>
-      <c r="AV18" s="169"/>
-      <c r="AW18" s="169"/>
-      <c r="AX18" s="169"/>
-      <c r="AY18" s="169"/>
-      <c r="AZ18" s="169"/>
-      <c r="BA18" s="169"/>
-      <c r="BB18" s="169"/>
-      <c r="BC18" s="169"/>
-      <c r="BD18" s="169"/>
-      <c r="BE18" s="170"/>
-      <c r="BF18" s="170"/>
-      <c r="BG18" s="170"/>
-      <c r="BH18" s="170"/>
-      <c r="BI18" s="170"/>
-      <c r="BJ18" s="170"/>
-      <c r="BK18" s="170"/>
-      <c r="BL18" s="170"/>
-      <c r="BM18" s="170"/>
-      <c r="BN18" s="171"/>
-      <c r="BO18" s="169"/>
-      <c r="BP18" s="169"/>
-      <c r="BQ18" s="169"/>
-      <c r="BR18" s="169"/>
-      <c r="BS18" s="169"/>
-      <c r="BT18" s="169"/>
-      <c r="BU18" s="169"/>
+      <c r="AN18" s="126"/>
+      <c r="AO18" s="126"/>
+      <c r="AP18" s="126"/>
+      <c r="AQ18" s="126"/>
+      <c r="AR18" s="126"/>
+      <c r="AS18" s="126"/>
+      <c r="AT18" s="126"/>
+      <c r="AU18" s="126"/>
+      <c r="AV18" s="126"/>
+      <c r="AW18" s="126"/>
+      <c r="AX18" s="126"/>
+      <c r="AY18" s="126"/>
+      <c r="AZ18" s="126"/>
+      <c r="BA18" s="126"/>
+      <c r="BB18" s="126"/>
+      <c r="BC18" s="126"/>
+      <c r="BD18" s="126"/>
+      <c r="BE18" s="125"/>
+      <c r="BF18" s="125"/>
+      <c r="BG18" s="125"/>
+      <c r="BH18" s="125"/>
+      <c r="BI18" s="125"/>
+      <c r="BJ18" s="125"/>
+      <c r="BK18" s="125"/>
+      <c r="BL18" s="125"/>
+      <c r="BM18" s="125"/>
+      <c r="BN18" s="138"/>
+      <c r="BO18" s="126"/>
+      <c r="BP18" s="126"/>
+      <c r="BQ18" s="126"/>
+      <c r="BR18" s="126"/>
+      <c r="BS18" s="126"/>
+      <c r="BT18" s="126"/>
+      <c r="BU18" s="126"/>
       <c r="BV18" s="26"/>
       <c r="BW18" s="26"/>
       <c r="BX18" s="26"/>
@@ -5459,75 +5549,75 @@
       <c r="DG18" s="5"/>
     </row>
     <row r="19" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B19" s="160"/>
-      <c r="C19" s="161"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="162"/>
-      <c r="J19" s="163"/>
-      <c r="K19" s="161"/>
-      <c r="L19" s="161"/>
-      <c r="M19" s="161"/>
-      <c r="N19" s="161"/>
-      <c r="O19" s="161"/>
-      <c r="P19" s="161"/>
-      <c r="Q19" s="161"/>
-      <c r="R19" s="162"/>
-      <c r="S19" s="164"/>
-      <c r="T19" s="165"/>
-      <c r="U19" s="165"/>
-      <c r="V19" s="165"/>
-      <c r="W19" s="165"/>
-      <c r="X19" s="165"/>
-      <c r="Y19" s="165"/>
-      <c r="Z19" s="165"/>
-      <c r="AA19" s="166"/>
-      <c r="AB19" s="167"/>
-      <c r="AC19" s="161"/>
-      <c r="AD19" s="161"/>
-      <c r="AE19" s="161"/>
-      <c r="AF19" s="161"/>
-      <c r="AG19" s="161"/>
-      <c r="AH19" s="161"/>
-      <c r="AI19" s="168"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
+      <c r="K19" s="131"/>
+      <c r="L19" s="131"/>
+      <c r="M19" s="131"/>
+      <c r="N19" s="131"/>
+      <c r="O19" s="131"/>
+      <c r="P19" s="131"/>
+      <c r="Q19" s="131"/>
+      <c r="R19" s="132"/>
+      <c r="S19" s="134"/>
+      <c r="T19" s="135"/>
+      <c r="U19" s="135"/>
+      <c r="V19" s="135"/>
+      <c r="W19" s="135"/>
+      <c r="X19" s="135"/>
+      <c r="Y19" s="135"/>
+      <c r="Z19" s="135"/>
+      <c r="AA19" s="136"/>
+      <c r="AB19" s="139"/>
+      <c r="AC19" s="131"/>
+      <c r="AD19" s="131"/>
+      <c r="AE19" s="131"/>
+      <c r="AF19" s="131"/>
+      <c r="AG19" s="131"/>
+      <c r="AH19" s="131"/>
+      <c r="AI19" s="137"/>
       <c r="AM19" s="4"/>
-      <c r="AN19" s="169"/>
-      <c r="AO19" s="169"/>
-      <c r="AP19" s="169"/>
-      <c r="AQ19" s="169"/>
-      <c r="AR19" s="169"/>
-      <c r="AS19" s="169"/>
-      <c r="AT19" s="169"/>
-      <c r="AU19" s="169"/>
-      <c r="AV19" s="169"/>
-      <c r="AW19" s="169"/>
-      <c r="AX19" s="169"/>
-      <c r="AY19" s="169"/>
-      <c r="AZ19" s="169"/>
-      <c r="BA19" s="169"/>
-      <c r="BB19" s="169"/>
-      <c r="BC19" s="169"/>
-      <c r="BD19" s="169"/>
-      <c r="BE19" s="170"/>
-      <c r="BF19" s="170"/>
-      <c r="BG19" s="170"/>
-      <c r="BH19" s="170"/>
-      <c r="BI19" s="170"/>
-      <c r="BJ19" s="170"/>
-      <c r="BK19" s="170"/>
-      <c r="BL19" s="170"/>
-      <c r="BM19" s="170"/>
-      <c r="BN19" s="171"/>
-      <c r="BO19" s="169"/>
-      <c r="BP19" s="169"/>
-      <c r="BQ19" s="169"/>
-      <c r="BR19" s="169"/>
-      <c r="BS19" s="169"/>
-      <c r="BT19" s="169"/>
-      <c r="BU19" s="169"/>
+      <c r="AN19" s="126"/>
+      <c r="AO19" s="126"/>
+      <c r="AP19" s="126"/>
+      <c r="AQ19" s="126"/>
+      <c r="AR19" s="126"/>
+      <c r="AS19" s="126"/>
+      <c r="AT19" s="126"/>
+      <c r="AU19" s="126"/>
+      <c r="AV19" s="126"/>
+      <c r="AW19" s="126"/>
+      <c r="AX19" s="126"/>
+      <c r="AY19" s="126"/>
+      <c r="AZ19" s="126"/>
+      <c r="BA19" s="126"/>
+      <c r="BB19" s="126"/>
+      <c r="BC19" s="126"/>
+      <c r="BD19" s="126"/>
+      <c r="BE19" s="125"/>
+      <c r="BF19" s="125"/>
+      <c r="BG19" s="125"/>
+      <c r="BH19" s="125"/>
+      <c r="BI19" s="125"/>
+      <c r="BJ19" s="125"/>
+      <c r="BK19" s="125"/>
+      <c r="BL19" s="125"/>
+      <c r="BM19" s="125"/>
+      <c r="BN19" s="138"/>
+      <c r="BO19" s="126"/>
+      <c r="BP19" s="126"/>
+      <c r="BQ19" s="126"/>
+      <c r="BR19" s="126"/>
+      <c r="BS19" s="126"/>
+      <c r="BT19" s="126"/>
+      <c r="BU19" s="126"/>
       <c r="BV19" s="26"/>
       <c r="BW19" s="26"/>
       <c r="BX19" s="26"/>
@@ -5568,75 +5658,75 @@
       <c r="DG19" s="5"/>
     </row>
     <row r="20" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B20" s="160"/>
-      <c r="C20" s="161"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="162"/>
-      <c r="J20" s="163"/>
-      <c r="K20" s="161"/>
-      <c r="L20" s="161"/>
-      <c r="M20" s="161"/>
-      <c r="N20" s="161"/>
-      <c r="O20" s="161"/>
-      <c r="P20" s="161"/>
-      <c r="Q20" s="161"/>
-      <c r="R20" s="162"/>
-      <c r="S20" s="164"/>
-      <c r="T20" s="165"/>
-      <c r="U20" s="165"/>
-      <c r="V20" s="165"/>
-      <c r="W20" s="165"/>
-      <c r="X20" s="165"/>
-      <c r="Y20" s="165"/>
-      <c r="Z20" s="165"/>
-      <c r="AA20" s="166"/>
-      <c r="AB20" s="167"/>
-      <c r="AC20" s="161"/>
-      <c r="AD20" s="161"/>
-      <c r="AE20" s="161"/>
-      <c r="AF20" s="161"/>
-      <c r="AG20" s="161"/>
-      <c r="AH20" s="161"/>
-      <c r="AI20" s="168"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="133"/>
+      <c r="K20" s="131"/>
+      <c r="L20" s="131"/>
+      <c r="M20" s="131"/>
+      <c r="N20" s="131"/>
+      <c r="O20" s="131"/>
+      <c r="P20" s="131"/>
+      <c r="Q20" s="131"/>
+      <c r="R20" s="132"/>
+      <c r="S20" s="134"/>
+      <c r="T20" s="135"/>
+      <c r="U20" s="135"/>
+      <c r="V20" s="135"/>
+      <c r="W20" s="135"/>
+      <c r="X20" s="135"/>
+      <c r="Y20" s="135"/>
+      <c r="Z20" s="135"/>
+      <c r="AA20" s="136"/>
+      <c r="AB20" s="139"/>
+      <c r="AC20" s="131"/>
+      <c r="AD20" s="131"/>
+      <c r="AE20" s="131"/>
+      <c r="AF20" s="131"/>
+      <c r="AG20" s="131"/>
+      <c r="AH20" s="131"/>
+      <c r="AI20" s="137"/>
       <c r="AM20" s="4"/>
-      <c r="AN20" s="169"/>
-      <c r="AO20" s="169"/>
-      <c r="AP20" s="169"/>
-      <c r="AQ20" s="169"/>
-      <c r="AR20" s="169"/>
-      <c r="AS20" s="169"/>
-      <c r="AT20" s="169"/>
-      <c r="AU20" s="169"/>
-      <c r="AV20" s="169"/>
-      <c r="AW20" s="169"/>
-      <c r="AX20" s="169"/>
-      <c r="AY20" s="169"/>
-      <c r="AZ20" s="169"/>
-      <c r="BA20" s="169"/>
-      <c r="BB20" s="169"/>
-      <c r="BC20" s="169"/>
-      <c r="BD20" s="169"/>
-      <c r="BE20" s="170"/>
-      <c r="BF20" s="170"/>
-      <c r="BG20" s="170"/>
-      <c r="BH20" s="170"/>
-      <c r="BI20" s="170"/>
-      <c r="BJ20" s="170"/>
-      <c r="BK20" s="170"/>
-      <c r="BL20" s="170"/>
-      <c r="BM20" s="170"/>
-      <c r="BN20" s="171"/>
-      <c r="BO20" s="169"/>
-      <c r="BP20" s="169"/>
-      <c r="BQ20" s="169"/>
-      <c r="BR20" s="169"/>
-      <c r="BS20" s="169"/>
-      <c r="BT20" s="169"/>
-      <c r="BU20" s="169"/>
+      <c r="AN20" s="126"/>
+      <c r="AO20" s="126"/>
+      <c r="AP20" s="126"/>
+      <c r="AQ20" s="126"/>
+      <c r="AR20" s="126"/>
+      <c r="AS20" s="126"/>
+      <c r="AT20" s="126"/>
+      <c r="AU20" s="126"/>
+      <c r="AV20" s="126"/>
+      <c r="AW20" s="126"/>
+      <c r="AX20" s="126"/>
+      <c r="AY20" s="126"/>
+      <c r="AZ20" s="126"/>
+      <c r="BA20" s="126"/>
+      <c r="BB20" s="126"/>
+      <c r="BC20" s="126"/>
+      <c r="BD20" s="126"/>
+      <c r="BE20" s="125"/>
+      <c r="BF20" s="125"/>
+      <c r="BG20" s="125"/>
+      <c r="BH20" s="125"/>
+      <c r="BI20" s="125"/>
+      <c r="BJ20" s="125"/>
+      <c r="BK20" s="125"/>
+      <c r="BL20" s="125"/>
+      <c r="BM20" s="125"/>
+      <c r="BN20" s="138"/>
+      <c r="BO20" s="126"/>
+      <c r="BP20" s="126"/>
+      <c r="BQ20" s="126"/>
+      <c r="BR20" s="126"/>
+      <c r="BS20" s="126"/>
+      <c r="BT20" s="126"/>
+      <c r="BU20" s="126"/>
       <c r="BV20" s="26"/>
       <c r="BW20" s="26"/>
       <c r="BX20" s="26"/>
@@ -5677,75 +5767,75 @@
       <c r="DG20" s="5"/>
     </row>
     <row r="21" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B21" s="160"/>
-      <c r="C21" s="161"/>
-      <c r="D21" s="161"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="162"/>
-      <c r="J21" s="163"/>
-      <c r="K21" s="161"/>
-      <c r="L21" s="161"/>
-      <c r="M21" s="161"/>
-      <c r="N21" s="161"/>
-      <c r="O21" s="161"/>
-      <c r="P21" s="161"/>
-      <c r="Q21" s="161"/>
-      <c r="R21" s="162"/>
-      <c r="S21" s="164"/>
-      <c r="T21" s="165"/>
-      <c r="U21" s="165"/>
-      <c r="V21" s="165"/>
-      <c r="W21" s="165"/>
-      <c r="X21" s="165"/>
-      <c r="Y21" s="165"/>
-      <c r="Z21" s="165"/>
-      <c r="AA21" s="166"/>
-      <c r="AB21" s="167"/>
-      <c r="AC21" s="161"/>
-      <c r="AD21" s="161"/>
-      <c r="AE21" s="161"/>
-      <c r="AF21" s="161"/>
-      <c r="AG21" s="161"/>
-      <c r="AH21" s="161"/>
-      <c r="AI21" s="168"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="131"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="133"/>
+      <c r="K21" s="131"/>
+      <c r="L21" s="131"/>
+      <c r="M21" s="131"/>
+      <c r="N21" s="131"/>
+      <c r="O21" s="131"/>
+      <c r="P21" s="131"/>
+      <c r="Q21" s="131"/>
+      <c r="R21" s="132"/>
+      <c r="S21" s="134"/>
+      <c r="T21" s="135"/>
+      <c r="U21" s="135"/>
+      <c r="V21" s="135"/>
+      <c r="W21" s="135"/>
+      <c r="X21" s="135"/>
+      <c r="Y21" s="135"/>
+      <c r="Z21" s="135"/>
+      <c r="AA21" s="136"/>
+      <c r="AB21" s="139"/>
+      <c r="AC21" s="131"/>
+      <c r="AD21" s="131"/>
+      <c r="AE21" s="131"/>
+      <c r="AF21" s="131"/>
+      <c r="AG21" s="131"/>
+      <c r="AH21" s="131"/>
+      <c r="AI21" s="137"/>
       <c r="AM21" s="4"/>
-      <c r="AN21" s="169"/>
-      <c r="AO21" s="169"/>
-      <c r="AP21" s="169"/>
-      <c r="AQ21" s="169"/>
-      <c r="AR21" s="169"/>
-      <c r="AS21" s="169"/>
-      <c r="AT21" s="169"/>
-      <c r="AU21" s="169"/>
-      <c r="AV21" s="169"/>
-      <c r="AW21" s="169"/>
-      <c r="AX21" s="169"/>
-      <c r="AY21" s="169"/>
-      <c r="AZ21" s="169"/>
-      <c r="BA21" s="169"/>
-      <c r="BB21" s="169"/>
-      <c r="BC21" s="169"/>
-      <c r="BD21" s="169"/>
-      <c r="BE21" s="170"/>
-      <c r="BF21" s="170"/>
-      <c r="BG21" s="170"/>
-      <c r="BH21" s="170"/>
-      <c r="BI21" s="170"/>
-      <c r="BJ21" s="170"/>
-      <c r="BK21" s="170"/>
-      <c r="BL21" s="170"/>
-      <c r="BM21" s="170"/>
-      <c r="BN21" s="171"/>
-      <c r="BO21" s="169"/>
-      <c r="BP21" s="169"/>
-      <c r="BQ21" s="169"/>
-      <c r="BR21" s="169"/>
-      <c r="BS21" s="169"/>
-      <c r="BT21" s="169"/>
-      <c r="BU21" s="169"/>
+      <c r="AN21" s="126"/>
+      <c r="AO21" s="126"/>
+      <c r="AP21" s="126"/>
+      <c r="AQ21" s="126"/>
+      <c r="AR21" s="126"/>
+      <c r="AS21" s="126"/>
+      <c r="AT21" s="126"/>
+      <c r="AU21" s="126"/>
+      <c r="AV21" s="126"/>
+      <c r="AW21" s="126"/>
+      <c r="AX21" s="126"/>
+      <c r="AY21" s="126"/>
+      <c r="AZ21" s="126"/>
+      <c r="BA21" s="126"/>
+      <c r="BB21" s="126"/>
+      <c r="BC21" s="126"/>
+      <c r="BD21" s="126"/>
+      <c r="BE21" s="125"/>
+      <c r="BF21" s="125"/>
+      <c r="BG21" s="125"/>
+      <c r="BH21" s="125"/>
+      <c r="BI21" s="125"/>
+      <c r="BJ21" s="125"/>
+      <c r="BK21" s="125"/>
+      <c r="BL21" s="125"/>
+      <c r="BM21" s="125"/>
+      <c r="BN21" s="138"/>
+      <c r="BO21" s="126"/>
+      <c r="BP21" s="126"/>
+      <c r="BQ21" s="126"/>
+      <c r="BR21" s="126"/>
+      <c r="BS21" s="126"/>
+      <c r="BT21" s="126"/>
+      <c r="BU21" s="126"/>
       <c r="BV21" s="26"/>
       <c r="BW21" s="26"/>
       <c r="BX21" s="26"/>
@@ -5786,75 +5876,75 @@
       <c r="DG21" s="5"/>
     </row>
     <row r="22" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B22" s="160"/>
-      <c r="C22" s="161"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="162"/>
-      <c r="J22" s="163"/>
-      <c r="K22" s="161"/>
-      <c r="L22" s="161"/>
-      <c r="M22" s="161"/>
-      <c r="N22" s="161"/>
-      <c r="O22" s="161"/>
-      <c r="P22" s="161"/>
-      <c r="Q22" s="161"/>
-      <c r="R22" s="162"/>
-      <c r="S22" s="164"/>
-      <c r="T22" s="165"/>
-      <c r="U22" s="165"/>
-      <c r="V22" s="165"/>
-      <c r="W22" s="165"/>
-      <c r="X22" s="165"/>
-      <c r="Y22" s="165"/>
-      <c r="Z22" s="165"/>
-      <c r="AA22" s="166"/>
-      <c r="AB22" s="167"/>
-      <c r="AC22" s="161"/>
-      <c r="AD22" s="161"/>
-      <c r="AE22" s="161"/>
-      <c r="AF22" s="161"/>
-      <c r="AG22" s="161"/>
-      <c r="AH22" s="161"/>
-      <c r="AI22" s="168"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="133"/>
+      <c r="K22" s="131"/>
+      <c r="L22" s="131"/>
+      <c r="M22" s="131"/>
+      <c r="N22" s="131"/>
+      <c r="O22" s="131"/>
+      <c r="P22" s="131"/>
+      <c r="Q22" s="131"/>
+      <c r="R22" s="132"/>
+      <c r="S22" s="134"/>
+      <c r="T22" s="135"/>
+      <c r="U22" s="135"/>
+      <c r="V22" s="135"/>
+      <c r="W22" s="135"/>
+      <c r="X22" s="135"/>
+      <c r="Y22" s="135"/>
+      <c r="Z22" s="135"/>
+      <c r="AA22" s="136"/>
+      <c r="AB22" s="139"/>
+      <c r="AC22" s="131"/>
+      <c r="AD22" s="131"/>
+      <c r="AE22" s="131"/>
+      <c r="AF22" s="131"/>
+      <c r="AG22" s="131"/>
+      <c r="AH22" s="131"/>
+      <c r="AI22" s="137"/>
       <c r="AM22" s="4"/>
-      <c r="AN22" s="169"/>
-      <c r="AO22" s="169"/>
-      <c r="AP22" s="169"/>
-      <c r="AQ22" s="169"/>
-      <c r="AR22" s="169"/>
-      <c r="AS22" s="169"/>
-      <c r="AT22" s="169"/>
-      <c r="AU22" s="169"/>
-      <c r="AV22" s="169"/>
-      <c r="AW22" s="169"/>
-      <c r="AX22" s="169"/>
-      <c r="AY22" s="169"/>
-      <c r="AZ22" s="169"/>
-      <c r="BA22" s="169"/>
-      <c r="BB22" s="169"/>
-      <c r="BC22" s="169"/>
-      <c r="BD22" s="169"/>
-      <c r="BE22" s="170"/>
-      <c r="BF22" s="170"/>
-      <c r="BG22" s="170"/>
-      <c r="BH22" s="170"/>
-      <c r="BI22" s="170"/>
-      <c r="BJ22" s="170"/>
-      <c r="BK22" s="170"/>
-      <c r="BL22" s="170"/>
-      <c r="BM22" s="170"/>
-      <c r="BN22" s="171"/>
-      <c r="BO22" s="169"/>
-      <c r="BP22" s="169"/>
-      <c r="BQ22" s="169"/>
-      <c r="BR22" s="169"/>
-      <c r="BS22" s="169"/>
-      <c r="BT22" s="169"/>
-      <c r="BU22" s="169"/>
+      <c r="AN22" s="126"/>
+      <c r="AO22" s="126"/>
+      <c r="AP22" s="126"/>
+      <c r="AQ22" s="126"/>
+      <c r="AR22" s="126"/>
+      <c r="AS22" s="126"/>
+      <c r="AT22" s="126"/>
+      <c r="AU22" s="126"/>
+      <c r="AV22" s="126"/>
+      <c r="AW22" s="126"/>
+      <c r="AX22" s="126"/>
+      <c r="AY22" s="126"/>
+      <c r="AZ22" s="126"/>
+      <c r="BA22" s="126"/>
+      <c r="BB22" s="126"/>
+      <c r="BC22" s="126"/>
+      <c r="BD22" s="126"/>
+      <c r="BE22" s="125"/>
+      <c r="BF22" s="125"/>
+      <c r="BG22" s="125"/>
+      <c r="BH22" s="125"/>
+      <c r="BI22" s="125"/>
+      <c r="BJ22" s="125"/>
+      <c r="BK22" s="125"/>
+      <c r="BL22" s="125"/>
+      <c r="BM22" s="125"/>
+      <c r="BN22" s="138"/>
+      <c r="BO22" s="126"/>
+      <c r="BP22" s="126"/>
+      <c r="BQ22" s="126"/>
+      <c r="BR22" s="126"/>
+      <c r="BS22" s="126"/>
+      <c r="BT22" s="126"/>
+      <c r="BU22" s="126"/>
       <c r="BV22" s="26"/>
       <c r="BW22" s="26"/>
       <c r="BX22" s="26"/>
@@ -5895,75 +5985,75 @@
       <c r="DG22" s="5"/>
     </row>
     <row r="23" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B23" s="160"/>
-      <c r="C23" s="161"/>
-      <c r="D23" s="161"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="162"/>
-      <c r="J23" s="163"/>
-      <c r="K23" s="161"/>
-      <c r="L23" s="161"/>
-      <c r="M23" s="161"/>
-      <c r="N23" s="161"/>
-      <c r="O23" s="161"/>
-      <c r="P23" s="161"/>
-      <c r="Q23" s="161"/>
-      <c r="R23" s="162"/>
-      <c r="S23" s="164"/>
-      <c r="T23" s="165"/>
-      <c r="U23" s="165"/>
-      <c r="V23" s="165"/>
-      <c r="W23" s="165"/>
-      <c r="X23" s="165"/>
-      <c r="Y23" s="165"/>
-      <c r="Z23" s="165"/>
-      <c r="AA23" s="166"/>
-      <c r="AB23" s="163"/>
-      <c r="AC23" s="161"/>
-      <c r="AD23" s="161"/>
-      <c r="AE23" s="161"/>
-      <c r="AF23" s="161"/>
-      <c r="AG23" s="161"/>
-      <c r="AH23" s="161"/>
-      <c r="AI23" s="168"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="133"/>
+      <c r="K23" s="131"/>
+      <c r="L23" s="131"/>
+      <c r="M23" s="131"/>
+      <c r="N23" s="131"/>
+      <c r="O23" s="131"/>
+      <c r="P23" s="131"/>
+      <c r="Q23" s="131"/>
+      <c r="R23" s="132"/>
+      <c r="S23" s="134"/>
+      <c r="T23" s="135"/>
+      <c r="U23" s="135"/>
+      <c r="V23" s="135"/>
+      <c r="W23" s="135"/>
+      <c r="X23" s="135"/>
+      <c r="Y23" s="135"/>
+      <c r="Z23" s="135"/>
+      <c r="AA23" s="136"/>
+      <c r="AB23" s="133"/>
+      <c r="AC23" s="131"/>
+      <c r="AD23" s="131"/>
+      <c r="AE23" s="131"/>
+      <c r="AF23" s="131"/>
+      <c r="AG23" s="131"/>
+      <c r="AH23" s="131"/>
+      <c r="AI23" s="137"/>
       <c r="AM23" s="4"/>
-      <c r="AN23" s="169"/>
-      <c r="AO23" s="169"/>
-      <c r="AP23" s="169"/>
-      <c r="AQ23" s="169"/>
-      <c r="AR23" s="169"/>
-      <c r="AS23" s="169"/>
-      <c r="AT23" s="169"/>
-      <c r="AU23" s="169"/>
-      <c r="AV23" s="169"/>
-      <c r="AW23" s="169"/>
-      <c r="AX23" s="169"/>
-      <c r="AY23" s="169"/>
-      <c r="AZ23" s="169"/>
-      <c r="BA23" s="169"/>
-      <c r="BB23" s="169"/>
-      <c r="BC23" s="169"/>
-      <c r="BD23" s="169"/>
-      <c r="BE23" s="170"/>
-      <c r="BF23" s="170"/>
-      <c r="BG23" s="170"/>
-      <c r="BH23" s="170"/>
-      <c r="BI23" s="170"/>
-      <c r="BJ23" s="170"/>
-      <c r="BK23" s="170"/>
-      <c r="BL23" s="170"/>
-      <c r="BM23" s="170"/>
-      <c r="BN23" s="169"/>
-      <c r="BO23" s="169"/>
-      <c r="BP23" s="169"/>
-      <c r="BQ23" s="169"/>
-      <c r="BR23" s="169"/>
-      <c r="BS23" s="169"/>
-      <c r="BT23" s="169"/>
-      <c r="BU23" s="169"/>
+      <c r="AN23" s="126"/>
+      <c r="AO23" s="126"/>
+      <c r="AP23" s="126"/>
+      <c r="AQ23" s="126"/>
+      <c r="AR23" s="126"/>
+      <c r="AS23" s="126"/>
+      <c r="AT23" s="126"/>
+      <c r="AU23" s="126"/>
+      <c r="AV23" s="126"/>
+      <c r="AW23" s="126"/>
+      <c r="AX23" s="126"/>
+      <c r="AY23" s="126"/>
+      <c r="AZ23" s="126"/>
+      <c r="BA23" s="126"/>
+      <c r="BB23" s="126"/>
+      <c r="BC23" s="126"/>
+      <c r="BD23" s="126"/>
+      <c r="BE23" s="125"/>
+      <c r="BF23" s="125"/>
+      <c r="BG23" s="125"/>
+      <c r="BH23" s="125"/>
+      <c r="BI23" s="125"/>
+      <c r="BJ23" s="125"/>
+      <c r="BK23" s="125"/>
+      <c r="BL23" s="125"/>
+      <c r="BM23" s="125"/>
+      <c r="BN23" s="126"/>
+      <c r="BO23" s="126"/>
+      <c r="BP23" s="126"/>
+      <c r="BQ23" s="126"/>
+      <c r="BR23" s="126"/>
+      <c r="BS23" s="126"/>
+      <c r="BT23" s="126"/>
+      <c r="BU23" s="126"/>
       <c r="BV23" s="26"/>
       <c r="BW23" s="26"/>
       <c r="BX23" s="26"/>
@@ -6113,77 +6203,77 @@
       <c r="DG24" s="4"/>
     </row>
     <row r="25" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B25" s="179" t="s">
+      <c r="B25" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="124"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="124"/>
-      <c r="F25" s="124"/>
-      <c r="G25" s="124"/>
-      <c r="H25" s="124"/>
-      <c r="I25" s="124"/>
-      <c r="J25" s="124"/>
-      <c r="K25" s="124"/>
-      <c r="L25" s="124"/>
-      <c r="M25" s="124"/>
-      <c r="N25" s="124"/>
-      <c r="O25" s="124"/>
-      <c r="P25" s="124"/>
-      <c r="Q25" s="124"/>
-      <c r="R25" s="124"/>
-      <c r="S25" s="124"/>
-      <c r="T25" s="124"/>
-      <c r="U25" s="124"/>
-      <c r="V25" s="124"/>
-      <c r="W25" s="124"/>
-      <c r="X25" s="124"/>
-      <c r="Y25" s="124"/>
-      <c r="Z25" s="124"/>
-      <c r="AA25" s="124"/>
-      <c r="AB25" s="124"/>
-      <c r="AC25" s="124"/>
-      <c r="AD25" s="124"/>
-      <c r="AE25" s="124"/>
-      <c r="AF25" s="124"/>
-      <c r="AG25" s="124"/>
-      <c r="AH25" s="124"/>
-      <c r="AI25" s="180"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="123"/>
+      <c r="M25" s="123"/>
+      <c r="N25" s="123"/>
+      <c r="O25" s="123"/>
+      <c r="P25" s="123"/>
+      <c r="Q25" s="123"/>
+      <c r="R25" s="123"/>
+      <c r="S25" s="123"/>
+      <c r="T25" s="123"/>
+      <c r="U25" s="123"/>
+      <c r="V25" s="123"/>
+      <c r="W25" s="123"/>
+      <c r="X25" s="123"/>
+      <c r="Y25" s="123"/>
+      <c r="Z25" s="123"/>
+      <c r="AA25" s="123"/>
+      <c r="AB25" s="123"/>
+      <c r="AC25" s="123"/>
+      <c r="AD25" s="123"/>
+      <c r="AE25" s="123"/>
+      <c r="AF25" s="123"/>
+      <c r="AG25" s="123"/>
+      <c r="AH25" s="123"/>
+      <c r="AI25" s="124"/>
       <c r="AM25" s="4"/>
-      <c r="AN25" s="124"/>
-      <c r="AO25" s="124"/>
-      <c r="AP25" s="124"/>
-      <c r="AQ25" s="124"/>
-      <c r="AR25" s="124"/>
-      <c r="AS25" s="124"/>
-      <c r="AT25" s="124"/>
-      <c r="AU25" s="124"/>
-      <c r="AV25" s="124"/>
-      <c r="AW25" s="124"/>
-      <c r="AX25" s="124"/>
-      <c r="AY25" s="124"/>
-      <c r="AZ25" s="124"/>
-      <c r="BA25" s="124"/>
-      <c r="BB25" s="124"/>
-      <c r="BC25" s="124"/>
-      <c r="BD25" s="124"/>
-      <c r="BE25" s="124"/>
-      <c r="BF25" s="124"/>
-      <c r="BG25" s="124"/>
-      <c r="BH25" s="124"/>
-      <c r="BI25" s="124"/>
-      <c r="BJ25" s="124"/>
-      <c r="BK25" s="124"/>
-      <c r="BL25" s="124"/>
-      <c r="BM25" s="124"/>
-      <c r="BN25" s="124"/>
-      <c r="BO25" s="124"/>
-      <c r="BP25" s="124"/>
-      <c r="BQ25" s="124"/>
-      <c r="BR25" s="124"/>
-      <c r="BS25" s="124"/>
-      <c r="BT25" s="124"/>
-      <c r="BU25" s="124"/>
+      <c r="AN25" s="123"/>
+      <c r="AO25" s="123"/>
+      <c r="AP25" s="123"/>
+      <c r="AQ25" s="123"/>
+      <c r="AR25" s="123"/>
+      <c r="AS25" s="123"/>
+      <c r="AT25" s="123"/>
+      <c r="AU25" s="123"/>
+      <c r="AV25" s="123"/>
+      <c r="AW25" s="123"/>
+      <c r="AX25" s="123"/>
+      <c r="AY25" s="123"/>
+      <c r="AZ25" s="123"/>
+      <c r="BA25" s="123"/>
+      <c r="BB25" s="123"/>
+      <c r="BC25" s="123"/>
+      <c r="BD25" s="123"/>
+      <c r="BE25" s="123"/>
+      <c r="BF25" s="123"/>
+      <c r="BG25" s="123"/>
+      <c r="BH25" s="123"/>
+      <c r="BI25" s="123"/>
+      <c r="BJ25" s="123"/>
+      <c r="BK25" s="123"/>
+      <c r="BL25" s="123"/>
+      <c r="BM25" s="123"/>
+      <c r="BN25" s="123"/>
+      <c r="BO25" s="123"/>
+      <c r="BP25" s="123"/>
+      <c r="BQ25" s="123"/>
+      <c r="BR25" s="123"/>
+      <c r="BS25" s="123"/>
+      <c r="BT25" s="123"/>
+      <c r="BU25" s="123"/>
       <c r="BV25" s="26"/>
       <c r="BW25" s="26"/>
       <c r="BX25" s="26"/>
@@ -6333,77 +6423,77 @@
       <c r="DG26" s="4"/>
     </row>
     <row r="27" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B27" s="181">
+      <c r="B27" s="127">
         <v>44351</v>
       </c>
-      <c r="C27" s="146"/>
-      <c r="D27" s="146"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="146"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="146"/>
-      <c r="K27" s="146"/>
-      <c r="L27" s="146"/>
-      <c r="M27" s="146"/>
-      <c r="N27" s="146"/>
-      <c r="O27" s="146"/>
-      <c r="P27" s="146"/>
-      <c r="Q27" s="146"/>
-      <c r="R27" s="146"/>
-      <c r="S27" s="146"/>
-      <c r="T27" s="146"/>
-      <c r="U27" s="146"/>
-      <c r="V27" s="146"/>
-      <c r="W27" s="146"/>
-      <c r="X27" s="146"/>
-      <c r="Y27" s="146"/>
-      <c r="Z27" s="146"/>
-      <c r="AA27" s="146"/>
-      <c r="AB27" s="146"/>
-      <c r="AC27" s="146"/>
-      <c r="AD27" s="146"/>
-      <c r="AE27" s="146"/>
-      <c r="AF27" s="146"/>
-      <c r="AG27" s="146"/>
-      <c r="AH27" s="146"/>
-      <c r="AI27" s="182"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="128"/>
+      <c r="J27" s="128"/>
+      <c r="K27" s="128"/>
+      <c r="L27" s="128"/>
+      <c r="M27" s="128"/>
+      <c r="N27" s="128"/>
+      <c r="O27" s="128"/>
+      <c r="P27" s="128"/>
+      <c r="Q27" s="128"/>
+      <c r="R27" s="128"/>
+      <c r="S27" s="128"/>
+      <c r="T27" s="128"/>
+      <c r="U27" s="128"/>
+      <c r="V27" s="128"/>
+      <c r="W27" s="128"/>
+      <c r="X27" s="128"/>
+      <c r="Y27" s="128"/>
+      <c r="Z27" s="128"/>
+      <c r="AA27" s="128"/>
+      <c r="AB27" s="128"/>
+      <c r="AC27" s="128"/>
+      <c r="AD27" s="128"/>
+      <c r="AE27" s="128"/>
+      <c r="AF27" s="128"/>
+      <c r="AG27" s="128"/>
+      <c r="AH27" s="128"/>
+      <c r="AI27" s="129"/>
       <c r="AM27" s="4"/>
-      <c r="AN27" s="146"/>
-      <c r="AO27" s="146"/>
-      <c r="AP27" s="146"/>
-      <c r="AQ27" s="146"/>
-      <c r="AR27" s="146"/>
-      <c r="AS27" s="146"/>
-      <c r="AT27" s="146"/>
-      <c r="AU27" s="146"/>
-      <c r="AV27" s="146"/>
-      <c r="AW27" s="146"/>
-      <c r="AX27" s="146"/>
-      <c r="AY27" s="146"/>
-      <c r="AZ27" s="146"/>
-      <c r="BA27" s="146"/>
-      <c r="BB27" s="146"/>
-      <c r="BC27" s="146"/>
-      <c r="BD27" s="146"/>
-      <c r="BE27" s="146"/>
-      <c r="BF27" s="146"/>
-      <c r="BG27" s="146"/>
-      <c r="BH27" s="146"/>
-      <c r="BI27" s="146"/>
-      <c r="BJ27" s="146"/>
-      <c r="BK27" s="146"/>
-      <c r="BL27" s="146"/>
-      <c r="BM27" s="146"/>
-      <c r="BN27" s="146"/>
-      <c r="BO27" s="146"/>
-      <c r="BP27" s="146"/>
-      <c r="BQ27" s="146"/>
-      <c r="BR27" s="146"/>
-      <c r="BS27" s="146"/>
-      <c r="BT27" s="146"/>
-      <c r="BU27" s="146"/>
+      <c r="AN27" s="128"/>
+      <c r="AO27" s="128"/>
+      <c r="AP27" s="128"/>
+      <c r="AQ27" s="128"/>
+      <c r="AR27" s="128"/>
+      <c r="AS27" s="128"/>
+      <c r="AT27" s="128"/>
+      <c r="AU27" s="128"/>
+      <c r="AV27" s="128"/>
+      <c r="AW27" s="128"/>
+      <c r="AX27" s="128"/>
+      <c r="AY27" s="128"/>
+      <c r="AZ27" s="128"/>
+      <c r="BA27" s="128"/>
+      <c r="BB27" s="128"/>
+      <c r="BC27" s="128"/>
+      <c r="BD27" s="128"/>
+      <c r="BE27" s="128"/>
+      <c r="BF27" s="128"/>
+      <c r="BG27" s="128"/>
+      <c r="BH27" s="128"/>
+      <c r="BI27" s="128"/>
+      <c r="BJ27" s="128"/>
+      <c r="BK27" s="128"/>
+      <c r="BL27" s="128"/>
+      <c r="BM27" s="128"/>
+      <c r="BN27" s="128"/>
+      <c r="BO27" s="128"/>
+      <c r="BP27" s="128"/>
+      <c r="BQ27" s="128"/>
+      <c r="BR27" s="128"/>
+      <c r="BS27" s="128"/>
+      <c r="BT27" s="128"/>
+      <c r="BU27" s="128"/>
       <c r="BV27" s="26"/>
       <c r="BW27" s="26"/>
       <c r="BX27" s="26"/>
@@ -6553,77 +6643,77 @@
       <c r="DG28" s="4"/>
     </row>
     <row r="29" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B29" s="179" t="s">
+      <c r="B29" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="124"/>
-      <c r="D29" s="124"/>
-      <c r="E29" s="124"/>
-      <c r="F29" s="124"/>
-      <c r="G29" s="124"/>
-      <c r="H29" s="124"/>
-      <c r="I29" s="124"/>
-      <c r="J29" s="124"/>
-      <c r="K29" s="124"/>
-      <c r="L29" s="124"/>
-      <c r="M29" s="124"/>
-      <c r="N29" s="124"/>
-      <c r="O29" s="124"/>
-      <c r="P29" s="124"/>
-      <c r="Q29" s="124"/>
-      <c r="R29" s="124"/>
-      <c r="S29" s="124"/>
-      <c r="T29" s="124"/>
-      <c r="U29" s="124"/>
-      <c r="V29" s="124"/>
-      <c r="W29" s="124"/>
-      <c r="X29" s="124"/>
-      <c r="Y29" s="124"/>
-      <c r="Z29" s="124"/>
-      <c r="AA29" s="124"/>
-      <c r="AB29" s="124"/>
-      <c r="AC29" s="124"/>
-      <c r="AD29" s="124"/>
-      <c r="AE29" s="124"/>
-      <c r="AF29" s="124"/>
-      <c r="AG29" s="124"/>
-      <c r="AH29" s="124"/>
-      <c r="AI29" s="180"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="123"/>
+      <c r="K29" s="123"/>
+      <c r="L29" s="123"/>
+      <c r="M29" s="123"/>
+      <c r="N29" s="123"/>
+      <c r="O29" s="123"/>
+      <c r="P29" s="123"/>
+      <c r="Q29" s="123"/>
+      <c r="R29" s="123"/>
+      <c r="S29" s="123"/>
+      <c r="T29" s="123"/>
+      <c r="U29" s="123"/>
+      <c r="V29" s="123"/>
+      <c r="W29" s="123"/>
+      <c r="X29" s="123"/>
+      <c r="Y29" s="123"/>
+      <c r="Z29" s="123"/>
+      <c r="AA29" s="123"/>
+      <c r="AB29" s="123"/>
+      <c r="AC29" s="123"/>
+      <c r="AD29" s="123"/>
+      <c r="AE29" s="123"/>
+      <c r="AF29" s="123"/>
+      <c r="AG29" s="123"/>
+      <c r="AH29" s="123"/>
+      <c r="AI29" s="124"/>
       <c r="AM29" s="4"/>
-      <c r="AN29" s="124"/>
-      <c r="AO29" s="124"/>
-      <c r="AP29" s="124"/>
-      <c r="AQ29" s="124"/>
-      <c r="AR29" s="124"/>
-      <c r="AS29" s="124"/>
-      <c r="AT29" s="124"/>
-      <c r="AU29" s="124"/>
-      <c r="AV29" s="124"/>
-      <c r="AW29" s="124"/>
-      <c r="AX29" s="124"/>
-      <c r="AY29" s="124"/>
-      <c r="AZ29" s="124"/>
-      <c r="BA29" s="124"/>
-      <c r="BB29" s="124"/>
-      <c r="BC29" s="124"/>
-      <c r="BD29" s="124"/>
-      <c r="BE29" s="124"/>
-      <c r="BF29" s="124"/>
-      <c r="BG29" s="124"/>
-      <c r="BH29" s="124"/>
-      <c r="BI29" s="124"/>
-      <c r="BJ29" s="124"/>
-      <c r="BK29" s="124"/>
-      <c r="BL29" s="124"/>
-      <c r="BM29" s="124"/>
-      <c r="BN29" s="124"/>
-      <c r="BO29" s="124"/>
-      <c r="BP29" s="124"/>
-      <c r="BQ29" s="124"/>
-      <c r="BR29" s="124"/>
-      <c r="BS29" s="124"/>
-      <c r="BT29" s="124"/>
-      <c r="BU29" s="124"/>
+      <c r="AN29" s="123"/>
+      <c r="AO29" s="123"/>
+      <c r="AP29" s="123"/>
+      <c r="AQ29" s="123"/>
+      <c r="AR29" s="123"/>
+      <c r="AS29" s="123"/>
+      <c r="AT29" s="123"/>
+      <c r="AU29" s="123"/>
+      <c r="AV29" s="123"/>
+      <c r="AW29" s="123"/>
+      <c r="AX29" s="123"/>
+      <c r="AY29" s="123"/>
+      <c r="AZ29" s="123"/>
+      <c r="BA29" s="123"/>
+      <c r="BB29" s="123"/>
+      <c r="BC29" s="123"/>
+      <c r="BD29" s="123"/>
+      <c r="BE29" s="123"/>
+      <c r="BF29" s="123"/>
+      <c r="BG29" s="123"/>
+      <c r="BH29" s="123"/>
+      <c r="BI29" s="123"/>
+      <c r="BJ29" s="123"/>
+      <c r="BK29" s="123"/>
+      <c r="BL29" s="123"/>
+      <c r="BM29" s="123"/>
+      <c r="BN29" s="123"/>
+      <c r="BO29" s="123"/>
+      <c r="BP29" s="123"/>
+      <c r="BQ29" s="123"/>
+      <c r="BR29" s="123"/>
+      <c r="BS29" s="123"/>
+      <c r="BT29" s="123"/>
+      <c r="BU29" s="123"/>
       <c r="BV29" s="4"/>
       <c r="BW29" s="4"/>
       <c r="BX29" s="4"/>
@@ -6851,118 +6941,24 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <dataConsolidate/>
   <mergeCells count="154">
-    <mergeCell ref="B29:AI29"/>
-    <mergeCell ref="AN29:BU29"/>
-    <mergeCell ref="BE23:BM23"/>
-    <mergeCell ref="BN23:BU23"/>
-    <mergeCell ref="B25:AI25"/>
-    <mergeCell ref="AN25:BU25"/>
-    <mergeCell ref="B27:AI27"/>
-    <mergeCell ref="AN27:BU27"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="J23:R23"/>
-    <mergeCell ref="S23:AA23"/>
-    <mergeCell ref="AB23:AI23"/>
-    <mergeCell ref="AN23:AU23"/>
-    <mergeCell ref="AV23:BD23"/>
-    <mergeCell ref="BE21:BM21"/>
-    <mergeCell ref="BN21:BU21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:R22"/>
-    <mergeCell ref="S22:AA22"/>
-    <mergeCell ref="AB22:AI22"/>
-    <mergeCell ref="AN22:AU22"/>
-    <mergeCell ref="AV22:BD22"/>
-    <mergeCell ref="BE22:BM22"/>
-    <mergeCell ref="BN22:BU22"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="J21:R21"/>
-    <mergeCell ref="S21:AA21"/>
-    <mergeCell ref="AB21:AI21"/>
-    <mergeCell ref="AN21:AU21"/>
-    <mergeCell ref="AV21:BD21"/>
-    <mergeCell ref="BE19:BM19"/>
-    <mergeCell ref="BN19:BU19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J20:R20"/>
-    <mergeCell ref="S20:AA20"/>
-    <mergeCell ref="AB20:AI20"/>
-    <mergeCell ref="AN20:AU20"/>
-    <mergeCell ref="AV20:BD20"/>
-    <mergeCell ref="BE20:BM20"/>
-    <mergeCell ref="BN20:BU20"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="J19:R19"/>
-    <mergeCell ref="S19:AA19"/>
-    <mergeCell ref="AB19:AI19"/>
-    <mergeCell ref="AN19:AU19"/>
-    <mergeCell ref="AV19:BD19"/>
-    <mergeCell ref="BE17:BM17"/>
-    <mergeCell ref="BN17:BU17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J18:R18"/>
-    <mergeCell ref="S18:AA18"/>
-    <mergeCell ref="AB18:AI18"/>
-    <mergeCell ref="AN18:AU18"/>
-    <mergeCell ref="AV18:BD18"/>
-    <mergeCell ref="BE18:BM18"/>
-    <mergeCell ref="BN18:BU18"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:R17"/>
-    <mergeCell ref="S17:AA17"/>
-    <mergeCell ref="AB17:AI17"/>
-    <mergeCell ref="AN17:AU17"/>
-    <mergeCell ref="AV17:BD17"/>
-    <mergeCell ref="BE15:BM15"/>
-    <mergeCell ref="BN15:BU15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:R16"/>
-    <mergeCell ref="S16:AA16"/>
-    <mergeCell ref="AB16:AI16"/>
-    <mergeCell ref="AN16:AU16"/>
-    <mergeCell ref="AV16:BD16"/>
-    <mergeCell ref="BE16:BM16"/>
-    <mergeCell ref="BN16:BU16"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:R15"/>
-    <mergeCell ref="S15:AA15"/>
-    <mergeCell ref="AB15:AI15"/>
-    <mergeCell ref="AN15:AU15"/>
-    <mergeCell ref="AV15:BD15"/>
-    <mergeCell ref="BE13:BM13"/>
-    <mergeCell ref="BN13:BU13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:R14"/>
-    <mergeCell ref="S14:AA14"/>
-    <mergeCell ref="AB14:AI14"/>
-    <mergeCell ref="AN14:AU14"/>
-    <mergeCell ref="AV14:BD14"/>
-    <mergeCell ref="BE14:BM14"/>
-    <mergeCell ref="BN14:BU14"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:R13"/>
-    <mergeCell ref="S13:AA13"/>
-    <mergeCell ref="AB13:AI13"/>
-    <mergeCell ref="AN13:AU13"/>
-    <mergeCell ref="AV13:BD13"/>
-    <mergeCell ref="B12:AI12"/>
-    <mergeCell ref="AN12:BU12"/>
-    <mergeCell ref="AQ10:BD10"/>
-    <mergeCell ref="BE10:BF10"/>
-    <mergeCell ref="BG10:BM10"/>
-    <mergeCell ref="BN10:BU10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:AA11"/>
-    <mergeCell ref="AB11:AI11"/>
-    <mergeCell ref="AN11:AP11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="AB10:AI10"/>
-    <mergeCell ref="AN10:AP10"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="BF5:BI5"/>
+    <mergeCell ref="BJ5:BM5"/>
+    <mergeCell ref="BN5:BQ5"/>
+    <mergeCell ref="BR5:BU5"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="BF6:BI6"/>
+    <mergeCell ref="BJ6:BM6"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="BE5:BE6"/>
+    <mergeCell ref="BN6:BQ6"/>
+    <mergeCell ref="BR6:BU6"/>
     <mergeCell ref="B7:AI7"/>
     <mergeCell ref="AN7:BU7"/>
     <mergeCell ref="B8:D8"/>
@@ -6987,24 +6983,118 @@
     <mergeCell ref="U9:AA9"/>
     <mergeCell ref="AB9:AE9"/>
     <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="BF5:BI5"/>
-    <mergeCell ref="BJ5:BM5"/>
-    <mergeCell ref="BN5:BQ5"/>
-    <mergeCell ref="BR5:BU5"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="BF6:BI6"/>
-    <mergeCell ref="BJ6:BM6"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="X5:AA5"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="AF5:AI5"/>
-    <mergeCell ref="BE5:BE6"/>
-    <mergeCell ref="BN6:BQ6"/>
-    <mergeCell ref="BR6:BU6"/>
+    <mergeCell ref="B12:AI12"/>
+    <mergeCell ref="AN12:BU12"/>
+    <mergeCell ref="AQ10:BD10"/>
+    <mergeCell ref="BE10:BF10"/>
+    <mergeCell ref="BG10:BM10"/>
+    <mergeCell ref="BN10:BU10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="AB11:AI11"/>
+    <mergeCell ref="AN11:AP11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="AB10:AI10"/>
+    <mergeCell ref="AN10:AP10"/>
+    <mergeCell ref="BE13:BM13"/>
+    <mergeCell ref="BN13:BU13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:R14"/>
+    <mergeCell ref="S14:AA14"/>
+    <mergeCell ref="AB14:AI14"/>
+    <mergeCell ref="AN14:AU14"/>
+    <mergeCell ref="AV14:BD14"/>
+    <mergeCell ref="BE14:BM14"/>
+    <mergeCell ref="BN14:BU14"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:R13"/>
+    <mergeCell ref="S13:AA13"/>
+    <mergeCell ref="AB13:AI13"/>
+    <mergeCell ref="AN13:AU13"/>
+    <mergeCell ref="AV13:BD13"/>
+    <mergeCell ref="BE15:BM15"/>
+    <mergeCell ref="BN15:BU15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:R16"/>
+    <mergeCell ref="S16:AA16"/>
+    <mergeCell ref="AB16:AI16"/>
+    <mergeCell ref="AN16:AU16"/>
+    <mergeCell ref="AV16:BD16"/>
+    <mergeCell ref="BE16:BM16"/>
+    <mergeCell ref="BN16:BU16"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:R15"/>
+    <mergeCell ref="S15:AA15"/>
+    <mergeCell ref="AB15:AI15"/>
+    <mergeCell ref="AN15:AU15"/>
+    <mergeCell ref="AV15:BD15"/>
+    <mergeCell ref="BE17:BM17"/>
+    <mergeCell ref="BN17:BU17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:R18"/>
+    <mergeCell ref="S18:AA18"/>
+    <mergeCell ref="AB18:AI18"/>
+    <mergeCell ref="AN18:AU18"/>
+    <mergeCell ref="AV18:BD18"/>
+    <mergeCell ref="BE18:BM18"/>
+    <mergeCell ref="BN18:BU18"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:R17"/>
+    <mergeCell ref="S17:AA17"/>
+    <mergeCell ref="AB17:AI17"/>
+    <mergeCell ref="AN17:AU17"/>
+    <mergeCell ref="AV17:BD17"/>
+    <mergeCell ref="BE19:BM19"/>
+    <mergeCell ref="BN19:BU19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="J20:R20"/>
+    <mergeCell ref="S20:AA20"/>
+    <mergeCell ref="AB20:AI20"/>
+    <mergeCell ref="AN20:AU20"/>
+    <mergeCell ref="AV20:BD20"/>
+    <mergeCell ref="BE20:BM20"/>
+    <mergeCell ref="BN20:BU20"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="J19:R19"/>
+    <mergeCell ref="S19:AA19"/>
+    <mergeCell ref="AB19:AI19"/>
+    <mergeCell ref="AN19:AU19"/>
+    <mergeCell ref="AV19:BD19"/>
+    <mergeCell ref="BE21:BM21"/>
+    <mergeCell ref="BN21:BU21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:R22"/>
+    <mergeCell ref="S22:AA22"/>
+    <mergeCell ref="AB22:AI22"/>
+    <mergeCell ref="AN22:AU22"/>
+    <mergeCell ref="AV22:BD22"/>
+    <mergeCell ref="BE22:BM22"/>
+    <mergeCell ref="BN22:BU22"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="J21:R21"/>
+    <mergeCell ref="S21:AA21"/>
+    <mergeCell ref="AB21:AI21"/>
+    <mergeCell ref="AN21:AU21"/>
+    <mergeCell ref="AV21:BD21"/>
+    <mergeCell ref="B29:AI29"/>
+    <mergeCell ref="AN29:BU29"/>
+    <mergeCell ref="BE23:BM23"/>
+    <mergeCell ref="BN23:BU23"/>
+    <mergeCell ref="B25:AI25"/>
+    <mergeCell ref="AN25:BU25"/>
+    <mergeCell ref="B27:AI27"/>
+    <mergeCell ref="AN27:BU27"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="J23:R23"/>
+    <mergeCell ref="S23:AA23"/>
+    <mergeCell ref="AB23:AI23"/>
+    <mergeCell ref="AN23:AU23"/>
+    <mergeCell ref="AV23:BD23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
@@ -7029,16 +7119,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:L79"/>
+  <dimension ref="A2:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J73" sqref="J73"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N78" sqref="N78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="32" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="32" customWidth="1"/>
     <col min="3" max="6" width="10.375" style="32" customWidth="1"/>
     <col min="7" max="7" width="12.625" style="32" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.25" style="32" customWidth="1"/>
@@ -7144,7 +7234,7 @@
       </c>
       <c r="L4" s="84">
         <f>RANK(K4,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18.75">
@@ -7177,15 +7267,15 @@
       </c>
       <c r="I5" s="70">
         <f>VLOOKUP(B5,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J5" s="70">
         <f>VLOOKUP(B5,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2994</v>
+        <v>3666</v>
       </c>
       <c r="K5" s="83">
         <f>VLOOKUP(B5,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>199.6</v>
+        <v>203.66666666666666</v>
       </c>
       <c r="L5" s="84">
         <f>RANK(K5,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -7222,15 +7312,15 @@
       </c>
       <c r="I6" s="70">
         <f>VLOOKUP(B6,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J6" s="70">
         <f>VLOOKUP(B6,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2357</v>
+        <v>2939</v>
       </c>
       <c r="K6" s="83">
         <f>VLOOKUP(B6,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>168.35714285714286</v>
+        <v>172.88235294117646</v>
       </c>
       <c r="L6" s="84">
         <f>RANK(K6,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -7267,19 +7357,19 @@
       </c>
       <c r="I7" s="70">
         <f>VLOOKUP(B7,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J7" s="70">
         <f>VLOOKUP(B7,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2159</v>
+        <v>2702</v>
       </c>
       <c r="K7" s="83">
         <f>VLOOKUP(B7,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>179.91666666666666</v>
+        <v>180.13333333333333</v>
       </c>
       <c r="L7" s="84">
         <f>RANK(K7,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18.75">
@@ -7312,15 +7402,15 @@
       </c>
       <c r="I8" s="70">
         <f>VLOOKUP(B8,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J8" s="70">
         <f>VLOOKUP(B8,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1427</v>
+        <v>1876</v>
       </c>
       <c r="K8" s="83">
         <f>VLOOKUP(B8,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>158.55555555555554</v>
+        <v>156.33333333333334</v>
       </c>
       <c r="L8" s="84">
         <f>RANK(K8,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -7357,19 +7447,19 @@
       </c>
       <c r="I9" s="70">
         <f>VLOOKUP(B9,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J9" s="70">
         <f>VLOOKUP(B9,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2865</v>
+        <v>3446</v>
       </c>
       <c r="K9" s="83">
         <f>VLOOKUP(B9,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>191</v>
+        <v>191.44444444444446</v>
       </c>
       <c r="L9" s="84">
         <f>RANK(K9,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18.75">
@@ -7402,19 +7492,19 @@
       </c>
       <c r="I10" s="70">
         <f>VLOOKUP(B10,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J10" s="70">
         <f>VLOOKUP(B10,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2698</v>
+        <v>3344</v>
       </c>
       <c r="K10" s="83">
         <f>VLOOKUP(B10,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>179.86666666666667</v>
+        <v>185.77777777777777</v>
       </c>
       <c r="L10" s="84">
         <f>RANK(K10,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18.75">
@@ -7447,19 +7537,19 @@
       </c>
       <c r="I11" s="70">
         <f>VLOOKUP(B11,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J11" s="70">
         <f>VLOOKUP(B11,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2138</v>
+        <v>2769</v>
       </c>
       <c r="K11" s="83">
         <f>VLOOKUP(B11,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>178.16666666666666</v>
+        <v>184.6</v>
       </c>
       <c r="L11" s="84">
         <f>RANK(K11,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75">
@@ -7582,19 +7672,19 @@
       </c>
       <c r="I14" s="70">
         <f>VLOOKUP(B14,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J14" s="70">
         <f>VLOOKUP(B14,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2169</v>
+        <v>2710</v>
       </c>
       <c r="K14" s="83">
         <f>VLOOKUP(B14,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>180.75</v>
+        <v>180.66666666666666</v>
       </c>
       <c r="L14" s="84">
         <f>RANK(K14,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.75">
@@ -7726,19 +7816,19 @@
       </c>
       <c r="I21" s="70">
         <f>VLOOKUP(B21,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J21" s="70">
         <f>VLOOKUP(B21,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2865</v>
+        <v>3446</v>
       </c>
       <c r="K21" s="83">
         <f>VLOOKUP(B21,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>191</v>
+        <v>191.44444444444446</v>
       </c>
       <c r="L21" s="84">
         <f>RANK(K21,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="18.75">
@@ -7771,19 +7861,19 @@
       </c>
       <c r="I22" s="70">
         <f>VLOOKUP(B22,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J22" s="70">
         <f>VLOOKUP(B22,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2169</v>
+        <v>2710</v>
       </c>
       <c r="K22" s="83">
         <f>VLOOKUP(B22,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>180.75</v>
+        <v>180.66666666666666</v>
       </c>
       <c r="L22" s="84">
         <f>RANK(K22,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="18.75">
@@ -7828,7 +7918,7 @@
       </c>
       <c r="L23" s="84">
         <f>RANK(K23,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="18.75">
@@ -7861,19 +7951,19 @@
       </c>
       <c r="I24" s="70">
         <f>VLOOKUP(B24,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J24" s="70">
         <f>VLOOKUP(B24,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2138</v>
+        <v>2769</v>
       </c>
       <c r="K24" s="83">
         <f>VLOOKUP(B24,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>178.16666666666666</v>
+        <v>184.6</v>
       </c>
       <c r="L24" s="84">
         <f>RANK(K24,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="18.75">
@@ -7906,19 +7996,19 @@
       </c>
       <c r="I25" s="70">
         <f>VLOOKUP(B25,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J25" s="70">
         <f>VLOOKUP(B25,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1117</v>
+        <v>1782</v>
       </c>
       <c r="K25" s="83">
         <f>VLOOKUP(B25,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>186.16666666666666</v>
+        <v>198</v>
       </c>
       <c r="L25" s="84">
         <f>RANK(K25,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="18.75">
@@ -7951,15 +8041,15 @@
       </c>
       <c r="I26" s="70">
         <f>VLOOKUP(B26,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J26" s="70">
         <f>VLOOKUP(B26,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2994</v>
+        <v>3666</v>
       </c>
       <c r="K26" s="83">
         <f>VLOOKUP(B26,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>199.6</v>
+        <v>203.66666666666666</v>
       </c>
       <c r="L26" s="84">
         <f>RANK(K26,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -7996,15 +8086,15 @@
       </c>
       <c r="I27" s="70">
         <f>VLOOKUP(B27,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J27" s="70">
         <f>VLOOKUP(B27,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2357</v>
+        <v>2939</v>
       </c>
       <c r="K27" s="83">
         <f>VLOOKUP(B27,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>168.35714285714286</v>
+        <v>172.88235294117646</v>
       </c>
       <c r="L27" s="84">
         <f>RANK(K27,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -8041,19 +8131,19 @@
       </c>
       <c r="I28" s="70">
         <f>VLOOKUP(B28,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J28" s="70">
         <f>VLOOKUP(B28,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2698</v>
+        <v>3344</v>
       </c>
       <c r="K28" s="83">
         <f>VLOOKUP(B28,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>179.86666666666667</v>
+        <v>185.77777777777777</v>
       </c>
       <c r="L28" s="84">
         <f>RANK(K28,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="18.75">
@@ -8086,19 +8176,19 @@
       </c>
       <c r="I29" s="70">
         <f>VLOOKUP(B29,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J29" s="70">
         <f>VLOOKUP(B29,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1821</v>
+        <v>2206</v>
       </c>
       <c r="K29" s="83">
         <f>VLOOKUP(B29,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>151.75</v>
+        <v>147.06666666666666</v>
       </c>
       <c r="L29" s="84">
         <f>RANK(K29,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="18.75">
@@ -8260,15 +8350,15 @@
       </c>
       <c r="I36" s="70">
         <f>VLOOKUP(B36,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J36" s="70">
         <f>VLOOKUP(B36,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2994</v>
+        <v>3666</v>
       </c>
       <c r="K36" s="83">
         <f>VLOOKUP(B36,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>199.6</v>
+        <v>203.66666666666666</v>
       </c>
       <c r="L36" s="84">
         <f>RANK(K36,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -8305,19 +8395,19 @@
       </c>
       <c r="I37" s="70">
         <f>VLOOKUP(B37,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J37" s="70">
         <f>VLOOKUP(B37,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2159</v>
+        <v>2702</v>
       </c>
       <c r="K37" s="83">
         <f>VLOOKUP(B37,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>179.91666666666666</v>
+        <v>180.13333333333333</v>
       </c>
       <c r="L37" s="84">
         <f>RANK(K37,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="18.75">
@@ -8350,19 +8440,19 @@
       </c>
       <c r="I38" s="70">
         <f>VLOOKUP(B38,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J38" s="70">
         <f>VLOOKUP(B38,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2169</v>
+        <v>2710</v>
       </c>
       <c r="K38" s="83">
         <f>VLOOKUP(B38,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>180.75</v>
+        <v>180.66666666666666</v>
       </c>
       <c r="L38" s="84">
         <f>RANK(K38,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="18.75">
@@ -8395,19 +8485,19 @@
       </c>
       <c r="I39" s="70">
         <f>VLOOKUP(B39,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J39" s="70">
         <f>VLOOKUP(B39,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2698</v>
+        <v>3344</v>
       </c>
       <c r="K39" s="83">
         <f>VLOOKUP(B39,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>179.86666666666667</v>
+        <v>185.77777777777777</v>
       </c>
       <c r="L39" s="84">
         <f>RANK(K39,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="18.75">
@@ -8440,19 +8530,19 @@
       </c>
       <c r="I40" s="70">
         <f>VLOOKUP(B40,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J40" s="70">
         <f>VLOOKUP(B40,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2865</v>
+        <v>3446</v>
       </c>
       <c r="K40" s="83">
         <f>VLOOKUP(B40,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>191</v>
+        <v>191.44444444444446</v>
       </c>
       <c r="L40" s="84">
         <f>RANK(K40,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="18.75">
@@ -8497,7 +8587,7 @@
       </c>
       <c r="L41" s="84">
         <f>RANK(K41,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="18.75">
@@ -8620,19 +8710,19 @@
       </c>
       <c r="I44" s="70">
         <f>VLOOKUP(B44,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J44" s="70">
         <f>VLOOKUP(B44,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1821</v>
+        <v>2206</v>
       </c>
       <c r="K44" s="83">
         <f>VLOOKUP(B44,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>151.75</v>
+        <v>147.06666666666666</v>
       </c>
       <c r="L44" s="84">
         <f>RANK(K44,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="18.75">
@@ -8663,15 +8753,15 @@
       </c>
       <c r="I45" s="70">
         <f>VLOOKUP(B45,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J45" s="70">
         <f>VLOOKUP(B45,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2357</v>
+        <v>2939</v>
       </c>
       <c r="K45" s="83">
         <f>VLOOKUP(B45,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>168.35714285714286</v>
+        <v>172.88235294117646</v>
       </c>
       <c r="L45" s="84">
         <f>RANK(K45,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -8762,19 +8852,19 @@
       </c>
       <c r="I50" s="70">
         <f>VLOOKUP(B50,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J50" s="70">
         <f>VLOOKUP(B50,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2865</v>
+        <v>3446</v>
       </c>
       <c r="K50" s="83">
         <f>VLOOKUP(B50,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>191</v>
+        <v>191.44444444444446</v>
       </c>
       <c r="L50" s="84">
         <f>RANK(K50,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="20.25" thickTop="1" thickBot="1">
@@ -8807,19 +8897,19 @@
       </c>
       <c r="I51" s="70">
         <f>VLOOKUP(B51,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J51" s="70">
         <f>VLOOKUP(B51,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2698</v>
+        <v>3344</v>
       </c>
       <c r="K51" s="83">
         <f>VLOOKUP(B51,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>179.86666666666667</v>
+        <v>185.77777777777777</v>
       </c>
       <c r="L51" s="84">
         <f>RANK(K51,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="19.5" thickTop="1">
@@ -8852,15 +8942,15 @@
       </c>
       <c r="I52" s="70">
         <f>VLOOKUP(B52,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J52" s="70">
         <f>VLOOKUP(B52,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2994</v>
+        <v>3666</v>
       </c>
       <c r="K52" s="83">
         <f>VLOOKUP(B52,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>199.6</v>
+        <v>203.66666666666666</v>
       </c>
       <c r="L52" s="84">
         <f>RANK(K52,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -8897,19 +8987,19 @@
       </c>
       <c r="I53" s="70">
         <f>VLOOKUP(B53,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J53" s="70">
         <f>VLOOKUP(B53,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1117</v>
+        <v>1782</v>
       </c>
       <c r="K53" s="83">
         <f>VLOOKUP(B53,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>186.16666666666666</v>
+        <v>198</v>
       </c>
       <c r="L53" s="84">
         <f>RANK(K53,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="18.75">
@@ -8942,19 +9032,19 @@
       </c>
       <c r="I54" s="70">
         <f>VLOOKUP(B54,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J54" s="70">
         <f>VLOOKUP(B54,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2138</v>
+        <v>2769</v>
       </c>
       <c r="K54" s="83">
         <f>VLOOKUP(B54,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>178.16666666666666</v>
+        <v>184.6</v>
       </c>
       <c r="L54" s="84">
         <f>RANK(K54,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="18.75">
@@ -8987,19 +9077,19 @@
       </c>
       <c r="I55" s="70">
         <f>VLOOKUP(B55,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J55" s="70">
         <f>VLOOKUP(B55,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2159</v>
+        <v>2702</v>
       </c>
       <c r="K55" s="83">
         <f>VLOOKUP(B55,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>179.91666666666666</v>
+        <v>180.13333333333333</v>
       </c>
       <c r="L55" s="84">
         <f>RANK(K55,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="18.75">
@@ -9032,19 +9122,19 @@
       </c>
       <c r="I56" s="70">
         <f>VLOOKUP(B56,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J56" s="70">
         <f>VLOOKUP(B56,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2169</v>
+        <v>2710</v>
       </c>
       <c r="K56" s="83">
         <f>VLOOKUP(B56,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>180.75</v>
+        <v>180.66666666666666</v>
       </c>
       <c r="L56" s="84">
         <f>RANK(K56,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="18.75">
@@ -9077,15 +9167,15 @@
       </c>
       <c r="I57" s="70">
         <f>VLOOKUP(B57,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J57" s="70">
         <f>VLOOKUP(B57,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2357</v>
+        <v>2939</v>
       </c>
       <c r="K57" s="83">
         <f>VLOOKUP(B57,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>168.35714285714286</v>
+        <v>172.88235294117646</v>
       </c>
       <c r="L57" s="84">
         <f>RANK(K57,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -9212,15 +9302,15 @@
       </c>
       <c r="I60" s="70">
         <f>VLOOKUP(B60,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J60" s="70">
         <f>VLOOKUP(B60,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1427</v>
+        <v>1876</v>
       </c>
       <c r="K60" s="83">
         <f>VLOOKUP(B60,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>158.55555555555554</v>
+        <v>156.33333333333334</v>
       </c>
       <c r="L60" s="84">
         <f>RANK(K60,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -9269,7 +9359,7 @@
       </c>
       <c r="L61" s="84">
         <f>RANK(K61,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="18.75">
@@ -9302,19 +9392,19 @@
       </c>
       <c r="I62" s="70">
         <f>VLOOKUP(B62,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J62" s="70">
         <f>VLOOKUP(B62,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1821</v>
+        <v>2206</v>
       </c>
       <c r="K62" s="83">
         <f>VLOOKUP(B62,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>151.75</v>
+        <v>147.06666666666666</v>
       </c>
       <c r="L62" s="84">
         <f>RANK(K62,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="18.75">
@@ -9418,7 +9508,7 @@
     </row>
     <row r="68" spans="1:12" ht="20.25" thickTop="1" thickBot="1">
       <c r="A68" s="77">
-        <f>RANK(G68,$G$68:$G$79)</f>
+        <f t="shared" ref="A68:A79" si="12">RANK(G68,$G$68:$G$79)</f>
         <v>1</v>
       </c>
       <c r="B68" s="64" t="s">
@@ -9434,11 +9524,11 @@
         <v>182</v>
       </c>
       <c r="F68" s="80">
-        <f>SUM(C68:E68)</f>
+        <f t="shared" ref="F68:F79" si="13">SUM(C68:E68)</f>
         <v>573</v>
       </c>
       <c r="G68" s="87">
-        <f>F68/COUNTA(C68:E68)</f>
+        <f t="shared" ref="G68:G79" si="14">F68/COUNTA(C68:E68)</f>
         <v>191</v>
       </c>
       <c r="H68" s="64" t="s">
@@ -9446,15 +9536,15 @@
       </c>
       <c r="I68" s="70">
         <f>VLOOKUP(B68,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J68" s="70">
         <f>VLOOKUP(B68,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>2994</v>
+        <v>3666</v>
       </c>
       <c r="K68" s="83">
         <f>VLOOKUP(B68,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>199.6</v>
+        <v>203.66666666666666</v>
       </c>
       <c r="L68" s="84">
         <f>RANK(K68,'총에버 관리_2023'!$V$3:$V$21)</f>
@@ -9463,7 +9553,7 @@
     </row>
     <row r="69" spans="1:12" ht="19.5" thickTop="1">
       <c r="A69" s="77">
-        <f>RANK(G69,$G$68:$G$79)</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="B69" s="72" t="s">
@@ -9479,11 +9569,11 @@
         <v>172</v>
       </c>
       <c r="F69" s="69">
-        <f>SUM(C69:E69)</f>
+        <f t="shared" si="13"/>
         <v>551</v>
       </c>
       <c r="G69" s="87">
-        <f>F69/COUNTA(C69:E69)</f>
+        <f t="shared" si="14"/>
         <v>183.66666666666666</v>
       </c>
       <c r="H69" s="72" t="s">
@@ -9503,12 +9593,12 @@
       </c>
       <c r="L69" s="84">
         <f>RANK(K69,'총에버 관리_2023'!$V$3:$V$21)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="18.75">
       <c r="A70" s="77">
-        <f>RANK(G70,$G$68:$G$79)</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="B70" s="72" t="s">
@@ -9524,11 +9614,11 @@
         <v>148</v>
       </c>
       <c r="F70" s="69">
-        <f>SUM(C70:E70)</f>
+        <f t="shared" si="13"/>
         <v>516</v>
       </c>
       <c r="G70" s="87">
-        <f>F70/COUNTA(C70:E70)</f>
+        <f t="shared" si="14"/>
         <v>172</v>
       </c>
       <c r="H70" s="72" t="s">
@@ -9536,24 +9626,24 @@
       </c>
       <c r="I70" s="70">
         <f>VLOOKUP(B70,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J70" s="70">
         <f>VLOOKUP(B70,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>2865</v>
+        <v>3446</v>
       </c>
       <c r="K70" s="83">
         <f>VLOOKUP(B70,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>191</v>
+        <v>191.44444444444446</v>
       </c>
       <c r="L70" s="84">
         <f>RANK(K70,'총에버 관리_2023'!$V$3:$V$21)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="18.75">
       <c r="A71" s="77">
-        <f>RANK(G71,$G$68:$G$79)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="B71" s="61" t="s">
@@ -9569,11 +9659,11 @@
         <v>118</v>
       </c>
       <c r="F71" s="63">
-        <f>SUM(C71:E71)</f>
+        <f t="shared" si="13"/>
         <v>510</v>
       </c>
       <c r="G71" s="87">
-        <f>F71/COUNTA(C71:E71)</f>
+        <f t="shared" si="14"/>
         <v>170</v>
       </c>
       <c r="H71" s="61" t="s">
@@ -9593,12 +9683,12 @@
       </c>
       <c r="L71" s="84">
         <f>RANK(K71,'총에버 관리_2023'!$V$3:$V$21)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="18.75">
       <c r="A72" s="77">
-        <f>RANK(G72,$G$68:$G$79)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="B72" s="61" t="s">
@@ -9614,11 +9704,11 @@
         <v>168</v>
       </c>
       <c r="F72" s="63">
-        <f>SUM(C72:E72)</f>
+        <f t="shared" si="13"/>
         <v>509</v>
       </c>
       <c r="G72" s="87">
-        <f>F72/COUNTA(C72:E72)</f>
+        <f t="shared" si="14"/>
         <v>169.66666666666666</v>
       </c>
       <c r="H72" s="61" t="s">
@@ -9626,24 +9716,24 @@
       </c>
       <c r="I72" s="70">
         <f>VLOOKUP(B72,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J72" s="70">
         <f>VLOOKUP(B72,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>2138</v>
+        <v>2769</v>
       </c>
       <c r="K72" s="83">
         <f>VLOOKUP(B72,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>178.16666666666666</v>
+        <v>184.6</v>
       </c>
       <c r="L72" s="84">
         <f>RANK(K72,'총에버 관리_2023'!$V$3:$V$21)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="18.75">
       <c r="A73" s="77">
-        <f>RANK(G73,$G$68:$G$79)</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="B73" s="61" t="s">
@@ -9659,11 +9749,11 @@
         <v>126</v>
       </c>
       <c r="F73" s="69">
-        <f>SUM(C73:E73)</f>
+        <f t="shared" si="13"/>
         <v>463</v>
       </c>
       <c r="G73" s="87">
-        <f>F73/COUNTA(C73:E73)</f>
+        <f t="shared" si="14"/>
         <v>154.33333333333334</v>
       </c>
       <c r="H73" s="61" t="s">
@@ -9671,24 +9761,24 @@
       </c>
       <c r="I73" s="70">
         <f>VLOOKUP(B73,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J73" s="70">
         <f>VLOOKUP(B73,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>2698</v>
+        <v>3344</v>
       </c>
       <c r="K73" s="83">
         <f>VLOOKUP(B73,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>179.86666666666667</v>
+        <v>185.77777777777777</v>
       </c>
       <c r="L73" s="84">
         <f>RANK(K73,'총에버 관리_2023'!$V$3:$V$21)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="18.75">
       <c r="A74" s="77">
-        <f>RANK(G74,$G$68:$G$79)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="B74" s="72" t="s">
@@ -9704,11 +9794,11 @@
         <v>132</v>
       </c>
       <c r="F74" s="43">
-        <f>SUM(C74:E74)</f>
+        <f t="shared" si="13"/>
         <v>450</v>
       </c>
       <c r="G74" s="87">
-        <f>F74/COUNTA(C74:E74)</f>
+        <f t="shared" si="14"/>
         <v>150</v>
       </c>
       <c r="H74" s="72" t="s">
@@ -9716,24 +9806,24 @@
       </c>
       <c r="I74" s="70">
         <f>VLOOKUP(B74,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J74" s="70">
         <f>VLOOKUP(B74,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>2159</v>
+        <v>2702</v>
       </c>
       <c r="K74" s="83">
         <f>VLOOKUP(B74,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>179.91666666666666</v>
+        <v>180.13333333333333</v>
       </c>
       <c r="L74" s="84">
         <f>RANK(K74,'총에버 관리_2023'!$V$3:$V$21)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="18.75">
       <c r="A75" s="77">
-        <f>RANK(G75,$G$68:$G$79)</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="B75" s="58" t="s">
@@ -9749,11 +9839,11 @@
         <v>160</v>
       </c>
       <c r="F75" s="43">
-        <f>SUM(C75:E75)</f>
+        <f t="shared" si="13"/>
         <v>449</v>
       </c>
       <c r="G75" s="87">
-        <f>F75/COUNTA(C75:E75)</f>
+        <f t="shared" si="14"/>
         <v>149.66666666666666</v>
       </c>
       <c r="H75" s="58" t="s">
@@ -9761,15 +9851,15 @@
       </c>
       <c r="I75" s="70">
         <f>VLOOKUP(B75,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J75" s="70">
         <f>VLOOKUP(B75,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>2357</v>
+        <v>2939</v>
       </c>
       <c r="K75" s="83">
         <f>VLOOKUP(B75,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>168.35714285714286</v>
+        <v>172.88235294117646</v>
       </c>
       <c r="L75" s="84">
         <f>RANK(K75,'총에버 관리_2023'!$V$3:$V$21)</f>
@@ -9778,7 +9868,7 @@
     </row>
     <row r="76" spans="1:12" ht="18.75">
       <c r="A76" s="77">
-        <f>RANK(G76,$G$68:$G$79)</f>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="B76" s="65" t="s">
@@ -9794,11 +9884,11 @@
         <v>156</v>
       </c>
       <c r="F76" s="43">
-        <f>SUM(C76:E76)</f>
+        <f t="shared" si="13"/>
         <v>434</v>
       </c>
       <c r="G76" s="87">
-        <f>F76/COUNTA(C76:E76)</f>
+        <f t="shared" si="14"/>
         <v>144.66666666666666</v>
       </c>
       <c r="H76" s="65" t="s">
@@ -9806,24 +9896,24 @@
       </c>
       <c r="I76" s="70">
         <f>VLOOKUP(B76,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J76" s="70">
         <f>VLOOKUP(B76,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>1821</v>
+        <v>2206</v>
       </c>
       <c r="K76" s="83">
         <f>VLOOKUP(B76,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>151.75</v>
+        <v>147.06666666666666</v>
       </c>
       <c r="L76" s="84">
         <f>RANK(K76,'총에버 관리_2023'!$V$3:$V$21)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="18.75">
       <c r="A77" s="77">
-        <f>RANK(G77,$G$68:$G$79)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="B77" s="61" t="s">
@@ -9839,11 +9929,11 @@
         <v>173</v>
       </c>
       <c r="F77" s="43">
-        <f>SUM(C77:E77)</f>
+        <f t="shared" si="13"/>
         <v>422</v>
       </c>
       <c r="G77" s="87">
-        <f>F77/COUNTA(C77:E77)</f>
+        <f t="shared" si="14"/>
         <v>140.66666666666666</v>
       </c>
       <c r="H77" s="61" t="s">
@@ -9851,15 +9941,15 @@
       </c>
       <c r="I77" s="70">
         <f>VLOOKUP(B77,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J77" s="70">
         <f>VLOOKUP(B77,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>1427</v>
+        <v>1876</v>
       </c>
       <c r="K77" s="83">
         <f>VLOOKUP(B77,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>158.55555555555554</v>
+        <v>156.33333333333334</v>
       </c>
       <c r="L77" s="84">
         <f>RANK(K77,'총에버 관리_2023'!$V$3:$V$21)</f>
@@ -9868,7 +9958,7 @@
     </row>
     <row r="78" spans="1:12" ht="18.75">
       <c r="A78" s="77">
-        <f>RANK(G78,$G$68:$G$79)</f>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="B78" s="65" t="s">
@@ -9884,11 +9974,11 @@
         <v>145</v>
       </c>
       <c r="F78" s="43">
-        <f>SUM(C78:E78)</f>
+        <f t="shared" si="13"/>
         <v>399</v>
       </c>
       <c r="G78" s="87">
-        <f>F78/COUNTA(C78:E78)</f>
+        <f t="shared" si="14"/>
         <v>133</v>
       </c>
       <c r="H78" s="65" t="s">
@@ -9913,7 +10003,7 @@
     </row>
     <row r="79" spans="1:12" ht="18.75">
       <c r="A79" s="77">
-        <f>RANK(G79,$G$68:$G$79)</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="B79" s="65" t="s">
@@ -9929,11 +10019,11 @@
         <v>165</v>
       </c>
       <c r="F79" s="43">
-        <f>SUM(C79:E79)</f>
+        <f t="shared" si="13"/>
         <v>378</v>
       </c>
       <c r="G79" s="87">
-        <f>F79/COUNTA(C79:E79)</f>
+        <f t="shared" si="14"/>
         <v>126</v>
       </c>
       <c r="H79" s="65" t="s">
@@ -9941,26 +10031,609 @@
       </c>
       <c r="I79" s="70">
         <f>VLOOKUP(B79,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J79" s="70">
         <f>VLOOKUP(B79,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>378</v>
+        <v>821</v>
       </c>
       <c r="K79" s="83">
         <f>VLOOKUP(B79,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>126</v>
+        <v>136.83333333333334</v>
       </c>
       <c r="L79" s="84">
         <f>RANK(K79,'총에버 관리_2023'!$V$3:$V$21)</f>
         <v>16</v>
       </c>
     </row>
+    <row r="82" spans="1:12" ht="34.5" customHeight="1">
+      <c r="A82" s="183" t="s">
+        <v>287</v>
+      </c>
+      <c r="B82" s="184"/>
+      <c r="C82" s="184"/>
+      <c r="D82" s="184"/>
+      <c r="E82" s="184"/>
+      <c r="F82" s="184"/>
+      <c r="G82" s="184"/>
+      <c r="H82" s="184"/>
+      <c r="I82" s="184"/>
+      <c r="J82" s="184"/>
+      <c r="K82" s="184"/>
+      <c r="L82" s="184"/>
+    </row>
+    <row r="83" spans="1:12" ht="38.25" thickBot="1">
+      <c r="A83" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="B83" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C83" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D83" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="E83" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="G83" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I83" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="J83" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="K83" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="L83" s="76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="20.25" thickTop="1" thickBot="1">
+      <c r="A84" s="77">
+        <f>RANK(G84,$G$84:$G$95)</f>
+        <v>1</v>
+      </c>
+      <c r="B84" s="64" t="s">
+        <v>294</v>
+      </c>
+      <c r="C84" s="94">
+        <v>224</v>
+      </c>
+      <c r="D84" s="68">
+        <v>254</v>
+      </c>
+      <c r="E84" s="69">
+        <v>194</v>
+      </c>
+      <c r="F84" s="86">
+        <f>SUM(C84:E84)</f>
+        <v>672</v>
+      </c>
+      <c r="G84" s="87">
+        <f>F84/COUNTA(C84:E84)</f>
+        <v>224</v>
+      </c>
+      <c r="H84" s="64" t="s">
+        <v>294</v>
+      </c>
+      <c r="I84" s="70">
+        <f>VLOOKUP(B84,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="J84" s="70">
+        <f>VLOOKUP(B84,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
+        <v>3666</v>
+      </c>
+      <c r="K84" s="83">
+        <f>VLOOKUP(B84,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
+        <v>203.66666666666666</v>
+      </c>
+      <c r="L84" s="84">
+        <f>RANK(K84,'총에버 관리_2023'!$V$3:$V$21)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="20.25" thickTop="1" thickBot="1">
+      <c r="A85" s="77">
+        <f>RANK(G85,$G$84:$G$95)</f>
+        <v>2</v>
+      </c>
+      <c r="B85" s="61" t="s">
+        <v>288</v>
+      </c>
+      <c r="C85" s="58">
+        <v>226</v>
+      </c>
+      <c r="D85" s="196">
+        <v>266</v>
+      </c>
+      <c r="E85" s="58">
+        <v>173</v>
+      </c>
+      <c r="F85" s="63">
+        <f>SUM(C85:E85)</f>
+        <v>665</v>
+      </c>
+      <c r="G85" s="87">
+        <f>F85/COUNTA(C85:E85)</f>
+        <v>221.66666666666666</v>
+      </c>
+      <c r="H85" s="61" t="s">
+        <v>288</v>
+      </c>
+      <c r="I85" s="70">
+        <f>VLOOKUP(B85,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="J85" s="70">
+        <f>VLOOKUP(B85,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
+        <v>1782</v>
+      </c>
+      <c r="K85" s="83">
+        <f>VLOOKUP(B85,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
+        <v>198</v>
+      </c>
+      <c r="L85" s="84">
+        <f>RANK(K85,'총에버 관리_2023'!$V$3:$V$21)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="20.25" thickTop="1" thickBot="1">
+      <c r="A86" s="77">
+        <f>RANK(G86,$G$84:$G$95)</f>
+        <v>3</v>
+      </c>
+      <c r="B86" s="61" t="s">
+        <v>296</v>
+      </c>
+      <c r="C86" s="67">
+        <v>181</v>
+      </c>
+      <c r="D86" s="68">
+        <v>240</v>
+      </c>
+      <c r="E86" s="69">
+        <v>225</v>
+      </c>
+      <c r="F86" s="69">
+        <f>SUM(C86:E86)</f>
+        <v>646</v>
+      </c>
+      <c r="G86" s="87">
+        <f>F86/COUNTA(C86:E86)</f>
+        <v>215.33333333333334</v>
+      </c>
+      <c r="H86" s="61" t="s">
+        <v>296</v>
+      </c>
+      <c r="I86" s="70">
+        <f>VLOOKUP(B86,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="J86" s="70">
+        <f>VLOOKUP(B86,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
+        <v>3344</v>
+      </c>
+      <c r="K86" s="83">
+        <f>VLOOKUP(B86,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
+        <v>185.77777777777777</v>
+      </c>
+      <c r="L86" s="84">
+        <f>RANK(K86,'총에버 관리_2023'!$V$3:$V$21)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="19.5" thickTop="1">
+      <c r="A87" s="77">
+        <f>RANK(G87,$G$84:$G$95)</f>
+        <v>4</v>
+      </c>
+      <c r="B87" s="72" t="s">
+        <v>289</v>
+      </c>
+      <c r="C87" s="43">
+        <v>202</v>
+      </c>
+      <c r="D87" s="70">
+        <v>203</v>
+      </c>
+      <c r="E87" s="43">
+        <v>226</v>
+      </c>
+      <c r="F87" s="69">
+        <f>SUM(C87:E87)</f>
+        <v>631</v>
+      </c>
+      <c r="G87" s="87">
+        <f>F87/COUNTA(C87:E87)</f>
+        <v>210.33333333333334</v>
+      </c>
+      <c r="H87" s="72" t="s">
+        <v>289</v>
+      </c>
+      <c r="I87" s="70">
+        <f>VLOOKUP(B87,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="J87" s="70">
+        <f>VLOOKUP(B87,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
+        <v>2769</v>
+      </c>
+      <c r="K87" s="83">
+        <f>VLOOKUP(B87,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
+        <v>184.6</v>
+      </c>
+      <c r="L87" s="84">
+        <f>RANK(K87,'총에버 관리_2023'!$V$3:$V$21)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="18.75">
+      <c r="A88" s="77">
+        <f>RANK(G88,$G$84:$G$95)</f>
+        <v>5</v>
+      </c>
+      <c r="B88" s="61" t="s">
+        <v>299</v>
+      </c>
+      <c r="C88" s="43">
+        <v>224</v>
+      </c>
+      <c r="D88" s="58">
+        <v>170</v>
+      </c>
+      <c r="E88" s="58">
+        <v>211</v>
+      </c>
+      <c r="F88" s="63">
+        <f>SUM(C88:E88)</f>
+        <v>605</v>
+      </c>
+      <c r="G88" s="87">
+        <f>F88/COUNTA(C88:E88)</f>
+        <v>201.66666666666666</v>
+      </c>
+      <c r="H88" s="61" t="s">
+        <v>299</v>
+      </c>
+      <c r="I88" s="70"/>
+      <c r="J88" s="70"/>
+      <c r="K88" s="83"/>
+      <c r="L88" s="84"/>
+    </row>
+    <row r="89" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A89" s="77">
+        <f>RANK(G89,$G$84:$G$95)</f>
+        <v>6</v>
+      </c>
+      <c r="B89" s="72" t="s">
+        <v>290</v>
+      </c>
+      <c r="C89" s="71">
+        <v>188</v>
+      </c>
+      <c r="D89" s="58">
+        <v>181</v>
+      </c>
+      <c r="E89" s="43">
+        <v>213</v>
+      </c>
+      <c r="F89" s="69">
+        <f>SUM(C89:E89)</f>
+        <v>582</v>
+      </c>
+      <c r="G89" s="87">
+        <f>F89/COUNTA(C89:E89)</f>
+        <v>194</v>
+      </c>
+      <c r="H89" s="72" t="s">
+        <v>290</v>
+      </c>
+      <c r="I89" s="70">
+        <f>VLOOKUP(B89,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="J89" s="70">
+        <f>VLOOKUP(B89,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
+        <v>2939</v>
+      </c>
+      <c r="K89" s="83">
+        <f>VLOOKUP(B89,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
+        <v>172.88235294117646</v>
+      </c>
+      <c r="L89" s="84">
+        <f>RANK(K89,'총에버 관리_2023'!$V$3:$V$21)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="20.25" thickTop="1" thickBot="1">
+      <c r="A90" s="77">
+        <f>RANK(G90,$G$84:$G$95)</f>
+        <v>7</v>
+      </c>
+      <c r="B90" s="61" t="s">
+        <v>291</v>
+      </c>
+      <c r="C90" s="62">
+        <v>226</v>
+      </c>
+      <c r="D90" s="63">
+        <v>182</v>
+      </c>
+      <c r="E90" s="58">
+        <v>173</v>
+      </c>
+      <c r="F90" s="58">
+        <f>SUM(C90:E90)</f>
+        <v>581</v>
+      </c>
+      <c r="G90" s="87">
+        <f>F90/COUNTA(C90:E90)</f>
+        <v>193.66666666666666</v>
+      </c>
+      <c r="H90" s="61" t="s">
+        <v>291</v>
+      </c>
+      <c r="I90" s="70">
+        <f>VLOOKUP(B90,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="J90" s="70">
+        <f>VLOOKUP(B90,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
+        <v>3446</v>
+      </c>
+      <c r="K90" s="83">
+        <f>VLOOKUP(B90,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
+        <v>191.44444444444446</v>
+      </c>
+      <c r="L90" s="84">
+        <f>RANK(K90,'총에버 관리_2023'!$V$3:$V$21)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="19.5" thickTop="1">
+      <c r="A91" s="77">
+        <f>RANK(G91,$G$84:$G$95)</f>
+        <v>8</v>
+      </c>
+      <c r="B91" s="65" t="s">
+        <v>293</v>
+      </c>
+      <c r="C91" s="70">
+        <v>170</v>
+      </c>
+      <c r="D91" s="43">
+        <v>165</v>
+      </c>
+      <c r="E91" s="43">
+        <v>208</v>
+      </c>
+      <c r="F91" s="43">
+        <f>SUM(C91:E91)</f>
+        <v>543</v>
+      </c>
+      <c r="G91" s="87">
+        <f>F91/COUNTA(C91:E91)</f>
+        <v>181</v>
+      </c>
+      <c r="H91" s="65" t="s">
+        <v>293</v>
+      </c>
+      <c r="I91" s="70">
+        <f>VLOOKUP(B91,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="J91" s="70">
+        <f>VLOOKUP(B91,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
+        <v>2702</v>
+      </c>
+      <c r="K91" s="83">
+        <f>VLOOKUP(B91,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
+        <v>180.13333333333333</v>
+      </c>
+      <c r="L91" s="84">
+        <f>RANK(K91,'총에버 관리_2023'!$V$3:$V$21)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="18.75">
+      <c r="A92" s="77">
+        <f>RANK(G92,$G$84:$G$95)</f>
+        <v>9</v>
+      </c>
+      <c r="B92" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="C92" s="43">
+        <v>155</v>
+      </c>
+      <c r="D92" s="58">
+        <v>203</v>
+      </c>
+      <c r="E92" s="43">
+        <v>183</v>
+      </c>
+      <c r="F92" s="43">
+        <f>SUM(C92:E92)</f>
+        <v>541</v>
+      </c>
+      <c r="G92" s="87">
+        <f>F92/COUNTA(C92:E92)</f>
+        <v>180.33333333333334</v>
+      </c>
+      <c r="H92" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="I92" s="70">
+        <f>VLOOKUP(B92,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="J92" s="70">
+        <f>VLOOKUP(B92,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
+        <v>2710</v>
+      </c>
+      <c r="K92" s="83">
+        <f>VLOOKUP(B92,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
+        <v>180.66666666666666</v>
+      </c>
+      <c r="L92" s="84">
+        <f>RANK(K92,'총에버 관리_2023'!$V$3:$V$21)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="18.75">
+      <c r="A93" s="77">
+        <f>RANK(G93,$G$84:$G$95)</f>
+        <v>10</v>
+      </c>
+      <c r="B93" s="72" t="s">
+        <v>298</v>
+      </c>
+      <c r="C93" s="43">
+        <v>149</v>
+      </c>
+      <c r="D93" s="43">
+        <v>167</v>
+      </c>
+      <c r="E93" s="43">
+        <v>133</v>
+      </c>
+      <c r="F93" s="43">
+        <f>SUM(C93:E93)</f>
+        <v>449</v>
+      </c>
+      <c r="G93" s="87">
+        <f>F93/COUNTA(C93:E93)</f>
+        <v>149.66666666666666</v>
+      </c>
+      <c r="H93" s="72" t="s">
+        <v>298</v>
+      </c>
+      <c r="I93" s="70">
+        <f>VLOOKUP(B93,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="J93" s="70">
+        <f>VLOOKUP(B93,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
+        <v>1876</v>
+      </c>
+      <c r="K93" s="83">
+        <f>VLOOKUP(B93,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
+        <v>156.33333333333334</v>
+      </c>
+      <c r="L93" s="84">
+        <f>RANK(K93,'총에버 관리_2023'!$V$3:$V$21)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="18.75">
+      <c r="A94" s="77">
+        <f>RANK(G94,$G$84:$G$95)</f>
+        <v>11</v>
+      </c>
+      <c r="B94" s="58" t="s">
+        <v>292</v>
+      </c>
+      <c r="C94" s="43">
+        <v>132</v>
+      </c>
+      <c r="D94" s="43">
+        <v>142</v>
+      </c>
+      <c r="E94" s="43">
+        <v>169</v>
+      </c>
+      <c r="F94" s="43">
+        <f>SUM(C94:E94)</f>
+        <v>443</v>
+      </c>
+      <c r="G94" s="87">
+        <f>F94/COUNTA(C94:E94)</f>
+        <v>147.66666666666666</v>
+      </c>
+      <c r="H94" s="58" t="s">
+        <v>292</v>
+      </c>
+      <c r="I94" s="70">
+        <f>VLOOKUP(B94,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="J94" s="70">
+        <f>VLOOKUP(B94,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
+        <v>821</v>
+      </c>
+      <c r="K94" s="83">
+        <f>VLOOKUP(B94,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
+        <v>136.83333333333334</v>
+      </c>
+      <c r="L94" s="84">
+        <f>RANK(K94,'총에버 관리_2023'!$V$3:$V$21)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="18.75">
+      <c r="A95" s="77">
+        <f>RANK(G95,$G$84:$G$95)</f>
+        <v>12</v>
+      </c>
+      <c r="B95" s="65" t="s">
+        <v>295</v>
+      </c>
+      <c r="C95" s="43">
+        <v>140</v>
+      </c>
+      <c r="D95" s="43">
+        <v>118</v>
+      </c>
+      <c r="E95" s="43">
+        <v>127</v>
+      </c>
+      <c r="F95" s="43">
+        <f>SUM(C95:E95)</f>
+        <v>385</v>
+      </c>
+      <c r="G95" s="87">
+        <f>F95/COUNTA(C95:E95)</f>
+        <v>128.33333333333334</v>
+      </c>
+      <c r="H95" s="65" t="s">
+        <v>295</v>
+      </c>
+      <c r="I95" s="70">
+        <f>VLOOKUP(B95,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="J95" s="70">
+        <f>VLOOKUP(B95,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
+        <v>2206</v>
+      </c>
+      <c r="K95" s="83">
+        <f>VLOOKUP(B95,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
+        <v>147.06666666666666</v>
+      </c>
+      <c r="L95" s="84">
+        <f>RANK(K95,'총에버 관리_2023'!$V$3:$V$21)</f>
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A68:L79">
-    <sortCondition ref="A67"/>
+  <sortState ref="A84:L95">
+    <sortCondition ref="A83"/>
   </sortState>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A82:L82"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A19:L19"/>
     <mergeCell ref="A34:L34"/>
@@ -9969,122 +10642,162 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C4:E15 C21:E31 C36:E45">
-    <cfRule type="cellIs" dxfId="82" priority="269" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="87" priority="277" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F15 F21:F31 F36:F45">
-    <cfRule type="cellIs" dxfId="81" priority="268" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="86" priority="276" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G15 G21:G31 G36:G45">
-    <cfRule type="cellIs" dxfId="80" priority="267" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="85" priority="275" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K15 K21:K31 K36:K45">
-    <cfRule type="cellIs" dxfId="79" priority="266" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="274" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:E59">
-    <cfRule type="cellIs" dxfId="78" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="83" priority="28" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50:F59">
-    <cfRule type="cellIs" dxfId="77" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="27" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:G59">
-    <cfRule type="cellIs" dxfId="76" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="81" priority="26" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K50:K59">
-    <cfRule type="cellIs" dxfId="75" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="25" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:E62">
-    <cfRule type="cellIs" dxfId="74" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="79" priority="24" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60:F62">
-    <cfRule type="cellIs" dxfId="73" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="23" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G60:G62">
-    <cfRule type="cellIs" dxfId="72" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="77" priority="22" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K60:K62">
-    <cfRule type="cellIs" dxfId="71" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="21" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63:E63">
-    <cfRule type="cellIs" dxfId="70" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="20" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63">
-    <cfRule type="cellIs" dxfId="69" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="19" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G63">
-    <cfRule type="cellIs" dxfId="68" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="73" priority="18" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K63">
-    <cfRule type="cellIs" dxfId="67" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="17" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:E77">
-    <cfRule type="cellIs" dxfId="27" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="16" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68:F77">
-    <cfRule type="cellIs" dxfId="25" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="15" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G68:G77">
-    <cfRule type="cellIs" dxfId="23" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="14" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K68:K79">
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="13" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C78:E79">
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="12" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78:F79">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="11" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78:G79">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="10" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K78:K79">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="9" operator="greaterThan">
+      <formula>199.99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84:E93">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThan">
+      <formula>199</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F84:F93">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="greaterThan">
+      <formula>599</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G84:G93">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="greaterThan">
+      <formula>199.999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K84:K95">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="greaterThan">
+      <formula>199.99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C94:E95">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="greaterThan">
+      <formula>199</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F94:F95">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="greaterThan">
+      <formula>599</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G94:G95">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
+      <formula>199.999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K94:K95">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14282,82 +14995,82 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C3:E13 C19:E32 C36:E46 C50:E59 C64:E74 C80:E91 C97:E105">
-    <cfRule type="cellIs" dxfId="66" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="16" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F13 F19:F32 F36:F46 F50:F59 F64:F74 F80:F91 F97:F105">
-    <cfRule type="cellIs" dxfId="65" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="15" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G13 G19:G32 G36:G46 G50:G59 G64:G74 G80:G91 G97:G105">
-    <cfRule type="cellIs" dxfId="64" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="14" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K13 K19:K32 K36:K46 K50:K59 K64:K74 K80:K91 K97:K105">
-    <cfRule type="cellIs" dxfId="63" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="13" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C110:E118">
-    <cfRule type="cellIs" dxfId="62" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="12" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F110:F118">
-    <cfRule type="cellIs" dxfId="61" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="11" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G110:G118">
-    <cfRule type="cellIs" dxfId="60" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="10" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K110:K118">
-    <cfRule type="cellIs" dxfId="59" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="9" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C119:E119">
-    <cfRule type="cellIs" dxfId="58" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="8" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119">
-    <cfRule type="cellIs" dxfId="57" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="7" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G119">
-    <cfRule type="cellIs" dxfId="56" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="6" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K119">
-    <cfRule type="cellIs" dxfId="55" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="5" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C120:E120">
-    <cfRule type="cellIs" dxfId="54" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="4" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120">
-    <cfRule type="cellIs" dxfId="53" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="3" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G120">
-    <cfRule type="cellIs" dxfId="52" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="2" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K120">
-    <cfRule type="cellIs" dxfId="51" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="1" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14372,7 +15085,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T21" sqref="T21:V21"/>
+      <selection pane="topRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -14476,7 +15189,10 @@
         <f>IFERROR(VLOOKUP(A3,정기전_2023!$B$68:$F$79,5,FALSE),"")</f>
         <v>422</v>
       </c>
-      <c r="G3" s="91"/>
+      <c r="G3" s="91">
+        <f>IFERROR(VLOOKUP(A3,정기전_2023!$B$84:$F$95,5,FALSE),"")</f>
+        <v>449</v>
+      </c>
       <c r="H3" s="91"/>
       <c r="I3" s="91"/>
       <c r="J3" s="91"/>
@@ -14491,15 +15207,15 @@
       <c r="S3" s="91"/>
       <c r="T3" s="92">
         <f t="shared" ref="T3:T19" si="0">SUM(B3:S3)</f>
-        <v>1427</v>
+        <v>1876</v>
       </c>
       <c r="U3" s="92">
         <f t="shared" ref="U3:U19" si="1">COUNT(B3:S3)*3</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V3" s="93">
         <f t="shared" ref="V3:V14" si="2">IF(U3=0, "",  T3/U3)</f>
-        <v>158.55555555555554</v>
+        <v>156.33333333333334</v>
       </c>
       <c r="X3" s="90"/>
       <c r="Y3" s="90"/>
@@ -14529,7 +15245,10 @@
         <f>IFERROR(VLOOKUP(A4,정기전_2023!$B$68:$F$79,5,FALSE),"")</f>
         <v>510</v>
       </c>
-      <c r="G4" s="91"/>
+      <c r="G4" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A4,정기전_2023!$B$84:$F$95,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="H4" s="91"/>
       <c r="I4" s="91"/>
       <c r="J4" s="91"/>
@@ -14582,7 +15301,10 @@
         <f>IFERROR(VLOOKUP(A5,정기전_2023!$B$68:$F$79,5,FALSE),"")</f>
         <v>450</v>
       </c>
-      <c r="G5" s="91"/>
+      <c r="G5" s="91">
+        <f>IFERROR(VLOOKUP(A5,정기전_2023!$B$84:$F$95,5,FALSE),"")</f>
+        <v>543</v>
+      </c>
       <c r="H5" s="91"/>
       <c r="I5" s="91"/>
       <c r="J5" s="91"/>
@@ -14597,15 +15319,15 @@
       <c r="S5" s="91"/>
       <c r="T5" s="92">
         <f t="shared" si="0"/>
-        <v>2159</v>
+        <v>2702</v>
       </c>
       <c r="U5" s="92">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="V5" s="93">
         <f t="shared" si="2"/>
-        <v>179.91666666666666</v>
+        <v>180.13333333333333</v>
       </c>
       <c r="X5" s="90"/>
       <c r="Y5" s="90"/>
@@ -14635,7 +15357,10 @@
         <f>IFERROR(VLOOKUP(A6,정기전_2023!$B$68:$F$79,5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G6" s="91"/>
+      <c r="G6" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A6,정기전_2023!$B$84:$F$95,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="H6" s="91"/>
       <c r="I6" s="91"/>
       <c r="J6" s="91"/>
@@ -14688,7 +15413,10 @@
         <f>IFERROR(VLOOKUP(A7,정기전_2023!$B$68:$F$79,5,FALSE),"")</f>
         <v>509</v>
       </c>
-      <c r="G7" s="91"/>
+      <c r="G7" s="91">
+        <f>IFERROR(VLOOKUP(A7,정기전_2023!$B$84:$F$95,5,FALSE),"")</f>
+        <v>631</v>
+      </c>
       <c r="H7" s="91"/>
       <c r="I7" s="91"/>
       <c r="J7" s="91"/>
@@ -14703,15 +15431,15 @@
       <c r="S7" s="91"/>
       <c r="T7" s="92">
         <f t="shared" si="0"/>
-        <v>2138</v>
+        <v>2769</v>
       </c>
       <c r="U7" s="92">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="V7" s="93">
         <f t="shared" si="2"/>
-        <v>178.16666666666666</v>
+        <v>184.6</v>
       </c>
       <c r="X7" s="90"/>
       <c r="Y7" s="90"/>
@@ -14741,7 +15469,10 @@
         <f>IFERROR(VLOOKUP(A8,정기전_2023!$B$68:$F$79,5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G8" s="91"/>
+      <c r="G8" s="91">
+        <f>IFERROR(VLOOKUP(A8,정기전_2023!$B$84:$F$95,5,FALSE),"")</f>
+        <v>665</v>
+      </c>
       <c r="H8" s="91"/>
       <c r="I8" s="91"/>
       <c r="J8" s="91"/>
@@ -14756,15 +15487,15 @@
       <c r="S8" s="91"/>
       <c r="T8" s="92">
         <f t="shared" si="0"/>
-        <v>1117</v>
+        <v>1782</v>
       </c>
       <c r="U8" s="92">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V8" s="93">
         <f t="shared" si="2"/>
-        <v>186.16666666666666</v>
+        <v>198</v>
       </c>
       <c r="X8" s="90"/>
       <c r="Y8" s="90"/>
@@ -14794,7 +15525,10 @@
         <f>IFERROR(VLOOKUP(A9,정기전_2023!$B$68:$F$79,5,FALSE),"")</f>
         <v>449</v>
       </c>
-      <c r="G9" s="91"/>
+      <c r="G9" s="91">
+        <f>IFERROR(VLOOKUP(A9,정기전_2023!$B$84:$F$95,5,FALSE),"")</f>
+        <v>582</v>
+      </c>
       <c r="H9" s="91"/>
       <c r="I9" s="91"/>
       <c r="J9" s="91"/>
@@ -14809,15 +15543,15 @@
       <c r="S9" s="91"/>
       <c r="T9" s="92">
         <f t="shared" si="0"/>
-        <v>2357</v>
+        <v>2939</v>
       </c>
       <c r="U9" s="92">
         <f>COUNT(B9:S9)*3-1</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="V9" s="93">
         <f t="shared" si="2"/>
-        <v>168.35714285714286</v>
+        <v>172.88235294117646</v>
       </c>
       <c r="X9" s="90"/>
       <c r="Y9" s="90"/>
@@ -14847,7 +15581,10 @@
         <f>IFERROR(VLOOKUP(A10,정기전_2023!$B$68:$F$79,5,FALSE),"")</f>
         <v>551</v>
       </c>
-      <c r="G10" s="91"/>
+      <c r="G10" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A10,정기전_2023!$B$84:$F$95,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="H10" s="91"/>
       <c r="I10" s="91"/>
       <c r="J10" s="91"/>
@@ -14900,7 +15637,10 @@
         <f>IFERROR(VLOOKUP(A11,정기전_2023!$B$68:$F$79,5,FALSE),"")</f>
         <v>434</v>
       </c>
-      <c r="G11" s="91"/>
+      <c r="G11" s="91">
+        <f>IFERROR(VLOOKUP(A11,정기전_2023!$B$84:$F$95,5,FALSE),"")</f>
+        <v>385</v>
+      </c>
       <c r="H11" s="91"/>
       <c r="I11" s="91"/>
       <c r="J11" s="91"/>
@@ -14915,15 +15655,15 @@
       <c r="S11" s="91"/>
       <c r="T11" s="92">
         <f t="shared" si="0"/>
-        <v>1821</v>
+        <v>2206</v>
       </c>
       <c r="U11" s="92">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="V11" s="93">
         <f t="shared" si="2"/>
-        <v>151.75</v>
+        <v>147.06666666666666</v>
       </c>
       <c r="X11" s="90"/>
       <c r="Y11" s="90"/>
@@ -14953,7 +15693,10 @@
         <f>IFERROR(VLOOKUP(A12,정기전_2023!$B$68:$F$79,5,FALSE),"")</f>
         <v>573</v>
       </c>
-      <c r="G12" s="91"/>
+      <c r="G12" s="91">
+        <f>IFERROR(VLOOKUP(A12,정기전_2023!$B$84:$F$95,5,FALSE),"")</f>
+        <v>672</v>
+      </c>
       <c r="H12" s="91"/>
       <c r="I12" s="91"/>
       <c r="J12" s="91"/>
@@ -14968,15 +15711,15 @@
       <c r="S12" s="91"/>
       <c r="T12" s="92">
         <f t="shared" si="0"/>
-        <v>2994</v>
+        <v>3666</v>
       </c>
       <c r="U12" s="92">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="V12" s="93">
         <f t="shared" si="2"/>
-        <v>199.6</v>
+        <v>203.66666666666666</v>
       </c>
       <c r="X12" s="90"/>
       <c r="Y12" s="90"/>
@@ -15006,7 +15749,10 @@
         <f>IFERROR(VLOOKUP(A13,정기전_2023!$B$68:$F$79,5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G13" s="91"/>
+      <c r="G13" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A13,정기전_2023!$B$84:$F$95,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="H13" s="91"/>
       <c r="I13" s="91"/>
       <c r="J13" s="91"/>
@@ -15059,7 +15805,10 @@
         <f>IFERROR(VLOOKUP(A14,정기전_2023!$B$68:$F$79,5,FALSE),"")</f>
         <v>463</v>
       </c>
-      <c r="G14" s="91"/>
+      <c r="G14" s="91">
+        <f>IFERROR(VLOOKUP(A14,정기전_2023!$B$84:$F$95,5,FALSE),"")</f>
+        <v>646</v>
+      </c>
       <c r="H14" s="91"/>
       <c r="I14" s="91"/>
       <c r="J14" s="91"/>
@@ -15074,15 +15823,15 @@
       <c r="S14" s="91"/>
       <c r="T14" s="92">
         <f t="shared" si="0"/>
-        <v>2698</v>
+        <v>3344</v>
       </c>
       <c r="U14" s="92">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="V14" s="93">
         <f t="shared" si="2"/>
-        <v>179.86666666666667</v>
+        <v>185.77777777777777</v>
       </c>
       <c r="X14" s="90"/>
       <c r="Y14" s="90"/>
@@ -15112,7 +15861,10 @@
         <f>IFERROR(VLOOKUP(A15,정기전_2023!$B$68:$F$79,5,FALSE),"")</f>
         <v>516</v>
       </c>
-      <c r="G15" s="91"/>
+      <c r="G15" s="91">
+        <f>IFERROR(VLOOKUP(A15,정기전_2023!$B$84:$F$95,5,FALSE),"")</f>
+        <v>581</v>
+      </c>
       <c r="H15" s="91"/>
       <c r="I15" s="91"/>
       <c r="J15" s="91"/>
@@ -15127,15 +15879,15 @@
       <c r="S15" s="91"/>
       <c r="T15" s="92">
         <f t="shared" si="0"/>
-        <v>2865</v>
+        <v>3446</v>
       </c>
       <c r="U15" s="92">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="V15" s="93">
         <f t="shared" ref="V15:V16" si="3">IF(U15=0, "",  T15/U15)</f>
-        <v>191</v>
+        <v>191.44444444444446</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -15162,7 +15914,10 @@
         <f>IFERROR(VLOOKUP(A16,정기전_2023!$B$68:$F$79,5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G16" s="91"/>
+      <c r="G16" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A16,정기전_2023!$B$84:$F$95,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="H16" s="91"/>
       <c r="I16" s="91"/>
       <c r="J16" s="91"/>
@@ -15212,7 +15967,10 @@
         <f>IFERROR(VLOOKUP(A17,정기전_2023!$B$68:$F$79,5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G17" s="91"/>
+      <c r="G17" s="91">
+        <f>IFERROR(VLOOKUP(A17,정기전_2023!$B$84:$F$95,5,FALSE),"")</f>
+        <v>541</v>
+      </c>
       <c r="H17" s="91"/>
       <c r="I17" s="91"/>
       <c r="J17" s="91"/>
@@ -15227,15 +15985,15 @@
       <c r="S17" s="91"/>
       <c r="T17" s="92">
         <f t="shared" si="0"/>
-        <v>2169</v>
+        <v>2710</v>
       </c>
       <c r="U17" s="92">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="V17" s="93">
         <f t="shared" ref="V17:V18" si="4">IF(U17=0, "",  T17/U17)</f>
-        <v>180.75</v>
+        <v>180.66666666666666</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -15262,7 +16020,10 @@
         <f>IFERROR(VLOOKUP(A18,정기전_2023!$B$68:$F$79,5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G18" s="91"/>
+      <c r="G18" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A18,정기전_2023!$B$84:$F$95,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="H18" s="91"/>
       <c r="I18" s="91"/>
       <c r="J18" s="91"/>
@@ -15312,7 +16073,10 @@
         <f>IFERROR(VLOOKUP(A19,정기전_2023!$B$68:$F$79,5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G19" s="91"/>
+      <c r="G19" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A19,정기전_2023!$B$84:$F$95,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="H19" s="91"/>
       <c r="I19" s="91"/>
       <c r="J19" s="91"/>
@@ -15362,7 +16126,10 @@
         <f>IFERROR(VLOOKUP(A20,정기전_2023!$B$68:$F$79,5,FALSE),"")</f>
         <v>399</v>
       </c>
-      <c r="G20" s="91"/>
+      <c r="G20" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A20,정기전_2023!$B$84:$F$95,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="H20" s="91"/>
       <c r="I20" s="91"/>
       <c r="J20" s="91"/>
@@ -15400,7 +16167,10 @@
         <f>IFERROR(VLOOKUP(A21,정기전_2023!$B$68:$F$79,5,FALSE),"")</f>
         <v>378</v>
       </c>
-      <c r="G21" s="91"/>
+      <c r="G21" s="91">
+        <f>IFERROR(VLOOKUP(A21,정기전_2023!$B$84:$F$95,5,FALSE),"")</f>
+        <v>443</v>
+      </c>
       <c r="H21" s="91"/>
       <c r="I21" s="91"/>
       <c r="J21" s="91"/>
@@ -15415,36 +16185,40 @@
       <c r="S21" s="91"/>
       <c r="T21" s="92">
         <f t="shared" ref="T21" si="9">SUM(B21:S21)</f>
-        <v>378</v>
+        <v>821</v>
       </c>
       <c r="U21" s="92">
         <f t="shared" ref="U21" si="10">COUNT(B21:S21)*3</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V21" s="93">
         <f t="shared" ref="V21" si="11">IF(U21=0, "",  T21/U21)</f>
-        <v>126</v>
+        <v>136.83333333333334</v>
       </c>
     </row>
     <row r="22" spans="1:22">
       <c r="B22" s="90">
-        <f>COUNT(B3:B20)</f>
+        <f>COUNT(B3:B21)</f>
         <v>12</v>
       </c>
       <c r="C22" s="90">
-        <f>COUNT(C3:C20)</f>
+        <f>COUNT(C3:C21)</f>
         <v>10</v>
       </c>
       <c r="D22" s="90">
-        <f>COUNT(D3:D20)</f>
+        <f>COUNT(D3:D21)</f>
         <v>10</v>
       </c>
       <c r="E22" s="90">
-        <f>COUNT(E3:E20)</f>
+        <f>COUNT(E3:E21)</f>
         <v>14</v>
       </c>
       <c r="F22" s="90">
-        <f>COUNT(F3:F20)</f>
+        <f>COUNT(F3:F21)</f>
+        <v>12</v>
+      </c>
+      <c r="G22" s="90">
+        <f>COUNT(G3:G21)</f>
         <v>11</v>
       </c>
       <c r="H22" s="90">
@@ -15502,15 +16276,15 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:S21">
-    <cfRule type="cellIs" dxfId="10" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="18" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:V21">
-    <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="16" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="17" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16705,20 +17479,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:L28 I29:L29">
-    <cfRule type="cellIs" dxfId="50" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="4" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O29">
-    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:L29">
-    <cfRule type="cellIs" dxfId="47" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16800,10 +17574,10 @@
       <c r="V2" s="101"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="192">
+      <c r="A3" s="188">
         <v>1</v>
       </c>
-      <c r="B3" s="188" t="s">
+      <c r="B3" s="189" t="s">
         <v>119</v>
       </c>
       <c r="C3" s="96" t="s">
@@ -16848,8 +17622,8 @@
       <c r="V3" s="101"/>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="192"/>
-      <c r="B4" s="188"/>
+      <c r="A4" s="188"/>
+      <c r="B4" s="189"/>
       <c r="C4" s="96" t="s">
         <v>121</v>
       </c>
@@ -16892,8 +17666,8 @@
       <c r="V4" s="101"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="192"/>
-      <c r="B5" s="188"/>
+      <c r="A5" s="188"/>
+      <c r="B5" s="189"/>
       <c r="C5" s="96" t="s">
         <v>122</v>
       </c>
@@ -16930,10 +17704,10 @@
       <c r="V5" s="101"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="192">
+      <c r="A6" s="188">
         <v>2</v>
       </c>
-      <c r="B6" s="188" t="s">
+      <c r="B6" s="189" t="s">
         <v>123</v>
       </c>
       <c r="C6" s="96" t="s">
@@ -16971,8 +17745,8 @@
       <c r="V6" s="101"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="192"/>
-      <c r="B7" s="188"/>
+      <c r="A7" s="188"/>
+      <c r="B7" s="189"/>
       <c r="C7" s="96" t="s">
         <v>124</v>
       </c>
@@ -17008,8 +17782,8 @@
       <c r="V7" s="101"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="192"/>
-      <c r="B8" s="188"/>
+      <c r="A8" s="188"/>
+      <c r="B8" s="189"/>
       <c r="C8" s="96" t="s">
         <v>125</v>
       </c>
@@ -17045,10 +17819,10 @@
       <c r="V8" s="101"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="192">
+      <c r="A9" s="188">
         <v>3</v>
       </c>
-      <c r="B9" s="188" t="s">
+      <c r="B9" s="189" t="s">
         <v>126</v>
       </c>
       <c r="C9" s="96" t="s">
@@ -17073,15 +17847,15 @@
       <c r="I9" s="96">
         <v>3</v>
       </c>
-      <c r="K9" s="188" t="s">
+      <c r="K9" s="189" t="s">
         <v>139</v>
       </c>
-      <c r="L9" s="188"/>
-      <c r="M9" s="188"/>
-      <c r="N9" s="188"/>
-      <c r="O9" s="188"/>
-      <c r="P9" s="188"/>
-      <c r="Q9" s="188"/>
+      <c r="L9" s="189"/>
+      <c r="M9" s="189"/>
+      <c r="N9" s="189"/>
+      <c r="O9" s="189"/>
+      <c r="P9" s="189"/>
+      <c r="Q9" s="189"/>
       <c r="R9" s="101"/>
       <c r="S9" s="101"/>
       <c r="T9" s="101"/>
@@ -17089,8 +17863,8 @@
       <c r="V9" s="101"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="192"/>
-      <c r="B10" s="188"/>
+      <c r="A10" s="188"/>
+      <c r="B10" s="189"/>
       <c r="C10" s="96" t="s">
         <v>120</v>
       </c>
@@ -17113,13 +17887,13 @@
       <c r="I10" s="96">
         <v>3</v>
       </c>
-      <c r="K10" s="188"/>
-      <c r="L10" s="188"/>
-      <c r="M10" s="188"/>
-      <c r="N10" s="188"/>
-      <c r="O10" s="188"/>
-      <c r="P10" s="188"/>
-      <c r="Q10" s="188"/>
+      <c r="K10" s="189"/>
+      <c r="L10" s="189"/>
+      <c r="M10" s="189"/>
+      <c r="N10" s="189"/>
+      <c r="O10" s="189"/>
+      <c r="P10" s="189"/>
+      <c r="Q10" s="189"/>
       <c r="R10" s="101"/>
       <c r="S10" s="101"/>
       <c r="T10" s="101"/>
@@ -17127,8 +17901,8 @@
       <c r="V10" s="101"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="192"/>
-      <c r="B11" s="188"/>
+      <c r="A11" s="188"/>
+      <c r="B11" s="189"/>
       <c r="C11" s="96" t="s">
         <v>125</v>
       </c>
@@ -17179,10 +17953,10 @@
       <c r="V11" s="101"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="192">
+      <c r="A12" s="188">
         <v>4</v>
       </c>
-      <c r="B12" s="188" t="s">
+      <c r="B12" s="189" t="s">
         <v>127</v>
       </c>
       <c r="C12" s="96" t="s">
@@ -17241,8 +18015,8 @@
       <c r="V12" s="101"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="192"/>
-      <c r="B13" s="188"/>
+      <c r="A13" s="188"/>
+      <c r="B13" s="189"/>
       <c r="C13" s="96" t="s">
         <v>124</v>
       </c>
@@ -17299,8 +18073,8 @@
       <c r="V13" s="101"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="192"/>
-      <c r="B14" s="188"/>
+      <c r="A14" s="188"/>
+      <c r="B14" s="189"/>
       <c r="C14" s="96" t="s">
         <v>125</v>
       </c>
@@ -17357,10 +18131,10 @@
       <c r="V14" s="101"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="192">
+      <c r="A15" s="188">
         <v>5</v>
       </c>
-      <c r="B15" s="188" t="s">
+      <c r="B15" s="189" t="s">
         <v>128</v>
       </c>
       <c r="C15" s="96" t="s">
@@ -17419,8 +18193,8 @@
       <c r="V15" s="101"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="192"/>
-      <c r="B16" s="188"/>
+      <c r="A16" s="188"/>
+      <c r="B16" s="189"/>
       <c r="C16" s="96" t="s">
         <v>121</v>
       </c>
@@ -17477,8 +18251,8 @@
       <c r="V16" s="101"/>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="192"/>
-      <c r="B17" s="188"/>
+      <c r="A17" s="188"/>
+      <c r="B17" s="189"/>
       <c r="C17" s="96" t="s">
         <v>125</v>
       </c>
@@ -17535,10 +18309,10 @@
       <c r="V17" s="101"/>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="192">
+      <c r="A18" s="188">
         <v>6</v>
       </c>
-      <c r="B18" s="188" t="s">
+      <c r="B18" s="189" t="s">
         <v>129</v>
       </c>
       <c r="C18" s="96" t="s">
@@ -17597,8 +18371,8 @@
       <c r="V18" s="101"/>
     </row>
     <row r="19" spans="1:22">
-      <c r="A19" s="192"/>
-      <c r="B19" s="188"/>
+      <c r="A19" s="188"/>
+      <c r="B19" s="189"/>
       <c r="C19" s="96" t="s">
         <v>120</v>
       </c>
@@ -17633,9 +18407,9 @@
         <f ca="1">SUM(N12:N18)</f>
         <v>42</v>
       </c>
-      <c r="O19" s="189"/>
-      <c r="P19" s="190"/>
-      <c r="Q19" s="191"/>
+      <c r="O19" s="190"/>
+      <c r="P19" s="191"/>
+      <c r="Q19" s="192"/>
       <c r="R19" s="101"/>
       <c r="S19" s="101"/>
       <c r="T19" s="101"/>
@@ -17643,8 +18417,8 @@
       <c r="V19" s="101"/>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="192"/>
-      <c r="B20" s="188"/>
+      <c r="A20" s="188"/>
+      <c r="B20" s="189"/>
       <c r="C20" s="96" t="s">
         <v>125</v>
       </c>
@@ -17680,10 +18454,10 @@
       <c r="V20" s="101"/>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="192">
+      <c r="A21" s="188">
         <v>7</v>
       </c>
-      <c r="B21" s="188" t="s">
+      <c r="B21" s="189" t="s">
         <v>140</v>
       </c>
       <c r="C21" s="96" t="s">
@@ -17721,8 +18495,8 @@
       <c r="V21" s="101"/>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="192"/>
-      <c r="B22" s="188"/>
+      <c r="A22" s="188"/>
+      <c r="B22" s="189"/>
       <c r="C22" s="96" t="s">
         <v>142</v>
       </c>
@@ -17758,8 +18532,8 @@
       <c r="V22" s="101"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="192"/>
-      <c r="B23" s="188"/>
+      <c r="A23" s="188"/>
+      <c r="B23" s="189"/>
       <c r="C23" s="96" t="s">
         <v>143</v>
       </c>
@@ -17795,10 +18569,10 @@
       <c r="V23" s="101"/>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="192">
+      <c r="A24" s="188">
         <v>8</v>
       </c>
-      <c r="B24" s="188" t="s">
+      <c r="B24" s="189" t="s">
         <v>145</v>
       </c>
       <c r="C24" s="96" t="s">
@@ -17836,8 +18610,8 @@
       <c r="V24" s="101"/>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="192"/>
-      <c r="B25" s="188"/>
+      <c r="A25" s="188"/>
+      <c r="B25" s="189"/>
       <c r="C25" s="96" t="s">
         <v>147</v>
       </c>
@@ -17873,8 +18647,8 @@
       <c r="V25" s="101"/>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="192"/>
-      <c r="B26" s="188"/>
+      <c r="A26" s="188"/>
+      <c r="B26" s="189"/>
       <c r="C26" s="96" t="s">
         <v>148</v>
       </c>
@@ -17911,10 +18685,10 @@
       <c r="V26" s="101"/>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="192">
+      <c r="A27" s="188">
         <v>9</v>
       </c>
-      <c r="B27" s="188" t="s">
+      <c r="B27" s="189" t="s">
         <v>152</v>
       </c>
       <c r="C27" s="96" t="s">
@@ -17953,8 +18727,8 @@
       <c r="V27" s="101"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="192"/>
-      <c r="B28" s="188"/>
+      <c r="A28" s="188"/>
+      <c r="B28" s="189"/>
       <c r="C28" s="96" t="s">
         <v>154</v>
       </c>
@@ -17991,8 +18765,8 @@
       <c r="V28" s="101"/>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="192"/>
-      <c r="B29" s="188"/>
+      <c r="A29" s="188"/>
+      <c r="B29" s="189"/>
       <c r="C29" s="96" t="s">
         <v>155</v>
       </c>
@@ -18079,6 +18853,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K9:Q10"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="K19:L19"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="A12:A14"/>
@@ -18091,24 +18874,15 @@
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="B24:B26"/>
-    <mergeCell ref="K9:Q10"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="K19:L19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D3:F29">
-    <cfRule type="cellIs" dxfId="46" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="4" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G30">
-    <cfRule type="cellIs" dxfId="45" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="greaterThan">
       <formula>599.99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18186,10 +18960,10 @@
       <c r="R2" s="101"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="192">
+      <c r="A3" s="188">
         <v>1</v>
       </c>
-      <c r="B3" s="188" t="s">
+      <c r="B3" s="189" t="s">
         <v>123</v>
       </c>
       <c r="C3" s="96" t="s">
@@ -18230,8 +19004,8 @@
       <c r="R3" s="101"/>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="192"/>
-      <c r="B4" s="188"/>
+      <c r="A4" s="188"/>
+      <c r="B4" s="189"/>
       <c r="C4" s="96" t="s">
         <v>188</v>
       </c>
@@ -18270,8 +19044,8 @@
       <c r="R4" s="101"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="192"/>
-      <c r="B5" s="188"/>
+      <c r="A5" s="188"/>
+      <c r="B5" s="189"/>
       <c r="C5" s="96" t="s">
         <v>187</v>
       </c>
@@ -18304,10 +19078,10 @@
       <c r="R5" s="101"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="192">
+      <c r="A6" s="188">
         <v>2</v>
       </c>
-      <c r="B6" s="188" t="s">
+      <c r="B6" s="189" t="s">
         <v>152</v>
       </c>
       <c r="C6" s="96" t="s">
@@ -18345,8 +19119,8 @@
       <c r="V6" s="101"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="192"/>
-      <c r="B7" s="188"/>
+      <c r="A7" s="188"/>
+      <c r="B7" s="189"/>
       <c r="C7" s="96" t="s">
         <v>189</v>
       </c>
@@ -18382,8 +19156,8 @@
       <c r="V7" s="101"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="192"/>
-      <c r="B8" s="188"/>
+      <c r="A8" s="188"/>
+      <c r="B8" s="189"/>
       <c r="C8" s="96" t="s">
         <v>190</v>
       </c>
@@ -18419,10 +19193,10 @@
       <c r="V8" s="101"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="192">
+      <c r="A9" s="188">
         <v>3</v>
       </c>
-      <c r="B9" s="188" t="s">
+      <c r="B9" s="189" t="s">
         <v>192</v>
       </c>
       <c r="C9" s="96" t="s">
@@ -18447,15 +19221,15 @@
       <c r="I9" s="96">
         <v>1</v>
       </c>
-      <c r="K9" s="188" t="s">
+      <c r="K9" s="189" t="s">
         <v>139</v>
       </c>
-      <c r="L9" s="188"/>
-      <c r="M9" s="188"/>
-      <c r="N9" s="188"/>
-      <c r="O9" s="188"/>
-      <c r="P9" s="188"/>
-      <c r="Q9" s="188"/>
+      <c r="L9" s="189"/>
+      <c r="M9" s="189"/>
+      <c r="N9" s="189"/>
+      <c r="O9" s="189"/>
+      <c r="P9" s="189"/>
+      <c r="Q9" s="189"/>
       <c r="R9" s="101"/>
       <c r="S9" s="101"/>
       <c r="T9" s="101"/>
@@ -18463,8 +19237,8 @@
       <c r="V9" s="101"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="192"/>
-      <c r="B10" s="188"/>
+      <c r="A10" s="188"/>
+      <c r="B10" s="189"/>
       <c r="C10" s="96" t="s">
         <v>189</v>
       </c>
@@ -18487,13 +19261,13 @@
       <c r="I10" s="96">
         <v>1</v>
       </c>
-      <c r="K10" s="188"/>
-      <c r="L10" s="188"/>
-      <c r="M10" s="188"/>
-      <c r="N10" s="188"/>
-      <c r="O10" s="188"/>
-      <c r="P10" s="188"/>
-      <c r="Q10" s="188"/>
+      <c r="K10" s="189"/>
+      <c r="L10" s="189"/>
+      <c r="M10" s="189"/>
+      <c r="N10" s="189"/>
+      <c r="O10" s="189"/>
+      <c r="P10" s="189"/>
+      <c r="Q10" s="189"/>
       <c r="R10" s="101"/>
       <c r="S10" s="101"/>
       <c r="T10" s="101"/>
@@ -18501,8 +19275,8 @@
       <c r="V10" s="101"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="192"/>
-      <c r="B11" s="188"/>
+      <c r="A11" s="188"/>
+      <c r="B11" s="189"/>
       <c r="C11" s="96" t="s">
         <v>190</v>
       </c>
@@ -18553,10 +19327,10 @@
       <c r="V11" s="101"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="192">
+      <c r="A12" s="188">
         <v>4</v>
       </c>
-      <c r="B12" s="188" t="s">
+      <c r="B12" s="189" t="s">
         <v>193</v>
       </c>
       <c r="C12" s="96" t="s">
@@ -18615,8 +19389,8 @@
       <c r="V12" s="101"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="192"/>
-      <c r="B13" s="188"/>
+      <c r="A13" s="188"/>
+      <c r="B13" s="189"/>
       <c r="C13" s="96" t="s">
         <v>189</v>
       </c>
@@ -18673,8 +19447,8 @@
       <c r="V13" s="101"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="192"/>
-      <c r="B14" s="188"/>
+      <c r="A14" s="188"/>
+      <c r="B14" s="189"/>
       <c r="C14" s="96" t="s">
         <v>190</v>
       </c>
@@ -18731,10 +19505,10 @@
       <c r="V14" s="101"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="192">
+      <c r="A15" s="188">
         <v>5</v>
       </c>
-      <c r="B15" s="188" t="s">
+      <c r="B15" s="189" t="s">
         <v>194</v>
       </c>
       <c r="C15" s="96" t="s">
@@ -18793,8 +19567,8 @@
       <c r="V15" s="101"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="192"/>
-      <c r="B16" s="188"/>
+      <c r="A16" s="188"/>
+      <c r="B16" s="189"/>
       <c r="C16" s="96" t="s">
         <v>189</v>
       </c>
@@ -18851,8 +19625,8 @@
       <c r="V16" s="101"/>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="192"/>
-      <c r="B17" s="188"/>
+      <c r="A17" s="188"/>
+      <c r="B17" s="189"/>
       <c r="C17" s="96" t="s">
         <v>190</v>
       </c>
@@ -18887,9 +19661,9 @@
         <f ca="1">SUM(N12:N16)</f>
         <v>42</v>
       </c>
-      <c r="O17" s="189"/>
-      <c r="P17" s="190"/>
-      <c r="Q17" s="191"/>
+      <c r="O17" s="190"/>
+      <c r="P17" s="191"/>
+      <c r="Q17" s="192"/>
       <c r="R17" s="101"/>
       <c r="S17" s="101"/>
       <c r="T17" s="101"/>
@@ -18897,10 +19671,10 @@
       <c r="V17" s="101"/>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="192">
+      <c r="A18" s="188">
         <v>6</v>
       </c>
-      <c r="B18" s="188" t="s">
+      <c r="B18" s="189" t="s">
         <v>129</v>
       </c>
       <c r="C18" s="96" t="s">
@@ -18938,8 +19712,8 @@
       <c r="V18" s="101"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="192"/>
-      <c r="B19" s="188"/>
+      <c r="A19" s="188"/>
+      <c r="B19" s="189"/>
       <c r="C19" s="96" t="s">
         <v>189</v>
       </c>
@@ -18975,8 +19749,8 @@
       <c r="V19" s="101"/>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="192"/>
-      <c r="B20" s="188"/>
+      <c r="A20" s="188"/>
+      <c r="B20" s="189"/>
       <c r="C20" s="96" t="s">
         <v>190</v>
       </c>
@@ -19012,10 +19786,10 @@
       <c r="V20" s="101"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="192">
+      <c r="A21" s="188">
         <v>7</v>
       </c>
-      <c r="B21" s="188" t="s">
+      <c r="B21" s="189" t="s">
         <v>119</v>
       </c>
       <c r="C21" s="96" t="s">
@@ -19051,8 +19825,8 @@
       <c r="V21" s="101"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="192"/>
-      <c r="B22" s="188"/>
+      <c r="A22" s="188"/>
+      <c r="B22" s="189"/>
       <c r="C22" s="96" t="s">
         <v>188</v>
       </c>
@@ -19085,8 +19859,8 @@
       <c r="V22" s="101"/>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" s="192"/>
-      <c r="B23" s="188"/>
+      <c r="A23" s="188"/>
+      <c r="B23" s="189"/>
       <c r="C23" s="96" t="s">
         <v>189</v>
       </c>
@@ -19117,10 +19891,10 @@
       <c r="V23" s="101"/>
     </row>
     <row r="24" spans="1:23">
-      <c r="A24" s="192">
+      <c r="A24" s="188">
         <v>8</v>
       </c>
-      <c r="B24" s="188" t="s">
+      <c r="B24" s="189" t="s">
         <v>145</v>
       </c>
       <c r="C24" s="96" t="s">
@@ -19154,8 +19928,8 @@
       <c r="V24" s="101"/>
     </row>
     <row r="25" spans="1:23">
-      <c r="A25" s="192"/>
-      <c r="B25" s="188"/>
+      <c r="A25" s="188"/>
+      <c r="B25" s="189"/>
       <c r="C25" s="96" t="s">
         <v>101</v>
       </c>
@@ -19188,8 +19962,8 @@
       <c r="W25" s="114"/>
     </row>
     <row r="26" spans="1:23">
-      <c r="A26" s="192"/>
-      <c r="B26" s="188"/>
+      <c r="A26" s="188"/>
+      <c r="B26" s="189"/>
       <c r="C26" s="96" t="s">
         <v>102</v>
       </c>
@@ -19226,10 +20000,10 @@
       <c r="W26" s="114"/>
     </row>
     <row r="27" spans="1:23">
-      <c r="A27" s="192">
+      <c r="A27" s="188">
         <v>9</v>
       </c>
-      <c r="B27" s="188" t="s">
+      <c r="B27" s="189" t="s">
         <v>128</v>
       </c>
       <c r="C27" s="96" t="s">
@@ -19268,8 +20042,8 @@
       <c r="W27" s="114"/>
     </row>
     <row r="28" spans="1:23">
-      <c r="A28" s="192"/>
-      <c r="B28" s="188"/>
+      <c r="A28" s="188"/>
+      <c r="B28" s="189"/>
       <c r="C28" s="96" t="s">
         <v>101</v>
       </c>
@@ -19306,8 +20080,8 @@
       <c r="V28" s="101"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="192"/>
-      <c r="B29" s="188"/>
+      <c r="A29" s="188"/>
+      <c r="B29" s="189"/>
       <c r="C29" s="96" t="s">
         <v>102</v>
       </c>
@@ -19376,12 +20150,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="K17:L17"/>
@@ -19397,15 +20165,21 @@
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D3:F29">
-    <cfRule type="cellIs" dxfId="44" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="9" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G30">
-    <cfRule type="cellIs" dxfId="43" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="8" operator="greaterThan">
       <formula>599.99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22587,67 +23361,67 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F25:G28 B4:S24 H25:S33">
-    <cfRule type="cellIs" dxfId="42" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="15" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4:W28">
-    <cfRule type="cellIs" dxfId="41" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="13" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="14" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:S25">
-    <cfRule type="cellIs" dxfId="39" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="12" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W25">
-    <cfRule type="cellIs" dxfId="38" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="10" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="11" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:S28">
-    <cfRule type="cellIs" dxfId="36" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="9" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W26:W28">
-    <cfRule type="cellIs" dxfId="35" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="7" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="8" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:G33">
-    <cfRule type="cellIs" dxfId="33" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W29:W33">
-    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:S33">
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W29:W33">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2023년 락클럽 에버관리.xlsx
+++ b/2023년 락클럽 에버관리.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="320">
   <si>
     <t>적요</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -1178,6 +1178,86 @@
   </si>
   <si>
     <t>김주성(게)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023 樂 클럽 4월 첫째주 정기전 종합</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>이정훈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>권순호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김인기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박재성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남궁철상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정승우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박정구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진해진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김현배</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김준호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박신호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박찬용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이민철</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이유선</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이선화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영진(게)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현규(게)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>송현진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>송현진</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1980,7 +2060,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2368,156 +2448,59 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="10"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="10"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="10"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="10"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2564,52 +2547,152 @@
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="10"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="10"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="10"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="distributed" vertical="center" indent="10"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2627,9 +2710,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="11" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2642,6 +2722,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="182" fontId="11" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2651,7 +2734,7 @@
     <xf numFmtId="0" fontId="16" fillId="8" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2659,7 +2742,21 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="88">
+  <dxfs count="100">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2680,6 +2777,41 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2983,11 +3115,46 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -4025,33 +4192,33 @@
       <c r="DG4" s="4"/>
     </row>
     <row r="5" spans="2:111" ht="20.100000000000001" customHeight="1">
-      <c r="S5" s="171" t="s">
+      <c r="S5" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="178" t="s">
+      <c r="T5" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="U5" s="179"/>
-      <c r="V5" s="179"/>
-      <c r="W5" s="180"/>
-      <c r="X5" s="178" t="s">
+      <c r="U5" s="132"/>
+      <c r="V5" s="132"/>
+      <c r="W5" s="133"/>
+      <c r="X5" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="Y5" s="179"/>
-      <c r="Z5" s="179"/>
-      <c r="AA5" s="180"/>
-      <c r="AB5" s="178" t="s">
+      <c r="Y5" s="132"/>
+      <c r="Z5" s="132"/>
+      <c r="AA5" s="133"/>
+      <c r="AB5" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="AC5" s="179"/>
-      <c r="AD5" s="179"/>
-      <c r="AE5" s="180"/>
-      <c r="AF5" s="178" t="s">
+      <c r="AC5" s="132"/>
+      <c r="AD5" s="132"/>
+      <c r="AE5" s="133"/>
+      <c r="AF5" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="AG5" s="179"/>
-      <c r="AH5" s="179"/>
-      <c r="AI5" s="181"/>
+      <c r="AG5" s="132"/>
+      <c r="AH5" s="132"/>
+      <c r="AI5" s="134"/>
       <c r="AM5" s="4"/>
       <c r="AN5" s="4"/>
       <c r="AO5" s="4"/>
@@ -4070,23 +4237,23 @@
       <c r="BB5" s="4"/>
       <c r="BC5" s="4"/>
       <c r="BD5" s="4"/>
-      <c r="BE5" s="182"/>
-      <c r="BF5" s="123"/>
-      <c r="BG5" s="123"/>
-      <c r="BH5" s="123"/>
-      <c r="BI5" s="123"/>
-      <c r="BJ5" s="123"/>
-      <c r="BK5" s="123"/>
-      <c r="BL5" s="123"/>
-      <c r="BM5" s="123"/>
-      <c r="BN5" s="123"/>
-      <c r="BO5" s="123"/>
-      <c r="BP5" s="123"/>
-      <c r="BQ5" s="123"/>
-      <c r="BR5" s="123"/>
-      <c r="BS5" s="123"/>
-      <c r="BT5" s="123"/>
-      <c r="BU5" s="123"/>
+      <c r="BE5" s="135"/>
+      <c r="BF5" s="125"/>
+      <c r="BG5" s="125"/>
+      <c r="BH5" s="125"/>
+      <c r="BI5" s="125"/>
+      <c r="BJ5" s="125"/>
+      <c r="BK5" s="125"/>
+      <c r="BL5" s="125"/>
+      <c r="BM5" s="125"/>
+      <c r="BN5" s="125"/>
+      <c r="BO5" s="125"/>
+      <c r="BP5" s="125"/>
+      <c r="BQ5" s="125"/>
+      <c r="BR5" s="125"/>
+      <c r="BS5" s="125"/>
+      <c r="BT5" s="125"/>
+      <c r="BU5" s="125"/>
       <c r="BV5" s="14"/>
       <c r="BW5" s="14"/>
       <c r="BX5" s="14"/>
@@ -4136,23 +4303,23 @@
       <c r="O6" s="17"/>
       <c r="P6" s="17"/>
       <c r="Q6" s="17"/>
-      <c r="S6" s="172"/>
-      <c r="T6" s="173"/>
-      <c r="U6" s="174"/>
-      <c r="V6" s="174"/>
-      <c r="W6" s="175"/>
-      <c r="X6" s="173"/>
-      <c r="Y6" s="174"/>
-      <c r="Z6" s="174"/>
-      <c r="AA6" s="175"/>
-      <c r="AB6" s="173"/>
-      <c r="AC6" s="174"/>
-      <c r="AD6" s="174"/>
-      <c r="AE6" s="175"/>
-      <c r="AF6" s="173"/>
-      <c r="AG6" s="174"/>
-      <c r="AH6" s="174"/>
-      <c r="AI6" s="176"/>
+      <c r="S6" s="124"/>
+      <c r="T6" s="126"/>
+      <c r="U6" s="127"/>
+      <c r="V6" s="127"/>
+      <c r="W6" s="128"/>
+      <c r="X6" s="126"/>
+      <c r="Y6" s="127"/>
+      <c r="Z6" s="127"/>
+      <c r="AA6" s="128"/>
+      <c r="AB6" s="126"/>
+      <c r="AC6" s="127"/>
+      <c r="AD6" s="127"/>
+      <c r="AE6" s="128"/>
+      <c r="AF6" s="126"/>
+      <c r="AG6" s="127"/>
+      <c r="AH6" s="127"/>
+      <c r="AI6" s="129"/>
       <c r="AM6" s="18"/>
       <c r="AN6" s="4"/>
       <c r="AO6" s="4"/>
@@ -4171,23 +4338,23 @@
       <c r="BB6" s="19"/>
       <c r="BC6" s="19"/>
       <c r="BD6" s="4"/>
-      <c r="BE6" s="182"/>
-      <c r="BF6" s="177"/>
-      <c r="BG6" s="177"/>
-      <c r="BH6" s="177"/>
-      <c r="BI6" s="177"/>
-      <c r="BJ6" s="177"/>
-      <c r="BK6" s="177"/>
-      <c r="BL6" s="177"/>
-      <c r="BM6" s="177"/>
-      <c r="BN6" s="177"/>
-      <c r="BO6" s="177"/>
-      <c r="BP6" s="177"/>
-      <c r="BQ6" s="177"/>
-      <c r="BR6" s="177"/>
-      <c r="BS6" s="177"/>
-      <c r="BT6" s="177"/>
-      <c r="BU6" s="177"/>
+      <c r="BE6" s="135"/>
+      <c r="BF6" s="130"/>
+      <c r="BG6" s="130"/>
+      <c r="BH6" s="130"/>
+      <c r="BI6" s="130"/>
+      <c r="BJ6" s="130"/>
+      <c r="BK6" s="130"/>
+      <c r="BL6" s="130"/>
+      <c r="BM6" s="130"/>
+      <c r="BN6" s="130"/>
+      <c r="BO6" s="130"/>
+      <c r="BP6" s="130"/>
+      <c r="BQ6" s="130"/>
+      <c r="BR6" s="130"/>
+      <c r="BS6" s="130"/>
+      <c r="BT6" s="130"/>
+      <c r="BU6" s="130"/>
       <c r="BV6" s="20"/>
       <c r="BW6" s="20"/>
       <c r="BX6" s="20"/>
@@ -4213,77 +4380,77 @@
       <c r="DG6" s="20"/>
     </row>
     <row r="7" spans="2:111" ht="65.099999999999994" customHeight="1">
-      <c r="B7" s="160" t="s">
+      <c r="B7" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="161"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="161"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="161"/>
-      <c r="K7" s="161"/>
-      <c r="L7" s="161"/>
-      <c r="M7" s="161"/>
-      <c r="N7" s="161"/>
-      <c r="O7" s="161"/>
-      <c r="P7" s="161"/>
-      <c r="Q7" s="161"/>
-      <c r="R7" s="161"/>
-      <c r="S7" s="161"/>
-      <c r="T7" s="161"/>
-      <c r="U7" s="161"/>
-      <c r="V7" s="161"/>
-      <c r="W7" s="161"/>
-      <c r="X7" s="161"/>
-      <c r="Y7" s="161"/>
-      <c r="Z7" s="161"/>
-      <c r="AA7" s="161"/>
-      <c r="AB7" s="161"/>
-      <c r="AC7" s="161"/>
-      <c r="AD7" s="161"/>
-      <c r="AE7" s="161"/>
-      <c r="AF7" s="161"/>
-      <c r="AG7" s="161"/>
-      <c r="AH7" s="161"/>
-      <c r="AI7" s="162"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
+      <c r="O7" s="137"/>
+      <c r="P7" s="137"/>
+      <c r="Q7" s="137"/>
+      <c r="R7" s="137"/>
+      <c r="S7" s="137"/>
+      <c r="T7" s="137"/>
+      <c r="U7" s="137"/>
+      <c r="V7" s="137"/>
+      <c r="W7" s="137"/>
+      <c r="X7" s="137"/>
+      <c r="Y7" s="137"/>
+      <c r="Z7" s="137"/>
+      <c r="AA7" s="137"/>
+      <c r="AB7" s="137"/>
+      <c r="AC7" s="137"/>
+      <c r="AD7" s="137"/>
+      <c r="AE7" s="137"/>
+      <c r="AF7" s="137"/>
+      <c r="AG7" s="137"/>
+      <c r="AH7" s="137"/>
+      <c r="AI7" s="138"/>
       <c r="AM7" s="18"/>
-      <c r="AN7" s="163"/>
-      <c r="AO7" s="163"/>
-      <c r="AP7" s="163"/>
-      <c r="AQ7" s="163"/>
-      <c r="AR7" s="163"/>
-      <c r="AS7" s="163"/>
-      <c r="AT7" s="163"/>
-      <c r="AU7" s="163"/>
-      <c r="AV7" s="163"/>
-      <c r="AW7" s="163"/>
-      <c r="AX7" s="163"/>
-      <c r="AY7" s="163"/>
-      <c r="AZ7" s="163"/>
-      <c r="BA7" s="163"/>
-      <c r="BB7" s="163"/>
-      <c r="BC7" s="163"/>
-      <c r="BD7" s="163"/>
-      <c r="BE7" s="163"/>
-      <c r="BF7" s="163"/>
-      <c r="BG7" s="163"/>
-      <c r="BH7" s="163"/>
-      <c r="BI7" s="163"/>
-      <c r="BJ7" s="163"/>
-      <c r="BK7" s="163"/>
-      <c r="BL7" s="163"/>
-      <c r="BM7" s="163"/>
-      <c r="BN7" s="163"/>
-      <c r="BO7" s="163"/>
-      <c r="BP7" s="163"/>
-      <c r="BQ7" s="163"/>
-      <c r="BR7" s="163"/>
-      <c r="BS7" s="163"/>
-      <c r="BT7" s="163"/>
-      <c r="BU7" s="163"/>
+      <c r="AN7" s="139"/>
+      <c r="AO7" s="139"/>
+      <c r="AP7" s="139"/>
+      <c r="AQ7" s="139"/>
+      <c r="AR7" s="139"/>
+      <c r="AS7" s="139"/>
+      <c r="AT7" s="139"/>
+      <c r="AU7" s="139"/>
+      <c r="AV7" s="139"/>
+      <c r="AW7" s="139"/>
+      <c r="AX7" s="139"/>
+      <c r="AY7" s="139"/>
+      <c r="AZ7" s="139"/>
+      <c r="BA7" s="139"/>
+      <c r="BB7" s="139"/>
+      <c r="BC7" s="139"/>
+      <c r="BD7" s="139"/>
+      <c r="BE7" s="139"/>
+      <c r="BF7" s="139"/>
+      <c r="BG7" s="139"/>
+      <c r="BH7" s="139"/>
+      <c r="BI7" s="139"/>
+      <c r="BJ7" s="139"/>
+      <c r="BK7" s="139"/>
+      <c r="BL7" s="139"/>
+      <c r="BM7" s="139"/>
+      <c r="BN7" s="139"/>
+      <c r="BO7" s="139"/>
+      <c r="BP7" s="139"/>
+      <c r="BQ7" s="139"/>
+      <c r="BR7" s="139"/>
+      <c r="BS7" s="139"/>
+      <c r="BT7" s="139"/>
+      <c r="BU7" s="139"/>
       <c r="BV7" s="21"/>
       <c r="BW7" s="21"/>
       <c r="BX7" s="21"/>
@@ -4312,30 +4479,30 @@
       <c r="DG7" s="21"/>
     </row>
     <row r="8" spans="2:111" ht="30" customHeight="1">
-      <c r="B8" s="164" t="s">
+      <c r="B8" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="165"/>
-      <c r="D8" s="165"/>
-      <c r="E8" s="166">
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="142">
         <f>SUM(S14:AA23)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="166"/>
-      <c r="G8" s="166"/>
-      <c r="H8" s="166"/>
-      <c r="I8" s="166"/>
-      <c r="J8" s="166"/>
-      <c r="K8" s="166"/>
-      <c r="L8" s="166"/>
-      <c r="M8" s="166"/>
-      <c r="N8" s="166"/>
-      <c r="O8" s="166"/>
-      <c r="P8" s="166"/>
-      <c r="Q8" s="166"/>
-      <c r="R8" s="166"/>
-      <c r="S8" s="166"/>
-      <c r="T8" s="166"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="142"/>
+      <c r="J8" s="142"/>
+      <c r="K8" s="142"/>
+      <c r="L8" s="142"/>
+      <c r="M8" s="142"/>
+      <c r="N8" s="142"/>
+      <c r="O8" s="142"/>
+      <c r="P8" s="142"/>
+      <c r="Q8" s="142"/>
+      <c r="R8" s="142"/>
+      <c r="S8" s="142"/>
+      <c r="T8" s="142"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4" t="s">
         <v>23</v>
@@ -4348,54 +4515,54 @@
       <c r="Z8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA8" s="167">
+      <c r="AA8" s="143">
         <f>E8</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="167"/>
-      <c r="AC8" s="167"/>
-      <c r="AD8" s="167"/>
-      <c r="AE8" s="167"/>
-      <c r="AF8" s="167"/>
-      <c r="AG8" s="167"/>
-      <c r="AH8" s="167"/>
+      <c r="AB8" s="143"/>
+      <c r="AC8" s="143"/>
+      <c r="AD8" s="143"/>
+      <c r="AE8" s="143"/>
+      <c r="AF8" s="143"/>
+      <c r="AG8" s="143"/>
+      <c r="AH8" s="143"/>
       <c r="AI8" s="23" t="s">
         <v>26</v>
       </c>
       <c r="AM8" s="4"/>
-      <c r="AN8" s="168"/>
-      <c r="AO8" s="168"/>
-      <c r="AP8" s="168"/>
-      <c r="AQ8" s="169"/>
-      <c r="AR8" s="169"/>
-      <c r="AS8" s="169"/>
-      <c r="AT8" s="169"/>
-      <c r="AU8" s="169"/>
-      <c r="AV8" s="169"/>
-      <c r="AW8" s="169"/>
-      <c r="AX8" s="169"/>
-      <c r="AY8" s="169"/>
-      <c r="AZ8" s="169"/>
-      <c r="BA8" s="169"/>
-      <c r="BB8" s="169"/>
-      <c r="BC8" s="169"/>
-      <c r="BD8" s="169"/>
-      <c r="BE8" s="169"/>
-      <c r="BF8" s="169"/>
+      <c r="AN8" s="144"/>
+      <c r="AO8" s="144"/>
+      <c r="AP8" s="144"/>
+      <c r="AQ8" s="145"/>
+      <c r="AR8" s="145"/>
+      <c r="AS8" s="145"/>
+      <c r="AT8" s="145"/>
+      <c r="AU8" s="145"/>
+      <c r="AV8" s="145"/>
+      <c r="AW8" s="145"/>
+      <c r="AX8" s="145"/>
+      <c r="AY8" s="145"/>
+      <c r="AZ8" s="145"/>
+      <c r="BA8" s="145"/>
+      <c r="BB8" s="145"/>
+      <c r="BC8" s="145"/>
+      <c r="BD8" s="145"/>
+      <c r="BE8" s="145"/>
+      <c r="BF8" s="145"/>
       <c r="BG8" s="4"/>
       <c r="BH8" s="4"/>
       <c r="BI8" s="4"/>
       <c r="BJ8" s="4"/>
       <c r="BK8" s="4"/>
       <c r="BL8" s="4"/>
-      <c r="BM8" s="170"/>
-      <c r="BN8" s="170"/>
-      <c r="BO8" s="170"/>
-      <c r="BP8" s="170"/>
-      <c r="BQ8" s="170"/>
-      <c r="BR8" s="170"/>
-      <c r="BS8" s="170"/>
-      <c r="BT8" s="170"/>
+      <c r="BM8" s="146"/>
+      <c r="BN8" s="146"/>
+      <c r="BO8" s="146"/>
+      <c r="BP8" s="146"/>
+      <c r="BQ8" s="146"/>
+      <c r="BR8" s="146"/>
+      <c r="BS8" s="146"/>
+      <c r="BT8" s="146"/>
       <c r="BU8" s="4"/>
       <c r="BV8" s="4"/>
       <c r="BW8" s="4"/>
@@ -4427,83 +4594,83 @@
       <c r="DG8" s="4"/>
     </row>
     <row r="9" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B9" s="152" t="s">
+      <c r="B9" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="153"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="155">
+      <c r="C9" s="149"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="151">
         <v>44351</v>
       </c>
-      <c r="F9" s="156"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="156"/>
-      <c r="K9" s="156"/>
-      <c r="L9" s="156"/>
-      <c r="M9" s="156"/>
-      <c r="N9" s="156"/>
-      <c r="O9" s="156"/>
-      <c r="P9" s="156"/>
-      <c r="Q9" s="156"/>
-      <c r="R9" s="157"/>
-      <c r="S9" s="158" t="s">
+      <c r="F9" s="152"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="152"/>
+      <c r="J9" s="152"/>
+      <c r="K9" s="152"/>
+      <c r="L9" s="152"/>
+      <c r="M9" s="152"/>
+      <c r="N9" s="152"/>
+      <c r="O9" s="152"/>
+      <c r="P9" s="152"/>
+      <c r="Q9" s="152"/>
+      <c r="R9" s="153"/>
+      <c r="S9" s="154" t="s">
         <v>28</v>
       </c>
-      <c r="T9" s="154"/>
-      <c r="U9" s="158"/>
-      <c r="V9" s="153"/>
-      <c r="W9" s="153"/>
-      <c r="X9" s="153"/>
-      <c r="Y9" s="153"/>
-      <c r="Z9" s="153"/>
-      <c r="AA9" s="154"/>
-      <c r="AB9" s="158" t="s">
+      <c r="T9" s="150"/>
+      <c r="U9" s="154"/>
+      <c r="V9" s="149"/>
+      <c r="W9" s="149"/>
+      <c r="X9" s="149"/>
+      <c r="Y9" s="149"/>
+      <c r="Z9" s="149"/>
+      <c r="AA9" s="150"/>
+      <c r="AB9" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="AC9" s="153"/>
-      <c r="AD9" s="153"/>
-      <c r="AE9" s="154"/>
-      <c r="AF9" s="158"/>
-      <c r="AG9" s="153"/>
-      <c r="AH9" s="153"/>
-      <c r="AI9" s="159"/>
+      <c r="AC9" s="149"/>
+      <c r="AD9" s="149"/>
+      <c r="AE9" s="150"/>
+      <c r="AF9" s="154"/>
+      <c r="AG9" s="149"/>
+      <c r="AH9" s="149"/>
+      <c r="AI9" s="155"/>
       <c r="AM9" s="4"/>
-      <c r="AN9" s="123"/>
-      <c r="AO9" s="123"/>
-      <c r="AP9" s="123"/>
-      <c r="AQ9" s="128"/>
-      <c r="AR9" s="128"/>
-      <c r="AS9" s="128"/>
-      <c r="AT9" s="128"/>
-      <c r="AU9" s="128"/>
-      <c r="AV9" s="128"/>
-      <c r="AW9" s="128"/>
-      <c r="AX9" s="128"/>
-      <c r="AY9" s="128"/>
-      <c r="AZ9" s="128"/>
-      <c r="BA9" s="128"/>
-      <c r="BB9" s="128"/>
-      <c r="BC9" s="128"/>
-      <c r="BD9" s="128"/>
-      <c r="BE9" s="123"/>
-      <c r="BF9" s="123"/>
-      <c r="BG9" s="123"/>
-      <c r="BH9" s="123"/>
-      <c r="BI9" s="123"/>
-      <c r="BJ9" s="123"/>
-      <c r="BK9" s="123"/>
-      <c r="BL9" s="123"/>
-      <c r="BM9" s="123"/>
-      <c r="BN9" s="123"/>
-      <c r="BO9" s="123"/>
-      <c r="BP9" s="123"/>
-      <c r="BQ9" s="123"/>
-      <c r="BR9" s="123"/>
-      <c r="BS9" s="123"/>
-      <c r="BT9" s="123"/>
-      <c r="BU9" s="123"/>
+      <c r="AN9" s="125"/>
+      <c r="AO9" s="125"/>
+      <c r="AP9" s="125"/>
+      <c r="AQ9" s="147"/>
+      <c r="AR9" s="147"/>
+      <c r="AS9" s="147"/>
+      <c r="AT9" s="147"/>
+      <c r="AU9" s="147"/>
+      <c r="AV9" s="147"/>
+      <c r="AW9" s="147"/>
+      <c r="AX9" s="147"/>
+      <c r="AY9" s="147"/>
+      <c r="AZ9" s="147"/>
+      <c r="BA9" s="147"/>
+      <c r="BB9" s="147"/>
+      <c r="BC9" s="147"/>
+      <c r="BD9" s="147"/>
+      <c r="BE9" s="125"/>
+      <c r="BF9" s="125"/>
+      <c r="BG9" s="125"/>
+      <c r="BH9" s="125"/>
+      <c r="BI9" s="125"/>
+      <c r="BJ9" s="125"/>
+      <c r="BK9" s="125"/>
+      <c r="BL9" s="125"/>
+      <c r="BM9" s="125"/>
+      <c r="BN9" s="125"/>
+      <c r="BO9" s="125"/>
+      <c r="BP9" s="125"/>
+      <c r="BQ9" s="125"/>
+      <c r="BR9" s="125"/>
+      <c r="BS9" s="125"/>
+      <c r="BT9" s="125"/>
+      <c r="BU9" s="125"/>
       <c r="BV9" s="14"/>
       <c r="BW9" s="14"/>
       <c r="BX9" s="14"/>
@@ -4544,83 +4711,83 @@
       <c r="DG9" s="14"/>
     </row>
     <row r="10" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B10" s="152" t="s">
+      <c r="B10" s="148" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="153"/>
-      <c r="D10" s="154"/>
-      <c r="E10" s="155" t="s">
+      <c r="C10" s="149"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="151" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="156"/>
-      <c r="K10" s="156"/>
-      <c r="L10" s="156"/>
-      <c r="M10" s="156"/>
-      <c r="N10" s="156"/>
-      <c r="O10" s="156"/>
-      <c r="P10" s="156"/>
-      <c r="Q10" s="156"/>
-      <c r="R10" s="157"/>
-      <c r="S10" s="158" t="s">
+      <c r="F10" s="152"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="152"/>
+      <c r="I10" s="152"/>
+      <c r="J10" s="152"/>
+      <c r="K10" s="152"/>
+      <c r="L10" s="152"/>
+      <c r="M10" s="152"/>
+      <c r="N10" s="152"/>
+      <c r="O10" s="152"/>
+      <c r="P10" s="152"/>
+      <c r="Q10" s="152"/>
+      <c r="R10" s="153"/>
+      <c r="S10" s="154" t="s">
         <v>28</v>
       </c>
-      <c r="T10" s="154"/>
-      <c r="U10" s="158"/>
-      <c r="V10" s="153"/>
-      <c r="W10" s="153"/>
-      <c r="X10" s="153"/>
-      <c r="Y10" s="153"/>
-      <c r="Z10" s="153"/>
-      <c r="AA10" s="154"/>
-      <c r="AB10" s="158" t="s">
+      <c r="T10" s="150"/>
+      <c r="U10" s="154"/>
+      <c r="V10" s="149"/>
+      <c r="W10" s="149"/>
+      <c r="X10" s="149"/>
+      <c r="Y10" s="149"/>
+      <c r="Z10" s="149"/>
+      <c r="AA10" s="150"/>
+      <c r="AB10" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="153"/>
-      <c r="AD10" s="153"/>
-      <c r="AE10" s="153"/>
-      <c r="AF10" s="153"/>
-      <c r="AG10" s="153"/>
-      <c r="AH10" s="153"/>
-      <c r="AI10" s="159"/>
+      <c r="AC10" s="149"/>
+      <c r="AD10" s="149"/>
+      <c r="AE10" s="149"/>
+      <c r="AF10" s="149"/>
+      <c r="AG10" s="149"/>
+      <c r="AH10" s="149"/>
+      <c r="AI10" s="155"/>
       <c r="AM10" s="4"/>
-      <c r="AN10" s="123"/>
-      <c r="AO10" s="123"/>
-      <c r="AP10" s="123"/>
-      <c r="AQ10" s="128"/>
-      <c r="AR10" s="128"/>
-      <c r="AS10" s="128"/>
-      <c r="AT10" s="128"/>
-      <c r="AU10" s="128"/>
-      <c r="AV10" s="128"/>
-      <c r="AW10" s="128"/>
-      <c r="AX10" s="128"/>
-      <c r="AY10" s="128"/>
-      <c r="AZ10" s="128"/>
-      <c r="BA10" s="128"/>
-      <c r="BB10" s="128"/>
-      <c r="BC10" s="128"/>
-      <c r="BD10" s="128"/>
-      <c r="BE10" s="123"/>
-      <c r="BF10" s="123"/>
-      <c r="BG10" s="123"/>
-      <c r="BH10" s="123"/>
-      <c r="BI10" s="123"/>
-      <c r="BJ10" s="123"/>
-      <c r="BK10" s="123"/>
-      <c r="BL10" s="123"/>
-      <c r="BM10" s="123"/>
-      <c r="BN10" s="123"/>
-      <c r="BO10" s="123"/>
-      <c r="BP10" s="123"/>
-      <c r="BQ10" s="123"/>
-      <c r="BR10" s="123"/>
-      <c r="BS10" s="123"/>
-      <c r="BT10" s="123"/>
-      <c r="BU10" s="123"/>
+      <c r="AN10" s="125"/>
+      <c r="AO10" s="125"/>
+      <c r="AP10" s="125"/>
+      <c r="AQ10" s="147"/>
+      <c r="AR10" s="147"/>
+      <c r="AS10" s="147"/>
+      <c r="AT10" s="147"/>
+      <c r="AU10" s="147"/>
+      <c r="AV10" s="147"/>
+      <c r="AW10" s="147"/>
+      <c r="AX10" s="147"/>
+      <c r="AY10" s="147"/>
+      <c r="AZ10" s="147"/>
+      <c r="BA10" s="147"/>
+      <c r="BB10" s="147"/>
+      <c r="BC10" s="147"/>
+      <c r="BD10" s="147"/>
+      <c r="BE10" s="125"/>
+      <c r="BF10" s="125"/>
+      <c r="BG10" s="125"/>
+      <c r="BH10" s="125"/>
+      <c r="BI10" s="125"/>
+      <c r="BJ10" s="125"/>
+      <c r="BK10" s="125"/>
+      <c r="BL10" s="125"/>
+      <c r="BM10" s="125"/>
+      <c r="BN10" s="125"/>
+      <c r="BO10" s="125"/>
+      <c r="BP10" s="125"/>
+      <c r="BQ10" s="125"/>
+      <c r="BR10" s="125"/>
+      <c r="BS10" s="125"/>
+      <c r="BT10" s="125"/>
+      <c r="BU10" s="125"/>
       <c r="BV10" s="14"/>
       <c r="BW10" s="14"/>
       <c r="BX10" s="14"/>
@@ -4661,81 +4828,81 @@
       <c r="DG10" s="14"/>
     </row>
     <row r="11" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B11" s="152" t="s">
+      <c r="B11" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="153"/>
-      <c r="D11" s="154"/>
-      <c r="E11" s="155" t="s">
+      <c r="C11" s="149"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="151" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="156"/>
-      <c r="K11" s="156"/>
-      <c r="L11" s="156"/>
-      <c r="M11" s="156"/>
-      <c r="N11" s="156"/>
-      <c r="O11" s="156"/>
-      <c r="P11" s="156"/>
-      <c r="Q11" s="156"/>
-      <c r="R11" s="157"/>
-      <c r="S11" s="158" t="s">
+      <c r="F11" s="152"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="152"/>
+      <c r="I11" s="152"/>
+      <c r="J11" s="152"/>
+      <c r="K11" s="152"/>
+      <c r="L11" s="152"/>
+      <c r="M11" s="152"/>
+      <c r="N11" s="152"/>
+      <c r="O11" s="152"/>
+      <c r="P11" s="152"/>
+      <c r="Q11" s="152"/>
+      <c r="R11" s="153"/>
+      <c r="S11" s="154" t="s">
         <v>28</v>
       </c>
-      <c r="T11" s="154"/>
-      <c r="U11" s="158"/>
-      <c r="V11" s="153"/>
-      <c r="W11" s="153"/>
-      <c r="X11" s="153"/>
-      <c r="Y11" s="153"/>
-      <c r="Z11" s="153"/>
-      <c r="AA11" s="154"/>
-      <c r="AB11" s="158"/>
-      <c r="AC11" s="153"/>
-      <c r="AD11" s="153"/>
-      <c r="AE11" s="153"/>
-      <c r="AF11" s="153"/>
-      <c r="AG11" s="153"/>
-      <c r="AH11" s="153"/>
-      <c r="AI11" s="159"/>
+      <c r="T11" s="150"/>
+      <c r="U11" s="154"/>
+      <c r="V11" s="149"/>
+      <c r="W11" s="149"/>
+      <c r="X11" s="149"/>
+      <c r="Y11" s="149"/>
+      <c r="Z11" s="149"/>
+      <c r="AA11" s="150"/>
+      <c r="AB11" s="154"/>
+      <c r="AC11" s="149"/>
+      <c r="AD11" s="149"/>
+      <c r="AE11" s="149"/>
+      <c r="AF11" s="149"/>
+      <c r="AG11" s="149"/>
+      <c r="AH11" s="149"/>
+      <c r="AI11" s="155"/>
       <c r="AM11" s="4"/>
-      <c r="AN11" s="123"/>
-      <c r="AO11" s="123"/>
-      <c r="AP11" s="123"/>
-      <c r="AQ11" s="128"/>
-      <c r="AR11" s="128"/>
-      <c r="AS11" s="128"/>
-      <c r="AT11" s="128"/>
-      <c r="AU11" s="128"/>
-      <c r="AV11" s="128"/>
-      <c r="AW11" s="128"/>
-      <c r="AX11" s="128"/>
-      <c r="AY11" s="128"/>
-      <c r="AZ11" s="128"/>
-      <c r="BA11" s="128"/>
-      <c r="BB11" s="128"/>
-      <c r="BC11" s="128"/>
-      <c r="BD11" s="128"/>
-      <c r="BE11" s="123"/>
-      <c r="BF11" s="123"/>
-      <c r="BG11" s="123"/>
-      <c r="BH11" s="123"/>
-      <c r="BI11" s="123"/>
-      <c r="BJ11" s="123"/>
-      <c r="BK11" s="123"/>
-      <c r="BL11" s="123"/>
-      <c r="BM11" s="123"/>
-      <c r="BN11" s="123"/>
-      <c r="BO11" s="123"/>
-      <c r="BP11" s="123"/>
-      <c r="BQ11" s="123"/>
-      <c r="BR11" s="123"/>
-      <c r="BS11" s="123"/>
-      <c r="BT11" s="123"/>
-      <c r="BU11" s="123"/>
+      <c r="AN11" s="125"/>
+      <c r="AO11" s="125"/>
+      <c r="AP11" s="125"/>
+      <c r="AQ11" s="147"/>
+      <c r="AR11" s="147"/>
+      <c r="AS11" s="147"/>
+      <c r="AT11" s="147"/>
+      <c r="AU11" s="147"/>
+      <c r="AV11" s="147"/>
+      <c r="AW11" s="147"/>
+      <c r="AX11" s="147"/>
+      <c r="AY11" s="147"/>
+      <c r="AZ11" s="147"/>
+      <c r="BA11" s="147"/>
+      <c r="BB11" s="147"/>
+      <c r="BC11" s="147"/>
+      <c r="BD11" s="147"/>
+      <c r="BE11" s="125"/>
+      <c r="BF11" s="125"/>
+      <c r="BG11" s="125"/>
+      <c r="BH11" s="125"/>
+      <c r="BI11" s="125"/>
+      <c r="BJ11" s="125"/>
+      <c r="BK11" s="125"/>
+      <c r="BL11" s="125"/>
+      <c r="BM11" s="125"/>
+      <c r="BN11" s="125"/>
+      <c r="BO11" s="125"/>
+      <c r="BP11" s="125"/>
+      <c r="BQ11" s="125"/>
+      <c r="BR11" s="125"/>
+      <c r="BS11" s="125"/>
+      <c r="BT11" s="125"/>
+      <c r="BU11" s="125"/>
       <c r="BV11" s="14"/>
       <c r="BW11" s="14"/>
       <c r="BX11" s="14"/>
@@ -4776,77 +4943,77 @@
       <c r="DG11" s="14"/>
     </row>
     <row r="12" spans="2:111" ht="30" customHeight="1">
-      <c r="B12" s="148" t="s">
+      <c r="B12" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="149"/>
-      <c r="D12" s="149"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="149"/>
-      <c r="G12" s="149"/>
-      <c r="H12" s="149"/>
-      <c r="I12" s="149"/>
-      <c r="J12" s="149"/>
-      <c r="K12" s="149"/>
-      <c r="L12" s="149"/>
-      <c r="M12" s="149"/>
-      <c r="N12" s="149"/>
-      <c r="O12" s="149"/>
-      <c r="P12" s="149"/>
-      <c r="Q12" s="149"/>
-      <c r="R12" s="149"/>
-      <c r="S12" s="149"/>
-      <c r="T12" s="149"/>
-      <c r="U12" s="149"/>
-      <c r="V12" s="149"/>
-      <c r="W12" s="149"/>
-      <c r="X12" s="149"/>
-      <c r="Y12" s="149"/>
-      <c r="Z12" s="149"/>
-      <c r="AA12" s="149"/>
-      <c r="AB12" s="149"/>
-      <c r="AC12" s="149"/>
-      <c r="AD12" s="149"/>
-      <c r="AE12" s="149"/>
-      <c r="AF12" s="149"/>
-      <c r="AG12" s="149"/>
-      <c r="AH12" s="149"/>
-      <c r="AI12" s="150"/>
+      <c r="C12" s="157"/>
+      <c r="D12" s="157"/>
+      <c r="E12" s="157"/>
+      <c r="F12" s="157"/>
+      <c r="G12" s="157"/>
+      <c r="H12" s="157"/>
+      <c r="I12" s="157"/>
+      <c r="J12" s="157"/>
+      <c r="K12" s="157"/>
+      <c r="L12" s="157"/>
+      <c r="M12" s="157"/>
+      <c r="N12" s="157"/>
+      <c r="O12" s="157"/>
+      <c r="P12" s="157"/>
+      <c r="Q12" s="157"/>
+      <c r="R12" s="157"/>
+      <c r="S12" s="157"/>
+      <c r="T12" s="157"/>
+      <c r="U12" s="157"/>
+      <c r="V12" s="157"/>
+      <c r="W12" s="157"/>
+      <c r="X12" s="157"/>
+      <c r="Y12" s="157"/>
+      <c r="Z12" s="157"/>
+      <c r="AA12" s="157"/>
+      <c r="AB12" s="157"/>
+      <c r="AC12" s="157"/>
+      <c r="AD12" s="157"/>
+      <c r="AE12" s="157"/>
+      <c r="AF12" s="157"/>
+      <c r="AG12" s="157"/>
+      <c r="AH12" s="157"/>
+      <c r="AI12" s="158"/>
       <c r="AM12" s="4"/>
-      <c r="AN12" s="151"/>
-      <c r="AO12" s="151"/>
-      <c r="AP12" s="151"/>
-      <c r="AQ12" s="151"/>
-      <c r="AR12" s="151"/>
-      <c r="AS12" s="151"/>
-      <c r="AT12" s="151"/>
-      <c r="AU12" s="151"/>
-      <c r="AV12" s="151"/>
-      <c r="AW12" s="151"/>
-      <c r="AX12" s="151"/>
-      <c r="AY12" s="151"/>
-      <c r="AZ12" s="151"/>
-      <c r="BA12" s="151"/>
-      <c r="BB12" s="151"/>
-      <c r="BC12" s="151"/>
-      <c r="BD12" s="151"/>
-      <c r="BE12" s="151"/>
-      <c r="BF12" s="151"/>
-      <c r="BG12" s="151"/>
-      <c r="BH12" s="151"/>
-      <c r="BI12" s="151"/>
-      <c r="BJ12" s="151"/>
-      <c r="BK12" s="151"/>
-      <c r="BL12" s="151"/>
-      <c r="BM12" s="151"/>
-      <c r="BN12" s="151"/>
-      <c r="BO12" s="151"/>
-      <c r="BP12" s="151"/>
-      <c r="BQ12" s="151"/>
-      <c r="BR12" s="151"/>
-      <c r="BS12" s="151"/>
-      <c r="BT12" s="151"/>
-      <c r="BU12" s="151"/>
+      <c r="AN12" s="159"/>
+      <c r="AO12" s="159"/>
+      <c r="AP12" s="159"/>
+      <c r="AQ12" s="159"/>
+      <c r="AR12" s="159"/>
+      <c r="AS12" s="159"/>
+      <c r="AT12" s="159"/>
+      <c r="AU12" s="159"/>
+      <c r="AV12" s="159"/>
+      <c r="AW12" s="159"/>
+      <c r="AX12" s="159"/>
+      <c r="AY12" s="159"/>
+      <c r="AZ12" s="159"/>
+      <c r="BA12" s="159"/>
+      <c r="BB12" s="159"/>
+      <c r="BC12" s="159"/>
+      <c r="BD12" s="159"/>
+      <c r="BE12" s="159"/>
+      <c r="BF12" s="159"/>
+      <c r="BG12" s="159"/>
+      <c r="BH12" s="159"/>
+      <c r="BI12" s="159"/>
+      <c r="BJ12" s="159"/>
+      <c r="BK12" s="159"/>
+      <c r="BL12" s="159"/>
+      <c r="BM12" s="159"/>
+      <c r="BN12" s="159"/>
+      <c r="BO12" s="159"/>
+      <c r="BP12" s="159"/>
+      <c r="BQ12" s="159"/>
+      <c r="BR12" s="159"/>
+      <c r="BS12" s="159"/>
+      <c r="BT12" s="159"/>
+      <c r="BU12" s="159"/>
       <c r="BV12" s="14"/>
       <c r="BW12" s="14"/>
       <c r="BX12" s="14"/>
@@ -4887,83 +5054,83 @@
       <c r="DG12" s="14"/>
     </row>
     <row r="13" spans="2:111" ht="30" customHeight="1">
-      <c r="B13" s="143" t="s">
+      <c r="B13" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="144"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="146" t="s">
+      <c r="C13" s="174"/>
+      <c r="D13" s="174"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="174"/>
+      <c r="H13" s="174"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="144"/>
-      <c r="L13" s="144"/>
-      <c r="M13" s="144"/>
-      <c r="N13" s="144"/>
-      <c r="O13" s="144"/>
-      <c r="P13" s="144"/>
-      <c r="Q13" s="144"/>
-      <c r="R13" s="145"/>
-      <c r="S13" s="146" t="s">
+      <c r="K13" s="174"/>
+      <c r="L13" s="174"/>
+      <c r="M13" s="174"/>
+      <c r="N13" s="174"/>
+      <c r="O13" s="174"/>
+      <c r="P13" s="174"/>
+      <c r="Q13" s="174"/>
+      <c r="R13" s="175"/>
+      <c r="S13" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="T13" s="144"/>
-      <c r="U13" s="144"/>
-      <c r="V13" s="144"/>
-      <c r="W13" s="144"/>
-      <c r="X13" s="144"/>
-      <c r="Y13" s="144"/>
-      <c r="Z13" s="144"/>
-      <c r="AA13" s="145"/>
-      <c r="AB13" s="146" t="s">
+      <c r="T13" s="174"/>
+      <c r="U13" s="174"/>
+      <c r="V13" s="174"/>
+      <c r="W13" s="174"/>
+      <c r="X13" s="174"/>
+      <c r="Y13" s="174"/>
+      <c r="Z13" s="174"/>
+      <c r="AA13" s="175"/>
+      <c r="AB13" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="AC13" s="144"/>
-      <c r="AD13" s="144"/>
-      <c r="AE13" s="144"/>
-      <c r="AF13" s="144"/>
-      <c r="AG13" s="144"/>
-      <c r="AH13" s="144"/>
-      <c r="AI13" s="147"/>
+      <c r="AC13" s="174"/>
+      <c r="AD13" s="174"/>
+      <c r="AE13" s="174"/>
+      <c r="AF13" s="174"/>
+      <c r="AG13" s="174"/>
+      <c r="AH13" s="174"/>
+      <c r="AI13" s="177"/>
       <c r="AM13" s="4"/>
-      <c r="AN13" s="142"/>
-      <c r="AO13" s="142"/>
-      <c r="AP13" s="142"/>
-      <c r="AQ13" s="142"/>
-      <c r="AR13" s="142"/>
-      <c r="AS13" s="142"/>
-      <c r="AT13" s="142"/>
-      <c r="AU13" s="142"/>
-      <c r="AV13" s="142"/>
-      <c r="AW13" s="142"/>
-      <c r="AX13" s="142"/>
-      <c r="AY13" s="142"/>
-      <c r="AZ13" s="142"/>
-      <c r="BA13" s="142"/>
-      <c r="BB13" s="142"/>
-      <c r="BC13" s="142"/>
-      <c r="BD13" s="142"/>
-      <c r="BE13" s="142"/>
-      <c r="BF13" s="142"/>
-      <c r="BG13" s="142"/>
-      <c r="BH13" s="142"/>
-      <c r="BI13" s="142"/>
-      <c r="BJ13" s="142"/>
-      <c r="BK13" s="142"/>
-      <c r="BL13" s="142"/>
-      <c r="BM13" s="142"/>
-      <c r="BN13" s="142"/>
-      <c r="BO13" s="142"/>
-      <c r="BP13" s="142"/>
-      <c r="BQ13" s="142"/>
-      <c r="BR13" s="142"/>
-      <c r="BS13" s="142"/>
-      <c r="BT13" s="142"/>
-      <c r="BU13" s="142"/>
+      <c r="AN13" s="160"/>
+      <c r="AO13" s="160"/>
+      <c r="AP13" s="160"/>
+      <c r="AQ13" s="160"/>
+      <c r="AR13" s="160"/>
+      <c r="AS13" s="160"/>
+      <c r="AT13" s="160"/>
+      <c r="AU13" s="160"/>
+      <c r="AV13" s="160"/>
+      <c r="AW13" s="160"/>
+      <c r="AX13" s="160"/>
+      <c r="AY13" s="160"/>
+      <c r="AZ13" s="160"/>
+      <c r="BA13" s="160"/>
+      <c r="BB13" s="160"/>
+      <c r="BC13" s="160"/>
+      <c r="BD13" s="160"/>
+      <c r="BE13" s="160"/>
+      <c r="BF13" s="160"/>
+      <c r="BG13" s="160"/>
+      <c r="BH13" s="160"/>
+      <c r="BI13" s="160"/>
+      <c r="BJ13" s="160"/>
+      <c r="BK13" s="160"/>
+      <c r="BL13" s="160"/>
+      <c r="BM13" s="160"/>
+      <c r="BN13" s="160"/>
+      <c r="BO13" s="160"/>
+      <c r="BP13" s="160"/>
+      <c r="BQ13" s="160"/>
+      <c r="BR13" s="160"/>
+      <c r="BS13" s="160"/>
+      <c r="BT13" s="160"/>
+      <c r="BU13" s="160"/>
       <c r="BV13" s="14"/>
       <c r="BW13" s="14"/>
       <c r="BX13" s="14"/>
@@ -5004,75 +5171,75 @@
       <c r="DG13" s="14"/>
     </row>
     <row r="14" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B14" s="130"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="131"/>
-      <c r="L14" s="131"/>
-      <c r="M14" s="131"/>
-      <c r="N14" s="131"/>
-      <c r="O14" s="131"/>
-      <c r="P14" s="131"/>
-      <c r="Q14" s="131"/>
-      <c r="R14" s="132"/>
-      <c r="S14" s="134"/>
-      <c r="T14" s="135"/>
-      <c r="U14" s="135"/>
-      <c r="V14" s="135"/>
-      <c r="W14" s="135"/>
-      <c r="X14" s="135"/>
-      <c r="Y14" s="135"/>
-      <c r="Z14" s="135"/>
-      <c r="AA14" s="136"/>
-      <c r="AB14" s="139"/>
-      <c r="AC14" s="131"/>
-      <c r="AD14" s="131"/>
-      <c r="AE14" s="131"/>
-      <c r="AF14" s="131"/>
-      <c r="AG14" s="131"/>
-      <c r="AH14" s="131"/>
-      <c r="AI14" s="137"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="162"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="162"/>
+      <c r="H14" s="162"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="164"/>
+      <c r="K14" s="162"/>
+      <c r="L14" s="162"/>
+      <c r="M14" s="162"/>
+      <c r="N14" s="162"/>
+      <c r="O14" s="162"/>
+      <c r="P14" s="162"/>
+      <c r="Q14" s="162"/>
+      <c r="R14" s="163"/>
+      <c r="S14" s="165"/>
+      <c r="T14" s="166"/>
+      <c r="U14" s="166"/>
+      <c r="V14" s="166"/>
+      <c r="W14" s="166"/>
+      <c r="X14" s="166"/>
+      <c r="Y14" s="166"/>
+      <c r="Z14" s="166"/>
+      <c r="AA14" s="167"/>
+      <c r="AB14" s="168"/>
+      <c r="AC14" s="162"/>
+      <c r="AD14" s="162"/>
+      <c r="AE14" s="162"/>
+      <c r="AF14" s="162"/>
+      <c r="AG14" s="162"/>
+      <c r="AH14" s="162"/>
+      <c r="AI14" s="169"/>
       <c r="AM14" s="4"/>
-      <c r="AN14" s="126"/>
-      <c r="AO14" s="126"/>
-      <c r="AP14" s="126"/>
-      <c r="AQ14" s="126"/>
-      <c r="AR14" s="126"/>
-      <c r="AS14" s="126"/>
-      <c r="AT14" s="126"/>
-      <c r="AU14" s="126"/>
-      <c r="AV14" s="126"/>
-      <c r="AW14" s="126"/>
-      <c r="AX14" s="126"/>
-      <c r="AY14" s="126"/>
-      <c r="AZ14" s="126"/>
-      <c r="BA14" s="126"/>
-      <c r="BB14" s="126"/>
-      <c r="BC14" s="126"/>
-      <c r="BD14" s="126"/>
-      <c r="BE14" s="125"/>
-      <c r="BF14" s="125"/>
-      <c r="BG14" s="125"/>
-      <c r="BH14" s="125"/>
-      <c r="BI14" s="125"/>
-      <c r="BJ14" s="125"/>
-      <c r="BK14" s="125"/>
-      <c r="BL14" s="125"/>
-      <c r="BM14" s="125"/>
-      <c r="BN14" s="138"/>
-      <c r="BO14" s="126"/>
-      <c r="BP14" s="126"/>
-      <c r="BQ14" s="126"/>
-      <c r="BR14" s="126"/>
-      <c r="BS14" s="126"/>
-      <c r="BT14" s="126"/>
-      <c r="BU14" s="126"/>
+      <c r="AN14" s="170"/>
+      <c r="AO14" s="170"/>
+      <c r="AP14" s="170"/>
+      <c r="AQ14" s="170"/>
+      <c r="AR14" s="170"/>
+      <c r="AS14" s="170"/>
+      <c r="AT14" s="170"/>
+      <c r="AU14" s="170"/>
+      <c r="AV14" s="170"/>
+      <c r="AW14" s="170"/>
+      <c r="AX14" s="170"/>
+      <c r="AY14" s="170"/>
+      <c r="AZ14" s="170"/>
+      <c r="BA14" s="170"/>
+      <c r="BB14" s="170"/>
+      <c r="BC14" s="170"/>
+      <c r="BD14" s="170"/>
+      <c r="BE14" s="171"/>
+      <c r="BF14" s="171"/>
+      <c r="BG14" s="171"/>
+      <c r="BH14" s="171"/>
+      <c r="BI14" s="171"/>
+      <c r="BJ14" s="171"/>
+      <c r="BK14" s="171"/>
+      <c r="BL14" s="171"/>
+      <c r="BM14" s="171"/>
+      <c r="BN14" s="172"/>
+      <c r="BO14" s="170"/>
+      <c r="BP14" s="170"/>
+      <c r="BQ14" s="170"/>
+      <c r="BR14" s="170"/>
+      <c r="BS14" s="170"/>
+      <c r="BT14" s="170"/>
+      <c r="BU14" s="170"/>
       <c r="BV14" s="26"/>
       <c r="BW14" s="26"/>
       <c r="BX14" s="26"/>
@@ -5113,75 +5280,75 @@
       <c r="DG14" s="5"/>
     </row>
     <row r="15" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B15" s="130"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="131"/>
-      <c r="H15" s="131"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="133"/>
-      <c r="K15" s="131"/>
-      <c r="L15" s="131"/>
-      <c r="M15" s="131"/>
-      <c r="N15" s="131"/>
-      <c r="O15" s="131"/>
-      <c r="P15" s="131"/>
-      <c r="Q15" s="131"/>
-      <c r="R15" s="132"/>
-      <c r="S15" s="134"/>
-      <c r="T15" s="135"/>
-      <c r="U15" s="135"/>
-      <c r="V15" s="135"/>
-      <c r="W15" s="135"/>
-      <c r="X15" s="135"/>
-      <c r="Y15" s="135"/>
-      <c r="Z15" s="135"/>
-      <c r="AA15" s="136"/>
-      <c r="AB15" s="139"/>
-      <c r="AC15" s="131"/>
-      <c r="AD15" s="131"/>
-      <c r="AE15" s="131"/>
-      <c r="AF15" s="131"/>
-      <c r="AG15" s="131"/>
-      <c r="AH15" s="131"/>
-      <c r="AI15" s="137"/>
+      <c r="B15" s="161"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="162"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="162"/>
+      <c r="H15" s="162"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="164"/>
+      <c r="K15" s="162"/>
+      <c r="L15" s="162"/>
+      <c r="M15" s="162"/>
+      <c r="N15" s="162"/>
+      <c r="O15" s="162"/>
+      <c r="P15" s="162"/>
+      <c r="Q15" s="162"/>
+      <c r="R15" s="163"/>
+      <c r="S15" s="165"/>
+      <c r="T15" s="166"/>
+      <c r="U15" s="166"/>
+      <c r="V15" s="166"/>
+      <c r="W15" s="166"/>
+      <c r="X15" s="166"/>
+      <c r="Y15" s="166"/>
+      <c r="Z15" s="166"/>
+      <c r="AA15" s="167"/>
+      <c r="AB15" s="168"/>
+      <c r="AC15" s="162"/>
+      <c r="AD15" s="162"/>
+      <c r="AE15" s="162"/>
+      <c r="AF15" s="162"/>
+      <c r="AG15" s="162"/>
+      <c r="AH15" s="162"/>
+      <c r="AI15" s="169"/>
       <c r="AM15" s="4"/>
-      <c r="AN15" s="126"/>
-      <c r="AO15" s="126"/>
-      <c r="AP15" s="126"/>
-      <c r="AQ15" s="126"/>
-      <c r="AR15" s="126"/>
-      <c r="AS15" s="126"/>
-      <c r="AT15" s="126"/>
-      <c r="AU15" s="126"/>
-      <c r="AV15" s="126"/>
-      <c r="AW15" s="126"/>
-      <c r="AX15" s="126"/>
-      <c r="AY15" s="126"/>
-      <c r="AZ15" s="126"/>
-      <c r="BA15" s="126"/>
-      <c r="BB15" s="126"/>
-      <c r="BC15" s="126"/>
-      <c r="BD15" s="126"/>
-      <c r="BE15" s="125"/>
-      <c r="BF15" s="125"/>
-      <c r="BG15" s="125"/>
-      <c r="BH15" s="125"/>
-      <c r="BI15" s="125"/>
-      <c r="BJ15" s="125"/>
-      <c r="BK15" s="125"/>
-      <c r="BL15" s="125"/>
-      <c r="BM15" s="125"/>
-      <c r="BN15" s="138"/>
-      <c r="BO15" s="126"/>
-      <c r="BP15" s="126"/>
-      <c r="BQ15" s="126"/>
-      <c r="BR15" s="126"/>
-      <c r="BS15" s="126"/>
-      <c r="BT15" s="126"/>
-      <c r="BU15" s="126"/>
+      <c r="AN15" s="170"/>
+      <c r="AO15" s="170"/>
+      <c r="AP15" s="170"/>
+      <c r="AQ15" s="170"/>
+      <c r="AR15" s="170"/>
+      <c r="AS15" s="170"/>
+      <c r="AT15" s="170"/>
+      <c r="AU15" s="170"/>
+      <c r="AV15" s="170"/>
+      <c r="AW15" s="170"/>
+      <c r="AX15" s="170"/>
+      <c r="AY15" s="170"/>
+      <c r="AZ15" s="170"/>
+      <c r="BA15" s="170"/>
+      <c r="BB15" s="170"/>
+      <c r="BC15" s="170"/>
+      <c r="BD15" s="170"/>
+      <c r="BE15" s="171"/>
+      <c r="BF15" s="171"/>
+      <c r="BG15" s="171"/>
+      <c r="BH15" s="171"/>
+      <c r="BI15" s="171"/>
+      <c r="BJ15" s="171"/>
+      <c r="BK15" s="171"/>
+      <c r="BL15" s="171"/>
+      <c r="BM15" s="171"/>
+      <c r="BN15" s="172"/>
+      <c r="BO15" s="170"/>
+      <c r="BP15" s="170"/>
+      <c r="BQ15" s="170"/>
+      <c r="BR15" s="170"/>
+      <c r="BS15" s="170"/>
+      <c r="BT15" s="170"/>
+      <c r="BU15" s="170"/>
       <c r="BV15" s="26"/>
       <c r="BW15" s="26"/>
       <c r="BX15" s="26"/>
@@ -5222,75 +5389,75 @@
       <c r="DG15" s="5"/>
     </row>
     <row r="16" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B16" s="130"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="133"/>
-      <c r="K16" s="131"/>
-      <c r="L16" s="131"/>
-      <c r="M16" s="131"/>
-      <c r="N16" s="131"/>
-      <c r="O16" s="131"/>
-      <c r="P16" s="131"/>
-      <c r="Q16" s="131"/>
-      <c r="R16" s="132"/>
-      <c r="S16" s="134"/>
-      <c r="T16" s="135"/>
-      <c r="U16" s="135"/>
-      <c r="V16" s="135"/>
-      <c r="W16" s="135"/>
-      <c r="X16" s="135"/>
-      <c r="Y16" s="135"/>
-      <c r="Z16" s="135"/>
-      <c r="AA16" s="136"/>
-      <c r="AB16" s="139"/>
-      <c r="AC16" s="131"/>
-      <c r="AD16" s="131"/>
-      <c r="AE16" s="131"/>
-      <c r="AF16" s="131"/>
-      <c r="AG16" s="131"/>
-      <c r="AH16" s="131"/>
-      <c r="AI16" s="137"/>
+      <c r="B16" s="161"/>
+      <c r="C16" s="162"/>
+      <c r="D16" s="162"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="162"/>
+      <c r="G16" s="162"/>
+      <c r="H16" s="162"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="162"/>
+      <c r="L16" s="162"/>
+      <c r="M16" s="162"/>
+      <c r="N16" s="162"/>
+      <c r="O16" s="162"/>
+      <c r="P16" s="162"/>
+      <c r="Q16" s="162"/>
+      <c r="R16" s="163"/>
+      <c r="S16" s="165"/>
+      <c r="T16" s="166"/>
+      <c r="U16" s="166"/>
+      <c r="V16" s="166"/>
+      <c r="W16" s="166"/>
+      <c r="X16" s="166"/>
+      <c r="Y16" s="166"/>
+      <c r="Z16" s="166"/>
+      <c r="AA16" s="167"/>
+      <c r="AB16" s="168"/>
+      <c r="AC16" s="162"/>
+      <c r="AD16" s="162"/>
+      <c r="AE16" s="162"/>
+      <c r="AF16" s="162"/>
+      <c r="AG16" s="162"/>
+      <c r="AH16" s="162"/>
+      <c r="AI16" s="169"/>
       <c r="AM16" s="4"/>
-      <c r="AN16" s="126"/>
-      <c r="AO16" s="126"/>
-      <c r="AP16" s="126"/>
-      <c r="AQ16" s="126"/>
-      <c r="AR16" s="126"/>
-      <c r="AS16" s="126"/>
-      <c r="AT16" s="126"/>
-      <c r="AU16" s="126"/>
-      <c r="AV16" s="126"/>
-      <c r="AW16" s="126"/>
-      <c r="AX16" s="126"/>
-      <c r="AY16" s="126"/>
-      <c r="AZ16" s="126"/>
-      <c r="BA16" s="126"/>
-      <c r="BB16" s="126"/>
-      <c r="BC16" s="126"/>
-      <c r="BD16" s="126"/>
-      <c r="BE16" s="125"/>
-      <c r="BF16" s="125"/>
-      <c r="BG16" s="125"/>
-      <c r="BH16" s="125"/>
-      <c r="BI16" s="125"/>
-      <c r="BJ16" s="125"/>
-      <c r="BK16" s="125"/>
-      <c r="BL16" s="125"/>
-      <c r="BM16" s="125"/>
-      <c r="BN16" s="138"/>
-      <c r="BO16" s="126"/>
-      <c r="BP16" s="126"/>
-      <c r="BQ16" s="126"/>
-      <c r="BR16" s="126"/>
-      <c r="BS16" s="126"/>
-      <c r="BT16" s="126"/>
-      <c r="BU16" s="126"/>
+      <c r="AN16" s="170"/>
+      <c r="AO16" s="170"/>
+      <c r="AP16" s="170"/>
+      <c r="AQ16" s="170"/>
+      <c r="AR16" s="170"/>
+      <c r="AS16" s="170"/>
+      <c r="AT16" s="170"/>
+      <c r="AU16" s="170"/>
+      <c r="AV16" s="170"/>
+      <c r="AW16" s="170"/>
+      <c r="AX16" s="170"/>
+      <c r="AY16" s="170"/>
+      <c r="AZ16" s="170"/>
+      <c r="BA16" s="170"/>
+      <c r="BB16" s="170"/>
+      <c r="BC16" s="170"/>
+      <c r="BD16" s="170"/>
+      <c r="BE16" s="171"/>
+      <c r="BF16" s="171"/>
+      <c r="BG16" s="171"/>
+      <c r="BH16" s="171"/>
+      <c r="BI16" s="171"/>
+      <c r="BJ16" s="171"/>
+      <c r="BK16" s="171"/>
+      <c r="BL16" s="171"/>
+      <c r="BM16" s="171"/>
+      <c r="BN16" s="172"/>
+      <c r="BO16" s="170"/>
+      <c r="BP16" s="170"/>
+      <c r="BQ16" s="170"/>
+      <c r="BR16" s="170"/>
+      <c r="BS16" s="170"/>
+      <c r="BT16" s="170"/>
+      <c r="BU16" s="170"/>
       <c r="BV16" s="26"/>
       <c r="BW16" s="26"/>
       <c r="BX16" s="26"/>
@@ -5331,75 +5498,75 @@
       <c r="DG16" s="5"/>
     </row>
     <row r="17" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B17" s="130"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="133"/>
-      <c r="K17" s="131"/>
-      <c r="L17" s="131"/>
-      <c r="M17" s="131"/>
-      <c r="N17" s="131"/>
-      <c r="O17" s="131"/>
-      <c r="P17" s="131"/>
-      <c r="Q17" s="131"/>
-      <c r="R17" s="132"/>
-      <c r="S17" s="134"/>
-      <c r="T17" s="135"/>
-      <c r="U17" s="135"/>
-      <c r="V17" s="135"/>
-      <c r="W17" s="135"/>
-      <c r="X17" s="135"/>
-      <c r="Y17" s="135"/>
-      <c r="Z17" s="135"/>
-      <c r="AA17" s="136"/>
-      <c r="AB17" s="139"/>
-      <c r="AC17" s="140"/>
-      <c r="AD17" s="140"/>
-      <c r="AE17" s="140"/>
-      <c r="AF17" s="140"/>
-      <c r="AG17" s="140"/>
-      <c r="AH17" s="140"/>
-      <c r="AI17" s="141"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="162"/>
+      <c r="D17" s="162"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="162"/>
+      <c r="G17" s="162"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="164"/>
+      <c r="K17" s="162"/>
+      <c r="L17" s="162"/>
+      <c r="M17" s="162"/>
+      <c r="N17" s="162"/>
+      <c r="O17" s="162"/>
+      <c r="P17" s="162"/>
+      <c r="Q17" s="162"/>
+      <c r="R17" s="163"/>
+      <c r="S17" s="165"/>
+      <c r="T17" s="166"/>
+      <c r="U17" s="166"/>
+      <c r="V17" s="166"/>
+      <c r="W17" s="166"/>
+      <c r="X17" s="166"/>
+      <c r="Y17" s="166"/>
+      <c r="Z17" s="166"/>
+      <c r="AA17" s="167"/>
+      <c r="AB17" s="168"/>
+      <c r="AC17" s="178"/>
+      <c r="AD17" s="178"/>
+      <c r="AE17" s="178"/>
+      <c r="AF17" s="178"/>
+      <c r="AG17" s="178"/>
+      <c r="AH17" s="178"/>
+      <c r="AI17" s="179"/>
       <c r="AM17" s="4"/>
-      <c r="AN17" s="126"/>
-      <c r="AO17" s="126"/>
-      <c r="AP17" s="126"/>
-      <c r="AQ17" s="126"/>
-      <c r="AR17" s="126"/>
-      <c r="AS17" s="126"/>
-      <c r="AT17" s="126"/>
-      <c r="AU17" s="126"/>
-      <c r="AV17" s="126"/>
-      <c r="AW17" s="126"/>
-      <c r="AX17" s="126"/>
-      <c r="AY17" s="126"/>
-      <c r="AZ17" s="126"/>
-      <c r="BA17" s="126"/>
-      <c r="BB17" s="126"/>
-      <c r="BC17" s="126"/>
-      <c r="BD17" s="126"/>
-      <c r="BE17" s="125"/>
-      <c r="BF17" s="125"/>
-      <c r="BG17" s="125"/>
-      <c r="BH17" s="125"/>
-      <c r="BI17" s="125"/>
-      <c r="BJ17" s="125"/>
-      <c r="BK17" s="125"/>
-      <c r="BL17" s="125"/>
-      <c r="BM17" s="125"/>
-      <c r="BN17" s="138"/>
-      <c r="BO17" s="126"/>
-      <c r="BP17" s="126"/>
-      <c r="BQ17" s="126"/>
-      <c r="BR17" s="126"/>
-      <c r="BS17" s="126"/>
-      <c r="BT17" s="126"/>
-      <c r="BU17" s="126"/>
+      <c r="AN17" s="170"/>
+      <c r="AO17" s="170"/>
+      <c r="AP17" s="170"/>
+      <c r="AQ17" s="170"/>
+      <c r="AR17" s="170"/>
+      <c r="AS17" s="170"/>
+      <c r="AT17" s="170"/>
+      <c r="AU17" s="170"/>
+      <c r="AV17" s="170"/>
+      <c r="AW17" s="170"/>
+      <c r="AX17" s="170"/>
+      <c r="AY17" s="170"/>
+      <c r="AZ17" s="170"/>
+      <c r="BA17" s="170"/>
+      <c r="BB17" s="170"/>
+      <c r="BC17" s="170"/>
+      <c r="BD17" s="170"/>
+      <c r="BE17" s="171"/>
+      <c r="BF17" s="171"/>
+      <c r="BG17" s="171"/>
+      <c r="BH17" s="171"/>
+      <c r="BI17" s="171"/>
+      <c r="BJ17" s="171"/>
+      <c r="BK17" s="171"/>
+      <c r="BL17" s="171"/>
+      <c r="BM17" s="171"/>
+      <c r="BN17" s="172"/>
+      <c r="BO17" s="170"/>
+      <c r="BP17" s="170"/>
+      <c r="BQ17" s="170"/>
+      <c r="BR17" s="170"/>
+      <c r="BS17" s="170"/>
+      <c r="BT17" s="170"/>
+      <c r="BU17" s="170"/>
       <c r="BV17" s="26"/>
       <c r="BW17" s="26"/>
       <c r="BX17" s="26"/>
@@ -5440,75 +5607,75 @@
       <c r="DG17" s="5"/>
     </row>
     <row r="18" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B18" s="130"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="131"/>
-      <c r="G18" s="131"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="133"/>
-      <c r="K18" s="131"/>
-      <c r="L18" s="131"/>
-      <c r="M18" s="131"/>
-      <c r="N18" s="131"/>
-      <c r="O18" s="131"/>
-      <c r="P18" s="131"/>
-      <c r="Q18" s="131"/>
-      <c r="R18" s="132"/>
-      <c r="S18" s="134"/>
-      <c r="T18" s="135"/>
-      <c r="U18" s="135"/>
-      <c r="V18" s="135"/>
-      <c r="W18" s="135"/>
-      <c r="X18" s="135"/>
-      <c r="Y18" s="135"/>
-      <c r="Z18" s="135"/>
-      <c r="AA18" s="136"/>
-      <c r="AB18" s="139"/>
-      <c r="AC18" s="131"/>
-      <c r="AD18" s="131"/>
-      <c r="AE18" s="131"/>
-      <c r="AF18" s="131"/>
-      <c r="AG18" s="131"/>
-      <c r="AH18" s="131"/>
-      <c r="AI18" s="137"/>
+      <c r="B18" s="161"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="162"/>
+      <c r="E18" s="162"/>
+      <c r="F18" s="162"/>
+      <c r="G18" s="162"/>
+      <c r="H18" s="162"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="164"/>
+      <c r="K18" s="162"/>
+      <c r="L18" s="162"/>
+      <c r="M18" s="162"/>
+      <c r="N18" s="162"/>
+      <c r="O18" s="162"/>
+      <c r="P18" s="162"/>
+      <c r="Q18" s="162"/>
+      <c r="R18" s="163"/>
+      <c r="S18" s="165"/>
+      <c r="T18" s="166"/>
+      <c r="U18" s="166"/>
+      <c r="V18" s="166"/>
+      <c r="W18" s="166"/>
+      <c r="X18" s="166"/>
+      <c r="Y18" s="166"/>
+      <c r="Z18" s="166"/>
+      <c r="AA18" s="167"/>
+      <c r="AB18" s="168"/>
+      <c r="AC18" s="162"/>
+      <c r="AD18" s="162"/>
+      <c r="AE18" s="162"/>
+      <c r="AF18" s="162"/>
+      <c r="AG18" s="162"/>
+      <c r="AH18" s="162"/>
+      <c r="AI18" s="169"/>
       <c r="AM18" s="4"/>
-      <c r="AN18" s="126"/>
-      <c r="AO18" s="126"/>
-      <c r="AP18" s="126"/>
-      <c r="AQ18" s="126"/>
-      <c r="AR18" s="126"/>
-      <c r="AS18" s="126"/>
-      <c r="AT18" s="126"/>
-      <c r="AU18" s="126"/>
-      <c r="AV18" s="126"/>
-      <c r="AW18" s="126"/>
-      <c r="AX18" s="126"/>
-      <c r="AY18" s="126"/>
-      <c r="AZ18" s="126"/>
-      <c r="BA18" s="126"/>
-      <c r="BB18" s="126"/>
-      <c r="BC18" s="126"/>
-      <c r="BD18" s="126"/>
-      <c r="BE18" s="125"/>
-      <c r="BF18" s="125"/>
-      <c r="BG18" s="125"/>
-      <c r="BH18" s="125"/>
-      <c r="BI18" s="125"/>
-      <c r="BJ18" s="125"/>
-      <c r="BK18" s="125"/>
-      <c r="BL18" s="125"/>
-      <c r="BM18" s="125"/>
-      <c r="BN18" s="138"/>
-      <c r="BO18" s="126"/>
-      <c r="BP18" s="126"/>
-      <c r="BQ18" s="126"/>
-      <c r="BR18" s="126"/>
-      <c r="BS18" s="126"/>
-      <c r="BT18" s="126"/>
-      <c r="BU18" s="126"/>
+      <c r="AN18" s="170"/>
+      <c r="AO18" s="170"/>
+      <c r="AP18" s="170"/>
+      <c r="AQ18" s="170"/>
+      <c r="AR18" s="170"/>
+      <c r="AS18" s="170"/>
+      <c r="AT18" s="170"/>
+      <c r="AU18" s="170"/>
+      <c r="AV18" s="170"/>
+      <c r="AW18" s="170"/>
+      <c r="AX18" s="170"/>
+      <c r="AY18" s="170"/>
+      <c r="AZ18" s="170"/>
+      <c r="BA18" s="170"/>
+      <c r="BB18" s="170"/>
+      <c r="BC18" s="170"/>
+      <c r="BD18" s="170"/>
+      <c r="BE18" s="171"/>
+      <c r="BF18" s="171"/>
+      <c r="BG18" s="171"/>
+      <c r="BH18" s="171"/>
+      <c r="BI18" s="171"/>
+      <c r="BJ18" s="171"/>
+      <c r="BK18" s="171"/>
+      <c r="BL18" s="171"/>
+      <c r="BM18" s="171"/>
+      <c r="BN18" s="172"/>
+      <c r="BO18" s="170"/>
+      <c r="BP18" s="170"/>
+      <c r="BQ18" s="170"/>
+      <c r="BR18" s="170"/>
+      <c r="BS18" s="170"/>
+      <c r="BT18" s="170"/>
+      <c r="BU18" s="170"/>
       <c r="BV18" s="26"/>
       <c r="BW18" s="26"/>
       <c r="BX18" s="26"/>
@@ -5549,75 +5716,75 @@
       <c r="DG18" s="5"/>
     </row>
     <row r="19" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B19" s="130"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
-      <c r="K19" s="131"/>
-      <c r="L19" s="131"/>
-      <c r="M19" s="131"/>
-      <c r="N19" s="131"/>
-      <c r="O19" s="131"/>
-      <c r="P19" s="131"/>
-      <c r="Q19" s="131"/>
-      <c r="R19" s="132"/>
-      <c r="S19" s="134"/>
-      <c r="T19" s="135"/>
-      <c r="U19" s="135"/>
-      <c r="V19" s="135"/>
-      <c r="W19" s="135"/>
-      <c r="X19" s="135"/>
-      <c r="Y19" s="135"/>
-      <c r="Z19" s="135"/>
-      <c r="AA19" s="136"/>
-      <c r="AB19" s="139"/>
-      <c r="AC19" s="131"/>
-      <c r="AD19" s="131"/>
-      <c r="AE19" s="131"/>
-      <c r="AF19" s="131"/>
-      <c r="AG19" s="131"/>
-      <c r="AH19" s="131"/>
-      <c r="AI19" s="137"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="162"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="163"/>
+      <c r="J19" s="164"/>
+      <c r="K19" s="162"/>
+      <c r="L19" s="162"/>
+      <c r="M19" s="162"/>
+      <c r="N19" s="162"/>
+      <c r="O19" s="162"/>
+      <c r="P19" s="162"/>
+      <c r="Q19" s="162"/>
+      <c r="R19" s="163"/>
+      <c r="S19" s="165"/>
+      <c r="T19" s="166"/>
+      <c r="U19" s="166"/>
+      <c r="V19" s="166"/>
+      <c r="W19" s="166"/>
+      <c r="X19" s="166"/>
+      <c r="Y19" s="166"/>
+      <c r="Z19" s="166"/>
+      <c r="AA19" s="167"/>
+      <c r="AB19" s="168"/>
+      <c r="AC19" s="162"/>
+      <c r="AD19" s="162"/>
+      <c r="AE19" s="162"/>
+      <c r="AF19" s="162"/>
+      <c r="AG19" s="162"/>
+      <c r="AH19" s="162"/>
+      <c r="AI19" s="169"/>
       <c r="AM19" s="4"/>
-      <c r="AN19" s="126"/>
-      <c r="AO19" s="126"/>
-      <c r="AP19" s="126"/>
-      <c r="AQ19" s="126"/>
-      <c r="AR19" s="126"/>
-      <c r="AS19" s="126"/>
-      <c r="AT19" s="126"/>
-      <c r="AU19" s="126"/>
-      <c r="AV19" s="126"/>
-      <c r="AW19" s="126"/>
-      <c r="AX19" s="126"/>
-      <c r="AY19" s="126"/>
-      <c r="AZ19" s="126"/>
-      <c r="BA19" s="126"/>
-      <c r="BB19" s="126"/>
-      <c r="BC19" s="126"/>
-      <c r="BD19" s="126"/>
-      <c r="BE19" s="125"/>
-      <c r="BF19" s="125"/>
-      <c r="BG19" s="125"/>
-      <c r="BH19" s="125"/>
-      <c r="BI19" s="125"/>
-      <c r="BJ19" s="125"/>
-      <c r="BK19" s="125"/>
-      <c r="BL19" s="125"/>
-      <c r="BM19" s="125"/>
-      <c r="BN19" s="138"/>
-      <c r="BO19" s="126"/>
-      <c r="BP19" s="126"/>
-      <c r="BQ19" s="126"/>
-      <c r="BR19" s="126"/>
-      <c r="BS19" s="126"/>
-      <c r="BT19" s="126"/>
-      <c r="BU19" s="126"/>
+      <c r="AN19" s="170"/>
+      <c r="AO19" s="170"/>
+      <c r="AP19" s="170"/>
+      <c r="AQ19" s="170"/>
+      <c r="AR19" s="170"/>
+      <c r="AS19" s="170"/>
+      <c r="AT19" s="170"/>
+      <c r="AU19" s="170"/>
+      <c r="AV19" s="170"/>
+      <c r="AW19" s="170"/>
+      <c r="AX19" s="170"/>
+      <c r="AY19" s="170"/>
+      <c r="AZ19" s="170"/>
+      <c r="BA19" s="170"/>
+      <c r="BB19" s="170"/>
+      <c r="BC19" s="170"/>
+      <c r="BD19" s="170"/>
+      <c r="BE19" s="171"/>
+      <c r="BF19" s="171"/>
+      <c r="BG19" s="171"/>
+      <c r="BH19" s="171"/>
+      <c r="BI19" s="171"/>
+      <c r="BJ19" s="171"/>
+      <c r="BK19" s="171"/>
+      <c r="BL19" s="171"/>
+      <c r="BM19" s="171"/>
+      <c r="BN19" s="172"/>
+      <c r="BO19" s="170"/>
+      <c r="BP19" s="170"/>
+      <c r="BQ19" s="170"/>
+      <c r="BR19" s="170"/>
+      <c r="BS19" s="170"/>
+      <c r="BT19" s="170"/>
+      <c r="BU19" s="170"/>
       <c r="BV19" s="26"/>
       <c r="BW19" s="26"/>
       <c r="BX19" s="26"/>
@@ -5658,75 +5825,75 @@
       <c r="DG19" s="5"/>
     </row>
     <row r="20" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B20" s="130"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="131"/>
-      <c r="H20" s="131"/>
-      <c r="I20" s="132"/>
-      <c r="J20" s="133"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="131"/>
-      <c r="M20" s="131"/>
-      <c r="N20" s="131"/>
-      <c r="O20" s="131"/>
-      <c r="P20" s="131"/>
-      <c r="Q20" s="131"/>
-      <c r="R20" s="132"/>
-      <c r="S20" s="134"/>
-      <c r="T20" s="135"/>
-      <c r="U20" s="135"/>
-      <c r="V20" s="135"/>
-      <c r="W20" s="135"/>
-      <c r="X20" s="135"/>
-      <c r="Y20" s="135"/>
-      <c r="Z20" s="135"/>
-      <c r="AA20" s="136"/>
-      <c r="AB20" s="139"/>
-      <c r="AC20" s="131"/>
-      <c r="AD20" s="131"/>
-      <c r="AE20" s="131"/>
-      <c r="AF20" s="131"/>
-      <c r="AG20" s="131"/>
-      <c r="AH20" s="131"/>
-      <c r="AI20" s="137"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="162"/>
+      <c r="H20" s="162"/>
+      <c r="I20" s="163"/>
+      <c r="J20" s="164"/>
+      <c r="K20" s="162"/>
+      <c r="L20" s="162"/>
+      <c r="M20" s="162"/>
+      <c r="N20" s="162"/>
+      <c r="O20" s="162"/>
+      <c r="P20" s="162"/>
+      <c r="Q20" s="162"/>
+      <c r="R20" s="163"/>
+      <c r="S20" s="165"/>
+      <c r="T20" s="166"/>
+      <c r="U20" s="166"/>
+      <c r="V20" s="166"/>
+      <c r="W20" s="166"/>
+      <c r="X20" s="166"/>
+      <c r="Y20" s="166"/>
+      <c r="Z20" s="166"/>
+      <c r="AA20" s="167"/>
+      <c r="AB20" s="168"/>
+      <c r="AC20" s="162"/>
+      <c r="AD20" s="162"/>
+      <c r="AE20" s="162"/>
+      <c r="AF20" s="162"/>
+      <c r="AG20" s="162"/>
+      <c r="AH20" s="162"/>
+      <c r="AI20" s="169"/>
       <c r="AM20" s="4"/>
-      <c r="AN20" s="126"/>
-      <c r="AO20" s="126"/>
-      <c r="AP20" s="126"/>
-      <c r="AQ20" s="126"/>
-      <c r="AR20" s="126"/>
-      <c r="AS20" s="126"/>
-      <c r="AT20" s="126"/>
-      <c r="AU20" s="126"/>
-      <c r="AV20" s="126"/>
-      <c r="AW20" s="126"/>
-      <c r="AX20" s="126"/>
-      <c r="AY20" s="126"/>
-      <c r="AZ20" s="126"/>
-      <c r="BA20" s="126"/>
-      <c r="BB20" s="126"/>
-      <c r="BC20" s="126"/>
-      <c r="BD20" s="126"/>
-      <c r="BE20" s="125"/>
-      <c r="BF20" s="125"/>
-      <c r="BG20" s="125"/>
-      <c r="BH20" s="125"/>
-      <c r="BI20" s="125"/>
-      <c r="BJ20" s="125"/>
-      <c r="BK20" s="125"/>
-      <c r="BL20" s="125"/>
-      <c r="BM20" s="125"/>
-      <c r="BN20" s="138"/>
-      <c r="BO20" s="126"/>
-      <c r="BP20" s="126"/>
-      <c r="BQ20" s="126"/>
-      <c r="BR20" s="126"/>
-      <c r="BS20" s="126"/>
-      <c r="BT20" s="126"/>
-      <c r="BU20" s="126"/>
+      <c r="AN20" s="170"/>
+      <c r="AO20" s="170"/>
+      <c r="AP20" s="170"/>
+      <c r="AQ20" s="170"/>
+      <c r="AR20" s="170"/>
+      <c r="AS20" s="170"/>
+      <c r="AT20" s="170"/>
+      <c r="AU20" s="170"/>
+      <c r="AV20" s="170"/>
+      <c r="AW20" s="170"/>
+      <c r="AX20" s="170"/>
+      <c r="AY20" s="170"/>
+      <c r="AZ20" s="170"/>
+      <c r="BA20" s="170"/>
+      <c r="BB20" s="170"/>
+      <c r="BC20" s="170"/>
+      <c r="BD20" s="170"/>
+      <c r="BE20" s="171"/>
+      <c r="BF20" s="171"/>
+      <c r="BG20" s="171"/>
+      <c r="BH20" s="171"/>
+      <c r="BI20" s="171"/>
+      <c r="BJ20" s="171"/>
+      <c r="BK20" s="171"/>
+      <c r="BL20" s="171"/>
+      <c r="BM20" s="171"/>
+      <c r="BN20" s="172"/>
+      <c r="BO20" s="170"/>
+      <c r="BP20" s="170"/>
+      <c r="BQ20" s="170"/>
+      <c r="BR20" s="170"/>
+      <c r="BS20" s="170"/>
+      <c r="BT20" s="170"/>
+      <c r="BU20" s="170"/>
       <c r="BV20" s="26"/>
       <c r="BW20" s="26"/>
       <c r="BX20" s="26"/>
@@ -5767,75 +5934,75 @@
       <c r="DG20" s="5"/>
     </row>
     <row r="21" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B21" s="130"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="133"/>
-      <c r="K21" s="131"/>
-      <c r="L21" s="131"/>
-      <c r="M21" s="131"/>
-      <c r="N21" s="131"/>
-      <c r="O21" s="131"/>
-      <c r="P21" s="131"/>
-      <c r="Q21" s="131"/>
-      <c r="R21" s="132"/>
-      <c r="S21" s="134"/>
-      <c r="T21" s="135"/>
-      <c r="U21" s="135"/>
-      <c r="V21" s="135"/>
-      <c r="W21" s="135"/>
-      <c r="X21" s="135"/>
-      <c r="Y21" s="135"/>
-      <c r="Z21" s="135"/>
-      <c r="AA21" s="136"/>
-      <c r="AB21" s="139"/>
-      <c r="AC21" s="131"/>
-      <c r="AD21" s="131"/>
-      <c r="AE21" s="131"/>
-      <c r="AF21" s="131"/>
-      <c r="AG21" s="131"/>
-      <c r="AH21" s="131"/>
-      <c r="AI21" s="137"/>
+      <c r="B21" s="161"/>
+      <c r="C21" s="162"/>
+      <c r="D21" s="162"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="162"/>
+      <c r="G21" s="162"/>
+      <c r="H21" s="162"/>
+      <c r="I21" s="163"/>
+      <c r="J21" s="164"/>
+      <c r="K21" s="162"/>
+      <c r="L21" s="162"/>
+      <c r="M21" s="162"/>
+      <c r="N21" s="162"/>
+      <c r="O21" s="162"/>
+      <c r="P21" s="162"/>
+      <c r="Q21" s="162"/>
+      <c r="R21" s="163"/>
+      <c r="S21" s="165"/>
+      <c r="T21" s="166"/>
+      <c r="U21" s="166"/>
+      <c r="V21" s="166"/>
+      <c r="W21" s="166"/>
+      <c r="X21" s="166"/>
+      <c r="Y21" s="166"/>
+      <c r="Z21" s="166"/>
+      <c r="AA21" s="167"/>
+      <c r="AB21" s="168"/>
+      <c r="AC21" s="162"/>
+      <c r="AD21" s="162"/>
+      <c r="AE21" s="162"/>
+      <c r="AF21" s="162"/>
+      <c r="AG21" s="162"/>
+      <c r="AH21" s="162"/>
+      <c r="AI21" s="169"/>
       <c r="AM21" s="4"/>
-      <c r="AN21" s="126"/>
-      <c r="AO21" s="126"/>
-      <c r="AP21" s="126"/>
-      <c r="AQ21" s="126"/>
-      <c r="AR21" s="126"/>
-      <c r="AS21" s="126"/>
-      <c r="AT21" s="126"/>
-      <c r="AU21" s="126"/>
-      <c r="AV21" s="126"/>
-      <c r="AW21" s="126"/>
-      <c r="AX21" s="126"/>
-      <c r="AY21" s="126"/>
-      <c r="AZ21" s="126"/>
-      <c r="BA21" s="126"/>
-      <c r="BB21" s="126"/>
-      <c r="BC21" s="126"/>
-      <c r="BD21" s="126"/>
-      <c r="BE21" s="125"/>
-      <c r="BF21" s="125"/>
-      <c r="BG21" s="125"/>
-      <c r="BH21" s="125"/>
-      <c r="BI21" s="125"/>
-      <c r="BJ21" s="125"/>
-      <c r="BK21" s="125"/>
-      <c r="BL21" s="125"/>
-      <c r="BM21" s="125"/>
-      <c r="BN21" s="138"/>
-      <c r="BO21" s="126"/>
-      <c r="BP21" s="126"/>
-      <c r="BQ21" s="126"/>
-      <c r="BR21" s="126"/>
-      <c r="BS21" s="126"/>
-      <c r="BT21" s="126"/>
-      <c r="BU21" s="126"/>
+      <c r="AN21" s="170"/>
+      <c r="AO21" s="170"/>
+      <c r="AP21" s="170"/>
+      <c r="AQ21" s="170"/>
+      <c r="AR21" s="170"/>
+      <c r="AS21" s="170"/>
+      <c r="AT21" s="170"/>
+      <c r="AU21" s="170"/>
+      <c r="AV21" s="170"/>
+      <c r="AW21" s="170"/>
+      <c r="AX21" s="170"/>
+      <c r="AY21" s="170"/>
+      <c r="AZ21" s="170"/>
+      <c r="BA21" s="170"/>
+      <c r="BB21" s="170"/>
+      <c r="BC21" s="170"/>
+      <c r="BD21" s="170"/>
+      <c r="BE21" s="171"/>
+      <c r="BF21" s="171"/>
+      <c r="BG21" s="171"/>
+      <c r="BH21" s="171"/>
+      <c r="BI21" s="171"/>
+      <c r="BJ21" s="171"/>
+      <c r="BK21" s="171"/>
+      <c r="BL21" s="171"/>
+      <c r="BM21" s="171"/>
+      <c r="BN21" s="172"/>
+      <c r="BO21" s="170"/>
+      <c r="BP21" s="170"/>
+      <c r="BQ21" s="170"/>
+      <c r="BR21" s="170"/>
+      <c r="BS21" s="170"/>
+      <c r="BT21" s="170"/>
+      <c r="BU21" s="170"/>
       <c r="BV21" s="26"/>
       <c r="BW21" s="26"/>
       <c r="BX21" s="26"/>
@@ -5876,75 +6043,75 @@
       <c r="DG21" s="5"/>
     </row>
     <row r="22" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B22" s="130"/>
-      <c r="C22" s="131"/>
-      <c r="D22" s="131"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="131"/>
-      <c r="G22" s="131"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="133"/>
-      <c r="K22" s="131"/>
-      <c r="L22" s="131"/>
-      <c r="M22" s="131"/>
-      <c r="N22" s="131"/>
-      <c r="O22" s="131"/>
-      <c r="P22" s="131"/>
-      <c r="Q22" s="131"/>
-      <c r="R22" s="132"/>
-      <c r="S22" s="134"/>
-      <c r="T22" s="135"/>
-      <c r="U22" s="135"/>
-      <c r="V22" s="135"/>
-      <c r="W22" s="135"/>
-      <c r="X22" s="135"/>
-      <c r="Y22" s="135"/>
-      <c r="Z22" s="135"/>
-      <c r="AA22" s="136"/>
-      <c r="AB22" s="139"/>
-      <c r="AC22" s="131"/>
-      <c r="AD22" s="131"/>
-      <c r="AE22" s="131"/>
-      <c r="AF22" s="131"/>
-      <c r="AG22" s="131"/>
-      <c r="AH22" s="131"/>
-      <c r="AI22" s="137"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="162"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="162"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="164"/>
+      <c r="K22" s="162"/>
+      <c r="L22" s="162"/>
+      <c r="M22" s="162"/>
+      <c r="N22" s="162"/>
+      <c r="O22" s="162"/>
+      <c r="P22" s="162"/>
+      <c r="Q22" s="162"/>
+      <c r="R22" s="163"/>
+      <c r="S22" s="165"/>
+      <c r="T22" s="166"/>
+      <c r="U22" s="166"/>
+      <c r="V22" s="166"/>
+      <c r="W22" s="166"/>
+      <c r="X22" s="166"/>
+      <c r="Y22" s="166"/>
+      <c r="Z22" s="166"/>
+      <c r="AA22" s="167"/>
+      <c r="AB22" s="168"/>
+      <c r="AC22" s="162"/>
+      <c r="AD22" s="162"/>
+      <c r="AE22" s="162"/>
+      <c r="AF22" s="162"/>
+      <c r="AG22" s="162"/>
+      <c r="AH22" s="162"/>
+      <c r="AI22" s="169"/>
       <c r="AM22" s="4"/>
-      <c r="AN22" s="126"/>
-      <c r="AO22" s="126"/>
-      <c r="AP22" s="126"/>
-      <c r="AQ22" s="126"/>
-      <c r="AR22" s="126"/>
-      <c r="AS22" s="126"/>
-      <c r="AT22" s="126"/>
-      <c r="AU22" s="126"/>
-      <c r="AV22" s="126"/>
-      <c r="AW22" s="126"/>
-      <c r="AX22" s="126"/>
-      <c r="AY22" s="126"/>
-      <c r="AZ22" s="126"/>
-      <c r="BA22" s="126"/>
-      <c r="BB22" s="126"/>
-      <c r="BC22" s="126"/>
-      <c r="BD22" s="126"/>
-      <c r="BE22" s="125"/>
-      <c r="BF22" s="125"/>
-      <c r="BG22" s="125"/>
-      <c r="BH22" s="125"/>
-      <c r="BI22" s="125"/>
-      <c r="BJ22" s="125"/>
-      <c r="BK22" s="125"/>
-      <c r="BL22" s="125"/>
-      <c r="BM22" s="125"/>
-      <c r="BN22" s="138"/>
-      <c r="BO22" s="126"/>
-      <c r="BP22" s="126"/>
-      <c r="BQ22" s="126"/>
-      <c r="BR22" s="126"/>
-      <c r="BS22" s="126"/>
-      <c r="BT22" s="126"/>
-      <c r="BU22" s="126"/>
+      <c r="AN22" s="170"/>
+      <c r="AO22" s="170"/>
+      <c r="AP22" s="170"/>
+      <c r="AQ22" s="170"/>
+      <c r="AR22" s="170"/>
+      <c r="AS22" s="170"/>
+      <c r="AT22" s="170"/>
+      <c r="AU22" s="170"/>
+      <c r="AV22" s="170"/>
+      <c r="AW22" s="170"/>
+      <c r="AX22" s="170"/>
+      <c r="AY22" s="170"/>
+      <c r="AZ22" s="170"/>
+      <c r="BA22" s="170"/>
+      <c r="BB22" s="170"/>
+      <c r="BC22" s="170"/>
+      <c r="BD22" s="170"/>
+      <c r="BE22" s="171"/>
+      <c r="BF22" s="171"/>
+      <c r="BG22" s="171"/>
+      <c r="BH22" s="171"/>
+      <c r="BI22" s="171"/>
+      <c r="BJ22" s="171"/>
+      <c r="BK22" s="171"/>
+      <c r="BL22" s="171"/>
+      <c r="BM22" s="171"/>
+      <c r="BN22" s="172"/>
+      <c r="BO22" s="170"/>
+      <c r="BP22" s="170"/>
+      <c r="BQ22" s="170"/>
+      <c r="BR22" s="170"/>
+      <c r="BS22" s="170"/>
+      <c r="BT22" s="170"/>
+      <c r="BU22" s="170"/>
       <c r="BV22" s="26"/>
       <c r="BW22" s="26"/>
       <c r="BX22" s="26"/>
@@ -5985,75 +6152,75 @@
       <c r="DG22" s="5"/>
     </row>
     <row r="23" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B23" s="130"/>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="131"/>
-      <c r="H23" s="131"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="133"/>
-      <c r="K23" s="131"/>
-      <c r="L23" s="131"/>
-      <c r="M23" s="131"/>
-      <c r="N23" s="131"/>
-      <c r="O23" s="131"/>
-      <c r="P23" s="131"/>
-      <c r="Q23" s="131"/>
-      <c r="R23" s="132"/>
-      <c r="S23" s="134"/>
-      <c r="T23" s="135"/>
-      <c r="U23" s="135"/>
-      <c r="V23" s="135"/>
-      <c r="W23" s="135"/>
-      <c r="X23" s="135"/>
-      <c r="Y23" s="135"/>
-      <c r="Z23" s="135"/>
-      <c r="AA23" s="136"/>
-      <c r="AB23" s="133"/>
-      <c r="AC23" s="131"/>
-      <c r="AD23" s="131"/>
-      <c r="AE23" s="131"/>
-      <c r="AF23" s="131"/>
-      <c r="AG23" s="131"/>
-      <c r="AH23" s="131"/>
-      <c r="AI23" s="137"/>
+      <c r="B23" s="161"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="162"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="162"/>
+      <c r="G23" s="162"/>
+      <c r="H23" s="162"/>
+      <c r="I23" s="163"/>
+      <c r="J23" s="164"/>
+      <c r="K23" s="162"/>
+      <c r="L23" s="162"/>
+      <c r="M23" s="162"/>
+      <c r="N23" s="162"/>
+      <c r="O23" s="162"/>
+      <c r="P23" s="162"/>
+      <c r="Q23" s="162"/>
+      <c r="R23" s="163"/>
+      <c r="S23" s="165"/>
+      <c r="T23" s="166"/>
+      <c r="U23" s="166"/>
+      <c r="V23" s="166"/>
+      <c r="W23" s="166"/>
+      <c r="X23" s="166"/>
+      <c r="Y23" s="166"/>
+      <c r="Z23" s="166"/>
+      <c r="AA23" s="167"/>
+      <c r="AB23" s="164"/>
+      <c r="AC23" s="162"/>
+      <c r="AD23" s="162"/>
+      <c r="AE23" s="162"/>
+      <c r="AF23" s="162"/>
+      <c r="AG23" s="162"/>
+      <c r="AH23" s="162"/>
+      <c r="AI23" s="169"/>
       <c r="AM23" s="4"/>
-      <c r="AN23" s="126"/>
-      <c r="AO23" s="126"/>
-      <c r="AP23" s="126"/>
-      <c r="AQ23" s="126"/>
-      <c r="AR23" s="126"/>
-      <c r="AS23" s="126"/>
-      <c r="AT23" s="126"/>
-      <c r="AU23" s="126"/>
-      <c r="AV23" s="126"/>
-      <c r="AW23" s="126"/>
-      <c r="AX23" s="126"/>
-      <c r="AY23" s="126"/>
-      <c r="AZ23" s="126"/>
-      <c r="BA23" s="126"/>
-      <c r="BB23" s="126"/>
-      <c r="BC23" s="126"/>
-      <c r="BD23" s="126"/>
-      <c r="BE23" s="125"/>
-      <c r="BF23" s="125"/>
-      <c r="BG23" s="125"/>
-      <c r="BH23" s="125"/>
-      <c r="BI23" s="125"/>
-      <c r="BJ23" s="125"/>
-      <c r="BK23" s="125"/>
-      <c r="BL23" s="125"/>
-      <c r="BM23" s="125"/>
-      <c r="BN23" s="126"/>
-      <c r="BO23" s="126"/>
-      <c r="BP23" s="126"/>
-      <c r="BQ23" s="126"/>
-      <c r="BR23" s="126"/>
-      <c r="BS23" s="126"/>
-      <c r="BT23" s="126"/>
-      <c r="BU23" s="126"/>
+      <c r="AN23" s="170"/>
+      <c r="AO23" s="170"/>
+      <c r="AP23" s="170"/>
+      <c r="AQ23" s="170"/>
+      <c r="AR23" s="170"/>
+      <c r="AS23" s="170"/>
+      <c r="AT23" s="170"/>
+      <c r="AU23" s="170"/>
+      <c r="AV23" s="170"/>
+      <c r="AW23" s="170"/>
+      <c r="AX23" s="170"/>
+      <c r="AY23" s="170"/>
+      <c r="AZ23" s="170"/>
+      <c r="BA23" s="170"/>
+      <c r="BB23" s="170"/>
+      <c r="BC23" s="170"/>
+      <c r="BD23" s="170"/>
+      <c r="BE23" s="171"/>
+      <c r="BF23" s="171"/>
+      <c r="BG23" s="171"/>
+      <c r="BH23" s="171"/>
+      <c r="BI23" s="171"/>
+      <c r="BJ23" s="171"/>
+      <c r="BK23" s="171"/>
+      <c r="BL23" s="171"/>
+      <c r="BM23" s="171"/>
+      <c r="BN23" s="170"/>
+      <c r="BO23" s="170"/>
+      <c r="BP23" s="170"/>
+      <c r="BQ23" s="170"/>
+      <c r="BR23" s="170"/>
+      <c r="BS23" s="170"/>
+      <c r="BT23" s="170"/>
+      <c r="BU23" s="170"/>
       <c r="BV23" s="26"/>
       <c r="BW23" s="26"/>
       <c r="BX23" s="26"/>
@@ -6203,77 +6370,77 @@
       <c r="DG24" s="4"/>
     </row>
     <row r="25" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B25" s="122" t="s">
+      <c r="B25" s="180" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="123"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="123"/>
-      <c r="K25" s="123"/>
-      <c r="L25" s="123"/>
-      <c r="M25" s="123"/>
-      <c r="N25" s="123"/>
-      <c r="O25" s="123"/>
-      <c r="P25" s="123"/>
-      <c r="Q25" s="123"/>
-      <c r="R25" s="123"/>
-      <c r="S25" s="123"/>
-      <c r="T25" s="123"/>
-      <c r="U25" s="123"/>
-      <c r="V25" s="123"/>
-      <c r="W25" s="123"/>
-      <c r="X25" s="123"/>
-      <c r="Y25" s="123"/>
-      <c r="Z25" s="123"/>
-      <c r="AA25" s="123"/>
-      <c r="AB25" s="123"/>
-      <c r="AC25" s="123"/>
-      <c r="AD25" s="123"/>
-      <c r="AE25" s="123"/>
-      <c r="AF25" s="123"/>
-      <c r="AG25" s="123"/>
-      <c r="AH25" s="123"/>
-      <c r="AI25" s="124"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="125"/>
+      <c r="H25" s="125"/>
+      <c r="I25" s="125"/>
+      <c r="J25" s="125"/>
+      <c r="K25" s="125"/>
+      <c r="L25" s="125"/>
+      <c r="M25" s="125"/>
+      <c r="N25" s="125"/>
+      <c r="O25" s="125"/>
+      <c r="P25" s="125"/>
+      <c r="Q25" s="125"/>
+      <c r="R25" s="125"/>
+      <c r="S25" s="125"/>
+      <c r="T25" s="125"/>
+      <c r="U25" s="125"/>
+      <c r="V25" s="125"/>
+      <c r="W25" s="125"/>
+      <c r="X25" s="125"/>
+      <c r="Y25" s="125"/>
+      <c r="Z25" s="125"/>
+      <c r="AA25" s="125"/>
+      <c r="AB25" s="125"/>
+      <c r="AC25" s="125"/>
+      <c r="AD25" s="125"/>
+      <c r="AE25" s="125"/>
+      <c r="AF25" s="125"/>
+      <c r="AG25" s="125"/>
+      <c r="AH25" s="125"/>
+      <c r="AI25" s="181"/>
       <c r="AM25" s="4"/>
-      <c r="AN25" s="123"/>
-      <c r="AO25" s="123"/>
-      <c r="AP25" s="123"/>
-      <c r="AQ25" s="123"/>
-      <c r="AR25" s="123"/>
-      <c r="AS25" s="123"/>
-      <c r="AT25" s="123"/>
-      <c r="AU25" s="123"/>
-      <c r="AV25" s="123"/>
-      <c r="AW25" s="123"/>
-      <c r="AX25" s="123"/>
-      <c r="AY25" s="123"/>
-      <c r="AZ25" s="123"/>
-      <c r="BA25" s="123"/>
-      <c r="BB25" s="123"/>
-      <c r="BC25" s="123"/>
-      <c r="BD25" s="123"/>
-      <c r="BE25" s="123"/>
-      <c r="BF25" s="123"/>
-      <c r="BG25" s="123"/>
-      <c r="BH25" s="123"/>
-      <c r="BI25" s="123"/>
-      <c r="BJ25" s="123"/>
-      <c r="BK25" s="123"/>
-      <c r="BL25" s="123"/>
-      <c r="BM25" s="123"/>
-      <c r="BN25" s="123"/>
-      <c r="BO25" s="123"/>
-      <c r="BP25" s="123"/>
-      <c r="BQ25" s="123"/>
-      <c r="BR25" s="123"/>
-      <c r="BS25" s="123"/>
-      <c r="BT25" s="123"/>
-      <c r="BU25" s="123"/>
+      <c r="AN25" s="125"/>
+      <c r="AO25" s="125"/>
+      <c r="AP25" s="125"/>
+      <c r="AQ25" s="125"/>
+      <c r="AR25" s="125"/>
+      <c r="AS25" s="125"/>
+      <c r="AT25" s="125"/>
+      <c r="AU25" s="125"/>
+      <c r="AV25" s="125"/>
+      <c r="AW25" s="125"/>
+      <c r="AX25" s="125"/>
+      <c r="AY25" s="125"/>
+      <c r="AZ25" s="125"/>
+      <c r="BA25" s="125"/>
+      <c r="BB25" s="125"/>
+      <c r="BC25" s="125"/>
+      <c r="BD25" s="125"/>
+      <c r="BE25" s="125"/>
+      <c r="BF25" s="125"/>
+      <c r="BG25" s="125"/>
+      <c r="BH25" s="125"/>
+      <c r="BI25" s="125"/>
+      <c r="BJ25" s="125"/>
+      <c r="BK25" s="125"/>
+      <c r="BL25" s="125"/>
+      <c r="BM25" s="125"/>
+      <c r="BN25" s="125"/>
+      <c r="BO25" s="125"/>
+      <c r="BP25" s="125"/>
+      <c r="BQ25" s="125"/>
+      <c r="BR25" s="125"/>
+      <c r="BS25" s="125"/>
+      <c r="BT25" s="125"/>
+      <c r="BU25" s="125"/>
       <c r="BV25" s="26"/>
       <c r="BW25" s="26"/>
       <c r="BX25" s="26"/>
@@ -6423,77 +6590,77 @@
       <c r="DG26" s="4"/>
     </row>
     <row r="27" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B27" s="127">
+      <c r="B27" s="182">
         <v>44351</v>
       </c>
-      <c r="C27" s="128"/>
-      <c r="D27" s="128"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="128"/>
-      <c r="I27" s="128"/>
-      <c r="J27" s="128"/>
-      <c r="K27" s="128"/>
-      <c r="L27" s="128"/>
-      <c r="M27" s="128"/>
-      <c r="N27" s="128"/>
-      <c r="O27" s="128"/>
-      <c r="P27" s="128"/>
-      <c r="Q27" s="128"/>
-      <c r="R27" s="128"/>
-      <c r="S27" s="128"/>
-      <c r="T27" s="128"/>
-      <c r="U27" s="128"/>
-      <c r="V27" s="128"/>
-      <c r="W27" s="128"/>
-      <c r="X27" s="128"/>
-      <c r="Y27" s="128"/>
-      <c r="Z27" s="128"/>
-      <c r="AA27" s="128"/>
-      <c r="AB27" s="128"/>
-      <c r="AC27" s="128"/>
-      <c r="AD27" s="128"/>
-      <c r="AE27" s="128"/>
-      <c r="AF27" s="128"/>
-      <c r="AG27" s="128"/>
-      <c r="AH27" s="128"/>
-      <c r="AI27" s="129"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="147"/>
+      <c r="J27" s="147"/>
+      <c r="K27" s="147"/>
+      <c r="L27" s="147"/>
+      <c r="M27" s="147"/>
+      <c r="N27" s="147"/>
+      <c r="O27" s="147"/>
+      <c r="P27" s="147"/>
+      <c r="Q27" s="147"/>
+      <c r="R27" s="147"/>
+      <c r="S27" s="147"/>
+      <c r="T27" s="147"/>
+      <c r="U27" s="147"/>
+      <c r="V27" s="147"/>
+      <c r="W27" s="147"/>
+      <c r="X27" s="147"/>
+      <c r="Y27" s="147"/>
+      <c r="Z27" s="147"/>
+      <c r="AA27" s="147"/>
+      <c r="AB27" s="147"/>
+      <c r="AC27" s="147"/>
+      <c r="AD27" s="147"/>
+      <c r="AE27" s="147"/>
+      <c r="AF27" s="147"/>
+      <c r="AG27" s="147"/>
+      <c r="AH27" s="147"/>
+      <c r="AI27" s="183"/>
       <c r="AM27" s="4"/>
-      <c r="AN27" s="128"/>
-      <c r="AO27" s="128"/>
-      <c r="AP27" s="128"/>
-      <c r="AQ27" s="128"/>
-      <c r="AR27" s="128"/>
-      <c r="AS27" s="128"/>
-      <c r="AT27" s="128"/>
-      <c r="AU27" s="128"/>
-      <c r="AV27" s="128"/>
-      <c r="AW27" s="128"/>
-      <c r="AX27" s="128"/>
-      <c r="AY27" s="128"/>
-      <c r="AZ27" s="128"/>
-      <c r="BA27" s="128"/>
-      <c r="BB27" s="128"/>
-      <c r="BC27" s="128"/>
-      <c r="BD27" s="128"/>
-      <c r="BE27" s="128"/>
-      <c r="BF27" s="128"/>
-      <c r="BG27" s="128"/>
-      <c r="BH27" s="128"/>
-      <c r="BI27" s="128"/>
-      <c r="BJ27" s="128"/>
-      <c r="BK27" s="128"/>
-      <c r="BL27" s="128"/>
-      <c r="BM27" s="128"/>
-      <c r="BN27" s="128"/>
-      <c r="BO27" s="128"/>
-      <c r="BP27" s="128"/>
-      <c r="BQ27" s="128"/>
-      <c r="BR27" s="128"/>
-      <c r="BS27" s="128"/>
-      <c r="BT27" s="128"/>
-      <c r="BU27" s="128"/>
+      <c r="AN27" s="147"/>
+      <c r="AO27" s="147"/>
+      <c r="AP27" s="147"/>
+      <c r="AQ27" s="147"/>
+      <c r="AR27" s="147"/>
+      <c r="AS27" s="147"/>
+      <c r="AT27" s="147"/>
+      <c r="AU27" s="147"/>
+      <c r="AV27" s="147"/>
+      <c r="AW27" s="147"/>
+      <c r="AX27" s="147"/>
+      <c r="AY27" s="147"/>
+      <c r="AZ27" s="147"/>
+      <c r="BA27" s="147"/>
+      <c r="BB27" s="147"/>
+      <c r="BC27" s="147"/>
+      <c r="BD27" s="147"/>
+      <c r="BE27" s="147"/>
+      <c r="BF27" s="147"/>
+      <c r="BG27" s="147"/>
+      <c r="BH27" s="147"/>
+      <c r="BI27" s="147"/>
+      <c r="BJ27" s="147"/>
+      <c r="BK27" s="147"/>
+      <c r="BL27" s="147"/>
+      <c r="BM27" s="147"/>
+      <c r="BN27" s="147"/>
+      <c r="BO27" s="147"/>
+      <c r="BP27" s="147"/>
+      <c r="BQ27" s="147"/>
+      <c r="BR27" s="147"/>
+      <c r="BS27" s="147"/>
+      <c r="BT27" s="147"/>
+      <c r="BU27" s="147"/>
       <c r="BV27" s="26"/>
       <c r="BW27" s="26"/>
       <c r="BX27" s="26"/>
@@ -6643,77 +6810,77 @@
       <c r="DG28" s="4"/>
     </row>
     <row r="29" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B29" s="122" t="s">
+      <c r="B29" s="180" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="123"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="123"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="123"/>
-      <c r="J29" s="123"/>
-      <c r="K29" s="123"/>
-      <c r="L29" s="123"/>
-      <c r="M29" s="123"/>
-      <c r="N29" s="123"/>
-      <c r="O29" s="123"/>
-      <c r="P29" s="123"/>
-      <c r="Q29" s="123"/>
-      <c r="R29" s="123"/>
-      <c r="S29" s="123"/>
-      <c r="T29" s="123"/>
-      <c r="U29" s="123"/>
-      <c r="V29" s="123"/>
-      <c r="W29" s="123"/>
-      <c r="X29" s="123"/>
-      <c r="Y29" s="123"/>
-      <c r="Z29" s="123"/>
-      <c r="AA29" s="123"/>
-      <c r="AB29" s="123"/>
-      <c r="AC29" s="123"/>
-      <c r="AD29" s="123"/>
-      <c r="AE29" s="123"/>
-      <c r="AF29" s="123"/>
-      <c r="AG29" s="123"/>
-      <c r="AH29" s="123"/>
-      <c r="AI29" s="124"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="125"/>
+      <c r="G29" s="125"/>
+      <c r="H29" s="125"/>
+      <c r="I29" s="125"/>
+      <c r="J29" s="125"/>
+      <c r="K29" s="125"/>
+      <c r="L29" s="125"/>
+      <c r="M29" s="125"/>
+      <c r="N29" s="125"/>
+      <c r="O29" s="125"/>
+      <c r="P29" s="125"/>
+      <c r="Q29" s="125"/>
+      <c r="R29" s="125"/>
+      <c r="S29" s="125"/>
+      <c r="T29" s="125"/>
+      <c r="U29" s="125"/>
+      <c r="V29" s="125"/>
+      <c r="W29" s="125"/>
+      <c r="X29" s="125"/>
+      <c r="Y29" s="125"/>
+      <c r="Z29" s="125"/>
+      <c r="AA29" s="125"/>
+      <c r="AB29" s="125"/>
+      <c r="AC29" s="125"/>
+      <c r="AD29" s="125"/>
+      <c r="AE29" s="125"/>
+      <c r="AF29" s="125"/>
+      <c r="AG29" s="125"/>
+      <c r="AH29" s="125"/>
+      <c r="AI29" s="181"/>
       <c r="AM29" s="4"/>
-      <c r="AN29" s="123"/>
-      <c r="AO29" s="123"/>
-      <c r="AP29" s="123"/>
-      <c r="AQ29" s="123"/>
-      <c r="AR29" s="123"/>
-      <c r="AS29" s="123"/>
-      <c r="AT29" s="123"/>
-      <c r="AU29" s="123"/>
-      <c r="AV29" s="123"/>
-      <c r="AW29" s="123"/>
-      <c r="AX29" s="123"/>
-      <c r="AY29" s="123"/>
-      <c r="AZ29" s="123"/>
-      <c r="BA29" s="123"/>
-      <c r="BB29" s="123"/>
-      <c r="BC29" s="123"/>
-      <c r="BD29" s="123"/>
-      <c r="BE29" s="123"/>
-      <c r="BF29" s="123"/>
-      <c r="BG29" s="123"/>
-      <c r="BH29" s="123"/>
-      <c r="BI29" s="123"/>
-      <c r="BJ29" s="123"/>
-      <c r="BK29" s="123"/>
-      <c r="BL29" s="123"/>
-      <c r="BM29" s="123"/>
-      <c r="BN29" s="123"/>
-      <c r="BO29" s="123"/>
-      <c r="BP29" s="123"/>
-      <c r="BQ29" s="123"/>
-      <c r="BR29" s="123"/>
-      <c r="BS29" s="123"/>
-      <c r="BT29" s="123"/>
-      <c r="BU29" s="123"/>
+      <c r="AN29" s="125"/>
+      <c r="AO29" s="125"/>
+      <c r="AP29" s="125"/>
+      <c r="AQ29" s="125"/>
+      <c r="AR29" s="125"/>
+      <c r="AS29" s="125"/>
+      <c r="AT29" s="125"/>
+      <c r="AU29" s="125"/>
+      <c r="AV29" s="125"/>
+      <c r="AW29" s="125"/>
+      <c r="AX29" s="125"/>
+      <c r="AY29" s="125"/>
+      <c r="AZ29" s="125"/>
+      <c r="BA29" s="125"/>
+      <c r="BB29" s="125"/>
+      <c r="BC29" s="125"/>
+      <c r="BD29" s="125"/>
+      <c r="BE29" s="125"/>
+      <c r="BF29" s="125"/>
+      <c r="BG29" s="125"/>
+      <c r="BH29" s="125"/>
+      <c r="BI29" s="125"/>
+      <c r="BJ29" s="125"/>
+      <c r="BK29" s="125"/>
+      <c r="BL29" s="125"/>
+      <c r="BM29" s="125"/>
+      <c r="BN29" s="125"/>
+      <c r="BO29" s="125"/>
+      <c r="BP29" s="125"/>
+      <c r="BQ29" s="125"/>
+      <c r="BR29" s="125"/>
+      <c r="BS29" s="125"/>
+      <c r="BT29" s="125"/>
+      <c r="BU29" s="125"/>
       <c r="BV29" s="4"/>
       <c r="BW29" s="4"/>
       <c r="BX29" s="4"/>
@@ -6941,24 +7108,118 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <dataConsolidate/>
   <mergeCells count="154">
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="BF5:BI5"/>
-    <mergeCell ref="BJ5:BM5"/>
-    <mergeCell ref="BN5:BQ5"/>
-    <mergeCell ref="BR5:BU5"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="BF6:BI6"/>
-    <mergeCell ref="BJ6:BM6"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="X5:AA5"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="AF5:AI5"/>
-    <mergeCell ref="BE5:BE6"/>
-    <mergeCell ref="BN6:BQ6"/>
-    <mergeCell ref="BR6:BU6"/>
+    <mergeCell ref="B29:AI29"/>
+    <mergeCell ref="AN29:BU29"/>
+    <mergeCell ref="BE23:BM23"/>
+    <mergeCell ref="BN23:BU23"/>
+    <mergeCell ref="B25:AI25"/>
+    <mergeCell ref="AN25:BU25"/>
+    <mergeCell ref="B27:AI27"/>
+    <mergeCell ref="AN27:BU27"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="J23:R23"/>
+    <mergeCell ref="S23:AA23"/>
+    <mergeCell ref="AB23:AI23"/>
+    <mergeCell ref="AN23:AU23"/>
+    <mergeCell ref="AV23:BD23"/>
+    <mergeCell ref="BE21:BM21"/>
+    <mergeCell ref="BN21:BU21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:R22"/>
+    <mergeCell ref="S22:AA22"/>
+    <mergeCell ref="AB22:AI22"/>
+    <mergeCell ref="AN22:AU22"/>
+    <mergeCell ref="AV22:BD22"/>
+    <mergeCell ref="BE22:BM22"/>
+    <mergeCell ref="BN22:BU22"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="J21:R21"/>
+    <mergeCell ref="S21:AA21"/>
+    <mergeCell ref="AB21:AI21"/>
+    <mergeCell ref="AN21:AU21"/>
+    <mergeCell ref="AV21:BD21"/>
+    <mergeCell ref="BE19:BM19"/>
+    <mergeCell ref="BN19:BU19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="J20:R20"/>
+    <mergeCell ref="S20:AA20"/>
+    <mergeCell ref="AB20:AI20"/>
+    <mergeCell ref="AN20:AU20"/>
+    <mergeCell ref="AV20:BD20"/>
+    <mergeCell ref="BE20:BM20"/>
+    <mergeCell ref="BN20:BU20"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="J19:R19"/>
+    <mergeCell ref="S19:AA19"/>
+    <mergeCell ref="AB19:AI19"/>
+    <mergeCell ref="AN19:AU19"/>
+    <mergeCell ref="AV19:BD19"/>
+    <mergeCell ref="BE17:BM17"/>
+    <mergeCell ref="BN17:BU17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:R18"/>
+    <mergeCell ref="S18:AA18"/>
+    <mergeCell ref="AB18:AI18"/>
+    <mergeCell ref="AN18:AU18"/>
+    <mergeCell ref="AV18:BD18"/>
+    <mergeCell ref="BE18:BM18"/>
+    <mergeCell ref="BN18:BU18"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:R17"/>
+    <mergeCell ref="S17:AA17"/>
+    <mergeCell ref="AB17:AI17"/>
+    <mergeCell ref="AN17:AU17"/>
+    <mergeCell ref="AV17:BD17"/>
+    <mergeCell ref="BE15:BM15"/>
+    <mergeCell ref="BN15:BU15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:R16"/>
+    <mergeCell ref="S16:AA16"/>
+    <mergeCell ref="AB16:AI16"/>
+    <mergeCell ref="AN16:AU16"/>
+    <mergeCell ref="AV16:BD16"/>
+    <mergeCell ref="BE16:BM16"/>
+    <mergeCell ref="BN16:BU16"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:R15"/>
+    <mergeCell ref="S15:AA15"/>
+    <mergeCell ref="AB15:AI15"/>
+    <mergeCell ref="AN15:AU15"/>
+    <mergeCell ref="AV15:BD15"/>
+    <mergeCell ref="BE13:BM13"/>
+    <mergeCell ref="BN13:BU13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:R14"/>
+    <mergeCell ref="S14:AA14"/>
+    <mergeCell ref="AB14:AI14"/>
+    <mergeCell ref="AN14:AU14"/>
+    <mergeCell ref="AV14:BD14"/>
+    <mergeCell ref="BE14:BM14"/>
+    <mergeCell ref="BN14:BU14"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:R13"/>
+    <mergeCell ref="S13:AA13"/>
+    <mergeCell ref="AB13:AI13"/>
+    <mergeCell ref="AN13:AU13"/>
+    <mergeCell ref="AV13:BD13"/>
+    <mergeCell ref="B12:AI12"/>
+    <mergeCell ref="AN12:BU12"/>
+    <mergeCell ref="AQ10:BD10"/>
+    <mergeCell ref="BE10:BF10"/>
+    <mergeCell ref="BG10:BM10"/>
+    <mergeCell ref="BN10:BU10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="AB11:AI11"/>
+    <mergeCell ref="AN11:AP11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="AB10:AI10"/>
+    <mergeCell ref="AN10:AP10"/>
     <mergeCell ref="B7:AI7"/>
     <mergeCell ref="AN7:BU7"/>
     <mergeCell ref="B8:D8"/>
@@ -6983,118 +7244,24 @@
     <mergeCell ref="U9:AA9"/>
     <mergeCell ref="AB9:AE9"/>
     <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B12:AI12"/>
-    <mergeCell ref="AN12:BU12"/>
-    <mergeCell ref="AQ10:BD10"/>
-    <mergeCell ref="BE10:BF10"/>
-    <mergeCell ref="BG10:BM10"/>
-    <mergeCell ref="BN10:BU10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:AA11"/>
-    <mergeCell ref="AB11:AI11"/>
-    <mergeCell ref="AN11:AP11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="AB10:AI10"/>
-    <mergeCell ref="AN10:AP10"/>
-    <mergeCell ref="BE13:BM13"/>
-    <mergeCell ref="BN13:BU13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:R14"/>
-    <mergeCell ref="S14:AA14"/>
-    <mergeCell ref="AB14:AI14"/>
-    <mergeCell ref="AN14:AU14"/>
-    <mergeCell ref="AV14:BD14"/>
-    <mergeCell ref="BE14:BM14"/>
-    <mergeCell ref="BN14:BU14"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:R13"/>
-    <mergeCell ref="S13:AA13"/>
-    <mergeCell ref="AB13:AI13"/>
-    <mergeCell ref="AN13:AU13"/>
-    <mergeCell ref="AV13:BD13"/>
-    <mergeCell ref="BE15:BM15"/>
-    <mergeCell ref="BN15:BU15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:R16"/>
-    <mergeCell ref="S16:AA16"/>
-    <mergeCell ref="AB16:AI16"/>
-    <mergeCell ref="AN16:AU16"/>
-    <mergeCell ref="AV16:BD16"/>
-    <mergeCell ref="BE16:BM16"/>
-    <mergeCell ref="BN16:BU16"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:R15"/>
-    <mergeCell ref="S15:AA15"/>
-    <mergeCell ref="AB15:AI15"/>
-    <mergeCell ref="AN15:AU15"/>
-    <mergeCell ref="AV15:BD15"/>
-    <mergeCell ref="BE17:BM17"/>
-    <mergeCell ref="BN17:BU17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J18:R18"/>
-    <mergeCell ref="S18:AA18"/>
-    <mergeCell ref="AB18:AI18"/>
-    <mergeCell ref="AN18:AU18"/>
-    <mergeCell ref="AV18:BD18"/>
-    <mergeCell ref="BE18:BM18"/>
-    <mergeCell ref="BN18:BU18"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:R17"/>
-    <mergeCell ref="S17:AA17"/>
-    <mergeCell ref="AB17:AI17"/>
-    <mergeCell ref="AN17:AU17"/>
-    <mergeCell ref="AV17:BD17"/>
-    <mergeCell ref="BE19:BM19"/>
-    <mergeCell ref="BN19:BU19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J20:R20"/>
-    <mergeCell ref="S20:AA20"/>
-    <mergeCell ref="AB20:AI20"/>
-    <mergeCell ref="AN20:AU20"/>
-    <mergeCell ref="AV20:BD20"/>
-    <mergeCell ref="BE20:BM20"/>
-    <mergeCell ref="BN20:BU20"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="J19:R19"/>
-    <mergeCell ref="S19:AA19"/>
-    <mergeCell ref="AB19:AI19"/>
-    <mergeCell ref="AN19:AU19"/>
-    <mergeCell ref="AV19:BD19"/>
-    <mergeCell ref="BE21:BM21"/>
-    <mergeCell ref="BN21:BU21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:R22"/>
-    <mergeCell ref="S22:AA22"/>
-    <mergeCell ref="AB22:AI22"/>
-    <mergeCell ref="AN22:AU22"/>
-    <mergeCell ref="AV22:BD22"/>
-    <mergeCell ref="BE22:BM22"/>
-    <mergeCell ref="BN22:BU22"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="J21:R21"/>
-    <mergeCell ref="S21:AA21"/>
-    <mergeCell ref="AB21:AI21"/>
-    <mergeCell ref="AN21:AU21"/>
-    <mergeCell ref="AV21:BD21"/>
-    <mergeCell ref="B29:AI29"/>
-    <mergeCell ref="AN29:BU29"/>
-    <mergeCell ref="BE23:BM23"/>
-    <mergeCell ref="BN23:BU23"/>
-    <mergeCell ref="B25:AI25"/>
-    <mergeCell ref="AN25:BU25"/>
-    <mergeCell ref="B27:AI27"/>
-    <mergeCell ref="AN27:BU27"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="J23:R23"/>
-    <mergeCell ref="S23:AA23"/>
-    <mergeCell ref="AB23:AI23"/>
-    <mergeCell ref="AN23:AU23"/>
-    <mergeCell ref="AV23:BD23"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="BF5:BI5"/>
+    <mergeCell ref="BJ5:BM5"/>
+    <mergeCell ref="BN5:BQ5"/>
+    <mergeCell ref="BR5:BU5"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="BF6:BI6"/>
+    <mergeCell ref="BJ6:BM6"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="BE5:BE6"/>
+    <mergeCell ref="BN6:BQ6"/>
+    <mergeCell ref="BR6:BU6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
@@ -7119,10 +7286,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:L95"/>
+  <dimension ref="A2:L117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N78" sqref="N78"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -7139,20 +7306,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="42.75" customHeight="1">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="184" t="s">
         <v>249</v>
       </c>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
-      <c r="K2" s="184"/>
-      <c r="L2" s="184"/>
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="185"/>
     </row>
     <row r="3" spans="1:12" ht="37.5">
       <c r="A3" s="74" t="s">
@@ -7222,19 +7389,19 @@
       </c>
       <c r="I4" s="70">
         <f>VLOOKUP(B4,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J4" s="70">
         <f>VLOOKUP(B4,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2263</v>
+        <v>2813</v>
       </c>
       <c r="K4" s="83">
         <f>VLOOKUP(B4,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>188.58333333333334</v>
+        <v>187.53333333333333</v>
       </c>
       <c r="L4" s="84">
         <f>RANK(K4,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18.75">
@@ -7267,15 +7434,15 @@
       </c>
       <c r="I5" s="70">
         <f>VLOOKUP(B5,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J5" s="70">
         <f>VLOOKUP(B5,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>3666</v>
+        <v>4242</v>
       </c>
       <c r="K5" s="83">
         <f>VLOOKUP(B5,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>203.66666666666666</v>
+        <v>202</v>
       </c>
       <c r="L5" s="84">
         <f>RANK(K5,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -7312,15 +7479,15 @@
       </c>
       <c r="I6" s="70">
         <f>VLOOKUP(B6,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J6" s="70">
         <f>VLOOKUP(B6,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2939</v>
+        <v>3492</v>
       </c>
       <c r="K6" s="83">
         <f>VLOOKUP(B6,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>172.88235294117646</v>
+        <v>174.6</v>
       </c>
       <c r="L6" s="84">
         <f>RANK(K6,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -7357,19 +7524,19 @@
       </c>
       <c r="I7" s="70">
         <f>VLOOKUP(B7,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J7" s="70">
         <f>VLOOKUP(B7,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2702</v>
+        <v>3255</v>
       </c>
       <c r="K7" s="83">
         <f>VLOOKUP(B7,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>180.13333333333333</v>
+        <v>180.83333333333334</v>
       </c>
       <c r="L7" s="84">
         <f>RANK(K7,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18.75">
@@ -7447,15 +7614,15 @@
       </c>
       <c r="I9" s="70">
         <f>VLOOKUP(B9,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J9" s="70">
         <f>VLOOKUP(B9,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>3446</v>
+        <v>4044</v>
       </c>
       <c r="K9" s="83">
         <f>VLOOKUP(B9,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>191.44444444444446</v>
+        <v>192.57142857142858</v>
       </c>
       <c r="L9" s="84">
         <f>RANK(K9,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -7492,19 +7659,19 @@
       </c>
       <c r="I10" s="70">
         <f>VLOOKUP(B10,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J10" s="70">
         <f>VLOOKUP(B10,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>3344</v>
+        <v>3887</v>
       </c>
       <c r="K10" s="83">
         <f>VLOOKUP(B10,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>185.77777777777777</v>
+        <v>185.0952380952381</v>
       </c>
       <c r="L10" s="84">
         <f>RANK(K10,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18.75">
@@ -7537,19 +7704,19 @@
       </c>
       <c r="I11" s="70">
         <f>VLOOKUP(B11,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J11" s="70">
         <f>VLOOKUP(B11,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2769</v>
+        <v>3403</v>
       </c>
       <c r="K11" s="83">
         <f>VLOOKUP(B11,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>184.6</v>
+        <v>189.05555555555554</v>
       </c>
       <c r="L11" s="84">
         <f>RANK(K11,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75">
@@ -7582,19 +7749,19 @@
       </c>
       <c r="I12" s="70">
         <f>VLOOKUP(B12,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J12" s="70">
         <f>VLOOKUP(B12,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1484</v>
+        <v>1970</v>
       </c>
       <c r="K12" s="83">
         <f>VLOOKUP(B12,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>164.88888888888889</v>
+        <v>164.16666666666666</v>
       </c>
       <c r="L12" s="84">
         <f>RANK(K12,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18.75">
@@ -7627,19 +7794,19 @@
       </c>
       <c r="I13" s="70">
         <f>VLOOKUP(B13,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J13" s="70">
         <f>VLOOKUP(B13,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1468</v>
+        <v>2032</v>
       </c>
       <c r="K13" s="83">
         <f>VLOOKUP(B13,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>163.11111111111111</v>
+        <v>169.33333333333334</v>
       </c>
       <c r="L13" s="84">
         <f>RANK(K13,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75">
@@ -7672,19 +7839,19 @@
       </c>
       <c r="I14" s="70">
         <f>VLOOKUP(B14,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J14" s="70">
         <f>VLOOKUP(B14,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2710</v>
+        <v>3215</v>
       </c>
       <c r="K14" s="83">
         <f>VLOOKUP(B14,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>180.66666666666666</v>
+        <v>178.61111111111111</v>
       </c>
       <c r="L14" s="84">
         <f>RANK(K14,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.75">
@@ -7717,15 +7884,15 @@
       </c>
       <c r="I15" s="70">
         <f>VLOOKUP(B15,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J15" s="70">
         <f>VLOOKUP(B15,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1504</v>
+        <v>1939</v>
       </c>
       <c r="K15" s="83">
         <f>VLOOKUP(B15,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>125.33333333333333</v>
+        <v>129.26666666666668</v>
       </c>
       <c r="L15" s="84">
         <f>RANK(K15,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -7733,20 +7900,20 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="42" customHeight="1">
-      <c r="A19" s="183" t="s">
+      <c r="A19" s="184" t="s">
         <v>253</v>
       </c>
-      <c r="B19" s="184"/>
-      <c r="C19" s="184"/>
-      <c r="D19" s="184"/>
-      <c r="E19" s="184"/>
-      <c r="F19" s="184"/>
-      <c r="G19" s="184"/>
-      <c r="H19" s="184"/>
-      <c r="I19" s="184"/>
-      <c r="J19" s="184"/>
-      <c r="K19" s="184"/>
-      <c r="L19" s="184"/>
+      <c r="B19" s="185"/>
+      <c r="C19" s="185"/>
+      <c r="D19" s="185"/>
+      <c r="E19" s="185"/>
+      <c r="F19" s="185"/>
+      <c r="G19" s="185"/>
+      <c r="H19" s="185"/>
+      <c r="I19" s="185"/>
+      <c r="J19" s="185"/>
+      <c r="K19" s="185"/>
+      <c r="L19" s="185"/>
     </row>
     <row r="20" spans="1:12" ht="37.5">
       <c r="A20" s="74" t="s">
@@ -7816,15 +7983,15 @@
       </c>
       <c r="I21" s="70">
         <f>VLOOKUP(B21,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J21" s="70">
         <f>VLOOKUP(B21,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>3446</v>
+        <v>4044</v>
       </c>
       <c r="K21" s="83">
         <f>VLOOKUP(B21,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>191.44444444444446</v>
+        <v>192.57142857142858</v>
       </c>
       <c r="L21" s="84">
         <f>RANK(K21,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -7861,19 +8028,19 @@
       </c>
       <c r="I22" s="70">
         <f>VLOOKUP(B22,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J22" s="70">
         <f>VLOOKUP(B22,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2710</v>
+        <v>3215</v>
       </c>
       <c r="K22" s="83">
         <f>VLOOKUP(B22,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>180.66666666666666</v>
+        <v>178.61111111111111</v>
       </c>
       <c r="L22" s="84">
         <f>RANK(K22,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="18.75">
@@ -7906,19 +8073,19 @@
       </c>
       <c r="I23" s="70">
         <f>VLOOKUP(B23,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J23" s="70">
         <f>VLOOKUP(B23,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2263</v>
+        <v>2813</v>
       </c>
       <c r="K23" s="83">
         <f>VLOOKUP(B23,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>188.58333333333334</v>
+        <v>187.53333333333333</v>
       </c>
       <c r="L23" s="84">
         <f>RANK(K23,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="18.75">
@@ -7951,19 +8118,19 @@
       </c>
       <c r="I24" s="70">
         <f>VLOOKUP(B24,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J24" s="70">
         <f>VLOOKUP(B24,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2769</v>
+        <v>3403</v>
       </c>
       <c r="K24" s="83">
         <f>VLOOKUP(B24,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>184.6</v>
+        <v>189.05555555555554</v>
       </c>
       <c r="L24" s="84">
         <f>RANK(K24,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="18.75">
@@ -7996,15 +8163,15 @@
       </c>
       <c r="I25" s="70">
         <f>VLOOKUP(B25,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J25" s="70">
         <f>VLOOKUP(B25,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1782</v>
+        <v>2353</v>
       </c>
       <c r="K25" s="83">
         <f>VLOOKUP(B25,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>198</v>
+        <v>196.08333333333334</v>
       </c>
       <c r="L25" s="84">
         <f>RANK(K25,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -8041,15 +8208,15 @@
       </c>
       <c r="I26" s="70">
         <f>VLOOKUP(B26,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J26" s="70">
         <f>VLOOKUP(B26,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>3666</v>
+        <v>4242</v>
       </c>
       <c r="K26" s="83">
         <f>VLOOKUP(B26,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>203.66666666666666</v>
+        <v>202</v>
       </c>
       <c r="L26" s="84">
         <f>RANK(K26,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -8086,15 +8253,15 @@
       </c>
       <c r="I27" s="70">
         <f>VLOOKUP(B27,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J27" s="70">
         <f>VLOOKUP(B27,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2939</v>
+        <v>3492</v>
       </c>
       <c r="K27" s="83">
         <f>VLOOKUP(B27,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>172.88235294117646</v>
+        <v>174.6</v>
       </c>
       <c r="L27" s="84">
         <f>RANK(K27,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -8131,19 +8298,19 @@
       </c>
       <c r="I28" s="70">
         <f>VLOOKUP(B28,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J28" s="70">
         <f>VLOOKUP(B28,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>3344</v>
+        <v>3887</v>
       </c>
       <c r="K28" s="83">
         <f>VLOOKUP(B28,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>185.77777777777777</v>
+        <v>185.0952380952381</v>
       </c>
       <c r="L28" s="84">
         <f>RANK(K28,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="18.75">
@@ -8176,19 +8343,19 @@
       </c>
       <c r="I29" s="70">
         <f>VLOOKUP(B29,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J29" s="70">
         <f>VLOOKUP(B29,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2206</v>
+        <v>2709</v>
       </c>
       <c r="K29" s="83">
         <f>VLOOKUP(B29,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>147.06666666666666</v>
+        <v>150.5</v>
       </c>
       <c r="L29" s="84">
         <f>RANK(K29,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="18.75">
@@ -8221,15 +8388,15 @@
       </c>
       <c r="I30" s="70">
         <f>VLOOKUP(B30,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J30" s="70">
         <f>VLOOKUP(B30,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1504</v>
+        <v>1939</v>
       </c>
       <c r="K30" s="83">
         <f>VLOOKUP(B30,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>125.33333333333333</v>
+        <v>129.26666666666668</v>
       </c>
       <c r="L30" s="84">
         <f>RANK(K30,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -8267,20 +8434,20 @@
       <c r="L31" s="84"/>
     </row>
     <row r="34" spans="1:12" ht="36.75" customHeight="1">
-      <c r="A34" s="183" t="s">
+      <c r="A34" s="184" t="s">
         <v>254</v>
       </c>
-      <c r="B34" s="184"/>
-      <c r="C34" s="184"/>
-      <c r="D34" s="184"/>
-      <c r="E34" s="184"/>
-      <c r="F34" s="184"/>
-      <c r="G34" s="184"/>
-      <c r="H34" s="184"/>
-      <c r="I34" s="184"/>
-      <c r="J34" s="184"/>
-      <c r="K34" s="184"/>
-      <c r="L34" s="184"/>
+      <c r="B34" s="185"/>
+      <c r="C34" s="185"/>
+      <c r="D34" s="185"/>
+      <c r="E34" s="185"/>
+      <c r="F34" s="185"/>
+      <c r="G34" s="185"/>
+      <c r="H34" s="185"/>
+      <c r="I34" s="185"/>
+      <c r="J34" s="185"/>
+      <c r="K34" s="185"/>
+      <c r="L34" s="185"/>
     </row>
     <row r="35" spans="1:12" ht="37.5">
       <c r="A35" s="74" t="s">
@@ -8350,15 +8517,15 @@
       </c>
       <c r="I36" s="70">
         <f>VLOOKUP(B36,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J36" s="70">
         <f>VLOOKUP(B36,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>3666</v>
+        <v>4242</v>
       </c>
       <c r="K36" s="83">
         <f>VLOOKUP(B36,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>203.66666666666666</v>
+        <v>202</v>
       </c>
       <c r="L36" s="84">
         <f>RANK(K36,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -8395,19 +8562,19 @@
       </c>
       <c r="I37" s="70">
         <f>VLOOKUP(B37,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J37" s="70">
         <f>VLOOKUP(B37,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2702</v>
+        <v>3255</v>
       </c>
       <c r="K37" s="83">
         <f>VLOOKUP(B37,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>180.13333333333333</v>
+        <v>180.83333333333334</v>
       </c>
       <c r="L37" s="84">
         <f>RANK(K37,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="18.75">
@@ -8440,19 +8607,19 @@
       </c>
       <c r="I38" s="70">
         <f>VLOOKUP(B38,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J38" s="70">
         <f>VLOOKUP(B38,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2710</v>
+        <v>3215</v>
       </c>
       <c r="K38" s="83">
         <f>VLOOKUP(B38,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>180.66666666666666</v>
+        <v>178.61111111111111</v>
       </c>
       <c r="L38" s="84">
         <f>RANK(K38,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="18.75">
@@ -8485,19 +8652,19 @@
       </c>
       <c r="I39" s="70">
         <f>VLOOKUP(B39,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J39" s="70">
         <f>VLOOKUP(B39,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>3344</v>
+        <v>3887</v>
       </c>
       <c r="K39" s="83">
         <f>VLOOKUP(B39,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>185.77777777777777</v>
+        <v>185.0952380952381</v>
       </c>
       <c r="L39" s="84">
         <f>RANK(K39,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="18.75">
@@ -8530,15 +8697,15 @@
       </c>
       <c r="I40" s="70">
         <f>VLOOKUP(B40,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J40" s="70">
         <f>VLOOKUP(B40,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>3446</v>
+        <v>4044</v>
       </c>
       <c r="K40" s="83">
         <f>VLOOKUP(B40,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>191.44444444444446</v>
+        <v>192.57142857142858</v>
       </c>
       <c r="L40" s="84">
         <f>RANK(K40,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -8575,19 +8742,19 @@
       </c>
       <c r="I41" s="70">
         <f>VLOOKUP(B41,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J41" s="70">
         <f>VLOOKUP(B41,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2263</v>
+        <v>2813</v>
       </c>
       <c r="K41" s="83">
         <f>VLOOKUP(B41,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>188.58333333333334</v>
+        <v>187.53333333333333</v>
       </c>
       <c r="L41" s="84">
         <f>RANK(K41,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="18.75">
@@ -8620,19 +8787,19 @@
       </c>
       <c r="I42" s="70">
         <f>VLOOKUP(B42,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J42" s="70">
         <f>VLOOKUP(B42,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1484</v>
+        <v>1970</v>
       </c>
       <c r="K42" s="83">
         <f>VLOOKUP(B42,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>164.88888888888889</v>
+        <v>164.16666666666666</v>
       </c>
       <c r="L42" s="84">
         <f>RANK(K42,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="18.75">
@@ -8665,19 +8832,19 @@
       </c>
       <c r="I43" s="70">
         <f>VLOOKUP(B43,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J43" s="70">
         <f>VLOOKUP(B43,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1468</v>
+        <v>2032</v>
       </c>
       <c r="K43" s="83">
         <f>VLOOKUP(B43,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>163.11111111111111</v>
+        <v>169.33333333333334</v>
       </c>
       <c r="L43" s="84">
         <f>RANK(K43,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="18.75">
@@ -8710,19 +8877,19 @@
       </c>
       <c r="I44" s="70">
         <f>VLOOKUP(B44,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J44" s="70">
         <f>VLOOKUP(B44,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2206</v>
+        <v>2709</v>
       </c>
       <c r="K44" s="83">
         <f>VLOOKUP(B44,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>147.06666666666666</v>
+        <v>150.5</v>
       </c>
       <c r="L44" s="84">
         <f>RANK(K44,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="18.75">
@@ -8753,15 +8920,15 @@
       </c>
       <c r="I45" s="70">
         <f>VLOOKUP(B45,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J45" s="70">
         <f>VLOOKUP(B45,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2939</v>
+        <v>3492</v>
       </c>
       <c r="K45" s="83">
         <f>VLOOKUP(B45,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>172.88235294117646</v>
+        <v>174.6</v>
       </c>
       <c r="L45" s="84">
         <f>RANK(K45,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -8769,20 +8936,20 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="36.75" customHeight="1">
-      <c r="A48" s="183" t="s">
+      <c r="A48" s="184" t="s">
         <v>272</v>
       </c>
-      <c r="B48" s="184"/>
-      <c r="C48" s="184"/>
-      <c r="D48" s="184"/>
-      <c r="E48" s="184"/>
-      <c r="F48" s="184"/>
-      <c r="G48" s="184"/>
-      <c r="H48" s="184"/>
-      <c r="I48" s="184"/>
-      <c r="J48" s="184"/>
-      <c r="K48" s="184"/>
-      <c r="L48" s="184"/>
+      <c r="B48" s="185"/>
+      <c r="C48" s="185"/>
+      <c r="D48" s="185"/>
+      <c r="E48" s="185"/>
+      <c r="F48" s="185"/>
+      <c r="G48" s="185"/>
+      <c r="H48" s="185"/>
+      <c r="I48" s="185"/>
+      <c r="J48" s="185"/>
+      <c r="K48" s="185"/>
+      <c r="L48" s="185"/>
     </row>
     <row r="49" spans="1:12" ht="37.5">
       <c r="A49" s="74" t="s">
@@ -8852,15 +9019,15 @@
       </c>
       <c r="I50" s="70">
         <f>VLOOKUP(B50,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J50" s="70">
         <f>VLOOKUP(B50,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>3446</v>
+        <v>4044</v>
       </c>
       <c r="K50" s="83">
         <f>VLOOKUP(B50,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>191.44444444444446</v>
+        <v>192.57142857142858</v>
       </c>
       <c r="L50" s="84">
         <f>RANK(K50,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -8897,19 +9064,19 @@
       </c>
       <c r="I51" s="70">
         <f>VLOOKUP(B51,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J51" s="70">
         <f>VLOOKUP(B51,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>3344</v>
+        <v>3887</v>
       </c>
       <c r="K51" s="83">
         <f>VLOOKUP(B51,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>185.77777777777777</v>
+        <v>185.0952380952381</v>
       </c>
       <c r="L51" s="84">
         <f>RANK(K51,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="19.5" thickTop="1">
@@ -8942,15 +9109,15 @@
       </c>
       <c r="I52" s="70">
         <f>VLOOKUP(B52,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J52" s="70">
         <f>VLOOKUP(B52,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>3666</v>
+        <v>4242</v>
       </c>
       <c r="K52" s="83">
         <f>VLOOKUP(B52,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>203.66666666666666</v>
+        <v>202</v>
       </c>
       <c r="L52" s="84">
         <f>RANK(K52,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -8987,15 +9154,15 @@
       </c>
       <c r="I53" s="70">
         <f>VLOOKUP(B53,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J53" s="70">
         <f>VLOOKUP(B53,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1782</v>
+        <v>2353</v>
       </c>
       <c r="K53" s="83">
         <f>VLOOKUP(B53,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>198</v>
+        <v>196.08333333333334</v>
       </c>
       <c r="L53" s="84">
         <f>RANK(K53,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -9032,19 +9199,19 @@
       </c>
       <c r="I54" s="70">
         <f>VLOOKUP(B54,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J54" s="70">
         <f>VLOOKUP(B54,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2769</v>
+        <v>3403</v>
       </c>
       <c r="K54" s="83">
         <f>VLOOKUP(B54,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>184.6</v>
+        <v>189.05555555555554</v>
       </c>
       <c r="L54" s="84">
         <f>RANK(K54,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="18.75">
@@ -9077,19 +9244,19 @@
       </c>
       <c r="I55" s="70">
         <f>VLOOKUP(B55,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J55" s="70">
         <f>VLOOKUP(B55,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2702</v>
+        <v>3255</v>
       </c>
       <c r="K55" s="83">
         <f>VLOOKUP(B55,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>180.13333333333333</v>
+        <v>180.83333333333334</v>
       </c>
       <c r="L55" s="84">
         <f>RANK(K55,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="18.75">
@@ -9122,19 +9289,19 @@
       </c>
       <c r="I56" s="70">
         <f>VLOOKUP(B56,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J56" s="70">
         <f>VLOOKUP(B56,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2710</v>
+        <v>3215</v>
       </c>
       <c r="K56" s="83">
         <f>VLOOKUP(B56,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>180.66666666666666</v>
+        <v>178.61111111111111</v>
       </c>
       <c r="L56" s="84">
         <f>RANK(K56,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="18.75">
@@ -9167,15 +9334,15 @@
       </c>
       <c r="I57" s="70">
         <f>VLOOKUP(B57,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J57" s="70">
         <f>VLOOKUP(B57,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2939</v>
+        <v>3492</v>
       </c>
       <c r="K57" s="83">
         <f>VLOOKUP(B57,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>172.88235294117646</v>
+        <v>174.6</v>
       </c>
       <c r="L57" s="84">
         <f>RANK(K57,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -9212,19 +9379,19 @@
       </c>
       <c r="I58" s="70">
         <f>VLOOKUP(B58,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J58" s="70">
         <f>VLOOKUP(B58,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1468</v>
+        <v>2032</v>
       </c>
       <c r="K58" s="83">
         <f>VLOOKUP(B58,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>163.11111111111111</v>
+        <v>169.33333333333334</v>
       </c>
       <c r="L58" s="84">
         <f>RANK(K58,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="18.75">
@@ -9257,19 +9424,19 @@
       </c>
       <c r="I59" s="70">
         <f>VLOOKUP(B59,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J59" s="70">
         <f>VLOOKUP(B59,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1484</v>
+        <v>1970</v>
       </c>
       <c r="K59" s="83">
         <f>VLOOKUP(B59,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>164.88888888888889</v>
+        <v>164.16666666666666</v>
       </c>
       <c r="L59" s="84">
         <f>RANK(K59,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="18.75">
@@ -9359,7 +9526,7 @@
       </c>
       <c r="L61" s="84">
         <f>RANK(K61,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="18.75">
@@ -9392,19 +9559,19 @@
       </c>
       <c r="I62" s="70">
         <f>VLOOKUP(B62,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J62" s="70">
         <f>VLOOKUP(B62,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2206</v>
+        <v>2709</v>
       </c>
       <c r="K62" s="83">
         <f>VLOOKUP(B62,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>147.06666666666666</v>
+        <v>150.5</v>
       </c>
       <c r="L62" s="84">
         <f>RANK(K62,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="18.75">
@@ -9437,15 +9604,15 @@
       </c>
       <c r="I63" s="70">
         <f>VLOOKUP(B63,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J63" s="70">
         <f>VLOOKUP(B63,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1504</v>
+        <v>1939</v>
       </c>
       <c r="K63" s="83">
         <f>VLOOKUP(B63,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>125.33333333333333</v>
+        <v>129.26666666666668</v>
       </c>
       <c r="L63" s="84">
         <f>RANK(K63,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -9453,20 +9620,20 @@
       </c>
     </row>
     <row r="66" spans="1:12" ht="30.75" customHeight="1">
-      <c r="A66" s="183" t="s">
+      <c r="A66" s="184" t="s">
         <v>273</v>
       </c>
-      <c r="B66" s="184"/>
-      <c r="C66" s="184"/>
-      <c r="D66" s="184"/>
-      <c r="E66" s="184"/>
-      <c r="F66" s="184"/>
-      <c r="G66" s="184"/>
-      <c r="H66" s="184"/>
-      <c r="I66" s="184"/>
-      <c r="J66" s="184"/>
-      <c r="K66" s="184"/>
-      <c r="L66" s="184"/>
+      <c r="B66" s="185"/>
+      <c r="C66" s="185"/>
+      <c r="D66" s="185"/>
+      <c r="E66" s="185"/>
+      <c r="F66" s="185"/>
+      <c r="G66" s="185"/>
+      <c r="H66" s="185"/>
+      <c r="I66" s="185"/>
+      <c r="J66" s="185"/>
+      <c r="K66" s="185"/>
+      <c r="L66" s="185"/>
     </row>
     <row r="67" spans="1:12" ht="38.25" thickBot="1">
       <c r="A67" s="74" t="s">
@@ -9536,15 +9703,15 @@
       </c>
       <c r="I68" s="70">
         <f>VLOOKUP(B68,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J68" s="70">
         <f>VLOOKUP(B68,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>3666</v>
+        <v>4242</v>
       </c>
       <c r="K68" s="83">
         <f>VLOOKUP(B68,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>203.66666666666666</v>
+        <v>202</v>
       </c>
       <c r="L68" s="84">
         <f>RANK(K68,'총에버 관리_2023'!$V$3:$V$21)</f>
@@ -9581,19 +9748,19 @@
       </c>
       <c r="I69" s="70">
         <f>VLOOKUP(B69,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J69" s="70">
         <f>VLOOKUP(B69,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>551</v>
+        <v>1124</v>
       </c>
       <c r="K69" s="83">
         <f>VLOOKUP(B69,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>183.66666666666666</v>
+        <v>187.33333333333334</v>
       </c>
       <c r="L69" s="84">
         <f>RANK(K69,'총에버 관리_2023'!$V$3:$V$21)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="18.75">
@@ -9626,15 +9793,15 @@
       </c>
       <c r="I70" s="70">
         <f>VLOOKUP(B70,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J70" s="70">
         <f>VLOOKUP(B70,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>3446</v>
+        <v>4044</v>
       </c>
       <c r="K70" s="83">
         <f>VLOOKUP(B70,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>191.44444444444446</v>
+        <v>192.57142857142858</v>
       </c>
       <c r="L70" s="84">
         <f>RANK(K70,'총에버 관리_2023'!$V$3:$V$21)</f>
@@ -9671,19 +9838,19 @@
       </c>
       <c r="I71" s="70">
         <f>VLOOKUP(B71,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J71" s="70">
         <f>VLOOKUP(B71,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>2263</v>
+        <v>2813</v>
       </c>
       <c r="K71" s="83">
         <f>VLOOKUP(B71,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>188.58333333333334</v>
+        <v>187.53333333333333</v>
       </c>
       <c r="L71" s="84">
         <f>RANK(K71,'총에버 관리_2023'!$V$3:$V$21)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="18.75">
@@ -9716,19 +9883,19 @@
       </c>
       <c r="I72" s="70">
         <f>VLOOKUP(B72,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J72" s="70">
         <f>VLOOKUP(B72,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>2769</v>
+        <v>3403</v>
       </c>
       <c r="K72" s="83">
         <f>VLOOKUP(B72,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>184.6</v>
+        <v>189.05555555555554</v>
       </c>
       <c r="L72" s="84">
         <f>RANK(K72,'총에버 관리_2023'!$V$3:$V$21)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="18.75">
@@ -9761,19 +9928,19 @@
       </c>
       <c r="I73" s="70">
         <f>VLOOKUP(B73,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J73" s="70">
         <f>VLOOKUP(B73,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>3344</v>
+        <v>3887</v>
       </c>
       <c r="K73" s="83">
         <f>VLOOKUP(B73,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>185.77777777777777</v>
+        <v>185.0952380952381</v>
       </c>
       <c r="L73" s="84">
         <f>RANK(K73,'총에버 관리_2023'!$V$3:$V$21)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="18.75">
@@ -9806,19 +9973,19 @@
       </c>
       <c r="I74" s="70">
         <f>VLOOKUP(B74,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J74" s="70">
         <f>VLOOKUP(B74,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>2702</v>
+        <v>3255</v>
       </c>
       <c r="K74" s="83">
         <f>VLOOKUP(B74,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>180.13333333333333</v>
+        <v>180.83333333333334</v>
       </c>
       <c r="L74" s="84">
         <f>RANK(K74,'총에버 관리_2023'!$V$3:$V$21)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="18.75">
@@ -9851,15 +10018,15 @@
       </c>
       <c r="I75" s="70">
         <f>VLOOKUP(B75,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J75" s="70">
         <f>VLOOKUP(B75,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>2939</v>
+        <v>3492</v>
       </c>
       <c r="K75" s="83">
         <f>VLOOKUP(B75,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>172.88235294117646</v>
+        <v>174.6</v>
       </c>
       <c r="L75" s="84">
         <f>RANK(K75,'총에버 관리_2023'!$V$3:$V$21)</f>
@@ -9896,19 +10063,19 @@
       </c>
       <c r="I76" s="70">
         <f>VLOOKUP(B76,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J76" s="70">
         <f>VLOOKUP(B76,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>2206</v>
+        <v>2709</v>
       </c>
       <c r="K76" s="83">
         <f>VLOOKUP(B76,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>147.06666666666666</v>
+        <v>150.5</v>
       </c>
       <c r="L76" s="84">
         <f>RANK(K76,'총에버 관리_2023'!$V$3:$V$21)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="18.75">
@@ -9986,15 +10153,15 @@
       </c>
       <c r="I78" s="70">
         <f>VLOOKUP(B78,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J78" s="70">
         <f>VLOOKUP(B78,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>1504</v>
+        <v>1939</v>
       </c>
       <c r="K78" s="83">
         <f>VLOOKUP(B78,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>125.33333333333333</v>
+        <v>129.26666666666668</v>
       </c>
       <c r="L78" s="84">
         <f>RANK(K78,'총에버 관리_2023'!$V$3:$V$21)</f>
@@ -10031,15 +10198,15 @@
       </c>
       <c r="I79" s="70">
         <f>VLOOKUP(B79,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J79" s="70">
         <f>VLOOKUP(B79,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>821</v>
+        <v>1265</v>
       </c>
       <c r="K79" s="83">
         <f>VLOOKUP(B79,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>136.83333333333334</v>
+        <v>140.55555555555554</v>
       </c>
       <c r="L79" s="84">
         <f>RANK(K79,'총에버 관리_2023'!$V$3:$V$21)</f>
@@ -10047,20 +10214,20 @@
       </c>
     </row>
     <row r="82" spans="1:12" ht="34.5" customHeight="1">
-      <c r="A82" s="183" t="s">
+      <c r="A82" s="184" t="s">
         <v>287</v>
       </c>
-      <c r="B82" s="184"/>
-      <c r="C82" s="184"/>
-      <c r="D82" s="184"/>
-      <c r="E82" s="184"/>
-      <c r="F82" s="184"/>
-      <c r="G82" s="184"/>
-      <c r="H82" s="184"/>
-      <c r="I82" s="184"/>
-      <c r="J82" s="184"/>
-      <c r="K82" s="184"/>
-      <c r="L82" s="184"/>
+      <c r="B82" s="185"/>
+      <c r="C82" s="185"/>
+      <c r="D82" s="185"/>
+      <c r="E82" s="185"/>
+      <c r="F82" s="185"/>
+      <c r="G82" s="185"/>
+      <c r="H82" s="185"/>
+      <c r="I82" s="185"/>
+      <c r="J82" s="185"/>
+      <c r="K82" s="185"/>
+      <c r="L82" s="185"/>
     </row>
     <row r="83" spans="1:12" ht="38.25" thickBot="1">
       <c r="A83" s="74" t="s">
@@ -10102,7 +10269,7 @@
     </row>
     <row r="84" spans="1:12" ht="20.25" thickTop="1" thickBot="1">
       <c r="A84" s="77">
-        <f>RANK(G84,$G$84:$G$95)</f>
+        <f t="shared" ref="A84:A95" si="15">RANK(G84,$G$84:$G$95)</f>
         <v>1</v>
       </c>
       <c r="B84" s="64" t="s">
@@ -10118,11 +10285,11 @@
         <v>194</v>
       </c>
       <c r="F84" s="86">
-        <f>SUM(C84:E84)</f>
+        <f t="shared" ref="F84:F95" si="16">SUM(C84:E84)</f>
         <v>672</v>
       </c>
       <c r="G84" s="87">
-        <f>F84/COUNTA(C84:E84)</f>
+        <f t="shared" ref="G84:G95" si="17">F84/COUNTA(C84:E84)</f>
         <v>224</v>
       </c>
       <c r="H84" s="64" t="s">
@@ -10130,15 +10297,15 @@
       </c>
       <c r="I84" s="70">
         <f>VLOOKUP(B84,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J84" s="70">
         <f>VLOOKUP(B84,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>3666</v>
+        <v>4242</v>
       </c>
       <c r="K84" s="83">
         <f>VLOOKUP(B84,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>203.66666666666666</v>
+        <v>202</v>
       </c>
       <c r="L84" s="84">
         <f>RANK(K84,'총에버 관리_2023'!$V$3:$V$21)</f>
@@ -10147,7 +10314,7 @@
     </row>
     <row r="85" spans="1:12" ht="20.25" thickTop="1" thickBot="1">
       <c r="A85" s="77">
-        <f>RANK(G85,$G$84:$G$95)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="B85" s="61" t="s">
@@ -10156,18 +10323,18 @@
       <c r="C85" s="58">
         <v>226</v>
       </c>
-      <c r="D85" s="196">
+      <c r="D85" s="122">
         <v>266</v>
       </c>
       <c r="E85" s="58">
         <v>173</v>
       </c>
       <c r="F85" s="63">
-        <f>SUM(C85:E85)</f>
+        <f t="shared" si="16"/>
         <v>665</v>
       </c>
       <c r="G85" s="87">
-        <f>F85/COUNTA(C85:E85)</f>
+        <f t="shared" si="17"/>
         <v>221.66666666666666</v>
       </c>
       <c r="H85" s="61" t="s">
@@ -10175,15 +10342,15 @@
       </c>
       <c r="I85" s="70">
         <f>VLOOKUP(B85,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J85" s="70">
         <f>VLOOKUP(B85,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>1782</v>
+        <v>2353</v>
       </c>
       <c r="K85" s="83">
         <f>VLOOKUP(B85,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>198</v>
+        <v>196.08333333333334</v>
       </c>
       <c r="L85" s="84">
         <f>RANK(K85,'총에버 관리_2023'!$V$3:$V$21)</f>
@@ -10192,7 +10359,7 @@
     </row>
     <row r="86" spans="1:12" ht="20.25" thickTop="1" thickBot="1">
       <c r="A86" s="77">
-        <f>RANK(G86,$G$84:$G$95)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="B86" s="61" t="s">
@@ -10208,11 +10375,11 @@
         <v>225</v>
       </c>
       <c r="F86" s="69">
-        <f>SUM(C86:E86)</f>
+        <f t="shared" si="16"/>
         <v>646</v>
       </c>
       <c r="G86" s="87">
-        <f>F86/COUNTA(C86:E86)</f>
+        <f t="shared" si="17"/>
         <v>215.33333333333334</v>
       </c>
       <c r="H86" s="61" t="s">
@@ -10220,24 +10387,24 @@
       </c>
       <c r="I86" s="70">
         <f>VLOOKUP(B86,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J86" s="70">
         <f>VLOOKUP(B86,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>3344</v>
+        <v>3887</v>
       </c>
       <c r="K86" s="83">
         <f>VLOOKUP(B86,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>185.77777777777777</v>
+        <v>185.0952380952381</v>
       </c>
       <c r="L86" s="84">
         <f>RANK(K86,'총에버 관리_2023'!$V$3:$V$21)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="19.5" thickTop="1">
       <c r="A87" s="77">
-        <f>RANK(G87,$G$84:$G$95)</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="B87" s="72" t="s">
@@ -10253,11 +10420,11 @@
         <v>226</v>
       </c>
       <c r="F87" s="69">
-        <f>SUM(C87:E87)</f>
+        <f t="shared" si="16"/>
         <v>631</v>
       </c>
       <c r="G87" s="87">
-        <f>F87/COUNTA(C87:E87)</f>
+        <f t="shared" si="17"/>
         <v>210.33333333333334</v>
       </c>
       <c r="H87" s="72" t="s">
@@ -10265,24 +10432,24 @@
       </c>
       <c r="I87" s="70">
         <f>VLOOKUP(B87,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J87" s="70">
         <f>VLOOKUP(B87,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>2769</v>
+        <v>3403</v>
       </c>
       <c r="K87" s="83">
         <f>VLOOKUP(B87,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>184.6</v>
+        <v>189.05555555555554</v>
       </c>
       <c r="L87" s="84">
         <f>RANK(K87,'총에버 관리_2023'!$V$3:$V$21)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="18.75">
       <c r="A88" s="77">
-        <f>RANK(G88,$G$84:$G$95)</f>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="B88" s="61" t="s">
@@ -10298,11 +10465,11 @@
         <v>211</v>
       </c>
       <c r="F88" s="63">
-        <f>SUM(C88:E88)</f>
+        <f t="shared" si="16"/>
         <v>605</v>
       </c>
       <c r="G88" s="87">
-        <f>F88/COUNTA(C88:E88)</f>
+        <f t="shared" si="17"/>
         <v>201.66666666666666</v>
       </c>
       <c r="H88" s="61" t="s">
@@ -10315,7 +10482,7 @@
     </row>
     <row r="89" spans="1:12" ht="19.5" thickBot="1">
       <c r="A89" s="77">
-        <f>RANK(G89,$G$84:$G$95)</f>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="B89" s="72" t="s">
@@ -10331,11 +10498,11 @@
         <v>213</v>
       </c>
       <c r="F89" s="69">
-        <f>SUM(C89:E89)</f>
+        <f t="shared" si="16"/>
         <v>582</v>
       </c>
       <c r="G89" s="87">
-        <f>F89/COUNTA(C89:E89)</f>
+        <f t="shared" si="17"/>
         <v>194</v>
       </c>
       <c r="H89" s="72" t="s">
@@ -10343,15 +10510,15 @@
       </c>
       <c r="I89" s="70">
         <f>VLOOKUP(B89,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J89" s="70">
         <f>VLOOKUP(B89,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>2939</v>
+        <v>3492</v>
       </c>
       <c r="K89" s="83">
         <f>VLOOKUP(B89,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>172.88235294117646</v>
+        <v>174.6</v>
       </c>
       <c r="L89" s="84">
         <f>RANK(K89,'총에버 관리_2023'!$V$3:$V$21)</f>
@@ -10360,7 +10527,7 @@
     </row>
     <row r="90" spans="1:12" ht="20.25" thickTop="1" thickBot="1">
       <c r="A90" s="77">
-        <f>RANK(G90,$G$84:$G$95)</f>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="B90" s="61" t="s">
@@ -10376,11 +10543,11 @@
         <v>173</v>
       </c>
       <c r="F90" s="58">
-        <f>SUM(C90:E90)</f>
+        <f t="shared" si="16"/>
         <v>581</v>
       </c>
       <c r="G90" s="87">
-        <f>F90/COUNTA(C90:E90)</f>
+        <f t="shared" si="17"/>
         <v>193.66666666666666</v>
       </c>
       <c r="H90" s="61" t="s">
@@ -10388,15 +10555,15 @@
       </c>
       <c r="I90" s="70">
         <f>VLOOKUP(B90,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J90" s="70">
         <f>VLOOKUP(B90,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>3446</v>
+        <v>4044</v>
       </c>
       <c r="K90" s="83">
         <f>VLOOKUP(B90,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>191.44444444444446</v>
+        <v>192.57142857142858</v>
       </c>
       <c r="L90" s="84">
         <f>RANK(K90,'총에버 관리_2023'!$V$3:$V$21)</f>
@@ -10405,7 +10572,7 @@
     </row>
     <row r="91" spans="1:12" ht="19.5" thickTop="1">
       <c r="A91" s="77">
-        <f>RANK(G91,$G$84:$G$95)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="B91" s="65" t="s">
@@ -10421,11 +10588,11 @@
         <v>208</v>
       </c>
       <c r="F91" s="43">
-        <f>SUM(C91:E91)</f>
+        <f t="shared" si="16"/>
         <v>543</v>
       </c>
       <c r="G91" s="87">
-        <f>F91/COUNTA(C91:E91)</f>
+        <f t="shared" si="17"/>
         <v>181</v>
       </c>
       <c r="H91" s="65" t="s">
@@ -10433,24 +10600,24 @@
       </c>
       <c r="I91" s="70">
         <f>VLOOKUP(B91,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J91" s="70">
         <f>VLOOKUP(B91,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>2702</v>
+        <v>3255</v>
       </c>
       <c r="K91" s="83">
         <f>VLOOKUP(B91,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>180.13333333333333</v>
+        <v>180.83333333333334</v>
       </c>
       <c r="L91" s="84">
         <f>RANK(K91,'총에버 관리_2023'!$V$3:$V$21)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="18.75">
       <c r="A92" s="77">
-        <f>RANK(G92,$G$84:$G$95)</f>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="B92" s="65" t="s">
@@ -10466,11 +10633,11 @@
         <v>183</v>
       </c>
       <c r="F92" s="43">
-        <f>SUM(C92:E92)</f>
+        <f t="shared" si="16"/>
         <v>541</v>
       </c>
       <c r="G92" s="87">
-        <f>F92/COUNTA(C92:E92)</f>
+        <f t="shared" si="17"/>
         <v>180.33333333333334</v>
       </c>
       <c r="H92" s="65" t="s">
@@ -10478,24 +10645,24 @@
       </c>
       <c r="I92" s="70">
         <f>VLOOKUP(B92,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J92" s="70">
         <f>VLOOKUP(B92,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>2710</v>
+        <v>3215</v>
       </c>
       <c r="K92" s="83">
         <f>VLOOKUP(B92,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>180.66666666666666</v>
+        <v>178.61111111111111</v>
       </c>
       <c r="L92" s="84">
         <f>RANK(K92,'총에버 관리_2023'!$V$3:$V$21)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="18.75">
       <c r="A93" s="77">
-        <f>RANK(G93,$G$84:$G$95)</f>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="B93" s="72" t="s">
@@ -10511,11 +10678,11 @@
         <v>133</v>
       </c>
       <c r="F93" s="43">
-        <f>SUM(C93:E93)</f>
+        <f t="shared" si="16"/>
         <v>449</v>
       </c>
       <c r="G93" s="87">
-        <f>F93/COUNTA(C93:E93)</f>
+        <f t="shared" si="17"/>
         <v>149.66666666666666</v>
       </c>
       <c r="H93" s="72" t="s">
@@ -10540,7 +10707,7 @@
     </row>
     <row r="94" spans="1:12" ht="18.75">
       <c r="A94" s="77">
-        <f>RANK(G94,$G$84:$G$95)</f>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
       <c r="B94" s="58" t="s">
@@ -10556,11 +10723,11 @@
         <v>169</v>
       </c>
       <c r="F94" s="43">
-        <f>SUM(C94:E94)</f>
+        <f t="shared" si="16"/>
         <v>443</v>
       </c>
       <c r="G94" s="87">
-        <f>F94/COUNTA(C94:E94)</f>
+        <f t="shared" si="17"/>
         <v>147.66666666666666</v>
       </c>
       <c r="H94" s="58" t="s">
@@ -10568,15 +10735,15 @@
       </c>
       <c r="I94" s="70">
         <f>VLOOKUP(B94,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J94" s="70">
         <f>VLOOKUP(B94,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>821</v>
+        <v>1265</v>
       </c>
       <c r="K94" s="83">
         <f>VLOOKUP(B94,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>136.83333333333334</v>
+        <v>140.55555555555554</v>
       </c>
       <c r="L94" s="84">
         <f>RANK(K94,'총에버 관리_2023'!$V$3:$V$21)</f>
@@ -10585,7 +10752,7 @@
     </row>
     <row r="95" spans="1:12" ht="18.75">
       <c r="A95" s="77">
-        <f>RANK(G95,$G$84:$G$95)</f>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="B95" s="65" t="s">
@@ -10601,11 +10768,11 @@
         <v>127</v>
       </c>
       <c r="F95" s="43">
-        <f>SUM(C95:E95)</f>
+        <f t="shared" si="16"/>
         <v>385</v>
       </c>
       <c r="G95" s="87">
-        <f>F95/COUNTA(C95:E95)</f>
+        <f t="shared" si="17"/>
         <v>128.33333333333334</v>
       </c>
       <c r="H95" s="65" t="s">
@@ -10613,26 +10780,867 @@
       </c>
       <c r="I95" s="70">
         <f>VLOOKUP(B95,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J95" s="70">
         <f>VLOOKUP(B95,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>2206</v>
+        <v>2709</v>
       </c>
       <c r="K95" s="83">
         <f>VLOOKUP(B95,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>147.06666666666666</v>
+        <v>150.5</v>
       </c>
       <c r="L95" s="84">
         <f>RANK(K95,'총에버 관리_2023'!$V$3:$V$21)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="34.5" customHeight="1">
+      <c r="A98" s="184" t="s">
+        <v>300</v>
+      </c>
+      <c r="B98" s="185"/>
+      <c r="C98" s="185"/>
+      <c r="D98" s="185"/>
+      <c r="E98" s="185"/>
+      <c r="F98" s="185"/>
+      <c r="G98" s="185"/>
+      <c r="H98" s="185"/>
+      <c r="I98" s="185"/>
+      <c r="J98" s="185"/>
+      <c r="K98" s="185"/>
+      <c r="L98" s="185"/>
+    </row>
+    <row r="99" spans="1:12" ht="38.25" thickBot="1">
+      <c r="A99" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="B99" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C99" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D99" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="E99" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="G99" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I99" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="J99" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="K99" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="L99" s="76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="20.25" thickTop="1" thickBot="1">
+      <c r="A100" s="77">
+        <f>RANK(G100,$G$100:$G$117)</f>
+        <v>1</v>
+      </c>
+      <c r="B100" s="197" t="s">
+        <v>311</v>
+      </c>
+      <c r="C100" s="67">
+        <v>169</v>
+      </c>
+      <c r="D100" s="68">
+        <v>209</v>
+      </c>
+      <c r="E100" s="69">
+        <v>256</v>
+      </c>
+      <c r="F100" s="86">
+        <f>SUM(C100:E100)</f>
+        <v>634</v>
+      </c>
+      <c r="G100" s="87">
+        <f>F100/COUNTA(C100:E100)</f>
+        <v>211.33333333333334</v>
+      </c>
+      <c r="H100" s="197" t="s">
+        <v>311</v>
+      </c>
+      <c r="I100" s="70">
+        <f>VLOOKUP(B100,'총에버 관리_2023'!$A$3:$V$22,21,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="J100" s="70">
+        <f>VLOOKUP(B100,'총에버 관리_2023'!$A$3:$V$22,20,FALSE)</f>
+        <v>3403</v>
+      </c>
+      <c r="K100" s="83">
+        <f>VLOOKUP(B100,'총에버 관리_2023'!$A$3:$V$22,22,FALSE)</f>
+        <v>189.05555555555554</v>
+      </c>
+      <c r="L100" s="84">
+        <f>RANK(K100,'총에버 관리_2023'!$V$3:$V$22)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="20.25" thickTop="1" thickBot="1">
+      <c r="A101" s="77">
+        <f>RANK(G101,$G$100:$G$117)</f>
+        <v>2</v>
+      </c>
+      <c r="B101" s="61" t="s">
+        <v>307</v>
+      </c>
+      <c r="C101" s="59">
+        <v>195</v>
+      </c>
+      <c r="D101" s="64">
+        <v>221</v>
+      </c>
+      <c r="E101" s="63">
+        <v>182</v>
+      </c>
+      <c r="F101" s="63">
+        <f>SUM(C101:E101)</f>
+        <v>598</v>
+      </c>
+      <c r="G101" s="87">
+        <f>F101/COUNTA(C101:E101)</f>
+        <v>199.33333333333334</v>
+      </c>
+      <c r="H101" s="61" t="s">
+        <v>307</v>
+      </c>
+      <c r="I101" s="70">
+        <f>VLOOKUP(B101,'총에버 관리_2023'!$A$3:$V$22,21,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="J101" s="70">
+        <f>VLOOKUP(B101,'총에버 관리_2023'!$A$3:$V$22,20,FALSE)</f>
+        <v>4044</v>
+      </c>
+      <c r="K101" s="83">
+        <f>VLOOKUP(B101,'총에버 관리_2023'!$A$3:$V$22,22,FALSE)</f>
+        <v>192.57142857142858</v>
+      </c>
+      <c r="L101" s="84">
+        <f>RANK(K101,'총에버 관리_2023'!$V$3:$V$22)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="20.25" thickTop="1" thickBot="1">
+      <c r="A102" s="77">
+        <f>RANK(G102,$G$100:$G$117)</f>
+        <v>3</v>
+      </c>
+      <c r="B102" s="72" t="s">
+        <v>306</v>
+      </c>
+      <c r="C102" s="68">
+        <v>223</v>
+      </c>
+      <c r="D102" s="63">
+        <v>183</v>
+      </c>
+      <c r="E102" s="69">
+        <v>170</v>
+      </c>
+      <c r="F102" s="69">
+        <f>SUM(C102:E102)</f>
+        <v>576</v>
+      </c>
+      <c r="G102" s="87">
+        <f>F102/COUNTA(C102:E102)</f>
+        <v>192</v>
+      </c>
+      <c r="H102" s="72" t="s">
+        <v>306</v>
+      </c>
+      <c r="I102" s="70">
+        <f>VLOOKUP(B102,'총에버 관리_2023'!$A$3:$V$22,21,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="J102" s="70">
+        <f>VLOOKUP(B102,'총에버 관리_2023'!$A$3:$V$22,20,FALSE)</f>
+        <v>4242</v>
+      </c>
+      <c r="K102" s="83">
+        <f>VLOOKUP(B102,'총에버 관리_2023'!$A$3:$V$22,22,FALSE)</f>
+        <v>202</v>
+      </c>
+      <c r="L102" s="84">
+        <f>RANK(K102,'총에버 관리_2023'!$V$3:$V$22)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="19.5" thickTop="1">
+      <c r="A103" s="77">
+        <f>RANK(G103,$G$100:$G$117)</f>
+        <v>4</v>
+      </c>
+      <c r="B103" s="72" t="s">
+        <v>314</v>
+      </c>
+      <c r="C103" s="70">
+        <v>208</v>
+      </c>
+      <c r="D103" s="43">
+        <v>216</v>
+      </c>
+      <c r="E103" s="69">
+        <v>149</v>
+      </c>
+      <c r="F103" s="69">
+        <f>SUM(C103:E103)</f>
+        <v>573</v>
+      </c>
+      <c r="G103" s="87">
+        <f>F103/COUNTA(C103:E103)</f>
+        <v>191</v>
+      </c>
+      <c r="H103" s="72" t="s">
+        <v>314</v>
+      </c>
+      <c r="I103" s="70">
+        <f>VLOOKUP(B103,'총에버 관리_2023'!$A$3:$V$22,21,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="J103" s="70">
+        <f>VLOOKUP(B103,'총에버 관리_2023'!$A$3:$V$22,20,FALSE)</f>
+        <v>1124</v>
+      </c>
+      <c r="K103" s="83">
+        <f>VLOOKUP(B103,'총에버 관리_2023'!$A$3:$V$22,22,FALSE)</f>
+        <v>187.33333333333334</v>
+      </c>
+      <c r="L103" s="84">
+        <f>RANK(K103,'총에버 관리_2023'!$V$3:$V$22)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="18.75">
+      <c r="A104" s="77">
+        <f>RANK(G104,$G$100:$G$117)</f>
+        <v>5</v>
+      </c>
+      <c r="B104" s="61" t="s">
+        <v>313</v>
+      </c>
+      <c r="C104" s="58">
+        <v>179</v>
+      </c>
+      <c r="D104" s="58">
+        <v>193</v>
+      </c>
+      <c r="E104" s="63">
+        <v>199</v>
+      </c>
+      <c r="F104" s="63">
+        <f>SUM(C104:E104)</f>
+        <v>571</v>
+      </c>
+      <c r="G104" s="87">
+        <f>F104/COUNTA(C104:E104)</f>
+        <v>190.33333333333334</v>
+      </c>
+      <c r="H104" s="61" t="s">
+        <v>313</v>
+      </c>
+      <c r="I104" s="70">
+        <f>VLOOKUP(B104,'총에버 관리_2023'!$A$3:$V$22,21,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="J104" s="70">
+        <f>VLOOKUP(B104,'총에버 관리_2023'!$A$3:$V$22,20,FALSE)</f>
+        <v>2353</v>
+      </c>
+      <c r="K104" s="83">
+        <f>VLOOKUP(B104,'총에버 관리_2023'!$A$3:$V$22,22,FALSE)</f>
+        <v>196.08333333333334</v>
+      </c>
+      <c r="L104" s="84">
+        <f>RANK(K104,'총에버 관리_2023'!$V$3:$V$22)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="18.75">
+      <c r="A105" s="77">
+        <f>RANK(G105,$G$100:$G$117)</f>
+        <v>6</v>
+      </c>
+      <c r="B105" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="C105" s="58">
+        <v>151</v>
+      </c>
+      <c r="D105" s="58">
+        <v>215</v>
+      </c>
+      <c r="E105" s="63">
+        <v>198</v>
+      </c>
+      <c r="F105" s="63">
+        <f>SUM(C105:E105)</f>
+        <v>564</v>
+      </c>
+      <c r="G105" s="87">
+        <f>F105/COUNTA(C105:E105)</f>
+        <v>188</v>
+      </c>
+      <c r="H105" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="I105" s="70">
+        <f>VLOOKUP(B105,'총에버 관리_2023'!$A$3:$V$22,21,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="J105" s="70">
+        <f>VLOOKUP(B105,'총에버 관리_2023'!$A$3:$V$22,20,FALSE)</f>
+        <v>2032</v>
+      </c>
+      <c r="K105" s="83">
+        <f>VLOOKUP(B105,'총에버 관리_2023'!$A$3:$V$22,22,FALSE)</f>
+        <v>169.33333333333334</v>
+      </c>
+      <c r="L105" s="84">
+        <f>RANK(K105,'총에버 관리_2023'!$V$3:$V$22)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="18.75">
+      <c r="A106" s="77">
+        <f>RANK(G106,$G$100:$G$117)</f>
+        <v>7</v>
+      </c>
+      <c r="B106" s="72" t="s">
+        <v>310</v>
+      </c>
+      <c r="C106" s="43">
+        <v>172</v>
+      </c>
+      <c r="D106" s="43">
+        <v>225</v>
+      </c>
+      <c r="E106" s="69">
+        <v>156</v>
+      </c>
+      <c r="F106" s="43">
+        <f>SUM(C106:E106)</f>
+        <v>553</v>
+      </c>
+      <c r="G106" s="87">
+        <f>F106/COUNTA(C106:E106)</f>
+        <v>184.33333333333334</v>
+      </c>
+      <c r="H106" s="72" t="s">
+        <v>310</v>
+      </c>
+      <c r="I106" s="70">
+        <f>VLOOKUP(B106,'총에버 관리_2023'!$A$3:$V$22,21,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="J106" s="70">
+        <f>VLOOKUP(B106,'총에버 관리_2023'!$A$3:$V$22,20,FALSE)</f>
+        <v>3255</v>
+      </c>
+      <c r="K106" s="83">
+        <f>VLOOKUP(B106,'총에버 관리_2023'!$A$3:$V$22,22,FALSE)</f>
+        <v>180.83333333333334</v>
+      </c>
+      <c r="L106" s="84">
+        <f>RANK(K106,'총에버 관리_2023'!$V$3:$V$22)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="18.75">
+      <c r="A107" s="77">
+        <f>RANK(G107,$G$100:$G$117)</f>
+        <v>7</v>
+      </c>
+      <c r="B107" s="61" t="s">
+        <v>315</v>
+      </c>
+      <c r="C107" s="43">
+        <v>189</v>
+      </c>
+      <c r="D107" s="43">
+        <v>207</v>
+      </c>
+      <c r="E107" s="69">
+        <v>157</v>
+      </c>
+      <c r="F107" s="43">
+        <f>SUM(C107:E107)</f>
+        <v>553</v>
+      </c>
+      <c r="G107" s="87">
+        <f>F107/COUNTA(C107:E107)</f>
+        <v>184.33333333333334</v>
+      </c>
+      <c r="H107" s="61" t="s">
+        <v>315</v>
+      </c>
+      <c r="I107" s="70">
+        <f>VLOOKUP(B107,'총에버 관리_2023'!$A$3:$V$22,21,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="J107" s="70">
+        <f>VLOOKUP(B107,'총에버 관리_2023'!$A$3:$V$22,20,FALSE)</f>
+        <v>3492</v>
+      </c>
+      <c r="K107" s="83">
+        <f>VLOOKUP(B107,'총에버 관리_2023'!$A$3:$V$22,22,FALSE)</f>
+        <v>174.6</v>
+      </c>
+      <c r="L107" s="84">
+        <f>RANK(K107,'총에버 관리_2023'!$V$3:$V$22)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="18.75">
+      <c r="A108" s="77">
+        <f>RANK(G108,$G$100:$G$117)</f>
+        <v>9</v>
+      </c>
+      <c r="B108" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="C108" s="43">
+        <v>181</v>
+      </c>
+      <c r="D108" s="43">
+        <v>173</v>
+      </c>
+      <c r="E108" s="69">
+        <v>196</v>
+      </c>
+      <c r="F108" s="43">
+        <f>SUM(C108:E108)</f>
+        <v>550</v>
+      </c>
+      <c r="G108" s="87">
+        <f>F108/COUNTA(C108:E108)</f>
+        <v>183.33333333333334</v>
+      </c>
+      <c r="H108" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="I108" s="70">
+        <f>VLOOKUP(B108,'총에버 관리_2023'!$A$3:$V$22,21,FALSE)</f>
         <v>15</v>
       </c>
+      <c r="J108" s="70">
+        <f>VLOOKUP(B108,'총에버 관리_2023'!$A$3:$V$22,20,FALSE)</f>
+        <v>2813</v>
+      </c>
+      <c r="K108" s="83">
+        <f>VLOOKUP(B108,'총에버 관리_2023'!$A$3:$V$22,22,FALSE)</f>
+        <v>187.53333333333333</v>
+      </c>
+      <c r="L108" s="84">
+        <f>RANK(K108,'총에버 관리_2023'!$V$3:$V$22)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="18.75">
+      <c r="A109" s="77">
+        <f>RANK(G109,$G$100:$G$117)</f>
+        <v>10</v>
+      </c>
+      <c r="B109" s="72" t="s">
+        <v>308</v>
+      </c>
+      <c r="C109" s="43">
+        <v>166</v>
+      </c>
+      <c r="D109" s="43">
+        <v>153</v>
+      </c>
+      <c r="E109" s="69">
+        <v>224</v>
+      </c>
+      <c r="F109" s="43">
+        <f>SUM(C109:E109)</f>
+        <v>543</v>
+      </c>
+      <c r="G109" s="87">
+        <f>F109/COUNTA(C109:E109)</f>
+        <v>181</v>
+      </c>
+      <c r="H109" s="72" t="s">
+        <v>308</v>
+      </c>
+      <c r="I109" s="70">
+        <f>VLOOKUP(B109,'총에버 관리_2023'!$A$3:$V$22,21,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="J109" s="70">
+        <f>VLOOKUP(B109,'총에버 관리_2023'!$A$3:$V$22,20,FALSE)</f>
+        <v>3887</v>
+      </c>
+      <c r="K109" s="83">
+        <f>VLOOKUP(B109,'총에버 관리_2023'!$A$3:$V$22,22,FALSE)</f>
+        <v>185.0952380952381</v>
+      </c>
+      <c r="L109" s="84">
+        <f>RANK(K109,'총에버 관리_2023'!$V$3:$V$22)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="18.75">
+      <c r="A110" s="77">
+        <f>RANK(G110,$G$100:$G$117)</f>
+        <v>11</v>
+      </c>
+      <c r="B110" s="72" t="s">
+        <v>309</v>
+      </c>
+      <c r="C110" s="43">
+        <v>157</v>
+      </c>
+      <c r="D110" s="58">
+        <v>175</v>
+      </c>
+      <c r="E110" s="69">
+        <v>173</v>
+      </c>
+      <c r="F110" s="43">
+        <f>SUM(C110:E110)</f>
+        <v>505</v>
+      </c>
+      <c r="G110" s="87">
+        <f>F110/COUNTA(C110:E110)</f>
+        <v>168.33333333333334</v>
+      </c>
+      <c r="H110" s="72" t="s">
+        <v>309</v>
+      </c>
+      <c r="I110" s="70">
+        <f>VLOOKUP(B110,'총에버 관리_2023'!$A$3:$V$22,21,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="J110" s="70">
+        <f>VLOOKUP(B110,'총에버 관리_2023'!$A$3:$V$22,20,FALSE)</f>
+        <v>3215</v>
+      </c>
+      <c r="K110" s="83">
+        <f>VLOOKUP(B110,'총에버 관리_2023'!$A$3:$V$22,22,FALSE)</f>
+        <v>178.61111111111111</v>
+      </c>
+      <c r="L110" s="84">
+        <f>RANK(K110,'총에버 관리_2023'!$V$3:$V$22)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="18.75">
+      <c r="A111" s="77">
+        <f>RANK(G111,$G$100:$G$117)</f>
+        <v>12</v>
+      </c>
+      <c r="B111" s="61" t="s">
+        <v>301</v>
+      </c>
+      <c r="C111" s="43">
+        <v>187</v>
+      </c>
+      <c r="D111" s="43">
+        <v>158</v>
+      </c>
+      <c r="E111" s="69">
+        <v>158</v>
+      </c>
+      <c r="F111" s="43">
+        <f>SUM(C111:E111)</f>
+        <v>503</v>
+      </c>
+      <c r="G111" s="87">
+        <f>F111/COUNTA(C111:E111)</f>
+        <v>167.66666666666666</v>
+      </c>
+      <c r="H111" s="61" t="s">
+        <v>301</v>
+      </c>
+      <c r="I111" s="70">
+        <f>VLOOKUP(B111,'총에버 관리_2023'!$A$3:$V$22,21,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="J111" s="70">
+        <f>VLOOKUP(B111,'총에버 관리_2023'!$A$3:$V$22,20,FALSE)</f>
+        <v>2709</v>
+      </c>
+      <c r="K111" s="83">
+        <f>VLOOKUP(B111,'총에버 관리_2023'!$A$3:$V$22,22,FALSE)</f>
+        <v>150.5</v>
+      </c>
+      <c r="L111" s="84">
+        <f>RANK(K111,'총에버 관리_2023'!$V$3:$V$22)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="18.75">
+      <c r="A112" s="77">
+        <f>RANK(G112,$G$100:$G$117)</f>
+        <v>13</v>
+      </c>
+      <c r="B112" s="72" t="s">
+        <v>317</v>
+      </c>
+      <c r="C112" s="43">
+        <v>165</v>
+      </c>
+      <c r="D112" s="58">
+        <v>166</v>
+      </c>
+      <c r="E112" s="69">
+        <v>157</v>
+      </c>
+      <c r="F112" s="43">
+        <f>SUM(C112:E112)</f>
+        <v>488</v>
+      </c>
+      <c r="G112" s="87">
+        <f>F112/COUNTA(C112:E112)</f>
+        <v>162.66666666666666</v>
+      </c>
+      <c r="H112" s="72" t="s">
+        <v>317</v>
+      </c>
+      <c r="I112" s="70"/>
+      <c r="J112" s="70"/>
+      <c r="K112" s="83"/>
+      <c r="L112" s="84"/>
+    </row>
+    <row r="113" spans="1:12" ht="18.75">
+      <c r="A113" s="77">
+        <f>RANK(G113,$G$100:$G$117)</f>
+        <v>14</v>
+      </c>
+      <c r="B113" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="C113" s="43">
+        <v>193</v>
+      </c>
+      <c r="D113" s="58">
+        <v>168</v>
+      </c>
+      <c r="E113" s="63">
+        <v>125</v>
+      </c>
+      <c r="F113" s="58">
+        <f>SUM(C113:E113)</f>
+        <v>486</v>
+      </c>
+      <c r="G113" s="87">
+        <f>F113/COUNTA(C113:E113)</f>
+        <v>162</v>
+      </c>
+      <c r="H113" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="I113" s="70">
+        <f>VLOOKUP(B113,'총에버 관리_2023'!$A$3:$V$22,21,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="J113" s="70">
+        <f>VLOOKUP(B113,'총에버 관리_2023'!$A$3:$V$22,20,FALSE)</f>
+        <v>1970</v>
+      </c>
+      <c r="K113" s="83">
+        <f>VLOOKUP(B113,'총에버 관리_2023'!$A$3:$V$22,22,FALSE)</f>
+        <v>164.16666666666666</v>
+      </c>
+      <c r="L113" s="84">
+        <f>RANK(K113,'총에버 관리_2023'!$V$3:$V$22)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="18.75">
+      <c r="A114" s="77">
+        <f>RANK(G114,$G$100:$G$117)</f>
+        <v>15</v>
+      </c>
+      <c r="B114" s="72" t="s">
+        <v>312</v>
+      </c>
+      <c r="C114" s="43">
+        <v>170</v>
+      </c>
+      <c r="D114" s="43">
+        <v>128</v>
+      </c>
+      <c r="E114" s="69">
+        <v>146</v>
+      </c>
+      <c r="F114" s="43">
+        <f>SUM(C114:E114)</f>
+        <v>444</v>
+      </c>
+      <c r="G114" s="87">
+        <f>F114/COUNTA(C114:E114)</f>
+        <v>148</v>
+      </c>
+      <c r="H114" s="72" t="s">
+        <v>312</v>
+      </c>
+      <c r="I114" s="70">
+        <f>VLOOKUP(B114,'총에버 관리_2023'!$A$3:$V$22,21,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="J114" s="70">
+        <f>VLOOKUP(B114,'총에버 관리_2023'!$A$3:$V$22,20,FALSE)</f>
+        <v>1265</v>
+      </c>
+      <c r="K114" s="83">
+        <f>VLOOKUP(B114,'총에버 관리_2023'!$A$3:$V$22,22,FALSE)</f>
+        <v>140.55555555555554</v>
+      </c>
+      <c r="L114" s="84">
+        <f>RANK(K114,'총에버 관리_2023'!$V$3:$V$22)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="18.75">
+      <c r="A115" s="77">
+        <f>RANK(G115,$G$100:$G$117)</f>
+        <v>16</v>
+      </c>
+      <c r="B115" s="72" t="s">
+        <v>316</v>
+      </c>
+      <c r="C115" s="43">
+        <v>140</v>
+      </c>
+      <c r="D115" s="43">
+        <v>176</v>
+      </c>
+      <c r="E115" s="69">
+        <v>123</v>
+      </c>
+      <c r="F115" s="43">
+        <f>SUM(C115:E115)</f>
+        <v>439</v>
+      </c>
+      <c r="G115" s="87">
+        <f>F115/COUNTA(C115:E115)</f>
+        <v>146.33333333333334</v>
+      </c>
+      <c r="H115" s="72" t="s">
+        <v>316</v>
+      </c>
+      <c r="I115" s="70"/>
+      <c r="J115" s="70"/>
+      <c r="K115" s="83"/>
+      <c r="L115" s="84"/>
+    </row>
+    <row r="116" spans="1:12" ht="18.75">
+      <c r="A116" s="77">
+        <f>RANK(G116,$G$100:$G$117)</f>
+        <v>17</v>
+      </c>
+      <c r="B116" s="65" t="s">
+        <v>304</v>
+      </c>
+      <c r="C116" s="43">
+        <v>147</v>
+      </c>
+      <c r="D116" s="43">
+        <v>108</v>
+      </c>
+      <c r="E116" s="43">
+        <v>180</v>
+      </c>
+      <c r="F116" s="43">
+        <f>SUM(C116:E116)</f>
+        <v>435</v>
+      </c>
+      <c r="G116" s="87">
+        <f>F116/COUNTA(C116:E116)</f>
+        <v>145</v>
+      </c>
+      <c r="H116" s="65" t="s">
+        <v>304</v>
+      </c>
+      <c r="I116" s="70">
+        <f>VLOOKUP(B116,'총에버 관리_2023'!$A$3:$V$22,21,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="J116" s="70">
+        <f>VLOOKUP(B116,'총에버 관리_2023'!$A$3:$V$22,20,FALSE)</f>
+        <v>1939</v>
+      </c>
+      <c r="K116" s="83">
+        <f>VLOOKUP(B116,'총에버 관리_2023'!$A$3:$V$22,22,FALSE)</f>
+        <v>129.26666666666668</v>
+      </c>
+      <c r="L116" s="84">
+        <f>RANK(K116,'총에버 관리_2023'!$V$3:$V$22)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="18.75">
+      <c r="A117" s="77">
+        <f>RANK(G117,$G$100:$G$117)</f>
+        <v>18</v>
+      </c>
+      <c r="B117" s="65" t="s">
+        <v>318</v>
+      </c>
+      <c r="C117" s="43">
+        <v>137</v>
+      </c>
+      <c r="D117" s="43">
+        <v>114</v>
+      </c>
+      <c r="E117" s="43">
+        <v>113</v>
+      </c>
+      <c r="F117" s="43">
+        <f>SUM(C117:E117)</f>
+        <v>364</v>
+      </c>
+      <c r="G117" s="87">
+        <f>F117/COUNTA(C117:E117)</f>
+        <v>121.33333333333333</v>
+      </c>
+      <c r="H117" s="65" t="s">
+        <v>318</v>
+      </c>
+      <c r="I117" s="70">
+        <f>VLOOKUP(B117,'총에버 관리_2023'!$A$3:$V$22,21,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="J117" s="70">
+        <f>VLOOKUP(B117,'총에버 관리_2023'!$A$3:$V$22,20,FALSE)</f>
+        <v>364</v>
+      </c>
+      <c r="K117" s="83">
+        <f>VLOOKUP(B117,'총에버 관리_2023'!$A$3:$V$22,22,FALSE)</f>
+        <v>121.33333333333333</v>
+      </c>
+      <c r="L117" s="84">
+        <f>RANK(K117,'총에버 관리_2023'!$V$3:$V$22)</f>
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A84:L95">
-    <sortCondition ref="A83"/>
+  <sortState ref="A100:L117">
+    <sortCondition ref="A99"/>
   </sortState>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A98:L98"/>
     <mergeCell ref="A82:L82"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A19:L19"/>
@@ -10642,162 +11650,242 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C4:E15 C21:E31 C36:E45">
-    <cfRule type="cellIs" dxfId="87" priority="277" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="99" priority="293" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F15 F21:F31 F36:F45">
-    <cfRule type="cellIs" dxfId="86" priority="276" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="98" priority="292" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G15 G21:G31 G36:G45">
-    <cfRule type="cellIs" dxfId="85" priority="275" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="97" priority="291" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K15 K21:K31 K36:K45">
-    <cfRule type="cellIs" dxfId="84" priority="274" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="290" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:E59">
-    <cfRule type="cellIs" dxfId="83" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="95" priority="44" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50:F59">
-    <cfRule type="cellIs" dxfId="82" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="94" priority="43" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:G59">
-    <cfRule type="cellIs" dxfId="81" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="93" priority="42" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K50:K59">
-    <cfRule type="cellIs" dxfId="80" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="92" priority="41" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:E62">
-    <cfRule type="cellIs" dxfId="79" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="91" priority="40" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60:F62">
-    <cfRule type="cellIs" dxfId="78" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="90" priority="39" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G60:G62">
-    <cfRule type="cellIs" dxfId="77" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="89" priority="38" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K60:K62">
-    <cfRule type="cellIs" dxfId="76" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="37" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63:E63">
-    <cfRule type="cellIs" dxfId="75" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="87" priority="36" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63">
-    <cfRule type="cellIs" dxfId="74" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="86" priority="35" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G63">
-    <cfRule type="cellIs" dxfId="73" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="85" priority="34" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K63">
-    <cfRule type="cellIs" dxfId="72" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="33" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:E77">
-    <cfRule type="cellIs" dxfId="71" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="83" priority="32" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68:F77">
-    <cfRule type="cellIs" dxfId="70" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="31" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G68:G77">
-    <cfRule type="cellIs" dxfId="69" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="81" priority="30" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K68:K79">
-    <cfRule type="cellIs" dxfId="68" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="29" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C78:E79">
-    <cfRule type="cellIs" dxfId="67" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="79" priority="28" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78:F79">
-    <cfRule type="cellIs" dxfId="66" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="27" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78:G79">
-    <cfRule type="cellIs" dxfId="65" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="77" priority="26" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K78:K79">
-    <cfRule type="cellIs" dxfId="64" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="25" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C84:E93">
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="24" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F84:F93">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="23" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G84:G93">
+    <cfRule type="cellIs" dxfId="73" priority="22" operator="greaterThan">
+      <formula>199.999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K84:K95">
+    <cfRule type="cellIs" dxfId="72" priority="21" operator="greaterThan">
+      <formula>199.99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C94:E95">
+    <cfRule type="cellIs" dxfId="71" priority="20" operator="greaterThan">
+      <formula>199</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F94:F95">
+    <cfRule type="cellIs" dxfId="70" priority="19" operator="greaterThan">
+      <formula>599</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G94:G95">
+    <cfRule type="cellIs" dxfId="69" priority="18" operator="greaterThan">
+      <formula>199.999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K94:K95">
+    <cfRule type="cellIs" dxfId="68" priority="17" operator="greaterThan">
+      <formula>199.99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C100:E109">
+    <cfRule type="cellIs" dxfId="28" priority="16" operator="greaterThan">
+      <formula>199</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F100:F109">
+    <cfRule type="cellIs" dxfId="27" priority="15" operator="greaterThan">
+      <formula>599</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G100:G109">
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="greaterThan">
+      <formula>199.999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K100:K117">
+    <cfRule type="cellIs" dxfId="25" priority="13" operator="greaterThan">
+      <formula>199.99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C110:E111">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="greaterThan">
+      <formula>199</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F110:F111">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="greaterThan">
+      <formula>599</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G110:G111">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="greaterThan">
+      <formula>199.999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K110:K111">
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="greaterThan">
+      <formula>199.99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C112:E115">
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="greaterThan">
+      <formula>199</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F112:F115">
+    <cfRule type="cellIs" dxfId="19" priority="7" operator="greaterThan">
+      <formula>599</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G112:G115">
     <cfRule type="cellIs" dxfId="18" priority="6" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K84:K95">
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="K112:K117">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C94:E95">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="C116:E117">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F94:F95">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="F116:F117">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G94:G95">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="G116:G117">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K94:K95">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="K116:K117">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10826,19 +11914,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.9" customHeight="1">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="186" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186"/>
-      <c r="K1" s="187"/>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="188"/>
     </row>
     <row r="2" spans="1:11" ht="27.6" customHeight="1">
       <c r="A2" s="33" t="s">
@@ -11327,19 +12415,19 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="49.5" customHeight="1">
-      <c r="A17" s="185" t="s">
+      <c r="A17" s="186" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="186"/>
-      <c r="C17" s="186"/>
-      <c r="D17" s="186"/>
-      <c r="E17" s="186"/>
-      <c r="F17" s="186"/>
-      <c r="G17" s="186"/>
-      <c r="H17" s="186"/>
-      <c r="I17" s="186"/>
-      <c r="J17" s="186"/>
-      <c r="K17" s="187"/>
+      <c r="B17" s="187"/>
+      <c r="C17" s="187"/>
+      <c r="D17" s="187"/>
+      <c r="E17" s="187"/>
+      <c r="F17" s="187"/>
+      <c r="G17" s="187"/>
+      <c r="H17" s="187"/>
+      <c r="I17" s="187"/>
+      <c r="J17" s="187"/>
+      <c r="K17" s="188"/>
     </row>
     <row r="18" spans="1:11" ht="18.75">
       <c r="A18" s="33" t="s">
@@ -11951,19 +13039,19 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="36" customHeight="1">
-      <c r="A34" s="185" t="s">
+      <c r="A34" s="186" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="186"/>
-      <c r="C34" s="186"/>
-      <c r="D34" s="186"/>
-      <c r="E34" s="186"/>
-      <c r="F34" s="186"/>
-      <c r="G34" s="186"/>
-      <c r="H34" s="186"/>
-      <c r="I34" s="186"/>
-      <c r="J34" s="186"/>
-      <c r="K34" s="187"/>
+      <c r="B34" s="187"/>
+      <c r="C34" s="187"/>
+      <c r="D34" s="187"/>
+      <c r="E34" s="187"/>
+      <c r="F34" s="187"/>
+      <c r="G34" s="187"/>
+      <c r="H34" s="187"/>
+      <c r="I34" s="187"/>
+      <c r="J34" s="187"/>
+      <c r="K34" s="188"/>
     </row>
     <row r="35" spans="1:11" ht="18.75">
       <c r="A35" s="33" t="s">
@@ -12452,19 +13540,19 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="44.25" customHeight="1">
-      <c r="A48" s="185" t="s">
+      <c r="A48" s="186" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="186"/>
-      <c r="C48" s="186"/>
-      <c r="D48" s="186"/>
-      <c r="E48" s="186"/>
-      <c r="F48" s="186"/>
-      <c r="G48" s="186"/>
-      <c r="H48" s="186"/>
-      <c r="I48" s="186"/>
-      <c r="J48" s="186"/>
-      <c r="K48" s="187"/>
+      <c r="B48" s="187"/>
+      <c r="C48" s="187"/>
+      <c r="D48" s="187"/>
+      <c r="E48" s="187"/>
+      <c r="F48" s="187"/>
+      <c r="G48" s="187"/>
+      <c r="H48" s="187"/>
+      <c r="I48" s="187"/>
+      <c r="J48" s="187"/>
+      <c r="K48" s="188"/>
     </row>
     <row r="49" spans="1:11" ht="18.75">
       <c r="A49" s="33" t="s">
@@ -12912,19 +14000,19 @@
       </c>
     </row>
     <row r="62" spans="1:11" ht="44.25" customHeight="1">
-      <c r="A62" s="185" t="s">
+      <c r="A62" s="186" t="s">
         <v>70</v>
       </c>
-      <c r="B62" s="186"/>
-      <c r="C62" s="186"/>
-      <c r="D62" s="186"/>
-      <c r="E62" s="186"/>
-      <c r="F62" s="186"/>
-      <c r="G62" s="186"/>
-      <c r="H62" s="186"/>
-      <c r="I62" s="186"/>
-      <c r="J62" s="186"/>
-      <c r="K62" s="187"/>
+      <c r="B62" s="187"/>
+      <c r="C62" s="187"/>
+      <c r="D62" s="187"/>
+      <c r="E62" s="187"/>
+      <c r="F62" s="187"/>
+      <c r="G62" s="187"/>
+      <c r="H62" s="187"/>
+      <c r="I62" s="187"/>
+      <c r="J62" s="187"/>
+      <c r="K62" s="188"/>
     </row>
     <row r="63" spans="1:11" ht="18.75">
       <c r="A63" s="33" t="s">
@@ -13414,19 +14502,19 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1"/>
     <row r="78" spans="1:11" ht="43.5" customHeight="1">
-      <c r="A78" s="185" t="s">
+      <c r="A78" s="186" t="s">
         <v>71</v>
       </c>
-      <c r="B78" s="186"/>
-      <c r="C78" s="186"/>
-      <c r="D78" s="186"/>
-      <c r="E78" s="186"/>
-      <c r="F78" s="186"/>
-      <c r="G78" s="186"/>
-      <c r="H78" s="186"/>
-      <c r="I78" s="186"/>
-      <c r="J78" s="186"/>
-      <c r="K78" s="187"/>
+      <c r="B78" s="187"/>
+      <c r="C78" s="187"/>
+      <c r="D78" s="187"/>
+      <c r="E78" s="187"/>
+      <c r="F78" s="187"/>
+      <c r="G78" s="187"/>
+      <c r="H78" s="187"/>
+      <c r="I78" s="187"/>
+      <c r="J78" s="187"/>
+      <c r="K78" s="188"/>
     </row>
     <row r="79" spans="1:11" ht="18.75">
       <c r="A79" s="33" t="s">
@@ -13968,20 +15056,20 @@
       </c>
     </row>
     <row r="95" spans="1:12" ht="42.75" customHeight="1">
-      <c r="A95" s="183" t="s">
+      <c r="A95" s="184" t="s">
         <v>73</v>
       </c>
-      <c r="B95" s="184"/>
-      <c r="C95" s="184"/>
-      <c r="D95" s="184"/>
-      <c r="E95" s="184"/>
-      <c r="F95" s="184"/>
-      <c r="G95" s="184"/>
-      <c r="H95" s="184"/>
-      <c r="I95" s="184"/>
-      <c r="J95" s="184"/>
-      <c r="K95" s="184"/>
-      <c r="L95" s="184"/>
+      <c r="B95" s="185"/>
+      <c r="C95" s="185"/>
+      <c r="D95" s="185"/>
+      <c r="E95" s="185"/>
+      <c r="F95" s="185"/>
+      <c r="G95" s="185"/>
+      <c r="H95" s="185"/>
+      <c r="I95" s="185"/>
+      <c r="J95" s="185"/>
+      <c r="K95" s="185"/>
+      <c r="L95" s="185"/>
     </row>
     <row r="96" spans="1:12" ht="38.25" thickBot="1">
       <c r="A96" s="74" t="s">
@@ -14436,20 +15524,20 @@
       </c>
     </row>
     <row r="108" spans="1:12" ht="42.75" customHeight="1">
-      <c r="A108" s="183" t="s">
+      <c r="A108" s="184" t="s">
         <v>75</v>
       </c>
-      <c r="B108" s="184"/>
-      <c r="C108" s="184"/>
-      <c r="D108" s="184"/>
-      <c r="E108" s="184"/>
-      <c r="F108" s="184"/>
-      <c r="G108" s="184"/>
-      <c r="H108" s="184"/>
-      <c r="I108" s="184"/>
-      <c r="J108" s="184"/>
-      <c r="K108" s="184"/>
-      <c r="L108" s="184"/>
+      <c r="B108" s="185"/>
+      <c r="C108" s="185"/>
+      <c r="D108" s="185"/>
+      <c r="E108" s="185"/>
+      <c r="F108" s="185"/>
+      <c r="G108" s="185"/>
+      <c r="H108" s="185"/>
+      <c r="I108" s="185"/>
+      <c r="J108" s="185"/>
+      <c r="K108" s="185"/>
+      <c r="L108" s="185"/>
     </row>
     <row r="109" spans="1:12" ht="38.25" thickBot="1">
       <c r="A109" s="74" t="s">
@@ -14995,82 +16083,82 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C3:E13 C19:E32 C36:E46 C50:E59 C64:E74 C80:E91 C97:E105">
-    <cfRule type="cellIs" dxfId="63" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="16" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F13 F19:F32 F36:F46 F50:F59 F64:F74 F80:F91 F97:F105">
-    <cfRule type="cellIs" dxfId="62" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="15" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G13 G19:G32 G36:G46 G50:G59 G64:G74 G80:G91 G97:G105">
-    <cfRule type="cellIs" dxfId="61" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="14" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K13 K19:K32 K36:K46 K50:K59 K64:K74 K80:K91 K97:K105">
-    <cfRule type="cellIs" dxfId="60" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="13" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C110:E118">
-    <cfRule type="cellIs" dxfId="59" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="12" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F110:F118">
-    <cfRule type="cellIs" dxfId="58" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="11" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G110:G118">
-    <cfRule type="cellIs" dxfId="57" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="10" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K110:K118">
-    <cfRule type="cellIs" dxfId="56" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="9" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C119:E119">
-    <cfRule type="cellIs" dxfId="55" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="8" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119">
-    <cfRule type="cellIs" dxfId="54" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="7" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G119">
-    <cfRule type="cellIs" dxfId="53" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="6" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K119">
-    <cfRule type="cellIs" dxfId="52" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="5" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C120:E120">
-    <cfRule type="cellIs" dxfId="51" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="4" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120">
-    <cfRule type="cellIs" dxfId="50" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="3" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G120">
-    <cfRule type="cellIs" dxfId="49" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="2" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K120">
-    <cfRule type="cellIs" dxfId="48" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="1" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15081,11 +16169,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:Z22"/>
+  <dimension ref="A2:Z23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H22" sqref="H22"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -15193,7 +16281,10 @@
         <f>IFERROR(VLOOKUP(A3,정기전_2023!$B$84:$F$95,5,FALSE),"")</f>
         <v>449</v>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A3,정기전_2023!$B$100:$F$118,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="I3" s="91"/>
       <c r="J3" s="91"/>
       <c r="K3" s="91"/>
@@ -15249,7 +16340,10 @@
         <f>IFERROR(VLOOKUP(A4,정기전_2023!$B$84:$F$95,5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H4" s="91"/>
+      <c r="H4" s="91">
+        <f>IFERROR(VLOOKUP(A4,정기전_2023!$B$100:$F$118,5,FALSE),"")</f>
+        <v>550</v>
+      </c>
       <c r="I4" s="91"/>
       <c r="J4" s="91"/>
       <c r="K4" s="91"/>
@@ -15263,15 +16357,15 @@
       <c r="S4" s="91"/>
       <c r="T4" s="92">
         <f t="shared" si="0"/>
-        <v>2263</v>
+        <v>2813</v>
       </c>
       <c r="U4" s="92">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="V4" s="93">
         <f t="shared" si="2"/>
-        <v>188.58333333333334</v>
+        <v>187.53333333333333</v>
       </c>
       <c r="X4" s="90"/>
       <c r="Y4" s="90"/>
@@ -15305,7 +16399,10 @@
         <f>IFERROR(VLOOKUP(A5,정기전_2023!$B$84:$F$95,5,FALSE),"")</f>
         <v>543</v>
       </c>
-      <c r="H5" s="91"/>
+      <c r="H5" s="91">
+        <f>IFERROR(VLOOKUP(A5,정기전_2023!$B$100:$F$118,5,FALSE),"")</f>
+        <v>553</v>
+      </c>
       <c r="I5" s="91"/>
       <c r="J5" s="91"/>
       <c r="K5" s="91"/>
@@ -15319,15 +16416,15 @@
       <c r="S5" s="91"/>
       <c r="T5" s="92">
         <f t="shared" si="0"/>
-        <v>2702</v>
+        <v>3255</v>
       </c>
       <c r="U5" s="92">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="V5" s="93">
         <f t="shared" si="2"/>
-        <v>180.13333333333333</v>
+        <v>180.83333333333334</v>
       </c>
       <c r="X5" s="90"/>
       <c r="Y5" s="90"/>
@@ -15361,7 +16458,10 @@
         <f>IFERROR(VLOOKUP(A6,정기전_2023!$B$84:$F$95,5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H6" s="91"/>
+      <c r="H6" s="91">
+        <f>IFERROR(VLOOKUP(A6,정기전_2023!$B$100:$F$118,5,FALSE),"")</f>
+        <v>486</v>
+      </c>
       <c r="I6" s="91"/>
       <c r="J6" s="91"/>
       <c r="K6" s="91"/>
@@ -15375,15 +16475,15 @@
       <c r="S6" s="91"/>
       <c r="T6" s="92">
         <f t="shared" si="0"/>
-        <v>1484</v>
+        <v>1970</v>
       </c>
       <c r="U6" s="92">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V6" s="93">
         <f t="shared" si="2"/>
-        <v>164.88888888888889</v>
+        <v>164.16666666666666</v>
       </c>
       <c r="X6" s="90"/>
       <c r="Y6" s="90"/>
@@ -15417,7 +16517,10 @@
         <f>IFERROR(VLOOKUP(A7,정기전_2023!$B$84:$F$95,5,FALSE),"")</f>
         <v>631</v>
       </c>
-      <c r="H7" s="91"/>
+      <c r="H7" s="91">
+        <f>IFERROR(VLOOKUP(A7,정기전_2023!$B$100:$F$118,5,FALSE),"")</f>
+        <v>634</v>
+      </c>
       <c r="I7" s="91"/>
       <c r="J7" s="91"/>
       <c r="K7" s="91"/>
@@ -15431,15 +16534,15 @@
       <c r="S7" s="91"/>
       <c r="T7" s="92">
         <f t="shared" si="0"/>
-        <v>2769</v>
+        <v>3403</v>
       </c>
       <c r="U7" s="92">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="V7" s="93">
         <f t="shared" si="2"/>
-        <v>184.6</v>
+        <v>189.05555555555554</v>
       </c>
       <c r="X7" s="90"/>
       <c r="Y7" s="90"/>
@@ -15473,7 +16576,10 @@
         <f>IFERROR(VLOOKUP(A8,정기전_2023!$B$84:$F$95,5,FALSE),"")</f>
         <v>665</v>
       </c>
-      <c r="H8" s="91"/>
+      <c r="H8" s="91">
+        <f>IFERROR(VLOOKUP(A8,정기전_2023!$B$100:$F$118,5,FALSE),"")</f>
+        <v>571</v>
+      </c>
       <c r="I8" s="91"/>
       <c r="J8" s="91"/>
       <c r="K8" s="91"/>
@@ -15487,15 +16593,15 @@
       <c r="S8" s="91"/>
       <c r="T8" s="92">
         <f t="shared" si="0"/>
-        <v>1782</v>
+        <v>2353</v>
       </c>
       <c r="U8" s="92">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V8" s="93">
         <f t="shared" si="2"/>
-        <v>198</v>
+        <v>196.08333333333334</v>
       </c>
       <c r="X8" s="90"/>
       <c r="Y8" s="90"/>
@@ -15529,7 +16635,10 @@
         <f>IFERROR(VLOOKUP(A9,정기전_2023!$B$84:$F$95,5,FALSE),"")</f>
         <v>582</v>
       </c>
-      <c r="H9" s="91"/>
+      <c r="H9" s="91">
+        <f>IFERROR(VLOOKUP(A9,정기전_2023!$B$100:$F$118,5,FALSE),"")</f>
+        <v>553</v>
+      </c>
       <c r="I9" s="91"/>
       <c r="J9" s="91"/>
       <c r="K9" s="91"/>
@@ -15543,15 +16652,15 @@
       <c r="S9" s="91"/>
       <c r="T9" s="92">
         <f t="shared" si="0"/>
-        <v>2939</v>
+        <v>3492</v>
       </c>
       <c r="U9" s="92">
         <f>COUNT(B9:S9)*3-1</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="V9" s="93">
         <f t="shared" si="2"/>
-        <v>172.88235294117646</v>
+        <v>174.6</v>
       </c>
       <c r="X9" s="90"/>
       <c r="Y9" s="90"/>
@@ -15585,7 +16694,10 @@
         <f>IFERROR(VLOOKUP(A10,정기전_2023!$B$84:$F$95,5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H10" s="91"/>
+      <c r="H10" s="91">
+        <f>IFERROR(VLOOKUP(A10,정기전_2023!$B$100:$F$118,5,FALSE),"")</f>
+        <v>573</v>
+      </c>
       <c r="I10" s="91"/>
       <c r="J10" s="91"/>
       <c r="K10" s="91"/>
@@ -15599,15 +16711,15 @@
       <c r="S10" s="91"/>
       <c r="T10" s="92">
         <f t="shared" si="0"/>
-        <v>551</v>
+        <v>1124</v>
       </c>
       <c r="U10" s="92">
         <f>COUNT(B10:S10)*3</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V10" s="93">
         <f t="shared" si="2"/>
-        <v>183.66666666666666</v>
+        <v>187.33333333333334</v>
       </c>
       <c r="X10" s="90"/>
       <c r="Y10" s="90"/>
@@ -15641,7 +16753,10 @@
         <f>IFERROR(VLOOKUP(A11,정기전_2023!$B$84:$F$95,5,FALSE),"")</f>
         <v>385</v>
       </c>
-      <c r="H11" s="91"/>
+      <c r="H11" s="91">
+        <f>IFERROR(VLOOKUP(A11,정기전_2023!$B$100:$F$118,5,FALSE),"")</f>
+        <v>503</v>
+      </c>
       <c r="I11" s="91"/>
       <c r="J11" s="91"/>
       <c r="K11" s="91"/>
@@ -15655,15 +16770,15 @@
       <c r="S11" s="91"/>
       <c r="T11" s="92">
         <f t="shared" si="0"/>
-        <v>2206</v>
+        <v>2709</v>
       </c>
       <c r="U11" s="92">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="V11" s="93">
         <f t="shared" si="2"/>
-        <v>147.06666666666666</v>
+        <v>150.5</v>
       </c>
       <c r="X11" s="90"/>
       <c r="Y11" s="90"/>
@@ -15697,7 +16812,10 @@
         <f>IFERROR(VLOOKUP(A12,정기전_2023!$B$84:$F$95,5,FALSE),"")</f>
         <v>672</v>
       </c>
-      <c r="H12" s="91"/>
+      <c r="H12" s="91">
+        <f>IFERROR(VLOOKUP(A12,정기전_2023!$B$100:$F$118,5,FALSE),"")</f>
+        <v>576</v>
+      </c>
       <c r="I12" s="91"/>
       <c r="J12" s="91"/>
       <c r="K12" s="91"/>
@@ -15711,15 +16829,15 @@
       <c r="S12" s="91"/>
       <c r="T12" s="92">
         <f t="shared" si="0"/>
-        <v>3666</v>
+        <v>4242</v>
       </c>
       <c r="U12" s="92">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="V12" s="93">
         <f t="shared" si="2"/>
-        <v>203.66666666666666</v>
+        <v>202</v>
       </c>
       <c r="X12" s="90"/>
       <c r="Y12" s="90"/>
@@ -15753,7 +16871,10 @@
         <f>IFERROR(VLOOKUP(A13,정기전_2023!$B$84:$F$95,5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H13" s="91"/>
+      <c r="H13" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A13,정기전_2023!$B$100:$F$118,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="I13" s="91"/>
       <c r="J13" s="91"/>
       <c r="K13" s="91"/>
@@ -15809,7 +16930,10 @@
         <f>IFERROR(VLOOKUP(A14,정기전_2023!$B$84:$F$95,5,FALSE),"")</f>
         <v>646</v>
       </c>
-      <c r="H14" s="91"/>
+      <c r="H14" s="91">
+        <f>IFERROR(VLOOKUP(A14,정기전_2023!$B$100:$F$118,5,FALSE),"")</f>
+        <v>543</v>
+      </c>
       <c r="I14" s="91"/>
       <c r="J14" s="91"/>
       <c r="K14" s="91"/>
@@ -15823,15 +16947,15 @@
       <c r="S14" s="91"/>
       <c r="T14" s="92">
         <f t="shared" si="0"/>
-        <v>3344</v>
+        <v>3887</v>
       </c>
       <c r="U14" s="92">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="V14" s="93">
         <f t="shared" si="2"/>
-        <v>185.77777777777777</v>
+        <v>185.0952380952381</v>
       </c>
       <c r="X14" s="90"/>
       <c r="Y14" s="90"/>
@@ -15865,7 +16989,10 @@
         <f>IFERROR(VLOOKUP(A15,정기전_2023!$B$84:$F$95,5,FALSE),"")</f>
         <v>581</v>
       </c>
-      <c r="H15" s="91"/>
+      <c r="H15" s="91">
+        <f>IFERROR(VLOOKUP(A15,정기전_2023!$B$100:$F$118,5,FALSE),"")</f>
+        <v>598</v>
+      </c>
       <c r="I15" s="91"/>
       <c r="J15" s="91"/>
       <c r="K15" s="91"/>
@@ -15879,15 +17006,15 @@
       <c r="S15" s="91"/>
       <c r="T15" s="92">
         <f t="shared" si="0"/>
-        <v>3446</v>
+        <v>4044</v>
       </c>
       <c r="U15" s="92">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="V15" s="93">
         <f t="shared" ref="V15:V16" si="3">IF(U15=0, "",  T15/U15)</f>
-        <v>191.44444444444446</v>
+        <v>192.57142857142858</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -15918,7 +17045,10 @@
         <f>IFERROR(VLOOKUP(A16,정기전_2023!$B$84:$F$95,5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H16" s="91"/>
+      <c r="H16" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A16,정기전_2023!$B$100:$F$118,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="I16" s="91"/>
       <c r="J16" s="91"/>
       <c r="K16" s="91"/>
@@ -15971,7 +17101,10 @@
         <f>IFERROR(VLOOKUP(A17,정기전_2023!$B$84:$F$95,5,FALSE),"")</f>
         <v>541</v>
       </c>
-      <c r="H17" s="91"/>
+      <c r="H17" s="91">
+        <f>IFERROR(VLOOKUP(A17,정기전_2023!$B$100:$F$118,5,FALSE),"")</f>
+        <v>505</v>
+      </c>
       <c r="I17" s="91"/>
       <c r="J17" s="91"/>
       <c r="K17" s="91"/>
@@ -15985,15 +17118,15 @@
       <c r="S17" s="91"/>
       <c r="T17" s="92">
         <f t="shared" si="0"/>
-        <v>2710</v>
+        <v>3215</v>
       </c>
       <c r="U17" s="92">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="V17" s="93">
         <f t="shared" ref="V17:V18" si="4">IF(U17=0, "",  T17/U17)</f>
-        <v>180.66666666666666</v>
+        <v>178.61111111111111</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -16024,7 +17157,10 @@
         <f>IFERROR(VLOOKUP(A18,정기전_2023!$B$84:$F$95,5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H18" s="91"/>
+      <c r="H18" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A18,정기전_2023!$B$100:$F$118,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="I18" s="91"/>
       <c r="J18" s="91"/>
       <c r="K18" s="91"/>
@@ -16077,7 +17213,10 @@
         <f>IFERROR(VLOOKUP(A19,정기전_2023!$B$84:$F$95,5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H19" s="91"/>
+      <c r="H19" s="91">
+        <f>IFERROR(VLOOKUP(A19,정기전_2023!$B$100:$F$118,5,FALSE),"")</f>
+        <v>564</v>
+      </c>
       <c r="I19" s="91"/>
       <c r="J19" s="91"/>
       <c r="K19" s="91"/>
@@ -16091,15 +17230,15 @@
       <c r="S19" s="91"/>
       <c r="T19" s="92">
         <f t="shared" si="0"/>
-        <v>1468</v>
+        <v>2032</v>
       </c>
       <c r="U19" s="92">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V19" s="93">
         <f t="shared" ref="V19" si="5">IF(U19=0, "",  T19/U19)</f>
-        <v>163.11111111111111</v>
+        <v>169.33333333333334</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -16130,7 +17269,10 @@
         <f>IFERROR(VLOOKUP(A20,정기전_2023!$B$84:$F$95,5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H20" s="91"/>
+      <c r="H20" s="91">
+        <f>IFERROR(VLOOKUP(A20,정기전_2023!$B$100:$F$118,5,FALSE),"")</f>
+        <v>435</v>
+      </c>
       <c r="I20" s="91"/>
       <c r="J20" s="91"/>
       <c r="K20" s="91"/>
@@ -16144,15 +17286,15 @@
       <c r="S20" s="91"/>
       <c r="T20" s="92">
         <f t="shared" ref="T20" si="6">SUM(B20:S20)</f>
-        <v>1504</v>
+        <v>1939</v>
       </c>
       <c r="U20" s="92">
         <f t="shared" ref="U20" si="7">COUNT(B20:S20)*3</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="V20" s="93">
         <f t="shared" ref="V20" si="8">IF(U20=0, "",  T20/U20)</f>
-        <v>125.33333333333333</v>
+        <v>129.26666666666668</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -16171,7 +17313,10 @@
         <f>IFERROR(VLOOKUP(A21,정기전_2023!$B$84:$F$95,5,FALSE),"")</f>
         <v>443</v>
       </c>
-      <c r="H21" s="91"/>
+      <c r="H21" s="91">
+        <f>IFERROR(VLOOKUP(A21,정기전_2023!$B$100:$F$118,5,FALSE),"")</f>
+        <v>444</v>
+      </c>
       <c r="I21" s="91"/>
       <c r="J21" s="91"/>
       <c r="K21" s="91"/>
@@ -16185,87 +17330,125 @@
       <c r="S21" s="91"/>
       <c r="T21" s="92">
         <f t="shared" ref="T21" si="9">SUM(B21:S21)</f>
-        <v>821</v>
+        <v>1265</v>
       </c>
       <c r="U21" s="92">
         <f t="shared" ref="U21" si="10">COUNT(B21:S21)*3</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V21" s="93">
         <f t="shared" ref="V21" si="11">IF(U21=0, "",  T21/U21)</f>
-        <v>136.83333333333334</v>
+        <v>140.55555555555554</v>
       </c>
     </row>
     <row r="22" spans="1:22">
-      <c r="B22" s="90">
-        <f>COUNT(B3:B21)</f>
+      <c r="A22" s="89" t="s">
+        <v>319</v>
+      </c>
+      <c r="B22" s="91"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91">
+        <f>IFERROR(VLOOKUP(A22,정기전_2023!$B$100:$F$118,5,FALSE),"")</f>
+        <v>364</v>
+      </c>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="91"/>
+      <c r="N22" s="91"/>
+      <c r="O22" s="91"/>
+      <c r="P22" s="91"/>
+      <c r="Q22" s="91"/>
+      <c r="R22" s="91"/>
+      <c r="S22" s="91"/>
+      <c r="T22" s="92">
+        <f t="shared" ref="T22" si="12">SUM(B22:S22)</f>
+        <v>364</v>
+      </c>
+      <c r="U22" s="92">
+        <f t="shared" ref="U22" si="13">COUNT(B22:S22)*3</f>
+        <v>3</v>
+      </c>
+      <c r="V22" s="93">
+        <f t="shared" ref="V22" si="14">IF(U22=0, "",  T22/U22)</f>
+        <v>121.33333333333333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="B23" s="90">
+        <f t="shared" ref="B23:G23" si="15">COUNT(B3:B21)</f>
         <v>12</v>
       </c>
-      <c r="C22" s="90">
-        <f>COUNT(C3:C21)</f>
+      <c r="C23" s="90">
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
-      <c r="D22" s="90">
-        <f>COUNT(D3:D21)</f>
+      <c r="D23" s="90">
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
-      <c r="E22" s="90">
-        <f>COUNT(E3:E21)</f>
+      <c r="E23" s="90">
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
-      <c r="F22" s="90">
-        <f>COUNT(F3:F21)</f>
+      <c r="F23" s="90">
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
-      <c r="G22" s="90">
-        <f>COUNT(G3:G21)</f>
+      <c r="G23" s="90">
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
-      <c r="H22" s="90">
-        <f t="shared" ref="H22:P22" si="12">COUNT(H3:H19)</f>
+      <c r="H23" s="90">
+        <f>COUNT(H3:H22)</f>
+        <v>16</v>
+      </c>
+      <c r="I23" s="90">
+        <f t="shared" ref="H23:P23" si="16">COUNT(I3:I19)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="90">
-        <f t="shared" si="12"/>
+      <c r="J23" s="90">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J22" s="90">
-        <f t="shared" si="12"/>
+      <c r="K23" s="90">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="K22" s="90">
-        <f t="shared" si="12"/>
+      <c r="L23" s="90">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L22" s="90">
-        <f t="shared" si="12"/>
+      <c r="M23" s="90">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M22" s="90">
-        <f t="shared" si="12"/>
+      <c r="N23" s="90">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="N22" s="90">
-        <f t="shared" si="12"/>
+      <c r="O23" s="90">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O22" s="90">
-        <f t="shared" si="12"/>
+      <c r="P23" s="90">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P22" s="90">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="90">
+      <c r="Q23" s="90">
         <f>COUNT(Q3:Q20)</f>
         <v>0</v>
       </c>
-      <c r="R22" s="90">
+      <c r="R23" s="90">
         <f>COUNT(R3:R20)</f>
         <v>0</v>
       </c>
-      <c r="S22" s="90">
+      <c r="S23" s="90">
         <f>COUNT(S3:S20)</f>
         <v>0</v>
       </c>
@@ -16275,16 +17458,16 @@
     <sortCondition ref="A29"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B3:S21">
-    <cfRule type="cellIs" dxfId="47" priority="18" operator="greaterThan">
+  <conditionalFormatting sqref="B3:S22">
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V21">
-    <cfRule type="cellIs" dxfId="46" priority="16" operator="equal">
+  <conditionalFormatting sqref="V3:V22">
+    <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="17" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17479,20 +18662,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:L28 I29:L29">
-    <cfRule type="cellIs" dxfId="44" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="4" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O29">
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="3" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:L29">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="1" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17574,7 +18757,7 @@
       <c r="V2" s="101"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="188">
+      <c r="A3" s="193">
         <v>1</v>
       </c>
       <c r="B3" s="189" t="s">
@@ -17622,7 +18805,7 @@
       <c r="V3" s="101"/>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="188"/>
+      <c r="A4" s="193"/>
       <c r="B4" s="189"/>
       <c r="C4" s="96" t="s">
         <v>121</v>
@@ -17666,7 +18849,7 @@
       <c r="V4" s="101"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="188"/>
+      <c r="A5" s="193"/>
       <c r="B5" s="189"/>
       <c r="C5" s="96" t="s">
         <v>122</v>
@@ -17704,7 +18887,7 @@
       <c r="V5" s="101"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="188">
+      <c r="A6" s="193">
         <v>2</v>
       </c>
       <c r="B6" s="189" t="s">
@@ -17745,7 +18928,7 @@
       <c r="V6" s="101"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="188"/>
+      <c r="A7" s="193"/>
       <c r="B7" s="189"/>
       <c r="C7" s="96" t="s">
         <v>124</v>
@@ -17782,7 +18965,7 @@
       <c r="V7" s="101"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="188"/>
+      <c r="A8" s="193"/>
       <c r="B8" s="189"/>
       <c r="C8" s="96" t="s">
         <v>125</v>
@@ -17819,7 +19002,7 @@
       <c r="V8" s="101"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="188">
+      <c r="A9" s="193">
         <v>3</v>
       </c>
       <c r="B9" s="189" t="s">
@@ -17863,7 +19046,7 @@
       <c r="V9" s="101"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="188"/>
+      <c r="A10" s="193"/>
       <c r="B10" s="189"/>
       <c r="C10" s="96" t="s">
         <v>120</v>
@@ -17901,7 +19084,7 @@
       <c r="V10" s="101"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="188"/>
+      <c r="A11" s="193"/>
       <c r="B11" s="189"/>
       <c r="C11" s="96" t="s">
         <v>125</v>
@@ -17953,7 +19136,7 @@
       <c r="V11" s="101"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="188">
+      <c r="A12" s="193">
         <v>4</v>
       </c>
       <c r="B12" s="189" t="s">
@@ -18015,7 +19198,7 @@
       <c r="V12" s="101"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="188"/>
+      <c r="A13" s="193"/>
       <c r="B13" s="189"/>
       <c r="C13" s="96" t="s">
         <v>124</v>
@@ -18073,7 +19256,7 @@
       <c r="V13" s="101"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="188"/>
+      <c r="A14" s="193"/>
       <c r="B14" s="189"/>
       <c r="C14" s="96" t="s">
         <v>125</v>
@@ -18131,7 +19314,7 @@
       <c r="V14" s="101"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="188">
+      <c r="A15" s="193">
         <v>5</v>
       </c>
       <c r="B15" s="189" t="s">
@@ -18193,7 +19376,7 @@
       <c r="V15" s="101"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="188"/>
+      <c r="A16" s="193"/>
       <c r="B16" s="189"/>
       <c r="C16" s="96" t="s">
         <v>121</v>
@@ -18251,7 +19434,7 @@
       <c r="V16" s="101"/>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="188"/>
+      <c r="A17" s="193"/>
       <c r="B17" s="189"/>
       <c r="C17" s="96" t="s">
         <v>125</v>
@@ -18309,7 +19492,7 @@
       <c r="V17" s="101"/>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="188">
+      <c r="A18" s="193">
         <v>6</v>
       </c>
       <c r="B18" s="189" t="s">
@@ -18371,7 +19554,7 @@
       <c r="V18" s="101"/>
     </row>
     <row r="19" spans="1:22">
-      <c r="A19" s="188"/>
+      <c r="A19" s="193"/>
       <c r="B19" s="189"/>
       <c r="C19" s="96" t="s">
         <v>120</v>
@@ -18395,10 +19578,10 @@
       <c r="I19" s="96">
         <v>0</v>
       </c>
-      <c r="K19" s="193" t="s">
+      <c r="K19" s="194" t="s">
         <v>109</v>
       </c>
-      <c r="L19" s="193"/>
+      <c r="L19" s="194"/>
       <c r="M19" s="106">
         <f ca="1">SUM(M12:M18)</f>
         <v>39</v>
@@ -18417,7 +19600,7 @@
       <c r="V19" s="101"/>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="188"/>
+      <c r="A20" s="193"/>
       <c r="B20" s="189"/>
       <c r="C20" s="96" t="s">
         <v>125</v>
@@ -18454,7 +19637,7 @@
       <c r="V20" s="101"/>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="188">
+      <c r="A21" s="193">
         <v>7</v>
       </c>
       <c r="B21" s="189" t="s">
@@ -18495,7 +19678,7 @@
       <c r="V21" s="101"/>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="188"/>
+      <c r="A22" s="193"/>
       <c r="B22" s="189"/>
       <c r="C22" s="96" t="s">
         <v>142</v>
@@ -18532,7 +19715,7 @@
       <c r="V22" s="101"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="188"/>
+      <c r="A23" s="193"/>
       <c r="B23" s="189"/>
       <c r="C23" s="96" t="s">
         <v>143</v>
@@ -18569,7 +19752,7 @@
       <c r="V23" s="101"/>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="188">
+      <c r="A24" s="193">
         <v>8</v>
       </c>
       <c r="B24" s="189" t="s">
@@ -18610,7 +19793,7 @@
       <c r="V24" s="101"/>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="188"/>
+      <c r="A25" s="193"/>
       <c r="B25" s="189"/>
       <c r="C25" s="96" t="s">
         <v>147</v>
@@ -18647,7 +19830,7 @@
       <c r="V25" s="101"/>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="188"/>
+      <c r="A26" s="193"/>
       <c r="B26" s="189"/>
       <c r="C26" s="96" t="s">
         <v>148</v>
@@ -18685,7 +19868,7 @@
       <c r="V26" s="101"/>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="188">
+      <c r="A27" s="193">
         <v>9</v>
       </c>
       <c r="B27" s="189" t="s">
@@ -18727,7 +19910,7 @@
       <c r="V27" s="101"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="188"/>
+      <c r="A28" s="193"/>
       <c r="B28" s="189"/>
       <c r="C28" s="96" t="s">
         <v>154</v>
@@ -18765,7 +19948,7 @@
       <c r="V28" s="101"/>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="188"/>
+      <c r="A29" s="193"/>
       <c r="B29" s="189"/>
       <c r="C29" s="96" t="s">
         <v>155</v>
@@ -18853,15 +20036,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K9:Q10"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="K19:L19"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="A12:A14"/>
@@ -18874,15 +20048,24 @@
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="B24:B26"/>
+    <mergeCell ref="K9:Q10"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="K19:L19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D3:F29">
-    <cfRule type="cellIs" dxfId="40" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="4" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G30">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="1" operator="greaterThan">
       <formula>599.99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18960,7 +20143,7 @@
       <c r="R2" s="101"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="188">
+      <c r="A3" s="193">
         <v>1</v>
       </c>
       <c r="B3" s="189" t="s">
@@ -19004,7 +20187,7 @@
       <c r="R3" s="101"/>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="188"/>
+      <c r="A4" s="193"/>
       <c r="B4" s="189"/>
       <c r="C4" s="96" t="s">
         <v>188</v>
@@ -19044,7 +20227,7 @@
       <c r="R4" s="101"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="188"/>
+      <c r="A5" s="193"/>
       <c r="B5" s="189"/>
       <c r="C5" s="96" t="s">
         <v>187</v>
@@ -19078,7 +20261,7 @@
       <c r="R5" s="101"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="188">
+      <c r="A6" s="193">
         <v>2</v>
       </c>
       <c r="B6" s="189" t="s">
@@ -19119,7 +20302,7 @@
       <c r="V6" s="101"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="188"/>
+      <c r="A7" s="193"/>
       <c r="B7" s="189"/>
       <c r="C7" s="96" t="s">
         <v>189</v>
@@ -19156,7 +20339,7 @@
       <c r="V7" s="101"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="188"/>
+      <c r="A8" s="193"/>
       <c r="B8" s="189"/>
       <c r="C8" s="96" t="s">
         <v>190</v>
@@ -19193,7 +20376,7 @@
       <c r="V8" s="101"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="188">
+      <c r="A9" s="193">
         <v>3</v>
       </c>
       <c r="B9" s="189" t="s">
@@ -19237,7 +20420,7 @@
       <c r="V9" s="101"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="188"/>
+      <c r="A10" s="193"/>
       <c r="B10" s="189"/>
       <c r="C10" s="96" t="s">
         <v>189</v>
@@ -19275,7 +20458,7 @@
       <c r="V10" s="101"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="188"/>
+      <c r="A11" s="193"/>
       <c r="B11" s="189"/>
       <c r="C11" s="96" t="s">
         <v>190</v>
@@ -19327,7 +20510,7 @@
       <c r="V11" s="101"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="188">
+      <c r="A12" s="193">
         <v>4</v>
       </c>
       <c r="B12" s="189" t="s">
@@ -19389,7 +20572,7 @@
       <c r="V12" s="101"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="188"/>
+      <c r="A13" s="193"/>
       <c r="B13" s="189"/>
       <c r="C13" s="96" t="s">
         <v>189</v>
@@ -19447,7 +20630,7 @@
       <c r="V13" s="101"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="188"/>
+      <c r="A14" s="193"/>
       <c r="B14" s="189"/>
       <c r="C14" s="96" t="s">
         <v>190</v>
@@ -19505,7 +20688,7 @@
       <c r="V14" s="101"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="188">
+      <c r="A15" s="193">
         <v>5</v>
       </c>
       <c r="B15" s="189" t="s">
@@ -19567,7 +20750,7 @@
       <c r="V15" s="101"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="188"/>
+      <c r="A16" s="193"/>
       <c r="B16" s="189"/>
       <c r="C16" s="96" t="s">
         <v>189</v>
@@ -19625,7 +20808,7 @@
       <c r="V16" s="101"/>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="188"/>
+      <c r="A17" s="193"/>
       <c r="B17" s="189"/>
       <c r="C17" s="96" t="s">
         <v>190</v>
@@ -19649,10 +20832,10 @@
       <c r="I17" s="96">
         <v>1</v>
       </c>
-      <c r="K17" s="193" t="s">
+      <c r="K17" s="194" t="s">
         <v>109</v>
       </c>
-      <c r="L17" s="193"/>
+      <c r="L17" s="194"/>
       <c r="M17" s="106">
         <f ca="1">SUM(M12:M16)</f>
         <v>39</v>
@@ -19671,7 +20854,7 @@
       <c r="V17" s="101"/>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="188">
+      <c r="A18" s="193">
         <v>6</v>
       </c>
       <c r="B18" s="189" t="s">
@@ -19712,7 +20895,7 @@
       <c r="V18" s="101"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="188"/>
+      <c r="A19" s="193"/>
       <c r="B19" s="189"/>
       <c r="C19" s="96" t="s">
         <v>189</v>
@@ -19749,7 +20932,7 @@
       <c r="V19" s="101"/>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="188"/>
+      <c r="A20" s="193"/>
       <c r="B20" s="189"/>
       <c r="C20" s="96" t="s">
         <v>190</v>
@@ -19786,7 +20969,7 @@
       <c r="V20" s="101"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="188">
+      <c r="A21" s="193">
         <v>7</v>
       </c>
       <c r="B21" s="189" t="s">
@@ -19825,7 +21008,7 @@
       <c r="V21" s="101"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="188"/>
+      <c r="A22" s="193"/>
       <c r="B22" s="189"/>
       <c r="C22" s="96" t="s">
         <v>188</v>
@@ -19859,7 +21042,7 @@
       <c r="V22" s="101"/>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" s="188"/>
+      <c r="A23" s="193"/>
       <c r="B23" s="189"/>
       <c r="C23" s="96" t="s">
         <v>189</v>
@@ -19891,7 +21074,7 @@
       <c r="V23" s="101"/>
     </row>
     <row r="24" spans="1:23">
-      <c r="A24" s="188">
+      <c r="A24" s="193">
         <v>8</v>
       </c>
       <c r="B24" s="189" t="s">
@@ -19928,7 +21111,7 @@
       <c r="V24" s="101"/>
     </row>
     <row r="25" spans="1:23">
-      <c r="A25" s="188"/>
+      <c r="A25" s="193"/>
       <c r="B25" s="189"/>
       <c r="C25" s="96" t="s">
         <v>101</v>
@@ -19962,7 +21145,7 @@
       <c r="W25" s="114"/>
     </row>
     <row r="26" spans="1:23">
-      <c r="A26" s="188"/>
+      <c r="A26" s="193"/>
       <c r="B26" s="189"/>
       <c r="C26" s="96" t="s">
         <v>102</v>
@@ -20000,7 +21183,7 @@
       <c r="W26" s="114"/>
     </row>
     <row r="27" spans="1:23">
-      <c r="A27" s="188">
+      <c r="A27" s="193">
         <v>9</v>
       </c>
       <c r="B27" s="189" t="s">
@@ -20042,7 +21225,7 @@
       <c r="W27" s="114"/>
     </row>
     <row r="28" spans="1:23">
-      <c r="A28" s="188"/>
+      <c r="A28" s="193"/>
       <c r="B28" s="189"/>
       <c r="C28" s="96" t="s">
         <v>101</v>
@@ -20080,7 +21263,7 @@
       <c r="V28" s="101"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="188"/>
+      <c r="A29" s="193"/>
       <c r="B29" s="189"/>
       <c r="C29" s="96" t="s">
         <v>102</v>
@@ -20150,6 +21333,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="K17:L17"/>
@@ -20165,21 +21354,15 @@
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D3:F29">
-    <cfRule type="cellIs" dxfId="38" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="9" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G30">
-    <cfRule type="cellIs" dxfId="37" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="8" operator="greaterThan">
       <formula>599.99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20704,56 +21887,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="195" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
-      <c r="K1" s="194"/>
-      <c r="L1" s="194"/>
-      <c r="M1" s="194"/>
-      <c r="N1" s="194"/>
-      <c r="O1" s="194"/>
-      <c r="P1" s="194"/>
-      <c r="Q1" s="194"/>
-      <c r="R1" s="194"/>
-      <c r="S1" s="194"/>
-      <c r="T1" s="194"/>
-      <c r="U1" s="194"/>
-      <c r="V1" s="194"/>
-      <c r="W1" s="194"/>
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="195"/>
+      <c r="L1" s="195"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="195"/>
+      <c r="O1" s="195"/>
+      <c r="P1" s="195"/>
+      <c r="Q1" s="195"/>
+      <c r="R1" s="195"/>
+      <c r="S1" s="195"/>
+      <c r="T1" s="195"/>
+      <c r="U1" s="195"/>
+      <c r="V1" s="195"/>
+      <c r="W1" s="195"/>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="195"/>
-      <c r="B2" s="195"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="195"/>
-      <c r="K2" s="195"/>
-      <c r="L2" s="195"/>
-      <c r="M2" s="195"/>
-      <c r="N2" s="195"/>
-      <c r="O2" s="195"/>
-      <c r="P2" s="195"/>
-      <c r="Q2" s="195"/>
-      <c r="R2" s="195"/>
-      <c r="S2" s="195"/>
-      <c r="T2" s="195"/>
-      <c r="U2" s="195"/>
-      <c r="V2" s="195"/>
-      <c r="W2" s="195"/>
+      <c r="A2" s="196"/>
+      <c r="B2" s="196"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="196"/>
+      <c r="O2" s="196"/>
+      <c r="P2" s="196"/>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="196"/>
+      <c r="S2" s="196"/>
+      <c r="T2" s="196"/>
+      <c r="U2" s="196"/>
+      <c r="V2" s="196"/>
+      <c r="W2" s="196"/>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="118" t="s">
@@ -23361,67 +24544,67 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F25:G28 B4:S24 H25:S33">
-    <cfRule type="cellIs" dxfId="36" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="15" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4:W28">
-    <cfRule type="cellIs" dxfId="35" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="13" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="14" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:S25">
-    <cfRule type="cellIs" dxfId="33" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="12" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W25">
-    <cfRule type="cellIs" dxfId="32" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="10" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="11" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:S28">
-    <cfRule type="cellIs" dxfId="30" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="9" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W26:W28">
-    <cfRule type="cellIs" dxfId="29" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="8" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:G33">
-    <cfRule type="cellIs" dxfId="27" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="6" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W29:W33">
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:S33">
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W29:W33">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2023년 락클럽 에버관리.xlsx
+++ b/2023년 락클럽 에버관리.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="334">
   <si>
     <t>적요</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -1258,6 +1258,62 @@
   </si>
   <si>
     <t>송현진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023 樂 클럽 4월 셋째주 정기전 종합</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>김현배</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정승우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>권순호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진해진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이정훈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박재성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김인기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이선화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남궁철상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김준호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박종훈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양현규(게)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박은송(게)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1474,7 +1530,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -2053,6 +2109,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2060,7 +2125,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2451,56 +2516,159 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="10"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="10"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="10"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="10"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2547,152 +2715,52 @@
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="10"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="10"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="10"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="10"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2710,6 +2778,9 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="182" fontId="11" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2722,9 +2793,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="11" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2734,7 +2802,10 @@
     <xf numFmtId="0" fontId="16" fillId="8" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2742,20 +2813,13 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="100">
+  <dxfs count="116">
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2786,13 +2850,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2805,13 +2862,6 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3099,6 +3149,139 @@
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -4192,33 +4375,33 @@
       <c r="DG4" s="4"/>
     </row>
     <row r="5" spans="2:111" ht="20.100000000000001" customHeight="1">
-      <c r="S5" s="123" t="s">
+      <c r="S5" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="131" t="s">
+      <c r="T5" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="U5" s="132"/>
-      <c r="V5" s="132"/>
-      <c r="W5" s="133"/>
-      <c r="X5" s="131" t="s">
+      <c r="U5" s="181"/>
+      <c r="V5" s="181"/>
+      <c r="W5" s="182"/>
+      <c r="X5" s="180" t="s">
         <v>18</v>
       </c>
-      <c r="Y5" s="132"/>
-      <c r="Z5" s="132"/>
-      <c r="AA5" s="133"/>
-      <c r="AB5" s="131" t="s">
+      <c r="Y5" s="181"/>
+      <c r="Z5" s="181"/>
+      <c r="AA5" s="182"/>
+      <c r="AB5" s="180" t="s">
         <v>19</v>
       </c>
-      <c r="AC5" s="132"/>
-      <c r="AD5" s="132"/>
-      <c r="AE5" s="133"/>
-      <c r="AF5" s="131" t="s">
+      <c r="AC5" s="181"/>
+      <c r="AD5" s="181"/>
+      <c r="AE5" s="182"/>
+      <c r="AF5" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="AG5" s="132"/>
-      <c r="AH5" s="132"/>
-      <c r="AI5" s="134"/>
+      <c r="AG5" s="181"/>
+      <c r="AH5" s="181"/>
+      <c r="AI5" s="183"/>
       <c r="AM5" s="4"/>
       <c r="AN5" s="4"/>
       <c r="AO5" s="4"/>
@@ -4237,7 +4420,7 @@
       <c r="BB5" s="4"/>
       <c r="BC5" s="4"/>
       <c r="BD5" s="4"/>
-      <c r="BE5" s="135"/>
+      <c r="BE5" s="184"/>
       <c r="BF5" s="125"/>
       <c r="BG5" s="125"/>
       <c r="BH5" s="125"/>
@@ -4303,23 +4486,23 @@
       <c r="O6" s="17"/>
       <c r="P6" s="17"/>
       <c r="Q6" s="17"/>
-      <c r="S6" s="124"/>
-      <c r="T6" s="126"/>
-      <c r="U6" s="127"/>
-      <c r="V6" s="127"/>
-      <c r="W6" s="128"/>
-      <c r="X6" s="126"/>
-      <c r="Y6" s="127"/>
-      <c r="Z6" s="127"/>
-      <c r="AA6" s="128"/>
-      <c r="AB6" s="126"/>
-      <c r="AC6" s="127"/>
-      <c r="AD6" s="127"/>
-      <c r="AE6" s="128"/>
-      <c r="AF6" s="126"/>
-      <c r="AG6" s="127"/>
-      <c r="AH6" s="127"/>
-      <c r="AI6" s="129"/>
+      <c r="S6" s="174"/>
+      <c r="T6" s="175"/>
+      <c r="U6" s="176"/>
+      <c r="V6" s="176"/>
+      <c r="W6" s="177"/>
+      <c r="X6" s="175"/>
+      <c r="Y6" s="176"/>
+      <c r="Z6" s="176"/>
+      <c r="AA6" s="177"/>
+      <c r="AB6" s="175"/>
+      <c r="AC6" s="176"/>
+      <c r="AD6" s="176"/>
+      <c r="AE6" s="177"/>
+      <c r="AF6" s="175"/>
+      <c r="AG6" s="176"/>
+      <c r="AH6" s="176"/>
+      <c r="AI6" s="178"/>
       <c r="AM6" s="18"/>
       <c r="AN6" s="4"/>
       <c r="AO6" s="4"/>
@@ -4338,23 +4521,23 @@
       <c r="BB6" s="19"/>
       <c r="BC6" s="19"/>
       <c r="BD6" s="4"/>
-      <c r="BE6" s="135"/>
-      <c r="BF6" s="130"/>
-      <c r="BG6" s="130"/>
-      <c r="BH6" s="130"/>
-      <c r="BI6" s="130"/>
-      <c r="BJ6" s="130"/>
-      <c r="BK6" s="130"/>
-      <c r="BL6" s="130"/>
-      <c r="BM6" s="130"/>
-      <c r="BN6" s="130"/>
-      <c r="BO6" s="130"/>
-      <c r="BP6" s="130"/>
-      <c r="BQ6" s="130"/>
-      <c r="BR6" s="130"/>
-      <c r="BS6" s="130"/>
-      <c r="BT6" s="130"/>
-      <c r="BU6" s="130"/>
+      <c r="BE6" s="184"/>
+      <c r="BF6" s="179"/>
+      <c r="BG6" s="179"/>
+      <c r="BH6" s="179"/>
+      <c r="BI6" s="179"/>
+      <c r="BJ6" s="179"/>
+      <c r="BK6" s="179"/>
+      <c r="BL6" s="179"/>
+      <c r="BM6" s="179"/>
+      <c r="BN6" s="179"/>
+      <c r="BO6" s="179"/>
+      <c r="BP6" s="179"/>
+      <c r="BQ6" s="179"/>
+      <c r="BR6" s="179"/>
+      <c r="BS6" s="179"/>
+      <c r="BT6" s="179"/>
+      <c r="BU6" s="179"/>
       <c r="BV6" s="20"/>
       <c r="BW6" s="20"/>
       <c r="BX6" s="20"/>
@@ -4380,77 +4563,77 @@
       <c r="DG6" s="20"/>
     </row>
     <row r="7" spans="2:111" ht="65.099999999999994" customHeight="1">
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="137"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="137"/>
-      <c r="P7" s="137"/>
-      <c r="Q7" s="137"/>
-      <c r="R7" s="137"/>
-      <c r="S7" s="137"/>
-      <c r="T7" s="137"/>
-      <c r="U7" s="137"/>
-      <c r="V7" s="137"/>
-      <c r="W7" s="137"/>
-      <c r="X7" s="137"/>
-      <c r="Y7" s="137"/>
-      <c r="Z7" s="137"/>
-      <c r="AA7" s="137"/>
-      <c r="AB7" s="137"/>
-      <c r="AC7" s="137"/>
-      <c r="AD7" s="137"/>
-      <c r="AE7" s="137"/>
-      <c r="AF7" s="137"/>
-      <c r="AG7" s="137"/>
-      <c r="AH7" s="137"/>
-      <c r="AI7" s="138"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="163"/>
+      <c r="P7" s="163"/>
+      <c r="Q7" s="163"/>
+      <c r="R7" s="163"/>
+      <c r="S7" s="163"/>
+      <c r="T7" s="163"/>
+      <c r="U7" s="163"/>
+      <c r="V7" s="163"/>
+      <c r="W7" s="163"/>
+      <c r="X7" s="163"/>
+      <c r="Y7" s="163"/>
+      <c r="Z7" s="163"/>
+      <c r="AA7" s="163"/>
+      <c r="AB7" s="163"/>
+      <c r="AC7" s="163"/>
+      <c r="AD7" s="163"/>
+      <c r="AE7" s="163"/>
+      <c r="AF7" s="163"/>
+      <c r="AG7" s="163"/>
+      <c r="AH7" s="163"/>
+      <c r="AI7" s="164"/>
       <c r="AM7" s="18"/>
-      <c r="AN7" s="139"/>
-      <c r="AO7" s="139"/>
-      <c r="AP7" s="139"/>
-      <c r="AQ7" s="139"/>
-      <c r="AR7" s="139"/>
-      <c r="AS7" s="139"/>
-      <c r="AT7" s="139"/>
-      <c r="AU7" s="139"/>
-      <c r="AV7" s="139"/>
-      <c r="AW7" s="139"/>
-      <c r="AX7" s="139"/>
-      <c r="AY7" s="139"/>
-      <c r="AZ7" s="139"/>
-      <c r="BA7" s="139"/>
-      <c r="BB7" s="139"/>
-      <c r="BC7" s="139"/>
-      <c r="BD7" s="139"/>
-      <c r="BE7" s="139"/>
-      <c r="BF7" s="139"/>
-      <c r="BG7" s="139"/>
-      <c r="BH7" s="139"/>
-      <c r="BI7" s="139"/>
-      <c r="BJ7" s="139"/>
-      <c r="BK7" s="139"/>
-      <c r="BL7" s="139"/>
-      <c r="BM7" s="139"/>
-      <c r="BN7" s="139"/>
-      <c r="BO7" s="139"/>
-      <c r="BP7" s="139"/>
-      <c r="BQ7" s="139"/>
-      <c r="BR7" s="139"/>
-      <c r="BS7" s="139"/>
-      <c r="BT7" s="139"/>
-      <c r="BU7" s="139"/>
+      <c r="AN7" s="165"/>
+      <c r="AO7" s="165"/>
+      <c r="AP7" s="165"/>
+      <c r="AQ7" s="165"/>
+      <c r="AR7" s="165"/>
+      <c r="AS7" s="165"/>
+      <c r="AT7" s="165"/>
+      <c r="AU7" s="165"/>
+      <c r="AV7" s="165"/>
+      <c r="AW7" s="165"/>
+      <c r="AX7" s="165"/>
+      <c r="AY7" s="165"/>
+      <c r="AZ7" s="165"/>
+      <c r="BA7" s="165"/>
+      <c r="BB7" s="165"/>
+      <c r="BC7" s="165"/>
+      <c r="BD7" s="165"/>
+      <c r="BE7" s="165"/>
+      <c r="BF7" s="165"/>
+      <c r="BG7" s="165"/>
+      <c r="BH7" s="165"/>
+      <c r="BI7" s="165"/>
+      <c r="BJ7" s="165"/>
+      <c r="BK7" s="165"/>
+      <c r="BL7" s="165"/>
+      <c r="BM7" s="165"/>
+      <c r="BN7" s="165"/>
+      <c r="BO7" s="165"/>
+      <c r="BP7" s="165"/>
+      <c r="BQ7" s="165"/>
+      <c r="BR7" s="165"/>
+      <c r="BS7" s="165"/>
+      <c r="BT7" s="165"/>
+      <c r="BU7" s="165"/>
       <c r="BV7" s="21"/>
       <c r="BW7" s="21"/>
       <c r="BX7" s="21"/>
@@ -4479,30 +4662,30 @@
       <c r="DG7" s="21"/>
     </row>
     <row r="8" spans="2:111" ht="30" customHeight="1">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="141"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="142">
+      <c r="C8" s="167"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="168">
         <f>SUM(S14:AA23)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="142"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="142"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="142"/>
-      <c r="K8" s="142"/>
-      <c r="L8" s="142"/>
-      <c r="M8" s="142"/>
-      <c r="N8" s="142"/>
-      <c r="O8" s="142"/>
-      <c r="P8" s="142"/>
-      <c r="Q8" s="142"/>
-      <c r="R8" s="142"/>
-      <c r="S8" s="142"/>
-      <c r="T8" s="142"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="168"/>
+      <c r="K8" s="168"/>
+      <c r="L8" s="168"/>
+      <c r="M8" s="168"/>
+      <c r="N8" s="168"/>
+      <c r="O8" s="168"/>
+      <c r="P8" s="168"/>
+      <c r="Q8" s="168"/>
+      <c r="R8" s="168"/>
+      <c r="S8" s="168"/>
+      <c r="T8" s="168"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4" t="s">
         <v>23</v>
@@ -4515,54 +4698,54 @@
       <c r="Z8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA8" s="143">
+      <c r="AA8" s="169">
         <f>E8</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="143"/>
-      <c r="AC8" s="143"/>
-      <c r="AD8" s="143"/>
-      <c r="AE8" s="143"/>
-      <c r="AF8" s="143"/>
-      <c r="AG8" s="143"/>
-      <c r="AH8" s="143"/>
+      <c r="AB8" s="169"/>
+      <c r="AC8" s="169"/>
+      <c r="AD8" s="169"/>
+      <c r="AE8" s="169"/>
+      <c r="AF8" s="169"/>
+      <c r="AG8" s="169"/>
+      <c r="AH8" s="169"/>
       <c r="AI8" s="23" t="s">
         <v>26</v>
       </c>
       <c r="AM8" s="4"/>
-      <c r="AN8" s="144"/>
-      <c r="AO8" s="144"/>
-      <c r="AP8" s="144"/>
-      <c r="AQ8" s="145"/>
-      <c r="AR8" s="145"/>
-      <c r="AS8" s="145"/>
-      <c r="AT8" s="145"/>
-      <c r="AU8" s="145"/>
-      <c r="AV8" s="145"/>
-      <c r="AW8" s="145"/>
-      <c r="AX8" s="145"/>
-      <c r="AY8" s="145"/>
-      <c r="AZ8" s="145"/>
-      <c r="BA8" s="145"/>
-      <c r="BB8" s="145"/>
-      <c r="BC8" s="145"/>
-      <c r="BD8" s="145"/>
-      <c r="BE8" s="145"/>
-      <c r="BF8" s="145"/>
+      <c r="AN8" s="170"/>
+      <c r="AO8" s="170"/>
+      <c r="AP8" s="170"/>
+      <c r="AQ8" s="171"/>
+      <c r="AR8" s="171"/>
+      <c r="AS8" s="171"/>
+      <c r="AT8" s="171"/>
+      <c r="AU8" s="171"/>
+      <c r="AV8" s="171"/>
+      <c r="AW8" s="171"/>
+      <c r="AX8" s="171"/>
+      <c r="AY8" s="171"/>
+      <c r="AZ8" s="171"/>
+      <c r="BA8" s="171"/>
+      <c r="BB8" s="171"/>
+      <c r="BC8" s="171"/>
+      <c r="BD8" s="171"/>
+      <c r="BE8" s="171"/>
+      <c r="BF8" s="171"/>
       <c r="BG8" s="4"/>
       <c r="BH8" s="4"/>
       <c r="BI8" s="4"/>
       <c r="BJ8" s="4"/>
       <c r="BK8" s="4"/>
       <c r="BL8" s="4"/>
-      <c r="BM8" s="146"/>
-      <c r="BN8" s="146"/>
-      <c r="BO8" s="146"/>
-      <c r="BP8" s="146"/>
-      <c r="BQ8" s="146"/>
-      <c r="BR8" s="146"/>
-      <c r="BS8" s="146"/>
-      <c r="BT8" s="146"/>
+      <c r="BM8" s="172"/>
+      <c r="BN8" s="172"/>
+      <c r="BO8" s="172"/>
+      <c r="BP8" s="172"/>
+      <c r="BQ8" s="172"/>
+      <c r="BR8" s="172"/>
+      <c r="BS8" s="172"/>
+      <c r="BT8" s="172"/>
       <c r="BU8" s="4"/>
       <c r="BV8" s="4"/>
       <c r="BW8" s="4"/>
@@ -4594,66 +4777,66 @@
       <c r="DG8" s="4"/>
     </row>
     <row r="9" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B9" s="148" t="s">
+      <c r="B9" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="149"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="151">
+      <c r="C9" s="155"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157">
         <v>44351</v>
       </c>
-      <c r="F9" s="152"/>
-      <c r="G9" s="152"/>
-      <c r="H9" s="152"/>
-      <c r="I9" s="152"/>
-      <c r="J9" s="152"/>
-      <c r="K9" s="152"/>
-      <c r="L9" s="152"/>
-      <c r="M9" s="152"/>
-      <c r="N9" s="152"/>
-      <c r="O9" s="152"/>
-      <c r="P9" s="152"/>
-      <c r="Q9" s="152"/>
-      <c r="R9" s="153"/>
-      <c r="S9" s="154" t="s">
+      <c r="F9" s="158"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="158"/>
+      <c r="K9" s="158"/>
+      <c r="L9" s="158"/>
+      <c r="M9" s="158"/>
+      <c r="N9" s="158"/>
+      <c r="O9" s="158"/>
+      <c r="P9" s="158"/>
+      <c r="Q9" s="158"/>
+      <c r="R9" s="159"/>
+      <c r="S9" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="T9" s="150"/>
-      <c r="U9" s="154"/>
-      <c r="V9" s="149"/>
-      <c r="W9" s="149"/>
-      <c r="X9" s="149"/>
-      <c r="Y9" s="149"/>
-      <c r="Z9" s="149"/>
-      <c r="AA9" s="150"/>
-      <c r="AB9" s="154" t="s">
+      <c r="T9" s="156"/>
+      <c r="U9" s="160"/>
+      <c r="V9" s="155"/>
+      <c r="W9" s="155"/>
+      <c r="X9" s="155"/>
+      <c r="Y9" s="155"/>
+      <c r="Z9" s="155"/>
+      <c r="AA9" s="156"/>
+      <c r="AB9" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="AC9" s="149"/>
-      <c r="AD9" s="149"/>
-      <c r="AE9" s="150"/>
-      <c r="AF9" s="154"/>
-      <c r="AG9" s="149"/>
-      <c r="AH9" s="149"/>
-      <c r="AI9" s="155"/>
+      <c r="AC9" s="155"/>
+      <c r="AD9" s="155"/>
+      <c r="AE9" s="156"/>
+      <c r="AF9" s="160"/>
+      <c r="AG9" s="155"/>
+      <c r="AH9" s="155"/>
+      <c r="AI9" s="161"/>
       <c r="AM9" s="4"/>
       <c r="AN9" s="125"/>
       <c r="AO9" s="125"/>
       <c r="AP9" s="125"/>
-      <c r="AQ9" s="147"/>
-      <c r="AR9" s="147"/>
-      <c r="AS9" s="147"/>
-      <c r="AT9" s="147"/>
-      <c r="AU9" s="147"/>
-      <c r="AV9" s="147"/>
-      <c r="AW9" s="147"/>
-      <c r="AX9" s="147"/>
-      <c r="AY9" s="147"/>
-      <c r="AZ9" s="147"/>
-      <c r="BA9" s="147"/>
-      <c r="BB9" s="147"/>
-      <c r="BC9" s="147"/>
-      <c r="BD9" s="147"/>
+      <c r="AQ9" s="130"/>
+      <c r="AR9" s="130"/>
+      <c r="AS9" s="130"/>
+      <c r="AT9" s="130"/>
+      <c r="AU9" s="130"/>
+      <c r="AV9" s="130"/>
+      <c r="AW9" s="130"/>
+      <c r="AX9" s="130"/>
+      <c r="AY9" s="130"/>
+      <c r="AZ9" s="130"/>
+      <c r="BA9" s="130"/>
+      <c r="BB9" s="130"/>
+      <c r="BC9" s="130"/>
+      <c r="BD9" s="130"/>
       <c r="BE9" s="125"/>
       <c r="BF9" s="125"/>
       <c r="BG9" s="125"/>
@@ -4711,66 +4894,66 @@
       <c r="DG9" s="14"/>
     </row>
     <row r="10" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B10" s="148" t="s">
+      <c r="B10" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="149"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="151" t="s">
+      <c r="C10" s="155"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="157" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="152"/>
-      <c r="G10" s="152"/>
-      <c r="H10" s="152"/>
-      <c r="I10" s="152"/>
-      <c r="J10" s="152"/>
-      <c r="K10" s="152"/>
-      <c r="L10" s="152"/>
-      <c r="M10" s="152"/>
-      <c r="N10" s="152"/>
-      <c r="O10" s="152"/>
-      <c r="P10" s="152"/>
-      <c r="Q10" s="152"/>
-      <c r="R10" s="153"/>
-      <c r="S10" s="154" t="s">
+      <c r="F10" s="158"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="158"/>
+      <c r="K10" s="158"/>
+      <c r="L10" s="158"/>
+      <c r="M10" s="158"/>
+      <c r="N10" s="158"/>
+      <c r="O10" s="158"/>
+      <c r="P10" s="158"/>
+      <c r="Q10" s="158"/>
+      <c r="R10" s="159"/>
+      <c r="S10" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="T10" s="150"/>
-      <c r="U10" s="154"/>
-      <c r="V10" s="149"/>
-      <c r="W10" s="149"/>
-      <c r="X10" s="149"/>
-      <c r="Y10" s="149"/>
-      <c r="Z10" s="149"/>
-      <c r="AA10" s="150"/>
-      <c r="AB10" s="154" t="s">
+      <c r="T10" s="156"/>
+      <c r="U10" s="160"/>
+      <c r="V10" s="155"/>
+      <c r="W10" s="155"/>
+      <c r="X10" s="155"/>
+      <c r="Y10" s="155"/>
+      <c r="Z10" s="155"/>
+      <c r="AA10" s="156"/>
+      <c r="AB10" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="149"/>
-      <c r="AD10" s="149"/>
-      <c r="AE10" s="149"/>
-      <c r="AF10" s="149"/>
-      <c r="AG10" s="149"/>
-      <c r="AH10" s="149"/>
-      <c r="AI10" s="155"/>
+      <c r="AC10" s="155"/>
+      <c r="AD10" s="155"/>
+      <c r="AE10" s="155"/>
+      <c r="AF10" s="155"/>
+      <c r="AG10" s="155"/>
+      <c r="AH10" s="155"/>
+      <c r="AI10" s="161"/>
       <c r="AM10" s="4"/>
       <c r="AN10" s="125"/>
       <c r="AO10" s="125"/>
       <c r="AP10" s="125"/>
-      <c r="AQ10" s="147"/>
-      <c r="AR10" s="147"/>
-      <c r="AS10" s="147"/>
-      <c r="AT10" s="147"/>
-      <c r="AU10" s="147"/>
-      <c r="AV10" s="147"/>
-      <c r="AW10" s="147"/>
-      <c r="AX10" s="147"/>
-      <c r="AY10" s="147"/>
-      <c r="AZ10" s="147"/>
-      <c r="BA10" s="147"/>
-      <c r="BB10" s="147"/>
-      <c r="BC10" s="147"/>
-      <c r="BD10" s="147"/>
+      <c r="AQ10" s="130"/>
+      <c r="AR10" s="130"/>
+      <c r="AS10" s="130"/>
+      <c r="AT10" s="130"/>
+      <c r="AU10" s="130"/>
+      <c r="AV10" s="130"/>
+      <c r="AW10" s="130"/>
+      <c r="AX10" s="130"/>
+      <c r="AY10" s="130"/>
+      <c r="AZ10" s="130"/>
+      <c r="BA10" s="130"/>
+      <c r="BB10" s="130"/>
+      <c r="BC10" s="130"/>
+      <c r="BD10" s="130"/>
       <c r="BE10" s="125"/>
       <c r="BF10" s="125"/>
       <c r="BG10" s="125"/>
@@ -4828,64 +5011,64 @@
       <c r="DG10" s="14"/>
     </row>
     <row r="11" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B11" s="148" t="s">
+      <c r="B11" s="154" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="149"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="151" t="s">
+      <c r="C11" s="155"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="157" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="152"/>
-      <c r="G11" s="152"/>
-      <c r="H11" s="152"/>
-      <c r="I11" s="152"/>
-      <c r="J11" s="152"/>
-      <c r="K11" s="152"/>
-      <c r="L11" s="152"/>
-      <c r="M11" s="152"/>
-      <c r="N11" s="152"/>
-      <c r="O11" s="152"/>
-      <c r="P11" s="152"/>
-      <c r="Q11" s="152"/>
-      <c r="R11" s="153"/>
-      <c r="S11" s="154" t="s">
+      <c r="F11" s="158"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="158"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="158"/>
+      <c r="K11" s="158"/>
+      <c r="L11" s="158"/>
+      <c r="M11" s="158"/>
+      <c r="N11" s="158"/>
+      <c r="O11" s="158"/>
+      <c r="P11" s="158"/>
+      <c r="Q11" s="158"/>
+      <c r="R11" s="159"/>
+      <c r="S11" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="T11" s="150"/>
-      <c r="U11" s="154"/>
-      <c r="V11" s="149"/>
-      <c r="W11" s="149"/>
-      <c r="X11" s="149"/>
-      <c r="Y11" s="149"/>
-      <c r="Z11" s="149"/>
-      <c r="AA11" s="150"/>
-      <c r="AB11" s="154"/>
-      <c r="AC11" s="149"/>
-      <c r="AD11" s="149"/>
-      <c r="AE11" s="149"/>
-      <c r="AF11" s="149"/>
-      <c r="AG11" s="149"/>
-      <c r="AH11" s="149"/>
-      <c r="AI11" s="155"/>
+      <c r="T11" s="156"/>
+      <c r="U11" s="160"/>
+      <c r="V11" s="155"/>
+      <c r="W11" s="155"/>
+      <c r="X11" s="155"/>
+      <c r="Y11" s="155"/>
+      <c r="Z11" s="155"/>
+      <c r="AA11" s="156"/>
+      <c r="AB11" s="160"/>
+      <c r="AC11" s="155"/>
+      <c r="AD11" s="155"/>
+      <c r="AE11" s="155"/>
+      <c r="AF11" s="155"/>
+      <c r="AG11" s="155"/>
+      <c r="AH11" s="155"/>
+      <c r="AI11" s="161"/>
       <c r="AM11" s="4"/>
       <c r="AN11" s="125"/>
       <c r="AO11" s="125"/>
       <c r="AP11" s="125"/>
-      <c r="AQ11" s="147"/>
-      <c r="AR11" s="147"/>
-      <c r="AS11" s="147"/>
-      <c r="AT11" s="147"/>
-      <c r="AU11" s="147"/>
-      <c r="AV11" s="147"/>
-      <c r="AW11" s="147"/>
-      <c r="AX11" s="147"/>
-      <c r="AY11" s="147"/>
-      <c r="AZ11" s="147"/>
-      <c r="BA11" s="147"/>
-      <c r="BB11" s="147"/>
-      <c r="BC11" s="147"/>
-      <c r="BD11" s="147"/>
+      <c r="AQ11" s="130"/>
+      <c r="AR11" s="130"/>
+      <c r="AS11" s="130"/>
+      <c r="AT11" s="130"/>
+      <c r="AU11" s="130"/>
+      <c r="AV11" s="130"/>
+      <c r="AW11" s="130"/>
+      <c r="AX11" s="130"/>
+      <c r="AY11" s="130"/>
+      <c r="AZ11" s="130"/>
+      <c r="BA11" s="130"/>
+      <c r="BB11" s="130"/>
+      <c r="BC11" s="130"/>
+      <c r="BD11" s="130"/>
       <c r="BE11" s="125"/>
       <c r="BF11" s="125"/>
       <c r="BG11" s="125"/>
@@ -4943,77 +5126,77 @@
       <c r="DG11" s="14"/>
     </row>
     <row r="12" spans="2:111" ht="30" customHeight="1">
-      <c r="B12" s="156" t="s">
+      <c r="B12" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="157"/>
-      <c r="D12" s="157"/>
-      <c r="E12" s="157"/>
-      <c r="F12" s="157"/>
-      <c r="G12" s="157"/>
-      <c r="H12" s="157"/>
-      <c r="I12" s="157"/>
-      <c r="J12" s="157"/>
-      <c r="K12" s="157"/>
-      <c r="L12" s="157"/>
-      <c r="M12" s="157"/>
-      <c r="N12" s="157"/>
-      <c r="O12" s="157"/>
-      <c r="P12" s="157"/>
-      <c r="Q12" s="157"/>
-      <c r="R12" s="157"/>
-      <c r="S12" s="157"/>
-      <c r="T12" s="157"/>
-      <c r="U12" s="157"/>
-      <c r="V12" s="157"/>
-      <c r="W12" s="157"/>
-      <c r="X12" s="157"/>
-      <c r="Y12" s="157"/>
-      <c r="Z12" s="157"/>
-      <c r="AA12" s="157"/>
-      <c r="AB12" s="157"/>
-      <c r="AC12" s="157"/>
-      <c r="AD12" s="157"/>
-      <c r="AE12" s="157"/>
-      <c r="AF12" s="157"/>
-      <c r="AG12" s="157"/>
-      <c r="AH12" s="157"/>
-      <c r="AI12" s="158"/>
+      <c r="C12" s="151"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="151"/>
+      <c r="F12" s="151"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="151"/>
+      <c r="K12" s="151"/>
+      <c r="L12" s="151"/>
+      <c r="M12" s="151"/>
+      <c r="N12" s="151"/>
+      <c r="O12" s="151"/>
+      <c r="P12" s="151"/>
+      <c r="Q12" s="151"/>
+      <c r="R12" s="151"/>
+      <c r="S12" s="151"/>
+      <c r="T12" s="151"/>
+      <c r="U12" s="151"/>
+      <c r="V12" s="151"/>
+      <c r="W12" s="151"/>
+      <c r="X12" s="151"/>
+      <c r="Y12" s="151"/>
+      <c r="Z12" s="151"/>
+      <c r="AA12" s="151"/>
+      <c r="AB12" s="151"/>
+      <c r="AC12" s="151"/>
+      <c r="AD12" s="151"/>
+      <c r="AE12" s="151"/>
+      <c r="AF12" s="151"/>
+      <c r="AG12" s="151"/>
+      <c r="AH12" s="151"/>
+      <c r="AI12" s="152"/>
       <c r="AM12" s="4"/>
-      <c r="AN12" s="159"/>
-      <c r="AO12" s="159"/>
-      <c r="AP12" s="159"/>
-      <c r="AQ12" s="159"/>
-      <c r="AR12" s="159"/>
-      <c r="AS12" s="159"/>
-      <c r="AT12" s="159"/>
-      <c r="AU12" s="159"/>
-      <c r="AV12" s="159"/>
-      <c r="AW12" s="159"/>
-      <c r="AX12" s="159"/>
-      <c r="AY12" s="159"/>
-      <c r="AZ12" s="159"/>
-      <c r="BA12" s="159"/>
-      <c r="BB12" s="159"/>
-      <c r="BC12" s="159"/>
-      <c r="BD12" s="159"/>
-      <c r="BE12" s="159"/>
-      <c r="BF12" s="159"/>
-      <c r="BG12" s="159"/>
-      <c r="BH12" s="159"/>
-      <c r="BI12" s="159"/>
-      <c r="BJ12" s="159"/>
-      <c r="BK12" s="159"/>
-      <c r="BL12" s="159"/>
-      <c r="BM12" s="159"/>
-      <c r="BN12" s="159"/>
-      <c r="BO12" s="159"/>
-      <c r="BP12" s="159"/>
-      <c r="BQ12" s="159"/>
-      <c r="BR12" s="159"/>
-      <c r="BS12" s="159"/>
-      <c r="BT12" s="159"/>
-      <c r="BU12" s="159"/>
+      <c r="AN12" s="153"/>
+      <c r="AO12" s="153"/>
+      <c r="AP12" s="153"/>
+      <c r="AQ12" s="153"/>
+      <c r="AR12" s="153"/>
+      <c r="AS12" s="153"/>
+      <c r="AT12" s="153"/>
+      <c r="AU12" s="153"/>
+      <c r="AV12" s="153"/>
+      <c r="AW12" s="153"/>
+      <c r="AX12" s="153"/>
+      <c r="AY12" s="153"/>
+      <c r="AZ12" s="153"/>
+      <c r="BA12" s="153"/>
+      <c r="BB12" s="153"/>
+      <c r="BC12" s="153"/>
+      <c r="BD12" s="153"/>
+      <c r="BE12" s="153"/>
+      <c r="BF12" s="153"/>
+      <c r="BG12" s="153"/>
+      <c r="BH12" s="153"/>
+      <c r="BI12" s="153"/>
+      <c r="BJ12" s="153"/>
+      <c r="BK12" s="153"/>
+      <c r="BL12" s="153"/>
+      <c r="BM12" s="153"/>
+      <c r="BN12" s="153"/>
+      <c r="BO12" s="153"/>
+      <c r="BP12" s="153"/>
+      <c r="BQ12" s="153"/>
+      <c r="BR12" s="153"/>
+      <c r="BS12" s="153"/>
+      <c r="BT12" s="153"/>
+      <c r="BU12" s="153"/>
       <c r="BV12" s="14"/>
       <c r="BW12" s="14"/>
       <c r="BX12" s="14"/>
@@ -5054,83 +5237,83 @@
       <c r="DG12" s="14"/>
     </row>
     <row r="13" spans="2:111" ht="30" customHeight="1">
-      <c r="B13" s="173" t="s">
+      <c r="B13" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="174"/>
-      <c r="D13" s="174"/>
-      <c r="E13" s="174"/>
-      <c r="F13" s="174"/>
-      <c r="G13" s="174"/>
-      <c r="H13" s="174"/>
-      <c r="I13" s="175"/>
-      <c r="J13" s="176" t="s">
+      <c r="C13" s="146"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="174"/>
-      <c r="L13" s="174"/>
-      <c r="M13" s="174"/>
-      <c r="N13" s="174"/>
-      <c r="O13" s="174"/>
-      <c r="P13" s="174"/>
-      <c r="Q13" s="174"/>
-      <c r="R13" s="175"/>
-      <c r="S13" s="176" t="s">
+      <c r="K13" s="146"/>
+      <c r="L13" s="146"/>
+      <c r="M13" s="146"/>
+      <c r="N13" s="146"/>
+      <c r="O13" s="146"/>
+      <c r="P13" s="146"/>
+      <c r="Q13" s="146"/>
+      <c r="R13" s="147"/>
+      <c r="S13" s="148" t="s">
         <v>35</v>
       </c>
-      <c r="T13" s="174"/>
-      <c r="U13" s="174"/>
-      <c r="V13" s="174"/>
-      <c r="W13" s="174"/>
-      <c r="X13" s="174"/>
-      <c r="Y13" s="174"/>
-      <c r="Z13" s="174"/>
-      <c r="AA13" s="175"/>
-      <c r="AB13" s="176" t="s">
+      <c r="T13" s="146"/>
+      <c r="U13" s="146"/>
+      <c r="V13" s="146"/>
+      <c r="W13" s="146"/>
+      <c r="X13" s="146"/>
+      <c r="Y13" s="146"/>
+      <c r="Z13" s="146"/>
+      <c r="AA13" s="147"/>
+      <c r="AB13" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="AC13" s="174"/>
-      <c r="AD13" s="174"/>
-      <c r="AE13" s="174"/>
-      <c r="AF13" s="174"/>
-      <c r="AG13" s="174"/>
-      <c r="AH13" s="174"/>
-      <c r="AI13" s="177"/>
+      <c r="AC13" s="146"/>
+      <c r="AD13" s="146"/>
+      <c r="AE13" s="146"/>
+      <c r="AF13" s="146"/>
+      <c r="AG13" s="146"/>
+      <c r="AH13" s="146"/>
+      <c r="AI13" s="149"/>
       <c r="AM13" s="4"/>
-      <c r="AN13" s="160"/>
-      <c r="AO13" s="160"/>
-      <c r="AP13" s="160"/>
-      <c r="AQ13" s="160"/>
-      <c r="AR13" s="160"/>
-      <c r="AS13" s="160"/>
-      <c r="AT13" s="160"/>
-      <c r="AU13" s="160"/>
-      <c r="AV13" s="160"/>
-      <c r="AW13" s="160"/>
-      <c r="AX13" s="160"/>
-      <c r="AY13" s="160"/>
-      <c r="AZ13" s="160"/>
-      <c r="BA13" s="160"/>
-      <c r="BB13" s="160"/>
-      <c r="BC13" s="160"/>
-      <c r="BD13" s="160"/>
-      <c r="BE13" s="160"/>
-      <c r="BF13" s="160"/>
-      <c r="BG13" s="160"/>
-      <c r="BH13" s="160"/>
-      <c r="BI13" s="160"/>
-      <c r="BJ13" s="160"/>
-      <c r="BK13" s="160"/>
-      <c r="BL13" s="160"/>
-      <c r="BM13" s="160"/>
-      <c r="BN13" s="160"/>
-      <c r="BO13" s="160"/>
-      <c r="BP13" s="160"/>
-      <c r="BQ13" s="160"/>
-      <c r="BR13" s="160"/>
-      <c r="BS13" s="160"/>
-      <c r="BT13" s="160"/>
-      <c r="BU13" s="160"/>
+      <c r="AN13" s="144"/>
+      <c r="AO13" s="144"/>
+      <c r="AP13" s="144"/>
+      <c r="AQ13" s="144"/>
+      <c r="AR13" s="144"/>
+      <c r="AS13" s="144"/>
+      <c r="AT13" s="144"/>
+      <c r="AU13" s="144"/>
+      <c r="AV13" s="144"/>
+      <c r="AW13" s="144"/>
+      <c r="AX13" s="144"/>
+      <c r="AY13" s="144"/>
+      <c r="AZ13" s="144"/>
+      <c r="BA13" s="144"/>
+      <c r="BB13" s="144"/>
+      <c r="BC13" s="144"/>
+      <c r="BD13" s="144"/>
+      <c r="BE13" s="144"/>
+      <c r="BF13" s="144"/>
+      <c r="BG13" s="144"/>
+      <c r="BH13" s="144"/>
+      <c r="BI13" s="144"/>
+      <c r="BJ13" s="144"/>
+      <c r="BK13" s="144"/>
+      <c r="BL13" s="144"/>
+      <c r="BM13" s="144"/>
+      <c r="BN13" s="144"/>
+      <c r="BO13" s="144"/>
+      <c r="BP13" s="144"/>
+      <c r="BQ13" s="144"/>
+      <c r="BR13" s="144"/>
+      <c r="BS13" s="144"/>
+      <c r="BT13" s="144"/>
+      <c r="BU13" s="144"/>
       <c r="BV13" s="14"/>
       <c r="BW13" s="14"/>
       <c r="BX13" s="14"/>
@@ -5171,75 +5354,75 @@
       <c r="DG13" s="14"/>
     </row>
     <row r="14" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B14" s="161"/>
-      <c r="C14" s="162"/>
-      <c r="D14" s="162"/>
-      <c r="E14" s="162"/>
-      <c r="F14" s="162"/>
-      <c r="G14" s="162"/>
-      <c r="H14" s="162"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="164"/>
-      <c r="K14" s="162"/>
-      <c r="L14" s="162"/>
-      <c r="M14" s="162"/>
-      <c r="N14" s="162"/>
-      <c r="O14" s="162"/>
-      <c r="P14" s="162"/>
-      <c r="Q14" s="162"/>
-      <c r="R14" s="163"/>
-      <c r="S14" s="165"/>
-      <c r="T14" s="166"/>
-      <c r="U14" s="166"/>
-      <c r="V14" s="166"/>
-      <c r="W14" s="166"/>
-      <c r="X14" s="166"/>
-      <c r="Y14" s="166"/>
-      <c r="Z14" s="166"/>
-      <c r="AA14" s="167"/>
-      <c r="AB14" s="168"/>
-      <c r="AC14" s="162"/>
-      <c r="AD14" s="162"/>
-      <c r="AE14" s="162"/>
-      <c r="AF14" s="162"/>
-      <c r="AG14" s="162"/>
-      <c r="AH14" s="162"/>
-      <c r="AI14" s="169"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="135"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="133"/>
+      <c r="M14" s="133"/>
+      <c r="N14" s="133"/>
+      <c r="O14" s="133"/>
+      <c r="P14" s="133"/>
+      <c r="Q14" s="133"/>
+      <c r="R14" s="134"/>
+      <c r="S14" s="136"/>
+      <c r="T14" s="137"/>
+      <c r="U14" s="137"/>
+      <c r="V14" s="137"/>
+      <c r="W14" s="137"/>
+      <c r="X14" s="137"/>
+      <c r="Y14" s="137"/>
+      <c r="Z14" s="137"/>
+      <c r="AA14" s="138"/>
+      <c r="AB14" s="141"/>
+      <c r="AC14" s="133"/>
+      <c r="AD14" s="133"/>
+      <c r="AE14" s="133"/>
+      <c r="AF14" s="133"/>
+      <c r="AG14" s="133"/>
+      <c r="AH14" s="133"/>
+      <c r="AI14" s="139"/>
       <c r="AM14" s="4"/>
-      <c r="AN14" s="170"/>
-      <c r="AO14" s="170"/>
-      <c r="AP14" s="170"/>
-      <c r="AQ14" s="170"/>
-      <c r="AR14" s="170"/>
-      <c r="AS14" s="170"/>
-      <c r="AT14" s="170"/>
-      <c r="AU14" s="170"/>
-      <c r="AV14" s="170"/>
-      <c r="AW14" s="170"/>
-      <c r="AX14" s="170"/>
-      <c r="AY14" s="170"/>
-      <c r="AZ14" s="170"/>
-      <c r="BA14" s="170"/>
-      <c r="BB14" s="170"/>
-      <c r="BC14" s="170"/>
-      <c r="BD14" s="170"/>
-      <c r="BE14" s="171"/>
-      <c r="BF14" s="171"/>
-      <c r="BG14" s="171"/>
-      <c r="BH14" s="171"/>
-      <c r="BI14" s="171"/>
-      <c r="BJ14" s="171"/>
-      <c r="BK14" s="171"/>
-      <c r="BL14" s="171"/>
-      <c r="BM14" s="171"/>
-      <c r="BN14" s="172"/>
-      <c r="BO14" s="170"/>
-      <c r="BP14" s="170"/>
-      <c r="BQ14" s="170"/>
-      <c r="BR14" s="170"/>
-      <c r="BS14" s="170"/>
-      <c r="BT14" s="170"/>
-      <c r="BU14" s="170"/>
+      <c r="AN14" s="128"/>
+      <c r="AO14" s="128"/>
+      <c r="AP14" s="128"/>
+      <c r="AQ14" s="128"/>
+      <c r="AR14" s="128"/>
+      <c r="AS14" s="128"/>
+      <c r="AT14" s="128"/>
+      <c r="AU14" s="128"/>
+      <c r="AV14" s="128"/>
+      <c r="AW14" s="128"/>
+      <c r="AX14" s="128"/>
+      <c r="AY14" s="128"/>
+      <c r="AZ14" s="128"/>
+      <c r="BA14" s="128"/>
+      <c r="BB14" s="128"/>
+      <c r="BC14" s="128"/>
+      <c r="BD14" s="128"/>
+      <c r="BE14" s="127"/>
+      <c r="BF14" s="127"/>
+      <c r="BG14" s="127"/>
+      <c r="BH14" s="127"/>
+      <c r="BI14" s="127"/>
+      <c r="BJ14" s="127"/>
+      <c r="BK14" s="127"/>
+      <c r="BL14" s="127"/>
+      <c r="BM14" s="127"/>
+      <c r="BN14" s="140"/>
+      <c r="BO14" s="128"/>
+      <c r="BP14" s="128"/>
+      <c r="BQ14" s="128"/>
+      <c r="BR14" s="128"/>
+      <c r="BS14" s="128"/>
+      <c r="BT14" s="128"/>
+      <c r="BU14" s="128"/>
       <c r="BV14" s="26"/>
       <c r="BW14" s="26"/>
       <c r="BX14" s="26"/>
@@ -5280,75 +5463,75 @@
       <c r="DG14" s="5"/>
     </row>
     <row r="15" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B15" s="161"/>
-      <c r="C15" s="162"/>
-      <c r="D15" s="162"/>
-      <c r="E15" s="162"/>
-      <c r="F15" s="162"/>
-      <c r="G15" s="162"/>
-      <c r="H15" s="162"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="164"/>
-      <c r="K15" s="162"/>
-      <c r="L15" s="162"/>
-      <c r="M15" s="162"/>
-      <c r="N15" s="162"/>
-      <c r="O15" s="162"/>
-      <c r="P15" s="162"/>
-      <c r="Q15" s="162"/>
-      <c r="R15" s="163"/>
-      <c r="S15" s="165"/>
-      <c r="T15" s="166"/>
-      <c r="U15" s="166"/>
-      <c r="V15" s="166"/>
-      <c r="W15" s="166"/>
-      <c r="X15" s="166"/>
-      <c r="Y15" s="166"/>
-      <c r="Z15" s="166"/>
-      <c r="AA15" s="167"/>
-      <c r="AB15" s="168"/>
-      <c r="AC15" s="162"/>
-      <c r="AD15" s="162"/>
-      <c r="AE15" s="162"/>
-      <c r="AF15" s="162"/>
-      <c r="AG15" s="162"/>
-      <c r="AH15" s="162"/>
-      <c r="AI15" s="169"/>
+      <c r="B15" s="132"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="135"/>
+      <c r="K15" s="133"/>
+      <c r="L15" s="133"/>
+      <c r="M15" s="133"/>
+      <c r="N15" s="133"/>
+      <c r="O15" s="133"/>
+      <c r="P15" s="133"/>
+      <c r="Q15" s="133"/>
+      <c r="R15" s="134"/>
+      <c r="S15" s="136"/>
+      <c r="T15" s="137"/>
+      <c r="U15" s="137"/>
+      <c r="V15" s="137"/>
+      <c r="W15" s="137"/>
+      <c r="X15" s="137"/>
+      <c r="Y15" s="137"/>
+      <c r="Z15" s="137"/>
+      <c r="AA15" s="138"/>
+      <c r="AB15" s="141"/>
+      <c r="AC15" s="133"/>
+      <c r="AD15" s="133"/>
+      <c r="AE15" s="133"/>
+      <c r="AF15" s="133"/>
+      <c r="AG15" s="133"/>
+      <c r="AH15" s="133"/>
+      <c r="AI15" s="139"/>
       <c r="AM15" s="4"/>
-      <c r="AN15" s="170"/>
-      <c r="AO15" s="170"/>
-      <c r="AP15" s="170"/>
-      <c r="AQ15" s="170"/>
-      <c r="AR15" s="170"/>
-      <c r="AS15" s="170"/>
-      <c r="AT15" s="170"/>
-      <c r="AU15" s="170"/>
-      <c r="AV15" s="170"/>
-      <c r="AW15" s="170"/>
-      <c r="AX15" s="170"/>
-      <c r="AY15" s="170"/>
-      <c r="AZ15" s="170"/>
-      <c r="BA15" s="170"/>
-      <c r="BB15" s="170"/>
-      <c r="BC15" s="170"/>
-      <c r="BD15" s="170"/>
-      <c r="BE15" s="171"/>
-      <c r="BF15" s="171"/>
-      <c r="BG15" s="171"/>
-      <c r="BH15" s="171"/>
-      <c r="BI15" s="171"/>
-      <c r="BJ15" s="171"/>
-      <c r="BK15" s="171"/>
-      <c r="BL15" s="171"/>
-      <c r="BM15" s="171"/>
-      <c r="BN15" s="172"/>
-      <c r="BO15" s="170"/>
-      <c r="BP15" s="170"/>
-      <c r="BQ15" s="170"/>
-      <c r="BR15" s="170"/>
-      <c r="BS15" s="170"/>
-      <c r="BT15" s="170"/>
-      <c r="BU15" s="170"/>
+      <c r="AN15" s="128"/>
+      <c r="AO15" s="128"/>
+      <c r="AP15" s="128"/>
+      <c r="AQ15" s="128"/>
+      <c r="AR15" s="128"/>
+      <c r="AS15" s="128"/>
+      <c r="AT15" s="128"/>
+      <c r="AU15" s="128"/>
+      <c r="AV15" s="128"/>
+      <c r="AW15" s="128"/>
+      <c r="AX15" s="128"/>
+      <c r="AY15" s="128"/>
+      <c r="AZ15" s="128"/>
+      <c r="BA15" s="128"/>
+      <c r="BB15" s="128"/>
+      <c r="BC15" s="128"/>
+      <c r="BD15" s="128"/>
+      <c r="BE15" s="127"/>
+      <c r="BF15" s="127"/>
+      <c r="BG15" s="127"/>
+      <c r="BH15" s="127"/>
+      <c r="BI15" s="127"/>
+      <c r="BJ15" s="127"/>
+      <c r="BK15" s="127"/>
+      <c r="BL15" s="127"/>
+      <c r="BM15" s="127"/>
+      <c r="BN15" s="140"/>
+      <c r="BO15" s="128"/>
+      <c r="BP15" s="128"/>
+      <c r="BQ15" s="128"/>
+      <c r="BR15" s="128"/>
+      <c r="BS15" s="128"/>
+      <c r="BT15" s="128"/>
+      <c r="BU15" s="128"/>
       <c r="BV15" s="26"/>
       <c r="BW15" s="26"/>
       <c r="BX15" s="26"/>
@@ -5389,75 +5572,75 @@
       <c r="DG15" s="5"/>
     </row>
     <row r="16" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B16" s="161"/>
-      <c r="C16" s="162"/>
-      <c r="D16" s="162"/>
-      <c r="E16" s="162"/>
-      <c r="F16" s="162"/>
-      <c r="G16" s="162"/>
-      <c r="H16" s="162"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="164"/>
-      <c r="K16" s="162"/>
-      <c r="L16" s="162"/>
-      <c r="M16" s="162"/>
-      <c r="N16" s="162"/>
-      <c r="O16" s="162"/>
-      <c r="P16" s="162"/>
-      <c r="Q16" s="162"/>
-      <c r="R16" s="163"/>
-      <c r="S16" s="165"/>
-      <c r="T16" s="166"/>
-      <c r="U16" s="166"/>
-      <c r="V16" s="166"/>
-      <c r="W16" s="166"/>
-      <c r="X16" s="166"/>
-      <c r="Y16" s="166"/>
-      <c r="Z16" s="166"/>
-      <c r="AA16" s="167"/>
-      <c r="AB16" s="168"/>
-      <c r="AC16" s="162"/>
-      <c r="AD16" s="162"/>
-      <c r="AE16" s="162"/>
-      <c r="AF16" s="162"/>
-      <c r="AG16" s="162"/>
-      <c r="AH16" s="162"/>
-      <c r="AI16" s="169"/>
+      <c r="B16" s="132"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="133"/>
+      <c r="L16" s="133"/>
+      <c r="M16" s="133"/>
+      <c r="N16" s="133"/>
+      <c r="O16" s="133"/>
+      <c r="P16" s="133"/>
+      <c r="Q16" s="133"/>
+      <c r="R16" s="134"/>
+      <c r="S16" s="136"/>
+      <c r="T16" s="137"/>
+      <c r="U16" s="137"/>
+      <c r="V16" s="137"/>
+      <c r="W16" s="137"/>
+      <c r="X16" s="137"/>
+      <c r="Y16" s="137"/>
+      <c r="Z16" s="137"/>
+      <c r="AA16" s="138"/>
+      <c r="AB16" s="141"/>
+      <c r="AC16" s="133"/>
+      <c r="AD16" s="133"/>
+      <c r="AE16" s="133"/>
+      <c r="AF16" s="133"/>
+      <c r="AG16" s="133"/>
+      <c r="AH16" s="133"/>
+      <c r="AI16" s="139"/>
       <c r="AM16" s="4"/>
-      <c r="AN16" s="170"/>
-      <c r="AO16" s="170"/>
-      <c r="AP16" s="170"/>
-      <c r="AQ16" s="170"/>
-      <c r="AR16" s="170"/>
-      <c r="AS16" s="170"/>
-      <c r="AT16" s="170"/>
-      <c r="AU16" s="170"/>
-      <c r="AV16" s="170"/>
-      <c r="AW16" s="170"/>
-      <c r="AX16" s="170"/>
-      <c r="AY16" s="170"/>
-      <c r="AZ16" s="170"/>
-      <c r="BA16" s="170"/>
-      <c r="BB16" s="170"/>
-      <c r="BC16" s="170"/>
-      <c r="BD16" s="170"/>
-      <c r="BE16" s="171"/>
-      <c r="BF16" s="171"/>
-      <c r="BG16" s="171"/>
-      <c r="BH16" s="171"/>
-      <c r="BI16" s="171"/>
-      <c r="BJ16" s="171"/>
-      <c r="BK16" s="171"/>
-      <c r="BL16" s="171"/>
-      <c r="BM16" s="171"/>
-      <c r="BN16" s="172"/>
-      <c r="BO16" s="170"/>
-      <c r="BP16" s="170"/>
-      <c r="BQ16" s="170"/>
-      <c r="BR16" s="170"/>
-      <c r="BS16" s="170"/>
-      <c r="BT16" s="170"/>
-      <c r="BU16" s="170"/>
+      <c r="AN16" s="128"/>
+      <c r="AO16" s="128"/>
+      <c r="AP16" s="128"/>
+      <c r="AQ16" s="128"/>
+      <c r="AR16" s="128"/>
+      <c r="AS16" s="128"/>
+      <c r="AT16" s="128"/>
+      <c r="AU16" s="128"/>
+      <c r="AV16" s="128"/>
+      <c r="AW16" s="128"/>
+      <c r="AX16" s="128"/>
+      <c r="AY16" s="128"/>
+      <c r="AZ16" s="128"/>
+      <c r="BA16" s="128"/>
+      <c r="BB16" s="128"/>
+      <c r="BC16" s="128"/>
+      <c r="BD16" s="128"/>
+      <c r="BE16" s="127"/>
+      <c r="BF16" s="127"/>
+      <c r="BG16" s="127"/>
+      <c r="BH16" s="127"/>
+      <c r="BI16" s="127"/>
+      <c r="BJ16" s="127"/>
+      <c r="BK16" s="127"/>
+      <c r="BL16" s="127"/>
+      <c r="BM16" s="127"/>
+      <c r="BN16" s="140"/>
+      <c r="BO16" s="128"/>
+      <c r="BP16" s="128"/>
+      <c r="BQ16" s="128"/>
+      <c r="BR16" s="128"/>
+      <c r="BS16" s="128"/>
+      <c r="BT16" s="128"/>
+      <c r="BU16" s="128"/>
       <c r="BV16" s="26"/>
       <c r="BW16" s="26"/>
       <c r="BX16" s="26"/>
@@ -5498,75 +5681,75 @@
       <c r="DG16" s="5"/>
     </row>
     <row r="17" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B17" s="161"/>
-      <c r="C17" s="162"/>
-      <c r="D17" s="162"/>
-      <c r="E17" s="162"/>
-      <c r="F17" s="162"/>
-      <c r="G17" s="162"/>
-      <c r="H17" s="162"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="164"/>
-      <c r="K17" s="162"/>
-      <c r="L17" s="162"/>
-      <c r="M17" s="162"/>
-      <c r="N17" s="162"/>
-      <c r="O17" s="162"/>
-      <c r="P17" s="162"/>
-      <c r="Q17" s="162"/>
-      <c r="R17" s="163"/>
-      <c r="S17" s="165"/>
-      <c r="T17" s="166"/>
-      <c r="U17" s="166"/>
-      <c r="V17" s="166"/>
-      <c r="W17" s="166"/>
-      <c r="X17" s="166"/>
-      <c r="Y17" s="166"/>
-      <c r="Z17" s="166"/>
-      <c r="AA17" s="167"/>
-      <c r="AB17" s="168"/>
-      <c r="AC17" s="178"/>
-      <c r="AD17" s="178"/>
-      <c r="AE17" s="178"/>
-      <c r="AF17" s="178"/>
-      <c r="AG17" s="178"/>
-      <c r="AH17" s="178"/>
-      <c r="AI17" s="179"/>
+      <c r="B17" s="132"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="135"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="133"/>
+      <c r="M17" s="133"/>
+      <c r="N17" s="133"/>
+      <c r="O17" s="133"/>
+      <c r="P17" s="133"/>
+      <c r="Q17" s="133"/>
+      <c r="R17" s="134"/>
+      <c r="S17" s="136"/>
+      <c r="T17" s="137"/>
+      <c r="U17" s="137"/>
+      <c r="V17" s="137"/>
+      <c r="W17" s="137"/>
+      <c r="X17" s="137"/>
+      <c r="Y17" s="137"/>
+      <c r="Z17" s="137"/>
+      <c r="AA17" s="138"/>
+      <c r="AB17" s="141"/>
+      <c r="AC17" s="142"/>
+      <c r="AD17" s="142"/>
+      <c r="AE17" s="142"/>
+      <c r="AF17" s="142"/>
+      <c r="AG17" s="142"/>
+      <c r="AH17" s="142"/>
+      <c r="AI17" s="143"/>
       <c r="AM17" s="4"/>
-      <c r="AN17" s="170"/>
-      <c r="AO17" s="170"/>
-      <c r="AP17" s="170"/>
-      <c r="AQ17" s="170"/>
-      <c r="AR17" s="170"/>
-      <c r="AS17" s="170"/>
-      <c r="AT17" s="170"/>
-      <c r="AU17" s="170"/>
-      <c r="AV17" s="170"/>
-      <c r="AW17" s="170"/>
-      <c r="AX17" s="170"/>
-      <c r="AY17" s="170"/>
-      <c r="AZ17" s="170"/>
-      <c r="BA17" s="170"/>
-      <c r="BB17" s="170"/>
-      <c r="BC17" s="170"/>
-      <c r="BD17" s="170"/>
-      <c r="BE17" s="171"/>
-      <c r="BF17" s="171"/>
-      <c r="BG17" s="171"/>
-      <c r="BH17" s="171"/>
-      <c r="BI17" s="171"/>
-      <c r="BJ17" s="171"/>
-      <c r="BK17" s="171"/>
-      <c r="BL17" s="171"/>
-      <c r="BM17" s="171"/>
-      <c r="BN17" s="172"/>
-      <c r="BO17" s="170"/>
-      <c r="BP17" s="170"/>
-      <c r="BQ17" s="170"/>
-      <c r="BR17" s="170"/>
-      <c r="BS17" s="170"/>
-      <c r="BT17" s="170"/>
-      <c r="BU17" s="170"/>
+      <c r="AN17" s="128"/>
+      <c r="AO17" s="128"/>
+      <c r="AP17" s="128"/>
+      <c r="AQ17" s="128"/>
+      <c r="AR17" s="128"/>
+      <c r="AS17" s="128"/>
+      <c r="AT17" s="128"/>
+      <c r="AU17" s="128"/>
+      <c r="AV17" s="128"/>
+      <c r="AW17" s="128"/>
+      <c r="AX17" s="128"/>
+      <c r="AY17" s="128"/>
+      <c r="AZ17" s="128"/>
+      <c r="BA17" s="128"/>
+      <c r="BB17" s="128"/>
+      <c r="BC17" s="128"/>
+      <c r="BD17" s="128"/>
+      <c r="BE17" s="127"/>
+      <c r="BF17" s="127"/>
+      <c r="BG17" s="127"/>
+      <c r="BH17" s="127"/>
+      <c r="BI17" s="127"/>
+      <c r="BJ17" s="127"/>
+      <c r="BK17" s="127"/>
+      <c r="BL17" s="127"/>
+      <c r="BM17" s="127"/>
+      <c r="BN17" s="140"/>
+      <c r="BO17" s="128"/>
+      <c r="BP17" s="128"/>
+      <c r="BQ17" s="128"/>
+      <c r="BR17" s="128"/>
+      <c r="BS17" s="128"/>
+      <c r="BT17" s="128"/>
+      <c r="BU17" s="128"/>
       <c r="BV17" s="26"/>
       <c r="BW17" s="26"/>
       <c r="BX17" s="26"/>
@@ -5607,75 +5790,75 @@
       <c r="DG17" s="5"/>
     </row>
     <row r="18" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B18" s="161"/>
-      <c r="C18" s="162"/>
-      <c r="D18" s="162"/>
-      <c r="E18" s="162"/>
-      <c r="F18" s="162"/>
-      <c r="G18" s="162"/>
-      <c r="H18" s="162"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="164"/>
-      <c r="K18" s="162"/>
-      <c r="L18" s="162"/>
-      <c r="M18" s="162"/>
-      <c r="N18" s="162"/>
-      <c r="O18" s="162"/>
-      <c r="P18" s="162"/>
-      <c r="Q18" s="162"/>
-      <c r="R18" s="163"/>
-      <c r="S18" s="165"/>
-      <c r="T18" s="166"/>
-      <c r="U18" s="166"/>
-      <c r="V18" s="166"/>
-      <c r="W18" s="166"/>
-      <c r="X18" s="166"/>
-      <c r="Y18" s="166"/>
-      <c r="Z18" s="166"/>
-      <c r="AA18" s="167"/>
-      <c r="AB18" s="168"/>
-      <c r="AC18" s="162"/>
-      <c r="AD18" s="162"/>
-      <c r="AE18" s="162"/>
-      <c r="AF18" s="162"/>
-      <c r="AG18" s="162"/>
-      <c r="AH18" s="162"/>
-      <c r="AI18" s="169"/>
+      <c r="B18" s="132"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="133"/>
+      <c r="L18" s="133"/>
+      <c r="M18" s="133"/>
+      <c r="N18" s="133"/>
+      <c r="O18" s="133"/>
+      <c r="P18" s="133"/>
+      <c r="Q18" s="133"/>
+      <c r="R18" s="134"/>
+      <c r="S18" s="136"/>
+      <c r="T18" s="137"/>
+      <c r="U18" s="137"/>
+      <c r="V18" s="137"/>
+      <c r="W18" s="137"/>
+      <c r="X18" s="137"/>
+      <c r="Y18" s="137"/>
+      <c r="Z18" s="137"/>
+      <c r="AA18" s="138"/>
+      <c r="AB18" s="141"/>
+      <c r="AC18" s="133"/>
+      <c r="AD18" s="133"/>
+      <c r="AE18" s="133"/>
+      <c r="AF18" s="133"/>
+      <c r="AG18" s="133"/>
+      <c r="AH18" s="133"/>
+      <c r="AI18" s="139"/>
       <c r="AM18" s="4"/>
-      <c r="AN18" s="170"/>
-      <c r="AO18" s="170"/>
-      <c r="AP18" s="170"/>
-      <c r="AQ18" s="170"/>
-      <c r="AR18" s="170"/>
-      <c r="AS18" s="170"/>
-      <c r="AT18" s="170"/>
-      <c r="AU18" s="170"/>
-      <c r="AV18" s="170"/>
-      <c r="AW18" s="170"/>
-      <c r="AX18" s="170"/>
-      <c r="AY18" s="170"/>
-      <c r="AZ18" s="170"/>
-      <c r="BA18" s="170"/>
-      <c r="BB18" s="170"/>
-      <c r="BC18" s="170"/>
-      <c r="BD18" s="170"/>
-      <c r="BE18" s="171"/>
-      <c r="BF18" s="171"/>
-      <c r="BG18" s="171"/>
-      <c r="BH18" s="171"/>
-      <c r="BI18" s="171"/>
-      <c r="BJ18" s="171"/>
-      <c r="BK18" s="171"/>
-      <c r="BL18" s="171"/>
-      <c r="BM18" s="171"/>
-      <c r="BN18" s="172"/>
-      <c r="BO18" s="170"/>
-      <c r="BP18" s="170"/>
-      <c r="BQ18" s="170"/>
-      <c r="BR18" s="170"/>
-      <c r="BS18" s="170"/>
-      <c r="BT18" s="170"/>
-      <c r="BU18" s="170"/>
+      <c r="AN18" s="128"/>
+      <c r="AO18" s="128"/>
+      <c r="AP18" s="128"/>
+      <c r="AQ18" s="128"/>
+      <c r="AR18" s="128"/>
+      <c r="AS18" s="128"/>
+      <c r="AT18" s="128"/>
+      <c r="AU18" s="128"/>
+      <c r="AV18" s="128"/>
+      <c r="AW18" s="128"/>
+      <c r="AX18" s="128"/>
+      <c r="AY18" s="128"/>
+      <c r="AZ18" s="128"/>
+      <c r="BA18" s="128"/>
+      <c r="BB18" s="128"/>
+      <c r="BC18" s="128"/>
+      <c r="BD18" s="128"/>
+      <c r="BE18" s="127"/>
+      <c r="BF18" s="127"/>
+      <c r="BG18" s="127"/>
+      <c r="BH18" s="127"/>
+      <c r="BI18" s="127"/>
+      <c r="BJ18" s="127"/>
+      <c r="BK18" s="127"/>
+      <c r="BL18" s="127"/>
+      <c r="BM18" s="127"/>
+      <c r="BN18" s="140"/>
+      <c r="BO18" s="128"/>
+      <c r="BP18" s="128"/>
+      <c r="BQ18" s="128"/>
+      <c r="BR18" s="128"/>
+      <c r="BS18" s="128"/>
+      <c r="BT18" s="128"/>
+      <c r="BU18" s="128"/>
       <c r="BV18" s="26"/>
       <c r="BW18" s="26"/>
       <c r="BX18" s="26"/>
@@ -5716,75 +5899,75 @@
       <c r="DG18" s="5"/>
     </row>
     <row r="19" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B19" s="161"/>
-      <c r="C19" s="162"/>
-      <c r="D19" s="162"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="162"/>
-      <c r="G19" s="162"/>
-      <c r="H19" s="162"/>
-      <c r="I19" s="163"/>
-      <c r="J19" s="164"/>
-      <c r="K19" s="162"/>
-      <c r="L19" s="162"/>
-      <c r="M19" s="162"/>
-      <c r="N19" s="162"/>
-      <c r="O19" s="162"/>
-      <c r="P19" s="162"/>
-      <c r="Q19" s="162"/>
-      <c r="R19" s="163"/>
-      <c r="S19" s="165"/>
-      <c r="T19" s="166"/>
-      <c r="U19" s="166"/>
-      <c r="V19" s="166"/>
-      <c r="W19" s="166"/>
-      <c r="X19" s="166"/>
-      <c r="Y19" s="166"/>
-      <c r="Z19" s="166"/>
-      <c r="AA19" s="167"/>
-      <c r="AB19" s="168"/>
-      <c r="AC19" s="162"/>
-      <c r="AD19" s="162"/>
-      <c r="AE19" s="162"/>
-      <c r="AF19" s="162"/>
-      <c r="AG19" s="162"/>
-      <c r="AH19" s="162"/>
-      <c r="AI19" s="169"/>
+      <c r="B19" s="132"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="133"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="134"/>
+      <c r="J19" s="135"/>
+      <c r="K19" s="133"/>
+      <c r="L19" s="133"/>
+      <c r="M19" s="133"/>
+      <c r="N19" s="133"/>
+      <c r="O19" s="133"/>
+      <c r="P19" s="133"/>
+      <c r="Q19" s="133"/>
+      <c r="R19" s="134"/>
+      <c r="S19" s="136"/>
+      <c r="T19" s="137"/>
+      <c r="U19" s="137"/>
+      <c r="V19" s="137"/>
+      <c r="W19" s="137"/>
+      <c r="X19" s="137"/>
+      <c r="Y19" s="137"/>
+      <c r="Z19" s="137"/>
+      <c r="AA19" s="138"/>
+      <c r="AB19" s="141"/>
+      <c r="AC19" s="133"/>
+      <c r="AD19" s="133"/>
+      <c r="AE19" s="133"/>
+      <c r="AF19" s="133"/>
+      <c r="AG19" s="133"/>
+      <c r="AH19" s="133"/>
+      <c r="AI19" s="139"/>
       <c r="AM19" s="4"/>
-      <c r="AN19" s="170"/>
-      <c r="AO19" s="170"/>
-      <c r="AP19" s="170"/>
-      <c r="AQ19" s="170"/>
-      <c r="AR19" s="170"/>
-      <c r="AS19" s="170"/>
-      <c r="AT19" s="170"/>
-      <c r="AU19" s="170"/>
-      <c r="AV19" s="170"/>
-      <c r="AW19" s="170"/>
-      <c r="AX19" s="170"/>
-      <c r="AY19" s="170"/>
-      <c r="AZ19" s="170"/>
-      <c r="BA19" s="170"/>
-      <c r="BB19" s="170"/>
-      <c r="BC19" s="170"/>
-      <c r="BD19" s="170"/>
-      <c r="BE19" s="171"/>
-      <c r="BF19" s="171"/>
-      <c r="BG19" s="171"/>
-      <c r="BH19" s="171"/>
-      <c r="BI19" s="171"/>
-      <c r="BJ19" s="171"/>
-      <c r="BK19" s="171"/>
-      <c r="BL19" s="171"/>
-      <c r="BM19" s="171"/>
-      <c r="BN19" s="172"/>
-      <c r="BO19" s="170"/>
-      <c r="BP19" s="170"/>
-      <c r="BQ19" s="170"/>
-      <c r="BR19" s="170"/>
-      <c r="BS19" s="170"/>
-      <c r="BT19" s="170"/>
-      <c r="BU19" s="170"/>
+      <c r="AN19" s="128"/>
+      <c r="AO19" s="128"/>
+      <c r="AP19" s="128"/>
+      <c r="AQ19" s="128"/>
+      <c r="AR19" s="128"/>
+      <c r="AS19" s="128"/>
+      <c r="AT19" s="128"/>
+      <c r="AU19" s="128"/>
+      <c r="AV19" s="128"/>
+      <c r="AW19" s="128"/>
+      <c r="AX19" s="128"/>
+      <c r="AY19" s="128"/>
+      <c r="AZ19" s="128"/>
+      <c r="BA19" s="128"/>
+      <c r="BB19" s="128"/>
+      <c r="BC19" s="128"/>
+      <c r="BD19" s="128"/>
+      <c r="BE19" s="127"/>
+      <c r="BF19" s="127"/>
+      <c r="BG19" s="127"/>
+      <c r="BH19" s="127"/>
+      <c r="BI19" s="127"/>
+      <c r="BJ19" s="127"/>
+      <c r="BK19" s="127"/>
+      <c r="BL19" s="127"/>
+      <c r="BM19" s="127"/>
+      <c r="BN19" s="140"/>
+      <c r="BO19" s="128"/>
+      <c r="BP19" s="128"/>
+      <c r="BQ19" s="128"/>
+      <c r="BR19" s="128"/>
+      <c r="BS19" s="128"/>
+      <c r="BT19" s="128"/>
+      <c r="BU19" s="128"/>
       <c r="BV19" s="26"/>
       <c r="BW19" s="26"/>
       <c r="BX19" s="26"/>
@@ -5825,75 +6008,75 @@
       <c r="DG19" s="5"/>
     </row>
     <row r="20" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B20" s="161"/>
-      <c r="C20" s="162"/>
-      <c r="D20" s="162"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="162"/>
-      <c r="G20" s="162"/>
-      <c r="H20" s="162"/>
-      <c r="I20" s="163"/>
-      <c r="J20" s="164"/>
-      <c r="K20" s="162"/>
-      <c r="L20" s="162"/>
-      <c r="M20" s="162"/>
-      <c r="N20" s="162"/>
-      <c r="O20" s="162"/>
-      <c r="P20" s="162"/>
-      <c r="Q20" s="162"/>
-      <c r="R20" s="163"/>
-      <c r="S20" s="165"/>
-      <c r="T20" s="166"/>
-      <c r="U20" s="166"/>
-      <c r="V20" s="166"/>
-      <c r="W20" s="166"/>
-      <c r="X20" s="166"/>
-      <c r="Y20" s="166"/>
-      <c r="Z20" s="166"/>
-      <c r="AA20" s="167"/>
-      <c r="AB20" s="168"/>
-      <c r="AC20" s="162"/>
-      <c r="AD20" s="162"/>
-      <c r="AE20" s="162"/>
-      <c r="AF20" s="162"/>
-      <c r="AG20" s="162"/>
-      <c r="AH20" s="162"/>
-      <c r="AI20" s="169"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="133"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="134"/>
+      <c r="J20" s="135"/>
+      <c r="K20" s="133"/>
+      <c r="L20" s="133"/>
+      <c r="M20" s="133"/>
+      <c r="N20" s="133"/>
+      <c r="O20" s="133"/>
+      <c r="P20" s="133"/>
+      <c r="Q20" s="133"/>
+      <c r="R20" s="134"/>
+      <c r="S20" s="136"/>
+      <c r="T20" s="137"/>
+      <c r="U20" s="137"/>
+      <c r="V20" s="137"/>
+      <c r="W20" s="137"/>
+      <c r="X20" s="137"/>
+      <c r="Y20" s="137"/>
+      <c r="Z20" s="137"/>
+      <c r="AA20" s="138"/>
+      <c r="AB20" s="141"/>
+      <c r="AC20" s="133"/>
+      <c r="AD20" s="133"/>
+      <c r="AE20" s="133"/>
+      <c r="AF20" s="133"/>
+      <c r="AG20" s="133"/>
+      <c r="AH20" s="133"/>
+      <c r="AI20" s="139"/>
       <c r="AM20" s="4"/>
-      <c r="AN20" s="170"/>
-      <c r="AO20" s="170"/>
-      <c r="AP20" s="170"/>
-      <c r="AQ20" s="170"/>
-      <c r="AR20" s="170"/>
-      <c r="AS20" s="170"/>
-      <c r="AT20" s="170"/>
-      <c r="AU20" s="170"/>
-      <c r="AV20" s="170"/>
-      <c r="AW20" s="170"/>
-      <c r="AX20" s="170"/>
-      <c r="AY20" s="170"/>
-      <c r="AZ20" s="170"/>
-      <c r="BA20" s="170"/>
-      <c r="BB20" s="170"/>
-      <c r="BC20" s="170"/>
-      <c r="BD20" s="170"/>
-      <c r="BE20" s="171"/>
-      <c r="BF20" s="171"/>
-      <c r="BG20" s="171"/>
-      <c r="BH20" s="171"/>
-      <c r="BI20" s="171"/>
-      <c r="BJ20" s="171"/>
-      <c r="BK20" s="171"/>
-      <c r="BL20" s="171"/>
-      <c r="BM20" s="171"/>
-      <c r="BN20" s="172"/>
-      <c r="BO20" s="170"/>
-      <c r="BP20" s="170"/>
-      <c r="BQ20" s="170"/>
-      <c r="BR20" s="170"/>
-      <c r="BS20" s="170"/>
-      <c r="BT20" s="170"/>
-      <c r="BU20" s="170"/>
+      <c r="AN20" s="128"/>
+      <c r="AO20" s="128"/>
+      <c r="AP20" s="128"/>
+      <c r="AQ20" s="128"/>
+      <c r="AR20" s="128"/>
+      <c r="AS20" s="128"/>
+      <c r="AT20" s="128"/>
+      <c r="AU20" s="128"/>
+      <c r="AV20" s="128"/>
+      <c r="AW20" s="128"/>
+      <c r="AX20" s="128"/>
+      <c r="AY20" s="128"/>
+      <c r="AZ20" s="128"/>
+      <c r="BA20" s="128"/>
+      <c r="BB20" s="128"/>
+      <c r="BC20" s="128"/>
+      <c r="BD20" s="128"/>
+      <c r="BE20" s="127"/>
+      <c r="BF20" s="127"/>
+      <c r="BG20" s="127"/>
+      <c r="BH20" s="127"/>
+      <c r="BI20" s="127"/>
+      <c r="BJ20" s="127"/>
+      <c r="BK20" s="127"/>
+      <c r="BL20" s="127"/>
+      <c r="BM20" s="127"/>
+      <c r="BN20" s="140"/>
+      <c r="BO20" s="128"/>
+      <c r="BP20" s="128"/>
+      <c r="BQ20" s="128"/>
+      <c r="BR20" s="128"/>
+      <c r="BS20" s="128"/>
+      <c r="BT20" s="128"/>
+      <c r="BU20" s="128"/>
       <c r="BV20" s="26"/>
       <c r="BW20" s="26"/>
       <c r="BX20" s="26"/>
@@ -5934,75 +6117,75 @@
       <c r="DG20" s="5"/>
     </row>
     <row r="21" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B21" s="161"/>
-      <c r="C21" s="162"/>
-      <c r="D21" s="162"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="162"/>
-      <c r="G21" s="162"/>
-      <c r="H21" s="162"/>
-      <c r="I21" s="163"/>
-      <c r="J21" s="164"/>
-      <c r="K21" s="162"/>
-      <c r="L21" s="162"/>
-      <c r="M21" s="162"/>
-      <c r="N21" s="162"/>
-      <c r="O21" s="162"/>
-      <c r="P21" s="162"/>
-      <c r="Q21" s="162"/>
-      <c r="R21" s="163"/>
-      <c r="S21" s="165"/>
-      <c r="T21" s="166"/>
-      <c r="U21" s="166"/>
-      <c r="V21" s="166"/>
-      <c r="W21" s="166"/>
-      <c r="X21" s="166"/>
-      <c r="Y21" s="166"/>
-      <c r="Z21" s="166"/>
-      <c r="AA21" s="167"/>
-      <c r="AB21" s="168"/>
-      <c r="AC21" s="162"/>
-      <c r="AD21" s="162"/>
-      <c r="AE21" s="162"/>
-      <c r="AF21" s="162"/>
-      <c r="AG21" s="162"/>
-      <c r="AH21" s="162"/>
-      <c r="AI21" s="169"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="133"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="134"/>
+      <c r="J21" s="135"/>
+      <c r="K21" s="133"/>
+      <c r="L21" s="133"/>
+      <c r="M21" s="133"/>
+      <c r="N21" s="133"/>
+      <c r="O21" s="133"/>
+      <c r="P21" s="133"/>
+      <c r="Q21" s="133"/>
+      <c r="R21" s="134"/>
+      <c r="S21" s="136"/>
+      <c r="T21" s="137"/>
+      <c r="U21" s="137"/>
+      <c r="V21" s="137"/>
+      <c r="W21" s="137"/>
+      <c r="X21" s="137"/>
+      <c r="Y21" s="137"/>
+      <c r="Z21" s="137"/>
+      <c r="AA21" s="138"/>
+      <c r="AB21" s="141"/>
+      <c r="AC21" s="133"/>
+      <c r="AD21" s="133"/>
+      <c r="AE21" s="133"/>
+      <c r="AF21" s="133"/>
+      <c r="AG21" s="133"/>
+      <c r="AH21" s="133"/>
+      <c r="AI21" s="139"/>
       <c r="AM21" s="4"/>
-      <c r="AN21" s="170"/>
-      <c r="AO21" s="170"/>
-      <c r="AP21" s="170"/>
-      <c r="AQ21" s="170"/>
-      <c r="AR21" s="170"/>
-      <c r="AS21" s="170"/>
-      <c r="AT21" s="170"/>
-      <c r="AU21" s="170"/>
-      <c r="AV21" s="170"/>
-      <c r="AW21" s="170"/>
-      <c r="AX21" s="170"/>
-      <c r="AY21" s="170"/>
-      <c r="AZ21" s="170"/>
-      <c r="BA21" s="170"/>
-      <c r="BB21" s="170"/>
-      <c r="BC21" s="170"/>
-      <c r="BD21" s="170"/>
-      <c r="BE21" s="171"/>
-      <c r="BF21" s="171"/>
-      <c r="BG21" s="171"/>
-      <c r="BH21" s="171"/>
-      <c r="BI21" s="171"/>
-      <c r="BJ21" s="171"/>
-      <c r="BK21" s="171"/>
-      <c r="BL21" s="171"/>
-      <c r="BM21" s="171"/>
-      <c r="BN21" s="172"/>
-      <c r="BO21" s="170"/>
-      <c r="BP21" s="170"/>
-      <c r="BQ21" s="170"/>
-      <c r="BR21" s="170"/>
-      <c r="BS21" s="170"/>
-      <c r="BT21" s="170"/>
-      <c r="BU21" s="170"/>
+      <c r="AN21" s="128"/>
+      <c r="AO21" s="128"/>
+      <c r="AP21" s="128"/>
+      <c r="AQ21" s="128"/>
+      <c r="AR21" s="128"/>
+      <c r="AS21" s="128"/>
+      <c r="AT21" s="128"/>
+      <c r="AU21" s="128"/>
+      <c r="AV21" s="128"/>
+      <c r="AW21" s="128"/>
+      <c r="AX21" s="128"/>
+      <c r="AY21" s="128"/>
+      <c r="AZ21" s="128"/>
+      <c r="BA21" s="128"/>
+      <c r="BB21" s="128"/>
+      <c r="BC21" s="128"/>
+      <c r="BD21" s="128"/>
+      <c r="BE21" s="127"/>
+      <c r="BF21" s="127"/>
+      <c r="BG21" s="127"/>
+      <c r="BH21" s="127"/>
+      <c r="BI21" s="127"/>
+      <c r="BJ21" s="127"/>
+      <c r="BK21" s="127"/>
+      <c r="BL21" s="127"/>
+      <c r="BM21" s="127"/>
+      <c r="BN21" s="140"/>
+      <c r="BO21" s="128"/>
+      <c r="BP21" s="128"/>
+      <c r="BQ21" s="128"/>
+      <c r="BR21" s="128"/>
+      <c r="BS21" s="128"/>
+      <c r="BT21" s="128"/>
+      <c r="BU21" s="128"/>
       <c r="BV21" s="26"/>
       <c r="BW21" s="26"/>
       <c r="BX21" s="26"/>
@@ -6043,75 +6226,75 @@
       <c r="DG21" s="5"/>
     </row>
     <row r="22" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B22" s="161"/>
-      <c r="C22" s="162"/>
-      <c r="D22" s="162"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="162"/>
-      <c r="G22" s="162"/>
-      <c r="H22" s="162"/>
-      <c r="I22" s="163"/>
-      <c r="J22" s="164"/>
-      <c r="K22" s="162"/>
-      <c r="L22" s="162"/>
-      <c r="M22" s="162"/>
-      <c r="N22" s="162"/>
-      <c r="O22" s="162"/>
-      <c r="P22" s="162"/>
-      <c r="Q22" s="162"/>
-      <c r="R22" s="163"/>
-      <c r="S22" s="165"/>
-      <c r="T22" s="166"/>
-      <c r="U22" s="166"/>
-      <c r="V22" s="166"/>
-      <c r="W22" s="166"/>
-      <c r="X22" s="166"/>
-      <c r="Y22" s="166"/>
-      <c r="Z22" s="166"/>
-      <c r="AA22" s="167"/>
-      <c r="AB22" s="168"/>
-      <c r="AC22" s="162"/>
-      <c r="AD22" s="162"/>
-      <c r="AE22" s="162"/>
-      <c r="AF22" s="162"/>
-      <c r="AG22" s="162"/>
-      <c r="AH22" s="162"/>
-      <c r="AI22" s="169"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="135"/>
+      <c r="K22" s="133"/>
+      <c r="L22" s="133"/>
+      <c r="M22" s="133"/>
+      <c r="N22" s="133"/>
+      <c r="O22" s="133"/>
+      <c r="P22" s="133"/>
+      <c r="Q22" s="133"/>
+      <c r="R22" s="134"/>
+      <c r="S22" s="136"/>
+      <c r="T22" s="137"/>
+      <c r="U22" s="137"/>
+      <c r="V22" s="137"/>
+      <c r="W22" s="137"/>
+      <c r="X22" s="137"/>
+      <c r="Y22" s="137"/>
+      <c r="Z22" s="137"/>
+      <c r="AA22" s="138"/>
+      <c r="AB22" s="141"/>
+      <c r="AC22" s="133"/>
+      <c r="AD22" s="133"/>
+      <c r="AE22" s="133"/>
+      <c r="AF22" s="133"/>
+      <c r="AG22" s="133"/>
+      <c r="AH22" s="133"/>
+      <c r="AI22" s="139"/>
       <c r="AM22" s="4"/>
-      <c r="AN22" s="170"/>
-      <c r="AO22" s="170"/>
-      <c r="AP22" s="170"/>
-      <c r="AQ22" s="170"/>
-      <c r="AR22" s="170"/>
-      <c r="AS22" s="170"/>
-      <c r="AT22" s="170"/>
-      <c r="AU22" s="170"/>
-      <c r="AV22" s="170"/>
-      <c r="AW22" s="170"/>
-      <c r="AX22" s="170"/>
-      <c r="AY22" s="170"/>
-      <c r="AZ22" s="170"/>
-      <c r="BA22" s="170"/>
-      <c r="BB22" s="170"/>
-      <c r="BC22" s="170"/>
-      <c r="BD22" s="170"/>
-      <c r="BE22" s="171"/>
-      <c r="BF22" s="171"/>
-      <c r="BG22" s="171"/>
-      <c r="BH22" s="171"/>
-      <c r="BI22" s="171"/>
-      <c r="BJ22" s="171"/>
-      <c r="BK22" s="171"/>
-      <c r="BL22" s="171"/>
-      <c r="BM22" s="171"/>
-      <c r="BN22" s="172"/>
-      <c r="BO22" s="170"/>
-      <c r="BP22" s="170"/>
-      <c r="BQ22" s="170"/>
-      <c r="BR22" s="170"/>
-      <c r="BS22" s="170"/>
-      <c r="BT22" s="170"/>
-      <c r="BU22" s="170"/>
+      <c r="AN22" s="128"/>
+      <c r="AO22" s="128"/>
+      <c r="AP22" s="128"/>
+      <c r="AQ22" s="128"/>
+      <c r="AR22" s="128"/>
+      <c r="AS22" s="128"/>
+      <c r="AT22" s="128"/>
+      <c r="AU22" s="128"/>
+      <c r="AV22" s="128"/>
+      <c r="AW22" s="128"/>
+      <c r="AX22" s="128"/>
+      <c r="AY22" s="128"/>
+      <c r="AZ22" s="128"/>
+      <c r="BA22" s="128"/>
+      <c r="BB22" s="128"/>
+      <c r="BC22" s="128"/>
+      <c r="BD22" s="128"/>
+      <c r="BE22" s="127"/>
+      <c r="BF22" s="127"/>
+      <c r="BG22" s="127"/>
+      <c r="BH22" s="127"/>
+      <c r="BI22" s="127"/>
+      <c r="BJ22" s="127"/>
+      <c r="BK22" s="127"/>
+      <c r="BL22" s="127"/>
+      <c r="BM22" s="127"/>
+      <c r="BN22" s="140"/>
+      <c r="BO22" s="128"/>
+      <c r="BP22" s="128"/>
+      <c r="BQ22" s="128"/>
+      <c r="BR22" s="128"/>
+      <c r="BS22" s="128"/>
+      <c r="BT22" s="128"/>
+      <c r="BU22" s="128"/>
       <c r="BV22" s="26"/>
       <c r="BW22" s="26"/>
       <c r="BX22" s="26"/>
@@ -6152,75 +6335,75 @@
       <c r="DG22" s="5"/>
     </row>
     <row r="23" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B23" s="161"/>
-      <c r="C23" s="162"/>
-      <c r="D23" s="162"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="162"/>
-      <c r="H23" s="162"/>
-      <c r="I23" s="163"/>
-      <c r="J23" s="164"/>
-      <c r="K23" s="162"/>
-      <c r="L23" s="162"/>
-      <c r="M23" s="162"/>
-      <c r="N23" s="162"/>
-      <c r="O23" s="162"/>
-      <c r="P23" s="162"/>
-      <c r="Q23" s="162"/>
-      <c r="R23" s="163"/>
-      <c r="S23" s="165"/>
-      <c r="T23" s="166"/>
-      <c r="U23" s="166"/>
-      <c r="V23" s="166"/>
-      <c r="W23" s="166"/>
-      <c r="X23" s="166"/>
-      <c r="Y23" s="166"/>
-      <c r="Z23" s="166"/>
-      <c r="AA23" s="167"/>
-      <c r="AB23" s="164"/>
-      <c r="AC23" s="162"/>
-      <c r="AD23" s="162"/>
-      <c r="AE23" s="162"/>
-      <c r="AF23" s="162"/>
-      <c r="AG23" s="162"/>
-      <c r="AH23" s="162"/>
-      <c r="AI23" s="169"/>
+      <c r="B23" s="132"/>
+      <c r="C23" s="133"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="133"/>
+      <c r="F23" s="133"/>
+      <c r="G23" s="133"/>
+      <c r="H23" s="133"/>
+      <c r="I23" s="134"/>
+      <c r="J23" s="135"/>
+      <c r="K23" s="133"/>
+      <c r="L23" s="133"/>
+      <c r="M23" s="133"/>
+      <c r="N23" s="133"/>
+      <c r="O23" s="133"/>
+      <c r="P23" s="133"/>
+      <c r="Q23" s="133"/>
+      <c r="R23" s="134"/>
+      <c r="S23" s="136"/>
+      <c r="T23" s="137"/>
+      <c r="U23" s="137"/>
+      <c r="V23" s="137"/>
+      <c r="W23" s="137"/>
+      <c r="X23" s="137"/>
+      <c r="Y23" s="137"/>
+      <c r="Z23" s="137"/>
+      <c r="AA23" s="138"/>
+      <c r="AB23" s="135"/>
+      <c r="AC23" s="133"/>
+      <c r="AD23" s="133"/>
+      <c r="AE23" s="133"/>
+      <c r="AF23" s="133"/>
+      <c r="AG23" s="133"/>
+      <c r="AH23" s="133"/>
+      <c r="AI23" s="139"/>
       <c r="AM23" s="4"/>
-      <c r="AN23" s="170"/>
-      <c r="AO23" s="170"/>
-      <c r="AP23" s="170"/>
-      <c r="AQ23" s="170"/>
-      <c r="AR23" s="170"/>
-      <c r="AS23" s="170"/>
-      <c r="AT23" s="170"/>
-      <c r="AU23" s="170"/>
-      <c r="AV23" s="170"/>
-      <c r="AW23" s="170"/>
-      <c r="AX23" s="170"/>
-      <c r="AY23" s="170"/>
-      <c r="AZ23" s="170"/>
-      <c r="BA23" s="170"/>
-      <c r="BB23" s="170"/>
-      <c r="BC23" s="170"/>
-      <c r="BD23" s="170"/>
-      <c r="BE23" s="171"/>
-      <c r="BF23" s="171"/>
-      <c r="BG23" s="171"/>
-      <c r="BH23" s="171"/>
-      <c r="BI23" s="171"/>
-      <c r="BJ23" s="171"/>
-      <c r="BK23" s="171"/>
-      <c r="BL23" s="171"/>
-      <c r="BM23" s="171"/>
-      <c r="BN23" s="170"/>
-      <c r="BO23" s="170"/>
-      <c r="BP23" s="170"/>
-      <c r="BQ23" s="170"/>
-      <c r="BR23" s="170"/>
-      <c r="BS23" s="170"/>
-      <c r="BT23" s="170"/>
-      <c r="BU23" s="170"/>
+      <c r="AN23" s="128"/>
+      <c r="AO23" s="128"/>
+      <c r="AP23" s="128"/>
+      <c r="AQ23" s="128"/>
+      <c r="AR23" s="128"/>
+      <c r="AS23" s="128"/>
+      <c r="AT23" s="128"/>
+      <c r="AU23" s="128"/>
+      <c r="AV23" s="128"/>
+      <c r="AW23" s="128"/>
+      <c r="AX23" s="128"/>
+      <c r="AY23" s="128"/>
+      <c r="AZ23" s="128"/>
+      <c r="BA23" s="128"/>
+      <c r="BB23" s="128"/>
+      <c r="BC23" s="128"/>
+      <c r="BD23" s="128"/>
+      <c r="BE23" s="127"/>
+      <c r="BF23" s="127"/>
+      <c r="BG23" s="127"/>
+      <c r="BH23" s="127"/>
+      <c r="BI23" s="127"/>
+      <c r="BJ23" s="127"/>
+      <c r="BK23" s="127"/>
+      <c r="BL23" s="127"/>
+      <c r="BM23" s="127"/>
+      <c r="BN23" s="128"/>
+      <c r="BO23" s="128"/>
+      <c r="BP23" s="128"/>
+      <c r="BQ23" s="128"/>
+      <c r="BR23" s="128"/>
+      <c r="BS23" s="128"/>
+      <c r="BT23" s="128"/>
+      <c r="BU23" s="128"/>
       <c r="BV23" s="26"/>
       <c r="BW23" s="26"/>
       <c r="BX23" s="26"/>
@@ -6370,7 +6553,7 @@
       <c r="DG24" s="4"/>
     </row>
     <row r="25" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B25" s="180" t="s">
+      <c r="B25" s="124" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="125"/>
@@ -6405,7 +6588,7 @@
       <c r="AF25" s="125"/>
       <c r="AG25" s="125"/>
       <c r="AH25" s="125"/>
-      <c r="AI25" s="181"/>
+      <c r="AI25" s="126"/>
       <c r="AM25" s="4"/>
       <c r="AN25" s="125"/>
       <c r="AO25" s="125"/>
@@ -6590,77 +6773,77 @@
       <c r="DG26" s="4"/>
     </row>
     <row r="27" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B27" s="182">
+      <c r="B27" s="129">
         <v>44351</v>
       </c>
-      <c r="C27" s="147"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="147"/>
-      <c r="I27" s="147"/>
-      <c r="J27" s="147"/>
-      <c r="K27" s="147"/>
-      <c r="L27" s="147"/>
-      <c r="M27" s="147"/>
-      <c r="N27" s="147"/>
-      <c r="O27" s="147"/>
-      <c r="P27" s="147"/>
-      <c r="Q27" s="147"/>
-      <c r="R27" s="147"/>
-      <c r="S27" s="147"/>
-      <c r="T27" s="147"/>
-      <c r="U27" s="147"/>
-      <c r="V27" s="147"/>
-      <c r="W27" s="147"/>
-      <c r="X27" s="147"/>
-      <c r="Y27" s="147"/>
-      <c r="Z27" s="147"/>
-      <c r="AA27" s="147"/>
-      <c r="AB27" s="147"/>
-      <c r="AC27" s="147"/>
-      <c r="AD27" s="147"/>
-      <c r="AE27" s="147"/>
-      <c r="AF27" s="147"/>
-      <c r="AG27" s="147"/>
-      <c r="AH27" s="147"/>
-      <c r="AI27" s="183"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="130"/>
+      <c r="G27" s="130"/>
+      <c r="H27" s="130"/>
+      <c r="I27" s="130"/>
+      <c r="J27" s="130"/>
+      <c r="K27" s="130"/>
+      <c r="L27" s="130"/>
+      <c r="M27" s="130"/>
+      <c r="N27" s="130"/>
+      <c r="O27" s="130"/>
+      <c r="P27" s="130"/>
+      <c r="Q27" s="130"/>
+      <c r="R27" s="130"/>
+      <c r="S27" s="130"/>
+      <c r="T27" s="130"/>
+      <c r="U27" s="130"/>
+      <c r="V27" s="130"/>
+      <c r="W27" s="130"/>
+      <c r="X27" s="130"/>
+      <c r="Y27" s="130"/>
+      <c r="Z27" s="130"/>
+      <c r="AA27" s="130"/>
+      <c r="AB27" s="130"/>
+      <c r="AC27" s="130"/>
+      <c r="AD27" s="130"/>
+      <c r="AE27" s="130"/>
+      <c r="AF27" s="130"/>
+      <c r="AG27" s="130"/>
+      <c r="AH27" s="130"/>
+      <c r="AI27" s="131"/>
       <c r="AM27" s="4"/>
-      <c r="AN27" s="147"/>
-      <c r="AO27" s="147"/>
-      <c r="AP27" s="147"/>
-      <c r="AQ27" s="147"/>
-      <c r="AR27" s="147"/>
-      <c r="AS27" s="147"/>
-      <c r="AT27" s="147"/>
-      <c r="AU27" s="147"/>
-      <c r="AV27" s="147"/>
-      <c r="AW27" s="147"/>
-      <c r="AX27" s="147"/>
-      <c r="AY27" s="147"/>
-      <c r="AZ27" s="147"/>
-      <c r="BA27" s="147"/>
-      <c r="BB27" s="147"/>
-      <c r="BC27" s="147"/>
-      <c r="BD27" s="147"/>
-      <c r="BE27" s="147"/>
-      <c r="BF27" s="147"/>
-      <c r="BG27" s="147"/>
-      <c r="BH27" s="147"/>
-      <c r="BI27" s="147"/>
-      <c r="BJ27" s="147"/>
-      <c r="BK27" s="147"/>
-      <c r="BL27" s="147"/>
-      <c r="BM27" s="147"/>
-      <c r="BN27" s="147"/>
-      <c r="BO27" s="147"/>
-      <c r="BP27" s="147"/>
-      <c r="BQ27" s="147"/>
-      <c r="BR27" s="147"/>
-      <c r="BS27" s="147"/>
-      <c r="BT27" s="147"/>
-      <c r="BU27" s="147"/>
+      <c r="AN27" s="130"/>
+      <c r="AO27" s="130"/>
+      <c r="AP27" s="130"/>
+      <c r="AQ27" s="130"/>
+      <c r="AR27" s="130"/>
+      <c r="AS27" s="130"/>
+      <c r="AT27" s="130"/>
+      <c r="AU27" s="130"/>
+      <c r="AV27" s="130"/>
+      <c r="AW27" s="130"/>
+      <c r="AX27" s="130"/>
+      <c r="AY27" s="130"/>
+      <c r="AZ27" s="130"/>
+      <c r="BA27" s="130"/>
+      <c r="BB27" s="130"/>
+      <c r="BC27" s="130"/>
+      <c r="BD27" s="130"/>
+      <c r="BE27" s="130"/>
+      <c r="BF27" s="130"/>
+      <c r="BG27" s="130"/>
+      <c r="BH27" s="130"/>
+      <c r="BI27" s="130"/>
+      <c r="BJ27" s="130"/>
+      <c r="BK27" s="130"/>
+      <c r="BL27" s="130"/>
+      <c r="BM27" s="130"/>
+      <c r="BN27" s="130"/>
+      <c r="BO27" s="130"/>
+      <c r="BP27" s="130"/>
+      <c r="BQ27" s="130"/>
+      <c r="BR27" s="130"/>
+      <c r="BS27" s="130"/>
+      <c r="BT27" s="130"/>
+      <c r="BU27" s="130"/>
       <c r="BV27" s="26"/>
       <c r="BW27" s="26"/>
       <c r="BX27" s="26"/>
@@ -6810,7 +6993,7 @@
       <c r="DG28" s="4"/>
     </row>
     <row r="29" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B29" s="180" t="s">
+      <c r="B29" s="124" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="125"/>
@@ -6845,7 +7028,7 @@
       <c r="AF29" s="125"/>
       <c r="AG29" s="125"/>
       <c r="AH29" s="125"/>
-      <c r="AI29" s="181"/>
+      <c r="AI29" s="126"/>
       <c r="AM29" s="4"/>
       <c r="AN29" s="125"/>
       <c r="AO29" s="125"/>
@@ -7108,118 +7291,24 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <dataConsolidate/>
   <mergeCells count="154">
-    <mergeCell ref="B29:AI29"/>
-    <mergeCell ref="AN29:BU29"/>
-    <mergeCell ref="BE23:BM23"/>
-    <mergeCell ref="BN23:BU23"/>
-    <mergeCell ref="B25:AI25"/>
-    <mergeCell ref="AN25:BU25"/>
-    <mergeCell ref="B27:AI27"/>
-    <mergeCell ref="AN27:BU27"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="J23:R23"/>
-    <mergeCell ref="S23:AA23"/>
-    <mergeCell ref="AB23:AI23"/>
-    <mergeCell ref="AN23:AU23"/>
-    <mergeCell ref="AV23:BD23"/>
-    <mergeCell ref="BE21:BM21"/>
-    <mergeCell ref="BN21:BU21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:R22"/>
-    <mergeCell ref="S22:AA22"/>
-    <mergeCell ref="AB22:AI22"/>
-    <mergeCell ref="AN22:AU22"/>
-    <mergeCell ref="AV22:BD22"/>
-    <mergeCell ref="BE22:BM22"/>
-    <mergeCell ref="BN22:BU22"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="J21:R21"/>
-    <mergeCell ref="S21:AA21"/>
-    <mergeCell ref="AB21:AI21"/>
-    <mergeCell ref="AN21:AU21"/>
-    <mergeCell ref="AV21:BD21"/>
-    <mergeCell ref="BE19:BM19"/>
-    <mergeCell ref="BN19:BU19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J20:R20"/>
-    <mergeCell ref="S20:AA20"/>
-    <mergeCell ref="AB20:AI20"/>
-    <mergeCell ref="AN20:AU20"/>
-    <mergeCell ref="AV20:BD20"/>
-    <mergeCell ref="BE20:BM20"/>
-    <mergeCell ref="BN20:BU20"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="J19:R19"/>
-    <mergeCell ref="S19:AA19"/>
-    <mergeCell ref="AB19:AI19"/>
-    <mergeCell ref="AN19:AU19"/>
-    <mergeCell ref="AV19:BD19"/>
-    <mergeCell ref="BE17:BM17"/>
-    <mergeCell ref="BN17:BU17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J18:R18"/>
-    <mergeCell ref="S18:AA18"/>
-    <mergeCell ref="AB18:AI18"/>
-    <mergeCell ref="AN18:AU18"/>
-    <mergeCell ref="AV18:BD18"/>
-    <mergeCell ref="BE18:BM18"/>
-    <mergeCell ref="BN18:BU18"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:R17"/>
-    <mergeCell ref="S17:AA17"/>
-    <mergeCell ref="AB17:AI17"/>
-    <mergeCell ref="AN17:AU17"/>
-    <mergeCell ref="AV17:BD17"/>
-    <mergeCell ref="BE15:BM15"/>
-    <mergeCell ref="BN15:BU15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:R16"/>
-    <mergeCell ref="S16:AA16"/>
-    <mergeCell ref="AB16:AI16"/>
-    <mergeCell ref="AN16:AU16"/>
-    <mergeCell ref="AV16:BD16"/>
-    <mergeCell ref="BE16:BM16"/>
-    <mergeCell ref="BN16:BU16"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:R15"/>
-    <mergeCell ref="S15:AA15"/>
-    <mergeCell ref="AB15:AI15"/>
-    <mergeCell ref="AN15:AU15"/>
-    <mergeCell ref="AV15:BD15"/>
-    <mergeCell ref="BE13:BM13"/>
-    <mergeCell ref="BN13:BU13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:R14"/>
-    <mergeCell ref="S14:AA14"/>
-    <mergeCell ref="AB14:AI14"/>
-    <mergeCell ref="AN14:AU14"/>
-    <mergeCell ref="AV14:BD14"/>
-    <mergeCell ref="BE14:BM14"/>
-    <mergeCell ref="BN14:BU14"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:R13"/>
-    <mergeCell ref="S13:AA13"/>
-    <mergeCell ref="AB13:AI13"/>
-    <mergeCell ref="AN13:AU13"/>
-    <mergeCell ref="AV13:BD13"/>
-    <mergeCell ref="B12:AI12"/>
-    <mergeCell ref="AN12:BU12"/>
-    <mergeCell ref="AQ10:BD10"/>
-    <mergeCell ref="BE10:BF10"/>
-    <mergeCell ref="BG10:BM10"/>
-    <mergeCell ref="BN10:BU10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:AA11"/>
-    <mergeCell ref="AB11:AI11"/>
-    <mergeCell ref="AN11:AP11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="AB10:AI10"/>
-    <mergeCell ref="AN10:AP10"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="BF5:BI5"/>
+    <mergeCell ref="BJ5:BM5"/>
+    <mergeCell ref="BN5:BQ5"/>
+    <mergeCell ref="BR5:BU5"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="BF6:BI6"/>
+    <mergeCell ref="BJ6:BM6"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="BE5:BE6"/>
+    <mergeCell ref="BN6:BQ6"/>
+    <mergeCell ref="BR6:BU6"/>
     <mergeCell ref="B7:AI7"/>
     <mergeCell ref="AN7:BU7"/>
     <mergeCell ref="B8:D8"/>
@@ -7244,24 +7333,118 @@
     <mergeCell ref="U9:AA9"/>
     <mergeCell ref="AB9:AE9"/>
     <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="BF5:BI5"/>
-    <mergeCell ref="BJ5:BM5"/>
-    <mergeCell ref="BN5:BQ5"/>
-    <mergeCell ref="BR5:BU5"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="BF6:BI6"/>
-    <mergeCell ref="BJ6:BM6"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="X5:AA5"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="AF5:AI5"/>
-    <mergeCell ref="BE5:BE6"/>
-    <mergeCell ref="BN6:BQ6"/>
-    <mergeCell ref="BR6:BU6"/>
+    <mergeCell ref="B12:AI12"/>
+    <mergeCell ref="AN12:BU12"/>
+    <mergeCell ref="AQ10:BD10"/>
+    <mergeCell ref="BE10:BF10"/>
+    <mergeCell ref="BG10:BM10"/>
+    <mergeCell ref="BN10:BU10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="AB11:AI11"/>
+    <mergeCell ref="AN11:AP11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="AB10:AI10"/>
+    <mergeCell ref="AN10:AP10"/>
+    <mergeCell ref="BE13:BM13"/>
+    <mergeCell ref="BN13:BU13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:R14"/>
+    <mergeCell ref="S14:AA14"/>
+    <mergeCell ref="AB14:AI14"/>
+    <mergeCell ref="AN14:AU14"/>
+    <mergeCell ref="AV14:BD14"/>
+    <mergeCell ref="BE14:BM14"/>
+    <mergeCell ref="BN14:BU14"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:R13"/>
+    <mergeCell ref="S13:AA13"/>
+    <mergeCell ref="AB13:AI13"/>
+    <mergeCell ref="AN13:AU13"/>
+    <mergeCell ref="AV13:BD13"/>
+    <mergeCell ref="BE15:BM15"/>
+    <mergeCell ref="BN15:BU15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:R16"/>
+    <mergeCell ref="S16:AA16"/>
+    <mergeCell ref="AB16:AI16"/>
+    <mergeCell ref="AN16:AU16"/>
+    <mergeCell ref="AV16:BD16"/>
+    <mergeCell ref="BE16:BM16"/>
+    <mergeCell ref="BN16:BU16"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:R15"/>
+    <mergeCell ref="S15:AA15"/>
+    <mergeCell ref="AB15:AI15"/>
+    <mergeCell ref="AN15:AU15"/>
+    <mergeCell ref="AV15:BD15"/>
+    <mergeCell ref="BE17:BM17"/>
+    <mergeCell ref="BN17:BU17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:R18"/>
+    <mergeCell ref="S18:AA18"/>
+    <mergeCell ref="AB18:AI18"/>
+    <mergeCell ref="AN18:AU18"/>
+    <mergeCell ref="AV18:BD18"/>
+    <mergeCell ref="BE18:BM18"/>
+    <mergeCell ref="BN18:BU18"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:R17"/>
+    <mergeCell ref="S17:AA17"/>
+    <mergeCell ref="AB17:AI17"/>
+    <mergeCell ref="AN17:AU17"/>
+    <mergeCell ref="AV17:BD17"/>
+    <mergeCell ref="BE19:BM19"/>
+    <mergeCell ref="BN19:BU19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="J20:R20"/>
+    <mergeCell ref="S20:AA20"/>
+    <mergeCell ref="AB20:AI20"/>
+    <mergeCell ref="AN20:AU20"/>
+    <mergeCell ref="AV20:BD20"/>
+    <mergeCell ref="BE20:BM20"/>
+    <mergeCell ref="BN20:BU20"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="J19:R19"/>
+    <mergeCell ref="S19:AA19"/>
+    <mergeCell ref="AB19:AI19"/>
+    <mergeCell ref="AN19:AU19"/>
+    <mergeCell ref="AV19:BD19"/>
+    <mergeCell ref="BE21:BM21"/>
+    <mergeCell ref="BN21:BU21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:R22"/>
+    <mergeCell ref="S22:AA22"/>
+    <mergeCell ref="AB22:AI22"/>
+    <mergeCell ref="AN22:AU22"/>
+    <mergeCell ref="AV22:BD22"/>
+    <mergeCell ref="BE22:BM22"/>
+    <mergeCell ref="BN22:BU22"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="J21:R21"/>
+    <mergeCell ref="S21:AA21"/>
+    <mergeCell ref="AB21:AI21"/>
+    <mergeCell ref="AN21:AU21"/>
+    <mergeCell ref="AV21:BD21"/>
+    <mergeCell ref="B29:AI29"/>
+    <mergeCell ref="AN29:BU29"/>
+    <mergeCell ref="BE23:BM23"/>
+    <mergeCell ref="BN23:BU23"/>
+    <mergeCell ref="B25:AI25"/>
+    <mergeCell ref="AN25:BU25"/>
+    <mergeCell ref="B27:AI27"/>
+    <mergeCell ref="AN27:BU27"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="J23:R23"/>
+    <mergeCell ref="S23:AA23"/>
+    <mergeCell ref="AB23:AI23"/>
+    <mergeCell ref="AN23:AU23"/>
+    <mergeCell ref="AV23:BD23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
@@ -7286,16 +7469,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:L117"/>
+  <dimension ref="A2:L135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N114" sqref="N114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="32" customWidth="1"/>
+    <col min="2" max="2" width="13" style="32" customWidth="1"/>
     <col min="3" max="6" width="10.375" style="32" customWidth="1"/>
     <col min="7" max="7" width="12.625" style="32" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.25" style="32" customWidth="1"/>
@@ -7306,20 +7489,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="42.75" customHeight="1">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="185" t="s">
         <v>249</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="186"/>
     </row>
     <row r="3" spans="1:12" ht="37.5">
       <c r="A3" s="74" t="s">
@@ -7389,19 +7572,19 @@
       </c>
       <c r="I4" s="70">
         <f>VLOOKUP(B4,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J4" s="70">
         <f>VLOOKUP(B4,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2813</v>
+        <v>3458</v>
       </c>
       <c r="K4" s="83">
         <f>VLOOKUP(B4,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>187.53333333333333</v>
+        <v>192.11111111111111</v>
       </c>
       <c r="L4" s="84">
         <f>RANK(K4,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18.75">
@@ -7434,15 +7617,15 @@
       </c>
       <c r="I5" s="70">
         <f>VLOOKUP(B5,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J5" s="70">
         <f>VLOOKUP(B5,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>4242</v>
+        <v>4863</v>
       </c>
       <c r="K5" s="83">
         <f>VLOOKUP(B5,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>202</v>
+        <v>202.625</v>
       </c>
       <c r="L5" s="84">
         <f>RANK(K5,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -7479,15 +7662,15 @@
       </c>
       <c r="I6" s="70">
         <f>VLOOKUP(B6,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J6" s="70">
         <f>VLOOKUP(B6,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>3492</v>
+        <v>4088</v>
       </c>
       <c r="K6" s="83">
         <f>VLOOKUP(B6,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>174.6</v>
+        <v>177.7391304347826</v>
       </c>
       <c r="L6" s="84">
         <f>RANK(K6,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -7524,19 +7707,19 @@
       </c>
       <c r="I7" s="70">
         <f>VLOOKUP(B7,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J7" s="70">
         <f>VLOOKUP(B7,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>3255</v>
+        <v>3760</v>
       </c>
       <c r="K7" s="83">
         <f>VLOOKUP(B7,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>180.83333333333334</v>
+        <v>179.04761904761904</v>
       </c>
       <c r="L7" s="84">
         <f>RANK(K7,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18.75">
@@ -7581,7 +7764,7 @@
       </c>
       <c r="L8" s="84">
         <f>RANK(K8,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18.75">
@@ -7659,15 +7842,15 @@
       </c>
       <c r="I10" s="70">
         <f>VLOOKUP(B10,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J10" s="70">
         <f>VLOOKUP(B10,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>3887</v>
+        <v>4488</v>
       </c>
       <c r="K10" s="83">
         <f>VLOOKUP(B10,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>185.0952380952381</v>
+        <v>187</v>
       </c>
       <c r="L10" s="84">
         <f>RANK(K10,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -7716,7 +7899,7 @@
       </c>
       <c r="L11" s="84">
         <f>RANK(K11,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75">
@@ -7749,15 +7932,15 @@
       </c>
       <c r="I12" s="70">
         <f>VLOOKUP(B12,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J12" s="70">
         <f>VLOOKUP(B12,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1970</v>
+        <v>2524</v>
       </c>
       <c r="K12" s="83">
         <f>VLOOKUP(B12,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>164.16666666666666</v>
+        <v>168.26666666666668</v>
       </c>
       <c r="L12" s="84">
         <f>RANK(K12,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -7794,15 +7977,15 @@
       </c>
       <c r="I13" s="70">
         <f>VLOOKUP(B13,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J13" s="70">
         <f>VLOOKUP(B13,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2032</v>
+        <v>2635</v>
       </c>
       <c r="K13" s="83">
         <f>VLOOKUP(B13,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>169.33333333333334</v>
+        <v>175.66666666666666</v>
       </c>
       <c r="L13" s="84">
         <f>RANK(K13,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -7839,19 +8022,19 @@
       </c>
       <c r="I14" s="70">
         <f>VLOOKUP(B14,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J14" s="70">
         <f>VLOOKUP(B14,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>3215</v>
+        <v>3810</v>
       </c>
       <c r="K14" s="83">
         <f>VLOOKUP(B14,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>178.61111111111111</v>
+        <v>181.42857142857142</v>
       </c>
       <c r="L14" s="84">
         <f>RANK(K14,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.75">
@@ -7900,20 +8083,20 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="42" customHeight="1">
-      <c r="A19" s="184" t="s">
+      <c r="A19" s="185" t="s">
         <v>253</v>
       </c>
-      <c r="B19" s="185"/>
-      <c r="C19" s="185"/>
-      <c r="D19" s="185"/>
-      <c r="E19" s="185"/>
-      <c r="F19" s="185"/>
-      <c r="G19" s="185"/>
-      <c r="H19" s="185"/>
-      <c r="I19" s="185"/>
-      <c r="J19" s="185"/>
-      <c r="K19" s="185"/>
-      <c r="L19" s="185"/>
+      <c r="B19" s="186"/>
+      <c r="C19" s="186"/>
+      <c r="D19" s="186"/>
+      <c r="E19" s="186"/>
+      <c r="F19" s="186"/>
+      <c r="G19" s="186"/>
+      <c r="H19" s="186"/>
+      <c r="I19" s="186"/>
+      <c r="J19" s="186"/>
+      <c r="K19" s="186"/>
+      <c r="L19" s="186"/>
     </row>
     <row r="20" spans="1:12" ht="37.5">
       <c r="A20" s="74" t="s">
@@ -8028,19 +8211,19 @@
       </c>
       <c r="I22" s="70">
         <f>VLOOKUP(B22,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J22" s="70">
         <f>VLOOKUP(B22,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>3215</v>
+        <v>3810</v>
       </c>
       <c r="K22" s="83">
         <f>VLOOKUP(B22,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>178.61111111111111</v>
+        <v>181.42857142857142</v>
       </c>
       <c r="L22" s="84">
         <f>RANK(K22,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="18.75">
@@ -8073,19 +8256,19 @@
       </c>
       <c r="I23" s="70">
         <f>VLOOKUP(B23,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J23" s="70">
         <f>VLOOKUP(B23,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2813</v>
+        <v>3458</v>
       </c>
       <c r="K23" s="83">
         <f>VLOOKUP(B23,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>187.53333333333333</v>
+        <v>192.11111111111111</v>
       </c>
       <c r="L23" s="84">
         <f>RANK(K23,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="18.75">
@@ -8130,7 +8313,7 @@
       </c>
       <c r="L24" s="84">
         <f>RANK(K24,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="18.75">
@@ -8208,15 +8391,15 @@
       </c>
       <c r="I26" s="70">
         <f>VLOOKUP(B26,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J26" s="70">
         <f>VLOOKUP(B26,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>4242</v>
+        <v>4863</v>
       </c>
       <c r="K26" s="83">
         <f>VLOOKUP(B26,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>202</v>
+        <v>202.625</v>
       </c>
       <c r="L26" s="84">
         <f>RANK(K26,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -8253,15 +8436,15 @@
       </c>
       <c r="I27" s="70">
         <f>VLOOKUP(B27,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J27" s="70">
         <f>VLOOKUP(B27,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>3492</v>
+        <v>4088</v>
       </c>
       <c r="K27" s="83">
         <f>VLOOKUP(B27,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>174.6</v>
+        <v>177.7391304347826</v>
       </c>
       <c r="L27" s="84">
         <f>RANK(K27,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -8298,15 +8481,15 @@
       </c>
       <c r="I28" s="70">
         <f>VLOOKUP(B28,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J28" s="70">
         <f>VLOOKUP(B28,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>3887</v>
+        <v>4488</v>
       </c>
       <c r="K28" s="83">
         <f>VLOOKUP(B28,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>185.0952380952381</v>
+        <v>187</v>
       </c>
       <c r="L28" s="84">
         <f>RANK(K28,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -8343,19 +8526,19 @@
       </c>
       <c r="I29" s="70">
         <f>VLOOKUP(B29,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J29" s="70">
         <f>VLOOKUP(B29,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2709</v>
+        <v>3163</v>
       </c>
       <c r="K29" s="83">
         <f>VLOOKUP(B29,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>150.5</v>
+        <v>150.61904761904762</v>
       </c>
       <c r="L29" s="84">
         <f>RANK(K29,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="18.75">
@@ -8434,20 +8617,20 @@
       <c r="L31" s="84"/>
     </row>
     <row r="34" spans="1:12" ht="36.75" customHeight="1">
-      <c r="A34" s="184" t="s">
+      <c r="A34" s="185" t="s">
         <v>254</v>
       </c>
-      <c r="B34" s="185"/>
-      <c r="C34" s="185"/>
-      <c r="D34" s="185"/>
-      <c r="E34" s="185"/>
-      <c r="F34" s="185"/>
-      <c r="G34" s="185"/>
-      <c r="H34" s="185"/>
-      <c r="I34" s="185"/>
-      <c r="J34" s="185"/>
-      <c r="K34" s="185"/>
-      <c r="L34" s="185"/>
+      <c r="B34" s="186"/>
+      <c r="C34" s="186"/>
+      <c r="D34" s="186"/>
+      <c r="E34" s="186"/>
+      <c r="F34" s="186"/>
+      <c r="G34" s="186"/>
+      <c r="H34" s="186"/>
+      <c r="I34" s="186"/>
+      <c r="J34" s="186"/>
+      <c r="K34" s="186"/>
+      <c r="L34" s="186"/>
     </row>
     <row r="35" spans="1:12" ht="37.5">
       <c r="A35" s="74" t="s">
@@ -8517,15 +8700,15 @@
       </c>
       <c r="I36" s="70">
         <f>VLOOKUP(B36,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J36" s="70">
         <f>VLOOKUP(B36,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>4242</v>
+        <v>4863</v>
       </c>
       <c r="K36" s="83">
         <f>VLOOKUP(B36,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>202</v>
+        <v>202.625</v>
       </c>
       <c r="L36" s="84">
         <f>RANK(K36,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -8562,19 +8745,19 @@
       </c>
       <c r="I37" s="70">
         <f>VLOOKUP(B37,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J37" s="70">
         <f>VLOOKUP(B37,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>3255</v>
+        <v>3760</v>
       </c>
       <c r="K37" s="83">
         <f>VLOOKUP(B37,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>180.83333333333334</v>
+        <v>179.04761904761904</v>
       </c>
       <c r="L37" s="84">
         <f>RANK(K37,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="18.75">
@@ -8607,19 +8790,19 @@
       </c>
       <c r="I38" s="70">
         <f>VLOOKUP(B38,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J38" s="70">
         <f>VLOOKUP(B38,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>3215</v>
+        <v>3810</v>
       </c>
       <c r="K38" s="83">
         <f>VLOOKUP(B38,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>178.61111111111111</v>
+        <v>181.42857142857142</v>
       </c>
       <c r="L38" s="84">
         <f>RANK(K38,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="18.75">
@@ -8652,15 +8835,15 @@
       </c>
       <c r="I39" s="70">
         <f>VLOOKUP(B39,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J39" s="70">
         <f>VLOOKUP(B39,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>3887</v>
+        <v>4488</v>
       </c>
       <c r="K39" s="83">
         <f>VLOOKUP(B39,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>185.0952380952381</v>
+        <v>187</v>
       </c>
       <c r="L39" s="84">
         <f>RANK(K39,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -8742,19 +8925,19 @@
       </c>
       <c r="I41" s="70">
         <f>VLOOKUP(B41,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J41" s="70">
         <f>VLOOKUP(B41,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2813</v>
+        <v>3458</v>
       </c>
       <c r="K41" s="83">
         <f>VLOOKUP(B41,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>187.53333333333333</v>
+        <v>192.11111111111111</v>
       </c>
       <c r="L41" s="84">
         <f>RANK(K41,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="18.75">
@@ -8787,15 +8970,15 @@
       </c>
       <c r="I42" s="70">
         <f>VLOOKUP(B42,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J42" s="70">
         <f>VLOOKUP(B42,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1970</v>
+        <v>2524</v>
       </c>
       <c r="K42" s="83">
         <f>VLOOKUP(B42,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>164.16666666666666</v>
+        <v>168.26666666666668</v>
       </c>
       <c r="L42" s="84">
         <f>RANK(K42,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -8832,15 +9015,15 @@
       </c>
       <c r="I43" s="70">
         <f>VLOOKUP(B43,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J43" s="70">
         <f>VLOOKUP(B43,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2032</v>
+        <v>2635</v>
       </c>
       <c r="K43" s="83">
         <f>VLOOKUP(B43,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>169.33333333333334</v>
+        <v>175.66666666666666</v>
       </c>
       <c r="L43" s="84">
         <f>RANK(K43,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -8877,19 +9060,19 @@
       </c>
       <c r="I44" s="70">
         <f>VLOOKUP(B44,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J44" s="70">
         <f>VLOOKUP(B44,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2709</v>
+        <v>3163</v>
       </c>
       <c r="K44" s="83">
         <f>VLOOKUP(B44,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>150.5</v>
+        <v>150.61904761904762</v>
       </c>
       <c r="L44" s="84">
         <f>RANK(K44,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="18.75">
@@ -8920,15 +9103,15 @@
       </c>
       <c r="I45" s="70">
         <f>VLOOKUP(B45,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J45" s="70">
         <f>VLOOKUP(B45,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>3492</v>
+        <v>4088</v>
       </c>
       <c r="K45" s="83">
         <f>VLOOKUP(B45,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>174.6</v>
+        <v>177.7391304347826</v>
       </c>
       <c r="L45" s="84">
         <f>RANK(K45,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -8936,20 +9119,20 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="36.75" customHeight="1">
-      <c r="A48" s="184" t="s">
+      <c r="A48" s="185" t="s">
         <v>272</v>
       </c>
-      <c r="B48" s="185"/>
-      <c r="C48" s="185"/>
-      <c r="D48" s="185"/>
-      <c r="E48" s="185"/>
-      <c r="F48" s="185"/>
-      <c r="G48" s="185"/>
-      <c r="H48" s="185"/>
-      <c r="I48" s="185"/>
-      <c r="J48" s="185"/>
-      <c r="K48" s="185"/>
-      <c r="L48" s="185"/>
+      <c r="B48" s="186"/>
+      <c r="C48" s="186"/>
+      <c r="D48" s="186"/>
+      <c r="E48" s="186"/>
+      <c r="F48" s="186"/>
+      <c r="G48" s="186"/>
+      <c r="H48" s="186"/>
+      <c r="I48" s="186"/>
+      <c r="J48" s="186"/>
+      <c r="K48" s="186"/>
+      <c r="L48" s="186"/>
     </row>
     <row r="49" spans="1:12" ht="37.5">
       <c r="A49" s="74" t="s">
@@ -9064,15 +9247,15 @@
       </c>
       <c r="I51" s="70">
         <f>VLOOKUP(B51,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J51" s="70">
         <f>VLOOKUP(B51,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>3887</v>
+        <v>4488</v>
       </c>
       <c r="K51" s="83">
         <f>VLOOKUP(B51,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>185.0952380952381</v>
+        <v>187</v>
       </c>
       <c r="L51" s="84">
         <f>RANK(K51,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -9109,15 +9292,15 @@
       </c>
       <c r="I52" s="70">
         <f>VLOOKUP(B52,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J52" s="70">
         <f>VLOOKUP(B52,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>4242</v>
+        <v>4863</v>
       </c>
       <c r="K52" s="83">
         <f>VLOOKUP(B52,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>202</v>
+        <v>202.625</v>
       </c>
       <c r="L52" s="84">
         <f>RANK(K52,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -9211,7 +9394,7 @@
       </c>
       <c r="L54" s="84">
         <f>RANK(K54,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="18.75">
@@ -9244,19 +9427,19 @@
       </c>
       <c r="I55" s="70">
         <f>VLOOKUP(B55,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J55" s="70">
         <f>VLOOKUP(B55,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>3255</v>
+        <v>3760</v>
       </c>
       <c r="K55" s="83">
         <f>VLOOKUP(B55,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>180.83333333333334</v>
+        <v>179.04761904761904</v>
       </c>
       <c r="L55" s="84">
         <f>RANK(K55,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="18.75">
@@ -9289,19 +9472,19 @@
       </c>
       <c r="I56" s="70">
         <f>VLOOKUP(B56,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J56" s="70">
         <f>VLOOKUP(B56,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>3215</v>
+        <v>3810</v>
       </c>
       <c r="K56" s="83">
         <f>VLOOKUP(B56,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>178.61111111111111</v>
+        <v>181.42857142857142</v>
       </c>
       <c r="L56" s="84">
         <f>RANK(K56,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="18.75">
@@ -9334,15 +9517,15 @@
       </c>
       <c r="I57" s="70">
         <f>VLOOKUP(B57,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J57" s="70">
         <f>VLOOKUP(B57,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>3492</v>
+        <v>4088</v>
       </c>
       <c r="K57" s="83">
         <f>VLOOKUP(B57,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>174.6</v>
+        <v>177.7391304347826</v>
       </c>
       <c r="L57" s="84">
         <f>RANK(K57,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -9379,15 +9562,15 @@
       </c>
       <c r="I58" s="70">
         <f>VLOOKUP(B58,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J58" s="70">
         <f>VLOOKUP(B58,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2032</v>
+        <v>2635</v>
       </c>
       <c r="K58" s="83">
         <f>VLOOKUP(B58,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>169.33333333333334</v>
+        <v>175.66666666666666</v>
       </c>
       <c r="L58" s="84">
         <f>RANK(K58,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -9424,15 +9607,15 @@
       </c>
       <c r="I59" s="70">
         <f>VLOOKUP(B59,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J59" s="70">
         <f>VLOOKUP(B59,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>1970</v>
+        <v>2524</v>
       </c>
       <c r="K59" s="83">
         <f>VLOOKUP(B59,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>164.16666666666666</v>
+        <v>168.26666666666668</v>
       </c>
       <c r="L59" s="84">
         <f>RANK(K59,'총에버 관리_2023'!$V$3:$V$20)</f>
@@ -9481,7 +9664,7 @@
       </c>
       <c r="L60" s="84">
         <f>RANK(K60,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="18.75">
@@ -9514,19 +9697,19 @@
       </c>
       <c r="I61" s="70">
         <f>VLOOKUP(B61,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J61" s="70">
         <f>VLOOKUP(B61,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>444</v>
+        <v>953</v>
       </c>
       <c r="K61" s="83">
         <f>VLOOKUP(B61,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>148</v>
+        <v>158.83333333333334</v>
       </c>
       <c r="L61" s="84">
         <f>RANK(K61,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="18.75">
@@ -9559,19 +9742,19 @@
       </c>
       <c r="I62" s="70">
         <f>VLOOKUP(B62,'총에버 관리_2023'!$A$3:$V$20,21,FALSE)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J62" s="70">
         <f>VLOOKUP(B62,'총에버 관리_2023'!$A$3:$V$20,20,FALSE)</f>
-        <v>2709</v>
+        <v>3163</v>
       </c>
       <c r="K62" s="83">
         <f>VLOOKUP(B62,'총에버 관리_2023'!$A$3:$V$20,22,FALSE)</f>
-        <v>150.5</v>
+        <v>150.61904761904762</v>
       </c>
       <c r="L62" s="84">
         <f>RANK(K62,'총에버 관리_2023'!$V$3:$V$20)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="18.75">
@@ -9620,20 +9803,20 @@
       </c>
     </row>
     <row r="66" spans="1:12" ht="30.75" customHeight="1">
-      <c r="A66" s="184" t="s">
+      <c r="A66" s="185" t="s">
         <v>273</v>
       </c>
-      <c r="B66" s="185"/>
-      <c r="C66" s="185"/>
-      <c r="D66" s="185"/>
-      <c r="E66" s="185"/>
-      <c r="F66" s="185"/>
-      <c r="G66" s="185"/>
-      <c r="H66" s="185"/>
-      <c r="I66" s="185"/>
-      <c r="J66" s="185"/>
-      <c r="K66" s="185"/>
-      <c r="L66" s="185"/>
+      <c r="B66" s="186"/>
+      <c r="C66" s="186"/>
+      <c r="D66" s="186"/>
+      <c r="E66" s="186"/>
+      <c r="F66" s="186"/>
+      <c r="G66" s="186"/>
+      <c r="H66" s="186"/>
+      <c r="I66" s="186"/>
+      <c r="J66" s="186"/>
+      <c r="K66" s="186"/>
+      <c r="L66" s="186"/>
     </row>
     <row r="67" spans="1:12" ht="38.25" thickBot="1">
       <c r="A67" s="74" t="s">
@@ -9703,15 +9886,15 @@
       </c>
       <c r="I68" s="70">
         <f>VLOOKUP(B68,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J68" s="70">
         <f>VLOOKUP(B68,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>4242</v>
+        <v>4863</v>
       </c>
       <c r="K68" s="83">
         <f>VLOOKUP(B68,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>202</v>
+        <v>202.625</v>
       </c>
       <c r="L68" s="84">
         <f>RANK(K68,'총에버 관리_2023'!$V$3:$V$21)</f>
@@ -9838,19 +10021,19 @@
       </c>
       <c r="I71" s="70">
         <f>VLOOKUP(B71,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J71" s="70">
         <f>VLOOKUP(B71,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>2813</v>
+        <v>3458</v>
       </c>
       <c r="K71" s="83">
         <f>VLOOKUP(B71,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>187.53333333333333</v>
+        <v>192.11111111111111</v>
       </c>
       <c r="L71" s="84">
         <f>RANK(K71,'총에버 관리_2023'!$V$3:$V$21)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="18.75">
@@ -9895,7 +10078,7 @@
       </c>
       <c r="L72" s="84">
         <f>RANK(K72,'총에버 관리_2023'!$V$3:$V$21)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="18.75">
@@ -9928,15 +10111,15 @@
       </c>
       <c r="I73" s="70">
         <f>VLOOKUP(B73,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J73" s="70">
         <f>VLOOKUP(B73,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>3887</v>
+        <v>4488</v>
       </c>
       <c r="K73" s="83">
         <f>VLOOKUP(B73,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>185.0952380952381</v>
+        <v>187</v>
       </c>
       <c r="L73" s="84">
         <f>RANK(K73,'총에버 관리_2023'!$V$3:$V$21)</f>
@@ -9973,19 +10156,19 @@
       </c>
       <c r="I74" s="70">
         <f>VLOOKUP(B74,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J74" s="70">
         <f>VLOOKUP(B74,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>3255</v>
+        <v>3760</v>
       </c>
       <c r="K74" s="83">
         <f>VLOOKUP(B74,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>180.83333333333334</v>
+        <v>179.04761904761904</v>
       </c>
       <c r="L74" s="84">
         <f>RANK(K74,'총에버 관리_2023'!$V$3:$V$21)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="18.75">
@@ -10018,15 +10201,15 @@
       </c>
       <c r="I75" s="70">
         <f>VLOOKUP(B75,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J75" s="70">
         <f>VLOOKUP(B75,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>3492</v>
+        <v>4088</v>
       </c>
       <c r="K75" s="83">
         <f>VLOOKUP(B75,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>174.6</v>
+        <v>177.7391304347826</v>
       </c>
       <c r="L75" s="84">
         <f>RANK(K75,'총에버 관리_2023'!$V$3:$V$21)</f>
@@ -10063,19 +10246,19 @@
       </c>
       <c r="I76" s="70">
         <f>VLOOKUP(B76,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J76" s="70">
         <f>VLOOKUP(B76,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>2709</v>
+        <v>3163</v>
       </c>
       <c r="K76" s="83">
         <f>VLOOKUP(B76,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>150.5</v>
+        <v>150.61904761904762</v>
       </c>
       <c r="L76" s="84">
         <f>RANK(K76,'총에버 관리_2023'!$V$3:$V$21)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="18.75">
@@ -10120,7 +10303,7 @@
       </c>
       <c r="L77" s="84">
         <f>RANK(K77,'총에버 관리_2023'!$V$3:$V$21)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="18.75">
@@ -10214,20 +10397,20 @@
       </c>
     </row>
     <row r="82" spans="1:12" ht="34.5" customHeight="1">
-      <c r="A82" s="184" t="s">
+      <c r="A82" s="185" t="s">
         <v>287</v>
       </c>
-      <c r="B82" s="185"/>
-      <c r="C82" s="185"/>
-      <c r="D82" s="185"/>
-      <c r="E82" s="185"/>
-      <c r="F82" s="185"/>
-      <c r="G82" s="185"/>
-      <c r="H82" s="185"/>
-      <c r="I82" s="185"/>
-      <c r="J82" s="185"/>
-      <c r="K82" s="185"/>
-      <c r="L82" s="185"/>
+      <c r="B82" s="186"/>
+      <c r="C82" s="186"/>
+      <c r="D82" s="186"/>
+      <c r="E82" s="186"/>
+      <c r="F82" s="186"/>
+      <c r="G82" s="186"/>
+      <c r="H82" s="186"/>
+      <c r="I82" s="186"/>
+      <c r="J82" s="186"/>
+      <c r="K82" s="186"/>
+      <c r="L82" s="186"/>
     </row>
     <row r="83" spans="1:12" ht="38.25" thickBot="1">
       <c r="A83" s="74" t="s">
@@ -10297,15 +10480,15 @@
       </c>
       <c r="I84" s="70">
         <f>VLOOKUP(B84,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J84" s="70">
         <f>VLOOKUP(B84,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>4242</v>
+        <v>4863</v>
       </c>
       <c r="K84" s="83">
         <f>VLOOKUP(B84,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>202</v>
+        <v>202.625</v>
       </c>
       <c r="L84" s="84">
         <f>RANK(K84,'총에버 관리_2023'!$V$3:$V$21)</f>
@@ -10387,15 +10570,15 @@
       </c>
       <c r="I86" s="70">
         <f>VLOOKUP(B86,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J86" s="70">
         <f>VLOOKUP(B86,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>3887</v>
+        <v>4488</v>
       </c>
       <c r="K86" s="83">
         <f>VLOOKUP(B86,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>185.0952380952381</v>
+        <v>187</v>
       </c>
       <c r="L86" s="84">
         <f>RANK(K86,'총에버 관리_2023'!$V$3:$V$21)</f>
@@ -10444,7 +10627,7 @@
       </c>
       <c r="L87" s="84">
         <f>RANK(K87,'총에버 관리_2023'!$V$3:$V$21)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="18.75">
@@ -10510,15 +10693,15 @@
       </c>
       <c r="I89" s="70">
         <f>VLOOKUP(B89,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J89" s="70">
         <f>VLOOKUP(B89,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>3492</v>
+        <v>4088</v>
       </c>
       <c r="K89" s="83">
         <f>VLOOKUP(B89,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>174.6</v>
+        <v>177.7391304347826</v>
       </c>
       <c r="L89" s="84">
         <f>RANK(K89,'총에버 관리_2023'!$V$3:$V$21)</f>
@@ -10600,19 +10783,19 @@
       </c>
       <c r="I91" s="70">
         <f>VLOOKUP(B91,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J91" s="70">
         <f>VLOOKUP(B91,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>3255</v>
+        <v>3760</v>
       </c>
       <c r="K91" s="83">
         <f>VLOOKUP(B91,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>180.83333333333334</v>
+        <v>179.04761904761904</v>
       </c>
       <c r="L91" s="84">
         <f>RANK(K91,'총에버 관리_2023'!$V$3:$V$21)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="18.75">
@@ -10645,19 +10828,19 @@
       </c>
       <c r="I92" s="70">
         <f>VLOOKUP(B92,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J92" s="70">
         <f>VLOOKUP(B92,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>3215</v>
+        <v>3810</v>
       </c>
       <c r="K92" s="83">
         <f>VLOOKUP(B92,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>178.61111111111111</v>
+        <v>181.42857142857142</v>
       </c>
       <c r="L92" s="84">
         <f>RANK(K92,'총에버 관리_2023'!$V$3:$V$21)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="18.75">
@@ -10702,7 +10885,7 @@
       </c>
       <c r="L93" s="84">
         <f>RANK(K93,'총에버 관리_2023'!$V$3:$V$21)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="18.75">
@@ -10780,36 +10963,36 @@
       </c>
       <c r="I95" s="70">
         <f>VLOOKUP(B95,'총에버 관리_2023'!$A$3:$V$21,21,FALSE)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J95" s="70">
         <f>VLOOKUP(B95,'총에버 관리_2023'!$A$3:$V$21,20,FALSE)</f>
-        <v>2709</v>
+        <v>3163</v>
       </c>
       <c r="K95" s="83">
         <f>VLOOKUP(B95,'총에버 관리_2023'!$A$3:$V$21,22,FALSE)</f>
-        <v>150.5</v>
+        <v>150.61904761904762</v>
       </c>
       <c r="L95" s="84">
         <f>RANK(K95,'총에버 관리_2023'!$V$3:$V$21)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="34.5" customHeight="1">
-      <c r="A98" s="184" t="s">
+      <c r="A98" s="185" t="s">
         <v>300</v>
       </c>
-      <c r="B98" s="185"/>
-      <c r="C98" s="185"/>
-      <c r="D98" s="185"/>
-      <c r="E98" s="185"/>
-      <c r="F98" s="185"/>
-      <c r="G98" s="185"/>
-      <c r="H98" s="185"/>
-      <c r="I98" s="185"/>
-      <c r="J98" s="185"/>
-      <c r="K98" s="185"/>
-      <c r="L98" s="185"/>
+      <c r="B98" s="186"/>
+      <c r="C98" s="186"/>
+      <c r="D98" s="186"/>
+      <c r="E98" s="186"/>
+      <c r="F98" s="186"/>
+      <c r="G98" s="186"/>
+      <c r="H98" s="186"/>
+      <c r="I98" s="186"/>
+      <c r="J98" s="186"/>
+      <c r="K98" s="186"/>
+      <c r="L98" s="186"/>
     </row>
     <row r="99" spans="1:12" ht="38.25" thickBot="1">
       <c r="A99" s="74" t="s">
@@ -10851,10 +11034,10 @@
     </row>
     <row r="100" spans="1:12" ht="20.25" thickTop="1" thickBot="1">
       <c r="A100" s="77">
-        <f>RANK(G100,$G$100:$G$117)</f>
+        <f t="shared" ref="A100:A117" si="18">RANK(G100,$G$100:$G$117)</f>
         <v>1</v>
       </c>
-      <c r="B100" s="197" t="s">
+      <c r="B100" s="123" t="s">
         <v>311</v>
       </c>
       <c r="C100" s="67">
@@ -10867,14 +11050,14 @@
         <v>256</v>
       </c>
       <c r="F100" s="86">
-        <f>SUM(C100:E100)</f>
+        <f t="shared" ref="F100:F117" si="19">SUM(C100:E100)</f>
         <v>634</v>
       </c>
       <c r="G100" s="87">
-        <f>F100/COUNTA(C100:E100)</f>
+        <f t="shared" ref="G100:G117" si="20">F100/COUNTA(C100:E100)</f>
         <v>211.33333333333334</v>
       </c>
-      <c r="H100" s="197" t="s">
+      <c r="H100" s="123" t="s">
         <v>311</v>
       </c>
       <c r="I100" s="70">
@@ -10891,12 +11074,12 @@
       </c>
       <c r="L100" s="84">
         <f>RANK(K100,'총에버 관리_2023'!$V$3:$V$22)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="20.25" thickTop="1" thickBot="1">
       <c r="A101" s="77">
-        <f>RANK(G101,$G$100:$G$117)</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="B101" s="61" t="s">
@@ -10912,11 +11095,11 @@
         <v>182</v>
       </c>
       <c r="F101" s="63">
-        <f>SUM(C101:E101)</f>
+        <f t="shared" si="19"/>
         <v>598</v>
       </c>
       <c r="G101" s="87">
-        <f>F101/COUNTA(C101:E101)</f>
+        <f t="shared" si="20"/>
         <v>199.33333333333334</v>
       </c>
       <c r="H101" s="61" t="s">
@@ -10941,7 +11124,7 @@
     </row>
     <row r="102" spans="1:12" ht="20.25" thickTop="1" thickBot="1">
       <c r="A102" s="77">
-        <f>RANK(G102,$G$100:$G$117)</f>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="B102" s="72" t="s">
@@ -10957,11 +11140,11 @@
         <v>170</v>
       </c>
       <c r="F102" s="69">
-        <f>SUM(C102:E102)</f>
+        <f t="shared" si="19"/>
         <v>576</v>
       </c>
       <c r="G102" s="87">
-        <f>F102/COUNTA(C102:E102)</f>
+        <f t="shared" si="20"/>
         <v>192</v>
       </c>
       <c r="H102" s="72" t="s">
@@ -10969,15 +11152,15 @@
       </c>
       <c r="I102" s="70">
         <f>VLOOKUP(B102,'총에버 관리_2023'!$A$3:$V$22,21,FALSE)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J102" s="70">
         <f>VLOOKUP(B102,'총에버 관리_2023'!$A$3:$V$22,20,FALSE)</f>
-        <v>4242</v>
+        <v>4863</v>
       </c>
       <c r="K102" s="83">
         <f>VLOOKUP(B102,'총에버 관리_2023'!$A$3:$V$22,22,FALSE)</f>
-        <v>202</v>
+        <v>202.625</v>
       </c>
       <c r="L102" s="84">
         <f>RANK(K102,'총에버 관리_2023'!$V$3:$V$22)</f>
@@ -10986,7 +11169,7 @@
     </row>
     <row r="103" spans="1:12" ht="19.5" thickTop="1">
       <c r="A103" s="77">
-        <f>RANK(G103,$G$100:$G$117)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="B103" s="72" t="s">
@@ -11002,11 +11185,11 @@
         <v>149</v>
       </c>
       <c r="F103" s="69">
-        <f>SUM(C103:E103)</f>
+        <f t="shared" si="19"/>
         <v>573</v>
       </c>
       <c r="G103" s="87">
-        <f>F103/COUNTA(C103:E103)</f>
+        <f t="shared" si="20"/>
         <v>191</v>
       </c>
       <c r="H103" s="72" t="s">
@@ -11031,7 +11214,7 @@
     </row>
     <row r="104" spans="1:12" ht="18.75">
       <c r="A104" s="77">
-        <f>RANK(G104,$G$100:$G$117)</f>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="B104" s="61" t="s">
@@ -11047,11 +11230,11 @@
         <v>199</v>
       </c>
       <c r="F104" s="63">
-        <f>SUM(C104:E104)</f>
+        <f t="shared" si="19"/>
         <v>571</v>
       </c>
       <c r="G104" s="87">
-        <f>F104/COUNTA(C104:E104)</f>
+        <f t="shared" si="20"/>
         <v>190.33333333333334</v>
       </c>
       <c r="H104" s="61" t="s">
@@ -11076,7 +11259,7 @@
     </row>
     <row r="105" spans="1:12" ht="18.75">
       <c r="A105" s="77">
-        <f>RANK(G105,$G$100:$G$117)</f>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="B105" s="61" t="s">
@@ -11092,11 +11275,11 @@
         <v>198</v>
       </c>
       <c r="F105" s="63">
-        <f>SUM(C105:E105)</f>
+        <f t="shared" si="19"/>
         <v>564</v>
       </c>
       <c r="G105" s="87">
-        <f>F105/COUNTA(C105:E105)</f>
+        <f t="shared" si="20"/>
         <v>188</v>
       </c>
       <c r="H105" s="61" t="s">
@@ -11104,15 +11287,15 @@
       </c>
       <c r="I105" s="70">
         <f>VLOOKUP(B105,'총에버 관리_2023'!$A$3:$V$22,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J105" s="70">
         <f>VLOOKUP(B105,'총에버 관리_2023'!$A$3:$V$22,20,FALSE)</f>
-        <v>2032</v>
+        <v>2635</v>
       </c>
       <c r="K105" s="83">
         <f>VLOOKUP(B105,'총에버 관리_2023'!$A$3:$V$22,22,FALSE)</f>
-        <v>169.33333333333334</v>
+        <v>175.66666666666666</v>
       </c>
       <c r="L105" s="84">
         <f>RANK(K105,'총에버 관리_2023'!$V$3:$V$22)</f>
@@ -11121,7 +11304,7 @@
     </row>
     <row r="106" spans="1:12" ht="18.75">
       <c r="A106" s="77">
-        <f>RANK(G106,$G$100:$G$117)</f>
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="B106" s="72" t="s">
@@ -11137,11 +11320,11 @@
         <v>156</v>
       </c>
       <c r="F106" s="43">
-        <f>SUM(C106:E106)</f>
+        <f t="shared" si="19"/>
         <v>553</v>
       </c>
       <c r="G106" s="87">
-        <f>F106/COUNTA(C106:E106)</f>
+        <f t="shared" si="20"/>
         <v>184.33333333333334</v>
       </c>
       <c r="H106" s="72" t="s">
@@ -11149,24 +11332,24 @@
       </c>
       <c r="I106" s="70">
         <f>VLOOKUP(B106,'총에버 관리_2023'!$A$3:$V$22,21,FALSE)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J106" s="70">
         <f>VLOOKUP(B106,'총에버 관리_2023'!$A$3:$V$22,20,FALSE)</f>
-        <v>3255</v>
+        <v>3760</v>
       </c>
       <c r="K106" s="83">
         <f>VLOOKUP(B106,'총에버 관리_2023'!$A$3:$V$22,22,FALSE)</f>
-        <v>180.83333333333334</v>
+        <v>179.04761904761904</v>
       </c>
       <c r="L106" s="84">
         <f>RANK(K106,'총에버 관리_2023'!$V$3:$V$22)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="18.75">
       <c r="A107" s="77">
-        <f>RANK(G107,$G$100:$G$117)</f>
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="B107" s="61" t="s">
@@ -11182,11 +11365,11 @@
         <v>157</v>
       </c>
       <c r="F107" s="43">
-        <f>SUM(C107:E107)</f>
+        <f t="shared" si="19"/>
         <v>553</v>
       </c>
       <c r="G107" s="87">
-        <f>F107/COUNTA(C107:E107)</f>
+        <f t="shared" si="20"/>
         <v>184.33333333333334</v>
       </c>
       <c r="H107" s="61" t="s">
@@ -11194,15 +11377,15 @@
       </c>
       <c r="I107" s="70">
         <f>VLOOKUP(B107,'총에버 관리_2023'!$A$3:$V$22,21,FALSE)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J107" s="70">
         <f>VLOOKUP(B107,'총에버 관리_2023'!$A$3:$V$22,20,FALSE)</f>
-        <v>3492</v>
+        <v>4088</v>
       </c>
       <c r="K107" s="83">
         <f>VLOOKUP(B107,'총에버 관리_2023'!$A$3:$V$22,22,FALSE)</f>
-        <v>174.6</v>
+        <v>177.7391304347826</v>
       </c>
       <c r="L107" s="84">
         <f>RANK(K107,'총에버 관리_2023'!$V$3:$V$22)</f>
@@ -11211,7 +11394,7 @@
     </row>
     <row r="108" spans="1:12" ht="18.75">
       <c r="A108" s="77">
-        <f>RANK(G108,$G$100:$G$117)</f>
+        <f t="shared" si="18"/>
         <v>9</v>
       </c>
       <c r="B108" s="61" t="s">
@@ -11227,11 +11410,11 @@
         <v>196</v>
       </c>
       <c r="F108" s="43">
-        <f>SUM(C108:E108)</f>
+        <f t="shared" si="19"/>
         <v>550</v>
       </c>
       <c r="G108" s="87">
-        <f>F108/COUNTA(C108:E108)</f>
+        <f t="shared" si="20"/>
         <v>183.33333333333334</v>
       </c>
       <c r="H108" s="61" t="s">
@@ -11239,24 +11422,24 @@
       </c>
       <c r="I108" s="70">
         <f>VLOOKUP(B108,'총에버 관리_2023'!$A$3:$V$22,21,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J108" s="70">
         <f>VLOOKUP(B108,'총에버 관리_2023'!$A$3:$V$22,20,FALSE)</f>
-        <v>2813</v>
+        <v>3458</v>
       </c>
       <c r="K108" s="83">
         <f>VLOOKUP(B108,'총에버 관리_2023'!$A$3:$V$22,22,FALSE)</f>
-        <v>187.53333333333333</v>
+        <v>192.11111111111111</v>
       </c>
       <c r="L108" s="84">
         <f>RANK(K108,'총에버 관리_2023'!$V$3:$V$22)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="18.75">
       <c r="A109" s="77">
-        <f>RANK(G109,$G$100:$G$117)</f>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="B109" s="72" t="s">
@@ -11272,11 +11455,11 @@
         <v>224</v>
       </c>
       <c r="F109" s="43">
-        <f>SUM(C109:E109)</f>
+        <f t="shared" si="19"/>
         <v>543</v>
       </c>
       <c r="G109" s="87">
-        <f>F109/COUNTA(C109:E109)</f>
+        <f t="shared" si="20"/>
         <v>181</v>
       </c>
       <c r="H109" s="72" t="s">
@@ -11284,15 +11467,15 @@
       </c>
       <c r="I109" s="70">
         <f>VLOOKUP(B109,'총에버 관리_2023'!$A$3:$V$22,21,FALSE)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J109" s="70">
         <f>VLOOKUP(B109,'총에버 관리_2023'!$A$3:$V$22,20,FALSE)</f>
-        <v>3887</v>
+        <v>4488</v>
       </c>
       <c r="K109" s="83">
         <f>VLOOKUP(B109,'총에버 관리_2023'!$A$3:$V$22,22,FALSE)</f>
-        <v>185.0952380952381</v>
+        <v>187</v>
       </c>
       <c r="L109" s="84">
         <f>RANK(K109,'총에버 관리_2023'!$V$3:$V$22)</f>
@@ -11301,7 +11484,7 @@
     </row>
     <row r="110" spans="1:12" ht="18.75">
       <c r="A110" s="77">
-        <f>RANK(G110,$G$100:$G$117)</f>
+        <f t="shared" si="18"/>
         <v>11</v>
       </c>
       <c r="B110" s="72" t="s">
@@ -11317,11 +11500,11 @@
         <v>173</v>
       </c>
       <c r="F110" s="43">
-        <f>SUM(C110:E110)</f>
+        <f t="shared" si="19"/>
         <v>505</v>
       </c>
       <c r="G110" s="87">
-        <f>F110/COUNTA(C110:E110)</f>
+        <f t="shared" si="20"/>
         <v>168.33333333333334</v>
       </c>
       <c r="H110" s="72" t="s">
@@ -11329,24 +11512,24 @@
       </c>
       <c r="I110" s="70">
         <f>VLOOKUP(B110,'총에버 관리_2023'!$A$3:$V$22,21,FALSE)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J110" s="70">
         <f>VLOOKUP(B110,'총에버 관리_2023'!$A$3:$V$22,20,FALSE)</f>
-        <v>3215</v>
+        <v>3810</v>
       </c>
       <c r="K110" s="83">
         <f>VLOOKUP(B110,'총에버 관리_2023'!$A$3:$V$22,22,FALSE)</f>
-        <v>178.61111111111111</v>
+        <v>181.42857142857142</v>
       </c>
       <c r="L110" s="84">
         <f>RANK(K110,'총에버 관리_2023'!$V$3:$V$22)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="18.75">
       <c r="A111" s="77">
-        <f>RANK(G111,$G$100:$G$117)</f>
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
       <c r="B111" s="61" t="s">
@@ -11362,11 +11545,11 @@
         <v>158</v>
       </c>
       <c r="F111" s="43">
-        <f>SUM(C111:E111)</f>
+        <f t="shared" si="19"/>
         <v>503</v>
       </c>
       <c r="G111" s="87">
-        <f>F111/COUNTA(C111:E111)</f>
+        <f t="shared" si="20"/>
         <v>167.66666666666666</v>
       </c>
       <c r="H111" s="61" t="s">
@@ -11374,24 +11557,24 @@
       </c>
       <c r="I111" s="70">
         <f>VLOOKUP(B111,'총에버 관리_2023'!$A$3:$V$22,21,FALSE)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J111" s="70">
         <f>VLOOKUP(B111,'총에버 관리_2023'!$A$3:$V$22,20,FALSE)</f>
-        <v>2709</v>
+        <v>3163</v>
       </c>
       <c r="K111" s="83">
         <f>VLOOKUP(B111,'총에버 관리_2023'!$A$3:$V$22,22,FALSE)</f>
-        <v>150.5</v>
+        <v>150.61904761904762</v>
       </c>
       <c r="L111" s="84">
         <f>RANK(K111,'총에버 관리_2023'!$V$3:$V$22)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="18.75">
       <c r="A112" s="77">
-        <f>RANK(G112,$G$100:$G$117)</f>
+        <f t="shared" si="18"/>
         <v>13</v>
       </c>
       <c r="B112" s="72" t="s">
@@ -11407,11 +11590,11 @@
         <v>157</v>
       </c>
       <c r="F112" s="43">
-        <f>SUM(C112:E112)</f>
+        <f t="shared" si="19"/>
         <v>488</v>
       </c>
       <c r="G112" s="87">
-        <f>F112/COUNTA(C112:E112)</f>
+        <f t="shared" si="20"/>
         <v>162.66666666666666</v>
       </c>
       <c r="H112" s="72" t="s">
@@ -11424,7 +11607,7 @@
     </row>
     <row r="113" spans="1:12" ht="18.75">
       <c r="A113" s="77">
-        <f>RANK(G113,$G$100:$G$117)</f>
+        <f t="shared" si="18"/>
         <v>14</v>
       </c>
       <c r="B113" s="61" t="s">
@@ -11440,11 +11623,11 @@
         <v>125</v>
       </c>
       <c r="F113" s="58">
-        <f>SUM(C113:E113)</f>
+        <f t="shared" si="19"/>
         <v>486</v>
       </c>
       <c r="G113" s="87">
-        <f>F113/COUNTA(C113:E113)</f>
+        <f t="shared" si="20"/>
         <v>162</v>
       </c>
       <c r="H113" s="61" t="s">
@@ -11452,15 +11635,15 @@
       </c>
       <c r="I113" s="70">
         <f>VLOOKUP(B113,'총에버 관리_2023'!$A$3:$V$22,21,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J113" s="70">
         <f>VLOOKUP(B113,'총에버 관리_2023'!$A$3:$V$22,20,FALSE)</f>
-        <v>1970</v>
+        <v>2524</v>
       </c>
       <c r="K113" s="83">
         <f>VLOOKUP(B113,'총에버 관리_2023'!$A$3:$V$22,22,FALSE)</f>
-        <v>164.16666666666666</v>
+        <v>168.26666666666668</v>
       </c>
       <c r="L113" s="84">
         <f>RANK(K113,'총에버 관리_2023'!$V$3:$V$22)</f>
@@ -11469,7 +11652,7 @@
     </row>
     <row r="114" spans="1:12" ht="18.75">
       <c r="A114" s="77">
-        <f>RANK(G114,$G$100:$G$117)</f>
+        <f t="shared" si="18"/>
         <v>15</v>
       </c>
       <c r="B114" s="72" t="s">
@@ -11485,11 +11668,11 @@
         <v>146</v>
       </c>
       <c r="F114" s="43">
-        <f>SUM(C114:E114)</f>
+        <f t="shared" si="19"/>
         <v>444</v>
       </c>
       <c r="G114" s="87">
-        <f>F114/COUNTA(C114:E114)</f>
+        <f t="shared" si="20"/>
         <v>148</v>
       </c>
       <c r="H114" s="72" t="s">
@@ -11514,7 +11697,7 @@
     </row>
     <row r="115" spans="1:12" ht="18.75">
       <c r="A115" s="77">
-        <f>RANK(G115,$G$100:$G$117)</f>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="B115" s="72" t="s">
@@ -11530,11 +11713,11 @@
         <v>123</v>
       </c>
       <c r="F115" s="43">
-        <f>SUM(C115:E115)</f>
+        <f t="shared" si="19"/>
         <v>439</v>
       </c>
       <c r="G115" s="87">
-        <f>F115/COUNTA(C115:E115)</f>
+        <f t="shared" si="20"/>
         <v>146.33333333333334</v>
       </c>
       <c r="H115" s="72" t="s">
@@ -11547,7 +11730,7 @@
     </row>
     <row r="116" spans="1:12" ht="18.75">
       <c r="A116" s="77">
-        <f>RANK(G116,$G$100:$G$117)</f>
+        <f t="shared" si="18"/>
         <v>17</v>
       </c>
       <c r="B116" s="65" t="s">
@@ -11563,11 +11746,11 @@
         <v>180</v>
       </c>
       <c r="F116" s="43">
-        <f>SUM(C116:E116)</f>
+        <f t="shared" si="19"/>
         <v>435</v>
       </c>
       <c r="G116" s="87">
-        <f>F116/COUNTA(C116:E116)</f>
+        <f t="shared" si="20"/>
         <v>145</v>
       </c>
       <c r="H116" s="65" t="s">
@@ -11592,7 +11775,7 @@
     </row>
     <row r="117" spans="1:12" ht="18.75">
       <c r="A117" s="77">
-        <f>RANK(G117,$G$100:$G$117)</f>
+        <f t="shared" si="18"/>
         <v>18</v>
       </c>
       <c r="B117" s="65" t="s">
@@ -11608,11 +11791,11 @@
         <v>113</v>
       </c>
       <c r="F117" s="43">
-        <f>SUM(C117:E117)</f>
+        <f t="shared" si="19"/>
         <v>364</v>
       </c>
       <c r="G117" s="87">
-        <f>F117/COUNTA(C117:E117)</f>
+        <f t="shared" si="20"/>
         <v>121.33333333333333</v>
       </c>
       <c r="H117" s="65" t="s">
@@ -11635,11 +11818,627 @@
         <v>18</v>
       </c>
     </row>
+    <row r="121" spans="1:12" ht="39" customHeight="1">
+      <c r="A121" s="185" t="s">
+        <v>320</v>
+      </c>
+      <c r="B121" s="186"/>
+      <c r="C121" s="186"/>
+      <c r="D121" s="186"/>
+      <c r="E121" s="186"/>
+      <c r="F121" s="186"/>
+      <c r="G121" s="186"/>
+      <c r="H121" s="186"/>
+      <c r="I121" s="186"/>
+      <c r="J121" s="186"/>
+      <c r="K121" s="186"/>
+      <c r="L121" s="186"/>
+    </row>
+    <row r="122" spans="1:12" ht="38.25" thickBot="1">
+      <c r="A122" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="B122" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C122" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D122" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="E122" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F122" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="G122" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H122" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I122" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="J122" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="K122" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="L122" s="76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="20.25" thickTop="1" thickBot="1">
+      <c r="A123" s="77">
+        <f>RANK(G123,$G$123:$G$135)</f>
+        <v>1</v>
+      </c>
+      <c r="B123" s="123" t="s">
+        <v>327</v>
+      </c>
+      <c r="C123" s="198">
+        <v>208</v>
+      </c>
+      <c r="D123" s="68">
+        <v>224</v>
+      </c>
+      <c r="E123" s="69">
+        <v>213</v>
+      </c>
+      <c r="F123" s="86">
+        <f>SUM(C123:E123)</f>
+        <v>645</v>
+      </c>
+      <c r="G123" s="87">
+        <f>F123/COUNTA(C123:E123)</f>
+        <v>215</v>
+      </c>
+      <c r="H123" s="123" t="s">
+        <v>327</v>
+      </c>
+      <c r="I123" s="70">
+        <f>VLOOKUP(B123,'총에버 관리_2023'!$A$3:$V$22,21,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="J123" s="70">
+        <f>VLOOKUP(B123,'총에버 관리_2023'!$A$3:$V$22,20,FALSE)</f>
+        <v>3458</v>
+      </c>
+      <c r="K123" s="83">
+        <f>VLOOKUP(B123,'총에버 관리_2023'!$A$3:$V$22,22,FALSE)</f>
+        <v>192.11111111111111</v>
+      </c>
+      <c r="L123" s="84">
+        <f>RANK(K123,'총에버 관리_2023'!$V$3:$V$22)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="20.25" thickTop="1" thickBot="1">
+      <c r="A124" s="77">
+        <f>RANK(G124,$G$123:$G$135)</f>
+        <v>2</v>
+      </c>
+      <c r="B124" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="C124" s="62">
+        <v>225</v>
+      </c>
+      <c r="D124" s="199">
+        <v>194</v>
+      </c>
+      <c r="E124" s="63">
+        <v>202</v>
+      </c>
+      <c r="F124" s="63">
+        <f>SUM(C124:E124)</f>
+        <v>621</v>
+      </c>
+      <c r="G124" s="87">
+        <f>F124/COUNTA(C124:E124)</f>
+        <v>207</v>
+      </c>
+      <c r="H124" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="I124" s="70">
+        <f>VLOOKUP(B124,'총에버 관리_2023'!$A$3:$V$22,21,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="J124" s="70">
+        <f>VLOOKUP(B124,'총에버 관리_2023'!$A$3:$V$22,20,FALSE)</f>
+        <v>4863</v>
+      </c>
+      <c r="K124" s="83">
+        <f>VLOOKUP(B124,'총에버 관리_2023'!$A$3:$V$22,22,FALSE)</f>
+        <v>202.625</v>
+      </c>
+      <c r="L124" s="84">
+        <f>RANK(K124,'총에버 관리_2023'!$V$3:$V$22)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="20.25" thickTop="1" thickBot="1">
+      <c r="A125" s="77">
+        <f>RANK(G125,$G$123:$G$135)</f>
+        <v>3</v>
+      </c>
+      <c r="B125" s="72" t="s">
+        <v>323</v>
+      </c>
+      <c r="C125" s="111">
+        <v>198</v>
+      </c>
+      <c r="D125" s="62">
+        <v>233</v>
+      </c>
+      <c r="E125" s="69">
+        <v>172</v>
+      </c>
+      <c r="F125" s="69">
+        <f>SUM(C125:E125)</f>
+        <v>603</v>
+      </c>
+      <c r="G125" s="87">
+        <f>F125/COUNTA(C125:E125)</f>
+        <v>201</v>
+      </c>
+      <c r="H125" s="72" t="s">
+        <v>323</v>
+      </c>
+      <c r="I125" s="70">
+        <f>VLOOKUP(B125,'총에버 관리_2023'!$A$3:$V$22,21,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="J125" s="70">
+        <f>VLOOKUP(B125,'총에버 관리_2023'!$A$3:$V$22,20,FALSE)</f>
+        <v>2635</v>
+      </c>
+      <c r="K125" s="83">
+        <f>VLOOKUP(B125,'총에버 관리_2023'!$A$3:$V$22,22,FALSE)</f>
+        <v>175.66666666666666</v>
+      </c>
+      <c r="L125" s="84">
+        <f>RANK(K125,'총에버 관리_2023'!$V$3:$V$22)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="19.5" thickTop="1">
+      <c r="A126" s="77">
+        <f>RANK(G126,$G$123:$G$135)</f>
+        <v>4</v>
+      </c>
+      <c r="B126" s="61" t="s">
+        <v>324</v>
+      </c>
+      <c r="C126" s="64">
+        <v>208</v>
+      </c>
+      <c r="D126" s="64">
+        <v>186</v>
+      </c>
+      <c r="E126" s="63">
+        <v>207</v>
+      </c>
+      <c r="F126" s="63">
+        <f>SUM(C126:E126)</f>
+        <v>601</v>
+      </c>
+      <c r="G126" s="87">
+        <f>F126/COUNTA(C126:E126)</f>
+        <v>200.33333333333334</v>
+      </c>
+      <c r="H126" s="61" t="s">
+        <v>324</v>
+      </c>
+      <c r="I126" s="70">
+        <f>VLOOKUP(B126,'총에버 관리_2023'!$A$3:$V$22,21,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="J126" s="70">
+        <f>VLOOKUP(B126,'총에버 관리_2023'!$A$3:$V$22,20,FALSE)</f>
+        <v>4488</v>
+      </c>
+      <c r="K126" s="83">
+        <f>VLOOKUP(B126,'총에버 관리_2023'!$A$3:$V$22,22,FALSE)</f>
+        <v>187</v>
+      </c>
+      <c r="L126" s="84">
+        <f>RANK(K126,'총에버 관리_2023'!$V$3:$V$22)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="18.75">
+      <c r="A127" s="77">
+        <f>RANK(G127,$G$123:$G$135)</f>
+        <v>5</v>
+      </c>
+      <c r="B127" s="61" t="s">
+        <v>328</v>
+      </c>
+      <c r="C127" s="43">
+        <v>177</v>
+      </c>
+      <c r="D127" s="43">
+        <v>204</v>
+      </c>
+      <c r="E127" s="69">
+        <v>215</v>
+      </c>
+      <c r="F127" s="69">
+        <f>SUM(C127:E127)</f>
+        <v>596</v>
+      </c>
+      <c r="G127" s="87">
+        <f>F127/COUNTA(C127:E127)</f>
+        <v>198.66666666666666</v>
+      </c>
+      <c r="H127" s="61" t="s">
+        <v>328</v>
+      </c>
+      <c r="I127" s="70">
+        <f>VLOOKUP(B127,'총에버 관리_2023'!$A$3:$V$22,21,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="J127" s="70">
+        <f>VLOOKUP(B127,'총에버 관리_2023'!$A$3:$V$22,20,FALSE)</f>
+        <v>4088</v>
+      </c>
+      <c r="K127" s="83">
+        <f>VLOOKUP(B127,'총에버 관리_2023'!$A$3:$V$22,22,FALSE)</f>
+        <v>177.7391304347826</v>
+      </c>
+      <c r="L127" s="84">
+        <f>RANK(K127,'총에버 관리_2023'!$V$3:$V$22)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="18.75">
+      <c r="A128" s="77">
+        <f>RANK(G128,$G$123:$G$135)</f>
+        <v>6</v>
+      </c>
+      <c r="B128" s="61" t="s">
+        <v>321</v>
+      </c>
+      <c r="C128" s="43">
+        <v>200</v>
+      </c>
+      <c r="D128" s="43">
+        <v>202</v>
+      </c>
+      <c r="E128" s="69">
+        <v>193</v>
+      </c>
+      <c r="F128" s="69">
+        <f>SUM(C128:E128)</f>
+        <v>595</v>
+      </c>
+      <c r="G128" s="87">
+        <f>F128/COUNTA(C128:E128)</f>
+        <v>198.33333333333334</v>
+      </c>
+      <c r="H128" s="61" t="s">
+        <v>321</v>
+      </c>
+      <c r="I128" s="70">
+        <f>VLOOKUP(B128,'총에버 관리_2023'!$A$3:$V$22,21,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="J128" s="70">
+        <f>VLOOKUP(B128,'총에버 관리_2023'!$A$3:$V$22,20,FALSE)</f>
+        <v>3810</v>
+      </c>
+      <c r="K128" s="83">
+        <f>VLOOKUP(B128,'총에버 관리_2023'!$A$3:$V$22,22,FALSE)</f>
+        <v>181.42857142857142</v>
+      </c>
+      <c r="L128" s="84">
+        <f>RANK(K128,'총에버 관리_2023'!$V$3:$V$22)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="18.75">
+      <c r="A129" s="77">
+        <f>RANK(G129,$G$123:$G$135)</f>
+        <v>7</v>
+      </c>
+      <c r="B129" s="72" t="s">
+        <v>329</v>
+      </c>
+      <c r="C129" s="43">
+        <v>201</v>
+      </c>
+      <c r="D129" s="43">
+        <v>187</v>
+      </c>
+      <c r="E129" s="69">
+        <v>166</v>
+      </c>
+      <c r="F129" s="43">
+        <f>SUM(C129:E129)</f>
+        <v>554</v>
+      </c>
+      <c r="G129" s="87">
+        <f>F129/COUNTA(C129:E129)</f>
+        <v>184.66666666666666</v>
+      </c>
+      <c r="H129" s="72" t="s">
+        <v>329</v>
+      </c>
+      <c r="I129" s="70">
+        <f>VLOOKUP(B129,'총에버 관리_2023'!$A$3:$V$22,21,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="J129" s="70">
+        <f>VLOOKUP(B129,'총에버 관리_2023'!$A$3:$V$22,20,FALSE)</f>
+        <v>2524</v>
+      </c>
+      <c r="K129" s="83">
+        <f>VLOOKUP(B129,'총에버 관리_2023'!$A$3:$V$22,22,FALSE)</f>
+        <v>168.26666666666668</v>
+      </c>
+      <c r="L129" s="84">
+        <f>RANK(K129,'총에버 관리_2023'!$V$3:$V$22)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="18.75">
+      <c r="A130" s="77">
+        <f>RANK(G130,$G$123:$G$135)</f>
+        <v>8</v>
+      </c>
+      <c r="B130" s="72" t="s">
+        <v>332</v>
+      </c>
+      <c r="C130" s="43">
+        <v>177</v>
+      </c>
+      <c r="D130" s="58">
+        <v>202</v>
+      </c>
+      <c r="E130" s="69">
+        <v>152</v>
+      </c>
+      <c r="F130" s="43">
+        <f>SUM(C130:E130)</f>
+        <v>531</v>
+      </c>
+      <c r="G130" s="87">
+        <f>F130/COUNTA(C130:E130)</f>
+        <v>177</v>
+      </c>
+      <c r="H130" s="72" t="s">
+        <v>332</v>
+      </c>
+      <c r="I130" s="70"/>
+      <c r="J130" s="70"/>
+      <c r="K130" s="83"/>
+      <c r="L130" s="84"/>
+    </row>
+    <row r="131" spans="1:12" ht="18.75">
+      <c r="A131" s="77">
+        <f>RANK(G131,$G$123:$G$135)</f>
+        <v>9</v>
+      </c>
+      <c r="B131" s="61" t="s">
+        <v>331</v>
+      </c>
+      <c r="C131" s="43">
+        <v>148</v>
+      </c>
+      <c r="D131" s="43">
+        <v>182</v>
+      </c>
+      <c r="E131" s="69">
+        <v>179</v>
+      </c>
+      <c r="F131" s="43">
+        <f>SUM(C131:E131)</f>
+        <v>509</v>
+      </c>
+      <c r="G131" s="87">
+        <f>F131/COUNTA(C131:E131)</f>
+        <v>169.66666666666666</v>
+      </c>
+      <c r="H131" s="61" t="s">
+        <v>331</v>
+      </c>
+      <c r="I131" s="70">
+        <f>VLOOKUP(B131,'총에버 관리_2023'!$A$3:$V$22,21,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="J131" s="70">
+        <f>VLOOKUP(B131,'총에버 관리_2023'!$A$3:$V$22,20,FALSE)</f>
+        <v>953</v>
+      </c>
+      <c r="K131" s="83">
+        <f>VLOOKUP(B131,'총에버 관리_2023'!$A$3:$V$22,22,FALSE)</f>
+        <v>158.83333333333334</v>
+      </c>
+      <c r="L131" s="84">
+        <f>RANK(K131,'총에버 관리_2023'!$V$3:$V$22)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="18.75">
+      <c r="A132" s="77">
+        <f>RANK(G132,$G$123:$G$135)</f>
+        <v>10</v>
+      </c>
+      <c r="B132" s="72" t="s">
+        <v>330</v>
+      </c>
+      <c r="C132" s="43">
+        <v>177</v>
+      </c>
+      <c r="D132" s="58">
+        <v>159</v>
+      </c>
+      <c r="E132" s="69">
+        <v>169</v>
+      </c>
+      <c r="F132" s="43">
+        <f>SUM(C132:E132)</f>
+        <v>505</v>
+      </c>
+      <c r="G132" s="87">
+        <f>F132/COUNTA(C132:E132)</f>
+        <v>168.33333333333334</v>
+      </c>
+      <c r="H132" s="72" t="s">
+        <v>330</v>
+      </c>
+      <c r="I132" s="70">
+        <f>VLOOKUP(B132,'총에버 관리_2023'!$A$3:$V$22,21,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="J132" s="70">
+        <f>VLOOKUP(B132,'총에버 관리_2023'!$A$3:$V$22,20,FALSE)</f>
+        <v>3760</v>
+      </c>
+      <c r="K132" s="83">
+        <f>VLOOKUP(B132,'총에버 관리_2023'!$A$3:$V$22,22,FALSE)</f>
+        <v>179.04761904761904</v>
+      </c>
+      <c r="L132" s="84">
+        <f>RANK(K132,'총에버 관리_2023'!$V$3:$V$22)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="18.75">
+      <c r="A133" s="77">
+        <f>RANK(G133,$G$123:$G$135)</f>
+        <v>11</v>
+      </c>
+      <c r="B133" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="C133" s="58">
+        <v>159</v>
+      </c>
+      <c r="D133" s="58">
+        <v>140</v>
+      </c>
+      <c r="E133" s="63">
+        <v>155</v>
+      </c>
+      <c r="F133" s="58">
+        <f>SUM(C133:E133)</f>
+        <v>454</v>
+      </c>
+      <c r="G133" s="87">
+        <f>F133/COUNTA(C133:E133)</f>
+        <v>151.33333333333334</v>
+      </c>
+      <c r="H133" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="I133" s="70">
+        <f>VLOOKUP(B133,'총에버 관리_2023'!$A$3:$V$22,21,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="J133" s="70">
+        <f>VLOOKUP(B133,'총에버 관리_2023'!$A$3:$V$22,20,FALSE)</f>
+        <v>3163</v>
+      </c>
+      <c r="K133" s="83">
+        <f>VLOOKUP(B133,'총에버 관리_2023'!$A$3:$V$22,22,FALSE)</f>
+        <v>150.61904761904762</v>
+      </c>
+      <c r="L133" s="84">
+        <f>RANK(K133,'총에버 관리_2023'!$V$3:$V$22)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="18.75">
+      <c r="A134" s="77">
+        <f>RANK(G134,$G$123:$G$135)</f>
+        <v>12</v>
+      </c>
+      <c r="B134" s="72" t="s">
+        <v>333</v>
+      </c>
+      <c r="C134" s="43">
+        <v>130</v>
+      </c>
+      <c r="D134" s="43">
+        <v>147</v>
+      </c>
+      <c r="E134" s="69">
+        <v>136</v>
+      </c>
+      <c r="F134" s="43">
+        <f>SUM(C134:E134)</f>
+        <v>413</v>
+      </c>
+      <c r="G134" s="87">
+        <f>F134/COUNTA(C134:E134)</f>
+        <v>137.66666666666666</v>
+      </c>
+      <c r="H134" s="72" t="s">
+        <v>333</v>
+      </c>
+      <c r="I134" s="70"/>
+      <c r="J134" s="70"/>
+      <c r="K134" s="83"/>
+      <c r="L134" s="84"/>
+    </row>
+    <row r="135" spans="1:12" ht="18.75">
+      <c r="A135" s="77">
+        <f>RANK(G135,$G$123:$G$135)</f>
+        <v>13</v>
+      </c>
+      <c r="B135" s="72" t="s">
+        <v>326</v>
+      </c>
+      <c r="C135" s="43">
+        <v>140</v>
+      </c>
+      <c r="D135" s="43">
+        <v>139</v>
+      </c>
+      <c r="E135" s="69">
+        <v>100</v>
+      </c>
+      <c r="F135" s="43">
+        <f>SUM(C135:E135)</f>
+        <v>379</v>
+      </c>
+      <c r="G135" s="87">
+        <f>F135/COUNTA(C135:E135)</f>
+        <v>126.33333333333333</v>
+      </c>
+      <c r="H135" s="72" t="s">
+        <v>326</v>
+      </c>
+      <c r="I135" s="70">
+        <f>VLOOKUP(B135,'총에버 관리_2023'!$A$3:$V$22,21,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="J135" s="70">
+        <f>VLOOKUP(B135,'총에버 관리_2023'!$A$3:$V$22,20,FALSE)</f>
+        <v>1939</v>
+      </c>
+      <c r="K135" s="83">
+        <f>VLOOKUP(B135,'총에버 관리_2023'!$A$3:$V$22,22,FALSE)</f>
+        <v>129.26666666666668</v>
+      </c>
+      <c r="L135" s="84">
+        <f>RANK(K135,'총에버 관리_2023'!$V$3:$V$22)</f>
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A100:L117">
-    <sortCondition ref="A99"/>
+  <sortState ref="A123:L135">
+    <sortCondition ref="A122"/>
   </sortState>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A121:L121"/>
     <mergeCell ref="A98:L98"/>
     <mergeCell ref="A82:L82"/>
     <mergeCell ref="A2:L2"/>
@@ -11650,242 +12449,302 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C4:E15 C21:E31 C36:E45">
-    <cfRule type="cellIs" dxfId="99" priority="293" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="115" priority="305" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F15 F21:F31 F36:F45">
-    <cfRule type="cellIs" dxfId="98" priority="292" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="114" priority="304" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G15 G21:G31 G36:G45">
-    <cfRule type="cellIs" dxfId="97" priority="291" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="113" priority="303" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K15 K21:K31 K36:K45">
-    <cfRule type="cellIs" dxfId="96" priority="290" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="112" priority="302" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:E59">
-    <cfRule type="cellIs" dxfId="95" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="111" priority="56" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50:F59">
-    <cfRule type="cellIs" dxfId="94" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="110" priority="55" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:G59">
-    <cfRule type="cellIs" dxfId="93" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="109" priority="54" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K50:K59">
-    <cfRule type="cellIs" dxfId="92" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="108" priority="53" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:E62">
-    <cfRule type="cellIs" dxfId="91" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="107" priority="52" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60:F62">
-    <cfRule type="cellIs" dxfId="90" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="106" priority="51" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G60:G62">
-    <cfRule type="cellIs" dxfId="89" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="105" priority="50" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K60:K62">
-    <cfRule type="cellIs" dxfId="88" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="104" priority="49" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63:E63">
-    <cfRule type="cellIs" dxfId="87" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="103" priority="48" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63">
-    <cfRule type="cellIs" dxfId="86" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="102" priority="47" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G63">
-    <cfRule type="cellIs" dxfId="85" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="101" priority="46" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K63">
-    <cfRule type="cellIs" dxfId="84" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="100" priority="45" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:E77">
-    <cfRule type="cellIs" dxfId="83" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="99" priority="44" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68:F77">
-    <cfRule type="cellIs" dxfId="82" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="98" priority="43" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G68:G77">
-    <cfRule type="cellIs" dxfId="81" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="97" priority="42" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K68:K79">
-    <cfRule type="cellIs" dxfId="80" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="41" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C78:E79">
-    <cfRule type="cellIs" dxfId="79" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="95" priority="40" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78:F79">
-    <cfRule type="cellIs" dxfId="78" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="94" priority="39" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78:G79">
-    <cfRule type="cellIs" dxfId="77" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="93" priority="38" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K78:K79">
-    <cfRule type="cellIs" dxfId="76" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="92" priority="37" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C84:E93">
-    <cfRule type="cellIs" dxfId="75" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="91" priority="36" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F84:F93">
-    <cfRule type="cellIs" dxfId="74" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="90" priority="35" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G84:G93">
-    <cfRule type="cellIs" dxfId="73" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="89" priority="34" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K84:K95">
-    <cfRule type="cellIs" dxfId="72" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="33" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C94:E95">
-    <cfRule type="cellIs" dxfId="71" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="87" priority="32" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F94:F95">
-    <cfRule type="cellIs" dxfId="70" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="86" priority="31" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G94:G95">
-    <cfRule type="cellIs" dxfId="69" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="85" priority="30" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K94:K95">
-    <cfRule type="cellIs" dxfId="68" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="29" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100:E109">
-    <cfRule type="cellIs" dxfId="28" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="83" priority="28" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F100:F109">
-    <cfRule type="cellIs" dxfId="27" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="27" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G100:G109">
-    <cfRule type="cellIs" dxfId="26" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="81" priority="26" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K100:K117">
-    <cfRule type="cellIs" dxfId="25" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="25" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C110:E111">
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="79" priority="24" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F110:F111">
+    <cfRule type="cellIs" dxfId="78" priority="23" operator="greaterThan">
+      <formula>599</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G110:G111">
+    <cfRule type="cellIs" dxfId="77" priority="22" operator="greaterThan">
+      <formula>199.999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K110:K111">
+    <cfRule type="cellIs" dxfId="76" priority="21" operator="greaterThan">
+      <formula>199.99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C112:E115">
+    <cfRule type="cellIs" dxfId="75" priority="20" operator="greaterThan">
+      <formula>199</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F112:F115">
+    <cfRule type="cellIs" dxfId="74" priority="19" operator="greaterThan">
+      <formula>599</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G112:G115">
+    <cfRule type="cellIs" dxfId="73" priority="18" operator="greaterThan">
+      <formula>199.999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K112:K117">
+    <cfRule type="cellIs" dxfId="72" priority="17" operator="greaterThan">
+      <formula>199.99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C116:E117">
+    <cfRule type="cellIs" dxfId="71" priority="16" operator="greaterThan">
+      <formula>199</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F116:F117">
+    <cfRule type="cellIs" dxfId="70" priority="15" operator="greaterThan">
+      <formula>599</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G116:G117">
+    <cfRule type="cellIs" dxfId="69" priority="14" operator="greaterThan">
+      <formula>199.999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K116:K117">
+    <cfRule type="cellIs" dxfId="68" priority="13" operator="greaterThan">
+      <formula>199.99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C123:E132">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
+      <formula>199</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F123:F132">
     <cfRule type="cellIs" dxfId="23" priority="11" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G110:G111">
-    <cfRule type="cellIs" dxfId="22" priority="10" operator="greaterThan">
+  <conditionalFormatting sqref="G123:G132">
+    <cfRule type="cellIs" dxfId="21" priority="10" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K110:K111">
-    <cfRule type="cellIs" dxfId="21" priority="9" operator="greaterThan">
+  <conditionalFormatting sqref="K123:K135">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C112:E115">
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="C133:E134">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F112:F115">
-    <cfRule type="cellIs" dxfId="19" priority="7" operator="greaterThan">
+  <conditionalFormatting sqref="F133:F134">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G112:G115">
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="greaterThan">
+  <conditionalFormatting sqref="G133:G134">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K112:K117">
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="K133:K134">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C116:E117">
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="C135:E135">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F116:F117">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="F135">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G116:G117">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="G135">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K116:K117">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="K135">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11914,19 +12773,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.9" customHeight="1">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="187" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="188"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="188"/>
+      <c r="H1" s="188"/>
+      <c r="I1" s="188"/>
+      <c r="J1" s="188"/>
+      <c r="K1" s="189"/>
     </row>
     <row r="2" spans="1:11" ht="27.6" customHeight="1">
       <c r="A2" s="33" t="s">
@@ -12415,19 +13274,19 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="49.5" customHeight="1">
-      <c r="A17" s="186" t="s">
+      <c r="A17" s="187" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="187"/>
-      <c r="C17" s="187"/>
-      <c r="D17" s="187"/>
-      <c r="E17" s="187"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="187"/>
-      <c r="H17" s="187"/>
-      <c r="I17" s="187"/>
-      <c r="J17" s="187"/>
-      <c r="K17" s="188"/>
+      <c r="B17" s="188"/>
+      <c r="C17" s="188"/>
+      <c r="D17" s="188"/>
+      <c r="E17" s="188"/>
+      <c r="F17" s="188"/>
+      <c r="G17" s="188"/>
+      <c r="H17" s="188"/>
+      <c r="I17" s="188"/>
+      <c r="J17" s="188"/>
+      <c r="K17" s="189"/>
     </row>
     <row r="18" spans="1:11" ht="18.75">
       <c r="A18" s="33" t="s">
@@ -13039,19 +13898,19 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="36" customHeight="1">
-      <c r="A34" s="186" t="s">
+      <c r="A34" s="187" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="187"/>
-      <c r="C34" s="187"/>
-      <c r="D34" s="187"/>
-      <c r="E34" s="187"/>
-      <c r="F34" s="187"/>
-      <c r="G34" s="187"/>
-      <c r="H34" s="187"/>
-      <c r="I34" s="187"/>
-      <c r="J34" s="187"/>
-      <c r="K34" s="188"/>
+      <c r="B34" s="188"/>
+      <c r="C34" s="188"/>
+      <c r="D34" s="188"/>
+      <c r="E34" s="188"/>
+      <c r="F34" s="188"/>
+      <c r="G34" s="188"/>
+      <c r="H34" s="188"/>
+      <c r="I34" s="188"/>
+      <c r="J34" s="188"/>
+      <c r="K34" s="189"/>
     </row>
     <row r="35" spans="1:11" ht="18.75">
       <c r="A35" s="33" t="s">
@@ -13540,19 +14399,19 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="44.25" customHeight="1">
-      <c r="A48" s="186" t="s">
+      <c r="A48" s="187" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="187"/>
-      <c r="C48" s="187"/>
-      <c r="D48" s="187"/>
-      <c r="E48" s="187"/>
-      <c r="F48" s="187"/>
-      <c r="G48" s="187"/>
-      <c r="H48" s="187"/>
-      <c r="I48" s="187"/>
-      <c r="J48" s="187"/>
-      <c r="K48" s="188"/>
+      <c r="B48" s="188"/>
+      <c r="C48" s="188"/>
+      <c r="D48" s="188"/>
+      <c r="E48" s="188"/>
+      <c r="F48" s="188"/>
+      <c r="G48" s="188"/>
+      <c r="H48" s="188"/>
+      <c r="I48" s="188"/>
+      <c r="J48" s="188"/>
+      <c r="K48" s="189"/>
     </row>
     <row r="49" spans="1:11" ht="18.75">
       <c r="A49" s="33" t="s">
@@ -14000,19 +14859,19 @@
       </c>
     </row>
     <row r="62" spans="1:11" ht="44.25" customHeight="1">
-      <c r="A62" s="186" t="s">
+      <c r="A62" s="187" t="s">
         <v>70</v>
       </c>
-      <c r="B62" s="187"/>
-      <c r="C62" s="187"/>
-      <c r="D62" s="187"/>
-      <c r="E62" s="187"/>
-      <c r="F62" s="187"/>
-      <c r="G62" s="187"/>
-      <c r="H62" s="187"/>
-      <c r="I62" s="187"/>
-      <c r="J62" s="187"/>
-      <c r="K62" s="188"/>
+      <c r="B62" s="188"/>
+      <c r="C62" s="188"/>
+      <c r="D62" s="188"/>
+      <c r="E62" s="188"/>
+      <c r="F62" s="188"/>
+      <c r="G62" s="188"/>
+      <c r="H62" s="188"/>
+      <c r="I62" s="188"/>
+      <c r="J62" s="188"/>
+      <c r="K62" s="189"/>
     </row>
     <row r="63" spans="1:11" ht="18.75">
       <c r="A63" s="33" t="s">
@@ -14502,19 +15361,19 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1"/>
     <row r="78" spans="1:11" ht="43.5" customHeight="1">
-      <c r="A78" s="186" t="s">
+      <c r="A78" s="187" t="s">
         <v>71</v>
       </c>
-      <c r="B78" s="187"/>
-      <c r="C78" s="187"/>
-      <c r="D78" s="187"/>
-      <c r="E78" s="187"/>
-      <c r="F78" s="187"/>
-      <c r="G78" s="187"/>
-      <c r="H78" s="187"/>
-      <c r="I78" s="187"/>
-      <c r="J78" s="187"/>
-      <c r="K78" s="188"/>
+      <c r="B78" s="188"/>
+      <c r="C78" s="188"/>
+      <c r="D78" s="188"/>
+      <c r="E78" s="188"/>
+      <c r="F78" s="188"/>
+      <c r="G78" s="188"/>
+      <c r="H78" s="188"/>
+      <c r="I78" s="188"/>
+      <c r="J78" s="188"/>
+      <c r="K78" s="189"/>
     </row>
     <row r="79" spans="1:11" ht="18.75">
       <c r="A79" s="33" t="s">
@@ -15056,20 +15915,20 @@
       </c>
     </row>
     <row r="95" spans="1:12" ht="42.75" customHeight="1">
-      <c r="A95" s="184" t="s">
+      <c r="A95" s="185" t="s">
         <v>73</v>
       </c>
-      <c r="B95" s="185"/>
-      <c r="C95" s="185"/>
-      <c r="D95" s="185"/>
-      <c r="E95" s="185"/>
-      <c r="F95" s="185"/>
-      <c r="G95" s="185"/>
-      <c r="H95" s="185"/>
-      <c r="I95" s="185"/>
-      <c r="J95" s="185"/>
-      <c r="K95" s="185"/>
-      <c r="L95" s="185"/>
+      <c r="B95" s="186"/>
+      <c r="C95" s="186"/>
+      <c r="D95" s="186"/>
+      <c r="E95" s="186"/>
+      <c r="F95" s="186"/>
+      <c r="G95" s="186"/>
+      <c r="H95" s="186"/>
+      <c r="I95" s="186"/>
+      <c r="J95" s="186"/>
+      <c r="K95" s="186"/>
+      <c r="L95" s="186"/>
     </row>
     <row r="96" spans="1:12" ht="38.25" thickBot="1">
       <c r="A96" s="74" t="s">
@@ -15524,20 +16383,20 @@
       </c>
     </row>
     <row r="108" spans="1:12" ht="42.75" customHeight="1">
-      <c r="A108" s="184" t="s">
+      <c r="A108" s="185" t="s">
         <v>75</v>
       </c>
-      <c r="B108" s="185"/>
-      <c r="C108" s="185"/>
-      <c r="D108" s="185"/>
-      <c r="E108" s="185"/>
-      <c r="F108" s="185"/>
-      <c r="G108" s="185"/>
-      <c r="H108" s="185"/>
-      <c r="I108" s="185"/>
-      <c r="J108" s="185"/>
-      <c r="K108" s="185"/>
-      <c r="L108" s="185"/>
+      <c r="B108" s="186"/>
+      <c r="C108" s="186"/>
+      <c r="D108" s="186"/>
+      <c r="E108" s="186"/>
+      <c r="F108" s="186"/>
+      <c r="G108" s="186"/>
+      <c r="H108" s="186"/>
+      <c r="I108" s="186"/>
+      <c r="J108" s="186"/>
+      <c r="K108" s="186"/>
+      <c r="L108" s="186"/>
     </row>
     <row r="109" spans="1:12" ht="38.25" thickBot="1">
       <c r="A109" s="74" t="s">
@@ -16173,7 +17032,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H26" sqref="H26"/>
+      <selection pane="topRight" activeCell="I3" sqref="I3:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -16285,7 +17144,10 @@
         <f>IFERROR(VLOOKUP(A3,정기전_2023!$B$100:$F$118,5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I3" s="91"/>
+      <c r="I3" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A3,정기전_2023!$B$122:$F$134,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="J3" s="91"/>
       <c r="K3" s="91"/>
       <c r="L3" s="91"/>
@@ -16344,7 +17206,10 @@
         <f>IFERROR(VLOOKUP(A4,정기전_2023!$B$100:$F$118,5,FALSE),"")</f>
         <v>550</v>
       </c>
-      <c r="I4" s="91"/>
+      <c r="I4" s="91">
+        <f>IFERROR(VLOOKUP(A4,정기전_2023!$B$122:$F$134,5,FALSE),"")</f>
+        <v>645</v>
+      </c>
       <c r="J4" s="91"/>
       <c r="K4" s="91"/>
       <c r="L4" s="91"/>
@@ -16357,15 +17222,15 @@
       <c r="S4" s="91"/>
       <c r="T4" s="92">
         <f t="shared" si="0"/>
-        <v>2813</v>
+        <v>3458</v>
       </c>
       <c r="U4" s="92">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="V4" s="93">
         <f t="shared" si="2"/>
-        <v>187.53333333333333</v>
+        <v>192.11111111111111</v>
       </c>
       <c r="X4" s="90"/>
       <c r="Y4" s="90"/>
@@ -16403,7 +17268,10 @@
         <f>IFERROR(VLOOKUP(A5,정기전_2023!$B$100:$F$118,5,FALSE),"")</f>
         <v>553</v>
       </c>
-      <c r="I5" s="91"/>
+      <c r="I5" s="91">
+        <f>IFERROR(VLOOKUP(A5,정기전_2023!$B$122:$F$134,5,FALSE),"")</f>
+        <v>505</v>
+      </c>
       <c r="J5" s="91"/>
       <c r="K5" s="91"/>
       <c r="L5" s="91"/>
@@ -16416,15 +17284,15 @@
       <c r="S5" s="91"/>
       <c r="T5" s="92">
         <f t="shared" si="0"/>
-        <v>3255</v>
+        <v>3760</v>
       </c>
       <c r="U5" s="92">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="V5" s="93">
         <f t="shared" si="2"/>
-        <v>180.83333333333334</v>
+        <v>179.04761904761904</v>
       </c>
       <c r="X5" s="90"/>
       <c r="Y5" s="90"/>
@@ -16462,7 +17330,10 @@
         <f>IFERROR(VLOOKUP(A6,정기전_2023!$B$100:$F$118,5,FALSE),"")</f>
         <v>486</v>
       </c>
-      <c r="I6" s="91"/>
+      <c r="I6" s="91">
+        <f>IFERROR(VLOOKUP(A6,정기전_2023!$B$122:$F$134,5,FALSE),"")</f>
+        <v>554</v>
+      </c>
       <c r="J6" s="91"/>
       <c r="K6" s="91"/>
       <c r="L6" s="91"/>
@@ -16475,15 +17346,15 @@
       <c r="S6" s="91"/>
       <c r="T6" s="92">
         <f t="shared" si="0"/>
-        <v>1970</v>
+        <v>2524</v>
       </c>
       <c r="U6" s="92">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="V6" s="93">
         <f t="shared" si="2"/>
-        <v>164.16666666666666</v>
+        <v>168.26666666666668</v>
       </c>
       <c r="X6" s="90"/>
       <c r="Y6" s="90"/>
@@ -16521,7 +17392,10 @@
         <f>IFERROR(VLOOKUP(A7,정기전_2023!$B$100:$F$118,5,FALSE),"")</f>
         <v>634</v>
       </c>
-      <c r="I7" s="91"/>
+      <c r="I7" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A7,정기전_2023!$B$122:$F$134,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="J7" s="91"/>
       <c r="K7" s="91"/>
       <c r="L7" s="91"/>
@@ -16580,7 +17454,10 @@
         <f>IFERROR(VLOOKUP(A8,정기전_2023!$B$100:$F$118,5,FALSE),"")</f>
         <v>571</v>
       </c>
-      <c r="I8" s="91"/>
+      <c r="I8" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A8,정기전_2023!$B$122:$F$134,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="J8" s="91"/>
       <c r="K8" s="91"/>
       <c r="L8" s="91"/>
@@ -16639,7 +17516,10 @@
         <f>IFERROR(VLOOKUP(A9,정기전_2023!$B$100:$F$118,5,FALSE),"")</f>
         <v>553</v>
       </c>
-      <c r="I9" s="91"/>
+      <c r="I9" s="91">
+        <f>IFERROR(VLOOKUP(A9,정기전_2023!$B$122:$F$134,5,FALSE),"")</f>
+        <v>596</v>
+      </c>
       <c r="J9" s="91"/>
       <c r="K9" s="91"/>
       <c r="L9" s="91"/>
@@ -16652,15 +17532,15 @@
       <c r="S9" s="91"/>
       <c r="T9" s="92">
         <f t="shared" si="0"/>
-        <v>3492</v>
+        <v>4088</v>
       </c>
       <c r="U9" s="92">
         <f>COUNT(B9:S9)*3-1</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="V9" s="93">
         <f t="shared" si="2"/>
-        <v>174.6</v>
+        <v>177.7391304347826</v>
       </c>
       <c r="X9" s="90"/>
       <c r="Y9" s="90"/>
@@ -16698,7 +17578,10 @@
         <f>IFERROR(VLOOKUP(A10,정기전_2023!$B$100:$F$118,5,FALSE),"")</f>
         <v>573</v>
       </c>
-      <c r="I10" s="91"/>
+      <c r="I10" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A10,정기전_2023!$B$122:$F$134,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="J10" s="91"/>
       <c r="K10" s="91"/>
       <c r="L10" s="91"/>
@@ -16757,7 +17640,10 @@
         <f>IFERROR(VLOOKUP(A11,정기전_2023!$B$100:$F$118,5,FALSE),"")</f>
         <v>503</v>
       </c>
-      <c r="I11" s="91"/>
+      <c r="I11" s="91">
+        <f>IFERROR(VLOOKUP(A11,정기전_2023!$B$122:$F$134,5,FALSE),"")</f>
+        <v>454</v>
+      </c>
       <c r="J11" s="91"/>
       <c r="K11" s="91"/>
       <c r="L11" s="91"/>
@@ -16770,15 +17656,15 @@
       <c r="S11" s="91"/>
       <c r="T11" s="92">
         <f t="shared" si="0"/>
-        <v>2709</v>
+        <v>3163</v>
       </c>
       <c r="U11" s="92">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="V11" s="93">
         <f t="shared" si="2"/>
-        <v>150.5</v>
+        <v>150.61904761904762</v>
       </c>
       <c r="X11" s="90"/>
       <c r="Y11" s="90"/>
@@ -16816,7 +17702,10 @@
         <f>IFERROR(VLOOKUP(A12,정기전_2023!$B$100:$F$118,5,FALSE),"")</f>
         <v>576</v>
       </c>
-      <c r="I12" s="91"/>
+      <c r="I12" s="91">
+        <f>IFERROR(VLOOKUP(A12,정기전_2023!$B$122:$F$134,5,FALSE),"")</f>
+        <v>621</v>
+      </c>
       <c r="J12" s="91"/>
       <c r="K12" s="91"/>
       <c r="L12" s="91"/>
@@ -16829,15 +17718,15 @@
       <c r="S12" s="91"/>
       <c r="T12" s="92">
         <f t="shared" si="0"/>
-        <v>4242</v>
+        <v>4863</v>
       </c>
       <c r="U12" s="92">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="V12" s="93">
         <f t="shared" si="2"/>
-        <v>202</v>
+        <v>202.625</v>
       </c>
       <c r="X12" s="90"/>
       <c r="Y12" s="90"/>
@@ -16875,7 +17764,10 @@
         <f>IFERROR(VLOOKUP(A13,정기전_2023!$B$100:$F$118,5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I13" s="91"/>
+      <c r="I13" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A13,정기전_2023!$B$122:$F$134,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="J13" s="91"/>
       <c r="K13" s="91"/>
       <c r="L13" s="91"/>
@@ -16934,7 +17826,10 @@
         <f>IFERROR(VLOOKUP(A14,정기전_2023!$B$100:$F$118,5,FALSE),"")</f>
         <v>543</v>
       </c>
-      <c r="I14" s="91"/>
+      <c r="I14" s="91">
+        <f>IFERROR(VLOOKUP(A14,정기전_2023!$B$122:$F$134,5,FALSE),"")</f>
+        <v>601</v>
+      </c>
       <c r="J14" s="91"/>
       <c r="K14" s="91"/>
       <c r="L14" s="91"/>
@@ -16947,15 +17842,15 @@
       <c r="S14" s="91"/>
       <c r="T14" s="92">
         <f t="shared" si="0"/>
-        <v>3887</v>
+        <v>4488</v>
       </c>
       <c r="U14" s="92">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="V14" s="93">
         <f t="shared" si="2"/>
-        <v>185.0952380952381</v>
+        <v>187</v>
       </c>
       <c r="X14" s="90"/>
       <c r="Y14" s="90"/>
@@ -16993,7 +17888,10 @@
         <f>IFERROR(VLOOKUP(A15,정기전_2023!$B$100:$F$118,5,FALSE),"")</f>
         <v>598</v>
       </c>
-      <c r="I15" s="91"/>
+      <c r="I15" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A15,정기전_2023!$B$122:$F$134,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="J15" s="91"/>
       <c r="K15" s="91"/>
       <c r="L15" s="91"/>
@@ -17049,7 +17947,10 @@
         <f>IFERROR(VLOOKUP(A16,정기전_2023!$B$100:$F$118,5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I16" s="91"/>
+      <c r="I16" s="91">
+        <f>IFERROR(VLOOKUP(A16,정기전_2023!$B$122:$F$134,5,FALSE),"")</f>
+        <v>509</v>
+      </c>
       <c r="J16" s="91"/>
       <c r="K16" s="91"/>
       <c r="L16" s="91"/>
@@ -17062,15 +17963,15 @@
       <c r="S16" s="91"/>
       <c r="T16" s="92">
         <f t="shared" si="0"/>
-        <v>444</v>
+        <v>953</v>
       </c>
       <c r="U16" s="92">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V16" s="93">
         <f t="shared" si="3"/>
-        <v>148</v>
+        <v>158.83333333333334</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -17105,7 +18006,10 @@
         <f>IFERROR(VLOOKUP(A17,정기전_2023!$B$100:$F$118,5,FALSE),"")</f>
         <v>505</v>
       </c>
-      <c r="I17" s="91"/>
+      <c r="I17" s="91">
+        <f>IFERROR(VLOOKUP(A17,정기전_2023!$B$122:$F$134,5,FALSE),"")</f>
+        <v>595</v>
+      </c>
       <c r="J17" s="91"/>
       <c r="K17" s="91"/>
       <c r="L17" s="91"/>
@@ -17118,15 +18022,15 @@
       <c r="S17" s="91"/>
       <c r="T17" s="92">
         <f t="shared" si="0"/>
-        <v>3215</v>
+        <v>3810</v>
       </c>
       <c r="U17" s="92">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="V17" s="93">
         <f t="shared" ref="V17:V18" si="4">IF(U17=0, "",  T17/U17)</f>
-        <v>178.61111111111111</v>
+        <v>181.42857142857142</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -17161,7 +18065,10 @@
         <f>IFERROR(VLOOKUP(A18,정기전_2023!$B$100:$F$118,5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I18" s="91"/>
+      <c r="I18" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A18,정기전_2023!$B$122:$F$134,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="J18" s="91"/>
       <c r="K18" s="91"/>
       <c r="L18" s="91"/>
@@ -17217,7 +18124,10 @@
         <f>IFERROR(VLOOKUP(A19,정기전_2023!$B$100:$F$118,5,FALSE),"")</f>
         <v>564</v>
       </c>
-      <c r="I19" s="91"/>
+      <c r="I19" s="91">
+        <f>IFERROR(VLOOKUP(A19,정기전_2023!$B$122:$F$134,5,FALSE),"")</f>
+        <v>603</v>
+      </c>
       <c r="J19" s="91"/>
       <c r="K19" s="91"/>
       <c r="L19" s="91"/>
@@ -17230,15 +18140,15 @@
       <c r="S19" s="91"/>
       <c r="T19" s="92">
         <f t="shared" si="0"/>
-        <v>2032</v>
+        <v>2635</v>
       </c>
       <c r="U19" s="92">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="V19" s="93">
         <f t="shared" ref="V19" si="5">IF(U19=0, "",  T19/U19)</f>
-        <v>169.33333333333334</v>
+        <v>175.66666666666666</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -17273,7 +18183,10 @@
         <f>IFERROR(VLOOKUP(A20,정기전_2023!$B$100:$F$118,5,FALSE),"")</f>
         <v>435</v>
       </c>
-      <c r="I20" s="91"/>
+      <c r="I20" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A20,정기전_2023!$B$122:$F$134,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="J20" s="91"/>
       <c r="K20" s="91"/>
       <c r="L20" s="91"/>
@@ -17317,7 +18230,10 @@
         <f>IFERROR(VLOOKUP(A21,정기전_2023!$B$100:$F$118,5,FALSE),"")</f>
         <v>444</v>
       </c>
-      <c r="I21" s="91"/>
+      <c r="I21" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A21,정기전_2023!$B$122:$F$134,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="J21" s="91"/>
       <c r="K21" s="91"/>
       <c r="L21" s="91"/>
@@ -17355,7 +18271,10 @@
         <f>IFERROR(VLOOKUP(A22,정기전_2023!$B$100:$F$118,5,FALSE),"")</f>
         <v>364</v>
       </c>
-      <c r="I22" s="91"/>
+      <c r="I22" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A22,정기전_2023!$B$122:$F$134,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="J22" s="91"/>
       <c r="K22" s="91"/>
       <c r="L22" s="91"/>
@@ -17409,8 +18328,8 @@
         <v>16</v>
       </c>
       <c r="I23" s="90">
-        <f t="shared" ref="H23:P23" si="16">COUNT(I3:I19)</f>
-        <v>0</v>
+        <f t="shared" ref="I23:P23" si="16">COUNT(I3:I19)</f>
+        <v>10</v>
       </c>
       <c r="J23" s="90">
         <f t="shared" si="16"/>
@@ -17459,15 +18378,15 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:S22">
-    <cfRule type="cellIs" dxfId="10" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="18" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:V22">
-    <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="16" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="17" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18662,20 +19581,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:L28 I29:L29">
-    <cfRule type="cellIs" dxfId="51" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="4" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O29">
-    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="3" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:L29">
-    <cfRule type="cellIs" dxfId="48" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="1" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18757,10 +19676,10 @@
       <c r="V2" s="101"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="193">
+      <c r="A3" s="190">
         <v>1</v>
       </c>
-      <c r="B3" s="189" t="s">
+      <c r="B3" s="191" t="s">
         <v>119</v>
       </c>
       <c r="C3" s="96" t="s">
@@ -18805,8 +19724,8 @@
       <c r="V3" s="101"/>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="193"/>
-      <c r="B4" s="189"/>
+      <c r="A4" s="190"/>
+      <c r="B4" s="191"/>
       <c r="C4" s="96" t="s">
         <v>121</v>
       </c>
@@ -18849,8 +19768,8 @@
       <c r="V4" s="101"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="193"/>
-      <c r="B5" s="189"/>
+      <c r="A5" s="190"/>
+      <c r="B5" s="191"/>
       <c r="C5" s="96" t="s">
         <v>122</v>
       </c>
@@ -18887,10 +19806,10 @@
       <c r="V5" s="101"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="193">
+      <c r="A6" s="190">
         <v>2</v>
       </c>
-      <c r="B6" s="189" t="s">
+      <c r="B6" s="191" t="s">
         <v>123</v>
       </c>
       <c r="C6" s="96" t="s">
@@ -18928,8 +19847,8 @@
       <c r="V6" s="101"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="193"/>
-      <c r="B7" s="189"/>
+      <c r="A7" s="190"/>
+      <c r="B7" s="191"/>
       <c r="C7" s="96" t="s">
         <v>124</v>
       </c>
@@ -18965,8 +19884,8 @@
       <c r="V7" s="101"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="193"/>
-      <c r="B8" s="189"/>
+      <c r="A8" s="190"/>
+      <c r="B8" s="191"/>
       <c r="C8" s="96" t="s">
         <v>125</v>
       </c>
@@ -19002,10 +19921,10 @@
       <c r="V8" s="101"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="193">
+      <c r="A9" s="190">
         <v>3</v>
       </c>
-      <c r="B9" s="189" t="s">
+      <c r="B9" s="191" t="s">
         <v>126</v>
       </c>
       <c r="C9" s="96" t="s">
@@ -19030,15 +19949,15 @@
       <c r="I9" s="96">
         <v>3</v>
       </c>
-      <c r="K9" s="189" t="s">
+      <c r="K9" s="191" t="s">
         <v>139</v>
       </c>
-      <c r="L9" s="189"/>
-      <c r="M9" s="189"/>
-      <c r="N9" s="189"/>
-      <c r="O9" s="189"/>
-      <c r="P9" s="189"/>
-      <c r="Q9" s="189"/>
+      <c r="L9" s="191"/>
+      <c r="M9" s="191"/>
+      <c r="N9" s="191"/>
+      <c r="O9" s="191"/>
+      <c r="P9" s="191"/>
+      <c r="Q9" s="191"/>
       <c r="R9" s="101"/>
       <c r="S9" s="101"/>
       <c r="T9" s="101"/>
@@ -19046,8 +19965,8 @@
       <c r="V9" s="101"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="193"/>
-      <c r="B10" s="189"/>
+      <c r="A10" s="190"/>
+      <c r="B10" s="191"/>
       <c r="C10" s="96" t="s">
         <v>120</v>
       </c>
@@ -19070,13 +19989,13 @@
       <c r="I10" s="96">
         <v>3</v>
       </c>
-      <c r="K10" s="189"/>
-      <c r="L10" s="189"/>
-      <c r="M10" s="189"/>
-      <c r="N10" s="189"/>
-      <c r="O10" s="189"/>
-      <c r="P10" s="189"/>
-      <c r="Q10" s="189"/>
+      <c r="K10" s="191"/>
+      <c r="L10" s="191"/>
+      <c r="M10" s="191"/>
+      <c r="N10" s="191"/>
+      <c r="O10" s="191"/>
+      <c r="P10" s="191"/>
+      <c r="Q10" s="191"/>
       <c r="R10" s="101"/>
       <c r="S10" s="101"/>
       <c r="T10" s="101"/>
@@ -19084,8 +20003,8 @@
       <c r="V10" s="101"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="193"/>
-      <c r="B11" s="189"/>
+      <c r="A11" s="190"/>
+      <c r="B11" s="191"/>
       <c r="C11" s="96" t="s">
         <v>125</v>
       </c>
@@ -19136,10 +20055,10 @@
       <c r="V11" s="101"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="193">
+      <c r="A12" s="190">
         <v>4</v>
       </c>
-      <c r="B12" s="189" t="s">
+      <c r="B12" s="191" t="s">
         <v>127</v>
       </c>
       <c r="C12" s="96" t="s">
@@ -19198,8 +20117,8 @@
       <c r="V12" s="101"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="193"/>
-      <c r="B13" s="189"/>
+      <c r="A13" s="190"/>
+      <c r="B13" s="191"/>
       <c r="C13" s="96" t="s">
         <v>124</v>
       </c>
@@ -19256,8 +20175,8 @@
       <c r="V13" s="101"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="193"/>
-      <c r="B14" s="189"/>
+      <c r="A14" s="190"/>
+      <c r="B14" s="191"/>
       <c r="C14" s="96" t="s">
         <v>125</v>
       </c>
@@ -19314,10 +20233,10 @@
       <c r="V14" s="101"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="193">
+      <c r="A15" s="190">
         <v>5</v>
       </c>
-      <c r="B15" s="189" t="s">
+      <c r="B15" s="191" t="s">
         <v>128</v>
       </c>
       <c r="C15" s="96" t="s">
@@ -19376,8 +20295,8 @@
       <c r="V15" s="101"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="193"/>
-      <c r="B16" s="189"/>
+      <c r="A16" s="190"/>
+      <c r="B16" s="191"/>
       <c r="C16" s="96" t="s">
         <v>121</v>
       </c>
@@ -19434,8 +20353,8 @@
       <c r="V16" s="101"/>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="193"/>
-      <c r="B17" s="189"/>
+      <c r="A17" s="190"/>
+      <c r="B17" s="191"/>
       <c r="C17" s="96" t="s">
         <v>125</v>
       </c>
@@ -19492,10 +20411,10 @@
       <c r="V17" s="101"/>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="193">
+      <c r="A18" s="190">
         <v>6</v>
       </c>
-      <c r="B18" s="189" t="s">
+      <c r="B18" s="191" t="s">
         <v>129</v>
       </c>
       <c r="C18" s="96" t="s">
@@ -19554,8 +20473,8 @@
       <c r="V18" s="101"/>
     </row>
     <row r="19" spans="1:22">
-      <c r="A19" s="193"/>
-      <c r="B19" s="189"/>
+      <c r="A19" s="190"/>
+      <c r="B19" s="191"/>
       <c r="C19" s="96" t="s">
         <v>120</v>
       </c>
@@ -19578,10 +20497,10 @@
       <c r="I19" s="96">
         <v>0</v>
       </c>
-      <c r="K19" s="194" t="s">
+      <c r="K19" s="195" t="s">
         <v>109</v>
       </c>
-      <c r="L19" s="194"/>
+      <c r="L19" s="195"/>
       <c r="M19" s="106">
         <f ca="1">SUM(M12:M18)</f>
         <v>39</v>
@@ -19590,9 +20509,9 @@
         <f ca="1">SUM(N12:N18)</f>
         <v>42</v>
       </c>
-      <c r="O19" s="190"/>
-      <c r="P19" s="191"/>
-      <c r="Q19" s="192"/>
+      <c r="O19" s="192"/>
+      <c r="P19" s="193"/>
+      <c r="Q19" s="194"/>
       <c r="R19" s="101"/>
       <c r="S19" s="101"/>
       <c r="T19" s="101"/>
@@ -19600,8 +20519,8 @@
       <c r="V19" s="101"/>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="193"/>
-      <c r="B20" s="189"/>
+      <c r="A20" s="190"/>
+      <c r="B20" s="191"/>
       <c r="C20" s="96" t="s">
         <v>125</v>
       </c>
@@ -19637,10 +20556,10 @@
       <c r="V20" s="101"/>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="193">
+      <c r="A21" s="190">
         <v>7</v>
       </c>
-      <c r="B21" s="189" t="s">
+      <c r="B21" s="191" t="s">
         <v>140</v>
       </c>
       <c r="C21" s="96" t="s">
@@ -19678,8 +20597,8 @@
       <c r="V21" s="101"/>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="193"/>
-      <c r="B22" s="189"/>
+      <c r="A22" s="190"/>
+      <c r="B22" s="191"/>
       <c r="C22" s="96" t="s">
         <v>142</v>
       </c>
@@ -19715,8 +20634,8 @@
       <c r="V22" s="101"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="193"/>
-      <c r="B23" s="189"/>
+      <c r="A23" s="190"/>
+      <c r="B23" s="191"/>
       <c r="C23" s="96" t="s">
         <v>143</v>
       </c>
@@ -19752,10 +20671,10 @@
       <c r="V23" s="101"/>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="193">
+      <c r="A24" s="190">
         <v>8</v>
       </c>
-      <c r="B24" s="189" t="s">
+      <c r="B24" s="191" t="s">
         <v>145</v>
       </c>
       <c r="C24" s="96" t="s">
@@ -19793,8 +20712,8 @@
       <c r="V24" s="101"/>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="193"/>
-      <c r="B25" s="189"/>
+      <c r="A25" s="190"/>
+      <c r="B25" s="191"/>
       <c r="C25" s="96" t="s">
         <v>147</v>
       </c>
@@ -19830,8 +20749,8 @@
       <c r="V25" s="101"/>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="193"/>
-      <c r="B26" s="189"/>
+      <c r="A26" s="190"/>
+      <c r="B26" s="191"/>
       <c r="C26" s="96" t="s">
         <v>148</v>
       </c>
@@ -19868,10 +20787,10 @@
       <c r="V26" s="101"/>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="193">
+      <c r="A27" s="190">
         <v>9</v>
       </c>
-      <c r="B27" s="189" t="s">
+      <c r="B27" s="191" t="s">
         <v>152</v>
       </c>
       <c r="C27" s="96" t="s">
@@ -19910,8 +20829,8 @@
       <c r="V27" s="101"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="193"/>
-      <c r="B28" s="189"/>
+      <c r="A28" s="190"/>
+      <c r="B28" s="191"/>
       <c r="C28" s="96" t="s">
         <v>154</v>
       </c>
@@ -19948,8 +20867,8 @@
       <c r="V28" s="101"/>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="193"/>
-      <c r="B29" s="189"/>
+      <c r="A29" s="190"/>
+      <c r="B29" s="191"/>
       <c r="C29" s="96" t="s">
         <v>155</v>
       </c>
@@ -20036,6 +20955,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K9:Q10"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="K19:L19"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="A12:A14"/>
@@ -20048,24 +20976,15 @@
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="B24:B26"/>
-    <mergeCell ref="K9:Q10"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="K19:L19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D3:F29">
-    <cfRule type="cellIs" dxfId="47" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="4" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G30">
-    <cfRule type="cellIs" dxfId="46" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="greaterThan">
       <formula>599.99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20143,10 +21062,10 @@
       <c r="R2" s="101"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="193">
+      <c r="A3" s="190">
         <v>1</v>
       </c>
-      <c r="B3" s="189" t="s">
+      <c r="B3" s="191" t="s">
         <v>123</v>
       </c>
       <c r="C3" s="96" t="s">
@@ -20187,8 +21106,8 @@
       <c r="R3" s="101"/>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="193"/>
-      <c r="B4" s="189"/>
+      <c r="A4" s="190"/>
+      <c r="B4" s="191"/>
       <c r="C4" s="96" t="s">
         <v>188</v>
       </c>
@@ -20227,8 +21146,8 @@
       <c r="R4" s="101"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="193"/>
-      <c r="B5" s="189"/>
+      <c r="A5" s="190"/>
+      <c r="B5" s="191"/>
       <c r="C5" s="96" t="s">
         <v>187</v>
       </c>
@@ -20261,10 +21180,10 @@
       <c r="R5" s="101"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="193">
+      <c r="A6" s="190">
         <v>2</v>
       </c>
-      <c r="B6" s="189" t="s">
+      <c r="B6" s="191" t="s">
         <v>152</v>
       </c>
       <c r="C6" s="96" t="s">
@@ -20302,8 +21221,8 @@
       <c r="V6" s="101"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="193"/>
-      <c r="B7" s="189"/>
+      <c r="A7" s="190"/>
+      <c r="B7" s="191"/>
       <c r="C7" s="96" t="s">
         <v>189</v>
       </c>
@@ -20339,8 +21258,8 @@
       <c r="V7" s="101"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="193"/>
-      <c r="B8" s="189"/>
+      <c r="A8" s="190"/>
+      <c r="B8" s="191"/>
       <c r="C8" s="96" t="s">
         <v>190</v>
       </c>
@@ -20376,10 +21295,10 @@
       <c r="V8" s="101"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="193">
+      <c r="A9" s="190">
         <v>3</v>
       </c>
-      <c r="B9" s="189" t="s">
+      <c r="B9" s="191" t="s">
         <v>192</v>
       </c>
       <c r="C9" s="96" t="s">
@@ -20404,15 +21323,15 @@
       <c r="I9" s="96">
         <v>1</v>
       </c>
-      <c r="K9" s="189" t="s">
+      <c r="K9" s="191" t="s">
         <v>139</v>
       </c>
-      <c r="L9" s="189"/>
-      <c r="M9" s="189"/>
-      <c r="N9" s="189"/>
-      <c r="O9" s="189"/>
-      <c r="P9" s="189"/>
-      <c r="Q9" s="189"/>
+      <c r="L9" s="191"/>
+      <c r="M9" s="191"/>
+      <c r="N9" s="191"/>
+      <c r="O9" s="191"/>
+      <c r="P9" s="191"/>
+      <c r="Q9" s="191"/>
       <c r="R9" s="101"/>
       <c r="S9" s="101"/>
       <c r="T9" s="101"/>
@@ -20420,8 +21339,8 @@
       <c r="V9" s="101"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="193"/>
-      <c r="B10" s="189"/>
+      <c r="A10" s="190"/>
+      <c r="B10" s="191"/>
       <c r="C10" s="96" t="s">
         <v>189</v>
       </c>
@@ -20444,13 +21363,13 @@
       <c r="I10" s="96">
         <v>1</v>
       </c>
-      <c r="K10" s="189"/>
-      <c r="L10" s="189"/>
-      <c r="M10" s="189"/>
-      <c r="N10" s="189"/>
-      <c r="O10" s="189"/>
-      <c r="P10" s="189"/>
-      <c r="Q10" s="189"/>
+      <c r="K10" s="191"/>
+      <c r="L10" s="191"/>
+      <c r="M10" s="191"/>
+      <c r="N10" s="191"/>
+      <c r="O10" s="191"/>
+      <c r="P10" s="191"/>
+      <c r="Q10" s="191"/>
       <c r="R10" s="101"/>
       <c r="S10" s="101"/>
       <c r="T10" s="101"/>
@@ -20458,8 +21377,8 @@
       <c r="V10" s="101"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="193"/>
-      <c r="B11" s="189"/>
+      <c r="A11" s="190"/>
+      <c r="B11" s="191"/>
       <c r="C11" s="96" t="s">
         <v>190</v>
       </c>
@@ -20510,10 +21429,10 @@
       <c r="V11" s="101"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="193">
+      <c r="A12" s="190">
         <v>4</v>
       </c>
-      <c r="B12" s="189" t="s">
+      <c r="B12" s="191" t="s">
         <v>193</v>
       </c>
       <c r="C12" s="96" t="s">
@@ -20572,8 +21491,8 @@
       <c r="V12" s="101"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="193"/>
-      <c r="B13" s="189"/>
+      <c r="A13" s="190"/>
+      <c r="B13" s="191"/>
       <c r="C13" s="96" t="s">
         <v>189</v>
       </c>
@@ -20630,8 +21549,8 @@
       <c r="V13" s="101"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="193"/>
-      <c r="B14" s="189"/>
+      <c r="A14" s="190"/>
+      <c r="B14" s="191"/>
       <c r="C14" s="96" t="s">
         <v>190</v>
       </c>
@@ -20688,10 +21607,10 @@
       <c r="V14" s="101"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="193">
+      <c r="A15" s="190">
         <v>5</v>
       </c>
-      <c r="B15" s="189" t="s">
+      <c r="B15" s="191" t="s">
         <v>194</v>
       </c>
       <c r="C15" s="96" t="s">
@@ -20750,8 +21669,8 @@
       <c r="V15" s="101"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="193"/>
-      <c r="B16" s="189"/>
+      <c r="A16" s="190"/>
+      <c r="B16" s="191"/>
       <c r="C16" s="96" t="s">
         <v>189</v>
       </c>
@@ -20808,8 +21727,8 @@
       <c r="V16" s="101"/>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="193"/>
-      <c r="B17" s="189"/>
+      <c r="A17" s="190"/>
+      <c r="B17" s="191"/>
       <c r="C17" s="96" t="s">
         <v>190</v>
       </c>
@@ -20832,10 +21751,10 @@
       <c r="I17" s="96">
         <v>1</v>
       </c>
-      <c r="K17" s="194" t="s">
+      <c r="K17" s="195" t="s">
         <v>109</v>
       </c>
-      <c r="L17" s="194"/>
+      <c r="L17" s="195"/>
       <c r="M17" s="106">
         <f ca="1">SUM(M12:M16)</f>
         <v>39</v>
@@ -20844,9 +21763,9 @@
         <f ca="1">SUM(N12:N16)</f>
         <v>42</v>
       </c>
-      <c r="O17" s="190"/>
-      <c r="P17" s="191"/>
-      <c r="Q17" s="192"/>
+      <c r="O17" s="192"/>
+      <c r="P17" s="193"/>
+      <c r="Q17" s="194"/>
       <c r="R17" s="101"/>
       <c r="S17" s="101"/>
       <c r="T17" s="101"/>
@@ -20854,10 +21773,10 @@
       <c r="V17" s="101"/>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="193">
+      <c r="A18" s="190">
         <v>6</v>
       </c>
-      <c r="B18" s="189" t="s">
+      <c r="B18" s="191" t="s">
         <v>129</v>
       </c>
       <c r="C18" s="96" t="s">
@@ -20895,8 +21814,8 @@
       <c r="V18" s="101"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="193"/>
-      <c r="B19" s="189"/>
+      <c r="A19" s="190"/>
+      <c r="B19" s="191"/>
       <c r="C19" s="96" t="s">
         <v>189</v>
       </c>
@@ -20932,8 +21851,8 @@
       <c r="V19" s="101"/>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="193"/>
-      <c r="B20" s="189"/>
+      <c r="A20" s="190"/>
+      <c r="B20" s="191"/>
       <c r="C20" s="96" t="s">
         <v>190</v>
       </c>
@@ -20969,10 +21888,10 @@
       <c r="V20" s="101"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="193">
+      <c r="A21" s="190">
         <v>7</v>
       </c>
-      <c r="B21" s="189" t="s">
+      <c r="B21" s="191" t="s">
         <v>119</v>
       </c>
       <c r="C21" s="96" t="s">
@@ -21008,8 +21927,8 @@
       <c r="V21" s="101"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="193"/>
-      <c r="B22" s="189"/>
+      <c r="A22" s="190"/>
+      <c r="B22" s="191"/>
       <c r="C22" s="96" t="s">
         <v>188</v>
       </c>
@@ -21042,8 +21961,8 @@
       <c r="V22" s="101"/>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" s="193"/>
-      <c r="B23" s="189"/>
+      <c r="A23" s="190"/>
+      <c r="B23" s="191"/>
       <c r="C23" s="96" t="s">
         <v>189</v>
       </c>
@@ -21074,10 +21993,10 @@
       <c r="V23" s="101"/>
     </row>
     <row r="24" spans="1:23">
-      <c r="A24" s="193">
+      <c r="A24" s="190">
         <v>8</v>
       </c>
-      <c r="B24" s="189" t="s">
+      <c r="B24" s="191" t="s">
         <v>145</v>
       </c>
       <c r="C24" s="96" t="s">
@@ -21111,8 +22030,8 @@
       <c r="V24" s="101"/>
     </row>
     <row r="25" spans="1:23">
-      <c r="A25" s="193"/>
-      <c r="B25" s="189"/>
+      <c r="A25" s="190"/>
+      <c r="B25" s="191"/>
       <c r="C25" s="96" t="s">
         <v>101</v>
       </c>
@@ -21145,8 +22064,8 @@
       <c r="W25" s="114"/>
     </row>
     <row r="26" spans="1:23">
-      <c r="A26" s="193"/>
-      <c r="B26" s="189"/>
+      <c r="A26" s="190"/>
+      <c r="B26" s="191"/>
       <c r="C26" s="96" t="s">
         <v>102</v>
       </c>
@@ -21183,10 +22102,10 @@
       <c r="W26" s="114"/>
     </row>
     <row r="27" spans="1:23">
-      <c r="A27" s="193">
+      <c r="A27" s="190">
         <v>9</v>
       </c>
-      <c r="B27" s="189" t="s">
+      <c r="B27" s="191" t="s">
         <v>128</v>
       </c>
       <c r="C27" s="96" t="s">
@@ -21225,8 +22144,8 @@
       <c r="W27" s="114"/>
     </row>
     <row r="28" spans="1:23">
-      <c r="A28" s="193"/>
-      <c r="B28" s="189"/>
+      <c r="A28" s="190"/>
+      <c r="B28" s="191"/>
       <c r="C28" s="96" t="s">
         <v>101</v>
       </c>
@@ -21263,8 +22182,8 @@
       <c r="V28" s="101"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="193"/>
-      <c r="B29" s="189"/>
+      <c r="A29" s="190"/>
+      <c r="B29" s="191"/>
       <c r="C29" s="96" t="s">
         <v>102</v>
       </c>
@@ -21333,12 +22252,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="K17:L17"/>
@@ -21354,15 +22267,21 @@
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D3:F29">
-    <cfRule type="cellIs" dxfId="45" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="9" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G30">
-    <cfRule type="cellIs" dxfId="44" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="8" operator="greaterThan">
       <formula>599.99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21887,56 +22806,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="196" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="195"/>
-      <c r="H1" s="195"/>
-      <c r="I1" s="195"/>
-      <c r="J1" s="195"/>
-      <c r="K1" s="195"/>
-      <c r="L1" s="195"/>
-      <c r="M1" s="195"/>
-      <c r="N1" s="195"/>
-      <c r="O1" s="195"/>
-      <c r="P1" s="195"/>
-      <c r="Q1" s="195"/>
-      <c r="R1" s="195"/>
-      <c r="S1" s="195"/>
-      <c r="T1" s="195"/>
-      <c r="U1" s="195"/>
-      <c r="V1" s="195"/>
-      <c r="W1" s="195"/>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="196"/>
+      <c r="L1" s="196"/>
+      <c r="M1" s="196"/>
+      <c r="N1" s="196"/>
+      <c r="O1" s="196"/>
+      <c r="P1" s="196"/>
+      <c r="Q1" s="196"/>
+      <c r="R1" s="196"/>
+      <c r="S1" s="196"/>
+      <c r="T1" s="196"/>
+      <c r="U1" s="196"/>
+      <c r="V1" s="196"/>
+      <c r="W1" s="196"/>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="196"/>
-      <c r="B2" s="196"/>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="196"/>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="196"/>
-      <c r="O2" s="196"/>
-      <c r="P2" s="196"/>
-      <c r="Q2" s="196"/>
-      <c r="R2" s="196"/>
-      <c r="S2" s="196"/>
-      <c r="T2" s="196"/>
-      <c r="U2" s="196"/>
-      <c r="V2" s="196"/>
-      <c r="W2" s="196"/>
+      <c r="A2" s="197"/>
+      <c r="B2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="197"/>
+      <c r="K2" s="197"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="197"/>
+      <c r="O2" s="197"/>
+      <c r="P2" s="197"/>
+      <c r="Q2" s="197"/>
+      <c r="R2" s="197"/>
+      <c r="S2" s="197"/>
+      <c r="T2" s="197"/>
+      <c r="U2" s="197"/>
+      <c r="V2" s="197"/>
+      <c r="W2" s="197"/>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="118" t="s">
@@ -24544,67 +25463,67 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F25:G28 B4:S24 H25:S33">
-    <cfRule type="cellIs" dxfId="43" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="15" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4:W28">
-    <cfRule type="cellIs" dxfId="42" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="13" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="14" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:S25">
-    <cfRule type="cellIs" dxfId="40" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="12" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W25">
-    <cfRule type="cellIs" dxfId="39" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="10" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="11" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:S28">
-    <cfRule type="cellIs" dxfId="37" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="9" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W26:W28">
-    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="7" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="8" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:G33">
-    <cfRule type="cellIs" dxfId="34" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="6" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W29:W33">
-    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="5" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:S33">
-    <cfRule type="cellIs" dxfId="31" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W29:W33">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2023년 락클럽 에버관리.xlsx
+++ b/2023년 락클럽 에버관리.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="539">
   <si>
     <t>적요</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -2021,6 +2021,122 @@
   </si>
   <si>
     <t>12월셋째주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023 樂 클럽 10월 셋째주 정기전 종합</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>정승우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이정훈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이유선</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>권순호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김휘정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김현배</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박재성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이선화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김인기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진해진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박정구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김준호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지병규</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양현규</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023 樂 클럽 11월 첫째주 정기전 종합</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>박재성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김인기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정승우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김준호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박종훈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양현규</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이선화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진해진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이정훈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이유선</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김범승</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김현배</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>권순호</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2880,7 +2996,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -3307,6 +3423,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3551,13 +3670,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3598,266 +3717,7 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="80">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="43">
     <dxf>
       <font>
         <b/>
@@ -4908,33 +4768,33 @@
       <c r="DG4" s="4"/>
     </row>
     <row r="5" spans="2:111" ht="20.100000000000001" customHeight="1">
-      <c r="S5" s="184" t="s">
+      <c r="S5" s="185" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="191" t="s">
+      <c r="T5" s="192" t="s">
         <v>17</v>
       </c>
-      <c r="U5" s="192"/>
-      <c r="V5" s="192"/>
-      <c r="W5" s="193"/>
-      <c r="X5" s="191" t="s">
+      <c r="U5" s="193"/>
+      <c r="V5" s="193"/>
+      <c r="W5" s="194"/>
+      <c r="X5" s="192" t="s">
         <v>18</v>
       </c>
-      <c r="Y5" s="192"/>
-      <c r="Z5" s="192"/>
-      <c r="AA5" s="193"/>
-      <c r="AB5" s="191" t="s">
+      <c r="Y5" s="193"/>
+      <c r="Z5" s="193"/>
+      <c r="AA5" s="194"/>
+      <c r="AB5" s="192" t="s">
         <v>19</v>
       </c>
-      <c r="AC5" s="192"/>
-      <c r="AD5" s="192"/>
-      <c r="AE5" s="193"/>
-      <c r="AF5" s="191" t="s">
+      <c r="AC5" s="193"/>
+      <c r="AD5" s="193"/>
+      <c r="AE5" s="194"/>
+      <c r="AF5" s="192" t="s">
         <v>20</v>
       </c>
-      <c r="AG5" s="192"/>
-      <c r="AH5" s="192"/>
-      <c r="AI5" s="194"/>
+      <c r="AG5" s="193"/>
+      <c r="AH5" s="193"/>
+      <c r="AI5" s="195"/>
       <c r="AM5" s="4"/>
       <c r="AN5" s="4"/>
       <c r="AO5" s="4"/>
@@ -4953,23 +4813,23 @@
       <c r="BB5" s="4"/>
       <c r="BC5" s="4"/>
       <c r="BD5" s="4"/>
-      <c r="BE5" s="195"/>
-      <c r="BF5" s="136"/>
-      <c r="BG5" s="136"/>
-      <c r="BH5" s="136"/>
-      <c r="BI5" s="136"/>
-      <c r="BJ5" s="136"/>
-      <c r="BK5" s="136"/>
-      <c r="BL5" s="136"/>
-      <c r="BM5" s="136"/>
-      <c r="BN5" s="136"/>
-      <c r="BO5" s="136"/>
-      <c r="BP5" s="136"/>
-      <c r="BQ5" s="136"/>
-      <c r="BR5" s="136"/>
-      <c r="BS5" s="136"/>
-      <c r="BT5" s="136"/>
-      <c r="BU5" s="136"/>
+      <c r="BE5" s="196"/>
+      <c r="BF5" s="137"/>
+      <c r="BG5" s="137"/>
+      <c r="BH5" s="137"/>
+      <c r="BI5" s="137"/>
+      <c r="BJ5" s="137"/>
+      <c r="BK5" s="137"/>
+      <c r="BL5" s="137"/>
+      <c r="BM5" s="137"/>
+      <c r="BN5" s="137"/>
+      <c r="BO5" s="137"/>
+      <c r="BP5" s="137"/>
+      <c r="BQ5" s="137"/>
+      <c r="BR5" s="137"/>
+      <c r="BS5" s="137"/>
+      <c r="BT5" s="137"/>
+      <c r="BU5" s="137"/>
       <c r="BV5" s="14"/>
       <c r="BW5" s="14"/>
       <c r="BX5" s="14"/>
@@ -5019,23 +4879,23 @@
       <c r="O6" s="17"/>
       <c r="P6" s="17"/>
       <c r="Q6" s="17"/>
-      <c r="S6" s="185"/>
-      <c r="T6" s="186"/>
-      <c r="U6" s="187"/>
-      <c r="V6" s="187"/>
-      <c r="W6" s="188"/>
-      <c r="X6" s="186"/>
-      <c r="Y6" s="187"/>
-      <c r="Z6" s="187"/>
-      <c r="AA6" s="188"/>
-      <c r="AB6" s="186"/>
-      <c r="AC6" s="187"/>
-      <c r="AD6" s="187"/>
-      <c r="AE6" s="188"/>
-      <c r="AF6" s="186"/>
-      <c r="AG6" s="187"/>
-      <c r="AH6" s="187"/>
-      <c r="AI6" s="189"/>
+      <c r="S6" s="186"/>
+      <c r="T6" s="187"/>
+      <c r="U6" s="188"/>
+      <c r="V6" s="188"/>
+      <c r="W6" s="189"/>
+      <c r="X6" s="187"/>
+      <c r="Y6" s="188"/>
+      <c r="Z6" s="188"/>
+      <c r="AA6" s="189"/>
+      <c r="AB6" s="187"/>
+      <c r="AC6" s="188"/>
+      <c r="AD6" s="188"/>
+      <c r="AE6" s="189"/>
+      <c r="AF6" s="187"/>
+      <c r="AG6" s="188"/>
+      <c r="AH6" s="188"/>
+      <c r="AI6" s="190"/>
       <c r="AM6" s="18"/>
       <c r="AN6" s="4"/>
       <c r="AO6" s="4"/>
@@ -5054,23 +4914,23 @@
       <c r="BB6" s="19"/>
       <c r="BC6" s="19"/>
       <c r="BD6" s="4"/>
-      <c r="BE6" s="195"/>
-      <c r="BF6" s="190"/>
-      <c r="BG6" s="190"/>
-      <c r="BH6" s="190"/>
-      <c r="BI6" s="190"/>
-      <c r="BJ6" s="190"/>
-      <c r="BK6" s="190"/>
-      <c r="BL6" s="190"/>
-      <c r="BM6" s="190"/>
-      <c r="BN6" s="190"/>
-      <c r="BO6" s="190"/>
-      <c r="BP6" s="190"/>
-      <c r="BQ6" s="190"/>
-      <c r="BR6" s="190"/>
-      <c r="BS6" s="190"/>
-      <c r="BT6" s="190"/>
-      <c r="BU6" s="190"/>
+      <c r="BE6" s="196"/>
+      <c r="BF6" s="191"/>
+      <c r="BG6" s="191"/>
+      <c r="BH6" s="191"/>
+      <c r="BI6" s="191"/>
+      <c r="BJ6" s="191"/>
+      <c r="BK6" s="191"/>
+      <c r="BL6" s="191"/>
+      <c r="BM6" s="191"/>
+      <c r="BN6" s="191"/>
+      <c r="BO6" s="191"/>
+      <c r="BP6" s="191"/>
+      <c r="BQ6" s="191"/>
+      <c r="BR6" s="191"/>
+      <c r="BS6" s="191"/>
+      <c r="BT6" s="191"/>
+      <c r="BU6" s="191"/>
       <c r="BV6" s="20"/>
       <c r="BW6" s="20"/>
       <c r="BX6" s="20"/>
@@ -5096,77 +4956,77 @@
       <c r="DG6" s="20"/>
     </row>
     <row r="7" spans="2:111" ht="65.099999999999994" customHeight="1">
-      <c r="B7" s="173" t="s">
+      <c r="B7" s="174" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="174"/>
-      <c r="D7" s="174"/>
-      <c r="E7" s="174"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="174"/>
-      <c r="H7" s="174"/>
-      <c r="I7" s="174"/>
-      <c r="J7" s="174"/>
-      <c r="K7" s="174"/>
-      <c r="L7" s="174"/>
-      <c r="M7" s="174"/>
-      <c r="N7" s="174"/>
-      <c r="O7" s="174"/>
-      <c r="P7" s="174"/>
-      <c r="Q7" s="174"/>
-      <c r="R7" s="174"/>
-      <c r="S7" s="174"/>
-      <c r="T7" s="174"/>
-      <c r="U7" s="174"/>
-      <c r="V7" s="174"/>
-      <c r="W7" s="174"/>
-      <c r="X7" s="174"/>
-      <c r="Y7" s="174"/>
-      <c r="Z7" s="174"/>
-      <c r="AA7" s="174"/>
-      <c r="AB7" s="174"/>
-      <c r="AC7" s="174"/>
-      <c r="AD7" s="174"/>
-      <c r="AE7" s="174"/>
-      <c r="AF7" s="174"/>
-      <c r="AG7" s="174"/>
-      <c r="AH7" s="174"/>
-      <c r="AI7" s="175"/>
+      <c r="C7" s="175"/>
+      <c r="D7" s="175"/>
+      <c r="E7" s="175"/>
+      <c r="F7" s="175"/>
+      <c r="G7" s="175"/>
+      <c r="H7" s="175"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="175"/>
+      <c r="K7" s="175"/>
+      <c r="L7" s="175"/>
+      <c r="M7" s="175"/>
+      <c r="N7" s="175"/>
+      <c r="O7" s="175"/>
+      <c r="P7" s="175"/>
+      <c r="Q7" s="175"/>
+      <c r="R7" s="175"/>
+      <c r="S7" s="175"/>
+      <c r="T7" s="175"/>
+      <c r="U7" s="175"/>
+      <c r="V7" s="175"/>
+      <c r="W7" s="175"/>
+      <c r="X7" s="175"/>
+      <c r="Y7" s="175"/>
+      <c r="Z7" s="175"/>
+      <c r="AA7" s="175"/>
+      <c r="AB7" s="175"/>
+      <c r="AC7" s="175"/>
+      <c r="AD7" s="175"/>
+      <c r="AE7" s="175"/>
+      <c r="AF7" s="175"/>
+      <c r="AG7" s="175"/>
+      <c r="AH7" s="175"/>
+      <c r="AI7" s="176"/>
       <c r="AM7" s="18"/>
-      <c r="AN7" s="176"/>
-      <c r="AO7" s="176"/>
-      <c r="AP7" s="176"/>
-      <c r="AQ7" s="176"/>
-      <c r="AR7" s="176"/>
-      <c r="AS7" s="176"/>
-      <c r="AT7" s="176"/>
-      <c r="AU7" s="176"/>
-      <c r="AV7" s="176"/>
-      <c r="AW7" s="176"/>
-      <c r="AX7" s="176"/>
-      <c r="AY7" s="176"/>
-      <c r="AZ7" s="176"/>
-      <c r="BA7" s="176"/>
-      <c r="BB7" s="176"/>
-      <c r="BC7" s="176"/>
-      <c r="BD7" s="176"/>
-      <c r="BE7" s="176"/>
-      <c r="BF7" s="176"/>
-      <c r="BG7" s="176"/>
-      <c r="BH7" s="176"/>
-      <c r="BI7" s="176"/>
-      <c r="BJ7" s="176"/>
-      <c r="BK7" s="176"/>
-      <c r="BL7" s="176"/>
-      <c r="BM7" s="176"/>
-      <c r="BN7" s="176"/>
-      <c r="BO7" s="176"/>
-      <c r="BP7" s="176"/>
-      <c r="BQ7" s="176"/>
-      <c r="BR7" s="176"/>
-      <c r="BS7" s="176"/>
-      <c r="BT7" s="176"/>
-      <c r="BU7" s="176"/>
+      <c r="AN7" s="177"/>
+      <c r="AO7" s="177"/>
+      <c r="AP7" s="177"/>
+      <c r="AQ7" s="177"/>
+      <c r="AR7" s="177"/>
+      <c r="AS7" s="177"/>
+      <c r="AT7" s="177"/>
+      <c r="AU7" s="177"/>
+      <c r="AV7" s="177"/>
+      <c r="AW7" s="177"/>
+      <c r="AX7" s="177"/>
+      <c r="AY7" s="177"/>
+      <c r="AZ7" s="177"/>
+      <c r="BA7" s="177"/>
+      <c r="BB7" s="177"/>
+      <c r="BC7" s="177"/>
+      <c r="BD7" s="177"/>
+      <c r="BE7" s="177"/>
+      <c r="BF7" s="177"/>
+      <c r="BG7" s="177"/>
+      <c r="BH7" s="177"/>
+      <c r="BI7" s="177"/>
+      <c r="BJ7" s="177"/>
+      <c r="BK7" s="177"/>
+      <c r="BL7" s="177"/>
+      <c r="BM7" s="177"/>
+      <c r="BN7" s="177"/>
+      <c r="BO7" s="177"/>
+      <c r="BP7" s="177"/>
+      <c r="BQ7" s="177"/>
+      <c r="BR7" s="177"/>
+      <c r="BS7" s="177"/>
+      <c r="BT7" s="177"/>
+      <c r="BU7" s="177"/>
       <c r="BV7" s="21"/>
       <c r="BW7" s="21"/>
       <c r="BX7" s="21"/>
@@ -5195,30 +5055,30 @@
       <c r="DG7" s="21"/>
     </row>
     <row r="8" spans="2:111" ht="30" customHeight="1">
-      <c r="B8" s="177" t="s">
+      <c r="B8" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="178"/>
-      <c r="D8" s="178"/>
-      <c r="E8" s="179">
+      <c r="C8" s="179"/>
+      <c r="D8" s="179"/>
+      <c r="E8" s="180">
         <f>SUM(S14:AA23)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="179"/>
-      <c r="G8" s="179"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="179"/>
-      <c r="J8" s="179"/>
-      <c r="K8" s="179"/>
-      <c r="L8" s="179"/>
-      <c r="M8" s="179"/>
-      <c r="N8" s="179"/>
-      <c r="O8" s="179"/>
-      <c r="P8" s="179"/>
-      <c r="Q8" s="179"/>
-      <c r="R8" s="179"/>
-      <c r="S8" s="179"/>
-      <c r="T8" s="179"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="180"/>
+      <c r="H8" s="180"/>
+      <c r="I8" s="180"/>
+      <c r="J8" s="180"/>
+      <c r="K8" s="180"/>
+      <c r="L8" s="180"/>
+      <c r="M8" s="180"/>
+      <c r="N8" s="180"/>
+      <c r="O8" s="180"/>
+      <c r="P8" s="180"/>
+      <c r="Q8" s="180"/>
+      <c r="R8" s="180"/>
+      <c r="S8" s="180"/>
+      <c r="T8" s="180"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4" t="s">
         <v>23</v>
@@ -5231,54 +5091,54 @@
       <c r="Z8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA8" s="180">
+      <c r="AA8" s="181">
         <f>E8</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="180"/>
-      <c r="AC8" s="180"/>
-      <c r="AD8" s="180"/>
-      <c r="AE8" s="180"/>
-      <c r="AF8" s="180"/>
-      <c r="AG8" s="180"/>
-      <c r="AH8" s="180"/>
+      <c r="AB8" s="181"/>
+      <c r="AC8" s="181"/>
+      <c r="AD8" s="181"/>
+      <c r="AE8" s="181"/>
+      <c r="AF8" s="181"/>
+      <c r="AG8" s="181"/>
+      <c r="AH8" s="181"/>
       <c r="AI8" s="23" t="s">
         <v>26</v>
       </c>
       <c r="AM8" s="4"/>
-      <c r="AN8" s="181"/>
-      <c r="AO8" s="181"/>
-      <c r="AP8" s="181"/>
-      <c r="AQ8" s="182"/>
-      <c r="AR8" s="182"/>
-      <c r="AS8" s="182"/>
-      <c r="AT8" s="182"/>
-      <c r="AU8" s="182"/>
-      <c r="AV8" s="182"/>
-      <c r="AW8" s="182"/>
-      <c r="AX8" s="182"/>
-      <c r="AY8" s="182"/>
-      <c r="AZ8" s="182"/>
-      <c r="BA8" s="182"/>
-      <c r="BB8" s="182"/>
-      <c r="BC8" s="182"/>
-      <c r="BD8" s="182"/>
-      <c r="BE8" s="182"/>
-      <c r="BF8" s="182"/>
+      <c r="AN8" s="182"/>
+      <c r="AO8" s="182"/>
+      <c r="AP8" s="182"/>
+      <c r="AQ8" s="183"/>
+      <c r="AR8" s="183"/>
+      <c r="AS8" s="183"/>
+      <c r="AT8" s="183"/>
+      <c r="AU8" s="183"/>
+      <c r="AV8" s="183"/>
+      <c r="AW8" s="183"/>
+      <c r="AX8" s="183"/>
+      <c r="AY8" s="183"/>
+      <c r="AZ8" s="183"/>
+      <c r="BA8" s="183"/>
+      <c r="BB8" s="183"/>
+      <c r="BC8" s="183"/>
+      <c r="BD8" s="183"/>
+      <c r="BE8" s="183"/>
+      <c r="BF8" s="183"/>
       <c r="BG8" s="4"/>
       <c r="BH8" s="4"/>
       <c r="BI8" s="4"/>
       <c r="BJ8" s="4"/>
       <c r="BK8" s="4"/>
       <c r="BL8" s="4"/>
-      <c r="BM8" s="183"/>
-      <c r="BN8" s="183"/>
-      <c r="BO8" s="183"/>
-      <c r="BP8" s="183"/>
-      <c r="BQ8" s="183"/>
-      <c r="BR8" s="183"/>
-      <c r="BS8" s="183"/>
-      <c r="BT8" s="183"/>
+      <c r="BM8" s="184"/>
+      <c r="BN8" s="184"/>
+      <c r="BO8" s="184"/>
+      <c r="BP8" s="184"/>
+      <c r="BQ8" s="184"/>
+      <c r="BR8" s="184"/>
+      <c r="BS8" s="184"/>
+      <c r="BT8" s="184"/>
       <c r="BU8" s="4"/>
       <c r="BV8" s="4"/>
       <c r="BW8" s="4"/>
@@ -5310,83 +5170,83 @@
       <c r="DG8" s="4"/>
     </row>
     <row r="9" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B9" s="165" t="s">
+      <c r="B9" s="166" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="166"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="168">
+      <c r="C9" s="167"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="169">
         <v>44351</v>
       </c>
-      <c r="F9" s="169"/>
-      <c r="G9" s="169"/>
-      <c r="H9" s="169"/>
-      <c r="I9" s="169"/>
-      <c r="J9" s="169"/>
-      <c r="K9" s="169"/>
-      <c r="L9" s="169"/>
-      <c r="M9" s="169"/>
-      <c r="N9" s="169"/>
-      <c r="O9" s="169"/>
-      <c r="P9" s="169"/>
-      <c r="Q9" s="169"/>
-      <c r="R9" s="170"/>
-      <c r="S9" s="171" t="s">
+      <c r="F9" s="170"/>
+      <c r="G9" s="170"/>
+      <c r="H9" s="170"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="170"/>
+      <c r="K9" s="170"/>
+      <c r="L9" s="170"/>
+      <c r="M9" s="170"/>
+      <c r="N9" s="170"/>
+      <c r="O9" s="170"/>
+      <c r="P9" s="170"/>
+      <c r="Q9" s="170"/>
+      <c r="R9" s="171"/>
+      <c r="S9" s="172" t="s">
         <v>28</v>
       </c>
-      <c r="T9" s="167"/>
-      <c r="U9" s="171"/>
-      <c r="V9" s="166"/>
-      <c r="W9" s="166"/>
-      <c r="X9" s="166"/>
-      <c r="Y9" s="166"/>
-      <c r="Z9" s="166"/>
-      <c r="AA9" s="167"/>
-      <c r="AB9" s="171" t="s">
+      <c r="T9" s="168"/>
+      <c r="U9" s="172"/>
+      <c r="V9" s="167"/>
+      <c r="W9" s="167"/>
+      <c r="X9" s="167"/>
+      <c r="Y9" s="167"/>
+      <c r="Z9" s="167"/>
+      <c r="AA9" s="168"/>
+      <c r="AB9" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="AC9" s="166"/>
-      <c r="AD9" s="166"/>
-      <c r="AE9" s="167"/>
-      <c r="AF9" s="171"/>
-      <c r="AG9" s="166"/>
-      <c r="AH9" s="166"/>
-      <c r="AI9" s="172"/>
+      <c r="AC9" s="167"/>
+      <c r="AD9" s="167"/>
+      <c r="AE9" s="168"/>
+      <c r="AF9" s="172"/>
+      <c r="AG9" s="167"/>
+      <c r="AH9" s="167"/>
+      <c r="AI9" s="173"/>
       <c r="AM9" s="4"/>
-      <c r="AN9" s="136"/>
-      <c r="AO9" s="136"/>
-      <c r="AP9" s="136"/>
-      <c r="AQ9" s="141"/>
-      <c r="AR9" s="141"/>
-      <c r="AS9" s="141"/>
-      <c r="AT9" s="141"/>
-      <c r="AU9" s="141"/>
-      <c r="AV9" s="141"/>
-      <c r="AW9" s="141"/>
-      <c r="AX9" s="141"/>
-      <c r="AY9" s="141"/>
-      <c r="AZ9" s="141"/>
-      <c r="BA9" s="141"/>
-      <c r="BB9" s="141"/>
-      <c r="BC9" s="141"/>
-      <c r="BD9" s="141"/>
-      <c r="BE9" s="136"/>
-      <c r="BF9" s="136"/>
-      <c r="BG9" s="136"/>
-      <c r="BH9" s="136"/>
-      <c r="BI9" s="136"/>
-      <c r="BJ9" s="136"/>
-      <c r="BK9" s="136"/>
-      <c r="BL9" s="136"/>
-      <c r="BM9" s="136"/>
-      <c r="BN9" s="136"/>
-      <c r="BO9" s="136"/>
-      <c r="BP9" s="136"/>
-      <c r="BQ9" s="136"/>
-      <c r="BR9" s="136"/>
-      <c r="BS9" s="136"/>
-      <c r="BT9" s="136"/>
-      <c r="BU9" s="136"/>
+      <c r="AN9" s="137"/>
+      <c r="AO9" s="137"/>
+      <c r="AP9" s="137"/>
+      <c r="AQ9" s="142"/>
+      <c r="AR9" s="142"/>
+      <c r="AS9" s="142"/>
+      <c r="AT9" s="142"/>
+      <c r="AU9" s="142"/>
+      <c r="AV9" s="142"/>
+      <c r="AW9" s="142"/>
+      <c r="AX9" s="142"/>
+      <c r="AY9" s="142"/>
+      <c r="AZ9" s="142"/>
+      <c r="BA9" s="142"/>
+      <c r="BB9" s="142"/>
+      <c r="BC9" s="142"/>
+      <c r="BD9" s="142"/>
+      <c r="BE9" s="137"/>
+      <c r="BF9" s="137"/>
+      <c r="BG9" s="137"/>
+      <c r="BH9" s="137"/>
+      <c r="BI9" s="137"/>
+      <c r="BJ9" s="137"/>
+      <c r="BK9" s="137"/>
+      <c r="BL9" s="137"/>
+      <c r="BM9" s="137"/>
+      <c r="BN9" s="137"/>
+      <c r="BO9" s="137"/>
+      <c r="BP9" s="137"/>
+      <c r="BQ9" s="137"/>
+      <c r="BR9" s="137"/>
+      <c r="BS9" s="137"/>
+      <c r="BT9" s="137"/>
+      <c r="BU9" s="137"/>
       <c r="BV9" s="14"/>
       <c r="BW9" s="14"/>
       <c r="BX9" s="14"/>
@@ -5427,83 +5287,83 @@
       <c r="DG9" s="14"/>
     </row>
     <row r="10" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B10" s="165" t="s">
+      <c r="B10" s="166" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="166"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="168" t="s">
+      <c r="C10" s="167"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="169" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="169"/>
-      <c r="G10" s="169"/>
-      <c r="H10" s="169"/>
-      <c r="I10" s="169"/>
-      <c r="J10" s="169"/>
-      <c r="K10" s="169"/>
-      <c r="L10" s="169"/>
-      <c r="M10" s="169"/>
-      <c r="N10" s="169"/>
-      <c r="O10" s="169"/>
-      <c r="P10" s="169"/>
-      <c r="Q10" s="169"/>
-      <c r="R10" s="170"/>
-      <c r="S10" s="171" t="s">
+      <c r="F10" s="170"/>
+      <c r="G10" s="170"/>
+      <c r="H10" s="170"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="170"/>
+      <c r="K10" s="170"/>
+      <c r="L10" s="170"/>
+      <c r="M10" s="170"/>
+      <c r="N10" s="170"/>
+      <c r="O10" s="170"/>
+      <c r="P10" s="170"/>
+      <c r="Q10" s="170"/>
+      <c r="R10" s="171"/>
+      <c r="S10" s="172" t="s">
         <v>28</v>
       </c>
-      <c r="T10" s="167"/>
-      <c r="U10" s="171"/>
-      <c r="V10" s="166"/>
-      <c r="W10" s="166"/>
-      <c r="X10" s="166"/>
-      <c r="Y10" s="166"/>
-      <c r="Z10" s="166"/>
-      <c r="AA10" s="167"/>
-      <c r="AB10" s="171" t="s">
+      <c r="T10" s="168"/>
+      <c r="U10" s="172"/>
+      <c r="V10" s="167"/>
+      <c r="W10" s="167"/>
+      <c r="X10" s="167"/>
+      <c r="Y10" s="167"/>
+      <c r="Z10" s="167"/>
+      <c r="AA10" s="168"/>
+      <c r="AB10" s="172" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="166"/>
-      <c r="AD10" s="166"/>
-      <c r="AE10" s="166"/>
-      <c r="AF10" s="166"/>
-      <c r="AG10" s="166"/>
-      <c r="AH10" s="166"/>
-      <c r="AI10" s="172"/>
+      <c r="AC10" s="167"/>
+      <c r="AD10" s="167"/>
+      <c r="AE10" s="167"/>
+      <c r="AF10" s="167"/>
+      <c r="AG10" s="167"/>
+      <c r="AH10" s="167"/>
+      <c r="AI10" s="173"/>
       <c r="AM10" s="4"/>
-      <c r="AN10" s="136"/>
-      <c r="AO10" s="136"/>
-      <c r="AP10" s="136"/>
-      <c r="AQ10" s="141"/>
-      <c r="AR10" s="141"/>
-      <c r="AS10" s="141"/>
-      <c r="AT10" s="141"/>
-      <c r="AU10" s="141"/>
-      <c r="AV10" s="141"/>
-      <c r="AW10" s="141"/>
-      <c r="AX10" s="141"/>
-      <c r="AY10" s="141"/>
-      <c r="AZ10" s="141"/>
-      <c r="BA10" s="141"/>
-      <c r="BB10" s="141"/>
-      <c r="BC10" s="141"/>
-      <c r="BD10" s="141"/>
-      <c r="BE10" s="136"/>
-      <c r="BF10" s="136"/>
-      <c r="BG10" s="136"/>
-      <c r="BH10" s="136"/>
-      <c r="BI10" s="136"/>
-      <c r="BJ10" s="136"/>
-      <c r="BK10" s="136"/>
-      <c r="BL10" s="136"/>
-      <c r="BM10" s="136"/>
-      <c r="BN10" s="136"/>
-      <c r="BO10" s="136"/>
-      <c r="BP10" s="136"/>
-      <c r="BQ10" s="136"/>
-      <c r="BR10" s="136"/>
-      <c r="BS10" s="136"/>
-      <c r="BT10" s="136"/>
-      <c r="BU10" s="136"/>
+      <c r="AN10" s="137"/>
+      <c r="AO10" s="137"/>
+      <c r="AP10" s="137"/>
+      <c r="AQ10" s="142"/>
+      <c r="AR10" s="142"/>
+      <c r="AS10" s="142"/>
+      <c r="AT10" s="142"/>
+      <c r="AU10" s="142"/>
+      <c r="AV10" s="142"/>
+      <c r="AW10" s="142"/>
+      <c r="AX10" s="142"/>
+      <c r="AY10" s="142"/>
+      <c r="AZ10" s="142"/>
+      <c r="BA10" s="142"/>
+      <c r="BB10" s="142"/>
+      <c r="BC10" s="142"/>
+      <c r="BD10" s="142"/>
+      <c r="BE10" s="137"/>
+      <c r="BF10" s="137"/>
+      <c r="BG10" s="137"/>
+      <c r="BH10" s="137"/>
+      <c r="BI10" s="137"/>
+      <c r="BJ10" s="137"/>
+      <c r="BK10" s="137"/>
+      <c r="BL10" s="137"/>
+      <c r="BM10" s="137"/>
+      <c r="BN10" s="137"/>
+      <c r="BO10" s="137"/>
+      <c r="BP10" s="137"/>
+      <c r="BQ10" s="137"/>
+      <c r="BR10" s="137"/>
+      <c r="BS10" s="137"/>
+      <c r="BT10" s="137"/>
+      <c r="BU10" s="137"/>
       <c r="BV10" s="14"/>
       <c r="BW10" s="14"/>
       <c r="BX10" s="14"/>
@@ -5544,81 +5404,81 @@
       <c r="DG10" s="14"/>
     </row>
     <row r="11" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B11" s="165" t="s">
+      <c r="B11" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="166"/>
-      <c r="D11" s="167"/>
-      <c r="E11" s="168" t="s">
+      <c r="C11" s="167"/>
+      <c r="D11" s="168"/>
+      <c r="E11" s="169" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="169"/>
-      <c r="G11" s="169"/>
-      <c r="H11" s="169"/>
-      <c r="I11" s="169"/>
-      <c r="J11" s="169"/>
-      <c r="K11" s="169"/>
-      <c r="L11" s="169"/>
-      <c r="M11" s="169"/>
-      <c r="N11" s="169"/>
-      <c r="O11" s="169"/>
-      <c r="P11" s="169"/>
-      <c r="Q11" s="169"/>
-      <c r="R11" s="170"/>
-      <c r="S11" s="171" t="s">
+      <c r="F11" s="170"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="170"/>
+      <c r="J11" s="170"/>
+      <c r="K11" s="170"/>
+      <c r="L11" s="170"/>
+      <c r="M11" s="170"/>
+      <c r="N11" s="170"/>
+      <c r="O11" s="170"/>
+      <c r="P11" s="170"/>
+      <c r="Q11" s="170"/>
+      <c r="R11" s="171"/>
+      <c r="S11" s="172" t="s">
         <v>28</v>
       </c>
-      <c r="T11" s="167"/>
-      <c r="U11" s="171"/>
-      <c r="V11" s="166"/>
-      <c r="W11" s="166"/>
-      <c r="X11" s="166"/>
-      <c r="Y11" s="166"/>
-      <c r="Z11" s="166"/>
-      <c r="AA11" s="167"/>
-      <c r="AB11" s="171"/>
-      <c r="AC11" s="166"/>
-      <c r="AD11" s="166"/>
-      <c r="AE11" s="166"/>
-      <c r="AF11" s="166"/>
-      <c r="AG11" s="166"/>
-      <c r="AH11" s="166"/>
-      <c r="AI11" s="172"/>
+      <c r="T11" s="168"/>
+      <c r="U11" s="172"/>
+      <c r="V11" s="167"/>
+      <c r="W11" s="167"/>
+      <c r="X11" s="167"/>
+      <c r="Y11" s="167"/>
+      <c r="Z11" s="167"/>
+      <c r="AA11" s="168"/>
+      <c r="AB11" s="172"/>
+      <c r="AC11" s="167"/>
+      <c r="AD11" s="167"/>
+      <c r="AE11" s="167"/>
+      <c r="AF11" s="167"/>
+      <c r="AG11" s="167"/>
+      <c r="AH11" s="167"/>
+      <c r="AI11" s="173"/>
       <c r="AM11" s="4"/>
-      <c r="AN11" s="136"/>
-      <c r="AO11" s="136"/>
-      <c r="AP11" s="136"/>
-      <c r="AQ11" s="141"/>
-      <c r="AR11" s="141"/>
-      <c r="AS11" s="141"/>
-      <c r="AT11" s="141"/>
-      <c r="AU11" s="141"/>
-      <c r="AV11" s="141"/>
-      <c r="AW11" s="141"/>
-      <c r="AX11" s="141"/>
-      <c r="AY11" s="141"/>
-      <c r="AZ11" s="141"/>
-      <c r="BA11" s="141"/>
-      <c r="BB11" s="141"/>
-      <c r="BC11" s="141"/>
-      <c r="BD11" s="141"/>
-      <c r="BE11" s="136"/>
-      <c r="BF11" s="136"/>
-      <c r="BG11" s="136"/>
-      <c r="BH11" s="136"/>
-      <c r="BI11" s="136"/>
-      <c r="BJ11" s="136"/>
-      <c r="BK11" s="136"/>
-      <c r="BL11" s="136"/>
-      <c r="BM11" s="136"/>
-      <c r="BN11" s="136"/>
-      <c r="BO11" s="136"/>
-      <c r="BP11" s="136"/>
-      <c r="BQ11" s="136"/>
-      <c r="BR11" s="136"/>
-      <c r="BS11" s="136"/>
-      <c r="BT11" s="136"/>
-      <c r="BU11" s="136"/>
+      <c r="AN11" s="137"/>
+      <c r="AO11" s="137"/>
+      <c r="AP11" s="137"/>
+      <c r="AQ11" s="142"/>
+      <c r="AR11" s="142"/>
+      <c r="AS11" s="142"/>
+      <c r="AT11" s="142"/>
+      <c r="AU11" s="142"/>
+      <c r="AV11" s="142"/>
+      <c r="AW11" s="142"/>
+      <c r="AX11" s="142"/>
+      <c r="AY11" s="142"/>
+      <c r="AZ11" s="142"/>
+      <c r="BA11" s="142"/>
+      <c r="BB11" s="142"/>
+      <c r="BC11" s="142"/>
+      <c r="BD11" s="142"/>
+      <c r="BE11" s="137"/>
+      <c r="BF11" s="137"/>
+      <c r="BG11" s="137"/>
+      <c r="BH11" s="137"/>
+      <c r="BI11" s="137"/>
+      <c r="BJ11" s="137"/>
+      <c r="BK11" s="137"/>
+      <c r="BL11" s="137"/>
+      <c r="BM11" s="137"/>
+      <c r="BN11" s="137"/>
+      <c r="BO11" s="137"/>
+      <c r="BP11" s="137"/>
+      <c r="BQ11" s="137"/>
+      <c r="BR11" s="137"/>
+      <c r="BS11" s="137"/>
+      <c r="BT11" s="137"/>
+      <c r="BU11" s="137"/>
       <c r="BV11" s="14"/>
       <c r="BW11" s="14"/>
       <c r="BX11" s="14"/>
@@ -5659,77 +5519,77 @@
       <c r="DG11" s="14"/>
     </row>
     <row r="12" spans="2:111" ht="30" customHeight="1">
-      <c r="B12" s="161" t="s">
+      <c r="B12" s="162" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="162"/>
-      <c r="D12" s="162"/>
-      <c r="E12" s="162"/>
-      <c r="F12" s="162"/>
-      <c r="G12" s="162"/>
-      <c r="H12" s="162"/>
-      <c r="I12" s="162"/>
-      <c r="J12" s="162"/>
-      <c r="K12" s="162"/>
-      <c r="L12" s="162"/>
-      <c r="M12" s="162"/>
-      <c r="N12" s="162"/>
-      <c r="O12" s="162"/>
-      <c r="P12" s="162"/>
-      <c r="Q12" s="162"/>
-      <c r="R12" s="162"/>
-      <c r="S12" s="162"/>
-      <c r="T12" s="162"/>
-      <c r="U12" s="162"/>
-      <c r="V12" s="162"/>
-      <c r="W12" s="162"/>
-      <c r="X12" s="162"/>
-      <c r="Y12" s="162"/>
-      <c r="Z12" s="162"/>
-      <c r="AA12" s="162"/>
-      <c r="AB12" s="162"/>
-      <c r="AC12" s="162"/>
-      <c r="AD12" s="162"/>
-      <c r="AE12" s="162"/>
-      <c r="AF12" s="162"/>
-      <c r="AG12" s="162"/>
-      <c r="AH12" s="162"/>
-      <c r="AI12" s="163"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="163"/>
+      <c r="E12" s="163"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="163"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="163"/>
+      <c r="L12" s="163"/>
+      <c r="M12" s="163"/>
+      <c r="N12" s="163"/>
+      <c r="O12" s="163"/>
+      <c r="P12" s="163"/>
+      <c r="Q12" s="163"/>
+      <c r="R12" s="163"/>
+      <c r="S12" s="163"/>
+      <c r="T12" s="163"/>
+      <c r="U12" s="163"/>
+      <c r="V12" s="163"/>
+      <c r="W12" s="163"/>
+      <c r="X12" s="163"/>
+      <c r="Y12" s="163"/>
+      <c r="Z12" s="163"/>
+      <c r="AA12" s="163"/>
+      <c r="AB12" s="163"/>
+      <c r="AC12" s="163"/>
+      <c r="AD12" s="163"/>
+      <c r="AE12" s="163"/>
+      <c r="AF12" s="163"/>
+      <c r="AG12" s="163"/>
+      <c r="AH12" s="163"/>
+      <c r="AI12" s="164"/>
       <c r="AM12" s="4"/>
-      <c r="AN12" s="164"/>
-      <c r="AO12" s="164"/>
-      <c r="AP12" s="164"/>
-      <c r="AQ12" s="164"/>
-      <c r="AR12" s="164"/>
-      <c r="AS12" s="164"/>
-      <c r="AT12" s="164"/>
-      <c r="AU12" s="164"/>
-      <c r="AV12" s="164"/>
-      <c r="AW12" s="164"/>
-      <c r="AX12" s="164"/>
-      <c r="AY12" s="164"/>
-      <c r="AZ12" s="164"/>
-      <c r="BA12" s="164"/>
-      <c r="BB12" s="164"/>
-      <c r="BC12" s="164"/>
-      <c r="BD12" s="164"/>
-      <c r="BE12" s="164"/>
-      <c r="BF12" s="164"/>
-      <c r="BG12" s="164"/>
-      <c r="BH12" s="164"/>
-      <c r="BI12" s="164"/>
-      <c r="BJ12" s="164"/>
-      <c r="BK12" s="164"/>
-      <c r="BL12" s="164"/>
-      <c r="BM12" s="164"/>
-      <c r="BN12" s="164"/>
-      <c r="BO12" s="164"/>
-      <c r="BP12" s="164"/>
-      <c r="BQ12" s="164"/>
-      <c r="BR12" s="164"/>
-      <c r="BS12" s="164"/>
-      <c r="BT12" s="164"/>
-      <c r="BU12" s="164"/>
+      <c r="AN12" s="165"/>
+      <c r="AO12" s="165"/>
+      <c r="AP12" s="165"/>
+      <c r="AQ12" s="165"/>
+      <c r="AR12" s="165"/>
+      <c r="AS12" s="165"/>
+      <c r="AT12" s="165"/>
+      <c r="AU12" s="165"/>
+      <c r="AV12" s="165"/>
+      <c r="AW12" s="165"/>
+      <c r="AX12" s="165"/>
+      <c r="AY12" s="165"/>
+      <c r="AZ12" s="165"/>
+      <c r="BA12" s="165"/>
+      <c r="BB12" s="165"/>
+      <c r="BC12" s="165"/>
+      <c r="BD12" s="165"/>
+      <c r="BE12" s="165"/>
+      <c r="BF12" s="165"/>
+      <c r="BG12" s="165"/>
+      <c r="BH12" s="165"/>
+      <c r="BI12" s="165"/>
+      <c r="BJ12" s="165"/>
+      <c r="BK12" s="165"/>
+      <c r="BL12" s="165"/>
+      <c r="BM12" s="165"/>
+      <c r="BN12" s="165"/>
+      <c r="BO12" s="165"/>
+      <c r="BP12" s="165"/>
+      <c r="BQ12" s="165"/>
+      <c r="BR12" s="165"/>
+      <c r="BS12" s="165"/>
+      <c r="BT12" s="165"/>
+      <c r="BU12" s="165"/>
       <c r="BV12" s="14"/>
       <c r="BW12" s="14"/>
       <c r="BX12" s="14"/>
@@ -5770,83 +5630,83 @@
       <c r="DG12" s="14"/>
     </row>
     <row r="13" spans="2:111" ht="30" customHeight="1">
-      <c r="B13" s="156" t="s">
+      <c r="B13" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="157"/>
-      <c r="D13" s="157"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="157"/>
-      <c r="I13" s="158"/>
-      <c r="J13" s="159" t="s">
+      <c r="C13" s="158"/>
+      <c r="D13" s="158"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="157"/>
-      <c r="L13" s="157"/>
-      <c r="M13" s="157"/>
-      <c r="N13" s="157"/>
-      <c r="O13" s="157"/>
-      <c r="P13" s="157"/>
-      <c r="Q13" s="157"/>
-      <c r="R13" s="158"/>
-      <c r="S13" s="159" t="s">
+      <c r="K13" s="158"/>
+      <c r="L13" s="158"/>
+      <c r="M13" s="158"/>
+      <c r="N13" s="158"/>
+      <c r="O13" s="158"/>
+      <c r="P13" s="158"/>
+      <c r="Q13" s="158"/>
+      <c r="R13" s="159"/>
+      <c r="S13" s="160" t="s">
         <v>35</v>
       </c>
-      <c r="T13" s="157"/>
-      <c r="U13" s="157"/>
-      <c r="V13" s="157"/>
-      <c r="W13" s="157"/>
-      <c r="X13" s="157"/>
-      <c r="Y13" s="157"/>
-      <c r="Z13" s="157"/>
-      <c r="AA13" s="158"/>
-      <c r="AB13" s="159" t="s">
+      <c r="T13" s="158"/>
+      <c r="U13" s="158"/>
+      <c r="V13" s="158"/>
+      <c r="W13" s="158"/>
+      <c r="X13" s="158"/>
+      <c r="Y13" s="158"/>
+      <c r="Z13" s="158"/>
+      <c r="AA13" s="159"/>
+      <c r="AB13" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="AC13" s="157"/>
-      <c r="AD13" s="157"/>
-      <c r="AE13" s="157"/>
-      <c r="AF13" s="157"/>
-      <c r="AG13" s="157"/>
-      <c r="AH13" s="157"/>
-      <c r="AI13" s="160"/>
+      <c r="AC13" s="158"/>
+      <c r="AD13" s="158"/>
+      <c r="AE13" s="158"/>
+      <c r="AF13" s="158"/>
+      <c r="AG13" s="158"/>
+      <c r="AH13" s="158"/>
+      <c r="AI13" s="161"/>
       <c r="AM13" s="4"/>
-      <c r="AN13" s="155"/>
-      <c r="AO13" s="155"/>
-      <c r="AP13" s="155"/>
-      <c r="AQ13" s="155"/>
-      <c r="AR13" s="155"/>
-      <c r="AS13" s="155"/>
-      <c r="AT13" s="155"/>
-      <c r="AU13" s="155"/>
-      <c r="AV13" s="155"/>
-      <c r="AW13" s="155"/>
-      <c r="AX13" s="155"/>
-      <c r="AY13" s="155"/>
-      <c r="AZ13" s="155"/>
-      <c r="BA13" s="155"/>
-      <c r="BB13" s="155"/>
-      <c r="BC13" s="155"/>
-      <c r="BD13" s="155"/>
-      <c r="BE13" s="155"/>
-      <c r="BF13" s="155"/>
-      <c r="BG13" s="155"/>
-      <c r="BH13" s="155"/>
-      <c r="BI13" s="155"/>
-      <c r="BJ13" s="155"/>
-      <c r="BK13" s="155"/>
-      <c r="BL13" s="155"/>
-      <c r="BM13" s="155"/>
-      <c r="BN13" s="155"/>
-      <c r="BO13" s="155"/>
-      <c r="BP13" s="155"/>
-      <c r="BQ13" s="155"/>
-      <c r="BR13" s="155"/>
-      <c r="BS13" s="155"/>
-      <c r="BT13" s="155"/>
-      <c r="BU13" s="155"/>
+      <c r="AN13" s="156"/>
+      <c r="AO13" s="156"/>
+      <c r="AP13" s="156"/>
+      <c r="AQ13" s="156"/>
+      <c r="AR13" s="156"/>
+      <c r="AS13" s="156"/>
+      <c r="AT13" s="156"/>
+      <c r="AU13" s="156"/>
+      <c r="AV13" s="156"/>
+      <c r="AW13" s="156"/>
+      <c r="AX13" s="156"/>
+      <c r="AY13" s="156"/>
+      <c r="AZ13" s="156"/>
+      <c r="BA13" s="156"/>
+      <c r="BB13" s="156"/>
+      <c r="BC13" s="156"/>
+      <c r="BD13" s="156"/>
+      <c r="BE13" s="156"/>
+      <c r="BF13" s="156"/>
+      <c r="BG13" s="156"/>
+      <c r="BH13" s="156"/>
+      <c r="BI13" s="156"/>
+      <c r="BJ13" s="156"/>
+      <c r="BK13" s="156"/>
+      <c r="BL13" s="156"/>
+      <c r="BM13" s="156"/>
+      <c r="BN13" s="156"/>
+      <c r="BO13" s="156"/>
+      <c r="BP13" s="156"/>
+      <c r="BQ13" s="156"/>
+      <c r="BR13" s="156"/>
+      <c r="BS13" s="156"/>
+      <c r="BT13" s="156"/>
+      <c r="BU13" s="156"/>
       <c r="BV13" s="14"/>
       <c r="BW13" s="14"/>
       <c r="BX13" s="14"/>
@@ -5887,75 +5747,75 @@
       <c r="DG13" s="14"/>
     </row>
     <row r="14" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B14" s="143"/>
-      <c r="C14" s="144"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="144"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="146"/>
-      <c r="K14" s="144"/>
-      <c r="L14" s="144"/>
-      <c r="M14" s="144"/>
-      <c r="N14" s="144"/>
-      <c r="O14" s="144"/>
-      <c r="P14" s="144"/>
-      <c r="Q14" s="144"/>
-      <c r="R14" s="145"/>
-      <c r="S14" s="147"/>
-      <c r="T14" s="148"/>
-      <c r="U14" s="148"/>
-      <c r="V14" s="148"/>
-      <c r="W14" s="148"/>
-      <c r="X14" s="148"/>
-      <c r="Y14" s="148"/>
-      <c r="Z14" s="148"/>
-      <c r="AA14" s="149"/>
-      <c r="AB14" s="152"/>
-      <c r="AC14" s="144"/>
-      <c r="AD14" s="144"/>
-      <c r="AE14" s="144"/>
-      <c r="AF14" s="144"/>
-      <c r="AG14" s="144"/>
-      <c r="AH14" s="144"/>
-      <c r="AI14" s="150"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="147"/>
+      <c r="K14" s="145"/>
+      <c r="L14" s="145"/>
+      <c r="M14" s="145"/>
+      <c r="N14" s="145"/>
+      <c r="O14" s="145"/>
+      <c r="P14" s="145"/>
+      <c r="Q14" s="145"/>
+      <c r="R14" s="146"/>
+      <c r="S14" s="148"/>
+      <c r="T14" s="149"/>
+      <c r="U14" s="149"/>
+      <c r="V14" s="149"/>
+      <c r="W14" s="149"/>
+      <c r="X14" s="149"/>
+      <c r="Y14" s="149"/>
+      <c r="Z14" s="149"/>
+      <c r="AA14" s="150"/>
+      <c r="AB14" s="153"/>
+      <c r="AC14" s="145"/>
+      <c r="AD14" s="145"/>
+      <c r="AE14" s="145"/>
+      <c r="AF14" s="145"/>
+      <c r="AG14" s="145"/>
+      <c r="AH14" s="145"/>
+      <c r="AI14" s="151"/>
       <c r="AM14" s="4"/>
-      <c r="AN14" s="139"/>
-      <c r="AO14" s="139"/>
-      <c r="AP14" s="139"/>
-      <c r="AQ14" s="139"/>
-      <c r="AR14" s="139"/>
-      <c r="AS14" s="139"/>
-      <c r="AT14" s="139"/>
-      <c r="AU14" s="139"/>
-      <c r="AV14" s="139"/>
-      <c r="AW14" s="139"/>
-      <c r="AX14" s="139"/>
-      <c r="AY14" s="139"/>
-      <c r="AZ14" s="139"/>
-      <c r="BA14" s="139"/>
-      <c r="BB14" s="139"/>
-      <c r="BC14" s="139"/>
-      <c r="BD14" s="139"/>
-      <c r="BE14" s="138"/>
-      <c r="BF14" s="138"/>
-      <c r="BG14" s="138"/>
-      <c r="BH14" s="138"/>
-      <c r="BI14" s="138"/>
-      <c r="BJ14" s="138"/>
-      <c r="BK14" s="138"/>
-      <c r="BL14" s="138"/>
-      <c r="BM14" s="138"/>
-      <c r="BN14" s="151"/>
-      <c r="BO14" s="139"/>
-      <c r="BP14" s="139"/>
-      <c r="BQ14" s="139"/>
-      <c r="BR14" s="139"/>
-      <c r="BS14" s="139"/>
-      <c r="BT14" s="139"/>
-      <c r="BU14" s="139"/>
+      <c r="AN14" s="140"/>
+      <c r="AO14" s="140"/>
+      <c r="AP14" s="140"/>
+      <c r="AQ14" s="140"/>
+      <c r="AR14" s="140"/>
+      <c r="AS14" s="140"/>
+      <c r="AT14" s="140"/>
+      <c r="AU14" s="140"/>
+      <c r="AV14" s="140"/>
+      <c r="AW14" s="140"/>
+      <c r="AX14" s="140"/>
+      <c r="AY14" s="140"/>
+      <c r="AZ14" s="140"/>
+      <c r="BA14" s="140"/>
+      <c r="BB14" s="140"/>
+      <c r="BC14" s="140"/>
+      <c r="BD14" s="140"/>
+      <c r="BE14" s="139"/>
+      <c r="BF14" s="139"/>
+      <c r="BG14" s="139"/>
+      <c r="BH14" s="139"/>
+      <c r="BI14" s="139"/>
+      <c r="BJ14" s="139"/>
+      <c r="BK14" s="139"/>
+      <c r="BL14" s="139"/>
+      <c r="BM14" s="139"/>
+      <c r="BN14" s="152"/>
+      <c r="BO14" s="140"/>
+      <c r="BP14" s="140"/>
+      <c r="BQ14" s="140"/>
+      <c r="BR14" s="140"/>
+      <c r="BS14" s="140"/>
+      <c r="BT14" s="140"/>
+      <c r="BU14" s="140"/>
       <c r="BV14" s="26"/>
       <c r="BW14" s="26"/>
       <c r="BX14" s="26"/>
@@ -5996,75 +5856,75 @@
       <c r="DG14" s="5"/>
     </row>
     <row r="15" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B15" s="143"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="146"/>
-      <c r="K15" s="144"/>
-      <c r="L15" s="144"/>
-      <c r="M15" s="144"/>
-      <c r="N15" s="144"/>
-      <c r="O15" s="144"/>
-      <c r="P15" s="144"/>
-      <c r="Q15" s="144"/>
-      <c r="R15" s="145"/>
-      <c r="S15" s="147"/>
-      <c r="T15" s="148"/>
-      <c r="U15" s="148"/>
-      <c r="V15" s="148"/>
-      <c r="W15" s="148"/>
-      <c r="X15" s="148"/>
-      <c r="Y15" s="148"/>
-      <c r="Z15" s="148"/>
-      <c r="AA15" s="149"/>
-      <c r="AB15" s="152"/>
-      <c r="AC15" s="144"/>
-      <c r="AD15" s="144"/>
-      <c r="AE15" s="144"/>
-      <c r="AF15" s="144"/>
-      <c r="AG15" s="144"/>
-      <c r="AH15" s="144"/>
-      <c r="AI15" s="150"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="145"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="147"/>
+      <c r="K15" s="145"/>
+      <c r="L15" s="145"/>
+      <c r="M15" s="145"/>
+      <c r="N15" s="145"/>
+      <c r="O15" s="145"/>
+      <c r="P15" s="145"/>
+      <c r="Q15" s="145"/>
+      <c r="R15" s="146"/>
+      <c r="S15" s="148"/>
+      <c r="T15" s="149"/>
+      <c r="U15" s="149"/>
+      <c r="V15" s="149"/>
+      <c r="W15" s="149"/>
+      <c r="X15" s="149"/>
+      <c r="Y15" s="149"/>
+      <c r="Z15" s="149"/>
+      <c r="AA15" s="150"/>
+      <c r="AB15" s="153"/>
+      <c r="AC15" s="145"/>
+      <c r="AD15" s="145"/>
+      <c r="AE15" s="145"/>
+      <c r="AF15" s="145"/>
+      <c r="AG15" s="145"/>
+      <c r="AH15" s="145"/>
+      <c r="AI15" s="151"/>
       <c r="AM15" s="4"/>
-      <c r="AN15" s="139"/>
-      <c r="AO15" s="139"/>
-      <c r="AP15" s="139"/>
-      <c r="AQ15" s="139"/>
-      <c r="AR15" s="139"/>
-      <c r="AS15" s="139"/>
-      <c r="AT15" s="139"/>
-      <c r="AU15" s="139"/>
-      <c r="AV15" s="139"/>
-      <c r="AW15" s="139"/>
-      <c r="AX15" s="139"/>
-      <c r="AY15" s="139"/>
-      <c r="AZ15" s="139"/>
-      <c r="BA15" s="139"/>
-      <c r="BB15" s="139"/>
-      <c r="BC15" s="139"/>
-      <c r="BD15" s="139"/>
-      <c r="BE15" s="138"/>
-      <c r="BF15" s="138"/>
-      <c r="BG15" s="138"/>
-      <c r="BH15" s="138"/>
-      <c r="BI15" s="138"/>
-      <c r="BJ15" s="138"/>
-      <c r="BK15" s="138"/>
-      <c r="BL15" s="138"/>
-      <c r="BM15" s="138"/>
-      <c r="BN15" s="151"/>
-      <c r="BO15" s="139"/>
-      <c r="BP15" s="139"/>
-      <c r="BQ15" s="139"/>
-      <c r="BR15" s="139"/>
-      <c r="BS15" s="139"/>
-      <c r="BT15" s="139"/>
-      <c r="BU15" s="139"/>
+      <c r="AN15" s="140"/>
+      <c r="AO15" s="140"/>
+      <c r="AP15" s="140"/>
+      <c r="AQ15" s="140"/>
+      <c r="AR15" s="140"/>
+      <c r="AS15" s="140"/>
+      <c r="AT15" s="140"/>
+      <c r="AU15" s="140"/>
+      <c r="AV15" s="140"/>
+      <c r="AW15" s="140"/>
+      <c r="AX15" s="140"/>
+      <c r="AY15" s="140"/>
+      <c r="AZ15" s="140"/>
+      <c r="BA15" s="140"/>
+      <c r="BB15" s="140"/>
+      <c r="BC15" s="140"/>
+      <c r="BD15" s="140"/>
+      <c r="BE15" s="139"/>
+      <c r="BF15" s="139"/>
+      <c r="BG15" s="139"/>
+      <c r="BH15" s="139"/>
+      <c r="BI15" s="139"/>
+      <c r="BJ15" s="139"/>
+      <c r="BK15" s="139"/>
+      <c r="BL15" s="139"/>
+      <c r="BM15" s="139"/>
+      <c r="BN15" s="152"/>
+      <c r="BO15" s="140"/>
+      <c r="BP15" s="140"/>
+      <c r="BQ15" s="140"/>
+      <c r="BR15" s="140"/>
+      <c r="BS15" s="140"/>
+      <c r="BT15" s="140"/>
+      <c r="BU15" s="140"/>
       <c r="BV15" s="26"/>
       <c r="BW15" s="26"/>
       <c r="BX15" s="26"/>
@@ -6105,75 +5965,75 @@
       <c r="DG15" s="5"/>
     </row>
     <row r="16" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B16" s="143"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="146"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
-      <c r="M16" s="144"/>
-      <c r="N16" s="144"/>
-      <c r="O16" s="144"/>
-      <c r="P16" s="144"/>
-      <c r="Q16" s="144"/>
-      <c r="R16" s="145"/>
-      <c r="S16" s="147"/>
-      <c r="T16" s="148"/>
-      <c r="U16" s="148"/>
-      <c r="V16" s="148"/>
-      <c r="W16" s="148"/>
-      <c r="X16" s="148"/>
-      <c r="Y16" s="148"/>
-      <c r="Z16" s="148"/>
-      <c r="AA16" s="149"/>
-      <c r="AB16" s="152"/>
-      <c r="AC16" s="144"/>
-      <c r="AD16" s="144"/>
-      <c r="AE16" s="144"/>
-      <c r="AF16" s="144"/>
-      <c r="AG16" s="144"/>
-      <c r="AH16" s="144"/>
-      <c r="AI16" s="150"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="145"/>
+      <c r="L16" s="145"/>
+      <c r="M16" s="145"/>
+      <c r="N16" s="145"/>
+      <c r="O16" s="145"/>
+      <c r="P16" s="145"/>
+      <c r="Q16" s="145"/>
+      <c r="R16" s="146"/>
+      <c r="S16" s="148"/>
+      <c r="T16" s="149"/>
+      <c r="U16" s="149"/>
+      <c r="V16" s="149"/>
+      <c r="W16" s="149"/>
+      <c r="X16" s="149"/>
+      <c r="Y16" s="149"/>
+      <c r="Z16" s="149"/>
+      <c r="AA16" s="150"/>
+      <c r="AB16" s="153"/>
+      <c r="AC16" s="145"/>
+      <c r="AD16" s="145"/>
+      <c r="AE16" s="145"/>
+      <c r="AF16" s="145"/>
+      <c r="AG16" s="145"/>
+      <c r="AH16" s="145"/>
+      <c r="AI16" s="151"/>
       <c r="AM16" s="4"/>
-      <c r="AN16" s="139"/>
-      <c r="AO16" s="139"/>
-      <c r="AP16" s="139"/>
-      <c r="AQ16" s="139"/>
-      <c r="AR16" s="139"/>
-      <c r="AS16" s="139"/>
-      <c r="AT16" s="139"/>
-      <c r="AU16" s="139"/>
-      <c r="AV16" s="139"/>
-      <c r="AW16" s="139"/>
-      <c r="AX16" s="139"/>
-      <c r="AY16" s="139"/>
-      <c r="AZ16" s="139"/>
-      <c r="BA16" s="139"/>
-      <c r="BB16" s="139"/>
-      <c r="BC16" s="139"/>
-      <c r="BD16" s="139"/>
-      <c r="BE16" s="138"/>
-      <c r="BF16" s="138"/>
-      <c r="BG16" s="138"/>
-      <c r="BH16" s="138"/>
-      <c r="BI16" s="138"/>
-      <c r="BJ16" s="138"/>
-      <c r="BK16" s="138"/>
-      <c r="BL16" s="138"/>
-      <c r="BM16" s="138"/>
-      <c r="BN16" s="151"/>
-      <c r="BO16" s="139"/>
-      <c r="BP16" s="139"/>
-      <c r="BQ16" s="139"/>
-      <c r="BR16" s="139"/>
-      <c r="BS16" s="139"/>
-      <c r="BT16" s="139"/>
-      <c r="BU16" s="139"/>
+      <c r="AN16" s="140"/>
+      <c r="AO16" s="140"/>
+      <c r="AP16" s="140"/>
+      <c r="AQ16" s="140"/>
+      <c r="AR16" s="140"/>
+      <c r="AS16" s="140"/>
+      <c r="AT16" s="140"/>
+      <c r="AU16" s="140"/>
+      <c r="AV16" s="140"/>
+      <c r="AW16" s="140"/>
+      <c r="AX16" s="140"/>
+      <c r="AY16" s="140"/>
+      <c r="AZ16" s="140"/>
+      <c r="BA16" s="140"/>
+      <c r="BB16" s="140"/>
+      <c r="BC16" s="140"/>
+      <c r="BD16" s="140"/>
+      <c r="BE16" s="139"/>
+      <c r="BF16" s="139"/>
+      <c r="BG16" s="139"/>
+      <c r="BH16" s="139"/>
+      <c r="BI16" s="139"/>
+      <c r="BJ16" s="139"/>
+      <c r="BK16" s="139"/>
+      <c r="BL16" s="139"/>
+      <c r="BM16" s="139"/>
+      <c r="BN16" s="152"/>
+      <c r="BO16" s="140"/>
+      <c r="BP16" s="140"/>
+      <c r="BQ16" s="140"/>
+      <c r="BR16" s="140"/>
+      <c r="BS16" s="140"/>
+      <c r="BT16" s="140"/>
+      <c r="BU16" s="140"/>
       <c r="BV16" s="26"/>
       <c r="BW16" s="26"/>
       <c r="BX16" s="26"/>
@@ -6214,75 +6074,75 @@
       <c r="DG16" s="5"/>
     </row>
     <row r="17" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B17" s="143"/>
-      <c r="C17" s="144"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="144"/>
-      <c r="I17" s="145"/>
-      <c r="J17" s="146"/>
-      <c r="K17" s="144"/>
-      <c r="L17" s="144"/>
-      <c r="M17" s="144"/>
-      <c r="N17" s="144"/>
-      <c r="O17" s="144"/>
-      <c r="P17" s="144"/>
-      <c r="Q17" s="144"/>
-      <c r="R17" s="145"/>
-      <c r="S17" s="147"/>
-      <c r="T17" s="148"/>
-      <c r="U17" s="148"/>
-      <c r="V17" s="148"/>
-      <c r="W17" s="148"/>
-      <c r="X17" s="148"/>
-      <c r="Y17" s="148"/>
-      <c r="Z17" s="148"/>
-      <c r="AA17" s="149"/>
-      <c r="AB17" s="152"/>
-      <c r="AC17" s="153"/>
-      <c r="AD17" s="153"/>
-      <c r="AE17" s="153"/>
-      <c r="AF17" s="153"/>
-      <c r="AG17" s="153"/>
-      <c r="AH17" s="153"/>
-      <c r="AI17" s="154"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="145"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="147"/>
+      <c r="K17" s="145"/>
+      <c r="L17" s="145"/>
+      <c r="M17" s="145"/>
+      <c r="N17" s="145"/>
+      <c r="O17" s="145"/>
+      <c r="P17" s="145"/>
+      <c r="Q17" s="145"/>
+      <c r="R17" s="146"/>
+      <c r="S17" s="148"/>
+      <c r="T17" s="149"/>
+      <c r="U17" s="149"/>
+      <c r="V17" s="149"/>
+      <c r="W17" s="149"/>
+      <c r="X17" s="149"/>
+      <c r="Y17" s="149"/>
+      <c r="Z17" s="149"/>
+      <c r="AA17" s="150"/>
+      <c r="AB17" s="153"/>
+      <c r="AC17" s="154"/>
+      <c r="AD17" s="154"/>
+      <c r="AE17" s="154"/>
+      <c r="AF17" s="154"/>
+      <c r="AG17" s="154"/>
+      <c r="AH17" s="154"/>
+      <c r="AI17" s="155"/>
       <c r="AM17" s="4"/>
-      <c r="AN17" s="139"/>
-      <c r="AO17" s="139"/>
-      <c r="AP17" s="139"/>
-      <c r="AQ17" s="139"/>
-      <c r="AR17" s="139"/>
-      <c r="AS17" s="139"/>
-      <c r="AT17" s="139"/>
-      <c r="AU17" s="139"/>
-      <c r="AV17" s="139"/>
-      <c r="AW17" s="139"/>
-      <c r="AX17" s="139"/>
-      <c r="AY17" s="139"/>
-      <c r="AZ17" s="139"/>
-      <c r="BA17" s="139"/>
-      <c r="BB17" s="139"/>
-      <c r="BC17" s="139"/>
-      <c r="BD17" s="139"/>
-      <c r="BE17" s="138"/>
-      <c r="BF17" s="138"/>
-      <c r="BG17" s="138"/>
-      <c r="BH17" s="138"/>
-      <c r="BI17" s="138"/>
-      <c r="BJ17" s="138"/>
-      <c r="BK17" s="138"/>
-      <c r="BL17" s="138"/>
-      <c r="BM17" s="138"/>
-      <c r="BN17" s="151"/>
-      <c r="BO17" s="139"/>
-      <c r="BP17" s="139"/>
-      <c r="BQ17" s="139"/>
-      <c r="BR17" s="139"/>
-      <c r="BS17" s="139"/>
-      <c r="BT17" s="139"/>
-      <c r="BU17" s="139"/>
+      <c r="AN17" s="140"/>
+      <c r="AO17" s="140"/>
+      <c r="AP17" s="140"/>
+      <c r="AQ17" s="140"/>
+      <c r="AR17" s="140"/>
+      <c r="AS17" s="140"/>
+      <c r="AT17" s="140"/>
+      <c r="AU17" s="140"/>
+      <c r="AV17" s="140"/>
+      <c r="AW17" s="140"/>
+      <c r="AX17" s="140"/>
+      <c r="AY17" s="140"/>
+      <c r="AZ17" s="140"/>
+      <c r="BA17" s="140"/>
+      <c r="BB17" s="140"/>
+      <c r="BC17" s="140"/>
+      <c r="BD17" s="140"/>
+      <c r="BE17" s="139"/>
+      <c r="BF17" s="139"/>
+      <c r="BG17" s="139"/>
+      <c r="BH17" s="139"/>
+      <c r="BI17" s="139"/>
+      <c r="BJ17" s="139"/>
+      <c r="BK17" s="139"/>
+      <c r="BL17" s="139"/>
+      <c r="BM17" s="139"/>
+      <c r="BN17" s="152"/>
+      <c r="BO17" s="140"/>
+      <c r="BP17" s="140"/>
+      <c r="BQ17" s="140"/>
+      <c r="BR17" s="140"/>
+      <c r="BS17" s="140"/>
+      <c r="BT17" s="140"/>
+      <c r="BU17" s="140"/>
       <c r="BV17" s="26"/>
       <c r="BW17" s="26"/>
       <c r="BX17" s="26"/>
@@ -6323,75 +6183,75 @@
       <c r="DG17" s="5"/>
     </row>
     <row r="18" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B18" s="143"/>
-      <c r="C18" s="144"/>
-      <c r="D18" s="144"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="144"/>
-      <c r="H18" s="144"/>
-      <c r="I18" s="145"/>
-      <c r="J18" s="146"/>
-      <c r="K18" s="144"/>
-      <c r="L18" s="144"/>
-      <c r="M18" s="144"/>
-      <c r="N18" s="144"/>
-      <c r="O18" s="144"/>
-      <c r="P18" s="144"/>
-      <c r="Q18" s="144"/>
-      <c r="R18" s="145"/>
-      <c r="S18" s="147"/>
-      <c r="T18" s="148"/>
-      <c r="U18" s="148"/>
-      <c r="V18" s="148"/>
-      <c r="W18" s="148"/>
-      <c r="X18" s="148"/>
-      <c r="Y18" s="148"/>
-      <c r="Z18" s="148"/>
-      <c r="AA18" s="149"/>
-      <c r="AB18" s="152"/>
-      <c r="AC18" s="144"/>
-      <c r="AD18" s="144"/>
-      <c r="AE18" s="144"/>
-      <c r="AF18" s="144"/>
-      <c r="AG18" s="144"/>
-      <c r="AH18" s="144"/>
-      <c r="AI18" s="150"/>
+      <c r="B18" s="144"/>
+      <c r="C18" s="145"/>
+      <c r="D18" s="145"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="145"/>
+      <c r="L18" s="145"/>
+      <c r="M18" s="145"/>
+      <c r="N18" s="145"/>
+      <c r="O18" s="145"/>
+      <c r="P18" s="145"/>
+      <c r="Q18" s="145"/>
+      <c r="R18" s="146"/>
+      <c r="S18" s="148"/>
+      <c r="T18" s="149"/>
+      <c r="U18" s="149"/>
+      <c r="V18" s="149"/>
+      <c r="W18" s="149"/>
+      <c r="X18" s="149"/>
+      <c r="Y18" s="149"/>
+      <c r="Z18" s="149"/>
+      <c r="AA18" s="150"/>
+      <c r="AB18" s="153"/>
+      <c r="AC18" s="145"/>
+      <c r="AD18" s="145"/>
+      <c r="AE18" s="145"/>
+      <c r="AF18" s="145"/>
+      <c r="AG18" s="145"/>
+      <c r="AH18" s="145"/>
+      <c r="AI18" s="151"/>
       <c r="AM18" s="4"/>
-      <c r="AN18" s="139"/>
-      <c r="AO18" s="139"/>
-      <c r="AP18" s="139"/>
-      <c r="AQ18" s="139"/>
-      <c r="AR18" s="139"/>
-      <c r="AS18" s="139"/>
-      <c r="AT18" s="139"/>
-      <c r="AU18" s="139"/>
-      <c r="AV18" s="139"/>
-      <c r="AW18" s="139"/>
-      <c r="AX18" s="139"/>
-      <c r="AY18" s="139"/>
-      <c r="AZ18" s="139"/>
-      <c r="BA18" s="139"/>
-      <c r="BB18" s="139"/>
-      <c r="BC18" s="139"/>
-      <c r="BD18" s="139"/>
-      <c r="BE18" s="138"/>
-      <c r="BF18" s="138"/>
-      <c r="BG18" s="138"/>
-      <c r="BH18" s="138"/>
-      <c r="BI18" s="138"/>
-      <c r="BJ18" s="138"/>
-      <c r="BK18" s="138"/>
-      <c r="BL18" s="138"/>
-      <c r="BM18" s="138"/>
-      <c r="BN18" s="151"/>
-      <c r="BO18" s="139"/>
-      <c r="BP18" s="139"/>
-      <c r="BQ18" s="139"/>
-      <c r="BR18" s="139"/>
-      <c r="BS18" s="139"/>
-      <c r="BT18" s="139"/>
-      <c r="BU18" s="139"/>
+      <c r="AN18" s="140"/>
+      <c r="AO18" s="140"/>
+      <c r="AP18" s="140"/>
+      <c r="AQ18" s="140"/>
+      <c r="AR18" s="140"/>
+      <c r="AS18" s="140"/>
+      <c r="AT18" s="140"/>
+      <c r="AU18" s="140"/>
+      <c r="AV18" s="140"/>
+      <c r="AW18" s="140"/>
+      <c r="AX18" s="140"/>
+      <c r="AY18" s="140"/>
+      <c r="AZ18" s="140"/>
+      <c r="BA18" s="140"/>
+      <c r="BB18" s="140"/>
+      <c r="BC18" s="140"/>
+      <c r="BD18" s="140"/>
+      <c r="BE18" s="139"/>
+      <c r="BF18" s="139"/>
+      <c r="BG18" s="139"/>
+      <c r="BH18" s="139"/>
+      <c r="BI18" s="139"/>
+      <c r="BJ18" s="139"/>
+      <c r="BK18" s="139"/>
+      <c r="BL18" s="139"/>
+      <c r="BM18" s="139"/>
+      <c r="BN18" s="152"/>
+      <c r="BO18" s="140"/>
+      <c r="BP18" s="140"/>
+      <c r="BQ18" s="140"/>
+      <c r="BR18" s="140"/>
+      <c r="BS18" s="140"/>
+      <c r="BT18" s="140"/>
+      <c r="BU18" s="140"/>
       <c r="BV18" s="26"/>
       <c r="BW18" s="26"/>
       <c r="BX18" s="26"/>
@@ -6432,75 +6292,75 @@
       <c r="DG18" s="5"/>
     </row>
     <row r="19" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B19" s="143"/>
-      <c r="C19" s="144"/>
-      <c r="D19" s="144"/>
-      <c r="E19" s="144"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="144"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="146"/>
-      <c r="K19" s="144"/>
-      <c r="L19" s="144"/>
-      <c r="M19" s="144"/>
-      <c r="N19" s="144"/>
-      <c r="O19" s="144"/>
-      <c r="P19" s="144"/>
-      <c r="Q19" s="144"/>
-      <c r="R19" s="145"/>
-      <c r="S19" s="147"/>
-      <c r="T19" s="148"/>
-      <c r="U19" s="148"/>
-      <c r="V19" s="148"/>
-      <c r="W19" s="148"/>
-      <c r="X19" s="148"/>
-      <c r="Y19" s="148"/>
-      <c r="Z19" s="148"/>
-      <c r="AA19" s="149"/>
-      <c r="AB19" s="152"/>
-      <c r="AC19" s="144"/>
-      <c r="AD19" s="144"/>
-      <c r="AE19" s="144"/>
-      <c r="AF19" s="144"/>
-      <c r="AG19" s="144"/>
-      <c r="AH19" s="144"/>
-      <c r="AI19" s="150"/>
+      <c r="B19" s="144"/>
+      <c r="C19" s="145"/>
+      <c r="D19" s="145"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
+      <c r="K19" s="145"/>
+      <c r="L19" s="145"/>
+      <c r="M19" s="145"/>
+      <c r="N19" s="145"/>
+      <c r="O19" s="145"/>
+      <c r="P19" s="145"/>
+      <c r="Q19" s="145"/>
+      <c r="R19" s="146"/>
+      <c r="S19" s="148"/>
+      <c r="T19" s="149"/>
+      <c r="U19" s="149"/>
+      <c r="V19" s="149"/>
+      <c r="W19" s="149"/>
+      <c r="X19" s="149"/>
+      <c r="Y19" s="149"/>
+      <c r="Z19" s="149"/>
+      <c r="AA19" s="150"/>
+      <c r="AB19" s="153"/>
+      <c r="AC19" s="145"/>
+      <c r="AD19" s="145"/>
+      <c r="AE19" s="145"/>
+      <c r="AF19" s="145"/>
+      <c r="AG19" s="145"/>
+      <c r="AH19" s="145"/>
+      <c r="AI19" s="151"/>
       <c r="AM19" s="4"/>
-      <c r="AN19" s="139"/>
-      <c r="AO19" s="139"/>
-      <c r="AP19" s="139"/>
-      <c r="AQ19" s="139"/>
-      <c r="AR19" s="139"/>
-      <c r="AS19" s="139"/>
-      <c r="AT19" s="139"/>
-      <c r="AU19" s="139"/>
-      <c r="AV19" s="139"/>
-      <c r="AW19" s="139"/>
-      <c r="AX19" s="139"/>
-      <c r="AY19" s="139"/>
-      <c r="AZ19" s="139"/>
-      <c r="BA19" s="139"/>
-      <c r="BB19" s="139"/>
-      <c r="BC19" s="139"/>
-      <c r="BD19" s="139"/>
-      <c r="BE19" s="138"/>
-      <c r="BF19" s="138"/>
-      <c r="BG19" s="138"/>
-      <c r="BH19" s="138"/>
-      <c r="BI19" s="138"/>
-      <c r="BJ19" s="138"/>
-      <c r="BK19" s="138"/>
-      <c r="BL19" s="138"/>
-      <c r="BM19" s="138"/>
-      <c r="BN19" s="151"/>
-      <c r="BO19" s="139"/>
-      <c r="BP19" s="139"/>
-      <c r="BQ19" s="139"/>
-      <c r="BR19" s="139"/>
-      <c r="BS19" s="139"/>
-      <c r="BT19" s="139"/>
-      <c r="BU19" s="139"/>
+      <c r="AN19" s="140"/>
+      <c r="AO19" s="140"/>
+      <c r="AP19" s="140"/>
+      <c r="AQ19" s="140"/>
+      <c r="AR19" s="140"/>
+      <c r="AS19" s="140"/>
+      <c r="AT19" s="140"/>
+      <c r="AU19" s="140"/>
+      <c r="AV19" s="140"/>
+      <c r="AW19" s="140"/>
+      <c r="AX19" s="140"/>
+      <c r="AY19" s="140"/>
+      <c r="AZ19" s="140"/>
+      <c r="BA19" s="140"/>
+      <c r="BB19" s="140"/>
+      <c r="BC19" s="140"/>
+      <c r="BD19" s="140"/>
+      <c r="BE19" s="139"/>
+      <c r="BF19" s="139"/>
+      <c r="BG19" s="139"/>
+      <c r="BH19" s="139"/>
+      <c r="BI19" s="139"/>
+      <c r="BJ19" s="139"/>
+      <c r="BK19" s="139"/>
+      <c r="BL19" s="139"/>
+      <c r="BM19" s="139"/>
+      <c r="BN19" s="152"/>
+      <c r="BO19" s="140"/>
+      <c r="BP19" s="140"/>
+      <c r="BQ19" s="140"/>
+      <c r="BR19" s="140"/>
+      <c r="BS19" s="140"/>
+      <c r="BT19" s="140"/>
+      <c r="BU19" s="140"/>
       <c r="BV19" s="26"/>
       <c r="BW19" s="26"/>
       <c r="BX19" s="26"/>
@@ -6541,75 +6401,75 @@
       <c r="DG19" s="5"/>
     </row>
     <row r="20" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B20" s="143"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="146"/>
-      <c r="K20" s="144"/>
-      <c r="L20" s="144"/>
-      <c r="M20" s="144"/>
-      <c r="N20" s="144"/>
-      <c r="O20" s="144"/>
-      <c r="P20" s="144"/>
-      <c r="Q20" s="144"/>
-      <c r="R20" s="145"/>
-      <c r="S20" s="147"/>
-      <c r="T20" s="148"/>
-      <c r="U20" s="148"/>
-      <c r="V20" s="148"/>
-      <c r="W20" s="148"/>
-      <c r="X20" s="148"/>
-      <c r="Y20" s="148"/>
-      <c r="Z20" s="148"/>
-      <c r="AA20" s="149"/>
-      <c r="AB20" s="152"/>
-      <c r="AC20" s="144"/>
-      <c r="AD20" s="144"/>
-      <c r="AE20" s="144"/>
-      <c r="AF20" s="144"/>
-      <c r="AG20" s="144"/>
-      <c r="AH20" s="144"/>
-      <c r="AI20" s="150"/>
+      <c r="B20" s="144"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="147"/>
+      <c r="K20" s="145"/>
+      <c r="L20" s="145"/>
+      <c r="M20" s="145"/>
+      <c r="N20" s="145"/>
+      <c r="O20" s="145"/>
+      <c r="P20" s="145"/>
+      <c r="Q20" s="145"/>
+      <c r="R20" s="146"/>
+      <c r="S20" s="148"/>
+      <c r="T20" s="149"/>
+      <c r="U20" s="149"/>
+      <c r="V20" s="149"/>
+      <c r="W20" s="149"/>
+      <c r="X20" s="149"/>
+      <c r="Y20" s="149"/>
+      <c r="Z20" s="149"/>
+      <c r="AA20" s="150"/>
+      <c r="AB20" s="153"/>
+      <c r="AC20" s="145"/>
+      <c r="AD20" s="145"/>
+      <c r="AE20" s="145"/>
+      <c r="AF20" s="145"/>
+      <c r="AG20" s="145"/>
+      <c r="AH20" s="145"/>
+      <c r="AI20" s="151"/>
       <c r="AM20" s="4"/>
-      <c r="AN20" s="139"/>
-      <c r="AO20" s="139"/>
-      <c r="AP20" s="139"/>
-      <c r="AQ20" s="139"/>
-      <c r="AR20" s="139"/>
-      <c r="AS20" s="139"/>
-      <c r="AT20" s="139"/>
-      <c r="AU20" s="139"/>
-      <c r="AV20" s="139"/>
-      <c r="AW20" s="139"/>
-      <c r="AX20" s="139"/>
-      <c r="AY20" s="139"/>
-      <c r="AZ20" s="139"/>
-      <c r="BA20" s="139"/>
-      <c r="BB20" s="139"/>
-      <c r="BC20" s="139"/>
-      <c r="BD20" s="139"/>
-      <c r="BE20" s="138"/>
-      <c r="BF20" s="138"/>
-      <c r="BG20" s="138"/>
-      <c r="BH20" s="138"/>
-      <c r="BI20" s="138"/>
-      <c r="BJ20" s="138"/>
-      <c r="BK20" s="138"/>
-      <c r="BL20" s="138"/>
-      <c r="BM20" s="138"/>
-      <c r="BN20" s="151"/>
-      <c r="BO20" s="139"/>
-      <c r="BP20" s="139"/>
-      <c r="BQ20" s="139"/>
-      <c r="BR20" s="139"/>
-      <c r="BS20" s="139"/>
-      <c r="BT20" s="139"/>
-      <c r="BU20" s="139"/>
+      <c r="AN20" s="140"/>
+      <c r="AO20" s="140"/>
+      <c r="AP20" s="140"/>
+      <c r="AQ20" s="140"/>
+      <c r="AR20" s="140"/>
+      <c r="AS20" s="140"/>
+      <c r="AT20" s="140"/>
+      <c r="AU20" s="140"/>
+      <c r="AV20" s="140"/>
+      <c r="AW20" s="140"/>
+      <c r="AX20" s="140"/>
+      <c r="AY20" s="140"/>
+      <c r="AZ20" s="140"/>
+      <c r="BA20" s="140"/>
+      <c r="BB20" s="140"/>
+      <c r="BC20" s="140"/>
+      <c r="BD20" s="140"/>
+      <c r="BE20" s="139"/>
+      <c r="BF20" s="139"/>
+      <c r="BG20" s="139"/>
+      <c r="BH20" s="139"/>
+      <c r="BI20" s="139"/>
+      <c r="BJ20" s="139"/>
+      <c r="BK20" s="139"/>
+      <c r="BL20" s="139"/>
+      <c r="BM20" s="139"/>
+      <c r="BN20" s="152"/>
+      <c r="BO20" s="140"/>
+      <c r="BP20" s="140"/>
+      <c r="BQ20" s="140"/>
+      <c r="BR20" s="140"/>
+      <c r="BS20" s="140"/>
+      <c r="BT20" s="140"/>
+      <c r="BU20" s="140"/>
       <c r="BV20" s="26"/>
       <c r="BW20" s="26"/>
       <c r="BX20" s="26"/>
@@ -6650,75 +6510,75 @@
       <c r="DG20" s="5"/>
     </row>
     <row r="21" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B21" s="143"/>
-      <c r="C21" s="144"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="146"/>
-      <c r="K21" s="144"/>
-      <c r="L21" s="144"/>
-      <c r="M21" s="144"/>
-      <c r="N21" s="144"/>
-      <c r="O21" s="144"/>
-      <c r="P21" s="144"/>
-      <c r="Q21" s="144"/>
-      <c r="R21" s="145"/>
-      <c r="S21" s="147"/>
-      <c r="T21" s="148"/>
-      <c r="U21" s="148"/>
-      <c r="V21" s="148"/>
-      <c r="W21" s="148"/>
-      <c r="X21" s="148"/>
-      <c r="Y21" s="148"/>
-      <c r="Z21" s="148"/>
-      <c r="AA21" s="149"/>
-      <c r="AB21" s="152"/>
-      <c r="AC21" s="144"/>
-      <c r="AD21" s="144"/>
-      <c r="AE21" s="144"/>
-      <c r="AF21" s="144"/>
-      <c r="AG21" s="144"/>
-      <c r="AH21" s="144"/>
-      <c r="AI21" s="150"/>
+      <c r="B21" s="144"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="147"/>
+      <c r="K21" s="145"/>
+      <c r="L21" s="145"/>
+      <c r="M21" s="145"/>
+      <c r="N21" s="145"/>
+      <c r="O21" s="145"/>
+      <c r="P21" s="145"/>
+      <c r="Q21" s="145"/>
+      <c r="R21" s="146"/>
+      <c r="S21" s="148"/>
+      <c r="T21" s="149"/>
+      <c r="U21" s="149"/>
+      <c r="V21" s="149"/>
+      <c r="W21" s="149"/>
+      <c r="X21" s="149"/>
+      <c r="Y21" s="149"/>
+      <c r="Z21" s="149"/>
+      <c r="AA21" s="150"/>
+      <c r="AB21" s="153"/>
+      <c r="AC21" s="145"/>
+      <c r="AD21" s="145"/>
+      <c r="AE21" s="145"/>
+      <c r="AF21" s="145"/>
+      <c r="AG21" s="145"/>
+      <c r="AH21" s="145"/>
+      <c r="AI21" s="151"/>
       <c r="AM21" s="4"/>
-      <c r="AN21" s="139"/>
-      <c r="AO21" s="139"/>
-      <c r="AP21" s="139"/>
-      <c r="AQ21" s="139"/>
-      <c r="AR21" s="139"/>
-      <c r="AS21" s="139"/>
-      <c r="AT21" s="139"/>
-      <c r="AU21" s="139"/>
-      <c r="AV21" s="139"/>
-      <c r="AW21" s="139"/>
-      <c r="AX21" s="139"/>
-      <c r="AY21" s="139"/>
-      <c r="AZ21" s="139"/>
-      <c r="BA21" s="139"/>
-      <c r="BB21" s="139"/>
-      <c r="BC21" s="139"/>
-      <c r="BD21" s="139"/>
-      <c r="BE21" s="138"/>
-      <c r="BF21" s="138"/>
-      <c r="BG21" s="138"/>
-      <c r="BH21" s="138"/>
-      <c r="BI21" s="138"/>
-      <c r="BJ21" s="138"/>
-      <c r="BK21" s="138"/>
-      <c r="BL21" s="138"/>
-      <c r="BM21" s="138"/>
-      <c r="BN21" s="151"/>
-      <c r="BO21" s="139"/>
-      <c r="BP21" s="139"/>
-      <c r="BQ21" s="139"/>
-      <c r="BR21" s="139"/>
-      <c r="BS21" s="139"/>
-      <c r="BT21" s="139"/>
-      <c r="BU21" s="139"/>
+      <c r="AN21" s="140"/>
+      <c r="AO21" s="140"/>
+      <c r="AP21" s="140"/>
+      <c r="AQ21" s="140"/>
+      <c r="AR21" s="140"/>
+      <c r="AS21" s="140"/>
+      <c r="AT21" s="140"/>
+      <c r="AU21" s="140"/>
+      <c r="AV21" s="140"/>
+      <c r="AW21" s="140"/>
+      <c r="AX21" s="140"/>
+      <c r="AY21" s="140"/>
+      <c r="AZ21" s="140"/>
+      <c r="BA21" s="140"/>
+      <c r="BB21" s="140"/>
+      <c r="BC21" s="140"/>
+      <c r="BD21" s="140"/>
+      <c r="BE21" s="139"/>
+      <c r="BF21" s="139"/>
+      <c r="BG21" s="139"/>
+      <c r="BH21" s="139"/>
+      <c r="BI21" s="139"/>
+      <c r="BJ21" s="139"/>
+      <c r="BK21" s="139"/>
+      <c r="BL21" s="139"/>
+      <c r="BM21" s="139"/>
+      <c r="BN21" s="152"/>
+      <c r="BO21" s="140"/>
+      <c r="BP21" s="140"/>
+      <c r="BQ21" s="140"/>
+      <c r="BR21" s="140"/>
+      <c r="BS21" s="140"/>
+      <c r="BT21" s="140"/>
+      <c r="BU21" s="140"/>
       <c r="BV21" s="26"/>
       <c r="BW21" s="26"/>
       <c r="BX21" s="26"/>
@@ -6759,75 +6619,75 @@
       <c r="DG21" s="5"/>
     </row>
     <row r="22" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B22" s="143"/>
-      <c r="C22" s="144"/>
-      <c r="D22" s="144"/>
-      <c r="E22" s="144"/>
-      <c r="F22" s="144"/>
-      <c r="G22" s="144"/>
-      <c r="H22" s="144"/>
-      <c r="I22" s="145"/>
-      <c r="J22" s="146"/>
-      <c r="K22" s="144"/>
-      <c r="L22" s="144"/>
-      <c r="M22" s="144"/>
-      <c r="N22" s="144"/>
-      <c r="O22" s="144"/>
-      <c r="P22" s="144"/>
-      <c r="Q22" s="144"/>
-      <c r="R22" s="145"/>
-      <c r="S22" s="147"/>
-      <c r="T22" s="148"/>
-      <c r="U22" s="148"/>
-      <c r="V22" s="148"/>
-      <c r="W22" s="148"/>
-      <c r="X22" s="148"/>
-      <c r="Y22" s="148"/>
-      <c r="Z22" s="148"/>
-      <c r="AA22" s="149"/>
-      <c r="AB22" s="152"/>
-      <c r="AC22" s="144"/>
-      <c r="AD22" s="144"/>
-      <c r="AE22" s="144"/>
-      <c r="AF22" s="144"/>
-      <c r="AG22" s="144"/>
-      <c r="AH22" s="144"/>
-      <c r="AI22" s="150"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="145"/>
+      <c r="D22" s="145"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="146"/>
+      <c r="J22" s="147"/>
+      <c r="K22" s="145"/>
+      <c r="L22" s="145"/>
+      <c r="M22" s="145"/>
+      <c r="N22" s="145"/>
+      <c r="O22" s="145"/>
+      <c r="P22" s="145"/>
+      <c r="Q22" s="145"/>
+      <c r="R22" s="146"/>
+      <c r="S22" s="148"/>
+      <c r="T22" s="149"/>
+      <c r="U22" s="149"/>
+      <c r="V22" s="149"/>
+      <c r="W22" s="149"/>
+      <c r="X22" s="149"/>
+      <c r="Y22" s="149"/>
+      <c r="Z22" s="149"/>
+      <c r="AA22" s="150"/>
+      <c r="AB22" s="153"/>
+      <c r="AC22" s="145"/>
+      <c r="AD22" s="145"/>
+      <c r="AE22" s="145"/>
+      <c r="AF22" s="145"/>
+      <c r="AG22" s="145"/>
+      <c r="AH22" s="145"/>
+      <c r="AI22" s="151"/>
       <c r="AM22" s="4"/>
-      <c r="AN22" s="139"/>
-      <c r="AO22" s="139"/>
-      <c r="AP22" s="139"/>
-      <c r="AQ22" s="139"/>
-      <c r="AR22" s="139"/>
-      <c r="AS22" s="139"/>
-      <c r="AT22" s="139"/>
-      <c r="AU22" s="139"/>
-      <c r="AV22" s="139"/>
-      <c r="AW22" s="139"/>
-      <c r="AX22" s="139"/>
-      <c r="AY22" s="139"/>
-      <c r="AZ22" s="139"/>
-      <c r="BA22" s="139"/>
-      <c r="BB22" s="139"/>
-      <c r="BC22" s="139"/>
-      <c r="BD22" s="139"/>
-      <c r="BE22" s="138"/>
-      <c r="BF22" s="138"/>
-      <c r="BG22" s="138"/>
-      <c r="BH22" s="138"/>
-      <c r="BI22" s="138"/>
-      <c r="BJ22" s="138"/>
-      <c r="BK22" s="138"/>
-      <c r="BL22" s="138"/>
-      <c r="BM22" s="138"/>
-      <c r="BN22" s="151"/>
-      <c r="BO22" s="139"/>
-      <c r="BP22" s="139"/>
-      <c r="BQ22" s="139"/>
-      <c r="BR22" s="139"/>
-      <c r="BS22" s="139"/>
-      <c r="BT22" s="139"/>
-      <c r="BU22" s="139"/>
+      <c r="AN22" s="140"/>
+      <c r="AO22" s="140"/>
+      <c r="AP22" s="140"/>
+      <c r="AQ22" s="140"/>
+      <c r="AR22" s="140"/>
+      <c r="AS22" s="140"/>
+      <c r="AT22" s="140"/>
+      <c r="AU22" s="140"/>
+      <c r="AV22" s="140"/>
+      <c r="AW22" s="140"/>
+      <c r="AX22" s="140"/>
+      <c r="AY22" s="140"/>
+      <c r="AZ22" s="140"/>
+      <c r="BA22" s="140"/>
+      <c r="BB22" s="140"/>
+      <c r="BC22" s="140"/>
+      <c r="BD22" s="140"/>
+      <c r="BE22" s="139"/>
+      <c r="BF22" s="139"/>
+      <c r="BG22" s="139"/>
+      <c r="BH22" s="139"/>
+      <c r="BI22" s="139"/>
+      <c r="BJ22" s="139"/>
+      <c r="BK22" s="139"/>
+      <c r="BL22" s="139"/>
+      <c r="BM22" s="139"/>
+      <c r="BN22" s="152"/>
+      <c r="BO22" s="140"/>
+      <c r="BP22" s="140"/>
+      <c r="BQ22" s="140"/>
+      <c r="BR22" s="140"/>
+      <c r="BS22" s="140"/>
+      <c r="BT22" s="140"/>
+      <c r="BU22" s="140"/>
       <c r="BV22" s="26"/>
       <c r="BW22" s="26"/>
       <c r="BX22" s="26"/>
@@ -6868,75 +6728,75 @@
       <c r="DG22" s="5"/>
     </row>
     <row r="23" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B23" s="143"/>
-      <c r="C23" s="144"/>
-      <c r="D23" s="144"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="144"/>
-      <c r="G23" s="144"/>
-      <c r="H23" s="144"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="146"/>
-      <c r="K23" s="144"/>
-      <c r="L23" s="144"/>
-      <c r="M23" s="144"/>
-      <c r="N23" s="144"/>
-      <c r="O23" s="144"/>
-      <c r="P23" s="144"/>
-      <c r="Q23" s="144"/>
-      <c r="R23" s="145"/>
-      <c r="S23" s="147"/>
-      <c r="T23" s="148"/>
-      <c r="U23" s="148"/>
-      <c r="V23" s="148"/>
-      <c r="W23" s="148"/>
-      <c r="X23" s="148"/>
-      <c r="Y23" s="148"/>
-      <c r="Z23" s="148"/>
-      <c r="AA23" s="149"/>
-      <c r="AB23" s="146"/>
-      <c r="AC23" s="144"/>
-      <c r="AD23" s="144"/>
-      <c r="AE23" s="144"/>
-      <c r="AF23" s="144"/>
-      <c r="AG23" s="144"/>
-      <c r="AH23" s="144"/>
-      <c r="AI23" s="150"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="147"/>
+      <c r="K23" s="145"/>
+      <c r="L23" s="145"/>
+      <c r="M23" s="145"/>
+      <c r="N23" s="145"/>
+      <c r="O23" s="145"/>
+      <c r="P23" s="145"/>
+      <c r="Q23" s="145"/>
+      <c r="R23" s="146"/>
+      <c r="S23" s="148"/>
+      <c r="T23" s="149"/>
+      <c r="U23" s="149"/>
+      <c r="V23" s="149"/>
+      <c r="W23" s="149"/>
+      <c r="X23" s="149"/>
+      <c r="Y23" s="149"/>
+      <c r="Z23" s="149"/>
+      <c r="AA23" s="150"/>
+      <c r="AB23" s="147"/>
+      <c r="AC23" s="145"/>
+      <c r="AD23" s="145"/>
+      <c r="AE23" s="145"/>
+      <c r="AF23" s="145"/>
+      <c r="AG23" s="145"/>
+      <c r="AH23" s="145"/>
+      <c r="AI23" s="151"/>
       <c r="AM23" s="4"/>
-      <c r="AN23" s="139"/>
-      <c r="AO23" s="139"/>
-      <c r="AP23" s="139"/>
-      <c r="AQ23" s="139"/>
-      <c r="AR23" s="139"/>
-      <c r="AS23" s="139"/>
-      <c r="AT23" s="139"/>
-      <c r="AU23" s="139"/>
-      <c r="AV23" s="139"/>
-      <c r="AW23" s="139"/>
-      <c r="AX23" s="139"/>
-      <c r="AY23" s="139"/>
-      <c r="AZ23" s="139"/>
-      <c r="BA23" s="139"/>
-      <c r="BB23" s="139"/>
-      <c r="BC23" s="139"/>
-      <c r="BD23" s="139"/>
-      <c r="BE23" s="138"/>
-      <c r="BF23" s="138"/>
-      <c r="BG23" s="138"/>
-      <c r="BH23" s="138"/>
-      <c r="BI23" s="138"/>
-      <c r="BJ23" s="138"/>
-      <c r="BK23" s="138"/>
-      <c r="BL23" s="138"/>
-      <c r="BM23" s="138"/>
-      <c r="BN23" s="139"/>
-      <c r="BO23" s="139"/>
-      <c r="BP23" s="139"/>
-      <c r="BQ23" s="139"/>
-      <c r="BR23" s="139"/>
-      <c r="BS23" s="139"/>
-      <c r="BT23" s="139"/>
-      <c r="BU23" s="139"/>
+      <c r="AN23" s="140"/>
+      <c r="AO23" s="140"/>
+      <c r="AP23" s="140"/>
+      <c r="AQ23" s="140"/>
+      <c r="AR23" s="140"/>
+      <c r="AS23" s="140"/>
+      <c r="AT23" s="140"/>
+      <c r="AU23" s="140"/>
+      <c r="AV23" s="140"/>
+      <c r="AW23" s="140"/>
+      <c r="AX23" s="140"/>
+      <c r="AY23" s="140"/>
+      <c r="AZ23" s="140"/>
+      <c r="BA23" s="140"/>
+      <c r="BB23" s="140"/>
+      <c r="BC23" s="140"/>
+      <c r="BD23" s="140"/>
+      <c r="BE23" s="139"/>
+      <c r="BF23" s="139"/>
+      <c r="BG23" s="139"/>
+      <c r="BH23" s="139"/>
+      <c r="BI23" s="139"/>
+      <c r="BJ23" s="139"/>
+      <c r="BK23" s="139"/>
+      <c r="BL23" s="139"/>
+      <c r="BM23" s="139"/>
+      <c r="BN23" s="140"/>
+      <c r="BO23" s="140"/>
+      <c r="BP23" s="140"/>
+      <c r="BQ23" s="140"/>
+      <c r="BR23" s="140"/>
+      <c r="BS23" s="140"/>
+      <c r="BT23" s="140"/>
+      <c r="BU23" s="140"/>
       <c r="BV23" s="26"/>
       <c r="BW23" s="26"/>
       <c r="BX23" s="26"/>
@@ -7086,77 +6946,77 @@
       <c r="DG24" s="4"/>
     </row>
     <row r="25" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B25" s="135" t="s">
+      <c r="B25" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="136"/>
-      <c r="D25" s="136"/>
-      <c r="E25" s="136"/>
-      <c r="F25" s="136"/>
-      <c r="G25" s="136"/>
-      <c r="H25" s="136"/>
-      <c r="I25" s="136"/>
-      <c r="J25" s="136"/>
-      <c r="K25" s="136"/>
-      <c r="L25" s="136"/>
-      <c r="M25" s="136"/>
-      <c r="N25" s="136"/>
-      <c r="O25" s="136"/>
-      <c r="P25" s="136"/>
-      <c r="Q25" s="136"/>
-      <c r="R25" s="136"/>
-      <c r="S25" s="136"/>
-      <c r="T25" s="136"/>
-      <c r="U25" s="136"/>
-      <c r="V25" s="136"/>
-      <c r="W25" s="136"/>
-      <c r="X25" s="136"/>
-      <c r="Y25" s="136"/>
-      <c r="Z25" s="136"/>
-      <c r="AA25" s="136"/>
-      <c r="AB25" s="136"/>
-      <c r="AC25" s="136"/>
-      <c r="AD25" s="136"/>
-      <c r="AE25" s="136"/>
-      <c r="AF25" s="136"/>
-      <c r="AG25" s="136"/>
-      <c r="AH25" s="136"/>
-      <c r="AI25" s="137"/>
+      <c r="C25" s="137"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="137"/>
+      <c r="H25" s="137"/>
+      <c r="I25" s="137"/>
+      <c r="J25" s="137"/>
+      <c r="K25" s="137"/>
+      <c r="L25" s="137"/>
+      <c r="M25" s="137"/>
+      <c r="N25" s="137"/>
+      <c r="O25" s="137"/>
+      <c r="P25" s="137"/>
+      <c r="Q25" s="137"/>
+      <c r="R25" s="137"/>
+      <c r="S25" s="137"/>
+      <c r="T25" s="137"/>
+      <c r="U25" s="137"/>
+      <c r="V25" s="137"/>
+      <c r="W25" s="137"/>
+      <c r="X25" s="137"/>
+      <c r="Y25" s="137"/>
+      <c r="Z25" s="137"/>
+      <c r="AA25" s="137"/>
+      <c r="AB25" s="137"/>
+      <c r="AC25" s="137"/>
+      <c r="AD25" s="137"/>
+      <c r="AE25" s="137"/>
+      <c r="AF25" s="137"/>
+      <c r="AG25" s="137"/>
+      <c r="AH25" s="137"/>
+      <c r="AI25" s="138"/>
       <c r="AM25" s="4"/>
-      <c r="AN25" s="136"/>
-      <c r="AO25" s="136"/>
-      <c r="AP25" s="136"/>
-      <c r="AQ25" s="136"/>
-      <c r="AR25" s="136"/>
-      <c r="AS25" s="136"/>
-      <c r="AT25" s="136"/>
-      <c r="AU25" s="136"/>
-      <c r="AV25" s="136"/>
-      <c r="AW25" s="136"/>
-      <c r="AX25" s="136"/>
-      <c r="AY25" s="136"/>
-      <c r="AZ25" s="136"/>
-      <c r="BA25" s="136"/>
-      <c r="BB25" s="136"/>
-      <c r="BC25" s="136"/>
-      <c r="BD25" s="136"/>
-      <c r="BE25" s="136"/>
-      <c r="BF25" s="136"/>
-      <c r="BG25" s="136"/>
-      <c r="BH25" s="136"/>
-      <c r="BI25" s="136"/>
-      <c r="BJ25" s="136"/>
-      <c r="BK25" s="136"/>
-      <c r="BL25" s="136"/>
-      <c r="BM25" s="136"/>
-      <c r="BN25" s="136"/>
-      <c r="BO25" s="136"/>
-      <c r="BP25" s="136"/>
-      <c r="BQ25" s="136"/>
-      <c r="BR25" s="136"/>
-      <c r="BS25" s="136"/>
-      <c r="BT25" s="136"/>
-      <c r="BU25" s="136"/>
+      <c r="AN25" s="137"/>
+      <c r="AO25" s="137"/>
+      <c r="AP25" s="137"/>
+      <c r="AQ25" s="137"/>
+      <c r="AR25" s="137"/>
+      <c r="AS25" s="137"/>
+      <c r="AT25" s="137"/>
+      <c r="AU25" s="137"/>
+      <c r="AV25" s="137"/>
+      <c r="AW25" s="137"/>
+      <c r="AX25" s="137"/>
+      <c r="AY25" s="137"/>
+      <c r="AZ25" s="137"/>
+      <c r="BA25" s="137"/>
+      <c r="BB25" s="137"/>
+      <c r="BC25" s="137"/>
+      <c r="BD25" s="137"/>
+      <c r="BE25" s="137"/>
+      <c r="BF25" s="137"/>
+      <c r="BG25" s="137"/>
+      <c r="BH25" s="137"/>
+      <c r="BI25" s="137"/>
+      <c r="BJ25" s="137"/>
+      <c r="BK25" s="137"/>
+      <c r="BL25" s="137"/>
+      <c r="BM25" s="137"/>
+      <c r="BN25" s="137"/>
+      <c r="BO25" s="137"/>
+      <c r="BP25" s="137"/>
+      <c r="BQ25" s="137"/>
+      <c r="BR25" s="137"/>
+      <c r="BS25" s="137"/>
+      <c r="BT25" s="137"/>
+      <c r="BU25" s="137"/>
       <c r="BV25" s="26"/>
       <c r="BW25" s="26"/>
       <c r="BX25" s="26"/>
@@ -7306,77 +7166,77 @@
       <c r="DG26" s="4"/>
     </row>
     <row r="27" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B27" s="140">
+      <c r="B27" s="141">
         <v>44351</v>
       </c>
-      <c r="C27" s="141"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="141"/>
-      <c r="I27" s="141"/>
-      <c r="J27" s="141"/>
-      <c r="K27" s="141"/>
-      <c r="L27" s="141"/>
-      <c r="M27" s="141"/>
-      <c r="N27" s="141"/>
-      <c r="O27" s="141"/>
-      <c r="P27" s="141"/>
-      <c r="Q27" s="141"/>
-      <c r="R27" s="141"/>
-      <c r="S27" s="141"/>
-      <c r="T27" s="141"/>
-      <c r="U27" s="141"/>
-      <c r="V27" s="141"/>
-      <c r="W27" s="141"/>
-      <c r="X27" s="141"/>
-      <c r="Y27" s="141"/>
-      <c r="Z27" s="141"/>
-      <c r="AA27" s="141"/>
-      <c r="AB27" s="141"/>
-      <c r="AC27" s="141"/>
-      <c r="AD27" s="141"/>
-      <c r="AE27" s="141"/>
-      <c r="AF27" s="141"/>
-      <c r="AG27" s="141"/>
-      <c r="AH27" s="141"/>
-      <c r="AI27" s="142"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="142"/>
+      <c r="J27" s="142"/>
+      <c r="K27" s="142"/>
+      <c r="L27" s="142"/>
+      <c r="M27" s="142"/>
+      <c r="N27" s="142"/>
+      <c r="O27" s="142"/>
+      <c r="P27" s="142"/>
+      <c r="Q27" s="142"/>
+      <c r="R27" s="142"/>
+      <c r="S27" s="142"/>
+      <c r="T27" s="142"/>
+      <c r="U27" s="142"/>
+      <c r="V27" s="142"/>
+      <c r="W27" s="142"/>
+      <c r="X27" s="142"/>
+      <c r="Y27" s="142"/>
+      <c r="Z27" s="142"/>
+      <c r="AA27" s="142"/>
+      <c r="AB27" s="142"/>
+      <c r="AC27" s="142"/>
+      <c r="AD27" s="142"/>
+      <c r="AE27" s="142"/>
+      <c r="AF27" s="142"/>
+      <c r="AG27" s="142"/>
+      <c r="AH27" s="142"/>
+      <c r="AI27" s="143"/>
       <c r="AM27" s="4"/>
-      <c r="AN27" s="141"/>
-      <c r="AO27" s="141"/>
-      <c r="AP27" s="141"/>
-      <c r="AQ27" s="141"/>
-      <c r="AR27" s="141"/>
-      <c r="AS27" s="141"/>
-      <c r="AT27" s="141"/>
-      <c r="AU27" s="141"/>
-      <c r="AV27" s="141"/>
-      <c r="AW27" s="141"/>
-      <c r="AX27" s="141"/>
-      <c r="AY27" s="141"/>
-      <c r="AZ27" s="141"/>
-      <c r="BA27" s="141"/>
-      <c r="BB27" s="141"/>
-      <c r="BC27" s="141"/>
-      <c r="BD27" s="141"/>
-      <c r="BE27" s="141"/>
-      <c r="BF27" s="141"/>
-      <c r="BG27" s="141"/>
-      <c r="BH27" s="141"/>
-      <c r="BI27" s="141"/>
-      <c r="BJ27" s="141"/>
-      <c r="BK27" s="141"/>
-      <c r="BL27" s="141"/>
-      <c r="BM27" s="141"/>
-      <c r="BN27" s="141"/>
-      <c r="BO27" s="141"/>
-      <c r="BP27" s="141"/>
-      <c r="BQ27" s="141"/>
-      <c r="BR27" s="141"/>
-      <c r="BS27" s="141"/>
-      <c r="BT27" s="141"/>
-      <c r="BU27" s="141"/>
+      <c r="AN27" s="142"/>
+      <c r="AO27" s="142"/>
+      <c r="AP27" s="142"/>
+      <c r="AQ27" s="142"/>
+      <c r="AR27" s="142"/>
+      <c r="AS27" s="142"/>
+      <c r="AT27" s="142"/>
+      <c r="AU27" s="142"/>
+      <c r="AV27" s="142"/>
+      <c r="AW27" s="142"/>
+      <c r="AX27" s="142"/>
+      <c r="AY27" s="142"/>
+      <c r="AZ27" s="142"/>
+      <c r="BA27" s="142"/>
+      <c r="BB27" s="142"/>
+      <c r="BC27" s="142"/>
+      <c r="BD27" s="142"/>
+      <c r="BE27" s="142"/>
+      <c r="BF27" s="142"/>
+      <c r="BG27" s="142"/>
+      <c r="BH27" s="142"/>
+      <c r="BI27" s="142"/>
+      <c r="BJ27" s="142"/>
+      <c r="BK27" s="142"/>
+      <c r="BL27" s="142"/>
+      <c r="BM27" s="142"/>
+      <c r="BN27" s="142"/>
+      <c r="BO27" s="142"/>
+      <c r="BP27" s="142"/>
+      <c r="BQ27" s="142"/>
+      <c r="BR27" s="142"/>
+      <c r="BS27" s="142"/>
+      <c r="BT27" s="142"/>
+      <c r="BU27" s="142"/>
       <c r="BV27" s="26"/>
       <c r="BW27" s="26"/>
       <c r="BX27" s="26"/>
@@ -7526,77 +7386,77 @@
       <c r="DG28" s="4"/>
     </row>
     <row r="29" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B29" s="135" t="s">
+      <c r="B29" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="136"/>
-      <c r="D29" s="136"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="136"/>
-      <c r="G29" s="136"/>
-      <c r="H29" s="136"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="136"/>
-      <c r="K29" s="136"/>
-      <c r="L29" s="136"/>
-      <c r="M29" s="136"/>
-      <c r="N29" s="136"/>
-      <c r="O29" s="136"/>
-      <c r="P29" s="136"/>
-      <c r="Q29" s="136"/>
-      <c r="R29" s="136"/>
-      <c r="S29" s="136"/>
-      <c r="T29" s="136"/>
-      <c r="U29" s="136"/>
-      <c r="V29" s="136"/>
-      <c r="W29" s="136"/>
-      <c r="X29" s="136"/>
-      <c r="Y29" s="136"/>
-      <c r="Z29" s="136"/>
-      <c r="AA29" s="136"/>
-      <c r="AB29" s="136"/>
-      <c r="AC29" s="136"/>
-      <c r="AD29" s="136"/>
-      <c r="AE29" s="136"/>
-      <c r="AF29" s="136"/>
-      <c r="AG29" s="136"/>
-      <c r="AH29" s="136"/>
-      <c r="AI29" s="137"/>
+      <c r="C29" s="137"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="137"/>
+      <c r="J29" s="137"/>
+      <c r="K29" s="137"/>
+      <c r="L29" s="137"/>
+      <c r="M29" s="137"/>
+      <c r="N29" s="137"/>
+      <c r="O29" s="137"/>
+      <c r="P29" s="137"/>
+      <c r="Q29" s="137"/>
+      <c r="R29" s="137"/>
+      <c r="S29" s="137"/>
+      <c r="T29" s="137"/>
+      <c r="U29" s="137"/>
+      <c r="V29" s="137"/>
+      <c r="W29" s="137"/>
+      <c r="X29" s="137"/>
+      <c r="Y29" s="137"/>
+      <c r="Z29" s="137"/>
+      <c r="AA29" s="137"/>
+      <c r="AB29" s="137"/>
+      <c r="AC29" s="137"/>
+      <c r="AD29" s="137"/>
+      <c r="AE29" s="137"/>
+      <c r="AF29" s="137"/>
+      <c r="AG29" s="137"/>
+      <c r="AH29" s="137"/>
+      <c r="AI29" s="138"/>
       <c r="AM29" s="4"/>
-      <c r="AN29" s="136"/>
-      <c r="AO29" s="136"/>
-      <c r="AP29" s="136"/>
-      <c r="AQ29" s="136"/>
-      <c r="AR29" s="136"/>
-      <c r="AS29" s="136"/>
-      <c r="AT29" s="136"/>
-      <c r="AU29" s="136"/>
-      <c r="AV29" s="136"/>
-      <c r="AW29" s="136"/>
-      <c r="AX29" s="136"/>
-      <c r="AY29" s="136"/>
-      <c r="AZ29" s="136"/>
-      <c r="BA29" s="136"/>
-      <c r="BB29" s="136"/>
-      <c r="BC29" s="136"/>
-      <c r="BD29" s="136"/>
-      <c r="BE29" s="136"/>
-      <c r="BF29" s="136"/>
-      <c r="BG29" s="136"/>
-      <c r="BH29" s="136"/>
-      <c r="BI29" s="136"/>
-      <c r="BJ29" s="136"/>
-      <c r="BK29" s="136"/>
-      <c r="BL29" s="136"/>
-      <c r="BM29" s="136"/>
-      <c r="BN29" s="136"/>
-      <c r="BO29" s="136"/>
-      <c r="BP29" s="136"/>
-      <c r="BQ29" s="136"/>
-      <c r="BR29" s="136"/>
-      <c r="BS29" s="136"/>
-      <c r="BT29" s="136"/>
-      <c r="BU29" s="136"/>
+      <c r="AN29" s="137"/>
+      <c r="AO29" s="137"/>
+      <c r="AP29" s="137"/>
+      <c r="AQ29" s="137"/>
+      <c r="AR29" s="137"/>
+      <c r="AS29" s="137"/>
+      <c r="AT29" s="137"/>
+      <c r="AU29" s="137"/>
+      <c r="AV29" s="137"/>
+      <c r="AW29" s="137"/>
+      <c r="AX29" s="137"/>
+      <c r="AY29" s="137"/>
+      <c r="AZ29" s="137"/>
+      <c r="BA29" s="137"/>
+      <c r="BB29" s="137"/>
+      <c r="BC29" s="137"/>
+      <c r="BD29" s="137"/>
+      <c r="BE29" s="137"/>
+      <c r="BF29" s="137"/>
+      <c r="BG29" s="137"/>
+      <c r="BH29" s="137"/>
+      <c r="BI29" s="137"/>
+      <c r="BJ29" s="137"/>
+      <c r="BK29" s="137"/>
+      <c r="BL29" s="137"/>
+      <c r="BM29" s="137"/>
+      <c r="BN29" s="137"/>
+      <c r="BO29" s="137"/>
+      <c r="BP29" s="137"/>
+      <c r="BQ29" s="137"/>
+      <c r="BR29" s="137"/>
+      <c r="BS29" s="137"/>
+      <c r="BT29" s="137"/>
+      <c r="BU29" s="137"/>
       <c r="BV29" s="4"/>
       <c r="BW29" s="4"/>
       <c r="BX29" s="4"/>
@@ -8002,10 +7862,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:L333"/>
+  <dimension ref="A2:L368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A311" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N321" sqref="N321"/>
+    <sheetView tabSelected="1" topLeftCell="A338" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G346" sqref="G346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -8022,20 +7882,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="42.75" customHeight="1">
-      <c r="A2" s="196" t="s">
+      <c r="A2" s="198" t="s">
         <v>246</v>
       </c>
-      <c r="B2" s="197"/>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="197"/>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="197"/>
-      <c r="K2" s="197"/>
-      <c r="L2" s="197"/>
+      <c r="B2" s="199"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="199"/>
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
     </row>
     <row r="3" spans="1:12" ht="37.5">
       <c r="A3" s="74" t="s">
@@ -8616,20 +8476,20 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="42" customHeight="1">
-      <c r="A19" s="196" t="s">
+      <c r="A19" s="198" t="s">
         <v>250</v>
       </c>
-      <c r="B19" s="197"/>
-      <c r="C19" s="197"/>
-      <c r="D19" s="197"/>
-      <c r="E19" s="197"/>
-      <c r="F19" s="197"/>
-      <c r="G19" s="197"/>
-      <c r="H19" s="197"/>
-      <c r="I19" s="197"/>
-      <c r="J19" s="197"/>
-      <c r="K19" s="197"/>
-      <c r="L19" s="197"/>
+      <c r="B19" s="199"/>
+      <c r="C19" s="199"/>
+      <c r="D19" s="199"/>
+      <c r="E19" s="199"/>
+      <c r="F19" s="199"/>
+      <c r="G19" s="199"/>
+      <c r="H19" s="199"/>
+      <c r="I19" s="199"/>
+      <c r="J19" s="199"/>
+      <c r="K19" s="199"/>
+      <c r="L19" s="199"/>
     </row>
     <row r="20" spans="1:12" ht="37.5">
       <c r="A20" s="74" t="s">
@@ -9150,20 +9010,20 @@
       <c r="L31" s="84"/>
     </row>
     <row r="34" spans="1:12" ht="36.75" customHeight="1">
-      <c r="A34" s="196" t="s">
+      <c r="A34" s="198" t="s">
         <v>251</v>
       </c>
-      <c r="B34" s="197"/>
-      <c r="C34" s="197"/>
-      <c r="D34" s="197"/>
-      <c r="E34" s="197"/>
-      <c r="F34" s="197"/>
-      <c r="G34" s="197"/>
-      <c r="H34" s="197"/>
-      <c r="I34" s="197"/>
-      <c r="J34" s="197"/>
-      <c r="K34" s="197"/>
-      <c r="L34" s="197"/>
+      <c r="B34" s="199"/>
+      <c r="C34" s="199"/>
+      <c r="D34" s="199"/>
+      <c r="E34" s="199"/>
+      <c r="F34" s="199"/>
+      <c r="G34" s="199"/>
+      <c r="H34" s="199"/>
+      <c r="I34" s="199"/>
+      <c r="J34" s="199"/>
+      <c r="K34" s="199"/>
+      <c r="L34" s="199"/>
     </row>
     <row r="35" spans="1:12" ht="37.5">
       <c r="A35" s="74" t="s">
@@ -9652,20 +9512,20 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="36.75" customHeight="1">
-      <c r="A48" s="196" t="s">
+      <c r="A48" s="198" t="s">
         <v>269</v>
       </c>
-      <c r="B48" s="197"/>
-      <c r="C48" s="197"/>
-      <c r="D48" s="197"/>
-      <c r="E48" s="197"/>
-      <c r="F48" s="197"/>
-      <c r="G48" s="197"/>
-      <c r="H48" s="197"/>
-      <c r="I48" s="197"/>
-      <c r="J48" s="197"/>
-      <c r="K48" s="197"/>
-      <c r="L48" s="197"/>
+      <c r="B48" s="199"/>
+      <c r="C48" s="199"/>
+      <c r="D48" s="199"/>
+      <c r="E48" s="199"/>
+      <c r="F48" s="199"/>
+      <c r="G48" s="199"/>
+      <c r="H48" s="199"/>
+      <c r="I48" s="199"/>
+      <c r="J48" s="199"/>
+      <c r="K48" s="199"/>
+      <c r="L48" s="199"/>
     </row>
     <row r="49" spans="1:12" ht="37.5">
       <c r="A49" s="74" t="s">
@@ -10336,20 +10196,20 @@
       </c>
     </row>
     <row r="66" spans="1:12" ht="30.75" customHeight="1">
-      <c r="A66" s="196" t="s">
+      <c r="A66" s="198" t="s">
         <v>270</v>
       </c>
-      <c r="B66" s="197"/>
-      <c r="C66" s="197"/>
-      <c r="D66" s="197"/>
-      <c r="E66" s="197"/>
-      <c r="F66" s="197"/>
-      <c r="G66" s="197"/>
-      <c r="H66" s="197"/>
-      <c r="I66" s="197"/>
-      <c r="J66" s="197"/>
-      <c r="K66" s="197"/>
-      <c r="L66" s="197"/>
+      <c r="B66" s="199"/>
+      <c r="C66" s="199"/>
+      <c r="D66" s="199"/>
+      <c r="E66" s="199"/>
+      <c r="F66" s="199"/>
+      <c r="G66" s="199"/>
+      <c r="H66" s="199"/>
+      <c r="I66" s="199"/>
+      <c r="J66" s="199"/>
+      <c r="K66" s="199"/>
+      <c r="L66" s="199"/>
     </row>
     <row r="67" spans="1:12" ht="38.25" thickBot="1">
       <c r="A67" s="74" t="s">
@@ -10930,20 +10790,20 @@
       </c>
     </row>
     <row r="82" spans="1:12" ht="34.5" customHeight="1">
-      <c r="A82" s="196" t="s">
+      <c r="A82" s="198" t="s">
         <v>284</v>
       </c>
-      <c r="B82" s="197"/>
-      <c r="C82" s="197"/>
-      <c r="D82" s="197"/>
-      <c r="E82" s="197"/>
-      <c r="F82" s="197"/>
-      <c r="G82" s="197"/>
-      <c r="H82" s="197"/>
-      <c r="I82" s="197"/>
-      <c r="J82" s="197"/>
-      <c r="K82" s="197"/>
-      <c r="L82" s="197"/>
+      <c r="B82" s="199"/>
+      <c r="C82" s="199"/>
+      <c r="D82" s="199"/>
+      <c r="E82" s="199"/>
+      <c r="F82" s="199"/>
+      <c r="G82" s="199"/>
+      <c r="H82" s="199"/>
+      <c r="I82" s="199"/>
+      <c r="J82" s="199"/>
+      <c r="K82" s="199"/>
+      <c r="L82" s="199"/>
     </row>
     <row r="83" spans="1:12" ht="38.25" thickBot="1">
       <c r="A83" s="74" t="s">
@@ -11512,20 +11372,20 @@
       </c>
     </row>
     <row r="98" spans="1:12" ht="34.5" customHeight="1">
-      <c r="A98" s="196" t="s">
+      <c r="A98" s="198" t="s">
         <v>297</v>
       </c>
-      <c r="B98" s="197"/>
-      <c r="C98" s="197"/>
-      <c r="D98" s="197"/>
-      <c r="E98" s="197"/>
-      <c r="F98" s="197"/>
-      <c r="G98" s="197"/>
-      <c r="H98" s="197"/>
-      <c r="I98" s="197"/>
-      <c r="J98" s="197"/>
-      <c r="K98" s="197"/>
-      <c r="L98" s="197"/>
+      <c r="B98" s="199"/>
+      <c r="C98" s="199"/>
+      <c r="D98" s="199"/>
+      <c r="E98" s="199"/>
+      <c r="F98" s="199"/>
+      <c r="G98" s="199"/>
+      <c r="H98" s="199"/>
+      <c r="I98" s="199"/>
+      <c r="J98" s="199"/>
+      <c r="K98" s="199"/>
+      <c r="L98" s="199"/>
     </row>
     <row r="99" spans="1:12" ht="38.25" thickBot="1">
       <c r="A99" s="74" t="s">
@@ -12352,20 +12212,20 @@
       </c>
     </row>
     <row r="121" spans="1:12" ht="39" customHeight="1">
-      <c r="A121" s="196" t="s">
+      <c r="A121" s="198" t="s">
         <v>316</v>
       </c>
-      <c r="B121" s="197"/>
-      <c r="C121" s="197"/>
-      <c r="D121" s="197"/>
-      <c r="E121" s="197"/>
-      <c r="F121" s="197"/>
-      <c r="G121" s="197"/>
-      <c r="H121" s="197"/>
-      <c r="I121" s="197"/>
-      <c r="J121" s="197"/>
-      <c r="K121" s="197"/>
-      <c r="L121" s="197"/>
+      <c r="B121" s="199"/>
+      <c r="C121" s="199"/>
+      <c r="D121" s="199"/>
+      <c r="E121" s="199"/>
+      <c r="F121" s="199"/>
+      <c r="G121" s="199"/>
+      <c r="H121" s="199"/>
+      <c r="I121" s="199"/>
+      <c r="J121" s="199"/>
+      <c r="K121" s="199"/>
+      <c r="L121" s="199"/>
     </row>
     <row r="122" spans="1:12" ht="38.25" thickBot="1">
       <c r="A122" s="74" t="s">
@@ -12967,20 +12827,20 @@
       </c>
     </row>
     <row r="138" spans="1:12" ht="36.6" customHeight="1">
-      <c r="A138" s="196" t="s">
+      <c r="A138" s="198" t="s">
         <v>330</v>
       </c>
-      <c r="B138" s="197"/>
-      <c r="C138" s="197"/>
-      <c r="D138" s="197"/>
-      <c r="E138" s="197"/>
-      <c r="F138" s="197"/>
-      <c r="G138" s="197"/>
-      <c r="H138" s="197"/>
-      <c r="I138" s="197"/>
-      <c r="J138" s="197"/>
-      <c r="K138" s="197"/>
-      <c r="L138" s="197"/>
+      <c r="B138" s="199"/>
+      <c r="C138" s="199"/>
+      <c r="D138" s="199"/>
+      <c r="E138" s="199"/>
+      <c r="F138" s="199"/>
+      <c r="G138" s="199"/>
+      <c r="H138" s="199"/>
+      <c r="I138" s="199"/>
+      <c r="J138" s="199"/>
+      <c r="K138" s="199"/>
+      <c r="L138" s="199"/>
     </row>
     <row r="139" spans="1:12" ht="37.5">
       <c r="A139" s="74" t="s">
@@ -13537,20 +13397,20 @@
       </c>
     </row>
     <row r="154" spans="1:12" ht="36.75" customHeight="1">
-      <c r="A154" s="196" t="s">
+      <c r="A154" s="198" t="s">
         <v>343</v>
       </c>
-      <c r="B154" s="197"/>
-      <c r="C154" s="197"/>
-      <c r="D154" s="197"/>
-      <c r="E154" s="197"/>
-      <c r="F154" s="197"/>
-      <c r="G154" s="197"/>
-      <c r="H154" s="197"/>
-      <c r="I154" s="197"/>
-      <c r="J154" s="197"/>
-      <c r="K154" s="197"/>
-      <c r="L154" s="197"/>
+      <c r="B154" s="199"/>
+      <c r="C154" s="199"/>
+      <c r="D154" s="199"/>
+      <c r="E154" s="199"/>
+      <c r="F154" s="199"/>
+      <c r="G154" s="199"/>
+      <c r="H154" s="199"/>
+      <c r="I154" s="199"/>
+      <c r="J154" s="199"/>
+      <c r="K154" s="199"/>
+      <c r="L154" s="199"/>
     </row>
     <row r="155" spans="1:12" ht="37.5">
       <c r="A155" s="74" t="s">
@@ -14119,20 +13979,20 @@
       </c>
     </row>
     <row r="170" spans="1:12" ht="36" customHeight="1">
-      <c r="A170" s="196" t="s">
+      <c r="A170" s="198" t="s">
         <v>359</v>
       </c>
-      <c r="B170" s="197"/>
-      <c r="C170" s="197"/>
-      <c r="D170" s="197"/>
-      <c r="E170" s="197"/>
-      <c r="F170" s="197"/>
-      <c r="G170" s="197"/>
-      <c r="H170" s="197"/>
-      <c r="I170" s="197"/>
-      <c r="J170" s="197"/>
-      <c r="K170" s="197"/>
-      <c r="L170" s="197"/>
+      <c r="B170" s="199"/>
+      <c r="C170" s="199"/>
+      <c r="D170" s="199"/>
+      <c r="E170" s="199"/>
+      <c r="F170" s="199"/>
+      <c r="G170" s="199"/>
+      <c r="H170" s="199"/>
+      <c r="I170" s="199"/>
+      <c r="J170" s="199"/>
+      <c r="K170" s="199"/>
+      <c r="L170" s="199"/>
     </row>
     <row r="171" spans="1:12" ht="37.5">
       <c r="A171" s="74" t="s">
@@ -14878,20 +14738,20 @@
       </c>
     </row>
     <row r="191" spans="1:12" ht="34.5" customHeight="1">
-      <c r="A191" s="196" t="s">
+      <c r="A191" s="198" t="s">
         <v>377</v>
       </c>
-      <c r="B191" s="197"/>
-      <c r="C191" s="197"/>
-      <c r="D191" s="197"/>
-      <c r="E191" s="197"/>
-      <c r="F191" s="197"/>
-      <c r="G191" s="197"/>
-      <c r="H191" s="197"/>
-      <c r="I191" s="197"/>
-      <c r="J191" s="197"/>
-      <c r="K191" s="197"/>
-      <c r="L191" s="197"/>
+      <c r="B191" s="199"/>
+      <c r="C191" s="199"/>
+      <c r="D191" s="199"/>
+      <c r="E191" s="199"/>
+      <c r="F191" s="199"/>
+      <c r="G191" s="199"/>
+      <c r="H191" s="199"/>
+      <c r="I191" s="199"/>
+      <c r="J191" s="199"/>
+      <c r="K191" s="199"/>
+      <c r="L191" s="199"/>
     </row>
     <row r="192" spans="1:12" ht="38.25" thickBot="1">
       <c r="A192" s="74" t="s">
@@ -15652,20 +15512,20 @@
       </c>
     </row>
     <row r="211" spans="1:12" ht="36.75" customHeight="1">
-      <c r="A211" s="198" t="s">
+      <c r="A211" s="197" t="s">
         <v>394</v>
       </c>
-      <c r="B211" s="198"/>
-      <c r="C211" s="198"/>
-      <c r="D211" s="198"/>
-      <c r="E211" s="198"/>
-      <c r="F211" s="198"/>
-      <c r="G211" s="198"/>
-      <c r="H211" s="198"/>
-      <c r="I211" s="198"/>
-      <c r="J211" s="198"/>
-      <c r="K211" s="198"/>
-      <c r="L211" s="198"/>
+      <c r="B211" s="197"/>
+      <c r="C211" s="197"/>
+      <c r="D211" s="197"/>
+      <c r="E211" s="197"/>
+      <c r="F211" s="197"/>
+      <c r="G211" s="197"/>
+      <c r="H211" s="197"/>
+      <c r="I211" s="197"/>
+      <c r="J211" s="197"/>
+      <c r="K211" s="197"/>
+      <c r="L211" s="197"/>
     </row>
     <row r="212" spans="1:12" ht="37.5">
       <c r="A212" s="74" t="s">
@@ -16381,20 +16241,20 @@
       </c>
     </row>
     <row r="230" spans="1:12" ht="25.5">
-      <c r="A230" s="198" t="s">
+      <c r="A230" s="197" t="s">
         <v>411</v>
       </c>
-      <c r="B230" s="198"/>
-      <c r="C230" s="198"/>
-      <c r="D230" s="198"/>
-      <c r="E230" s="198"/>
-      <c r="F230" s="198"/>
-      <c r="G230" s="198"/>
-      <c r="H230" s="198"/>
-      <c r="I230" s="198"/>
-      <c r="J230" s="198"/>
-      <c r="K230" s="198"/>
-      <c r="L230" s="198"/>
+      <c r="B230" s="197"/>
+      <c r="C230" s="197"/>
+      <c r="D230" s="197"/>
+      <c r="E230" s="197"/>
+      <c r="F230" s="197"/>
+      <c r="G230" s="197"/>
+      <c r="H230" s="197"/>
+      <c r="I230" s="197"/>
+      <c r="J230" s="197"/>
+      <c r="K230" s="197"/>
+      <c r="L230" s="197"/>
     </row>
     <row r="231" spans="1:12" ht="38.25" thickBot="1">
       <c r="A231" s="74" t="s">
@@ -16472,7 +16332,7 @@
       </c>
       <c r="K232" s="83">
         <f>VLOOKUP(B232,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>527</v>
       </c>
       <c r="L232" s="84" t="e">
         <f>RANK(K232,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -16517,7 +16377,7 @@
       </c>
       <c r="K233" s="83">
         <f>VLOOKUP(B233,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>768</v>
       </c>
       <c r="L233" s="84" t="e">
         <f>RANK(K233,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -16562,7 +16422,7 @@
       </c>
       <c r="K234" s="83">
         <f>VLOOKUP(B234,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="L234" s="84" t="e">
         <f>RANK(K234,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -16607,7 +16467,7 @@
       </c>
       <c r="K235" s="83">
         <f>VLOOKUP(B235,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="L235" s="84" t="e">
         <f>RANK(K235,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -16650,13 +16510,13 @@
         <f>VLOOKUP(B236,'총에버 관리_2023'!$A$3:$AF$22,23,FALSE)</f>
         <v>673</v>
       </c>
-      <c r="K236" s="83">
+      <c r="K236" s="83" t="str">
         <f>VLOOKUP(B236,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="L236" s="84" t="e">
         <f>RANK(K236,'총에버 관리_2023'!$AF$3:$AF$22)</f>
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="237" spans="1:12" ht="18.75">
@@ -16697,7 +16557,7 @@
       </c>
       <c r="K237" s="83">
         <f>VLOOKUP(B237,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>575</v>
       </c>
       <c r="L237" s="84" t="e">
         <f>RANK(K237,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -16742,7 +16602,7 @@
       </c>
       <c r="K238" s="83">
         <f>VLOOKUP(B238,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="L238" s="84" t="e">
         <f>RANK(K238,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -16787,7 +16647,7 @@
       </c>
       <c r="K239" s="83">
         <f>VLOOKUP(B239,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="L239" s="84" t="e">
         <f>RANK(K239,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -16877,7 +16737,7 @@
       </c>
       <c r="K241" s="83">
         <f>VLOOKUP(B241,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>653</v>
       </c>
       <c r="L241" s="84" t="e">
         <f>RANK(K241,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -16922,7 +16782,7 @@
       </c>
       <c r="K242" s="83">
         <f>VLOOKUP(B242,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>594</v>
       </c>
       <c r="L242" s="84" t="e">
         <f>RANK(K242,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -16967,7 +16827,7 @@
       </c>
       <c r="K243" s="83">
         <f>VLOOKUP(B243,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>574</v>
       </c>
       <c r="L243" s="84" t="e">
         <f>RANK(K243,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -17012,7 +16872,7 @@
       </c>
       <c r="K244" s="83">
         <f>VLOOKUP(B244,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>499</v>
       </c>
       <c r="L244" s="84" t="e">
         <f>RANK(K244,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -17020,20 +16880,20 @@
       </c>
     </row>
     <row r="247" spans="1:12" ht="30.75" customHeight="1">
-      <c r="A247" s="198" t="s">
+      <c r="A247" s="197" t="s">
         <v>426</v>
       </c>
-      <c r="B247" s="198"/>
-      <c r="C247" s="198"/>
-      <c r="D247" s="198"/>
-      <c r="E247" s="198"/>
-      <c r="F247" s="198"/>
-      <c r="G247" s="198"/>
-      <c r="H247" s="198"/>
-      <c r="I247" s="198"/>
-      <c r="J247" s="198"/>
-      <c r="K247" s="198"/>
-      <c r="L247" s="198"/>
+      <c r="B247" s="197"/>
+      <c r="C247" s="197"/>
+      <c r="D247" s="197"/>
+      <c r="E247" s="197"/>
+      <c r="F247" s="197"/>
+      <c r="G247" s="197"/>
+      <c r="H247" s="197"/>
+      <c r="I247" s="197"/>
+      <c r="J247" s="197"/>
+      <c r="K247" s="197"/>
+      <c r="L247" s="197"/>
     </row>
     <row r="248" spans="1:12" ht="37.5">
       <c r="A248" s="74" t="s">
@@ -17111,7 +16971,7 @@
       </c>
       <c r="K249" s="83">
         <f>VLOOKUP(B249,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>768</v>
       </c>
       <c r="L249" s="84" t="e">
         <f>RANK(K249,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -17156,7 +17016,7 @@
       </c>
       <c r="K250" s="83">
         <f>VLOOKUP(B250,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>575</v>
       </c>
       <c r="L250" s="84" t="e">
         <f>RANK(K250,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -17201,7 +17061,7 @@
       </c>
       <c r="K251" s="83">
         <f>VLOOKUP(B251,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="L251" s="84" t="e">
         <f>RANK(K251,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -17246,7 +17106,7 @@
       </c>
       <c r="K252" s="83">
         <f>VLOOKUP(B252,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="L252" s="84" t="e">
         <f>RANK(K252,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -17289,13 +17149,13 @@
         <f>VLOOKUP(B253,'총에버 관리_2023'!$A$3:$AF$22,23,FALSE)</f>
         <v>673</v>
       </c>
-      <c r="K253" s="83">
+      <c r="K253" s="83" t="str">
         <f>VLOOKUP(B253,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="L253" s="84" t="e">
         <f>RANK(K253,'총에버 관리_2023'!$AF$3:$AF$22)</f>
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="254" spans="1:12" ht="19.5" thickBot="1">
@@ -17336,7 +17196,7 @@
       </c>
       <c r="K254" s="83">
         <f>VLOOKUP(B254,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>577</v>
       </c>
       <c r="L254" s="84" t="e">
         <f>RANK(K254,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -17381,7 +17241,7 @@
       </c>
       <c r="K255" s="83">
         <f>VLOOKUP(B255,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>499</v>
       </c>
       <c r="L255" s="84" t="e">
         <f>RANK(K255,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -17426,7 +17286,7 @@
       </c>
       <c r="K256" s="83">
         <f>VLOOKUP(B256,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>574</v>
       </c>
       <c r="L256" s="84" t="e">
         <f>RANK(K256,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -17469,13 +17329,13 @@
         <f>VLOOKUP(B257,'총에버 관리_2023'!$A$3:$AF$22,23,FALSE)</f>
         <v/>
       </c>
-      <c r="K257" s="83">
+      <c r="K257" s="83" t="str">
         <f>VLOOKUP(B257,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="L257" s="84" t="e">
         <f>RANK(K257,'총에버 관리_2023'!$AF$3:$AF$22)</f>
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="258" spans="1:12" ht="18.75">
@@ -17516,7 +17376,7 @@
       </c>
       <c r="K258" s="83">
         <f>VLOOKUP(B258,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>527</v>
       </c>
       <c r="L258" s="84" t="e">
         <f>RANK(K258,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -17561,7 +17421,7 @@
       </c>
       <c r="K259" s="83">
         <f>VLOOKUP(B259,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>531</v>
       </c>
       <c r="L259" s="84" t="e">
         <f>RANK(K259,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -17606,7 +17466,7 @@
       </c>
       <c r="K260" s="83">
         <f>VLOOKUP(B260,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="L260" s="84" t="e">
         <f>RANK(K260,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -17649,30 +17509,30 @@
         <f>VLOOKUP(B261,'총에버 관리_2023'!$A$3:$AF$22,23,FALSE)</f>
         <v/>
       </c>
-      <c r="K261" s="83">
+      <c r="K261" s="83" t="str">
         <f>VLOOKUP(B261,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="L261" s="84" t="e">
         <f>RANK(K261,'총에버 관리_2023'!$AF$3:$AF$22)</f>
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="264" spans="1:12" ht="25.5">
-      <c r="A264" s="198" t="s">
+      <c r="A264" s="197" t="s">
         <v>441</v>
       </c>
-      <c r="B264" s="198"/>
-      <c r="C264" s="198"/>
-      <c r="D264" s="198"/>
-      <c r="E264" s="198"/>
-      <c r="F264" s="198"/>
-      <c r="G264" s="198"/>
-      <c r="H264" s="198"/>
-      <c r="I264" s="198"/>
-      <c r="J264" s="198"/>
-      <c r="K264" s="198"/>
-      <c r="L264" s="198"/>
+      <c r="B264" s="197"/>
+      <c r="C264" s="197"/>
+      <c r="D264" s="197"/>
+      <c r="E264" s="197"/>
+      <c r="F264" s="197"/>
+      <c r="G264" s="197"/>
+      <c r="H264" s="197"/>
+      <c r="I264" s="197"/>
+      <c r="J264" s="197"/>
+      <c r="K264" s="197"/>
+      <c r="L264" s="197"/>
     </row>
     <row r="265" spans="1:12" ht="37.5">
       <c r="A265" s="74" t="s">
@@ -17750,7 +17610,7 @@
       </c>
       <c r="K266" s="83">
         <f>VLOOKUP(B266,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>577</v>
       </c>
       <c r="L266" s="84" t="e">
         <f>RANK(K266,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -17795,7 +17655,7 @@
       </c>
       <c r="K267" s="83">
         <f>VLOOKUP(B267,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>653</v>
       </c>
       <c r="L267" s="84" t="e">
         <f>RANK(K267,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -17840,7 +17700,7 @@
       </c>
       <c r="K268" s="83">
         <f>VLOOKUP(B268,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>768</v>
       </c>
       <c r="L268" s="84" t="e">
         <f>RANK(K268,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -17885,7 +17745,7 @@
       </c>
       <c r="K269" s="83">
         <f>VLOOKUP(B269,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="L269" s="84" t="e">
         <f>RANK(K269,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -17930,7 +17790,7 @@
       </c>
       <c r="K270" s="83">
         <f>VLOOKUP(B270,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="L270" s="84" t="e">
         <f>RANK(K270,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -17975,7 +17835,7 @@
       </c>
       <c r="K271" s="83">
         <f>VLOOKUP(B271,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>531</v>
       </c>
       <c r="L271" s="84" t="e">
         <f>RANK(K271,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -18020,7 +17880,7 @@
       </c>
       <c r="K272" s="83">
         <f>VLOOKUP(B272,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>575</v>
       </c>
       <c r="L272" s="84" t="e">
         <f>RANK(K272,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -18063,13 +17923,13 @@
         <f>VLOOKUP(B273,'총에버 관리_2023'!$A$3:$AF$22,23,FALSE)</f>
         <v>673</v>
       </c>
-      <c r="K273" s="83">
+      <c r="K273" s="83" t="str">
         <f>VLOOKUP(B273,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="L273" s="84" t="e">
         <f>RANK(K273,'총에버 관리_2023'!$AF$3:$AF$22)</f>
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="274" spans="1:12" ht="18.75">
@@ -18110,7 +17970,7 @@
       </c>
       <c r="K274" s="83">
         <f>VLOOKUP(B274,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>499</v>
       </c>
       <c r="L274" s="84" t="e">
         <f>RANK(K274,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -18153,13 +18013,13 @@
         <f>VLOOKUP(B275,'총에버 관리_2023'!$A$3:$AF$22,23,FALSE)</f>
         <v/>
       </c>
-      <c r="K275" s="83">
+      <c r="K275" s="83" t="str">
         <f>VLOOKUP(B275,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="L275" s="84" t="e">
         <f>RANK(K275,'총에버 관리_2023'!$AF$3:$AF$22)</f>
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="276" spans="1:12" ht="18.75">
@@ -18200,7 +18060,7 @@
       </c>
       <c r="K276" s="83">
         <f>VLOOKUP(B276,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="L276" s="84" t="e">
         <f>RANK(K276,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -18243,13 +18103,13 @@
         <f>VLOOKUP(B277,'총에버 관리_2023'!$A$3:$AF$22,23,FALSE)</f>
         <v/>
       </c>
-      <c r="K277" s="83">
+      <c r="K277" s="83" t="str">
         <f>VLOOKUP(B277,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="L277" s="84" t="e">
         <f>RANK(K277,'총에버 관리_2023'!$AF$3:$AF$22)</f>
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="278" spans="1:12" ht="18.75">
@@ -18290,7 +18150,7 @@
       </c>
       <c r="K278" s="83">
         <f>VLOOKUP(B278,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>574</v>
       </c>
       <c r="L278" s="84" t="e">
         <f>RANK(K278,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -18335,7 +18195,7 @@
       </c>
       <c r="K279" s="83">
         <f>VLOOKUP(B279,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>527</v>
       </c>
       <c r="L279" s="84" t="e">
         <f>RANK(K279,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -18343,20 +18203,20 @@
       </c>
     </row>
     <row r="282" spans="1:12" ht="25.5">
-      <c r="A282" s="198" t="s">
+      <c r="A282" s="197" t="s">
         <v>456</v>
       </c>
-      <c r="B282" s="198"/>
-      <c r="C282" s="198"/>
-      <c r="D282" s="198"/>
-      <c r="E282" s="198"/>
-      <c r="F282" s="198"/>
-      <c r="G282" s="198"/>
-      <c r="H282" s="198"/>
-      <c r="I282" s="198"/>
-      <c r="J282" s="198"/>
-      <c r="K282" s="198"/>
-      <c r="L282" s="198"/>
+      <c r="B282" s="197"/>
+      <c r="C282" s="197"/>
+      <c r="D282" s="197"/>
+      <c r="E282" s="197"/>
+      <c r="F282" s="197"/>
+      <c r="G282" s="197"/>
+      <c r="H282" s="197"/>
+      <c r="I282" s="197"/>
+      <c r="J282" s="197"/>
+      <c r="K282" s="197"/>
+      <c r="L282" s="197"/>
     </row>
     <row r="283" spans="1:12" ht="38.25" thickBot="1">
       <c r="A283" s="74" t="s">
@@ -18434,7 +18294,7 @@
       </c>
       <c r="K284" s="83">
         <f>VLOOKUP(B284,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>577</v>
       </c>
       <c r="L284" s="84" t="e">
         <f>RANK(K284,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -18479,7 +18339,7 @@
       </c>
       <c r="K285" s="83">
         <f>VLOOKUP(B285,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>768</v>
       </c>
       <c r="L285" s="84" t="e">
         <f>RANK(K285,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -18524,7 +18384,7 @@
       </c>
       <c r="K286" s="83">
         <f>VLOOKUP(B286,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>574</v>
       </c>
       <c r="L286" s="84" t="e">
         <f>RANK(K286,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -18569,7 +18429,7 @@
       </c>
       <c r="K287" s="83">
         <f>VLOOKUP(B287,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>653</v>
       </c>
       <c r="L287" s="84" t="e">
         <f>RANK(K287,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -18614,7 +18474,7 @@
       </c>
       <c r="K288" s="83">
         <f>VLOOKUP(B288,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>575</v>
       </c>
       <c r="L288" s="84" t="e">
         <f>RANK(K288,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -18657,13 +18517,13 @@
         <f>VLOOKUP(B289,'총에버 관리_2023'!$A$3:$AF$22,23,FALSE)</f>
         <v>673</v>
       </c>
-      <c r="K289" s="83">
+      <c r="K289" s="83" t="str">
         <f>VLOOKUP(B289,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="L289" s="84" t="e">
         <f>RANK(K289,'총에버 관리_2023'!$AF$3:$AF$22)</f>
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="290" spans="1:12" ht="18.75">
@@ -18704,7 +18564,7 @@
       </c>
       <c r="K290" s="83">
         <f>VLOOKUP(B290,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="L290" s="84" t="e">
         <f>RANK(K290,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -18749,7 +18609,7 @@
       </c>
       <c r="K291" s="83">
         <f>VLOOKUP(B291,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="L291" s="84" t="e">
         <f>RANK(K291,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -18794,7 +18654,7 @@
       </c>
       <c r="K292" s="83">
         <f>VLOOKUP(B292,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>594</v>
       </c>
       <c r="L292" s="84" t="e">
         <f>RANK(K292,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -18837,13 +18697,13 @@
         <f>VLOOKUP(B293,'총에버 관리_2023'!$A$3:$AF$22,23,FALSE)</f>
         <v/>
       </c>
-      <c r="K293" s="83">
+      <c r="K293" s="83" t="str">
         <f>VLOOKUP(B293,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="L293" s="84" t="e">
         <f>RANK(K293,'총에버 관리_2023'!$AF$3:$AF$22)</f>
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="294" spans="1:12" ht="18.75">
@@ -18884,7 +18744,7 @@
       </c>
       <c r="K294" s="83">
         <f>VLOOKUP(B294,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="L294" s="84" t="e">
         <f>RANK(K294,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -18929,7 +18789,7 @@
       </c>
       <c r="K295" s="83">
         <f>VLOOKUP(B295,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>527</v>
       </c>
       <c r="L295" s="84" t="e">
         <f>RANK(K295,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -19005,13 +18865,13 @@
         <f>VLOOKUP(B297,'총에버 관리_2023'!$A$3:$AF$22,23,FALSE)</f>
         <v/>
       </c>
-      <c r="K297" s="83">
+      <c r="K297" s="83" t="str">
         <f>VLOOKUP(B297,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="L297" s="84" t="e">
         <f>RANK(K297,'총에버 관리_2023'!$AF$3:$AF$22)</f>
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="298" spans="1:12" ht="18.75">
@@ -19050,13 +18910,13 @@
         <f>VLOOKUP(B298,'총에버 관리_2023'!$A$3:$AF$22,23,FALSE)</f>
         <v>585</v>
       </c>
-      <c r="K298" s="83">
+      <c r="K298" s="83" t="str">
         <f>VLOOKUP(B298,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="L298" s="84" t="e">
         <f>RANK(K298,'총에버 관리_2023'!$AF$3:$AF$22)</f>
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="299" spans="1:12" ht="18.75">
@@ -19097,7 +18957,7 @@
       </c>
       <c r="K299" s="83">
         <f>VLOOKUP(B299,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>499</v>
       </c>
       <c r="L299" s="84" t="e">
         <f>RANK(K299,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -19105,20 +18965,20 @@
       </c>
     </row>
     <row r="302" spans="1:12" ht="36" customHeight="1">
-      <c r="A302" s="198" t="s">
+      <c r="A302" s="197" t="s">
         <v>475</v>
       </c>
-      <c r="B302" s="198"/>
-      <c r="C302" s="198"/>
-      <c r="D302" s="198"/>
-      <c r="E302" s="198"/>
-      <c r="F302" s="198"/>
-      <c r="G302" s="198"/>
-      <c r="H302" s="198"/>
-      <c r="I302" s="198"/>
-      <c r="J302" s="198"/>
-      <c r="K302" s="198"/>
-      <c r="L302" s="198"/>
+      <c r="B302" s="197"/>
+      <c r="C302" s="197"/>
+      <c r="D302" s="197"/>
+      <c r="E302" s="197"/>
+      <c r="F302" s="197"/>
+      <c r="G302" s="197"/>
+      <c r="H302" s="197"/>
+      <c r="I302" s="197"/>
+      <c r="J302" s="197"/>
+      <c r="K302" s="197"/>
+      <c r="L302" s="197"/>
     </row>
     <row r="303" spans="1:12" ht="38.25" thickBot="1">
       <c r="A303" s="74" t="s">
@@ -19188,7 +19048,7 @@
       </c>
       <c r="I304" s="70">
         <f>VLOOKUP(B304,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>577</v>
       </c>
       <c r="J304" s="70">
         <f>VLOOKUP(B304,'총에버 관리_2023'!$A$3:$AF$22,24,FALSE)</f>
@@ -19196,7 +19056,7 @@
       </c>
       <c r="K304" s="83">
         <f>VLOOKUP(B304,'총에버 관리_2023'!$A$3:$AF$22,26,FALSE)</f>
-        <v>0</v>
+        <v>668</v>
       </c>
       <c r="L304" s="84" t="e">
         <f>RANK(K304,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -19231,21 +19091,21 @@
       <c r="H305" s="58" t="s">
         <v>483</v>
       </c>
-      <c r="I305" s="70">
+      <c r="I305" s="70" t="str">
         <f>VLOOKUP(B305,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="J305" s="70">
         <f>VLOOKUP(B305,'총에버 관리_2023'!$A$3:$AF$22,24,FALSE)</f>
         <v>618</v>
       </c>
-      <c r="K305" s="83">
+      <c r="K305" s="83" t="str">
         <f>VLOOKUP(B305,'총에버 관리_2023'!$A$3:$AF$22,26,FALSE)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="L305" s="84" t="e">
         <f>RANK(K305,'총에버 관리_2023'!$AF$3:$AF$22)</f>
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="306" spans="1:12" ht="19.5" thickBot="1">
@@ -19278,19 +19138,19 @@
       </c>
       <c r="I306" s="70">
         <f>VLOOKUP(B306,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>653</v>
       </c>
       <c r="J306" s="70">
         <f>VLOOKUP(B306,'총에버 관리_2023'!$A$3:$AF$22,24,FALSE)</f>
         <v>562</v>
       </c>
-      <c r="K306" s="83">
+      <c r="K306" s="83" t="str">
         <f>VLOOKUP(B306,'총에버 관리_2023'!$A$3:$AF$22,26,FALSE)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="L306" s="84" t="e">
         <f>RANK(K306,'총에버 관리_2023'!$AF$3:$AF$22)</f>
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="307" spans="1:12" ht="18.75">
@@ -19323,7 +19183,7 @@
       </c>
       <c r="I307" s="70">
         <f>VLOOKUP(B307,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>575</v>
       </c>
       <c r="J307" s="70">
         <f>VLOOKUP(B307,'총에버 관리_2023'!$A$3:$AF$22,24,FALSE)</f>
@@ -19331,7 +19191,7 @@
       </c>
       <c r="K307" s="83">
         <f>VLOOKUP(B307,'총에버 관리_2023'!$A$3:$AF$22,26,FALSE)</f>
-        <v>0</v>
+        <v>640</v>
       </c>
       <c r="L307" s="84" t="e">
         <f>RANK(K307,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -19368,7 +19228,7 @@
       </c>
       <c r="I308" s="70">
         <f>VLOOKUP(B308,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>768</v>
       </c>
       <c r="J308" s="70">
         <f>VLOOKUP(B308,'총에버 관리_2023'!$A$3:$AF$22,24,FALSE)</f>
@@ -19376,7 +19236,7 @@
       </c>
       <c r="K308" s="83">
         <f>VLOOKUP(B308,'총에버 관리_2023'!$A$3:$AF$22,26,FALSE)</f>
-        <v>0</v>
+        <v>615</v>
       </c>
       <c r="L308" s="84" t="e">
         <f>RANK(K308,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -19413,7 +19273,7 @@
       </c>
       <c r="I309" s="70">
         <f>VLOOKUP(B309,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="J309" s="70">
         <f>VLOOKUP(B309,'총에버 관리_2023'!$A$3:$AF$22,24,FALSE)</f>
@@ -19421,7 +19281,7 @@
       </c>
       <c r="K309" s="83">
         <f>VLOOKUP(B309,'총에버 관리_2023'!$A$3:$AF$22,26,FALSE)</f>
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="L309" s="84" t="e">
         <f>RANK(K309,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -19458,7 +19318,7 @@
       </c>
       <c r="I310" s="70">
         <f>VLOOKUP(B310,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>527</v>
       </c>
       <c r="J310" s="70">
         <f>VLOOKUP(B310,'총에버 관리_2023'!$A$3:$AF$22,24,FALSE)</f>
@@ -19466,7 +19326,7 @@
       </c>
       <c r="K310" s="83">
         <f>VLOOKUP(B310,'총에버 관리_2023'!$A$3:$AF$22,26,FALSE)</f>
-        <v>0</v>
+        <v>592</v>
       </c>
       <c r="L310" s="84" t="e">
         <f>RANK(K310,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -19503,7 +19363,7 @@
       </c>
       <c r="I311" s="70">
         <f>VLOOKUP(B311,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="J311" s="70">
         <f>VLOOKUP(B311,'총에버 관리_2023'!$A$3:$AF$22,24,FALSE)</f>
@@ -19511,7 +19371,7 @@
       </c>
       <c r="K311" s="83">
         <f>VLOOKUP(B311,'총에버 관리_2023'!$A$3:$AF$22,26,FALSE)</f>
-        <v>0</v>
+        <v>531</v>
       </c>
       <c r="L311" s="84" t="e">
         <f>RANK(K311,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -19548,7 +19408,7 @@
       </c>
       <c r="I312" s="70">
         <f>VLOOKUP(B312,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="J312" s="70">
         <f>VLOOKUP(B312,'총에버 관리_2023'!$A$3:$AF$22,24,FALSE)</f>
@@ -19556,7 +19416,7 @@
       </c>
       <c r="K312" s="83">
         <f>VLOOKUP(B312,'총에버 관리_2023'!$A$3:$AF$22,26,FALSE)</f>
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="L312" s="84" t="e">
         <f>RANK(K312,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -19591,9 +19451,9 @@
       <c r="H313" s="65" t="s">
         <v>488</v>
       </c>
-      <c r="I313" s="70">
+      <c r="I313" s="70" t="str">
         <f>VLOOKUP(B313,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="J313" s="70" t="str">
         <f>VLOOKUP(B313,'총에버 관리_2023'!$A$3:$AF$22,24,FALSE)</f>
@@ -19601,7 +19461,7 @@
       </c>
       <c r="K313" s="83">
         <f>VLOOKUP(B313,'총에버 관리_2023'!$A$3:$AF$22,26,FALSE)</f>
-        <v>0</v>
+        <v>482</v>
       </c>
       <c r="L313" s="84" t="e">
         <f>RANK(K313,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -19638,19 +19498,19 @@
       </c>
       <c r="I314" s="70">
         <f>VLOOKUP(B314,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>531</v>
       </c>
       <c r="J314" s="70">
         <f>VLOOKUP(B314,'총에버 관리_2023'!$A$3:$AF$22,24,FALSE)</f>
         <v>562</v>
       </c>
-      <c r="K314" s="83">
+      <c r="K314" s="83" t="str">
         <f>VLOOKUP(B314,'총에버 관리_2023'!$A$3:$AF$22,26,FALSE)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="L314" s="84" t="e">
         <f>RANK(K314,'총에버 관리_2023'!$AF$3:$AF$22)</f>
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="315" spans="1:12" ht="18.75">
@@ -19683,7 +19543,7 @@
       </c>
       <c r="I315" s="70">
         <f>VLOOKUP(B315,'총에버 관리_2023'!$A$3:$AF$22,25,FALSE)</f>
-        <v>0</v>
+        <v>499</v>
       </c>
       <c r="J315" s="70">
         <f>VLOOKUP(B315,'총에버 관리_2023'!$A$3:$AF$22,24,FALSE)</f>
@@ -19691,7 +19551,7 @@
       </c>
       <c r="K315" s="83">
         <f>VLOOKUP(B315,'총에버 관리_2023'!$A$3:$AF$22,26,FALSE)</f>
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="L315" s="84" t="e">
         <f>RANK(K315,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -19699,20 +19559,20 @@
       </c>
     </row>
     <row r="318" spans="1:12" ht="33.75" customHeight="1">
-      <c r="A318" s="198" t="s">
+      <c r="A318" s="197" t="s">
         <v>489</v>
       </c>
-      <c r="B318" s="198"/>
-      <c r="C318" s="198"/>
-      <c r="D318" s="198"/>
-      <c r="E318" s="198"/>
-      <c r="F318" s="198"/>
-      <c r="G318" s="198"/>
-      <c r="H318" s="198"/>
-      <c r="I318" s="198"/>
-      <c r="J318" s="198"/>
-      <c r="K318" s="198"/>
-      <c r="L318" s="198"/>
+      <c r="B318" s="197"/>
+      <c r="C318" s="197"/>
+      <c r="D318" s="197"/>
+      <c r="E318" s="197"/>
+      <c r="F318" s="197"/>
+      <c r="G318" s="197"/>
+      <c r="H318" s="197"/>
+      <c r="I318" s="197"/>
+      <c r="J318" s="197"/>
+      <c r="K318" s="197"/>
+      <c r="L318" s="197"/>
     </row>
     <row r="319" spans="1:12" ht="37.5">
       <c r="A319" s="74" t="s">
@@ -19754,7 +19614,7 @@
     </row>
     <row r="320" spans="1:12" ht="18.75">
       <c r="A320" s="77">
-        <f>RANK(G320,$G$320:$G$333)</f>
+        <f t="shared" ref="A320:A333" si="54">RANK(G320,$G$320:$G$333)</f>
         <v>1</v>
       </c>
       <c r="B320" s="58" t="s">
@@ -19770,11 +19630,11 @@
         <v>258</v>
       </c>
       <c r="F320" s="80">
-        <f>SUM(C320:E320)</f>
+        <f t="shared" ref="F320:F333" si="55">SUM(C320:E320)</f>
         <v>741</v>
       </c>
       <c r="G320" s="87">
-        <f>F320/COUNTA(C320:E320)</f>
+        <f t="shared" ref="G320:G333" si="56">F320/COUNTA(C320:E320)</f>
         <v>247</v>
       </c>
       <c r="H320" s="58" t="s">
@@ -19782,24 +19642,24 @@
       </c>
       <c r="I320" s="70">
         <f>VLOOKUP(B320,'총에버 관리_2023'!$A$3:$AF$22,31,FALSE)</f>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J320" s="70">
         <f>VLOOKUP(B320,'총에버 관리_2023'!$A$3:$AF$22,30,FALSE)</f>
-        <v>6024</v>
+        <v>7163</v>
       </c>
       <c r="K320" s="83">
         <f>VLOOKUP(B320,'총에버 관리_2023'!$A$3:$AF$22,32,FALSE)</f>
-        <v>182.54545454545453</v>
+        <v>183.66666666666666</v>
       </c>
       <c r="L320" s="84">
         <f>RANK(K320,'총에버 관리_2023'!$AF$3:$AF$22)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321" spans="1:12" ht="18.75">
       <c r="A321" s="77">
-        <f>RANK(G321,$G$320:$G$333)</f>
+        <f t="shared" si="54"/>
         <v>2</v>
       </c>
       <c r="B321" s="72" t="s">
@@ -19815,11 +19675,11 @@
         <v>192</v>
       </c>
       <c r="F321" s="69">
-        <f>SUM(C321:E321)</f>
+        <f t="shared" si="55"/>
         <v>657</v>
       </c>
       <c r="G321" s="87">
-        <f>F321/COUNTA(C321:E321)</f>
+        <f t="shared" si="56"/>
         <v>219</v>
       </c>
       <c r="H321" s="72" t="s">
@@ -19827,24 +19687,24 @@
       </c>
       <c r="I321" s="70">
         <f>VLOOKUP(B321,'총에버 관리_2023'!$A$3:$AF$22,31,FALSE)</f>
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J321" s="70">
         <f>VLOOKUP(B321,'총에버 관리_2023'!$A$3:$AF$22,30,FALSE)</f>
-        <v>10516</v>
+        <v>11761</v>
       </c>
       <c r="K321" s="83">
         <f>VLOOKUP(B321,'총에버 관리_2023'!$A$3:$AF$22,32,FALSE)</f>
-        <v>206.19607843137254</v>
+        <v>206.33333333333334</v>
       </c>
       <c r="L321" s="84">
         <f>RANK(K321,'총에버 관리_2023'!$AF$3:$AF$22)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:12" ht="18.75">
       <c r="A322" s="77">
-        <f>RANK(G322,$G$320:$G$333)</f>
+        <f t="shared" si="54"/>
         <v>3</v>
       </c>
       <c r="B322" s="58" t="s">
@@ -19860,11 +19720,11 @@
         <v>209</v>
       </c>
       <c r="F322" s="69">
-        <f>SUM(C322:E322)</f>
+        <f t="shared" si="55"/>
         <v>653</v>
       </c>
       <c r="G322" s="87">
-        <f>F322/COUNTA(C322:E322)</f>
+        <f t="shared" si="56"/>
         <v>217.66666666666666</v>
       </c>
       <c r="H322" s="58" t="s">
@@ -19872,24 +19732,24 @@
       </c>
       <c r="I322" s="70">
         <f>VLOOKUP(B322,'총에버 관리_2023'!$A$3:$AF$22,31,FALSE)</f>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J322" s="70">
         <f>VLOOKUP(B322,'총에버 관리_2023'!$A$3:$AF$22,30,FALSE)</f>
-        <v>11064</v>
+        <v>12447</v>
       </c>
       <c r="K322" s="83">
         <f>VLOOKUP(B322,'총에버 관리_2023'!$A$3:$AF$22,32,FALSE)</f>
-        <v>204.88888888888889</v>
+        <v>207.45</v>
       </c>
       <c r="L322" s="84">
         <f>RANK(K322,'총에버 관리_2023'!$AF$3:$AF$22)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:12" ht="19.5" thickBot="1">
       <c r="A323" s="77">
-        <f>RANK(G323,$G$320:$G$333)</f>
+        <f t="shared" si="54"/>
         <v>4</v>
       </c>
       <c r="B323" s="58" t="s">
@@ -19905,11 +19765,11 @@
         <v>194</v>
       </c>
       <c r="F323" s="69">
-        <f>SUM(C323:E323)</f>
+        <f t="shared" si="55"/>
         <v>626</v>
       </c>
       <c r="G323" s="87">
-        <f>F323/COUNTA(C323:E323)</f>
+        <f t="shared" si="56"/>
         <v>208.66666666666666</v>
       </c>
       <c r="H323" s="58" t="s">
@@ -19917,24 +19777,24 @@
       </c>
       <c r="I323" s="70">
         <f>VLOOKUP(B323,'총에버 관리_2023'!$A$3:$AF$22,31,FALSE)</f>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J323" s="70">
         <f>VLOOKUP(B323,'총에버 관리_2023'!$A$3:$AF$22,30,FALSE)</f>
-        <v>9901</v>
+        <v>11021</v>
       </c>
       <c r="K323" s="83">
         <f>VLOOKUP(B323,'총에버 관리_2023'!$A$3:$AF$22,32,FALSE)</f>
-        <v>183.35185185185185</v>
+        <v>183.68333333333334</v>
       </c>
       <c r="L323" s="84">
         <f>RANK(K323,'총에버 관리_2023'!$AF$3:$AF$22)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="324" spans="1:12" ht="19.5" thickBot="1">
       <c r="A324" s="77">
-        <f>RANK(G324,$G$320:$G$333)</f>
+        <f t="shared" si="54"/>
         <v>5</v>
       </c>
       <c r="B324" s="58" t="s">
@@ -19950,11 +19810,11 @@
         <v>236</v>
       </c>
       <c r="F324" s="69">
-        <f>SUM(C324:E324)</f>
+        <f t="shared" si="55"/>
         <v>623</v>
       </c>
       <c r="G324" s="87">
-        <f>F324/COUNTA(C324:E324)</f>
+        <f t="shared" si="56"/>
         <v>207.66666666666666</v>
       </c>
       <c r="H324" s="58" t="s">
@@ -19962,15 +19822,15 @@
       </c>
       <c r="I324" s="70">
         <f>VLOOKUP(B324,'총에버 관리_2023'!$A$3:$AF$22,31,FALSE)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J324" s="70">
         <f>VLOOKUP(B324,'총에버 관리_2023'!$A$3:$AF$22,30,FALSE)</f>
-        <v>2337</v>
+        <v>3543</v>
       </c>
       <c r="K324" s="83">
         <f>VLOOKUP(B324,'총에버 관리_2023'!$A$3:$AF$22,32,FALSE)</f>
-        <v>194.75</v>
+        <v>196.83333333333334</v>
       </c>
       <c r="L324" s="84">
         <f>RANK(K324,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -19979,7 +19839,7 @@
     </row>
     <row r="325" spans="1:12" ht="19.5" thickBot="1">
       <c r="A325" s="77">
-        <f>RANK(G325,$G$320:$G$333)</f>
+        <f t="shared" si="54"/>
         <v>6</v>
       </c>
       <c r="B325" s="65" t="s">
@@ -19995,11 +19855,11 @@
         <v>206</v>
       </c>
       <c r="F325" s="69">
-        <f>SUM(C325:E325)</f>
+        <f t="shared" si="55"/>
         <v>618</v>
       </c>
       <c r="G325" s="87">
-        <f>F325/COUNTA(C325:E325)</f>
+        <f t="shared" si="56"/>
         <v>206</v>
       </c>
       <c r="H325" s="65" t="s">
@@ -20024,7 +19884,7 @@
     </row>
     <row r="326" spans="1:12" ht="19.5" thickBot="1">
       <c r="A326" s="77">
-        <f>RANK(G326,$G$320:$G$333)</f>
+        <f t="shared" si="54"/>
         <v>7</v>
       </c>
       <c r="B326" s="65" t="s">
@@ -20040,11 +19900,11 @@
         <v>247</v>
       </c>
       <c r="F326" s="69">
-        <f>SUM(C326:E326)</f>
+        <f t="shared" si="55"/>
         <v>576</v>
       </c>
       <c r="G326" s="87">
-        <f>F326/COUNTA(C326:E326)</f>
+        <f t="shared" si="56"/>
         <v>192</v>
       </c>
       <c r="H326" s="65" t="s">
@@ -20052,15 +19912,15 @@
       </c>
       <c r="I326" s="70">
         <f>VLOOKUP(B326,'총에버 관리_2023'!$A$3:$AF$22,31,FALSE)</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J326" s="70">
         <f>VLOOKUP(B326,'총에버 관리_2023'!$A$3:$AF$22,30,FALSE)</f>
-        <v>4754</v>
+        <v>5969</v>
       </c>
       <c r="K326" s="83">
         <f>VLOOKUP(B326,'총에버 관리_2023'!$A$3:$AF$22,32,FALSE)</f>
-        <v>198.08333333333334</v>
+        <v>198.96666666666667</v>
       </c>
       <c r="L326" s="84">
         <f>RANK(K326,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -20069,7 +19929,7 @@
     </row>
     <row r="327" spans="1:12" ht="18.75">
       <c r="A327" s="77">
-        <f>RANK(G327,$G$320:$G$333)</f>
+        <f t="shared" si="54"/>
         <v>8</v>
       </c>
       <c r="B327" s="58" t="s">
@@ -20085,11 +19945,11 @@
         <v>187</v>
       </c>
       <c r="F327" s="63">
-        <f>SUM(C327:E327)</f>
+        <f t="shared" si="55"/>
         <v>562</v>
       </c>
       <c r="G327" s="87">
-        <f>F327/COUNTA(C327:E327)</f>
+        <f t="shared" si="56"/>
         <v>187.33333333333334</v>
       </c>
       <c r="H327" s="58" t="s">
@@ -20097,15 +19957,15 @@
       </c>
       <c r="I327" s="70">
         <f>VLOOKUP(B327,'총에버 관리_2023'!$A$3:$AF$22,31,FALSE)</f>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J327" s="70">
         <f>VLOOKUP(B327,'총에버 관리_2023'!$A$3:$AF$22,30,FALSE)</f>
-        <v>6961</v>
+        <v>7614</v>
       </c>
       <c r="K327" s="83">
         <f>VLOOKUP(B327,'총에버 관리_2023'!$A$3:$AF$22,32,FALSE)</f>
-        <v>193.36111111111111</v>
+        <v>195.23076923076923</v>
       </c>
       <c r="L327" s="84">
         <f>RANK(K327,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -20114,7 +19974,7 @@
     </row>
     <row r="328" spans="1:12" ht="18.75">
       <c r="A328" s="77">
-        <f>RANK(G328,$G$320:$G$333)</f>
+        <f t="shared" si="54"/>
         <v>8</v>
       </c>
       <c r="B328" s="65" t="s">
@@ -20130,11 +19990,11 @@
         <v>167</v>
       </c>
       <c r="F328" s="69">
-        <f>SUM(C328:E328)</f>
+        <f t="shared" si="55"/>
         <v>562</v>
       </c>
       <c r="G328" s="87">
-        <f>F328/COUNTA(C328:E328)</f>
+        <f t="shared" si="56"/>
         <v>187.33333333333334</v>
       </c>
       <c r="H328" s="65" t="s">
@@ -20142,15 +20002,15 @@
       </c>
       <c r="I328" s="70">
         <f>VLOOKUP(B328,'총에버 관리_2023'!$A$3:$AF$22,31,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J328" s="70">
         <f>VLOOKUP(B328,'총에버 관리_2023'!$A$3:$AF$22,30,FALSE)</f>
-        <v>2714</v>
+        <v>3245</v>
       </c>
       <c r="K328" s="83">
         <f>VLOOKUP(B328,'총에버 관리_2023'!$A$3:$AF$22,32,FALSE)</f>
-        <v>180.93333333333334</v>
+        <v>180.27777777777777</v>
       </c>
       <c r="L328" s="84">
         <f>RANK(K328,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -20159,7 +20019,7 @@
     </row>
     <row r="329" spans="1:12" ht="18.75">
       <c r="A329" s="77">
-        <f>RANK(G329,$G$320:$G$333)</f>
+        <f t="shared" si="54"/>
         <v>10</v>
       </c>
       <c r="B329" s="58" t="s">
@@ -20175,11 +20035,11 @@
         <v>203</v>
       </c>
       <c r="F329" s="63">
-        <f>SUM(C329:E329)</f>
+        <f t="shared" si="55"/>
         <v>547</v>
       </c>
       <c r="G329" s="87">
-        <f>F329/COUNTA(C329:E329)</f>
+        <f t="shared" si="56"/>
         <v>182.33333333333334</v>
       </c>
       <c r="H329" s="58" t="s">
@@ -20187,24 +20047,24 @@
       </c>
       <c r="I329" s="70">
         <f>VLOOKUP(B329,'총에버 관리_2023'!$A$3:$AF$22,31,FALSE)</f>
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J329" s="70">
         <f>VLOOKUP(B329,'총에버 관리_2023'!$A$3:$AF$22,30,FALSE)</f>
-        <v>9423</v>
+        <v>10444</v>
       </c>
       <c r="K329" s="83">
         <f>VLOOKUP(B329,'총에버 관리_2023'!$A$3:$AF$22,32,FALSE)</f>
-        <v>184.76470588235293</v>
+        <v>183.2280701754386</v>
       </c>
       <c r="L329" s="84">
         <f>RANK(K329,'총에버 관리_2023'!$AF$3:$AF$22)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="330" spans="1:12" ht="18.75">
       <c r="A330" s="77">
-        <f>RANK(G330,$G$320:$G$333)</f>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="B330" s="58" t="s">
@@ -20220,11 +20080,11 @@
         <v>180</v>
       </c>
       <c r="F330" s="69">
-        <f>SUM(C330:E330)</f>
+        <f t="shared" si="55"/>
         <v>542</v>
       </c>
       <c r="G330" s="87">
-        <f>F330/COUNTA(C330:E330)</f>
+        <f t="shared" si="56"/>
         <v>180.66666666666666</v>
       </c>
       <c r="H330" s="58" t="s">
@@ -20232,15 +20092,15 @@
       </c>
       <c r="I330" s="70">
         <f>VLOOKUP(B330,'총에버 관리_2023'!$A$3:$AF$22,31,FALSE)</f>
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J330" s="70">
         <f>VLOOKUP(B330,'총에버 관리_2023'!$A$3:$AF$22,30,FALSE)</f>
-        <v>8659</v>
+        <v>9778</v>
       </c>
       <c r="K330" s="83">
         <f>VLOOKUP(B330,'총에버 관리_2023'!$A$3:$AF$22,32,FALSE)</f>
-        <v>192.42222222222222</v>
+        <v>191.72549019607843</v>
       </c>
       <c r="L330" s="84">
         <f>RANK(K330,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -20249,7 +20109,7 @@
     </row>
     <row r="331" spans="1:12" ht="18.75">
       <c r="A331" s="77">
-        <f>RANK(G331,$G$320:$G$333)</f>
+        <f t="shared" si="54"/>
         <v>12</v>
       </c>
       <c r="B331" s="58" t="s">
@@ -20265,11 +20125,11 @@
         <v>208</v>
       </c>
       <c r="F331" s="63">
-        <f>SUM(C331:E331)</f>
+        <f t="shared" si="55"/>
         <v>522</v>
       </c>
       <c r="G331" s="87">
-        <f>F331/COUNTA(C331:E331)</f>
+        <f t="shared" si="56"/>
         <v>174</v>
       </c>
       <c r="H331" s="58" t="s">
@@ -20277,15 +20137,15 @@
       </c>
       <c r="I331" s="70">
         <f>VLOOKUP(B331,'총에버 관리_2023'!$A$3:$AF$22,31,FALSE)</f>
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J331" s="70">
         <f>VLOOKUP(B331,'총에버 관리_2023'!$A$3:$AF$22,30,FALSE)</f>
-        <v>9288</v>
+        <v>10344</v>
       </c>
       <c r="K331" s="83">
         <f>VLOOKUP(B331,'총에버 관리_2023'!$A$3:$AF$22,32,FALSE)</f>
-        <v>182.11764705882354</v>
+        <v>181.47368421052633</v>
       </c>
       <c r="L331" s="84">
         <f>RANK(K331,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -20294,7 +20154,7 @@
     </row>
     <row r="332" spans="1:12" ht="18.75">
       <c r="A332" s="77">
-        <f>RANK(G332,$G$320:$G$333)</f>
+        <f t="shared" si="54"/>
         <v>13</v>
       </c>
       <c r="B332" s="58" t="s">
@@ -20310,11 +20170,11 @@
         <v>166</v>
       </c>
       <c r="F332" s="69">
-        <f>SUM(C332:E332)</f>
+        <f t="shared" si="55"/>
         <v>484</v>
       </c>
       <c r="G332" s="87">
-        <f>F332/COUNTA(C332:E332)</f>
+        <f t="shared" si="56"/>
         <v>161.33333333333334</v>
       </c>
       <c r="H332" s="58" t="s">
@@ -20322,15 +20182,15 @@
       </c>
       <c r="I332" s="70">
         <f>VLOOKUP(B332,'총에버 관리_2023'!$A$3:$AF$22,31,FALSE)</f>
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J332" s="70">
         <f>VLOOKUP(B332,'총에버 관리_2023'!$A$3:$AF$22,30,FALSE)</f>
-        <v>6484</v>
+        <v>7479</v>
       </c>
       <c r="K332" s="83">
         <f>VLOOKUP(B332,'총에버 관리_2023'!$A$3:$AF$22,32,FALSE)</f>
-        <v>144.0888888888889</v>
+        <v>146.64705882352942</v>
       </c>
       <c r="L332" s="84">
         <f>RANK(K332,'총에버 관리_2023'!$AF$3:$AF$22)</f>
@@ -20339,7 +20199,7 @@
     </row>
     <row r="333" spans="1:12" ht="18.75">
       <c r="A333" s="77">
-        <f>RANK(G333,$G$320:$G$333)</f>
+        <f t="shared" si="54"/>
         <v>14</v>
       </c>
       <c r="B333" s="65" t="s">
@@ -20355,11 +20215,11 @@
         <v>174</v>
       </c>
       <c r="F333" s="69">
-        <f>SUM(C333:E333)</f>
+        <f t="shared" si="55"/>
         <v>473</v>
       </c>
       <c r="G333" s="87">
-        <f>F333/COUNTA(C333:E333)</f>
+        <f t="shared" si="56"/>
         <v>157.66666666666666</v>
       </c>
       <c r="H333" s="65" t="s">
@@ -20382,17 +20242,1340 @@
         <v>19</v>
       </c>
     </row>
+    <row r="336" spans="1:12" ht="31.5" customHeight="1">
+      <c r="A336" s="197" t="s">
+        <v>510</v>
+      </c>
+      <c r="B336" s="197"/>
+      <c r="C336" s="197"/>
+      <c r="D336" s="197"/>
+      <c r="E336" s="197"/>
+      <c r="F336" s="197"/>
+      <c r="G336" s="197"/>
+      <c r="H336" s="197"/>
+      <c r="I336" s="197"/>
+      <c r="J336" s="197"/>
+      <c r="K336" s="197"/>
+      <c r="L336" s="197"/>
+    </row>
+    <row r="337" spans="1:12" ht="38.25" thickBot="1">
+      <c r="A337" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="B337" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="C337" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D337" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="E337" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F337" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="G337" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H337" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I337" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="J337" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="K337" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="L337" s="76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" ht="20.25" thickTop="1" thickBot="1">
+      <c r="A338" s="77">
+        <f t="shared" ref="A338:A351" si="57">RANK(G338,$G$338:$G$351)</f>
+        <v>1</v>
+      </c>
+      <c r="B338" s="58" t="s">
+        <v>520</v>
+      </c>
+      <c r="C338" s="95">
+        <v>254</v>
+      </c>
+      <c r="D338" s="62">
+        <v>252</v>
+      </c>
+      <c r="E338" s="69">
+        <v>262</v>
+      </c>
+      <c r="F338" s="80">
+        <f t="shared" ref="F338:F351" si="58">SUM(C338:E338)</f>
+        <v>768</v>
+      </c>
+      <c r="G338" s="87">
+        <f t="shared" ref="G338:G351" si="59">F338/COUNTA(C338:E338)</f>
+        <v>256</v>
+      </c>
+      <c r="H338" s="58" t="s">
+        <v>520</v>
+      </c>
+      <c r="I338" s="70">
+        <f>VLOOKUP(B338,'총에버 관리_2023'!$A$3:$AF$22,31,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="J338" s="70">
+        <f>VLOOKUP(B338,'총에버 관리_2023'!$A$3:$AF$22,30,FALSE)</f>
+        <v>12447</v>
+      </c>
+      <c r="K338" s="83">
+        <f>VLOOKUP(B338,'총에버 관리_2023'!$A$3:$AF$22,32,FALSE)</f>
+        <v>207.45</v>
+      </c>
+      <c r="L338" s="84">
+        <f>RANK(K338,'총에버 관리_2023'!$AF$3:$AF$22)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" ht="19.5" thickTop="1">
+      <c r="A339" s="77">
+        <f t="shared" si="57"/>
+        <v>2</v>
+      </c>
+      <c r="B339" s="61" t="s">
+        <v>521</v>
+      </c>
+      <c r="C339" s="43">
+        <v>223</v>
+      </c>
+      <c r="D339" s="135">
+        <v>253</v>
+      </c>
+      <c r="E339" s="70">
+        <v>177</v>
+      </c>
+      <c r="F339" s="69">
+        <f t="shared" si="58"/>
+        <v>653</v>
+      </c>
+      <c r="G339" s="87">
+        <f t="shared" si="59"/>
+        <v>217.66666666666666</v>
+      </c>
+      <c r="H339" s="61" t="s">
+        <v>521</v>
+      </c>
+      <c r="I339" s="70">
+        <f>VLOOKUP(B339,'총에버 관리_2023'!$A$3:$AF$22,31,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="J339" s="70">
+        <f>VLOOKUP(B339,'총에버 관리_2023'!$A$3:$AF$22,30,FALSE)</f>
+        <v>7614</v>
+      </c>
+      <c r="K339" s="83">
+        <f>VLOOKUP(B339,'총에버 관리_2023'!$A$3:$AF$22,32,FALSE)</f>
+        <v>195.23076923076923</v>
+      </c>
+      <c r="L339" s="84">
+        <f>RANK(K339,'총에버 관리_2023'!$AF$3:$AF$22)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A340" s="77">
+        <f t="shared" si="57"/>
+        <v>3</v>
+      </c>
+      <c r="B340" s="58" t="s">
+        <v>513</v>
+      </c>
+      <c r="C340" s="111">
+        <v>203</v>
+      </c>
+      <c r="D340" s="71">
+        <v>205</v>
+      </c>
+      <c r="E340" s="69">
+        <v>202</v>
+      </c>
+      <c r="F340" s="69">
+        <f t="shared" si="58"/>
+        <v>610</v>
+      </c>
+      <c r="G340" s="87">
+        <f t="shared" si="59"/>
+        <v>203.33333333333334</v>
+      </c>
+      <c r="H340" s="58" t="s">
+        <v>513</v>
+      </c>
+      <c r="I340" s="70">
+        <f>VLOOKUP(B340,'총에버 관리_2023'!$A$3:$AF$22,31,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="J340" s="70">
+        <f>VLOOKUP(B340,'총에버 관리_2023'!$A$3:$AF$22,30,FALSE)</f>
+        <v>3543</v>
+      </c>
+      <c r="K340" s="83">
+        <f>VLOOKUP(B340,'총에버 관리_2023'!$A$3:$AF$22,32,FALSE)</f>
+        <v>196.83333333333334</v>
+      </c>
+      <c r="L340" s="84">
+        <f>RANK(K340,'총에버 관리_2023'!$AF$3:$AF$22)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" ht="20.25" thickTop="1" thickBot="1">
+      <c r="A341" s="77">
+        <f t="shared" si="57"/>
+        <v>4</v>
+      </c>
+      <c r="B341" s="58" t="s">
+        <v>514</v>
+      </c>
+      <c r="C341" s="67">
+        <v>203</v>
+      </c>
+      <c r="D341" s="68">
+        <v>207</v>
+      </c>
+      <c r="E341" s="69">
+        <v>184</v>
+      </c>
+      <c r="F341" s="69">
+        <f t="shared" si="58"/>
+        <v>594</v>
+      </c>
+      <c r="G341" s="87">
+        <f t="shared" si="59"/>
+        <v>198</v>
+      </c>
+      <c r="H341" s="58" t="s">
+        <v>514</v>
+      </c>
+      <c r="I341" s="70">
+        <f>VLOOKUP(B341,'총에버 관리_2023'!$A$3:$AF$22,31,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="J341" s="70">
+        <f>VLOOKUP(B341,'총에버 관리_2023'!$A$3:$AF$22,30,FALSE)</f>
+        <v>7163</v>
+      </c>
+      <c r="K341" s="83">
+        <f>VLOOKUP(B341,'총에버 관리_2023'!$A$3:$AF$22,32,FALSE)</f>
+        <v>183.66666666666666</v>
+      </c>
+      <c r="L341" s="84">
+        <f>RANK(K341,'총에버 관리_2023'!$AF$3:$AF$22)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" ht="19.5" thickTop="1">
+      <c r="A342" s="77">
+        <f t="shared" si="57"/>
+        <v>5</v>
+      </c>
+      <c r="B342" s="58" t="s">
+        <v>511</v>
+      </c>
+      <c r="C342" s="58">
+        <v>189</v>
+      </c>
+      <c r="D342" s="64">
+        <v>218</v>
+      </c>
+      <c r="E342" s="43">
+        <v>170</v>
+      </c>
+      <c r="F342" s="63">
+        <f t="shared" si="58"/>
+        <v>577</v>
+      </c>
+      <c r="G342" s="87">
+        <f t="shared" si="59"/>
+        <v>192.33333333333334</v>
+      </c>
+      <c r="H342" s="58" t="s">
+        <v>511</v>
+      </c>
+      <c r="I342" s="70">
+        <f>VLOOKUP(B342,'총에버 관리_2023'!$A$3:$AF$22,31,FALSE)</f>
+        <v>57</v>
+      </c>
+      <c r="J342" s="70">
+        <f>VLOOKUP(B342,'총에버 관리_2023'!$A$3:$AF$22,30,FALSE)</f>
+        <v>11761</v>
+      </c>
+      <c r="K342" s="83">
+        <f>VLOOKUP(B342,'총에버 관리_2023'!$A$3:$AF$22,32,FALSE)</f>
+        <v>206.33333333333334</v>
+      </c>
+      <c r="L342" s="84">
+        <f>RANK(K342,'총에버 관리_2023'!$AF$3:$AF$22)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" ht="18.75">
+      <c r="A343" s="77">
+        <f t="shared" si="57"/>
+        <v>6</v>
+      </c>
+      <c r="B343" s="58" t="s">
+        <v>522</v>
+      </c>
+      <c r="C343" s="58">
+        <v>160</v>
+      </c>
+      <c r="D343" s="58">
+        <v>206</v>
+      </c>
+      <c r="E343" s="43">
+        <v>210</v>
+      </c>
+      <c r="F343" s="63">
+        <f t="shared" si="58"/>
+        <v>576</v>
+      </c>
+      <c r="G343" s="87">
+        <f t="shared" si="59"/>
+        <v>192</v>
+      </c>
+      <c r="H343" s="58" t="s">
+        <v>522</v>
+      </c>
+      <c r="I343" s="70">
+        <f>VLOOKUP(B343,'총에버 관리_2023'!$A$3:$AF$22,31,FALSE)</f>
+        <v>57</v>
+      </c>
+      <c r="J343" s="70">
+        <f>VLOOKUP(B343,'총에버 관리_2023'!$A$3:$AF$22,30,FALSE)</f>
+        <v>10444</v>
+      </c>
+      <c r="K343" s="83">
+        <f>VLOOKUP(B343,'총에버 관리_2023'!$A$3:$AF$22,32,FALSE)</f>
+        <v>183.2280701754386</v>
+      </c>
+      <c r="L343" s="84">
+        <f>RANK(K343,'총에버 관리_2023'!$AF$3:$AF$22)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" ht="18.75">
+      <c r="A344" s="77">
+        <f t="shared" si="57"/>
+        <v>7</v>
+      </c>
+      <c r="B344" s="65" t="s">
+        <v>524</v>
+      </c>
+      <c r="C344" s="43">
+        <v>158</v>
+      </c>
+      <c r="D344" s="58">
+        <v>212</v>
+      </c>
+      <c r="E344" s="43">
+        <v>205</v>
+      </c>
+      <c r="F344" s="69">
+        <f t="shared" si="58"/>
+        <v>575</v>
+      </c>
+      <c r="G344" s="87">
+        <f t="shared" si="59"/>
+        <v>191.66666666666666</v>
+      </c>
+      <c r="H344" s="65" t="s">
+        <v>524</v>
+      </c>
+      <c r="I344" s="70">
+        <f>VLOOKUP(B344,'총에버 관리_2023'!$A$3:$AF$22,31,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="J344" s="70">
+        <f>VLOOKUP(B344,'총에버 관리_2023'!$A$3:$AF$22,30,FALSE)</f>
+        <v>5969</v>
+      </c>
+      <c r="K344" s="83">
+        <f>VLOOKUP(B344,'총에버 관리_2023'!$A$3:$AF$22,32,FALSE)</f>
+        <v>198.96666666666667</v>
+      </c>
+      <c r="L344" s="84">
+        <f>RANK(K344,'총에버 관리_2023'!$AF$3:$AF$22)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A345" s="77">
+        <f t="shared" si="57"/>
+        <v>8</v>
+      </c>
+      <c r="B345" s="65" t="s">
+        <v>512</v>
+      </c>
+      <c r="C345" s="43">
+        <v>216</v>
+      </c>
+      <c r="D345" s="59">
+        <v>179</v>
+      </c>
+      <c r="E345" s="58">
+        <v>179</v>
+      </c>
+      <c r="F345" s="69">
+        <f t="shared" si="58"/>
+        <v>574</v>
+      </c>
+      <c r="G345" s="87">
+        <f t="shared" si="59"/>
+        <v>191.33333333333334</v>
+      </c>
+      <c r="H345" s="65" t="s">
+        <v>512</v>
+      </c>
+      <c r="I345" s="70">
+        <f>VLOOKUP(B345,'총에버 관리_2023'!$A$3:$AF$22,31,FALSE)</f>
+        <v>51</v>
+      </c>
+      <c r="J345" s="70">
+        <f>VLOOKUP(B345,'총에버 관리_2023'!$A$3:$AF$22,30,FALSE)</f>
+        <v>8433</v>
+      </c>
+      <c r="K345" s="83">
+        <f>VLOOKUP(B345,'총에버 관리_2023'!$A$3:$AF$22,32,FALSE)</f>
+        <v>165.35294117647058</v>
+      </c>
+      <c r="L345" s="84">
+        <f>RANK(K345,'총에버 관리_2023'!$AF$3:$AF$22)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12" ht="20.25" thickTop="1" thickBot="1">
+      <c r="A346" s="77">
+        <f t="shared" si="57"/>
+        <v>9</v>
+      </c>
+      <c r="B346" s="58" t="s">
+        <v>515</v>
+      </c>
+      <c r="C346" s="67">
+        <v>168</v>
+      </c>
+      <c r="D346" s="68">
+        <v>236</v>
+      </c>
+      <c r="E346" s="63">
+        <v>146</v>
+      </c>
+      <c r="F346" s="69">
+        <f t="shared" si="58"/>
+        <v>550</v>
+      </c>
+      <c r="G346" s="87">
+        <f t="shared" si="59"/>
+        <v>183.33333333333334</v>
+      </c>
+      <c r="H346" s="58" t="s">
+        <v>515</v>
+      </c>
+      <c r="I346" s="70">
+        <f>VLOOKUP(B346,'총에버 관리_2023'!$A$3:$AF$22,31,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="J346" s="70">
+        <f>VLOOKUP(B346,'총에버 관리_2023'!$A$3:$AF$22,30,FALSE)</f>
+        <v>1620</v>
+      </c>
+      <c r="K346" s="83">
+        <f>VLOOKUP(B346,'총에버 관리_2023'!$A$3:$AF$22,32,FALSE)</f>
+        <v>180</v>
+      </c>
+      <c r="L346" s="84">
+        <f>RANK(K346,'총에버 관리_2023'!$AF$3:$AF$22)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" ht="19.5" thickTop="1">
+      <c r="A347" s="77">
+        <f t="shared" si="57"/>
+        <v>10</v>
+      </c>
+      <c r="B347" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="C347" s="43">
+        <v>155</v>
+      </c>
+      <c r="D347" s="70">
+        <v>191</v>
+      </c>
+      <c r="E347" s="43">
+        <v>185</v>
+      </c>
+      <c r="F347" s="69">
+        <f t="shared" si="58"/>
+        <v>531</v>
+      </c>
+      <c r="G347" s="87">
+        <f t="shared" si="59"/>
+        <v>177</v>
+      </c>
+      <c r="H347" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="I347" s="70">
+        <f>VLOOKUP(B347,'총에버 관리_2023'!$A$3:$AF$22,31,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="J347" s="70">
+        <f>VLOOKUP(B347,'총에버 관리_2023'!$A$3:$AF$22,30,FALSE)</f>
+        <v>3245</v>
+      </c>
+      <c r="K347" s="83">
+        <f>VLOOKUP(B347,'총에버 관리_2023'!$A$3:$AF$22,32,FALSE)</f>
+        <v>180.27777777777777</v>
+      </c>
+      <c r="L347" s="84">
+        <f>RANK(K347,'총에버 관리_2023'!$AF$3:$AF$22)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" ht="18.75">
+      <c r="A348" s="77">
+        <f t="shared" si="57"/>
+        <v>11</v>
+      </c>
+      <c r="B348" s="58" t="s">
+        <v>518</v>
+      </c>
+      <c r="C348" s="58">
+        <v>182</v>
+      </c>
+      <c r="D348" s="58">
+        <v>153</v>
+      </c>
+      <c r="E348" s="43">
+        <v>195</v>
+      </c>
+      <c r="F348" s="63">
+        <f t="shared" si="58"/>
+        <v>530</v>
+      </c>
+      <c r="G348" s="87">
+        <f t="shared" si="59"/>
+        <v>176.66666666666666</v>
+      </c>
+      <c r="H348" s="58" t="s">
+        <v>518</v>
+      </c>
+      <c r="I348" s="70">
+        <f>VLOOKUP(B348,'총에버 관리_2023'!$A$3:$AF$22,31,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="J348" s="70">
+        <f>VLOOKUP(B348,'총에버 관리_2023'!$A$3:$AF$22,30,FALSE)</f>
+        <v>11021</v>
+      </c>
+      <c r="K348" s="83">
+        <f>VLOOKUP(B348,'총에버 관리_2023'!$A$3:$AF$22,32,FALSE)</f>
+        <v>183.68333333333334</v>
+      </c>
+      <c r="L348" s="84">
+        <f>RANK(K348,'총에버 관리_2023'!$AF$3:$AF$22)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" ht="18.75">
+      <c r="A349" s="77">
+        <f t="shared" si="57"/>
+        <v>12</v>
+      </c>
+      <c r="B349" s="65" t="s">
+        <v>519</v>
+      </c>
+      <c r="C349" s="43">
+        <v>149</v>
+      </c>
+      <c r="D349" s="58">
+        <v>154</v>
+      </c>
+      <c r="E349" s="58">
+        <v>224</v>
+      </c>
+      <c r="F349" s="69">
+        <f t="shared" si="58"/>
+        <v>527</v>
+      </c>
+      <c r="G349" s="87">
+        <f t="shared" si="59"/>
+        <v>175.66666666666666</v>
+      </c>
+      <c r="H349" s="65" t="s">
+        <v>519</v>
+      </c>
+      <c r="I349" s="70">
+        <f>VLOOKUP(B349,'총에버 관리_2023'!$A$3:$AF$22,31,FALSE)</f>
+        <v>51</v>
+      </c>
+      <c r="J349" s="70">
+        <f>VLOOKUP(B349,'총에버 관리_2023'!$A$3:$AF$22,30,FALSE)</f>
+        <v>9778</v>
+      </c>
+      <c r="K349" s="83">
+        <f>VLOOKUP(B349,'총에버 관리_2023'!$A$3:$AF$22,32,FALSE)</f>
+        <v>191.72549019607843</v>
+      </c>
+      <c r="L349" s="84">
+        <f>RANK(K349,'총에버 관리_2023'!$AF$3:$AF$22)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" ht="18.75">
+      <c r="A350" s="77">
+        <f t="shared" si="57"/>
+        <v>13</v>
+      </c>
+      <c r="B350" s="65" t="s">
+        <v>516</v>
+      </c>
+      <c r="C350" s="43">
+        <v>151</v>
+      </c>
+      <c r="D350" s="43">
+        <v>212</v>
+      </c>
+      <c r="E350" s="43">
+        <v>162</v>
+      </c>
+      <c r="F350" s="69">
+        <f t="shared" si="58"/>
+        <v>525</v>
+      </c>
+      <c r="G350" s="87">
+        <f t="shared" si="59"/>
+        <v>175</v>
+      </c>
+      <c r="H350" s="65" t="s">
+        <v>516</v>
+      </c>
+      <c r="I350" s="70">
+        <f>VLOOKUP(B350,'총에버 관리_2023'!$A$3:$AF$22,31,FALSE)</f>
+        <v>57</v>
+      </c>
+      <c r="J350" s="70">
+        <f>VLOOKUP(B350,'총에버 관리_2023'!$A$3:$AF$22,30,FALSE)</f>
+        <v>10344</v>
+      </c>
+      <c r="K350" s="83">
+        <f>VLOOKUP(B350,'총에버 관리_2023'!$A$3:$AF$22,32,FALSE)</f>
+        <v>181.47368421052633</v>
+      </c>
+      <c r="L350" s="84">
+        <f>RANK(K350,'총에버 관리_2023'!$AF$3:$AF$22)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12" ht="18.75">
+      <c r="A351" s="77">
+        <f t="shared" si="57"/>
+        <v>14</v>
+      </c>
+      <c r="B351" s="65" t="s">
+        <v>517</v>
+      </c>
+      <c r="C351" s="43">
+        <v>159</v>
+      </c>
+      <c r="D351" s="43">
+        <v>165</v>
+      </c>
+      <c r="E351" s="43">
+        <v>175</v>
+      </c>
+      <c r="F351" s="69">
+        <f t="shared" si="58"/>
+        <v>499</v>
+      </c>
+      <c r="G351" s="87">
+        <f t="shared" si="59"/>
+        <v>166.33333333333334</v>
+      </c>
+      <c r="H351" s="65" t="s">
+        <v>517</v>
+      </c>
+      <c r="I351" s="70">
+        <f>VLOOKUP(B351,'총에버 관리_2023'!$A$3:$AF$22,31,FALSE)</f>
+        <v>51</v>
+      </c>
+      <c r="J351" s="70">
+        <f>VLOOKUP(B351,'총에버 관리_2023'!$A$3:$AF$22,30,FALSE)</f>
+        <v>7479</v>
+      </c>
+      <c r="K351" s="83">
+        <f>VLOOKUP(B351,'총에버 관리_2023'!$A$3:$AF$22,32,FALSE)</f>
+        <v>146.64705882352942</v>
+      </c>
+      <c r="L351" s="84">
+        <f>RANK(K351,'총에버 관리_2023'!$AF$3:$AF$22)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" ht="34.5" customHeight="1">
+      <c r="A354" s="197" t="s">
+        <v>525</v>
+      </c>
+      <c r="B354" s="197"/>
+      <c r="C354" s="197"/>
+      <c r="D354" s="197"/>
+      <c r="E354" s="197"/>
+      <c r="F354" s="197"/>
+      <c r="G354" s="197"/>
+      <c r="H354" s="197"/>
+      <c r="I354" s="197"/>
+      <c r="J354" s="197"/>
+      <c r="K354" s="197"/>
+      <c r="L354" s="197"/>
+    </row>
+    <row r="355" spans="1:12" ht="37.5">
+      <c r="A355" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="B355" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="C355" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D355" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="E355" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F355" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="G355" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H355" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I355" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="J355" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="K355" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="L355" s="76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" ht="18.75">
+      <c r="A356" s="77">
+        <f>RANK(G356,$G$356:$G$368)</f>
+        <v>1</v>
+      </c>
+      <c r="B356" s="58" t="s">
+        <v>528</v>
+      </c>
+      <c r="C356" s="124">
+        <v>216</v>
+      </c>
+      <c r="D356" s="43">
+        <v>226</v>
+      </c>
+      <c r="E356" s="69">
+        <v>226</v>
+      </c>
+      <c r="F356" s="86">
+        <f>SUM(C356:E356)</f>
+        <v>668</v>
+      </c>
+      <c r="G356" s="87">
+        <f>F356/COUNTA(C356:E356)</f>
+        <v>222.66666666666666</v>
+      </c>
+      <c r="H356" s="58" t="s">
+        <v>528</v>
+      </c>
+      <c r="I356" s="70">
+        <f>VLOOKUP(B356,'총에버 관리_2023'!$A$3:$AF$22,31,FALSE)</f>
+        <v>57</v>
+      </c>
+      <c r="J356" s="70">
+        <f>VLOOKUP(B356,'총에버 관리_2023'!$A$3:$AF$22,30,FALSE)</f>
+        <v>11761</v>
+      </c>
+      <c r="K356" s="83">
+        <f>VLOOKUP(B356,'총에버 관리_2023'!$A$3:$AF$22,32,FALSE)</f>
+        <v>206.33333333333334</v>
+      </c>
+      <c r="L356" s="84">
+        <f>RANK(K356,'총에버 관리_2023'!$AF$3:$AF$22)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" ht="18.75">
+      <c r="A357" s="77">
+        <f>RANK(G357,$G$356:$G$368)</f>
+        <v>2</v>
+      </c>
+      <c r="B357" s="61" t="s">
+        <v>531</v>
+      </c>
+      <c r="C357" s="61">
+        <v>173</v>
+      </c>
+      <c r="D357" s="58">
+        <v>235</v>
+      </c>
+      <c r="E357" s="86">
+        <v>232</v>
+      </c>
+      <c r="F357" s="63">
+        <f>SUM(C357:E357)</f>
+        <v>640</v>
+      </c>
+      <c r="G357" s="87">
+        <f>F357/COUNTA(C357:E357)</f>
+        <v>213.33333333333334</v>
+      </c>
+      <c r="H357" s="61" t="s">
+        <v>531</v>
+      </c>
+      <c r="I357" s="70">
+        <f>VLOOKUP(B357,'총에버 관리_2023'!$A$3:$AF$22,31,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="J357" s="70">
+        <f>VLOOKUP(B357,'총에버 관리_2023'!$A$3:$AF$22,30,FALSE)</f>
+        <v>5969</v>
+      </c>
+      <c r="K357" s="83">
+        <f>VLOOKUP(B357,'총에버 관리_2023'!$A$3:$AF$22,32,FALSE)</f>
+        <v>198.96666666666667</v>
+      </c>
+      <c r="L357" s="84">
+        <f>RANK(K357,'총에버 관리_2023'!$AF$3:$AF$22)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" ht="18.75">
+      <c r="A358" s="77">
+        <f>RANK(G358,$G$356:$G$368)</f>
+        <v>3</v>
+      </c>
+      <c r="B358" s="65" t="s">
+        <v>533</v>
+      </c>
+      <c r="C358" s="111">
+        <v>204</v>
+      </c>
+      <c r="D358" s="58">
+        <v>205</v>
+      </c>
+      <c r="E358" s="63">
+        <v>206</v>
+      </c>
+      <c r="F358" s="69">
+        <f>SUM(C358:E358)</f>
+        <v>615</v>
+      </c>
+      <c r="G358" s="87">
+        <f>F358/COUNTA(C358:E358)</f>
+        <v>205</v>
+      </c>
+      <c r="H358" s="65" t="s">
+        <v>533</v>
+      </c>
+      <c r="I358" s="70">
+        <f>VLOOKUP(B358,'총에버 관리_2023'!$A$3:$AF$22,31,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="J358" s="70">
+        <f>VLOOKUP(B358,'총에버 관리_2023'!$A$3:$AF$22,30,FALSE)</f>
+        <v>12447</v>
+      </c>
+      <c r="K358" s="83">
+        <f>VLOOKUP(B358,'총에버 관리_2023'!$A$3:$AF$22,32,FALSE)</f>
+        <v>207.45</v>
+      </c>
+      <c r="L358" s="84">
+        <f>RANK(K358,'총에버 관리_2023'!$AF$3:$AF$22)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" ht="18.75">
+      <c r="A359" s="77">
+        <f>RANK(G359,$G$356:$G$368)</f>
+        <v>4</v>
+      </c>
+      <c r="B359" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="C359" s="67">
+        <v>209</v>
+      </c>
+      <c r="D359" s="43">
+        <v>212</v>
+      </c>
+      <c r="E359" s="69">
+        <v>175</v>
+      </c>
+      <c r="F359" s="69">
+        <f>SUM(C359:E359)</f>
+        <v>596</v>
+      </c>
+      <c r="G359" s="87">
+        <f>F359/COUNTA(C359:E359)</f>
+        <v>198.66666666666666</v>
+      </c>
+      <c r="H359" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="I359" s="70">
+        <f>VLOOKUP(B359,'총에버 관리_2023'!$A$3:$AF$22,31,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="J359" s="70">
+        <f>VLOOKUP(B359,'총에버 관리_2023'!$A$3:$AF$22,30,FALSE)</f>
+        <v>3543</v>
+      </c>
+      <c r="K359" s="83">
+        <f>VLOOKUP(B359,'총에버 관리_2023'!$A$3:$AF$22,32,FALSE)</f>
+        <v>196.83333333333334</v>
+      </c>
+      <c r="L359" s="84">
+        <f>RANK(K359,'총에버 관리_2023'!$AF$3:$AF$22)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" ht="18.75">
+      <c r="A360" s="77">
+        <f>RANK(G360,$G$356:$G$368)</f>
+        <v>5</v>
+      </c>
+      <c r="B360" s="58" t="s">
+        <v>527</v>
+      </c>
+      <c r="C360" s="67">
+        <v>193</v>
+      </c>
+      <c r="D360" s="43">
+        <v>200</v>
+      </c>
+      <c r="E360" s="69">
+        <v>199</v>
+      </c>
+      <c r="F360" s="69">
+        <f>SUM(C360:E360)</f>
+        <v>592</v>
+      </c>
+      <c r="G360" s="87">
+        <f>F360/COUNTA(C360:E360)</f>
+        <v>197.33333333333334</v>
+      </c>
+      <c r="H360" s="58" t="s">
+        <v>527</v>
+      </c>
+      <c r="I360" s="70">
+        <f>VLOOKUP(B360,'총에버 관리_2023'!$A$3:$AF$22,31,FALSE)</f>
+        <v>51</v>
+      </c>
+      <c r="J360" s="70">
+        <f>VLOOKUP(B360,'총에버 관리_2023'!$A$3:$AF$22,30,FALSE)</f>
+        <v>9778</v>
+      </c>
+      <c r="K360" s="83">
+        <f>VLOOKUP(B360,'총에버 관리_2023'!$A$3:$AF$22,32,FALSE)</f>
+        <v>191.72549019607843</v>
+      </c>
+      <c r="L360" s="84">
+        <f>RANK(K360,'총에버 관리_2023'!$AF$3:$AF$22)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" ht="18.75">
+      <c r="A361" s="77">
+        <f>RANK(G361,$G$356:$G$368)</f>
+        <v>6</v>
+      </c>
+      <c r="B361" s="65" t="s">
+        <v>532</v>
+      </c>
+      <c r="C361" s="67">
+        <v>170</v>
+      </c>
+      <c r="D361" s="58">
+        <v>203</v>
+      </c>
+      <c r="E361" s="69">
+        <v>217</v>
+      </c>
+      <c r="F361" s="69">
+        <f>SUM(C361:E361)</f>
+        <v>590</v>
+      </c>
+      <c r="G361" s="87">
+        <f>F361/COUNTA(C361:E361)</f>
+        <v>196.66666666666666</v>
+      </c>
+      <c r="H361" s="65" t="s">
+        <v>532</v>
+      </c>
+      <c r="I361" s="70">
+        <f>VLOOKUP(B361,'총에버 관리_2023'!$A$3:$AF$22,31,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="J361" s="70">
+        <f>VLOOKUP(B361,'총에버 관리_2023'!$A$3:$AF$22,30,FALSE)</f>
+        <v>11021</v>
+      </c>
+      <c r="K361" s="83">
+        <f>VLOOKUP(B361,'총에버 관리_2023'!$A$3:$AF$22,32,FALSE)</f>
+        <v>183.68333333333334</v>
+      </c>
+      <c r="L361" s="84">
+        <f>RANK(K361,'총에버 관리_2023'!$AF$3:$AF$22)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" ht="18.75">
+      <c r="A362" s="77">
+        <f>RANK(G362,$G$356:$G$368)</f>
+        <v>7</v>
+      </c>
+      <c r="B362" s="65" t="s">
+        <v>538</v>
+      </c>
+      <c r="C362" s="67">
+        <v>159</v>
+      </c>
+      <c r="D362" s="43">
+        <v>175</v>
+      </c>
+      <c r="E362" s="69">
+        <v>211</v>
+      </c>
+      <c r="F362" s="69">
+        <f>SUM(C362:E362)</f>
+        <v>545</v>
+      </c>
+      <c r="G362" s="87">
+        <f>F362/COUNTA(C362:E362)</f>
+        <v>181.66666666666666</v>
+      </c>
+      <c r="H362" s="65" t="s">
+        <v>538</v>
+      </c>
+      <c r="I362" s="70">
+        <f>VLOOKUP(B362,'총에버 관리_2023'!$A$3:$AF$22,31,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="J362" s="70">
+        <f>VLOOKUP(B362,'총에버 관리_2023'!$A$3:$AF$22,30,FALSE)</f>
+        <v>7163</v>
+      </c>
+      <c r="K362" s="83">
+        <f>VLOOKUP(B362,'총에버 관리_2023'!$A$3:$AF$22,32,FALSE)</f>
+        <v>183.66666666666666</v>
+      </c>
+      <c r="L362" s="84">
+        <f>RANK(K362,'총에버 관리_2023'!$AF$3:$AF$22)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" ht="18.75">
+      <c r="A363" s="77">
+        <f>RANK(G363,$G$356:$G$368)</f>
+        <v>8</v>
+      </c>
+      <c r="B363" s="65" t="s">
+        <v>537</v>
+      </c>
+      <c r="C363" s="67">
+        <v>159</v>
+      </c>
+      <c r="D363" s="58">
+        <v>179</v>
+      </c>
+      <c r="E363" s="63">
+        <v>193</v>
+      </c>
+      <c r="F363" s="69">
+        <f>SUM(C363:E363)</f>
+        <v>531</v>
+      </c>
+      <c r="G363" s="87">
+        <f>F363/COUNTA(C363:E363)</f>
+        <v>177</v>
+      </c>
+      <c r="H363" s="65" t="s">
+        <v>537</v>
+      </c>
+      <c r="I363" s="70">
+        <f>VLOOKUP(B363,'총에버 관리_2023'!$A$3:$AF$22,31,FALSE)</f>
+        <v>57</v>
+      </c>
+      <c r="J363" s="70">
+        <f>VLOOKUP(B363,'총에버 관리_2023'!$A$3:$AF$22,30,FALSE)</f>
+        <v>10344</v>
+      </c>
+      <c r="K363" s="83">
+        <f>VLOOKUP(B363,'총에버 관리_2023'!$A$3:$AF$22,32,FALSE)</f>
+        <v>181.47368421052633</v>
+      </c>
+      <c r="L363" s="84">
+        <f>RANK(K363,'총에버 관리_2023'!$AF$3:$AF$22)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" ht="18.75">
+      <c r="A364" s="77">
+        <f>RANK(G364,$G$356:$G$368)</f>
+        <v>9</v>
+      </c>
+      <c r="B364" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="C364" s="67">
+        <v>131</v>
+      </c>
+      <c r="D364" s="43">
+        <v>207</v>
+      </c>
+      <c r="E364" s="63">
+        <v>179</v>
+      </c>
+      <c r="F364" s="69">
+        <f>SUM(C364:E364)</f>
+        <v>517</v>
+      </c>
+      <c r="G364" s="87">
+        <f>F364/COUNTA(C364:E364)</f>
+        <v>172.33333333333334</v>
+      </c>
+      <c r="H364" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="I364" s="70">
+        <f>VLOOKUP(B364,'총에버 관리_2023'!$A$3:$AF$22,31,FALSE)</f>
+        <v>51</v>
+      </c>
+      <c r="J364" s="70">
+        <f>VLOOKUP(B364,'총에버 관리_2023'!$A$3:$AF$22,30,FALSE)</f>
+        <v>8433</v>
+      </c>
+      <c r="K364" s="83">
+        <f>VLOOKUP(B364,'총에버 관리_2023'!$A$3:$AF$22,32,FALSE)</f>
+        <v>165.35294117647058</v>
+      </c>
+      <c r="L364" s="84">
+        <f>RANK(K364,'총에버 관리_2023'!$AF$3:$AF$22)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" ht="18.75">
+      <c r="A365" s="77">
+        <f>RANK(G365,$G$356:$G$368)</f>
+        <v>10</v>
+      </c>
+      <c r="B365" s="58" t="s">
+        <v>536</v>
+      </c>
+      <c r="C365" s="61">
+        <v>148</v>
+      </c>
+      <c r="D365" s="58">
+        <v>185</v>
+      </c>
+      <c r="E365" s="69">
+        <v>166</v>
+      </c>
+      <c r="F365" s="63">
+        <f>SUM(C365:E365)</f>
+        <v>499</v>
+      </c>
+      <c r="G365" s="87">
+        <f>F365/COUNTA(C365:E365)</f>
+        <v>166.33333333333334</v>
+      </c>
+      <c r="H365" s="58" t="s">
+        <v>536</v>
+      </c>
+      <c r="I365" s="70">
+        <f>VLOOKUP(B365,'총에버 관리_2023'!$A$3:$AF$22,31,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="J365" s="70">
+        <f>VLOOKUP(B365,'총에버 관리_2023'!$A$3:$AF$22,30,FALSE)</f>
+        <v>2883</v>
+      </c>
+      <c r="K365" s="83">
+        <f>VLOOKUP(B365,'총에버 관리_2023'!$A$3:$AF$22,32,FALSE)</f>
+        <v>160.16666666666666</v>
+      </c>
+      <c r="L365" s="84">
+        <f>RANK(K365,'총에버 관리_2023'!$AF$3:$AF$22)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" ht="18.75">
+      <c r="A366" s="77">
+        <f>RANK(G366,$G$356:$G$368)</f>
+        <v>11</v>
+      </c>
+      <c r="B366" s="58" t="s">
+        <v>526</v>
+      </c>
+      <c r="C366" s="58">
+        <v>178</v>
+      </c>
+      <c r="D366" s="58">
+        <v>159</v>
+      </c>
+      <c r="E366" s="43">
+        <v>159</v>
+      </c>
+      <c r="F366" s="63">
+        <f>SUM(C366:E366)</f>
+        <v>496</v>
+      </c>
+      <c r="G366" s="87">
+        <f>F366/COUNTA(C366:E366)</f>
+        <v>165.33333333333334</v>
+      </c>
+      <c r="H366" s="58" t="s">
+        <v>526</v>
+      </c>
+      <c r="I366" s="70">
+        <f>VLOOKUP(B366,'총에버 관리_2023'!$A$3:$AF$22,31,FALSE)</f>
+        <v>51</v>
+      </c>
+      <c r="J366" s="70">
+        <f>VLOOKUP(B366,'총에버 관리_2023'!$A$3:$AF$22,30,FALSE)</f>
+        <v>7479</v>
+      </c>
+      <c r="K366" s="83">
+        <f>VLOOKUP(B366,'총에버 관리_2023'!$A$3:$AF$22,32,FALSE)</f>
+        <v>146.64705882352942</v>
+      </c>
+      <c r="L366" s="84">
+        <f>RANK(K366,'총에버 관리_2023'!$AF$3:$AF$22)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" ht="18.75">
+      <c r="A367" s="77">
+        <f>RANK(G367,$G$356:$G$368)</f>
+        <v>12</v>
+      </c>
+      <c r="B367" s="58" t="s">
+        <v>530</v>
+      </c>
+      <c r="C367" s="58">
+        <v>157</v>
+      </c>
+      <c r="D367" s="58">
+        <v>137</v>
+      </c>
+      <c r="E367" s="43">
+        <v>188</v>
+      </c>
+      <c r="F367" s="63">
+        <f>SUM(C367:E367)</f>
+        <v>482</v>
+      </c>
+      <c r="G367" s="87">
+        <f>F367/COUNTA(C367:E367)</f>
+        <v>160.66666666666666</v>
+      </c>
+      <c r="H367" s="58" t="s">
+        <v>530</v>
+      </c>
+      <c r="I367" s="70">
+        <f>VLOOKUP(B367,'총에버 관리_2023'!$A$3:$AF$22,31,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="J367" s="70">
+        <f>VLOOKUP(B367,'총에버 관리_2023'!$A$3:$AF$22,30,FALSE)</f>
+        <v>2510</v>
+      </c>
+      <c r="K367" s="83">
+        <f>VLOOKUP(B367,'총에버 관리_2023'!$A$3:$AF$22,32,FALSE)</f>
+        <v>167.33333333333334</v>
+      </c>
+      <c r="L367" s="84">
+        <f>RANK(K367,'총에버 관리_2023'!$AF$3:$AF$22)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" ht="18.75">
+      <c r="A368" s="77">
+        <f>RANK(G368,$G$356:$G$368)</f>
+        <v>13</v>
+      </c>
+      <c r="B368" s="58" t="s">
+        <v>529</v>
+      </c>
+      <c r="C368" s="43">
+        <v>122</v>
+      </c>
+      <c r="D368" s="43">
+        <v>136</v>
+      </c>
+      <c r="E368" s="43">
+        <v>187</v>
+      </c>
+      <c r="F368" s="69">
+        <f>SUM(C368:E368)</f>
+        <v>445</v>
+      </c>
+      <c r="G368" s="87">
+        <f>F368/COUNTA(C368:E368)</f>
+        <v>148.33333333333334</v>
+      </c>
+      <c r="H368" s="58" t="s">
+        <v>529</v>
+      </c>
+      <c r="I368" s="70">
+        <f>VLOOKUP(B368,'총에버 관리_2023'!$A$3:$AF$22,31,FALSE)</f>
+        <v>57</v>
+      </c>
+      <c r="J368" s="70">
+        <f>VLOOKUP(B368,'총에버 관리_2023'!$A$3:$AF$22,30,FALSE)</f>
+        <v>10444</v>
+      </c>
+      <c r="K368" s="83">
+        <f>VLOOKUP(B368,'총에버 관리_2023'!$A$3:$AF$22,32,FALSE)</f>
+        <v>183.2280701754386</v>
+      </c>
+      <c r="L368" s="84">
+        <f>RANK(K368,'총에버 관리_2023'!$AF$3:$AF$22)</f>
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A320:L333">
-    <sortCondition ref="A319"/>
+  <sortState ref="A356:L368">
+    <sortCondition ref="A355"/>
   </sortState>
-  <mergeCells count="19">
-    <mergeCell ref="A230:L230"/>
-    <mergeCell ref="A211:L211"/>
-    <mergeCell ref="A318:L318"/>
-    <mergeCell ref="A191:L191"/>
+  <mergeCells count="21">
     <mergeCell ref="A302:L302"/>
     <mergeCell ref="A282:L282"/>
+    <mergeCell ref="A264:L264"/>
+    <mergeCell ref="A247:L247"/>
+    <mergeCell ref="A354:L354"/>
+    <mergeCell ref="A336:L336"/>
     <mergeCell ref="A170:L170"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A19:L19"/>
@@ -20404,212 +21587,29 @@
     <mergeCell ref="A121:L121"/>
     <mergeCell ref="A98:L98"/>
     <mergeCell ref="A82:L82"/>
-    <mergeCell ref="A264:L264"/>
-    <mergeCell ref="A247:L247"/>
+    <mergeCell ref="A230:L230"/>
+    <mergeCell ref="A211:L211"/>
+    <mergeCell ref="A318:L318"/>
+    <mergeCell ref="A191:L191"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C4:E15 C21:E31 C36:E45 C50:E63 C68:E79 C84:E95 C100:E117 C123:E135 C140:E151 C156:E167 C172:E188 C193:E208 C213:E227">
-    <cfRule type="cellIs" dxfId="79" priority="407" operator="greaterThan">
+  <conditionalFormatting sqref="C4:E15 C21:E31 C36:E45 C50:E63 C68:E79 C84:E95 C100:E117 C123:E135 C140:E151 C156:E167 C172:E188 C193:E208 C213:E227 C232:E244 C249:E261 C266:E279 C284:E299 C304:E315 C320:E333 C338:E351 C356:E368">
+    <cfRule type="cellIs" dxfId="6" priority="423" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F15 F21:F31 F36:F45 F50:F63 F68:F79 F84:F95 F100:F117 F123:F135 F140:F151 F156:F167 F172:F188 F193:F208 F213:F227">
-    <cfRule type="cellIs" dxfId="78" priority="406" operator="greaterThan">
+  <conditionalFormatting sqref="F4:F15 F21:F31 F36:F45 F50:F63 F68:F79 F84:F95 F100:F117 F123:F135 F140:F151 F156:F167 F172:F188 F193:F208 F213:F227 F232:F244 F249:F261 F266:F279 F284:F299 F304:F315 F320:F333 F338:F351 F356:F368">
+    <cfRule type="cellIs" dxfId="5" priority="422" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G15 G21:G31 G36:G45 G50:G63 G68:G79 G84:G95 G100:G117 G123:G135 G140:G151 G156:G167 G172:G188 G193:G208 G213:G227">
-    <cfRule type="cellIs" dxfId="77" priority="405" operator="greaterThan">
+  <conditionalFormatting sqref="G4:G15 G21:G31 G36:G45 G50:G63 G68:G79 G84:G95 G100:G117 G123:G135 G140:G151 G156:G167 G172:G188 G193:G208 G213:G227 G232:G244 G249:G261 G266:G279 G284:G299 G304:G315 G320:G333 G338:G351 G356:G368">
+    <cfRule type="cellIs" dxfId="4" priority="421" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K15 K21:K31 K36:K45 K50:K63 K68:K79 K84:K95 K100:K117 K123:K135 K140:K151 K156:K167 K172:K188 K193:K208 K213:K227">
-    <cfRule type="cellIs" dxfId="76" priority="404" operator="greaterThan">
-      <formula>199.99</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C232:E244">
-    <cfRule type="cellIs" dxfId="75" priority="40" operator="greaterThan">
-      <formula>199</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F232:F244">
-    <cfRule type="cellIs" dxfId="74" priority="39" operator="greaterThan">
-      <formula>599</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G232:G244">
-    <cfRule type="cellIs" dxfId="73" priority="38" operator="greaterThan">
-      <formula>199.999</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K232:K244">
-    <cfRule type="cellIs" dxfId="72" priority="37" operator="greaterThan">
-      <formula>199.99</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C249:E261">
-    <cfRule type="cellIs" dxfId="71" priority="36" operator="greaterThan">
-      <formula>199</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F249:F261">
-    <cfRule type="cellIs" dxfId="70" priority="35" operator="greaterThan">
-      <formula>599</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G249:G261">
-    <cfRule type="cellIs" dxfId="69" priority="34" operator="greaterThan">
-      <formula>199.999</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K249:K261">
-    <cfRule type="cellIs" dxfId="68" priority="33" operator="greaterThan">
-      <formula>199.99</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K232:K244">
-    <cfRule type="cellIs" dxfId="67" priority="32" operator="greaterThan">
-      <formula>199.99</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C266:E278">
-    <cfRule type="cellIs" dxfId="66" priority="31" operator="greaterThan">
-      <formula>199</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F266:F278">
-    <cfRule type="cellIs" dxfId="65" priority="30" operator="greaterThan">
-      <formula>599</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G266:G278">
-    <cfRule type="cellIs" dxfId="64" priority="29" operator="greaterThan">
-      <formula>199.999</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K266:K278">
-    <cfRule type="cellIs" dxfId="63" priority="28" operator="greaterThan">
-      <formula>199.99</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C279:E279">
-    <cfRule type="cellIs" dxfId="62" priority="27" operator="greaterThan">
-      <formula>199</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F279">
-    <cfRule type="cellIs" dxfId="61" priority="23" operator="greaterThan">
-      <formula>599</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G279">
-    <cfRule type="cellIs" dxfId="60" priority="22" operator="greaterThan">
-      <formula>199.999</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K279">
-    <cfRule type="cellIs" dxfId="59" priority="21" operator="greaterThan">
-      <formula>199.99</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C284:E296">
-    <cfRule type="cellIs" dxfId="58" priority="20" operator="greaterThan">
-      <formula>199</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F284:F296">
-    <cfRule type="cellIs" dxfId="57" priority="19" operator="greaterThan">
-      <formula>599</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G284:G296">
-    <cfRule type="cellIs" dxfId="56" priority="18" operator="greaterThan">
-      <formula>199.999</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K284:K296">
-    <cfRule type="cellIs" dxfId="55" priority="17" operator="greaterThan">
-      <formula>199.99</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C297:E299">
-    <cfRule type="cellIs" dxfId="54" priority="16" operator="greaterThan">
-      <formula>199</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F297:F299">
-    <cfRule type="cellIs" dxfId="53" priority="15" operator="greaterThan">
-      <formula>599</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G297:G299">
-    <cfRule type="cellIs" dxfId="52" priority="14" operator="greaterThan">
-      <formula>199.999</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K297:K299">
-    <cfRule type="cellIs" dxfId="51" priority="13" operator="greaterThan">
-      <formula>199.99</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C304:E315">
-    <cfRule type="cellIs" dxfId="50" priority="12" operator="greaterThan">
-      <formula>199</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F304:F315">
-    <cfRule type="cellIs" dxfId="49" priority="11" operator="greaterThan">
-      <formula>599</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G304:G315">
-    <cfRule type="cellIs" dxfId="48" priority="10" operator="greaterThan">
-      <formula>199.999</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K304:K315">
-    <cfRule type="cellIs" dxfId="47" priority="9" operator="greaterThan">
-      <formula>199.99</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C320:E331 E325:E332">
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="greaterThan">
-      <formula>199</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F320:F331">
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="greaterThan">
-      <formula>599</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G320:G331">
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="greaterThan">
-      <formula>199.999</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K320:K333">
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="greaterThan">
-      <formula>199.99</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C332:E333">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="greaterThan">
-      <formula>199</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F332:F333">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="greaterThan">
-      <formula>599</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G332:G333">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="greaterThan">
-      <formula>199.999</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K332:K333">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="K4:K15 K21:K31 K36:K45 K50:K63 K68:K79 K84:K95 K100:K117 K123:K135 K140:K151 K156:K167 K172:K188 K193:K208 K213:K227 K249:K261 K232:K244 K266:K279 K284:K299 K304:K315 K320:K333 K338:K351 K356:K368">
+    <cfRule type="cellIs" dxfId="3" priority="420" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20638,19 +21638,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.9" customHeight="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="200" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="201"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="201"/>
+      <c r="J1" s="201"/>
+      <c r="K1" s="202"/>
     </row>
     <row r="2" spans="1:11" ht="27.6" customHeight="1">
       <c r="A2" s="33" t="s">
@@ -21139,19 +22139,19 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="49.5" customHeight="1">
-      <c r="A17" s="199" t="s">
+      <c r="A17" s="200" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="200"/>
-      <c r="C17" s="200"/>
-      <c r="D17" s="200"/>
-      <c r="E17" s="200"/>
-      <c r="F17" s="200"/>
-      <c r="G17" s="200"/>
-      <c r="H17" s="200"/>
-      <c r="I17" s="200"/>
-      <c r="J17" s="200"/>
-      <c r="K17" s="201"/>
+      <c r="B17" s="201"/>
+      <c r="C17" s="201"/>
+      <c r="D17" s="201"/>
+      <c r="E17" s="201"/>
+      <c r="F17" s="201"/>
+      <c r="G17" s="201"/>
+      <c r="H17" s="201"/>
+      <c r="I17" s="201"/>
+      <c r="J17" s="201"/>
+      <c r="K17" s="202"/>
     </row>
     <row r="18" spans="1:11" ht="18.75">
       <c r="A18" s="33" t="s">
@@ -21763,19 +22763,19 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="36" customHeight="1">
-      <c r="A34" s="199" t="s">
+      <c r="A34" s="200" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="200"/>
-      <c r="C34" s="200"/>
-      <c r="D34" s="200"/>
-      <c r="E34" s="200"/>
-      <c r="F34" s="200"/>
-      <c r="G34" s="200"/>
-      <c r="H34" s="200"/>
-      <c r="I34" s="200"/>
-      <c r="J34" s="200"/>
-      <c r="K34" s="201"/>
+      <c r="B34" s="201"/>
+      <c r="C34" s="201"/>
+      <c r="D34" s="201"/>
+      <c r="E34" s="201"/>
+      <c r="F34" s="201"/>
+      <c r="G34" s="201"/>
+      <c r="H34" s="201"/>
+      <c r="I34" s="201"/>
+      <c r="J34" s="201"/>
+      <c r="K34" s="202"/>
     </row>
     <row r="35" spans="1:11" ht="18.75">
       <c r="A35" s="33" t="s">
@@ -22264,19 +23264,19 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="44.25" customHeight="1">
-      <c r="A48" s="199" t="s">
+      <c r="A48" s="200" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="200"/>
-      <c r="C48" s="200"/>
-      <c r="D48" s="200"/>
-      <c r="E48" s="200"/>
-      <c r="F48" s="200"/>
-      <c r="G48" s="200"/>
-      <c r="H48" s="200"/>
-      <c r="I48" s="200"/>
-      <c r="J48" s="200"/>
-      <c r="K48" s="201"/>
+      <c r="B48" s="201"/>
+      <c r="C48" s="201"/>
+      <c r="D48" s="201"/>
+      <c r="E48" s="201"/>
+      <c r="F48" s="201"/>
+      <c r="G48" s="201"/>
+      <c r="H48" s="201"/>
+      <c r="I48" s="201"/>
+      <c r="J48" s="201"/>
+      <c r="K48" s="202"/>
     </row>
     <row r="49" spans="1:11" ht="18.75">
       <c r="A49" s="33" t="s">
@@ -22724,19 +23724,19 @@
       </c>
     </row>
     <row r="62" spans="1:11" ht="44.25" customHeight="1">
-      <c r="A62" s="199" t="s">
+      <c r="A62" s="200" t="s">
         <v>70</v>
       </c>
-      <c r="B62" s="200"/>
-      <c r="C62" s="200"/>
-      <c r="D62" s="200"/>
-      <c r="E62" s="200"/>
-      <c r="F62" s="200"/>
-      <c r="G62" s="200"/>
-      <c r="H62" s="200"/>
-      <c r="I62" s="200"/>
-      <c r="J62" s="200"/>
-      <c r="K62" s="201"/>
+      <c r="B62" s="201"/>
+      <c r="C62" s="201"/>
+      <c r="D62" s="201"/>
+      <c r="E62" s="201"/>
+      <c r="F62" s="201"/>
+      <c r="G62" s="201"/>
+      <c r="H62" s="201"/>
+      <c r="I62" s="201"/>
+      <c r="J62" s="201"/>
+      <c r="K62" s="202"/>
     </row>
     <row r="63" spans="1:11" ht="18.75">
       <c r="A63" s="33" t="s">
@@ -23226,19 +24226,19 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1"/>
     <row r="78" spans="1:11" ht="43.5" customHeight="1">
-      <c r="A78" s="199" t="s">
+      <c r="A78" s="200" t="s">
         <v>71</v>
       </c>
-      <c r="B78" s="200"/>
-      <c r="C78" s="200"/>
-      <c r="D78" s="200"/>
-      <c r="E78" s="200"/>
-      <c r="F78" s="200"/>
-      <c r="G78" s="200"/>
-      <c r="H78" s="200"/>
-      <c r="I78" s="200"/>
-      <c r="J78" s="200"/>
-      <c r="K78" s="201"/>
+      <c r="B78" s="201"/>
+      <c r="C78" s="201"/>
+      <c r="D78" s="201"/>
+      <c r="E78" s="201"/>
+      <c r="F78" s="201"/>
+      <c r="G78" s="201"/>
+      <c r="H78" s="201"/>
+      <c r="I78" s="201"/>
+      <c r="J78" s="201"/>
+      <c r="K78" s="202"/>
     </row>
     <row r="79" spans="1:11" ht="18.75">
       <c r="A79" s="33" t="s">
@@ -23780,20 +24780,20 @@
       </c>
     </row>
     <row r="95" spans="1:12" ht="42.75" customHeight="1">
-      <c r="A95" s="196" t="s">
+      <c r="A95" s="198" t="s">
         <v>73</v>
       </c>
-      <c r="B95" s="197"/>
-      <c r="C95" s="197"/>
-      <c r="D95" s="197"/>
-      <c r="E95" s="197"/>
-      <c r="F95" s="197"/>
-      <c r="G95" s="197"/>
-      <c r="H95" s="197"/>
-      <c r="I95" s="197"/>
-      <c r="J95" s="197"/>
-      <c r="K95" s="197"/>
-      <c r="L95" s="197"/>
+      <c r="B95" s="199"/>
+      <c r="C95" s="199"/>
+      <c r="D95" s="199"/>
+      <c r="E95" s="199"/>
+      <c r="F95" s="199"/>
+      <c r="G95" s="199"/>
+      <c r="H95" s="199"/>
+      <c r="I95" s="199"/>
+      <c r="J95" s="199"/>
+      <c r="K95" s="199"/>
+      <c r="L95" s="199"/>
     </row>
     <row r="96" spans="1:12" ht="38.25" thickBot="1">
       <c r="A96" s="74" t="s">
@@ -24248,20 +25248,20 @@
       </c>
     </row>
     <row r="108" spans="1:12" ht="42.75" customHeight="1">
-      <c r="A108" s="196" t="s">
+      <c r="A108" s="198" t="s">
         <v>75</v>
       </c>
-      <c r="B108" s="197"/>
-      <c r="C108" s="197"/>
-      <c r="D108" s="197"/>
-      <c r="E108" s="197"/>
-      <c r="F108" s="197"/>
-      <c r="G108" s="197"/>
-      <c r="H108" s="197"/>
-      <c r="I108" s="197"/>
-      <c r="J108" s="197"/>
-      <c r="K108" s="197"/>
-      <c r="L108" s="197"/>
+      <c r="B108" s="199"/>
+      <c r="C108" s="199"/>
+      <c r="D108" s="199"/>
+      <c r="E108" s="199"/>
+      <c r="F108" s="199"/>
+      <c r="G108" s="199"/>
+      <c r="H108" s="199"/>
+      <c r="I108" s="199"/>
+      <c r="J108" s="199"/>
+      <c r="K108" s="199"/>
+      <c r="L108" s="199"/>
     </row>
     <row r="109" spans="1:12" ht="38.25" thickBot="1">
       <c r="A109" s="74" t="s">
@@ -24807,82 +25807,82 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C3:E13 C19:E32 C36:E46 C50:E59 C64:E74 C80:E91 C97:E105">
-    <cfRule type="cellIs" dxfId="46" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="16" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F13 F19:F32 F36:F46 F50:F59 F64:F74 F80:F91 F97:F105">
-    <cfRule type="cellIs" dxfId="45" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="15" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G13 G19:G32 G36:G46 G50:G59 G64:G74 G80:G91 G97:G105">
-    <cfRule type="cellIs" dxfId="44" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="14" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K13 K19:K32 K36:K46 K50:K59 K64:K74 K80:K91 K97:K105">
-    <cfRule type="cellIs" dxfId="43" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="13" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C110:E118">
-    <cfRule type="cellIs" dxfId="42" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="12" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F110:F118">
-    <cfRule type="cellIs" dxfId="41" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="11" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G110:G118">
-    <cfRule type="cellIs" dxfId="40" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="10" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K110:K118">
-    <cfRule type="cellIs" dxfId="39" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="9" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C119:E119">
-    <cfRule type="cellIs" dxfId="38" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="8" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119">
-    <cfRule type="cellIs" dxfId="37" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="7" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G119">
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="6" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K119">
-    <cfRule type="cellIs" dxfId="35" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C120:E120">
-    <cfRule type="cellIs" dxfId="34" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="4" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120">
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G120">
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K120">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24896,8 +25896,8 @@
   <dimension ref="A2:AJ23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y28" sqref="Y28"/>
+      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -25087,22 +26087,28 @@
         <f>IFERROR(VLOOKUP(A3,정기전_2023!$B$320:$F$333,5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
+      <c r="Y3" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A3,정기전_2023!$B$338:$F$352,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Z3" s="91">
+        <f>IFERROR(VLOOKUP(A3,정기전_2023!$B$356:$F$368,5,FALSE),"")</f>
+        <v>499</v>
+      </c>
       <c r="AA3" s="91"/>
       <c r="AB3" s="91"/>
       <c r="AC3" s="91"/>
       <c r="AD3" s="92">
         <f>SUM(B3:AC3)</f>
-        <v>2384</v>
+        <v>2883</v>
       </c>
       <c r="AE3" s="92">
         <f>COUNT(B3:AC3)*3</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AF3" s="93">
         <f t="shared" ref="AF3:AF14" si="0">IF(AE3=0, "",  AD3/AE3)</f>
-        <v>158.93333333333334</v>
+        <v>160.16666666666666</v>
       </c>
       <c r="AH3" s="90"/>
       <c r="AI3" s="90"/>
@@ -25189,22 +26195,28 @@
         <f>IFERROR(VLOOKUP(A4,정기전_2023!$B$320:$F$333,5,FALSE),"")</f>
         <v>542</v>
       </c>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="91"/>
+      <c r="Y4" s="91">
+        <f>IFERROR(VLOOKUP(A4,정기전_2023!$B$338:$F$352,5,FALSE),"")</f>
+        <v>527</v>
+      </c>
+      <c r="Z4" s="91">
+        <f>IFERROR(VLOOKUP(A4,정기전_2023!$B$356:$F$368,5,FALSE),"")</f>
+        <v>592</v>
+      </c>
       <c r="AA4" s="91"/>
       <c r="AB4" s="91"/>
       <c r="AC4" s="91"/>
       <c r="AD4" s="92">
         <f t="shared" ref="AD4:AD22" si="1">SUM(B4:AC4)</f>
-        <v>8659</v>
+        <v>9778</v>
       </c>
       <c r="AE4" s="92">
         <f t="shared" ref="AE4:AE22" si="2">COUNT(B4:AC4)*3</f>
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AF4" s="93">
         <f t="shared" si="0"/>
-        <v>192.42222222222222</v>
+        <v>191.72549019607843</v>
       </c>
       <c r="AH4" s="90"/>
       <c r="AI4" s="90"/>
@@ -25291,22 +26303,28 @@
         <f>IFERROR(VLOOKUP(A5,정기전_2023!$B$320:$F$333,5,FALSE),"")</f>
         <v>547</v>
       </c>
-      <c r="Y5" s="91"/>
-      <c r="Z5" s="91"/>
+      <c r="Y5" s="91">
+        <f>IFERROR(VLOOKUP(A5,정기전_2023!$B$338:$F$352,5,FALSE),"")</f>
+        <v>576</v>
+      </c>
+      <c r="Z5" s="91">
+        <f>IFERROR(VLOOKUP(A5,정기전_2023!$B$356:$F$368,5,FALSE),"")</f>
+        <v>445</v>
+      </c>
       <c r="AA5" s="91"/>
       <c r="AB5" s="91"/>
       <c r="AC5" s="91"/>
       <c r="AD5" s="92">
         <f t="shared" si="1"/>
-        <v>9423</v>
+        <v>10444</v>
       </c>
       <c r="AE5" s="92">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="AF5" s="93">
         <f t="shared" si="0"/>
-        <v>184.76470588235293</v>
+        <v>183.2280701754386</v>
       </c>
       <c r="AH5" s="90"/>
       <c r="AI5" s="90"/>
@@ -25393,8 +26411,14 @@
         <f>IFERROR(VLOOKUP(A6,정기전_2023!$B$320:$F$333,5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Y6" s="91"/>
-      <c r="Z6" s="91"/>
+      <c r="Y6" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A6,정기전_2023!$B$338:$F$352,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Z6" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A6,정기전_2023!$B$356:$F$368,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="AA6" s="91"/>
       <c r="AB6" s="91"/>
       <c r="AC6" s="91"/>
@@ -25495,8 +26519,14 @@
         <f>IFERROR(VLOOKUP(A7,정기전_2023!$B$320:$F$333,5,FALSE),"")</f>
         <v>618</v>
       </c>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="91"/>
+      <c r="Y7" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A7,정기전_2023!$B$338:$F$352,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Z7" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A7,정기전_2023!$B$356:$F$368,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="AA7" s="91"/>
       <c r="AB7" s="91"/>
       <c r="AC7" s="91"/>
@@ -25597,8 +26627,14 @@
         <f>IFERROR(VLOOKUP(A8,정기전_2023!$B$320:$F$333,5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Y8" s="91"/>
-      <c r="Z8" s="91"/>
+      <c r="Y8" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A8,정기전_2023!$B$338:$F$352,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Z8" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A8,정기전_2023!$B$356:$F$368,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="AA8" s="91"/>
       <c r="AB8" s="91"/>
       <c r="AC8" s="91"/>
@@ -25699,22 +26735,28 @@
         <f>IFERROR(VLOOKUP(A9,정기전_2023!$B$320:$F$333,5,FALSE),"")</f>
         <v>626</v>
       </c>
-      <c r="Y9" s="91"/>
-      <c r="Z9" s="91"/>
+      <c r="Y9" s="91">
+        <f>IFERROR(VLOOKUP(A9,정기전_2023!$B$338:$F$352,5,FALSE),"")</f>
+        <v>530</v>
+      </c>
+      <c r="Z9" s="91">
+        <f>IFERROR(VLOOKUP(A9,정기전_2023!$B$356:$F$368,5,FALSE),"")</f>
+        <v>590</v>
+      </c>
       <c r="AA9" s="91"/>
       <c r="AB9" s="91"/>
       <c r="AC9" s="91"/>
       <c r="AD9" s="92">
         <f t="shared" si="1"/>
-        <v>9901</v>
+        <v>11021</v>
       </c>
       <c r="AE9" s="92">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="AF9" s="93">
         <f t="shared" si="0"/>
-        <v>183.35185185185185</v>
+        <v>183.68333333333334</v>
       </c>
       <c r="AH9" s="90"/>
       <c r="AI9" s="90"/>
@@ -25801,22 +26843,28 @@
         <f>IFERROR(VLOOKUP(A10,정기전_2023!$B$320:$F$333,5,FALSE),"")</f>
         <v>623</v>
       </c>
-      <c r="Y10" s="91"/>
-      <c r="Z10" s="91"/>
+      <c r="Y10" s="91">
+        <f>IFERROR(VLOOKUP(A10,정기전_2023!$B$338:$F$352,5,FALSE),"")</f>
+        <v>610</v>
+      </c>
+      <c r="Z10" s="91">
+        <f>IFERROR(VLOOKUP(A10,정기전_2023!$B$356:$F$368,5,FALSE),"")</f>
+        <v>596</v>
+      </c>
       <c r="AA10" s="91"/>
       <c r="AB10" s="91"/>
       <c r="AC10" s="91"/>
       <c r="AD10" s="92">
         <f t="shared" si="1"/>
-        <v>2337</v>
+        <v>3543</v>
       </c>
       <c r="AE10" s="92">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AF10" s="93">
         <f t="shared" si="0"/>
-        <v>194.75</v>
+        <v>196.83333333333334</v>
       </c>
       <c r="AH10" s="90"/>
       <c r="AI10" s="90"/>
@@ -25903,22 +26951,28 @@
         <f>IFERROR(VLOOKUP(A11,정기전_2023!$B$320:$F$333,5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Y11" s="91"/>
-      <c r="Z11" s="91"/>
+      <c r="Y11" s="91">
+        <f>IFERROR(VLOOKUP(A11,정기전_2023!$B$338:$F$352,5,FALSE),"")</f>
+        <v>574</v>
+      </c>
+      <c r="Z11" s="91">
+        <f>IFERROR(VLOOKUP(A11,정기전_2023!$B$356:$F$368,5,FALSE),"")</f>
+        <v>517</v>
+      </c>
       <c r="AA11" s="91"/>
       <c r="AB11" s="91"/>
       <c r="AC11" s="91"/>
       <c r="AD11" s="92">
         <f t="shared" si="1"/>
-        <v>7342</v>
+        <v>8433</v>
       </c>
       <c r="AE11" s="92">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AF11" s="93">
         <f t="shared" si="0"/>
-        <v>163.15555555555557</v>
+        <v>165.35294117647058</v>
       </c>
       <c r="AH11" s="90"/>
       <c r="AI11" s="90"/>
@@ -26005,22 +27059,28 @@
         <f>IFERROR(VLOOKUP(A12,정기전_2023!$B$320:$F$333,5,FALSE),"")</f>
         <v>657</v>
       </c>
-      <c r="Y12" s="91"/>
-      <c r="Z12" s="91"/>
+      <c r="Y12" s="91">
+        <f>IFERROR(VLOOKUP(A12,정기전_2023!$B$338:$F$352,5,FALSE),"")</f>
+        <v>577</v>
+      </c>
+      <c r="Z12" s="91">
+        <f>IFERROR(VLOOKUP(A12,정기전_2023!$B$356:$F$368,5,FALSE),"")</f>
+        <v>668</v>
+      </c>
       <c r="AA12" s="91"/>
       <c r="AB12" s="91"/>
       <c r="AC12" s="91"/>
       <c r="AD12" s="92">
         <f t="shared" si="1"/>
-        <v>10516</v>
+        <v>11761</v>
       </c>
       <c r="AE12" s="92">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="AF12" s="93">
         <f t="shared" si="0"/>
-        <v>206.19607843137254</v>
+        <v>206.33333333333334</v>
       </c>
       <c r="AH12" s="90"/>
       <c r="AI12" s="90"/>
@@ -26107,22 +27167,28 @@
         <f>IFERROR(VLOOKUP(A13,정기전_2023!$B$320:$F$333,5,FALSE),"")</f>
         <v>562</v>
       </c>
-      <c r="Y13" s="91"/>
-      <c r="Z13" s="91"/>
+      <c r="Y13" s="91">
+        <f>IFERROR(VLOOKUP(A13,정기전_2023!$B$338:$F$352,5,FALSE),"")</f>
+        <v>531</v>
+      </c>
+      <c r="Z13" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A13,정기전_2023!$B$356:$F$368,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="AA13" s="91"/>
       <c r="AB13" s="91"/>
       <c r="AC13" s="91"/>
       <c r="AD13" s="92">
         <f t="shared" si="1"/>
-        <v>2714</v>
+        <v>3245</v>
       </c>
       <c r="AE13" s="92">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AF13" s="93">
         <f t="shared" si="0"/>
-        <v>180.93333333333334</v>
+        <v>180.27777777777777</v>
       </c>
       <c r="AH13" s="90"/>
       <c r="AI13" s="90"/>
@@ -26209,22 +27275,28 @@
         <f>IFERROR(VLOOKUP(A14,정기전_2023!$B$320:$F$333,5,FALSE),"")</f>
         <v>653</v>
       </c>
-      <c r="Y14" s="91"/>
-      <c r="Z14" s="91"/>
+      <c r="Y14" s="91">
+        <f>IFERROR(VLOOKUP(A14,정기전_2023!$B$338:$F$352,5,FALSE),"")</f>
+        <v>768</v>
+      </c>
+      <c r="Z14" s="91">
+        <f>IFERROR(VLOOKUP(A14,정기전_2023!$B$356:$F$368,5,FALSE),"")</f>
+        <v>615</v>
+      </c>
       <c r="AA14" s="91"/>
       <c r="AB14" s="91"/>
       <c r="AC14" s="91"/>
       <c r="AD14" s="92">
         <f t="shared" si="1"/>
-        <v>11064</v>
+        <v>12447</v>
       </c>
       <c r="AE14" s="92">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="AF14" s="93">
         <f t="shared" si="0"/>
-        <v>204.88888888888889</v>
+        <v>207.45</v>
       </c>
       <c r="AH14" s="90"/>
       <c r="AI14" s="90"/>
@@ -26311,22 +27383,28 @@
         <f>IFERROR(VLOOKUP(A15,정기전_2023!$B$320:$F$333,5,FALSE),"")</f>
         <v>562</v>
       </c>
-      <c r="Y15" s="91"/>
-      <c r="Z15" s="91"/>
+      <c r="Y15" s="91">
+        <f>IFERROR(VLOOKUP(A15,정기전_2023!$B$338:$F$352,5,FALSE),"")</f>
+        <v>653</v>
+      </c>
+      <c r="Z15" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A15,정기전_2023!$B$356:$F$368,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="AA15" s="91"/>
       <c r="AB15" s="91"/>
       <c r="AC15" s="91"/>
       <c r="AD15" s="92">
         <f t="shared" si="1"/>
-        <v>6961</v>
+        <v>7614</v>
       </c>
       <c r="AE15" s="92">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AF15" s="93">
         <f t="shared" ref="AF15:AF22" si="3">IF(AE15=0, "",  AD15/AE15)</f>
-        <v>193.36111111111111</v>
+        <v>195.23076923076923</v>
       </c>
     </row>
     <row r="16" spans="1:36">
@@ -26410,22 +27488,28 @@
         <f>IFERROR(VLOOKUP(A16,정기전_2023!$B$320:$F$333,5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Y16" s="91"/>
-      <c r="Z16" s="91"/>
+      <c r="Y16" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A16,정기전_2023!$B$338:$F$352,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Z16" s="91">
+        <f>IFERROR(VLOOKUP(A16,정기전_2023!$B$356:$F$368,5,FALSE),"")</f>
+        <v>482</v>
+      </c>
       <c r="AA16" s="91"/>
       <c r="AB16" s="91"/>
       <c r="AC16" s="91"/>
       <c r="AD16" s="92">
         <f t="shared" si="1"/>
-        <v>2028</v>
+        <v>2510</v>
       </c>
       <c r="AE16" s="92">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF16" s="93">
         <f t="shared" si="3"/>
-        <v>169</v>
+        <v>167.33333333333334</v>
       </c>
     </row>
     <row r="17" spans="1:32">
@@ -26509,22 +27593,28 @@
         <f>IFERROR(VLOOKUP(A17,정기전_2023!$B$320:$F$333,5,FALSE),"")</f>
         <v>522</v>
       </c>
-      <c r="Y17" s="91"/>
-      <c r="Z17" s="91"/>
+      <c r="Y17" s="91">
+        <f>IFERROR(VLOOKUP(A17,정기전_2023!$B$338:$F$352,5,FALSE),"")</f>
+        <v>525</v>
+      </c>
+      <c r="Z17" s="91">
+        <f>IFERROR(VLOOKUP(A17,정기전_2023!$B$356:$F$368,5,FALSE),"")</f>
+        <v>531</v>
+      </c>
       <c r="AA17" s="91"/>
       <c r="AB17" s="91"/>
       <c r="AC17" s="91"/>
       <c r="AD17" s="92">
         <f t="shared" si="1"/>
-        <v>9288</v>
+        <v>10344</v>
       </c>
       <c r="AE17" s="92">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="AF17" s="93">
         <f t="shared" si="3"/>
-        <v>182.11764705882354</v>
+        <v>181.47368421052633</v>
       </c>
     </row>
     <row r="18" spans="1:32">
@@ -26608,22 +27698,28 @@
         <f>IFERROR(VLOOKUP(A18,정기전_2023!$B$320:$F$333,5,FALSE),"")</f>
         <v>741</v>
       </c>
-      <c r="Y18" s="91"/>
-      <c r="Z18" s="91"/>
+      <c r="Y18" s="91">
+        <f>IFERROR(VLOOKUP(A18,정기전_2023!$B$338:$F$352,5,FALSE),"")</f>
+        <v>594</v>
+      </c>
+      <c r="Z18" s="91">
+        <f>IFERROR(VLOOKUP(A18,정기전_2023!$B$356:$F$368,5,FALSE),"")</f>
+        <v>545</v>
+      </c>
       <c r="AA18" s="91"/>
       <c r="AB18" s="91"/>
       <c r="AC18" s="91"/>
       <c r="AD18" s="92">
         <f t="shared" si="1"/>
-        <v>6024</v>
+        <v>7163</v>
       </c>
       <c r="AE18" s="92">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="AF18" s="93">
         <f t="shared" si="3"/>
-        <v>182.54545454545453</v>
+        <v>183.66666666666666</v>
       </c>
     </row>
     <row r="19" spans="1:32">
@@ -26707,22 +27803,28 @@
         <f>IFERROR(VLOOKUP(A19,정기전_2023!$B$320:$F$333,5,FALSE),"")</f>
         <v>484</v>
       </c>
-      <c r="Y19" s="91"/>
-      <c r="Z19" s="91"/>
+      <c r="Y19" s="91">
+        <f>IFERROR(VLOOKUP(A19,정기전_2023!$B$338:$F$352,5,FALSE),"")</f>
+        <v>499</v>
+      </c>
+      <c r="Z19" s="91">
+        <f>IFERROR(VLOOKUP(A19,정기전_2023!$B$356:$F$368,5,FALSE),"")</f>
+        <v>496</v>
+      </c>
       <c r="AA19" s="91"/>
       <c r="AB19" s="91"/>
       <c r="AC19" s="91"/>
       <c r="AD19" s="92">
         <f t="shared" si="1"/>
-        <v>6484</v>
+        <v>7479</v>
       </c>
       <c r="AE19" s="92">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AF19" s="93">
         <f t="shared" si="3"/>
-        <v>144.0888888888889</v>
+        <v>146.64705882352942</v>
       </c>
     </row>
     <row r="20" spans="1:32">
@@ -26794,8 +27896,14 @@
         <f>IFERROR(VLOOKUP(A20,정기전_2023!$B$320:$F$333,5,FALSE),"")</f>
         <v>473</v>
       </c>
-      <c r="Y20" s="91"/>
-      <c r="Z20" s="91"/>
+      <c r="Y20" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A20,정기전_2023!$B$338:$F$352,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Z20" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A20,정기전_2023!$B$356:$F$368,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="AA20" s="91"/>
       <c r="AB20" s="91"/>
       <c r="AC20" s="91"/>
@@ -26866,22 +27974,28 @@
         <f>IFERROR(VLOOKUP(A21,정기전_2023!$B$320:$F$333,5,FALSE),"")</f>
         <v>576</v>
       </c>
-      <c r="Y21" s="91"/>
-      <c r="Z21" s="91"/>
+      <c r="Y21" s="91">
+        <f>IFERROR(VLOOKUP(A21,정기전_2023!$B$338:$F$352,5,FALSE),"")</f>
+        <v>575</v>
+      </c>
+      <c r="Z21" s="91">
+        <f>IFERROR(VLOOKUP(A21,정기전_2023!$B$356:$F$368,5,FALSE),"")</f>
+        <v>640</v>
+      </c>
       <c r="AA21" s="91"/>
       <c r="AB21" s="91"/>
       <c r="AC21" s="91"/>
       <c r="AD21" s="92">
         <f t="shared" si="1"/>
-        <v>4754</v>
+        <v>5969</v>
       </c>
       <c r="AE21" s="92">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AF21" s="93">
         <f t="shared" si="3"/>
-        <v>198.08333333333334</v>
+        <v>198.96666666666667</v>
       </c>
     </row>
     <row r="22" spans="1:32">
@@ -26938,22 +28052,28 @@
         <f>IFERROR(VLOOKUP(A22,정기전_2023!$B$320:$F$333,5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Y22" s="91"/>
-      <c r="Z22" s="91"/>
+      <c r="Y22" s="91">
+        <f>IFERROR(VLOOKUP(A22,정기전_2023!$B$338:$F$352,5,FALSE),"")</f>
+        <v>550</v>
+      </c>
+      <c r="Z22" s="91" t="str">
+        <f>IFERROR(VLOOKUP(A22,정기전_2023!$B$356:$F$368,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="AA22" s="91"/>
       <c r="AB22" s="91"/>
       <c r="AC22" s="91"/>
       <c r="AD22" s="92">
         <f t="shared" si="1"/>
-        <v>1070</v>
+        <v>1620</v>
       </c>
       <c r="AE22" s="92">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AF22" s="93">
         <f t="shared" si="3"/>
-        <v>178.33333333333334</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:32">
@@ -27026,28 +28146,36 @@
         <v>16</v>
       </c>
       <c r="S23" s="90">
-        <f>COUNT(S3:S22)</f>
+        <f t="shared" ref="S23:Z23" si="5">COUNT(S3:S22)</f>
         <v>15</v>
       </c>
       <c r="T23" s="90">
-        <f>COUNT(T3:T22)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="U23" s="90">
-        <f>COUNT(U3:U22)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="V23" s="90">
-        <f>COUNT(V3:V22)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="W23" s="90">
-        <f>COUNT(W3:W22)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="X23" s="90">
-        <f>COUNT(X3:X22)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
+      </c>
+      <c r="Y23" s="90">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="Z23" s="90">
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -27056,7 +28184,7 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:AC22">
-    <cfRule type="cellIs" dxfId="3" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="20" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28251,12 +29379,12 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:L28 I29:L29">
-    <cfRule type="cellIs" dxfId="30" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="4" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:L29">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28338,10 +29466,10 @@
       <c r="V2" s="101"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="202">
+      <c r="A3" s="203">
         <v>1</v>
       </c>
-      <c r="B3" s="203" t="s">
+      <c r="B3" s="204" t="s">
         <v>119</v>
       </c>
       <c r="C3" s="96" t="s">
@@ -28386,8 +29514,8 @@
       <c r="V3" s="101"/>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="202"/>
-      <c r="B4" s="203"/>
+      <c r="A4" s="203"/>
+      <c r="B4" s="204"/>
       <c r="C4" s="96" t="s">
         <v>121</v>
       </c>
@@ -28430,8 +29558,8 @@
       <c r="V4" s="101"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="202"/>
-      <c r="B5" s="203"/>
+      <c r="A5" s="203"/>
+      <c r="B5" s="204"/>
       <c r="C5" s="96" t="s">
         <v>122</v>
       </c>
@@ -28468,10 +29596,10 @@
       <c r="V5" s="101"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="202">
+      <c r="A6" s="203">
         <v>2</v>
       </c>
-      <c r="B6" s="203" t="s">
+      <c r="B6" s="204" t="s">
         <v>123</v>
       </c>
       <c r="C6" s="96" t="s">
@@ -28509,8 +29637,8 @@
       <c r="V6" s="101"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="202"/>
-      <c r="B7" s="203"/>
+      <c r="A7" s="203"/>
+      <c r="B7" s="204"/>
       <c r="C7" s="96" t="s">
         <v>124</v>
       </c>
@@ -28546,8 +29674,8 @@
       <c r="V7" s="101"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="202"/>
-      <c r="B8" s="203"/>
+      <c r="A8" s="203"/>
+      <c r="B8" s="204"/>
       <c r="C8" s="96" t="s">
         <v>125</v>
       </c>
@@ -28583,10 +29711,10 @@
       <c r="V8" s="101"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="202">
+      <c r="A9" s="203">
         <v>3</v>
       </c>
-      <c r="B9" s="203" t="s">
+      <c r="B9" s="204" t="s">
         <v>126</v>
       </c>
       <c r="C9" s="96" t="s">
@@ -28611,15 +29739,15 @@
       <c r="I9" s="96">
         <v>3</v>
       </c>
-      <c r="K9" s="203" t="s">
+      <c r="K9" s="204" t="s">
         <v>139</v>
       </c>
-      <c r="L9" s="203"/>
-      <c r="M9" s="203"/>
-      <c r="N9" s="203"/>
-      <c r="O9" s="203"/>
-      <c r="P9" s="203"/>
-      <c r="Q9" s="203"/>
+      <c r="L9" s="204"/>
+      <c r="M9" s="204"/>
+      <c r="N9" s="204"/>
+      <c r="O9" s="204"/>
+      <c r="P9" s="204"/>
+      <c r="Q9" s="204"/>
       <c r="R9" s="101"/>
       <c r="S9" s="101"/>
       <c r="T9" s="101"/>
@@ -28627,8 +29755,8 @@
       <c r="V9" s="101"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="202"/>
-      <c r="B10" s="203"/>
+      <c r="A10" s="203"/>
+      <c r="B10" s="204"/>
       <c r="C10" s="96" t="s">
         <v>120</v>
       </c>
@@ -28651,13 +29779,13 @@
       <c r="I10" s="96">
         <v>3</v>
       </c>
-      <c r="K10" s="203"/>
-      <c r="L10" s="203"/>
-      <c r="M10" s="203"/>
-      <c r="N10" s="203"/>
-      <c r="O10" s="203"/>
-      <c r="P10" s="203"/>
-      <c r="Q10" s="203"/>
+      <c r="K10" s="204"/>
+      <c r="L10" s="204"/>
+      <c r="M10" s="204"/>
+      <c r="N10" s="204"/>
+      <c r="O10" s="204"/>
+      <c r="P10" s="204"/>
+      <c r="Q10" s="204"/>
       <c r="R10" s="101"/>
       <c r="S10" s="101"/>
       <c r="T10" s="101"/>
@@ -28665,8 +29793,8 @@
       <c r="V10" s="101"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="202"/>
-      <c r="B11" s="203"/>
+      <c r="A11" s="203"/>
+      <c r="B11" s="204"/>
       <c r="C11" s="96" t="s">
         <v>125</v>
       </c>
@@ -28717,10 +29845,10 @@
       <c r="V11" s="101"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="202">
+      <c r="A12" s="203">
         <v>4</v>
       </c>
-      <c r="B12" s="203" t="s">
+      <c r="B12" s="204" t="s">
         <v>127</v>
       </c>
       <c r="C12" s="96" t="s">
@@ -28779,8 +29907,8 @@
       <c r="V12" s="101"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="202"/>
-      <c r="B13" s="203"/>
+      <c r="A13" s="203"/>
+      <c r="B13" s="204"/>
       <c r="C13" s="96" t="s">
         <v>124</v>
       </c>
@@ -28837,8 +29965,8 @@
       <c r="V13" s="101"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="202"/>
-      <c r="B14" s="203"/>
+      <c r="A14" s="203"/>
+      <c r="B14" s="204"/>
       <c r="C14" s="96" t="s">
         <v>125</v>
       </c>
@@ -28895,10 +30023,10 @@
       <c r="V14" s="101"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="202">
+      <c r="A15" s="203">
         <v>5</v>
       </c>
-      <c r="B15" s="203" t="s">
+      <c r="B15" s="204" t="s">
         <v>128</v>
       </c>
       <c r="C15" s="96" t="s">
@@ -28957,8 +30085,8 @@
       <c r="V15" s="101"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="202"/>
-      <c r="B16" s="203"/>
+      <c r="A16" s="203"/>
+      <c r="B16" s="204"/>
       <c r="C16" s="96" t="s">
         <v>121</v>
       </c>
@@ -29015,8 +30143,8 @@
       <c r="V16" s="101"/>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="202"/>
-      <c r="B17" s="203"/>
+      <c r="A17" s="203"/>
+      <c r="B17" s="204"/>
       <c r="C17" s="96" t="s">
         <v>125</v>
       </c>
@@ -29073,10 +30201,10 @@
       <c r="V17" s="101"/>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="202">
+      <c r="A18" s="203">
         <v>6</v>
       </c>
-      <c r="B18" s="203" t="s">
+      <c r="B18" s="204" t="s">
         <v>129</v>
       </c>
       <c r="C18" s="96" t="s">
@@ -29135,8 +30263,8 @@
       <c r="V18" s="101"/>
     </row>
     <row r="19" spans="1:22">
-      <c r="A19" s="202"/>
-      <c r="B19" s="203"/>
+      <c r="A19" s="203"/>
+      <c r="B19" s="204"/>
       <c r="C19" s="96" t="s">
         <v>120</v>
       </c>
@@ -29159,10 +30287,10 @@
       <c r="I19" s="96">
         <v>0</v>
       </c>
-      <c r="K19" s="207" t="s">
+      <c r="K19" s="208" t="s">
         <v>109</v>
       </c>
-      <c r="L19" s="207"/>
+      <c r="L19" s="208"/>
       <c r="M19" s="106">
         <f ca="1">SUM(M12:M18)</f>
         <v>39</v>
@@ -29171,9 +30299,9 @@
         <f ca="1">SUM(N12:N18)</f>
         <v>42</v>
       </c>
-      <c r="O19" s="204"/>
-      <c r="P19" s="205"/>
-      <c r="Q19" s="206"/>
+      <c r="O19" s="205"/>
+      <c r="P19" s="206"/>
+      <c r="Q19" s="207"/>
       <c r="R19" s="101"/>
       <c r="S19" s="101"/>
       <c r="T19" s="101"/>
@@ -29181,8 +30309,8 @@
       <c r="V19" s="101"/>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="202"/>
-      <c r="B20" s="203"/>
+      <c r="A20" s="203"/>
+      <c r="B20" s="204"/>
       <c r="C20" s="96" t="s">
         <v>125</v>
       </c>
@@ -29218,10 +30346,10 @@
       <c r="V20" s="101"/>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="202">
+      <c r="A21" s="203">
         <v>7</v>
       </c>
-      <c r="B21" s="203" t="s">
+      <c r="B21" s="204" t="s">
         <v>140</v>
       </c>
       <c r="C21" s="96" t="s">
@@ -29259,8 +30387,8 @@
       <c r="V21" s="101"/>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="202"/>
-      <c r="B22" s="203"/>
+      <c r="A22" s="203"/>
+      <c r="B22" s="204"/>
       <c r="C22" s="96" t="s">
         <v>142</v>
       </c>
@@ -29296,8 +30424,8 @@
       <c r="V22" s="101"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="202"/>
-      <c r="B23" s="203"/>
+      <c r="A23" s="203"/>
+      <c r="B23" s="204"/>
       <c r="C23" s="96" t="s">
         <v>143</v>
       </c>
@@ -29333,10 +30461,10 @@
       <c r="V23" s="101"/>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="202">
+      <c r="A24" s="203">
         <v>8</v>
       </c>
-      <c r="B24" s="203" t="s">
+      <c r="B24" s="204" t="s">
         <v>145</v>
       </c>
       <c r="C24" s="96" t="s">
@@ -29374,8 +30502,8 @@
       <c r="V24" s="101"/>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="202"/>
-      <c r="B25" s="203"/>
+      <c r="A25" s="203"/>
+      <c r="B25" s="204"/>
       <c r="C25" s="96" t="s">
         <v>147</v>
       </c>
@@ -29411,8 +30539,8 @@
       <c r="V25" s="101"/>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="202"/>
-      <c r="B26" s="203"/>
+      <c r="A26" s="203"/>
+      <c r="B26" s="204"/>
       <c r="C26" s="96" t="s">
         <v>148</v>
       </c>
@@ -29449,10 +30577,10 @@
       <c r="V26" s="101"/>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="202">
+      <c r="A27" s="203">
         <v>9</v>
       </c>
-      <c r="B27" s="203" t="s">
+      <c r="B27" s="204" t="s">
         <v>152</v>
       </c>
       <c r="C27" s="96" t="s">
@@ -29491,8 +30619,8 @@
       <c r="V27" s="101"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="202"/>
-      <c r="B28" s="203"/>
+      <c r="A28" s="203"/>
+      <c r="B28" s="204"/>
       <c r="C28" s="96" t="s">
         <v>154</v>
       </c>
@@ -29529,8 +30657,8 @@
       <c r="V28" s="101"/>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="202"/>
-      <c r="B29" s="203"/>
+      <c r="A29" s="203"/>
+      <c r="B29" s="204"/>
       <c r="C29" s="96" t="s">
         <v>155</v>
       </c>
@@ -29641,12 +30769,12 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D3:F29">
-    <cfRule type="cellIs" dxfId="28" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G30">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="greaterThan">
       <formula>599.99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29724,10 +30852,10 @@
       <c r="R2" s="101"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="202">
+      <c r="A3" s="203">
         <v>1</v>
       </c>
-      <c r="B3" s="203" t="s">
+      <c r="B3" s="204" t="s">
         <v>123</v>
       </c>
       <c r="C3" s="96" t="s">
@@ -29768,8 +30896,8 @@
       <c r="R3" s="101"/>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="202"/>
-      <c r="B4" s="203"/>
+      <c r="A4" s="203"/>
+      <c r="B4" s="204"/>
       <c r="C4" s="96" t="s">
         <v>188</v>
       </c>
@@ -29808,8 +30936,8 @@
       <c r="R4" s="101"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="202"/>
-      <c r="B5" s="203"/>
+      <c r="A5" s="203"/>
+      <c r="B5" s="204"/>
       <c r="C5" s="96" t="s">
         <v>187</v>
       </c>
@@ -29842,10 +30970,10 @@
       <c r="R5" s="101"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="202">
+      <c r="A6" s="203">
         <v>2</v>
       </c>
-      <c r="B6" s="203" t="s">
+      <c r="B6" s="204" t="s">
         <v>152</v>
       </c>
       <c r="C6" s="96" t="s">
@@ -29883,8 +31011,8 @@
       <c r="V6" s="101"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="202"/>
-      <c r="B7" s="203"/>
+      <c r="A7" s="203"/>
+      <c r="B7" s="204"/>
       <c r="C7" s="96" t="s">
         <v>189</v>
       </c>
@@ -29920,8 +31048,8 @@
       <c r="V7" s="101"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="202"/>
-      <c r="B8" s="203"/>
+      <c r="A8" s="203"/>
+      <c r="B8" s="204"/>
       <c r="C8" s="96" t="s">
         <v>190</v>
       </c>
@@ -29957,10 +31085,10 @@
       <c r="V8" s="101"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="202">
+      <c r="A9" s="203">
         <v>3</v>
       </c>
-      <c r="B9" s="203" t="s">
+      <c r="B9" s="204" t="s">
         <v>192</v>
       </c>
       <c r="C9" s="96" t="s">
@@ -29985,15 +31113,15 @@
       <c r="I9" s="96">
         <v>1</v>
       </c>
-      <c r="K9" s="203" t="s">
+      <c r="K9" s="204" t="s">
         <v>139</v>
       </c>
-      <c r="L9" s="203"/>
-      <c r="M9" s="203"/>
-      <c r="N9" s="203"/>
-      <c r="O9" s="203"/>
-      <c r="P9" s="203"/>
-      <c r="Q9" s="203"/>
+      <c r="L9" s="204"/>
+      <c r="M9" s="204"/>
+      <c r="N9" s="204"/>
+      <c r="O9" s="204"/>
+      <c r="P9" s="204"/>
+      <c r="Q9" s="204"/>
       <c r="R9" s="101"/>
       <c r="S9" s="101"/>
       <c r="T9" s="101"/>
@@ -30001,8 +31129,8 @@
       <c r="V9" s="101"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="202"/>
-      <c r="B10" s="203"/>
+      <c r="A10" s="203"/>
+      <c r="B10" s="204"/>
       <c r="C10" s="96" t="s">
         <v>189</v>
       </c>
@@ -30025,13 +31153,13 @@
       <c r="I10" s="96">
         <v>1</v>
       </c>
-      <c r="K10" s="203"/>
-      <c r="L10" s="203"/>
-      <c r="M10" s="203"/>
-      <c r="N10" s="203"/>
-      <c r="O10" s="203"/>
-      <c r="P10" s="203"/>
-      <c r="Q10" s="203"/>
+      <c r="K10" s="204"/>
+      <c r="L10" s="204"/>
+      <c r="M10" s="204"/>
+      <c r="N10" s="204"/>
+      <c r="O10" s="204"/>
+      <c r="P10" s="204"/>
+      <c r="Q10" s="204"/>
       <c r="R10" s="101"/>
       <c r="S10" s="101"/>
       <c r="T10" s="101"/>
@@ -30039,8 +31167,8 @@
       <c r="V10" s="101"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="202"/>
-      <c r="B11" s="203"/>
+      <c r="A11" s="203"/>
+      <c r="B11" s="204"/>
       <c r="C11" s="96" t="s">
         <v>190</v>
       </c>
@@ -30091,10 +31219,10 @@
       <c r="V11" s="101"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="202">
+      <c r="A12" s="203">
         <v>4</v>
       </c>
-      <c r="B12" s="203" t="s">
+      <c r="B12" s="204" t="s">
         <v>193</v>
       </c>
       <c r="C12" s="96" t="s">
@@ -30153,8 +31281,8 @@
       <c r="V12" s="101"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="202"/>
-      <c r="B13" s="203"/>
+      <c r="A13" s="203"/>
+      <c r="B13" s="204"/>
       <c r="C13" s="96" t="s">
         <v>189</v>
       </c>
@@ -30211,8 +31339,8 @@
       <c r="V13" s="101"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="202"/>
-      <c r="B14" s="203"/>
+      <c r="A14" s="203"/>
+      <c r="B14" s="204"/>
       <c r="C14" s="96" t="s">
         <v>190</v>
       </c>
@@ -30269,10 +31397,10 @@
       <c r="V14" s="101"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="202">
+      <c r="A15" s="203">
         <v>5</v>
       </c>
-      <c r="B15" s="203" t="s">
+      <c r="B15" s="204" t="s">
         <v>194</v>
       </c>
       <c r="C15" s="96" t="s">
@@ -30331,8 +31459,8 @@
       <c r="V15" s="101"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="202"/>
-      <c r="B16" s="203"/>
+      <c r="A16" s="203"/>
+      <c r="B16" s="204"/>
       <c r="C16" s="96" t="s">
         <v>189</v>
       </c>
@@ -30389,8 +31517,8 @@
       <c r="V16" s="101"/>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="202"/>
-      <c r="B17" s="203"/>
+      <c r="A17" s="203"/>
+      <c r="B17" s="204"/>
       <c r="C17" s="96" t="s">
         <v>190</v>
       </c>
@@ -30413,10 +31541,10 @@
       <c r="I17" s="96">
         <v>1</v>
       </c>
-      <c r="K17" s="207" t="s">
+      <c r="K17" s="208" t="s">
         <v>109</v>
       </c>
-      <c r="L17" s="207"/>
+      <c r="L17" s="208"/>
       <c r="M17" s="106">
         <f ca="1">SUM(M12:M16)</f>
         <v>39</v>
@@ -30425,9 +31553,9 @@
         <f ca="1">SUM(N12:N16)</f>
         <v>42</v>
       </c>
-      <c r="O17" s="204"/>
-      <c r="P17" s="205"/>
-      <c r="Q17" s="206"/>
+      <c r="O17" s="205"/>
+      <c r="P17" s="206"/>
+      <c r="Q17" s="207"/>
       <c r="R17" s="101"/>
       <c r="S17" s="101"/>
       <c r="T17" s="101"/>
@@ -30435,10 +31563,10 @@
       <c r="V17" s="101"/>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="202">
+      <c r="A18" s="203">
         <v>6</v>
       </c>
-      <c r="B18" s="203" t="s">
+      <c r="B18" s="204" t="s">
         <v>129</v>
       </c>
       <c r="C18" s="96" t="s">
@@ -30476,8 +31604,8 @@
       <c r="V18" s="101"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="202"/>
-      <c r="B19" s="203"/>
+      <c r="A19" s="203"/>
+      <c r="B19" s="204"/>
       <c r="C19" s="96" t="s">
         <v>189</v>
       </c>
@@ -30513,8 +31641,8 @@
       <c r="V19" s="101"/>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="202"/>
-      <c r="B20" s="203"/>
+      <c r="A20" s="203"/>
+      <c r="B20" s="204"/>
       <c r="C20" s="96" t="s">
         <v>190</v>
       </c>
@@ -30550,10 +31678,10 @@
       <c r="V20" s="101"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="202">
+      <c r="A21" s="203">
         <v>7</v>
       </c>
-      <c r="B21" s="203" t="s">
+      <c r="B21" s="204" t="s">
         <v>119</v>
       </c>
       <c r="C21" s="96" t="s">
@@ -30589,8 +31717,8 @@
       <c r="V21" s="101"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="202"/>
-      <c r="B22" s="203"/>
+      <c r="A22" s="203"/>
+      <c r="B22" s="204"/>
       <c r="C22" s="96" t="s">
         <v>188</v>
       </c>
@@ -30623,8 +31751,8 @@
       <c r="V22" s="101"/>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" s="202"/>
-      <c r="B23" s="203"/>
+      <c r="A23" s="203"/>
+      <c r="B23" s="204"/>
       <c r="C23" s="96" t="s">
         <v>189</v>
       </c>
@@ -30655,10 +31783,10 @@
       <c r="V23" s="101"/>
     </row>
     <row r="24" spans="1:23">
-      <c r="A24" s="202">
+      <c r="A24" s="203">
         <v>8</v>
       </c>
-      <c r="B24" s="203" t="s">
+      <c r="B24" s="204" t="s">
         <v>145</v>
       </c>
       <c r="C24" s="96" t="s">
@@ -30692,8 +31820,8 @@
       <c r="V24" s="101"/>
     </row>
     <row r="25" spans="1:23">
-      <c r="A25" s="202"/>
-      <c r="B25" s="203"/>
+      <c r="A25" s="203"/>
+      <c r="B25" s="204"/>
       <c r="C25" s="96" t="s">
         <v>101</v>
       </c>
@@ -30726,8 +31854,8 @@
       <c r="W25" s="114"/>
     </row>
     <row r="26" spans="1:23">
-      <c r="A26" s="202"/>
-      <c r="B26" s="203"/>
+      <c r="A26" s="203"/>
+      <c r="B26" s="204"/>
       <c r="C26" s="96" t="s">
         <v>102</v>
       </c>
@@ -30764,10 +31892,10 @@
       <c r="W26" s="114"/>
     </row>
     <row r="27" spans="1:23">
-      <c r="A27" s="202">
+      <c r="A27" s="203">
         <v>9</v>
       </c>
-      <c r="B27" s="203" t="s">
+      <c r="B27" s="204" t="s">
         <v>128</v>
       </c>
       <c r="C27" s="96" t="s">
@@ -30806,8 +31934,8 @@
       <c r="W27" s="114"/>
     </row>
     <row r="28" spans="1:23">
-      <c r="A28" s="202"/>
-      <c r="B28" s="203"/>
+      <c r="A28" s="203"/>
+      <c r="B28" s="204"/>
       <c r="C28" s="96" t="s">
         <v>101</v>
       </c>
@@ -30844,8 +31972,8 @@
       <c r="V28" s="101"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="202"/>
-      <c r="B29" s="203"/>
+      <c r="A29" s="203"/>
+      <c r="B29" s="204"/>
       <c r="C29" s="96" t="s">
         <v>102</v>
       </c>
@@ -30938,12 +32066,12 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D3:F29">
-    <cfRule type="cellIs" dxfId="26" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G30">
-    <cfRule type="cellIs" dxfId="25" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="greaterThan">
       <formula>599.99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31468,56 +32596,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="209" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="208"/>
-      <c r="K1" s="208"/>
-      <c r="L1" s="208"/>
-      <c r="M1" s="208"/>
-      <c r="N1" s="208"/>
-      <c r="O1" s="208"/>
-      <c r="P1" s="208"/>
-      <c r="Q1" s="208"/>
-      <c r="R1" s="208"/>
-      <c r="S1" s="208"/>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
-      <c r="V1" s="208"/>
-      <c r="W1" s="208"/>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
+      <c r="P1" s="209"/>
+      <c r="Q1" s="209"/>
+      <c r="R1" s="209"/>
+      <c r="S1" s="209"/>
+      <c r="T1" s="209"/>
+      <c r="U1" s="209"/>
+      <c r="V1" s="209"/>
+      <c r="W1" s="209"/>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="209"/>
-      <c r="B2" s="209"/>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="209"/>
-      <c r="M2" s="209"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="209"/>
-      <c r="P2" s="209"/>
-      <c r="Q2" s="209"/>
-      <c r="R2" s="209"/>
-      <c r="S2" s="209"/>
-      <c r="T2" s="209"/>
-      <c r="U2" s="209"/>
-      <c r="V2" s="209"/>
-      <c r="W2" s="209"/>
+      <c r="A2" s="210"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="210"/>
+      <c r="P2" s="210"/>
+      <c r="Q2" s="210"/>
+      <c r="R2" s="210"/>
+      <c r="S2" s="210"/>
+      <c r="T2" s="210"/>
+      <c r="U2" s="210"/>
+      <c r="V2" s="210"/>
+      <c r="W2" s="210"/>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="118" t="s">
@@ -34125,27 +35253,27 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F25:G28 B4:S24 H25:S33">
-    <cfRule type="cellIs" dxfId="24" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:S25">
-    <cfRule type="cellIs" dxfId="23" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:S28">
-    <cfRule type="cellIs" dxfId="22" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:G33">
-    <cfRule type="cellIs" dxfId="21" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:S33">
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2023년 락클럽 에버관리.xlsx
+++ b/2023년 락클럽 에버관리.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5745" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5745" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="일일업무일지" sheetId="13" state="hidden" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="2022 2분기 상주리그점수" sheetId="21" state="hidden" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="20" state="hidden" r:id="rId8"/>
     <sheet name="총에버 관리_2022_이벤트전용" sheetId="22" state="hidden" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="23" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">일일업무일지!$B$1:$FX$31</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="558">
   <si>
     <t>적요</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -2137,6 +2138,113 @@
   </si>
   <si>
     <t>권순호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임방식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀추첨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총핀순위상품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒷풀이장소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023년 하반기 락클럽 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품수령방식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동점처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023년 11월 26일 일요일 오후5시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>45,000원(게임비 + 참가비) + α ( 뒷풀이비 별도 )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나인핀게임 3게임 총핀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정기전에버 순위 등급(A~D)
+팀사이드 별도 진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3게임 총핀 순위에 따른 시상 진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zen 크리스탈 15p
+Envy Tour 15p
+하드볼 Tzone 1EA
+Hustle 15p 1EA
+1등 최신볼 15p 1EA
+기타물품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석핸디 : 정기전 참여수 x 3점 ( 정기전은 1월정기전 ~ 11월정기전 까지 포함 )
+여자핸디 15점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>트윈스볼링장 근처(필참)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>동점 나올시 노핸디 &gt; (진)스트라이크갯수 &gt; 하이높은순 &gt; 로우 높은순으로 상품수령</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+게임당 점수는 핸디포함 300점을 넘지 않음</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2156,7 +2264,7 @@
     <numFmt numFmtId="184" formatCode="#,##0&quot;원&quot;"/>
     <numFmt numFmtId="185" formatCode="0&quot;회&quot;"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2296,8 +2404,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="HY엽서M"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2349,6 +2465,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2996,7 +3124,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -3426,156 +3554,56 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="10"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="10"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="10"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" indent="10"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3622,52 +3650,152 @@
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="10"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="10"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="10"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="distributed" vertical="center" indent="10"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3688,9 +3816,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="11" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3703,6 +3828,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="182" fontId="11" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3712,89 +3840,21 @@
     <xf numFmtId="0" fontId="16" fillId="8" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="43">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <font>
         <b/>
@@ -4768,33 +4828,33 @@
       <c r="DG4" s="4"/>
     </row>
     <row r="5" spans="2:111" ht="20.100000000000001" customHeight="1">
-      <c r="S5" s="185" t="s">
+      <c r="S5" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="192" t="s">
+      <c r="T5" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="U5" s="193"/>
-      <c r="V5" s="193"/>
-      <c r="W5" s="194"/>
-      <c r="X5" s="192" t="s">
+      <c r="U5" s="145"/>
+      <c r="V5" s="145"/>
+      <c r="W5" s="146"/>
+      <c r="X5" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="Y5" s="193"/>
-      <c r="Z5" s="193"/>
-      <c r="AA5" s="194"/>
-      <c r="AB5" s="192" t="s">
+      <c r="Y5" s="145"/>
+      <c r="Z5" s="145"/>
+      <c r="AA5" s="146"/>
+      <c r="AB5" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="AC5" s="193"/>
-      <c r="AD5" s="193"/>
-      <c r="AE5" s="194"/>
-      <c r="AF5" s="192" t="s">
+      <c r="AC5" s="145"/>
+      <c r="AD5" s="145"/>
+      <c r="AE5" s="146"/>
+      <c r="AF5" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="AG5" s="193"/>
-      <c r="AH5" s="193"/>
-      <c r="AI5" s="195"/>
+      <c r="AG5" s="145"/>
+      <c r="AH5" s="145"/>
+      <c r="AI5" s="147"/>
       <c r="AM5" s="4"/>
       <c r="AN5" s="4"/>
       <c r="AO5" s="4"/>
@@ -4813,23 +4873,23 @@
       <c r="BB5" s="4"/>
       <c r="BC5" s="4"/>
       <c r="BD5" s="4"/>
-      <c r="BE5" s="196"/>
-      <c r="BF5" s="137"/>
-      <c r="BG5" s="137"/>
-      <c r="BH5" s="137"/>
-      <c r="BI5" s="137"/>
-      <c r="BJ5" s="137"/>
-      <c r="BK5" s="137"/>
-      <c r="BL5" s="137"/>
-      <c r="BM5" s="137"/>
-      <c r="BN5" s="137"/>
-      <c r="BO5" s="137"/>
-      <c r="BP5" s="137"/>
-      <c r="BQ5" s="137"/>
-      <c r="BR5" s="137"/>
-      <c r="BS5" s="137"/>
-      <c r="BT5" s="137"/>
-      <c r="BU5" s="137"/>
+      <c r="BE5" s="148"/>
+      <c r="BF5" s="138"/>
+      <c r="BG5" s="138"/>
+      <c r="BH5" s="138"/>
+      <c r="BI5" s="138"/>
+      <c r="BJ5" s="138"/>
+      <c r="BK5" s="138"/>
+      <c r="BL5" s="138"/>
+      <c r="BM5" s="138"/>
+      <c r="BN5" s="138"/>
+      <c r="BO5" s="138"/>
+      <c r="BP5" s="138"/>
+      <c r="BQ5" s="138"/>
+      <c r="BR5" s="138"/>
+      <c r="BS5" s="138"/>
+      <c r="BT5" s="138"/>
+      <c r="BU5" s="138"/>
       <c r="BV5" s="14"/>
       <c r="BW5" s="14"/>
       <c r="BX5" s="14"/>
@@ -4879,23 +4939,23 @@
       <c r="O6" s="17"/>
       <c r="P6" s="17"/>
       <c r="Q6" s="17"/>
-      <c r="S6" s="186"/>
-      <c r="T6" s="187"/>
-      <c r="U6" s="188"/>
-      <c r="V6" s="188"/>
-      <c r="W6" s="189"/>
-      <c r="X6" s="187"/>
-      <c r="Y6" s="188"/>
-      <c r="Z6" s="188"/>
-      <c r="AA6" s="189"/>
-      <c r="AB6" s="187"/>
-      <c r="AC6" s="188"/>
-      <c r="AD6" s="188"/>
-      <c r="AE6" s="189"/>
-      <c r="AF6" s="187"/>
-      <c r="AG6" s="188"/>
-      <c r="AH6" s="188"/>
-      <c r="AI6" s="190"/>
+      <c r="S6" s="137"/>
+      <c r="T6" s="139"/>
+      <c r="U6" s="140"/>
+      <c r="V6" s="140"/>
+      <c r="W6" s="141"/>
+      <c r="X6" s="139"/>
+      <c r="Y6" s="140"/>
+      <c r="Z6" s="140"/>
+      <c r="AA6" s="141"/>
+      <c r="AB6" s="139"/>
+      <c r="AC6" s="140"/>
+      <c r="AD6" s="140"/>
+      <c r="AE6" s="141"/>
+      <c r="AF6" s="139"/>
+      <c r="AG6" s="140"/>
+      <c r="AH6" s="140"/>
+      <c r="AI6" s="142"/>
       <c r="AM6" s="18"/>
       <c r="AN6" s="4"/>
       <c r="AO6" s="4"/>
@@ -4914,23 +4974,23 @@
       <c r="BB6" s="19"/>
       <c r="BC6" s="19"/>
       <c r="BD6" s="4"/>
-      <c r="BE6" s="196"/>
-      <c r="BF6" s="191"/>
-      <c r="BG6" s="191"/>
-      <c r="BH6" s="191"/>
-      <c r="BI6" s="191"/>
-      <c r="BJ6" s="191"/>
-      <c r="BK6" s="191"/>
-      <c r="BL6" s="191"/>
-      <c r="BM6" s="191"/>
-      <c r="BN6" s="191"/>
-      <c r="BO6" s="191"/>
-      <c r="BP6" s="191"/>
-      <c r="BQ6" s="191"/>
-      <c r="BR6" s="191"/>
-      <c r="BS6" s="191"/>
-      <c r="BT6" s="191"/>
-      <c r="BU6" s="191"/>
+      <c r="BE6" s="148"/>
+      <c r="BF6" s="143"/>
+      <c r="BG6" s="143"/>
+      <c r="BH6" s="143"/>
+      <c r="BI6" s="143"/>
+      <c r="BJ6" s="143"/>
+      <c r="BK6" s="143"/>
+      <c r="BL6" s="143"/>
+      <c r="BM6" s="143"/>
+      <c r="BN6" s="143"/>
+      <c r="BO6" s="143"/>
+      <c r="BP6" s="143"/>
+      <c r="BQ6" s="143"/>
+      <c r="BR6" s="143"/>
+      <c r="BS6" s="143"/>
+      <c r="BT6" s="143"/>
+      <c r="BU6" s="143"/>
       <c r="BV6" s="20"/>
       <c r="BW6" s="20"/>
       <c r="BX6" s="20"/>
@@ -4956,77 +5016,77 @@
       <c r="DG6" s="20"/>
     </row>
     <row r="7" spans="2:111" ht="65.099999999999994" customHeight="1">
-      <c r="B7" s="174" t="s">
+      <c r="B7" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="175"/>
-      <c r="D7" s="175"/>
-      <c r="E7" s="175"/>
-      <c r="F7" s="175"/>
-      <c r="G7" s="175"/>
-      <c r="H7" s="175"/>
-      <c r="I7" s="175"/>
-      <c r="J7" s="175"/>
-      <c r="K7" s="175"/>
-      <c r="L7" s="175"/>
-      <c r="M7" s="175"/>
-      <c r="N7" s="175"/>
-      <c r="O7" s="175"/>
-      <c r="P7" s="175"/>
-      <c r="Q7" s="175"/>
-      <c r="R7" s="175"/>
-      <c r="S7" s="175"/>
-      <c r="T7" s="175"/>
-      <c r="U7" s="175"/>
-      <c r="V7" s="175"/>
-      <c r="W7" s="175"/>
-      <c r="X7" s="175"/>
-      <c r="Y7" s="175"/>
-      <c r="Z7" s="175"/>
-      <c r="AA7" s="175"/>
-      <c r="AB7" s="175"/>
-      <c r="AC7" s="175"/>
-      <c r="AD7" s="175"/>
-      <c r="AE7" s="175"/>
-      <c r="AF7" s="175"/>
-      <c r="AG7" s="175"/>
-      <c r="AH7" s="175"/>
-      <c r="AI7" s="176"/>
+      <c r="C7" s="150"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="150"/>
+      <c r="Q7" s="150"/>
+      <c r="R7" s="150"/>
+      <c r="S7" s="150"/>
+      <c r="T7" s="150"/>
+      <c r="U7" s="150"/>
+      <c r="V7" s="150"/>
+      <c r="W7" s="150"/>
+      <c r="X7" s="150"/>
+      <c r="Y7" s="150"/>
+      <c r="Z7" s="150"/>
+      <c r="AA7" s="150"/>
+      <c r="AB7" s="150"/>
+      <c r="AC7" s="150"/>
+      <c r="AD7" s="150"/>
+      <c r="AE7" s="150"/>
+      <c r="AF7" s="150"/>
+      <c r="AG7" s="150"/>
+      <c r="AH7" s="150"/>
+      <c r="AI7" s="151"/>
       <c r="AM7" s="18"/>
-      <c r="AN7" s="177"/>
-      <c r="AO7" s="177"/>
-      <c r="AP7" s="177"/>
-      <c r="AQ7" s="177"/>
-      <c r="AR7" s="177"/>
-      <c r="AS7" s="177"/>
-      <c r="AT7" s="177"/>
-      <c r="AU7" s="177"/>
-      <c r="AV7" s="177"/>
-      <c r="AW7" s="177"/>
-      <c r="AX7" s="177"/>
-      <c r="AY7" s="177"/>
-      <c r="AZ7" s="177"/>
-      <c r="BA7" s="177"/>
-      <c r="BB7" s="177"/>
-      <c r="BC7" s="177"/>
-      <c r="BD7" s="177"/>
-      <c r="BE7" s="177"/>
-      <c r="BF7" s="177"/>
-      <c r="BG7" s="177"/>
-      <c r="BH7" s="177"/>
-      <c r="BI7" s="177"/>
-      <c r="BJ7" s="177"/>
-      <c r="BK7" s="177"/>
-      <c r="BL7" s="177"/>
-      <c r="BM7" s="177"/>
-      <c r="BN7" s="177"/>
-      <c r="BO7" s="177"/>
-      <c r="BP7" s="177"/>
-      <c r="BQ7" s="177"/>
-      <c r="BR7" s="177"/>
-      <c r="BS7" s="177"/>
-      <c r="BT7" s="177"/>
-      <c r="BU7" s="177"/>
+      <c r="AN7" s="152"/>
+      <c r="AO7" s="152"/>
+      <c r="AP7" s="152"/>
+      <c r="AQ7" s="152"/>
+      <c r="AR7" s="152"/>
+      <c r="AS7" s="152"/>
+      <c r="AT7" s="152"/>
+      <c r="AU7" s="152"/>
+      <c r="AV7" s="152"/>
+      <c r="AW7" s="152"/>
+      <c r="AX7" s="152"/>
+      <c r="AY7" s="152"/>
+      <c r="AZ7" s="152"/>
+      <c r="BA7" s="152"/>
+      <c r="BB7" s="152"/>
+      <c r="BC7" s="152"/>
+      <c r="BD7" s="152"/>
+      <c r="BE7" s="152"/>
+      <c r="BF7" s="152"/>
+      <c r="BG7" s="152"/>
+      <c r="BH7" s="152"/>
+      <c r="BI7" s="152"/>
+      <c r="BJ7" s="152"/>
+      <c r="BK7" s="152"/>
+      <c r="BL7" s="152"/>
+      <c r="BM7" s="152"/>
+      <c r="BN7" s="152"/>
+      <c r="BO7" s="152"/>
+      <c r="BP7" s="152"/>
+      <c r="BQ7" s="152"/>
+      <c r="BR7" s="152"/>
+      <c r="BS7" s="152"/>
+      <c r="BT7" s="152"/>
+      <c r="BU7" s="152"/>
       <c r="BV7" s="21"/>
       <c r="BW7" s="21"/>
       <c r="BX7" s="21"/>
@@ -5055,30 +5115,30 @@
       <c r="DG7" s="21"/>
     </row>
     <row r="8" spans="2:111" ht="30" customHeight="1">
-      <c r="B8" s="178" t="s">
+      <c r="B8" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="179"/>
-      <c r="D8" s="179"/>
-      <c r="E8" s="180">
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="155">
         <f>SUM(S14:AA23)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="180"/>
-      <c r="G8" s="180"/>
-      <c r="H8" s="180"/>
-      <c r="I8" s="180"/>
-      <c r="J8" s="180"/>
-      <c r="K8" s="180"/>
-      <c r="L8" s="180"/>
-      <c r="M8" s="180"/>
-      <c r="N8" s="180"/>
-      <c r="O8" s="180"/>
-      <c r="P8" s="180"/>
-      <c r="Q8" s="180"/>
-      <c r="R8" s="180"/>
-      <c r="S8" s="180"/>
-      <c r="T8" s="180"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="155"/>
+      <c r="J8" s="155"/>
+      <c r="K8" s="155"/>
+      <c r="L8" s="155"/>
+      <c r="M8" s="155"/>
+      <c r="N8" s="155"/>
+      <c r="O8" s="155"/>
+      <c r="P8" s="155"/>
+      <c r="Q8" s="155"/>
+      <c r="R8" s="155"/>
+      <c r="S8" s="155"/>
+      <c r="T8" s="155"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4" t="s">
         <v>23</v>
@@ -5091,54 +5151,54 @@
       <c r="Z8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA8" s="181">
+      <c r="AA8" s="156">
         <f>E8</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="181"/>
-      <c r="AC8" s="181"/>
-      <c r="AD8" s="181"/>
-      <c r="AE8" s="181"/>
-      <c r="AF8" s="181"/>
-      <c r="AG8" s="181"/>
-      <c r="AH8" s="181"/>
+      <c r="AB8" s="156"/>
+      <c r="AC8" s="156"/>
+      <c r="AD8" s="156"/>
+      <c r="AE8" s="156"/>
+      <c r="AF8" s="156"/>
+      <c r="AG8" s="156"/>
+      <c r="AH8" s="156"/>
       <c r="AI8" s="23" t="s">
         <v>26</v>
       </c>
       <c r="AM8" s="4"/>
-      <c r="AN8" s="182"/>
-      <c r="AO8" s="182"/>
-      <c r="AP8" s="182"/>
-      <c r="AQ8" s="183"/>
-      <c r="AR8" s="183"/>
-      <c r="AS8" s="183"/>
-      <c r="AT8" s="183"/>
-      <c r="AU8" s="183"/>
-      <c r="AV8" s="183"/>
-      <c r="AW8" s="183"/>
-      <c r="AX8" s="183"/>
-      <c r="AY8" s="183"/>
-      <c r="AZ8" s="183"/>
-      <c r="BA8" s="183"/>
-      <c r="BB8" s="183"/>
-      <c r="BC8" s="183"/>
-      <c r="BD8" s="183"/>
-      <c r="BE8" s="183"/>
-      <c r="BF8" s="183"/>
+      <c r="AN8" s="157"/>
+      <c r="AO8" s="157"/>
+      <c r="AP8" s="157"/>
+      <c r="AQ8" s="158"/>
+      <c r="AR8" s="158"/>
+      <c r="AS8" s="158"/>
+      <c r="AT8" s="158"/>
+      <c r="AU8" s="158"/>
+      <c r="AV8" s="158"/>
+      <c r="AW8" s="158"/>
+      <c r="AX8" s="158"/>
+      <c r="AY8" s="158"/>
+      <c r="AZ8" s="158"/>
+      <c r="BA8" s="158"/>
+      <c r="BB8" s="158"/>
+      <c r="BC8" s="158"/>
+      <c r="BD8" s="158"/>
+      <c r="BE8" s="158"/>
+      <c r="BF8" s="158"/>
       <c r="BG8" s="4"/>
       <c r="BH8" s="4"/>
       <c r="BI8" s="4"/>
       <c r="BJ8" s="4"/>
       <c r="BK8" s="4"/>
       <c r="BL8" s="4"/>
-      <c r="BM8" s="184"/>
-      <c r="BN8" s="184"/>
-      <c r="BO8" s="184"/>
-      <c r="BP8" s="184"/>
-      <c r="BQ8" s="184"/>
-      <c r="BR8" s="184"/>
-      <c r="BS8" s="184"/>
-      <c r="BT8" s="184"/>
+      <c r="BM8" s="159"/>
+      <c r="BN8" s="159"/>
+      <c r="BO8" s="159"/>
+      <c r="BP8" s="159"/>
+      <c r="BQ8" s="159"/>
+      <c r="BR8" s="159"/>
+      <c r="BS8" s="159"/>
+      <c r="BT8" s="159"/>
       <c r="BU8" s="4"/>
       <c r="BV8" s="4"/>
       <c r="BW8" s="4"/>
@@ -5170,83 +5230,83 @@
       <c r="DG8" s="4"/>
     </row>
     <row r="9" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B9" s="166" t="s">
+      <c r="B9" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="167"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="169">
+      <c r="C9" s="162"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="164">
         <v>44351</v>
       </c>
-      <c r="F9" s="170"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="170"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="170"/>
-      <c r="K9" s="170"/>
-      <c r="L9" s="170"/>
-      <c r="M9" s="170"/>
-      <c r="N9" s="170"/>
-      <c r="O9" s="170"/>
-      <c r="P9" s="170"/>
-      <c r="Q9" s="170"/>
-      <c r="R9" s="171"/>
-      <c r="S9" s="172" t="s">
+      <c r="F9" s="165"/>
+      <c r="G9" s="165"/>
+      <c r="H9" s="165"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="165"/>
+      <c r="K9" s="165"/>
+      <c r="L9" s="165"/>
+      <c r="M9" s="165"/>
+      <c r="N9" s="165"/>
+      <c r="O9" s="165"/>
+      <c r="P9" s="165"/>
+      <c r="Q9" s="165"/>
+      <c r="R9" s="166"/>
+      <c r="S9" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="T9" s="168"/>
-      <c r="U9" s="172"/>
-      <c r="V9" s="167"/>
-      <c r="W9" s="167"/>
-      <c r="X9" s="167"/>
-      <c r="Y9" s="167"/>
-      <c r="Z9" s="167"/>
-      <c r="AA9" s="168"/>
-      <c r="AB9" s="172" t="s">
+      <c r="T9" s="163"/>
+      <c r="U9" s="167"/>
+      <c r="V9" s="162"/>
+      <c r="W9" s="162"/>
+      <c r="X9" s="162"/>
+      <c r="Y9" s="162"/>
+      <c r="Z9" s="162"/>
+      <c r="AA9" s="163"/>
+      <c r="AB9" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="AC9" s="167"/>
-      <c r="AD9" s="167"/>
-      <c r="AE9" s="168"/>
-      <c r="AF9" s="172"/>
-      <c r="AG9" s="167"/>
-      <c r="AH9" s="167"/>
-      <c r="AI9" s="173"/>
+      <c r="AC9" s="162"/>
+      <c r="AD9" s="162"/>
+      <c r="AE9" s="163"/>
+      <c r="AF9" s="167"/>
+      <c r="AG9" s="162"/>
+      <c r="AH9" s="162"/>
+      <c r="AI9" s="168"/>
       <c r="AM9" s="4"/>
-      <c r="AN9" s="137"/>
-      <c r="AO9" s="137"/>
-      <c r="AP9" s="137"/>
-      <c r="AQ9" s="142"/>
-      <c r="AR9" s="142"/>
-      <c r="AS9" s="142"/>
-      <c r="AT9" s="142"/>
-      <c r="AU9" s="142"/>
-      <c r="AV9" s="142"/>
-      <c r="AW9" s="142"/>
-      <c r="AX9" s="142"/>
-      <c r="AY9" s="142"/>
-      <c r="AZ9" s="142"/>
-      <c r="BA9" s="142"/>
-      <c r="BB9" s="142"/>
-      <c r="BC9" s="142"/>
-      <c r="BD9" s="142"/>
-      <c r="BE9" s="137"/>
-      <c r="BF9" s="137"/>
-      <c r="BG9" s="137"/>
-      <c r="BH9" s="137"/>
-      <c r="BI9" s="137"/>
-      <c r="BJ9" s="137"/>
-      <c r="BK9" s="137"/>
-      <c r="BL9" s="137"/>
-      <c r="BM9" s="137"/>
-      <c r="BN9" s="137"/>
-      <c r="BO9" s="137"/>
-      <c r="BP9" s="137"/>
-      <c r="BQ9" s="137"/>
-      <c r="BR9" s="137"/>
-      <c r="BS9" s="137"/>
-      <c r="BT9" s="137"/>
-      <c r="BU9" s="137"/>
+      <c r="AN9" s="138"/>
+      <c r="AO9" s="138"/>
+      <c r="AP9" s="138"/>
+      <c r="AQ9" s="160"/>
+      <c r="AR9" s="160"/>
+      <c r="AS9" s="160"/>
+      <c r="AT9" s="160"/>
+      <c r="AU9" s="160"/>
+      <c r="AV9" s="160"/>
+      <c r="AW9" s="160"/>
+      <c r="AX9" s="160"/>
+      <c r="AY9" s="160"/>
+      <c r="AZ9" s="160"/>
+      <c r="BA9" s="160"/>
+      <c r="BB9" s="160"/>
+      <c r="BC9" s="160"/>
+      <c r="BD9" s="160"/>
+      <c r="BE9" s="138"/>
+      <c r="BF9" s="138"/>
+      <c r="BG9" s="138"/>
+      <c r="BH9" s="138"/>
+      <c r="BI9" s="138"/>
+      <c r="BJ9" s="138"/>
+      <c r="BK9" s="138"/>
+      <c r="BL9" s="138"/>
+      <c r="BM9" s="138"/>
+      <c r="BN9" s="138"/>
+      <c r="BO9" s="138"/>
+      <c r="BP9" s="138"/>
+      <c r="BQ9" s="138"/>
+      <c r="BR9" s="138"/>
+      <c r="BS9" s="138"/>
+      <c r="BT9" s="138"/>
+      <c r="BU9" s="138"/>
       <c r="BV9" s="14"/>
       <c r="BW9" s="14"/>
       <c r="BX9" s="14"/>
@@ -5287,83 +5347,83 @@
       <c r="DG9" s="14"/>
     </row>
     <row r="10" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B10" s="166" t="s">
+      <c r="B10" s="161" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="167"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="169" t="s">
+      <c r="C10" s="162"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="170"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="170"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="170"/>
-      <c r="K10" s="170"/>
-      <c r="L10" s="170"/>
-      <c r="M10" s="170"/>
-      <c r="N10" s="170"/>
-      <c r="O10" s="170"/>
-      <c r="P10" s="170"/>
-      <c r="Q10" s="170"/>
-      <c r="R10" s="171"/>
-      <c r="S10" s="172" t="s">
+      <c r="F10" s="165"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="165"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="165"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="165"/>
+      <c r="M10" s="165"/>
+      <c r="N10" s="165"/>
+      <c r="O10" s="165"/>
+      <c r="P10" s="165"/>
+      <c r="Q10" s="165"/>
+      <c r="R10" s="166"/>
+      <c r="S10" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="T10" s="168"/>
-      <c r="U10" s="172"/>
-      <c r="V10" s="167"/>
-      <c r="W10" s="167"/>
-      <c r="X10" s="167"/>
-      <c r="Y10" s="167"/>
-      <c r="Z10" s="167"/>
-      <c r="AA10" s="168"/>
-      <c r="AB10" s="172" t="s">
+      <c r="T10" s="163"/>
+      <c r="U10" s="167"/>
+      <c r="V10" s="162"/>
+      <c r="W10" s="162"/>
+      <c r="X10" s="162"/>
+      <c r="Y10" s="162"/>
+      <c r="Z10" s="162"/>
+      <c r="AA10" s="163"/>
+      <c r="AB10" s="167" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="167"/>
-      <c r="AD10" s="167"/>
-      <c r="AE10" s="167"/>
-      <c r="AF10" s="167"/>
-      <c r="AG10" s="167"/>
-      <c r="AH10" s="167"/>
-      <c r="AI10" s="173"/>
+      <c r="AC10" s="162"/>
+      <c r="AD10" s="162"/>
+      <c r="AE10" s="162"/>
+      <c r="AF10" s="162"/>
+      <c r="AG10" s="162"/>
+      <c r="AH10" s="162"/>
+      <c r="AI10" s="168"/>
       <c r="AM10" s="4"/>
-      <c r="AN10" s="137"/>
-      <c r="AO10" s="137"/>
-      <c r="AP10" s="137"/>
-      <c r="AQ10" s="142"/>
-      <c r="AR10" s="142"/>
-      <c r="AS10" s="142"/>
-      <c r="AT10" s="142"/>
-      <c r="AU10" s="142"/>
-      <c r="AV10" s="142"/>
-      <c r="AW10" s="142"/>
-      <c r="AX10" s="142"/>
-      <c r="AY10" s="142"/>
-      <c r="AZ10" s="142"/>
-      <c r="BA10" s="142"/>
-      <c r="BB10" s="142"/>
-      <c r="BC10" s="142"/>
-      <c r="BD10" s="142"/>
-      <c r="BE10" s="137"/>
-      <c r="BF10" s="137"/>
-      <c r="BG10" s="137"/>
-      <c r="BH10" s="137"/>
-      <c r="BI10" s="137"/>
-      <c r="BJ10" s="137"/>
-      <c r="BK10" s="137"/>
-      <c r="BL10" s="137"/>
-      <c r="BM10" s="137"/>
-      <c r="BN10" s="137"/>
-      <c r="BO10" s="137"/>
-      <c r="BP10" s="137"/>
-      <c r="BQ10" s="137"/>
-      <c r="BR10" s="137"/>
-      <c r="BS10" s="137"/>
-      <c r="BT10" s="137"/>
-      <c r="BU10" s="137"/>
+      <c r="AN10" s="138"/>
+      <c r="AO10" s="138"/>
+      <c r="AP10" s="138"/>
+      <c r="AQ10" s="160"/>
+      <c r="AR10" s="160"/>
+      <c r="AS10" s="160"/>
+      <c r="AT10" s="160"/>
+      <c r="AU10" s="160"/>
+      <c r="AV10" s="160"/>
+      <c r="AW10" s="160"/>
+      <c r="AX10" s="160"/>
+      <c r="AY10" s="160"/>
+      <c r="AZ10" s="160"/>
+      <c r="BA10" s="160"/>
+      <c r="BB10" s="160"/>
+      <c r="BC10" s="160"/>
+      <c r="BD10" s="160"/>
+      <c r="BE10" s="138"/>
+      <c r="BF10" s="138"/>
+      <c r="BG10" s="138"/>
+      <c r="BH10" s="138"/>
+      <c r="BI10" s="138"/>
+      <c r="BJ10" s="138"/>
+      <c r="BK10" s="138"/>
+      <c r="BL10" s="138"/>
+      <c r="BM10" s="138"/>
+      <c r="BN10" s="138"/>
+      <c r="BO10" s="138"/>
+      <c r="BP10" s="138"/>
+      <c r="BQ10" s="138"/>
+      <c r="BR10" s="138"/>
+      <c r="BS10" s="138"/>
+      <c r="BT10" s="138"/>
+      <c r="BU10" s="138"/>
       <c r="BV10" s="14"/>
       <c r="BW10" s="14"/>
       <c r="BX10" s="14"/>
@@ -5404,81 +5464,81 @@
       <c r="DG10" s="14"/>
     </row>
     <row r="11" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B11" s="166" t="s">
+      <c r="B11" s="161" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="167"/>
-      <c r="D11" s="168"/>
-      <c r="E11" s="169" t="s">
+      <c r="C11" s="162"/>
+      <c r="D11" s="163"/>
+      <c r="E11" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="170"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="170"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="170"/>
-      <c r="K11" s="170"/>
-      <c r="L11" s="170"/>
-      <c r="M11" s="170"/>
-      <c r="N11" s="170"/>
-      <c r="O11" s="170"/>
-      <c r="P11" s="170"/>
-      <c r="Q11" s="170"/>
-      <c r="R11" s="171"/>
-      <c r="S11" s="172" t="s">
+      <c r="F11" s="165"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="165"/>
+      <c r="I11" s="165"/>
+      <c r="J11" s="165"/>
+      <c r="K11" s="165"/>
+      <c r="L11" s="165"/>
+      <c r="M11" s="165"/>
+      <c r="N11" s="165"/>
+      <c r="O11" s="165"/>
+      <c r="P11" s="165"/>
+      <c r="Q11" s="165"/>
+      <c r="R11" s="166"/>
+      <c r="S11" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="T11" s="168"/>
-      <c r="U11" s="172"/>
-      <c r="V11" s="167"/>
-      <c r="W11" s="167"/>
-      <c r="X11" s="167"/>
-      <c r="Y11" s="167"/>
-      <c r="Z11" s="167"/>
-      <c r="AA11" s="168"/>
-      <c r="AB11" s="172"/>
-      <c r="AC11" s="167"/>
-      <c r="AD11" s="167"/>
-      <c r="AE11" s="167"/>
-      <c r="AF11" s="167"/>
-      <c r="AG11" s="167"/>
-      <c r="AH11" s="167"/>
-      <c r="AI11" s="173"/>
+      <c r="T11" s="163"/>
+      <c r="U11" s="167"/>
+      <c r="V11" s="162"/>
+      <c r="W11" s="162"/>
+      <c r="X11" s="162"/>
+      <c r="Y11" s="162"/>
+      <c r="Z11" s="162"/>
+      <c r="AA11" s="163"/>
+      <c r="AB11" s="167"/>
+      <c r="AC11" s="162"/>
+      <c r="AD11" s="162"/>
+      <c r="AE11" s="162"/>
+      <c r="AF11" s="162"/>
+      <c r="AG11" s="162"/>
+      <c r="AH11" s="162"/>
+      <c r="AI11" s="168"/>
       <c r="AM11" s="4"/>
-      <c r="AN11" s="137"/>
-      <c r="AO11" s="137"/>
-      <c r="AP11" s="137"/>
-      <c r="AQ11" s="142"/>
-      <c r="AR11" s="142"/>
-      <c r="AS11" s="142"/>
-      <c r="AT11" s="142"/>
-      <c r="AU11" s="142"/>
-      <c r="AV11" s="142"/>
-      <c r="AW11" s="142"/>
-      <c r="AX11" s="142"/>
-      <c r="AY11" s="142"/>
-      <c r="AZ11" s="142"/>
-      <c r="BA11" s="142"/>
-      <c r="BB11" s="142"/>
-      <c r="BC11" s="142"/>
-      <c r="BD11" s="142"/>
-      <c r="BE11" s="137"/>
-      <c r="BF11" s="137"/>
-      <c r="BG11" s="137"/>
-      <c r="BH11" s="137"/>
-      <c r="BI11" s="137"/>
-      <c r="BJ11" s="137"/>
-      <c r="BK11" s="137"/>
-      <c r="BL11" s="137"/>
-      <c r="BM11" s="137"/>
-      <c r="BN11" s="137"/>
-      <c r="BO11" s="137"/>
-      <c r="BP11" s="137"/>
-      <c r="BQ11" s="137"/>
-      <c r="BR11" s="137"/>
-      <c r="BS11" s="137"/>
-      <c r="BT11" s="137"/>
-      <c r="BU11" s="137"/>
+      <c r="AN11" s="138"/>
+      <c r="AO11" s="138"/>
+      <c r="AP11" s="138"/>
+      <c r="AQ11" s="160"/>
+      <c r="AR11" s="160"/>
+      <c r="AS11" s="160"/>
+      <c r="AT11" s="160"/>
+      <c r="AU11" s="160"/>
+      <c r="AV11" s="160"/>
+      <c r="AW11" s="160"/>
+      <c r="AX11" s="160"/>
+      <c r="AY11" s="160"/>
+      <c r="AZ11" s="160"/>
+      <c r="BA11" s="160"/>
+      <c r="BB11" s="160"/>
+      <c r="BC11" s="160"/>
+      <c r="BD11" s="160"/>
+      <c r="BE11" s="138"/>
+      <c r="BF11" s="138"/>
+      <c r="BG11" s="138"/>
+      <c r="BH11" s="138"/>
+      <c r="BI11" s="138"/>
+      <c r="BJ11" s="138"/>
+      <c r="BK11" s="138"/>
+      <c r="BL11" s="138"/>
+      <c r="BM11" s="138"/>
+      <c r="BN11" s="138"/>
+      <c r="BO11" s="138"/>
+      <c r="BP11" s="138"/>
+      <c r="BQ11" s="138"/>
+      <c r="BR11" s="138"/>
+      <c r="BS11" s="138"/>
+      <c r="BT11" s="138"/>
+      <c r="BU11" s="138"/>
       <c r="BV11" s="14"/>
       <c r="BW11" s="14"/>
       <c r="BX11" s="14"/>
@@ -5519,77 +5579,77 @@
       <c r="DG11" s="14"/>
     </row>
     <row r="12" spans="2:111" ht="30" customHeight="1">
-      <c r="B12" s="162" t="s">
+      <c r="B12" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="163"/>
-      <c r="D12" s="163"/>
-      <c r="E12" s="163"/>
-      <c r="F12" s="163"/>
-      <c r="G12" s="163"/>
-      <c r="H12" s="163"/>
-      <c r="I12" s="163"/>
-      <c r="J12" s="163"/>
-      <c r="K12" s="163"/>
-      <c r="L12" s="163"/>
-      <c r="M12" s="163"/>
-      <c r="N12" s="163"/>
-      <c r="O12" s="163"/>
-      <c r="P12" s="163"/>
-      <c r="Q12" s="163"/>
-      <c r="R12" s="163"/>
-      <c r="S12" s="163"/>
-      <c r="T12" s="163"/>
-      <c r="U12" s="163"/>
-      <c r="V12" s="163"/>
-      <c r="W12" s="163"/>
-      <c r="X12" s="163"/>
-      <c r="Y12" s="163"/>
-      <c r="Z12" s="163"/>
-      <c r="AA12" s="163"/>
-      <c r="AB12" s="163"/>
-      <c r="AC12" s="163"/>
-      <c r="AD12" s="163"/>
-      <c r="AE12" s="163"/>
-      <c r="AF12" s="163"/>
-      <c r="AG12" s="163"/>
-      <c r="AH12" s="163"/>
-      <c r="AI12" s="164"/>
+      <c r="C12" s="170"/>
+      <c r="D12" s="170"/>
+      <c r="E12" s="170"/>
+      <c r="F12" s="170"/>
+      <c r="G12" s="170"/>
+      <c r="H12" s="170"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="170"/>
+      <c r="K12" s="170"/>
+      <c r="L12" s="170"/>
+      <c r="M12" s="170"/>
+      <c r="N12" s="170"/>
+      <c r="O12" s="170"/>
+      <c r="P12" s="170"/>
+      <c r="Q12" s="170"/>
+      <c r="R12" s="170"/>
+      <c r="S12" s="170"/>
+      <c r="T12" s="170"/>
+      <c r="U12" s="170"/>
+      <c r="V12" s="170"/>
+      <c r="W12" s="170"/>
+      <c r="X12" s="170"/>
+      <c r="Y12" s="170"/>
+      <c r="Z12" s="170"/>
+      <c r="AA12" s="170"/>
+      <c r="AB12" s="170"/>
+      <c r="AC12" s="170"/>
+      <c r="AD12" s="170"/>
+      <c r="AE12" s="170"/>
+      <c r="AF12" s="170"/>
+      <c r="AG12" s="170"/>
+      <c r="AH12" s="170"/>
+      <c r="AI12" s="171"/>
       <c r="AM12" s="4"/>
-      <c r="AN12" s="165"/>
-      <c r="AO12" s="165"/>
-      <c r="AP12" s="165"/>
-      <c r="AQ12" s="165"/>
-      <c r="AR12" s="165"/>
-      <c r="AS12" s="165"/>
-      <c r="AT12" s="165"/>
-      <c r="AU12" s="165"/>
-      <c r="AV12" s="165"/>
-      <c r="AW12" s="165"/>
-      <c r="AX12" s="165"/>
-      <c r="AY12" s="165"/>
-      <c r="AZ12" s="165"/>
-      <c r="BA12" s="165"/>
-      <c r="BB12" s="165"/>
-      <c r="BC12" s="165"/>
-      <c r="BD12" s="165"/>
-      <c r="BE12" s="165"/>
-      <c r="BF12" s="165"/>
-      <c r="BG12" s="165"/>
-      <c r="BH12" s="165"/>
-      <c r="BI12" s="165"/>
-      <c r="BJ12" s="165"/>
-      <c r="BK12" s="165"/>
-      <c r="BL12" s="165"/>
-      <c r="BM12" s="165"/>
-      <c r="BN12" s="165"/>
-      <c r="BO12" s="165"/>
-      <c r="BP12" s="165"/>
-      <c r="BQ12" s="165"/>
-      <c r="BR12" s="165"/>
-      <c r="BS12" s="165"/>
-      <c r="BT12" s="165"/>
-      <c r="BU12" s="165"/>
+      <c r="AN12" s="172"/>
+      <c r="AO12" s="172"/>
+      <c r="AP12" s="172"/>
+      <c r="AQ12" s="172"/>
+      <c r="AR12" s="172"/>
+      <c r="AS12" s="172"/>
+      <c r="AT12" s="172"/>
+      <c r="AU12" s="172"/>
+      <c r="AV12" s="172"/>
+      <c r="AW12" s="172"/>
+      <c r="AX12" s="172"/>
+      <c r="AY12" s="172"/>
+      <c r="AZ12" s="172"/>
+      <c r="BA12" s="172"/>
+      <c r="BB12" s="172"/>
+      <c r="BC12" s="172"/>
+      <c r="BD12" s="172"/>
+      <c r="BE12" s="172"/>
+      <c r="BF12" s="172"/>
+      <c r="BG12" s="172"/>
+      <c r="BH12" s="172"/>
+      <c r="BI12" s="172"/>
+      <c r="BJ12" s="172"/>
+      <c r="BK12" s="172"/>
+      <c r="BL12" s="172"/>
+      <c r="BM12" s="172"/>
+      <c r="BN12" s="172"/>
+      <c r="BO12" s="172"/>
+      <c r="BP12" s="172"/>
+      <c r="BQ12" s="172"/>
+      <c r="BR12" s="172"/>
+      <c r="BS12" s="172"/>
+      <c r="BT12" s="172"/>
+      <c r="BU12" s="172"/>
       <c r="BV12" s="14"/>
       <c r="BW12" s="14"/>
       <c r="BX12" s="14"/>
@@ -5630,83 +5690,83 @@
       <c r="DG12" s="14"/>
     </row>
     <row r="13" spans="2:111" ht="30" customHeight="1">
-      <c r="B13" s="157" t="s">
+      <c r="B13" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="158"/>
-      <c r="D13" s="158"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="158"/>
-      <c r="G13" s="158"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="159"/>
-      <c r="J13" s="160" t="s">
+      <c r="C13" s="187"/>
+      <c r="D13" s="187"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="187"/>
+      <c r="G13" s="187"/>
+      <c r="H13" s="187"/>
+      <c r="I13" s="188"/>
+      <c r="J13" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="158"/>
-      <c r="L13" s="158"/>
-      <c r="M13" s="158"/>
-      <c r="N13" s="158"/>
-      <c r="O13" s="158"/>
-      <c r="P13" s="158"/>
-      <c r="Q13" s="158"/>
-      <c r="R13" s="159"/>
-      <c r="S13" s="160" t="s">
+      <c r="K13" s="187"/>
+      <c r="L13" s="187"/>
+      <c r="M13" s="187"/>
+      <c r="N13" s="187"/>
+      <c r="O13" s="187"/>
+      <c r="P13" s="187"/>
+      <c r="Q13" s="187"/>
+      <c r="R13" s="188"/>
+      <c r="S13" s="189" t="s">
         <v>35</v>
       </c>
-      <c r="T13" s="158"/>
-      <c r="U13" s="158"/>
-      <c r="V13" s="158"/>
-      <c r="W13" s="158"/>
-      <c r="X13" s="158"/>
-      <c r="Y13" s="158"/>
-      <c r="Z13" s="158"/>
-      <c r="AA13" s="159"/>
-      <c r="AB13" s="160" t="s">
+      <c r="T13" s="187"/>
+      <c r="U13" s="187"/>
+      <c r="V13" s="187"/>
+      <c r="W13" s="187"/>
+      <c r="X13" s="187"/>
+      <c r="Y13" s="187"/>
+      <c r="Z13" s="187"/>
+      <c r="AA13" s="188"/>
+      <c r="AB13" s="189" t="s">
         <v>36</v>
       </c>
-      <c r="AC13" s="158"/>
-      <c r="AD13" s="158"/>
-      <c r="AE13" s="158"/>
-      <c r="AF13" s="158"/>
-      <c r="AG13" s="158"/>
-      <c r="AH13" s="158"/>
-      <c r="AI13" s="161"/>
+      <c r="AC13" s="187"/>
+      <c r="AD13" s="187"/>
+      <c r="AE13" s="187"/>
+      <c r="AF13" s="187"/>
+      <c r="AG13" s="187"/>
+      <c r="AH13" s="187"/>
+      <c r="AI13" s="190"/>
       <c r="AM13" s="4"/>
-      <c r="AN13" s="156"/>
-      <c r="AO13" s="156"/>
-      <c r="AP13" s="156"/>
-      <c r="AQ13" s="156"/>
-      <c r="AR13" s="156"/>
-      <c r="AS13" s="156"/>
-      <c r="AT13" s="156"/>
-      <c r="AU13" s="156"/>
-      <c r="AV13" s="156"/>
-      <c r="AW13" s="156"/>
-      <c r="AX13" s="156"/>
-      <c r="AY13" s="156"/>
-      <c r="AZ13" s="156"/>
-      <c r="BA13" s="156"/>
-      <c r="BB13" s="156"/>
-      <c r="BC13" s="156"/>
-      <c r="BD13" s="156"/>
-      <c r="BE13" s="156"/>
-      <c r="BF13" s="156"/>
-      <c r="BG13" s="156"/>
-      <c r="BH13" s="156"/>
-      <c r="BI13" s="156"/>
-      <c r="BJ13" s="156"/>
-      <c r="BK13" s="156"/>
-      <c r="BL13" s="156"/>
-      <c r="BM13" s="156"/>
-      <c r="BN13" s="156"/>
-      <c r="BO13" s="156"/>
-      <c r="BP13" s="156"/>
-      <c r="BQ13" s="156"/>
-      <c r="BR13" s="156"/>
-      <c r="BS13" s="156"/>
-      <c r="BT13" s="156"/>
-      <c r="BU13" s="156"/>
+      <c r="AN13" s="173"/>
+      <c r="AO13" s="173"/>
+      <c r="AP13" s="173"/>
+      <c r="AQ13" s="173"/>
+      <c r="AR13" s="173"/>
+      <c r="AS13" s="173"/>
+      <c r="AT13" s="173"/>
+      <c r="AU13" s="173"/>
+      <c r="AV13" s="173"/>
+      <c r="AW13" s="173"/>
+      <c r="AX13" s="173"/>
+      <c r="AY13" s="173"/>
+      <c r="AZ13" s="173"/>
+      <c r="BA13" s="173"/>
+      <c r="BB13" s="173"/>
+      <c r="BC13" s="173"/>
+      <c r="BD13" s="173"/>
+      <c r="BE13" s="173"/>
+      <c r="BF13" s="173"/>
+      <c r="BG13" s="173"/>
+      <c r="BH13" s="173"/>
+      <c r="BI13" s="173"/>
+      <c r="BJ13" s="173"/>
+      <c r="BK13" s="173"/>
+      <c r="BL13" s="173"/>
+      <c r="BM13" s="173"/>
+      <c r="BN13" s="173"/>
+      <c r="BO13" s="173"/>
+      <c r="BP13" s="173"/>
+      <c r="BQ13" s="173"/>
+      <c r="BR13" s="173"/>
+      <c r="BS13" s="173"/>
+      <c r="BT13" s="173"/>
+      <c r="BU13" s="173"/>
       <c r="BV13" s="14"/>
       <c r="BW13" s="14"/>
       <c r="BX13" s="14"/>
@@ -5747,75 +5807,75 @@
       <c r="DG13" s="14"/>
     </row>
     <row r="14" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B14" s="144"/>
-      <c r="C14" s="145"/>
-      <c r="D14" s="145"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="147"/>
-      <c r="K14" s="145"/>
-      <c r="L14" s="145"/>
-      <c r="M14" s="145"/>
-      <c r="N14" s="145"/>
-      <c r="O14" s="145"/>
-      <c r="P14" s="145"/>
-      <c r="Q14" s="145"/>
-      <c r="R14" s="146"/>
-      <c r="S14" s="148"/>
-      <c r="T14" s="149"/>
-      <c r="U14" s="149"/>
-      <c r="V14" s="149"/>
-      <c r="W14" s="149"/>
-      <c r="X14" s="149"/>
-      <c r="Y14" s="149"/>
-      <c r="Z14" s="149"/>
-      <c r="AA14" s="150"/>
-      <c r="AB14" s="153"/>
-      <c r="AC14" s="145"/>
-      <c r="AD14" s="145"/>
-      <c r="AE14" s="145"/>
-      <c r="AF14" s="145"/>
-      <c r="AG14" s="145"/>
-      <c r="AH14" s="145"/>
-      <c r="AI14" s="151"/>
+      <c r="B14" s="174"/>
+      <c r="C14" s="175"/>
+      <c r="D14" s="175"/>
+      <c r="E14" s="175"/>
+      <c r="F14" s="175"/>
+      <c r="G14" s="175"/>
+      <c r="H14" s="175"/>
+      <c r="I14" s="176"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="175"/>
+      <c r="L14" s="175"/>
+      <c r="M14" s="175"/>
+      <c r="N14" s="175"/>
+      <c r="O14" s="175"/>
+      <c r="P14" s="175"/>
+      <c r="Q14" s="175"/>
+      <c r="R14" s="176"/>
+      <c r="S14" s="178"/>
+      <c r="T14" s="179"/>
+      <c r="U14" s="179"/>
+      <c r="V14" s="179"/>
+      <c r="W14" s="179"/>
+      <c r="X14" s="179"/>
+      <c r="Y14" s="179"/>
+      <c r="Z14" s="179"/>
+      <c r="AA14" s="180"/>
+      <c r="AB14" s="181"/>
+      <c r="AC14" s="175"/>
+      <c r="AD14" s="175"/>
+      <c r="AE14" s="175"/>
+      <c r="AF14" s="175"/>
+      <c r="AG14" s="175"/>
+      <c r="AH14" s="175"/>
+      <c r="AI14" s="182"/>
       <c r="AM14" s="4"/>
-      <c r="AN14" s="140"/>
-      <c r="AO14" s="140"/>
-      <c r="AP14" s="140"/>
-      <c r="AQ14" s="140"/>
-      <c r="AR14" s="140"/>
-      <c r="AS14" s="140"/>
-      <c r="AT14" s="140"/>
-      <c r="AU14" s="140"/>
-      <c r="AV14" s="140"/>
-      <c r="AW14" s="140"/>
-      <c r="AX14" s="140"/>
-      <c r="AY14" s="140"/>
-      <c r="AZ14" s="140"/>
-      <c r="BA14" s="140"/>
-      <c r="BB14" s="140"/>
-      <c r="BC14" s="140"/>
-      <c r="BD14" s="140"/>
-      <c r="BE14" s="139"/>
-      <c r="BF14" s="139"/>
-      <c r="BG14" s="139"/>
-      <c r="BH14" s="139"/>
-      <c r="BI14" s="139"/>
-      <c r="BJ14" s="139"/>
-      <c r="BK14" s="139"/>
-      <c r="BL14" s="139"/>
-      <c r="BM14" s="139"/>
-      <c r="BN14" s="152"/>
-      <c r="BO14" s="140"/>
-      <c r="BP14" s="140"/>
-      <c r="BQ14" s="140"/>
-      <c r="BR14" s="140"/>
-      <c r="BS14" s="140"/>
-      <c r="BT14" s="140"/>
-      <c r="BU14" s="140"/>
+      <c r="AN14" s="183"/>
+      <c r="AO14" s="183"/>
+      <c r="AP14" s="183"/>
+      <c r="AQ14" s="183"/>
+      <c r="AR14" s="183"/>
+      <c r="AS14" s="183"/>
+      <c r="AT14" s="183"/>
+      <c r="AU14" s="183"/>
+      <c r="AV14" s="183"/>
+      <c r="AW14" s="183"/>
+      <c r="AX14" s="183"/>
+      <c r="AY14" s="183"/>
+      <c r="AZ14" s="183"/>
+      <c r="BA14" s="183"/>
+      <c r="BB14" s="183"/>
+      <c r="BC14" s="183"/>
+      <c r="BD14" s="183"/>
+      <c r="BE14" s="184"/>
+      <c r="BF14" s="184"/>
+      <c r="BG14" s="184"/>
+      <c r="BH14" s="184"/>
+      <c r="BI14" s="184"/>
+      <c r="BJ14" s="184"/>
+      <c r="BK14" s="184"/>
+      <c r="BL14" s="184"/>
+      <c r="BM14" s="184"/>
+      <c r="BN14" s="185"/>
+      <c r="BO14" s="183"/>
+      <c r="BP14" s="183"/>
+      <c r="BQ14" s="183"/>
+      <c r="BR14" s="183"/>
+      <c r="BS14" s="183"/>
+      <c r="BT14" s="183"/>
+      <c r="BU14" s="183"/>
       <c r="BV14" s="26"/>
       <c r="BW14" s="26"/>
       <c r="BX14" s="26"/>
@@ -5856,75 +5916,75 @@
       <c r="DG14" s="5"/>
     </row>
     <row r="15" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B15" s="144"/>
-      <c r="C15" s="145"/>
-      <c r="D15" s="145"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="146"/>
-      <c r="J15" s="147"/>
-      <c r="K15" s="145"/>
-      <c r="L15" s="145"/>
-      <c r="M15" s="145"/>
-      <c r="N15" s="145"/>
-      <c r="O15" s="145"/>
-      <c r="P15" s="145"/>
-      <c r="Q15" s="145"/>
-      <c r="R15" s="146"/>
-      <c r="S15" s="148"/>
-      <c r="T15" s="149"/>
-      <c r="U15" s="149"/>
-      <c r="V15" s="149"/>
-      <c r="W15" s="149"/>
-      <c r="X15" s="149"/>
-      <c r="Y15" s="149"/>
-      <c r="Z15" s="149"/>
-      <c r="AA15" s="150"/>
-      <c r="AB15" s="153"/>
-      <c r="AC15" s="145"/>
-      <c r="AD15" s="145"/>
-      <c r="AE15" s="145"/>
-      <c r="AF15" s="145"/>
-      <c r="AG15" s="145"/>
-      <c r="AH15" s="145"/>
-      <c r="AI15" s="151"/>
+      <c r="B15" s="174"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="175"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="177"/>
+      <c r="K15" s="175"/>
+      <c r="L15" s="175"/>
+      <c r="M15" s="175"/>
+      <c r="N15" s="175"/>
+      <c r="O15" s="175"/>
+      <c r="P15" s="175"/>
+      <c r="Q15" s="175"/>
+      <c r="R15" s="176"/>
+      <c r="S15" s="178"/>
+      <c r="T15" s="179"/>
+      <c r="U15" s="179"/>
+      <c r="V15" s="179"/>
+      <c r="W15" s="179"/>
+      <c r="X15" s="179"/>
+      <c r="Y15" s="179"/>
+      <c r="Z15" s="179"/>
+      <c r="AA15" s="180"/>
+      <c r="AB15" s="181"/>
+      <c r="AC15" s="175"/>
+      <c r="AD15" s="175"/>
+      <c r="AE15" s="175"/>
+      <c r="AF15" s="175"/>
+      <c r="AG15" s="175"/>
+      <c r="AH15" s="175"/>
+      <c r="AI15" s="182"/>
       <c r="AM15" s="4"/>
-      <c r="AN15" s="140"/>
-      <c r="AO15" s="140"/>
-      <c r="AP15" s="140"/>
-      <c r="AQ15" s="140"/>
-      <c r="AR15" s="140"/>
-      <c r="AS15" s="140"/>
-      <c r="AT15" s="140"/>
-      <c r="AU15" s="140"/>
-      <c r="AV15" s="140"/>
-      <c r="AW15" s="140"/>
-      <c r="AX15" s="140"/>
-      <c r="AY15" s="140"/>
-      <c r="AZ15" s="140"/>
-      <c r="BA15" s="140"/>
-      <c r="BB15" s="140"/>
-      <c r="BC15" s="140"/>
-      <c r="BD15" s="140"/>
-      <c r="BE15" s="139"/>
-      <c r="BF15" s="139"/>
-      <c r="BG15" s="139"/>
-      <c r="BH15" s="139"/>
-      <c r="BI15" s="139"/>
-      <c r="BJ15" s="139"/>
-      <c r="BK15" s="139"/>
-      <c r="BL15" s="139"/>
-      <c r="BM15" s="139"/>
-      <c r="BN15" s="152"/>
-      <c r="BO15" s="140"/>
-      <c r="BP15" s="140"/>
-      <c r="BQ15" s="140"/>
-      <c r="BR15" s="140"/>
-      <c r="BS15" s="140"/>
-      <c r="BT15" s="140"/>
-      <c r="BU15" s="140"/>
+      <c r="AN15" s="183"/>
+      <c r="AO15" s="183"/>
+      <c r="AP15" s="183"/>
+      <c r="AQ15" s="183"/>
+      <c r="AR15" s="183"/>
+      <c r="AS15" s="183"/>
+      <c r="AT15" s="183"/>
+      <c r="AU15" s="183"/>
+      <c r="AV15" s="183"/>
+      <c r="AW15" s="183"/>
+      <c r="AX15" s="183"/>
+      <c r="AY15" s="183"/>
+      <c r="AZ15" s="183"/>
+      <c r="BA15" s="183"/>
+      <c r="BB15" s="183"/>
+      <c r="BC15" s="183"/>
+      <c r="BD15" s="183"/>
+      <c r="BE15" s="184"/>
+      <c r="BF15" s="184"/>
+      <c r="BG15" s="184"/>
+      <c r="BH15" s="184"/>
+      <c r="BI15" s="184"/>
+      <c r="BJ15" s="184"/>
+      <c r="BK15" s="184"/>
+      <c r="BL15" s="184"/>
+      <c r="BM15" s="184"/>
+      <c r="BN15" s="185"/>
+      <c r="BO15" s="183"/>
+      <c r="BP15" s="183"/>
+      <c r="BQ15" s="183"/>
+      <c r="BR15" s="183"/>
+      <c r="BS15" s="183"/>
+      <c r="BT15" s="183"/>
+      <c r="BU15" s="183"/>
       <c r="BV15" s="26"/>
       <c r="BW15" s="26"/>
       <c r="BX15" s="26"/>
@@ -5965,75 +6025,75 @@
       <c r="DG15" s="5"/>
     </row>
     <row r="16" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B16" s="144"/>
-      <c r="C16" s="145"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="145"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="145"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="147"/>
-      <c r="K16" s="145"/>
-      <c r="L16" s="145"/>
-      <c r="M16" s="145"/>
-      <c r="N16" s="145"/>
-      <c r="O16" s="145"/>
-      <c r="P16" s="145"/>
-      <c r="Q16" s="145"/>
-      <c r="R16" s="146"/>
-      <c r="S16" s="148"/>
-      <c r="T16" s="149"/>
-      <c r="U16" s="149"/>
-      <c r="V16" s="149"/>
-      <c r="W16" s="149"/>
-      <c r="X16" s="149"/>
-      <c r="Y16" s="149"/>
-      <c r="Z16" s="149"/>
-      <c r="AA16" s="150"/>
-      <c r="AB16" s="153"/>
-      <c r="AC16" s="145"/>
-      <c r="AD16" s="145"/>
-      <c r="AE16" s="145"/>
-      <c r="AF16" s="145"/>
-      <c r="AG16" s="145"/>
-      <c r="AH16" s="145"/>
-      <c r="AI16" s="151"/>
+      <c r="B16" s="174"/>
+      <c r="C16" s="175"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="175"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="175"/>
+      <c r="I16" s="176"/>
+      <c r="J16" s="177"/>
+      <c r="K16" s="175"/>
+      <c r="L16" s="175"/>
+      <c r="M16" s="175"/>
+      <c r="N16" s="175"/>
+      <c r="O16" s="175"/>
+      <c r="P16" s="175"/>
+      <c r="Q16" s="175"/>
+      <c r="R16" s="176"/>
+      <c r="S16" s="178"/>
+      <c r="T16" s="179"/>
+      <c r="U16" s="179"/>
+      <c r="V16" s="179"/>
+      <c r="W16" s="179"/>
+      <c r="X16" s="179"/>
+      <c r="Y16" s="179"/>
+      <c r="Z16" s="179"/>
+      <c r="AA16" s="180"/>
+      <c r="AB16" s="181"/>
+      <c r="AC16" s="175"/>
+      <c r="AD16" s="175"/>
+      <c r="AE16" s="175"/>
+      <c r="AF16" s="175"/>
+      <c r="AG16" s="175"/>
+      <c r="AH16" s="175"/>
+      <c r="AI16" s="182"/>
       <c r="AM16" s="4"/>
-      <c r="AN16" s="140"/>
-      <c r="AO16" s="140"/>
-      <c r="AP16" s="140"/>
-      <c r="AQ16" s="140"/>
-      <c r="AR16" s="140"/>
-      <c r="AS16" s="140"/>
-      <c r="AT16" s="140"/>
-      <c r="AU16" s="140"/>
-      <c r="AV16" s="140"/>
-      <c r="AW16" s="140"/>
-      <c r="AX16" s="140"/>
-      <c r="AY16" s="140"/>
-      <c r="AZ16" s="140"/>
-      <c r="BA16" s="140"/>
-      <c r="BB16" s="140"/>
-      <c r="BC16" s="140"/>
-      <c r="BD16" s="140"/>
-      <c r="BE16" s="139"/>
-      <c r="BF16" s="139"/>
-      <c r="BG16" s="139"/>
-      <c r="BH16" s="139"/>
-      <c r="BI16" s="139"/>
-      <c r="BJ16" s="139"/>
-      <c r="BK16" s="139"/>
-      <c r="BL16" s="139"/>
-      <c r="BM16" s="139"/>
-      <c r="BN16" s="152"/>
-      <c r="BO16" s="140"/>
-      <c r="BP16" s="140"/>
-      <c r="BQ16" s="140"/>
-      <c r="BR16" s="140"/>
-      <c r="BS16" s="140"/>
-      <c r="BT16" s="140"/>
-      <c r="BU16" s="140"/>
+      <c r="AN16" s="183"/>
+      <c r="AO16" s="183"/>
+      <c r="AP16" s="183"/>
+      <c r="AQ16" s="183"/>
+      <c r="AR16" s="183"/>
+      <c r="AS16" s="183"/>
+      <c r="AT16" s="183"/>
+      <c r="AU16" s="183"/>
+      <c r="AV16" s="183"/>
+      <c r="AW16" s="183"/>
+      <c r="AX16" s="183"/>
+      <c r="AY16" s="183"/>
+      <c r="AZ16" s="183"/>
+      <c r="BA16" s="183"/>
+      <c r="BB16" s="183"/>
+      <c r="BC16" s="183"/>
+      <c r="BD16" s="183"/>
+      <c r="BE16" s="184"/>
+      <c r="BF16" s="184"/>
+      <c r="BG16" s="184"/>
+      <c r="BH16" s="184"/>
+      <c r="BI16" s="184"/>
+      <c r="BJ16" s="184"/>
+      <c r="BK16" s="184"/>
+      <c r="BL16" s="184"/>
+      <c r="BM16" s="184"/>
+      <c r="BN16" s="185"/>
+      <c r="BO16" s="183"/>
+      <c r="BP16" s="183"/>
+      <c r="BQ16" s="183"/>
+      <c r="BR16" s="183"/>
+      <c r="BS16" s="183"/>
+      <c r="BT16" s="183"/>
+      <c r="BU16" s="183"/>
       <c r="BV16" s="26"/>
       <c r="BW16" s="26"/>
       <c r="BX16" s="26"/>
@@ -6074,75 +6134,75 @@
       <c r="DG16" s="5"/>
     </row>
     <row r="17" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B17" s="144"/>
-      <c r="C17" s="145"/>
-      <c r="D17" s="145"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="145"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="147"/>
-      <c r="K17" s="145"/>
-      <c r="L17" s="145"/>
-      <c r="M17" s="145"/>
-      <c r="N17" s="145"/>
-      <c r="O17" s="145"/>
-      <c r="P17" s="145"/>
-      <c r="Q17" s="145"/>
-      <c r="R17" s="146"/>
-      <c r="S17" s="148"/>
-      <c r="T17" s="149"/>
-      <c r="U17" s="149"/>
-      <c r="V17" s="149"/>
-      <c r="W17" s="149"/>
-      <c r="X17" s="149"/>
-      <c r="Y17" s="149"/>
-      <c r="Z17" s="149"/>
-      <c r="AA17" s="150"/>
-      <c r="AB17" s="153"/>
-      <c r="AC17" s="154"/>
-      <c r="AD17" s="154"/>
-      <c r="AE17" s="154"/>
-      <c r="AF17" s="154"/>
-      <c r="AG17" s="154"/>
-      <c r="AH17" s="154"/>
-      <c r="AI17" s="155"/>
+      <c r="B17" s="174"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="175"/>
+      <c r="E17" s="175"/>
+      <c r="F17" s="175"/>
+      <c r="G17" s="175"/>
+      <c r="H17" s="175"/>
+      <c r="I17" s="176"/>
+      <c r="J17" s="177"/>
+      <c r="K17" s="175"/>
+      <c r="L17" s="175"/>
+      <c r="M17" s="175"/>
+      <c r="N17" s="175"/>
+      <c r="O17" s="175"/>
+      <c r="P17" s="175"/>
+      <c r="Q17" s="175"/>
+      <c r="R17" s="176"/>
+      <c r="S17" s="178"/>
+      <c r="T17" s="179"/>
+      <c r="U17" s="179"/>
+      <c r="V17" s="179"/>
+      <c r="W17" s="179"/>
+      <c r="X17" s="179"/>
+      <c r="Y17" s="179"/>
+      <c r="Z17" s="179"/>
+      <c r="AA17" s="180"/>
+      <c r="AB17" s="181"/>
+      <c r="AC17" s="191"/>
+      <c r="AD17" s="191"/>
+      <c r="AE17" s="191"/>
+      <c r="AF17" s="191"/>
+      <c r="AG17" s="191"/>
+      <c r="AH17" s="191"/>
+      <c r="AI17" s="192"/>
       <c r="AM17" s="4"/>
-      <c r="AN17" s="140"/>
-      <c r="AO17" s="140"/>
-      <c r="AP17" s="140"/>
-      <c r="AQ17" s="140"/>
-      <c r="AR17" s="140"/>
-      <c r="AS17" s="140"/>
-      <c r="AT17" s="140"/>
-      <c r="AU17" s="140"/>
-      <c r="AV17" s="140"/>
-      <c r="AW17" s="140"/>
-      <c r="AX17" s="140"/>
-      <c r="AY17" s="140"/>
-      <c r="AZ17" s="140"/>
-      <c r="BA17" s="140"/>
-      <c r="BB17" s="140"/>
-      <c r="BC17" s="140"/>
-      <c r="BD17" s="140"/>
-      <c r="BE17" s="139"/>
-      <c r="BF17" s="139"/>
-      <c r="BG17" s="139"/>
-      <c r="BH17" s="139"/>
-      <c r="BI17" s="139"/>
-      <c r="BJ17" s="139"/>
-      <c r="BK17" s="139"/>
-      <c r="BL17" s="139"/>
-      <c r="BM17" s="139"/>
-      <c r="BN17" s="152"/>
-      <c r="BO17" s="140"/>
-      <c r="BP17" s="140"/>
-      <c r="BQ17" s="140"/>
-      <c r="BR17" s="140"/>
-      <c r="BS17" s="140"/>
-      <c r="BT17" s="140"/>
-      <c r="BU17" s="140"/>
+      <c r="AN17" s="183"/>
+      <c r="AO17" s="183"/>
+      <c r="AP17" s="183"/>
+      <c r="AQ17" s="183"/>
+      <c r="AR17" s="183"/>
+      <c r="AS17" s="183"/>
+      <c r="AT17" s="183"/>
+      <c r="AU17" s="183"/>
+      <c r="AV17" s="183"/>
+      <c r="AW17" s="183"/>
+      <c r="AX17" s="183"/>
+      <c r="AY17" s="183"/>
+      <c r="AZ17" s="183"/>
+      <c r="BA17" s="183"/>
+      <c r="BB17" s="183"/>
+      <c r="BC17" s="183"/>
+      <c r="BD17" s="183"/>
+      <c r="BE17" s="184"/>
+      <c r="BF17" s="184"/>
+      <c r="BG17" s="184"/>
+      <c r="BH17" s="184"/>
+      <c r="BI17" s="184"/>
+      <c r="BJ17" s="184"/>
+      <c r="BK17" s="184"/>
+      <c r="BL17" s="184"/>
+      <c r="BM17" s="184"/>
+      <c r="BN17" s="185"/>
+      <c r="BO17" s="183"/>
+      <c r="BP17" s="183"/>
+      <c r="BQ17" s="183"/>
+      <c r="BR17" s="183"/>
+      <c r="BS17" s="183"/>
+      <c r="BT17" s="183"/>
+      <c r="BU17" s="183"/>
       <c r="BV17" s="26"/>
       <c r="BW17" s="26"/>
       <c r="BX17" s="26"/>
@@ -6183,75 +6243,75 @@
       <c r="DG17" s="5"/>
     </row>
     <row r="18" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B18" s="144"/>
-      <c r="C18" s="145"/>
-      <c r="D18" s="145"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="145"/>
-      <c r="H18" s="145"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="147"/>
-      <c r="K18" s="145"/>
-      <c r="L18" s="145"/>
-      <c r="M18" s="145"/>
-      <c r="N18" s="145"/>
-      <c r="O18" s="145"/>
-      <c r="P18" s="145"/>
-      <c r="Q18" s="145"/>
-      <c r="R18" s="146"/>
-      <c r="S18" s="148"/>
-      <c r="T18" s="149"/>
-      <c r="U18" s="149"/>
-      <c r="V18" s="149"/>
-      <c r="W18" s="149"/>
-      <c r="X18" s="149"/>
-      <c r="Y18" s="149"/>
-      <c r="Z18" s="149"/>
-      <c r="AA18" s="150"/>
-      <c r="AB18" s="153"/>
-      <c r="AC18" s="145"/>
-      <c r="AD18" s="145"/>
-      <c r="AE18" s="145"/>
-      <c r="AF18" s="145"/>
-      <c r="AG18" s="145"/>
-      <c r="AH18" s="145"/>
-      <c r="AI18" s="151"/>
+      <c r="B18" s="174"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="175"/>
+      <c r="E18" s="175"/>
+      <c r="F18" s="175"/>
+      <c r="G18" s="175"/>
+      <c r="H18" s="175"/>
+      <c r="I18" s="176"/>
+      <c r="J18" s="177"/>
+      <c r="K18" s="175"/>
+      <c r="L18" s="175"/>
+      <c r="M18" s="175"/>
+      <c r="N18" s="175"/>
+      <c r="O18" s="175"/>
+      <c r="P18" s="175"/>
+      <c r="Q18" s="175"/>
+      <c r="R18" s="176"/>
+      <c r="S18" s="178"/>
+      <c r="T18" s="179"/>
+      <c r="U18" s="179"/>
+      <c r="V18" s="179"/>
+      <c r="W18" s="179"/>
+      <c r="X18" s="179"/>
+      <c r="Y18" s="179"/>
+      <c r="Z18" s="179"/>
+      <c r="AA18" s="180"/>
+      <c r="AB18" s="181"/>
+      <c r="AC18" s="175"/>
+      <c r="AD18" s="175"/>
+      <c r="AE18" s="175"/>
+      <c r="AF18" s="175"/>
+      <c r="AG18" s="175"/>
+      <c r="AH18" s="175"/>
+      <c r="AI18" s="182"/>
       <c r="AM18" s="4"/>
-      <c r="AN18" s="140"/>
-      <c r="AO18" s="140"/>
-      <c r="AP18" s="140"/>
-      <c r="AQ18" s="140"/>
-      <c r="AR18" s="140"/>
-      <c r="AS18" s="140"/>
-      <c r="AT18" s="140"/>
-      <c r="AU18" s="140"/>
-      <c r="AV18" s="140"/>
-      <c r="AW18" s="140"/>
-      <c r="AX18" s="140"/>
-      <c r="AY18" s="140"/>
-      <c r="AZ18" s="140"/>
-      <c r="BA18" s="140"/>
-      <c r="BB18" s="140"/>
-      <c r="BC18" s="140"/>
-      <c r="BD18" s="140"/>
-      <c r="BE18" s="139"/>
-      <c r="BF18" s="139"/>
-      <c r="BG18" s="139"/>
-      <c r="BH18" s="139"/>
-      <c r="BI18" s="139"/>
-      <c r="BJ18" s="139"/>
-      <c r="BK18" s="139"/>
-      <c r="BL18" s="139"/>
-      <c r="BM18" s="139"/>
-      <c r="BN18" s="152"/>
-      <c r="BO18" s="140"/>
-      <c r="BP18" s="140"/>
-      <c r="BQ18" s="140"/>
-      <c r="BR18" s="140"/>
-      <c r="BS18" s="140"/>
-      <c r="BT18" s="140"/>
-      <c r="BU18" s="140"/>
+      <c r="AN18" s="183"/>
+      <c r="AO18" s="183"/>
+      <c r="AP18" s="183"/>
+      <c r="AQ18" s="183"/>
+      <c r="AR18" s="183"/>
+      <c r="AS18" s="183"/>
+      <c r="AT18" s="183"/>
+      <c r="AU18" s="183"/>
+      <c r="AV18" s="183"/>
+      <c r="AW18" s="183"/>
+      <c r="AX18" s="183"/>
+      <c r="AY18" s="183"/>
+      <c r="AZ18" s="183"/>
+      <c r="BA18" s="183"/>
+      <c r="BB18" s="183"/>
+      <c r="BC18" s="183"/>
+      <c r="BD18" s="183"/>
+      <c r="BE18" s="184"/>
+      <c r="BF18" s="184"/>
+      <c r="BG18" s="184"/>
+      <c r="BH18" s="184"/>
+      <c r="BI18" s="184"/>
+      <c r="BJ18" s="184"/>
+      <c r="BK18" s="184"/>
+      <c r="BL18" s="184"/>
+      <c r="BM18" s="184"/>
+      <c r="BN18" s="185"/>
+      <c r="BO18" s="183"/>
+      <c r="BP18" s="183"/>
+      <c r="BQ18" s="183"/>
+      <c r="BR18" s="183"/>
+      <c r="BS18" s="183"/>
+      <c r="BT18" s="183"/>
+      <c r="BU18" s="183"/>
       <c r="BV18" s="26"/>
       <c r="BW18" s="26"/>
       <c r="BX18" s="26"/>
@@ -6292,75 +6352,75 @@
       <c r="DG18" s="5"/>
     </row>
     <row r="19" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B19" s="144"/>
-      <c r="C19" s="145"/>
-      <c r="D19" s="145"/>
-      <c r="E19" s="145"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
-      <c r="K19" s="145"/>
-      <c r="L19" s="145"/>
-      <c r="M19" s="145"/>
-      <c r="N19" s="145"/>
-      <c r="O19" s="145"/>
-      <c r="P19" s="145"/>
-      <c r="Q19" s="145"/>
-      <c r="R19" s="146"/>
-      <c r="S19" s="148"/>
-      <c r="T19" s="149"/>
-      <c r="U19" s="149"/>
-      <c r="V19" s="149"/>
-      <c r="W19" s="149"/>
-      <c r="X19" s="149"/>
-      <c r="Y19" s="149"/>
-      <c r="Z19" s="149"/>
-      <c r="AA19" s="150"/>
-      <c r="AB19" s="153"/>
-      <c r="AC19" s="145"/>
-      <c r="AD19" s="145"/>
-      <c r="AE19" s="145"/>
-      <c r="AF19" s="145"/>
-      <c r="AG19" s="145"/>
-      <c r="AH19" s="145"/>
-      <c r="AI19" s="151"/>
+      <c r="B19" s="174"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="175"/>
+      <c r="E19" s="175"/>
+      <c r="F19" s="175"/>
+      <c r="G19" s="175"/>
+      <c r="H19" s="175"/>
+      <c r="I19" s="176"/>
+      <c r="J19" s="177"/>
+      <c r="K19" s="175"/>
+      <c r="L19" s="175"/>
+      <c r="M19" s="175"/>
+      <c r="N19" s="175"/>
+      <c r="O19" s="175"/>
+      <c r="P19" s="175"/>
+      <c r="Q19" s="175"/>
+      <c r="R19" s="176"/>
+      <c r="S19" s="178"/>
+      <c r="T19" s="179"/>
+      <c r="U19" s="179"/>
+      <c r="V19" s="179"/>
+      <c r="W19" s="179"/>
+      <c r="X19" s="179"/>
+      <c r="Y19" s="179"/>
+      <c r="Z19" s="179"/>
+      <c r="AA19" s="180"/>
+      <c r="AB19" s="181"/>
+      <c r="AC19" s="175"/>
+      <c r="AD19" s="175"/>
+      <c r="AE19" s="175"/>
+      <c r="AF19" s="175"/>
+      <c r="AG19" s="175"/>
+      <c r="AH19" s="175"/>
+      <c r="AI19" s="182"/>
       <c r="AM19" s="4"/>
-      <c r="AN19" s="140"/>
-      <c r="AO19" s="140"/>
-      <c r="AP19" s="140"/>
-      <c r="AQ19" s="140"/>
-      <c r="AR19" s="140"/>
-      <c r="AS19" s="140"/>
-      <c r="AT19" s="140"/>
-      <c r="AU19" s="140"/>
-      <c r="AV19" s="140"/>
-      <c r="AW19" s="140"/>
-      <c r="AX19" s="140"/>
-      <c r="AY19" s="140"/>
-      <c r="AZ19" s="140"/>
-      <c r="BA19" s="140"/>
-      <c r="BB19" s="140"/>
-      <c r="BC19" s="140"/>
-      <c r="BD19" s="140"/>
-      <c r="BE19" s="139"/>
-      <c r="BF19" s="139"/>
-      <c r="BG19" s="139"/>
-      <c r="BH19" s="139"/>
-      <c r="BI19" s="139"/>
-      <c r="BJ19" s="139"/>
-      <c r="BK19" s="139"/>
-      <c r="BL19" s="139"/>
-      <c r="BM19" s="139"/>
-      <c r="BN19" s="152"/>
-      <c r="BO19" s="140"/>
-      <c r="BP19" s="140"/>
-      <c r="BQ19" s="140"/>
-      <c r="BR19" s="140"/>
-      <c r="BS19" s="140"/>
-      <c r="BT19" s="140"/>
-      <c r="BU19" s="140"/>
+      <c r="AN19" s="183"/>
+      <c r="AO19" s="183"/>
+      <c r="AP19" s="183"/>
+      <c r="AQ19" s="183"/>
+      <c r="AR19" s="183"/>
+      <c r="AS19" s="183"/>
+      <c r="AT19" s="183"/>
+      <c r="AU19" s="183"/>
+      <c r="AV19" s="183"/>
+      <c r="AW19" s="183"/>
+      <c r="AX19" s="183"/>
+      <c r="AY19" s="183"/>
+      <c r="AZ19" s="183"/>
+      <c r="BA19" s="183"/>
+      <c r="BB19" s="183"/>
+      <c r="BC19" s="183"/>
+      <c r="BD19" s="183"/>
+      <c r="BE19" s="184"/>
+      <c r="BF19" s="184"/>
+      <c r="BG19" s="184"/>
+      <c r="BH19" s="184"/>
+      <c r="BI19" s="184"/>
+      <c r="BJ19" s="184"/>
+      <c r="BK19" s="184"/>
+      <c r="BL19" s="184"/>
+      <c r="BM19" s="184"/>
+      <c r="BN19" s="185"/>
+      <c r="BO19" s="183"/>
+      <c r="BP19" s="183"/>
+      <c r="BQ19" s="183"/>
+      <c r="BR19" s="183"/>
+      <c r="BS19" s="183"/>
+      <c r="BT19" s="183"/>
+      <c r="BU19" s="183"/>
       <c r="BV19" s="26"/>
       <c r="BW19" s="26"/>
       <c r="BX19" s="26"/>
@@ -6401,75 +6461,75 @@
       <c r="DG19" s="5"/>
     </row>
     <row r="20" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B20" s="144"/>
-      <c r="C20" s="145"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="147"/>
-      <c r="K20" s="145"/>
-      <c r="L20" s="145"/>
-      <c r="M20" s="145"/>
-      <c r="N20" s="145"/>
-      <c r="O20" s="145"/>
-      <c r="P20" s="145"/>
-      <c r="Q20" s="145"/>
-      <c r="R20" s="146"/>
-      <c r="S20" s="148"/>
-      <c r="T20" s="149"/>
-      <c r="U20" s="149"/>
-      <c r="V20" s="149"/>
-      <c r="W20" s="149"/>
-      <c r="X20" s="149"/>
-      <c r="Y20" s="149"/>
-      <c r="Z20" s="149"/>
-      <c r="AA20" s="150"/>
-      <c r="AB20" s="153"/>
-      <c r="AC20" s="145"/>
-      <c r="AD20" s="145"/>
-      <c r="AE20" s="145"/>
-      <c r="AF20" s="145"/>
-      <c r="AG20" s="145"/>
-      <c r="AH20" s="145"/>
-      <c r="AI20" s="151"/>
+      <c r="B20" s="174"/>
+      <c r="C20" s="175"/>
+      <c r="D20" s="175"/>
+      <c r="E20" s="175"/>
+      <c r="F20" s="175"/>
+      <c r="G20" s="175"/>
+      <c r="H20" s="175"/>
+      <c r="I20" s="176"/>
+      <c r="J20" s="177"/>
+      <c r="K20" s="175"/>
+      <c r="L20" s="175"/>
+      <c r="M20" s="175"/>
+      <c r="N20" s="175"/>
+      <c r="O20" s="175"/>
+      <c r="P20" s="175"/>
+      <c r="Q20" s="175"/>
+      <c r="R20" s="176"/>
+      <c r="S20" s="178"/>
+      <c r="T20" s="179"/>
+      <c r="U20" s="179"/>
+      <c r="V20" s="179"/>
+      <c r="W20" s="179"/>
+      <c r="X20" s="179"/>
+      <c r="Y20" s="179"/>
+      <c r="Z20" s="179"/>
+      <c r="AA20" s="180"/>
+      <c r="AB20" s="181"/>
+      <c r="AC20" s="175"/>
+      <c r="AD20" s="175"/>
+      <c r="AE20" s="175"/>
+      <c r="AF20" s="175"/>
+      <c r="AG20" s="175"/>
+      <c r="AH20" s="175"/>
+      <c r="AI20" s="182"/>
       <c r="AM20" s="4"/>
-      <c r="AN20" s="140"/>
-      <c r="AO20" s="140"/>
-      <c r="AP20" s="140"/>
-      <c r="AQ20" s="140"/>
-      <c r="AR20" s="140"/>
-      <c r="AS20" s="140"/>
-      <c r="AT20" s="140"/>
-      <c r="AU20" s="140"/>
-      <c r="AV20" s="140"/>
-      <c r="AW20" s="140"/>
-      <c r="AX20" s="140"/>
-      <c r="AY20" s="140"/>
-      <c r="AZ20" s="140"/>
-      <c r="BA20" s="140"/>
-      <c r="BB20" s="140"/>
-      <c r="BC20" s="140"/>
-      <c r="BD20" s="140"/>
-      <c r="BE20" s="139"/>
-      <c r="BF20" s="139"/>
-      <c r="BG20" s="139"/>
-      <c r="BH20" s="139"/>
-      <c r="BI20" s="139"/>
-      <c r="BJ20" s="139"/>
-      <c r="BK20" s="139"/>
-      <c r="BL20" s="139"/>
-      <c r="BM20" s="139"/>
-      <c r="BN20" s="152"/>
-      <c r="BO20" s="140"/>
-      <c r="BP20" s="140"/>
-      <c r="BQ20" s="140"/>
-      <c r="BR20" s="140"/>
-      <c r="BS20" s="140"/>
-      <c r="BT20" s="140"/>
-      <c r="BU20" s="140"/>
+      <c r="AN20" s="183"/>
+      <c r="AO20" s="183"/>
+      <c r="AP20" s="183"/>
+      <c r="AQ20" s="183"/>
+      <c r="AR20" s="183"/>
+      <c r="AS20" s="183"/>
+      <c r="AT20" s="183"/>
+      <c r="AU20" s="183"/>
+      <c r="AV20" s="183"/>
+      <c r="AW20" s="183"/>
+      <c r="AX20" s="183"/>
+      <c r="AY20" s="183"/>
+      <c r="AZ20" s="183"/>
+      <c r="BA20" s="183"/>
+      <c r="BB20" s="183"/>
+      <c r="BC20" s="183"/>
+      <c r="BD20" s="183"/>
+      <c r="BE20" s="184"/>
+      <c r="BF20" s="184"/>
+      <c r="BG20" s="184"/>
+      <c r="BH20" s="184"/>
+      <c r="BI20" s="184"/>
+      <c r="BJ20" s="184"/>
+      <c r="BK20" s="184"/>
+      <c r="BL20" s="184"/>
+      <c r="BM20" s="184"/>
+      <c r="BN20" s="185"/>
+      <c r="BO20" s="183"/>
+      <c r="BP20" s="183"/>
+      <c r="BQ20" s="183"/>
+      <c r="BR20" s="183"/>
+      <c r="BS20" s="183"/>
+      <c r="BT20" s="183"/>
+      <c r="BU20" s="183"/>
       <c r="BV20" s="26"/>
       <c r="BW20" s="26"/>
       <c r="BX20" s="26"/>
@@ -6510,75 +6570,75 @@
       <c r="DG20" s="5"/>
     </row>
     <row r="21" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B21" s="144"/>
-      <c r="C21" s="145"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="147"/>
-      <c r="K21" s="145"/>
-      <c r="L21" s="145"/>
-      <c r="M21" s="145"/>
-      <c r="N21" s="145"/>
-      <c r="O21" s="145"/>
-      <c r="P21" s="145"/>
-      <c r="Q21" s="145"/>
-      <c r="R21" s="146"/>
-      <c r="S21" s="148"/>
-      <c r="T21" s="149"/>
-      <c r="U21" s="149"/>
-      <c r="V21" s="149"/>
-      <c r="W21" s="149"/>
-      <c r="X21" s="149"/>
-      <c r="Y21" s="149"/>
-      <c r="Z21" s="149"/>
-      <c r="AA21" s="150"/>
-      <c r="AB21" s="153"/>
-      <c r="AC21" s="145"/>
-      <c r="AD21" s="145"/>
-      <c r="AE21" s="145"/>
-      <c r="AF21" s="145"/>
-      <c r="AG21" s="145"/>
-      <c r="AH21" s="145"/>
-      <c r="AI21" s="151"/>
+      <c r="B21" s="174"/>
+      <c r="C21" s="175"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="175"/>
+      <c r="F21" s="175"/>
+      <c r="G21" s="175"/>
+      <c r="H21" s="175"/>
+      <c r="I21" s="176"/>
+      <c r="J21" s="177"/>
+      <c r="K21" s="175"/>
+      <c r="L21" s="175"/>
+      <c r="M21" s="175"/>
+      <c r="N21" s="175"/>
+      <c r="O21" s="175"/>
+      <c r="P21" s="175"/>
+      <c r="Q21" s="175"/>
+      <c r="R21" s="176"/>
+      <c r="S21" s="178"/>
+      <c r="T21" s="179"/>
+      <c r="U21" s="179"/>
+      <c r="V21" s="179"/>
+      <c r="W21" s="179"/>
+      <c r="X21" s="179"/>
+      <c r="Y21" s="179"/>
+      <c r="Z21" s="179"/>
+      <c r="AA21" s="180"/>
+      <c r="AB21" s="181"/>
+      <c r="AC21" s="175"/>
+      <c r="AD21" s="175"/>
+      <c r="AE21" s="175"/>
+      <c r="AF21" s="175"/>
+      <c r="AG21" s="175"/>
+      <c r="AH21" s="175"/>
+      <c r="AI21" s="182"/>
       <c r="AM21" s="4"/>
-      <c r="AN21" s="140"/>
-      <c r="AO21" s="140"/>
-      <c r="AP21" s="140"/>
-      <c r="AQ21" s="140"/>
-      <c r="AR21" s="140"/>
-      <c r="AS21" s="140"/>
-      <c r="AT21" s="140"/>
-      <c r="AU21" s="140"/>
-      <c r="AV21" s="140"/>
-      <c r="AW21" s="140"/>
-      <c r="AX21" s="140"/>
-      <c r="AY21" s="140"/>
-      <c r="AZ21" s="140"/>
-      <c r="BA21" s="140"/>
-      <c r="BB21" s="140"/>
-      <c r="BC21" s="140"/>
-      <c r="BD21" s="140"/>
-      <c r="BE21" s="139"/>
-      <c r="BF21" s="139"/>
-      <c r="BG21" s="139"/>
-      <c r="BH21" s="139"/>
-      <c r="BI21" s="139"/>
-      <c r="BJ21" s="139"/>
-      <c r="BK21" s="139"/>
-      <c r="BL21" s="139"/>
-      <c r="BM21" s="139"/>
-      <c r="BN21" s="152"/>
-      <c r="BO21" s="140"/>
-      <c r="BP21" s="140"/>
-      <c r="BQ21" s="140"/>
-      <c r="BR21" s="140"/>
-      <c r="BS21" s="140"/>
-      <c r="BT21" s="140"/>
-      <c r="BU21" s="140"/>
+      <c r="AN21" s="183"/>
+      <c r="AO21" s="183"/>
+      <c r="AP21" s="183"/>
+      <c r="AQ21" s="183"/>
+      <c r="AR21" s="183"/>
+      <c r="AS21" s="183"/>
+      <c r="AT21" s="183"/>
+      <c r="AU21" s="183"/>
+      <c r="AV21" s="183"/>
+      <c r="AW21" s="183"/>
+      <c r="AX21" s="183"/>
+      <c r="AY21" s="183"/>
+      <c r="AZ21" s="183"/>
+      <c r="BA21" s="183"/>
+      <c r="BB21" s="183"/>
+      <c r="BC21" s="183"/>
+      <c r="BD21" s="183"/>
+      <c r="BE21" s="184"/>
+      <c r="BF21" s="184"/>
+      <c r="BG21" s="184"/>
+      <c r="BH21" s="184"/>
+      <c r="BI21" s="184"/>
+      <c r="BJ21" s="184"/>
+      <c r="BK21" s="184"/>
+      <c r="BL21" s="184"/>
+      <c r="BM21" s="184"/>
+      <c r="BN21" s="185"/>
+      <c r="BO21" s="183"/>
+      <c r="BP21" s="183"/>
+      <c r="BQ21" s="183"/>
+      <c r="BR21" s="183"/>
+      <c r="BS21" s="183"/>
+      <c r="BT21" s="183"/>
+      <c r="BU21" s="183"/>
       <c r="BV21" s="26"/>
       <c r="BW21" s="26"/>
       <c r="BX21" s="26"/>
@@ -6619,75 +6679,75 @@
       <c r="DG21" s="5"/>
     </row>
     <row r="22" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B22" s="144"/>
-      <c r="C22" s="145"/>
-      <c r="D22" s="145"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="145"/>
-      <c r="I22" s="146"/>
-      <c r="J22" s="147"/>
-      <c r="K22" s="145"/>
-      <c r="L22" s="145"/>
-      <c r="M22" s="145"/>
-      <c r="N22" s="145"/>
-      <c r="O22" s="145"/>
-      <c r="P22" s="145"/>
-      <c r="Q22" s="145"/>
-      <c r="R22" s="146"/>
-      <c r="S22" s="148"/>
-      <c r="T22" s="149"/>
-      <c r="U22" s="149"/>
-      <c r="V22" s="149"/>
-      <c r="W22" s="149"/>
-      <c r="X22" s="149"/>
-      <c r="Y22" s="149"/>
-      <c r="Z22" s="149"/>
-      <c r="AA22" s="150"/>
-      <c r="AB22" s="153"/>
-      <c r="AC22" s="145"/>
-      <c r="AD22" s="145"/>
-      <c r="AE22" s="145"/>
-      <c r="AF22" s="145"/>
-      <c r="AG22" s="145"/>
-      <c r="AH22" s="145"/>
-      <c r="AI22" s="151"/>
+      <c r="B22" s="174"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="175"/>
+      <c r="E22" s="175"/>
+      <c r="F22" s="175"/>
+      <c r="G22" s="175"/>
+      <c r="H22" s="175"/>
+      <c r="I22" s="176"/>
+      <c r="J22" s="177"/>
+      <c r="K22" s="175"/>
+      <c r="L22" s="175"/>
+      <c r="M22" s="175"/>
+      <c r="N22" s="175"/>
+      <c r="O22" s="175"/>
+      <c r="P22" s="175"/>
+      <c r="Q22" s="175"/>
+      <c r="R22" s="176"/>
+      <c r="S22" s="178"/>
+      <c r="T22" s="179"/>
+      <c r="U22" s="179"/>
+      <c r="V22" s="179"/>
+      <c r="W22" s="179"/>
+      <c r="X22" s="179"/>
+      <c r="Y22" s="179"/>
+      <c r="Z22" s="179"/>
+      <c r="AA22" s="180"/>
+      <c r="AB22" s="181"/>
+      <c r="AC22" s="175"/>
+      <c r="AD22" s="175"/>
+      <c r="AE22" s="175"/>
+      <c r="AF22" s="175"/>
+      <c r="AG22" s="175"/>
+      <c r="AH22" s="175"/>
+      <c r="AI22" s="182"/>
       <c r="AM22" s="4"/>
-      <c r="AN22" s="140"/>
-      <c r="AO22" s="140"/>
-      <c r="AP22" s="140"/>
-      <c r="AQ22" s="140"/>
-      <c r="AR22" s="140"/>
-      <c r="AS22" s="140"/>
-      <c r="AT22" s="140"/>
-      <c r="AU22" s="140"/>
-      <c r="AV22" s="140"/>
-      <c r="AW22" s="140"/>
-      <c r="AX22" s="140"/>
-      <c r="AY22" s="140"/>
-      <c r="AZ22" s="140"/>
-      <c r="BA22" s="140"/>
-      <c r="BB22" s="140"/>
-      <c r="BC22" s="140"/>
-      <c r="BD22" s="140"/>
-      <c r="BE22" s="139"/>
-      <c r="BF22" s="139"/>
-      <c r="BG22" s="139"/>
-      <c r="BH22" s="139"/>
-      <c r="BI22" s="139"/>
-      <c r="BJ22" s="139"/>
-      <c r="BK22" s="139"/>
-      <c r="BL22" s="139"/>
-      <c r="BM22" s="139"/>
-      <c r="BN22" s="152"/>
-      <c r="BO22" s="140"/>
-      <c r="BP22" s="140"/>
-      <c r="BQ22" s="140"/>
-      <c r="BR22" s="140"/>
-      <c r="BS22" s="140"/>
-      <c r="BT22" s="140"/>
-      <c r="BU22" s="140"/>
+      <c r="AN22" s="183"/>
+      <c r="AO22" s="183"/>
+      <c r="AP22" s="183"/>
+      <c r="AQ22" s="183"/>
+      <c r="AR22" s="183"/>
+      <c r="AS22" s="183"/>
+      <c r="AT22" s="183"/>
+      <c r="AU22" s="183"/>
+      <c r="AV22" s="183"/>
+      <c r="AW22" s="183"/>
+      <c r="AX22" s="183"/>
+      <c r="AY22" s="183"/>
+      <c r="AZ22" s="183"/>
+      <c r="BA22" s="183"/>
+      <c r="BB22" s="183"/>
+      <c r="BC22" s="183"/>
+      <c r="BD22" s="183"/>
+      <c r="BE22" s="184"/>
+      <c r="BF22" s="184"/>
+      <c r="BG22" s="184"/>
+      <c r="BH22" s="184"/>
+      <c r="BI22" s="184"/>
+      <c r="BJ22" s="184"/>
+      <c r="BK22" s="184"/>
+      <c r="BL22" s="184"/>
+      <c r="BM22" s="184"/>
+      <c r="BN22" s="185"/>
+      <c r="BO22" s="183"/>
+      <c r="BP22" s="183"/>
+      <c r="BQ22" s="183"/>
+      <c r="BR22" s="183"/>
+      <c r="BS22" s="183"/>
+      <c r="BT22" s="183"/>
+      <c r="BU22" s="183"/>
       <c r="BV22" s="26"/>
       <c r="BW22" s="26"/>
       <c r="BX22" s="26"/>
@@ -6728,75 +6788,75 @@
       <c r="DG22" s="5"/>
     </row>
     <row r="23" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B23" s="144"/>
-      <c r="C23" s="145"/>
-      <c r="D23" s="145"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="146"/>
-      <c r="J23" s="147"/>
-      <c r="K23" s="145"/>
-      <c r="L23" s="145"/>
-      <c r="M23" s="145"/>
-      <c r="N23" s="145"/>
-      <c r="O23" s="145"/>
-      <c r="P23" s="145"/>
-      <c r="Q23" s="145"/>
-      <c r="R23" s="146"/>
-      <c r="S23" s="148"/>
-      <c r="T23" s="149"/>
-      <c r="U23" s="149"/>
-      <c r="V23" s="149"/>
-      <c r="W23" s="149"/>
-      <c r="X23" s="149"/>
-      <c r="Y23" s="149"/>
-      <c r="Z23" s="149"/>
-      <c r="AA23" s="150"/>
-      <c r="AB23" s="147"/>
-      <c r="AC23" s="145"/>
-      <c r="AD23" s="145"/>
-      <c r="AE23" s="145"/>
-      <c r="AF23" s="145"/>
-      <c r="AG23" s="145"/>
-      <c r="AH23" s="145"/>
-      <c r="AI23" s="151"/>
+      <c r="B23" s="174"/>
+      <c r="C23" s="175"/>
+      <c r="D23" s="175"/>
+      <c r="E23" s="175"/>
+      <c r="F23" s="175"/>
+      <c r="G23" s="175"/>
+      <c r="H23" s="175"/>
+      <c r="I23" s="176"/>
+      <c r="J23" s="177"/>
+      <c r="K23" s="175"/>
+      <c r="L23" s="175"/>
+      <c r="M23" s="175"/>
+      <c r="N23" s="175"/>
+      <c r="O23" s="175"/>
+      <c r="P23" s="175"/>
+      <c r="Q23" s="175"/>
+      <c r="R23" s="176"/>
+      <c r="S23" s="178"/>
+      <c r="T23" s="179"/>
+      <c r="U23" s="179"/>
+      <c r="V23" s="179"/>
+      <c r="W23" s="179"/>
+      <c r="X23" s="179"/>
+      <c r="Y23" s="179"/>
+      <c r="Z23" s="179"/>
+      <c r="AA23" s="180"/>
+      <c r="AB23" s="177"/>
+      <c r="AC23" s="175"/>
+      <c r="AD23" s="175"/>
+      <c r="AE23" s="175"/>
+      <c r="AF23" s="175"/>
+      <c r="AG23" s="175"/>
+      <c r="AH23" s="175"/>
+      <c r="AI23" s="182"/>
       <c r="AM23" s="4"/>
-      <c r="AN23" s="140"/>
-      <c r="AO23" s="140"/>
-      <c r="AP23" s="140"/>
-      <c r="AQ23" s="140"/>
-      <c r="AR23" s="140"/>
-      <c r="AS23" s="140"/>
-      <c r="AT23" s="140"/>
-      <c r="AU23" s="140"/>
-      <c r="AV23" s="140"/>
-      <c r="AW23" s="140"/>
-      <c r="AX23" s="140"/>
-      <c r="AY23" s="140"/>
-      <c r="AZ23" s="140"/>
-      <c r="BA23" s="140"/>
-      <c r="BB23" s="140"/>
-      <c r="BC23" s="140"/>
-      <c r="BD23" s="140"/>
-      <c r="BE23" s="139"/>
-      <c r="BF23" s="139"/>
-      <c r="BG23" s="139"/>
-      <c r="BH23" s="139"/>
-      <c r="BI23" s="139"/>
-      <c r="BJ23" s="139"/>
-      <c r="BK23" s="139"/>
-      <c r="BL23" s="139"/>
-      <c r="BM23" s="139"/>
-      <c r="BN23" s="140"/>
-      <c r="BO23" s="140"/>
-      <c r="BP23" s="140"/>
-      <c r="BQ23" s="140"/>
-      <c r="BR23" s="140"/>
-      <c r="BS23" s="140"/>
-      <c r="BT23" s="140"/>
-      <c r="BU23" s="140"/>
+      <c r="AN23" s="183"/>
+      <c r="AO23" s="183"/>
+      <c r="AP23" s="183"/>
+      <c r="AQ23" s="183"/>
+      <c r="AR23" s="183"/>
+      <c r="AS23" s="183"/>
+      <c r="AT23" s="183"/>
+      <c r="AU23" s="183"/>
+      <c r="AV23" s="183"/>
+      <c r="AW23" s="183"/>
+      <c r="AX23" s="183"/>
+      <c r="AY23" s="183"/>
+      <c r="AZ23" s="183"/>
+      <c r="BA23" s="183"/>
+      <c r="BB23" s="183"/>
+      <c r="BC23" s="183"/>
+      <c r="BD23" s="183"/>
+      <c r="BE23" s="184"/>
+      <c r="BF23" s="184"/>
+      <c r="BG23" s="184"/>
+      <c r="BH23" s="184"/>
+      <c r="BI23" s="184"/>
+      <c r="BJ23" s="184"/>
+      <c r="BK23" s="184"/>
+      <c r="BL23" s="184"/>
+      <c r="BM23" s="184"/>
+      <c r="BN23" s="183"/>
+      <c r="BO23" s="183"/>
+      <c r="BP23" s="183"/>
+      <c r="BQ23" s="183"/>
+      <c r="BR23" s="183"/>
+      <c r="BS23" s="183"/>
+      <c r="BT23" s="183"/>
+      <c r="BU23" s="183"/>
       <c r="BV23" s="26"/>
       <c r="BW23" s="26"/>
       <c r="BX23" s="26"/>
@@ -6946,77 +7006,77 @@
       <c r="DG24" s="4"/>
     </row>
     <row r="25" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B25" s="136" t="s">
+      <c r="B25" s="193" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="137"/>
-      <c r="D25" s="137"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="137"/>
-      <c r="G25" s="137"/>
-      <c r="H25" s="137"/>
-      <c r="I25" s="137"/>
-      <c r="J25" s="137"/>
-      <c r="K25" s="137"/>
-      <c r="L25" s="137"/>
-      <c r="M25" s="137"/>
-      <c r="N25" s="137"/>
-      <c r="O25" s="137"/>
-      <c r="P25" s="137"/>
-      <c r="Q25" s="137"/>
-      <c r="R25" s="137"/>
-      <c r="S25" s="137"/>
-      <c r="T25" s="137"/>
-      <c r="U25" s="137"/>
-      <c r="V25" s="137"/>
-      <c r="W25" s="137"/>
-      <c r="X25" s="137"/>
-      <c r="Y25" s="137"/>
-      <c r="Z25" s="137"/>
-      <c r="AA25" s="137"/>
-      <c r="AB25" s="137"/>
-      <c r="AC25" s="137"/>
-      <c r="AD25" s="137"/>
-      <c r="AE25" s="137"/>
-      <c r="AF25" s="137"/>
-      <c r="AG25" s="137"/>
-      <c r="AH25" s="137"/>
-      <c r="AI25" s="138"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="138"/>
+      <c r="J25" s="138"/>
+      <c r="K25" s="138"/>
+      <c r="L25" s="138"/>
+      <c r="M25" s="138"/>
+      <c r="N25" s="138"/>
+      <c r="O25" s="138"/>
+      <c r="P25" s="138"/>
+      <c r="Q25" s="138"/>
+      <c r="R25" s="138"/>
+      <c r="S25" s="138"/>
+      <c r="T25" s="138"/>
+      <c r="U25" s="138"/>
+      <c r="V25" s="138"/>
+      <c r="W25" s="138"/>
+      <c r="X25" s="138"/>
+      <c r="Y25" s="138"/>
+      <c r="Z25" s="138"/>
+      <c r="AA25" s="138"/>
+      <c r="AB25" s="138"/>
+      <c r="AC25" s="138"/>
+      <c r="AD25" s="138"/>
+      <c r="AE25" s="138"/>
+      <c r="AF25" s="138"/>
+      <c r="AG25" s="138"/>
+      <c r="AH25" s="138"/>
+      <c r="AI25" s="194"/>
       <c r="AM25" s="4"/>
-      <c r="AN25" s="137"/>
-      <c r="AO25" s="137"/>
-      <c r="AP25" s="137"/>
-      <c r="AQ25" s="137"/>
-      <c r="AR25" s="137"/>
-      <c r="AS25" s="137"/>
-      <c r="AT25" s="137"/>
-      <c r="AU25" s="137"/>
-      <c r="AV25" s="137"/>
-      <c r="AW25" s="137"/>
-      <c r="AX25" s="137"/>
-      <c r="AY25" s="137"/>
-      <c r="AZ25" s="137"/>
-      <c r="BA25" s="137"/>
-      <c r="BB25" s="137"/>
-      <c r="BC25" s="137"/>
-      <c r="BD25" s="137"/>
-      <c r="BE25" s="137"/>
-      <c r="BF25" s="137"/>
-      <c r="BG25" s="137"/>
-      <c r="BH25" s="137"/>
-      <c r="BI25" s="137"/>
-      <c r="BJ25" s="137"/>
-      <c r="BK25" s="137"/>
-      <c r="BL25" s="137"/>
-      <c r="BM25" s="137"/>
-      <c r="BN25" s="137"/>
-      <c r="BO25" s="137"/>
-      <c r="BP25" s="137"/>
-      <c r="BQ25" s="137"/>
-      <c r="BR25" s="137"/>
-      <c r="BS25" s="137"/>
-      <c r="BT25" s="137"/>
-      <c r="BU25" s="137"/>
+      <c r="AN25" s="138"/>
+      <c r="AO25" s="138"/>
+      <c r="AP25" s="138"/>
+      <c r="AQ25" s="138"/>
+      <c r="AR25" s="138"/>
+      <c r="AS25" s="138"/>
+      <c r="AT25" s="138"/>
+      <c r="AU25" s="138"/>
+      <c r="AV25" s="138"/>
+      <c r="AW25" s="138"/>
+      <c r="AX25" s="138"/>
+      <c r="AY25" s="138"/>
+      <c r="AZ25" s="138"/>
+      <c r="BA25" s="138"/>
+      <c r="BB25" s="138"/>
+      <c r="BC25" s="138"/>
+      <c r="BD25" s="138"/>
+      <c r="BE25" s="138"/>
+      <c r="BF25" s="138"/>
+      <c r="BG25" s="138"/>
+      <c r="BH25" s="138"/>
+      <c r="BI25" s="138"/>
+      <c r="BJ25" s="138"/>
+      <c r="BK25" s="138"/>
+      <c r="BL25" s="138"/>
+      <c r="BM25" s="138"/>
+      <c r="BN25" s="138"/>
+      <c r="BO25" s="138"/>
+      <c r="BP25" s="138"/>
+      <c r="BQ25" s="138"/>
+      <c r="BR25" s="138"/>
+      <c r="BS25" s="138"/>
+      <c r="BT25" s="138"/>
+      <c r="BU25" s="138"/>
       <c r="BV25" s="26"/>
       <c r="BW25" s="26"/>
       <c r="BX25" s="26"/>
@@ -7166,77 +7226,77 @@
       <c r="DG26" s="4"/>
     </row>
     <row r="27" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B27" s="141">
+      <c r="B27" s="195">
         <v>44351</v>
       </c>
-      <c r="C27" s="142"/>
-      <c r="D27" s="142"/>
-      <c r="E27" s="142"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="142"/>
-      <c r="H27" s="142"/>
-      <c r="I27" s="142"/>
-      <c r="J27" s="142"/>
-      <c r="K27" s="142"/>
-      <c r="L27" s="142"/>
-      <c r="M27" s="142"/>
-      <c r="N27" s="142"/>
-      <c r="O27" s="142"/>
-      <c r="P27" s="142"/>
-      <c r="Q27" s="142"/>
-      <c r="R27" s="142"/>
-      <c r="S27" s="142"/>
-      <c r="T27" s="142"/>
-      <c r="U27" s="142"/>
-      <c r="V27" s="142"/>
-      <c r="W27" s="142"/>
-      <c r="X27" s="142"/>
-      <c r="Y27" s="142"/>
-      <c r="Z27" s="142"/>
-      <c r="AA27" s="142"/>
-      <c r="AB27" s="142"/>
-      <c r="AC27" s="142"/>
-      <c r="AD27" s="142"/>
-      <c r="AE27" s="142"/>
-      <c r="AF27" s="142"/>
-      <c r="AG27" s="142"/>
-      <c r="AH27" s="142"/>
-      <c r="AI27" s="143"/>
+      <c r="C27" s="160"/>
+      <c r="D27" s="160"/>
+      <c r="E27" s="160"/>
+      <c r="F27" s="160"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="160"/>
+      <c r="I27" s="160"/>
+      <c r="J27" s="160"/>
+      <c r="K27" s="160"/>
+      <c r="L27" s="160"/>
+      <c r="M27" s="160"/>
+      <c r="N27" s="160"/>
+      <c r="O27" s="160"/>
+      <c r="P27" s="160"/>
+      <c r="Q27" s="160"/>
+      <c r="R27" s="160"/>
+      <c r="S27" s="160"/>
+      <c r="T27" s="160"/>
+      <c r="U27" s="160"/>
+      <c r="V27" s="160"/>
+      <c r="W27" s="160"/>
+      <c r="X27" s="160"/>
+      <c r="Y27" s="160"/>
+      <c r="Z27" s="160"/>
+      <c r="AA27" s="160"/>
+      <c r="AB27" s="160"/>
+      <c r="AC27" s="160"/>
+      <c r="AD27" s="160"/>
+      <c r="AE27" s="160"/>
+      <c r="AF27" s="160"/>
+      <c r="AG27" s="160"/>
+      <c r="AH27" s="160"/>
+      <c r="AI27" s="196"/>
       <c r="AM27" s="4"/>
-      <c r="AN27" s="142"/>
-      <c r="AO27" s="142"/>
-      <c r="AP27" s="142"/>
-      <c r="AQ27" s="142"/>
-      <c r="AR27" s="142"/>
-      <c r="AS27" s="142"/>
-      <c r="AT27" s="142"/>
-      <c r="AU27" s="142"/>
-      <c r="AV27" s="142"/>
-      <c r="AW27" s="142"/>
-      <c r="AX27" s="142"/>
-      <c r="AY27" s="142"/>
-      <c r="AZ27" s="142"/>
-      <c r="BA27" s="142"/>
-      <c r="BB27" s="142"/>
-      <c r="BC27" s="142"/>
-      <c r="BD27" s="142"/>
-      <c r="BE27" s="142"/>
-      <c r="BF27" s="142"/>
-      <c r="BG27" s="142"/>
-      <c r="BH27" s="142"/>
-      <c r="BI27" s="142"/>
-      <c r="BJ27" s="142"/>
-      <c r="BK27" s="142"/>
-      <c r="BL27" s="142"/>
-      <c r="BM27" s="142"/>
-      <c r="BN27" s="142"/>
-      <c r="BO27" s="142"/>
-      <c r="BP27" s="142"/>
-      <c r="BQ27" s="142"/>
-      <c r="BR27" s="142"/>
-      <c r="BS27" s="142"/>
-      <c r="BT27" s="142"/>
-      <c r="BU27" s="142"/>
+      <c r="AN27" s="160"/>
+      <c r="AO27" s="160"/>
+      <c r="AP27" s="160"/>
+      <c r="AQ27" s="160"/>
+      <c r="AR27" s="160"/>
+      <c r="AS27" s="160"/>
+      <c r="AT27" s="160"/>
+      <c r="AU27" s="160"/>
+      <c r="AV27" s="160"/>
+      <c r="AW27" s="160"/>
+      <c r="AX27" s="160"/>
+      <c r="AY27" s="160"/>
+      <c r="AZ27" s="160"/>
+      <c r="BA27" s="160"/>
+      <c r="BB27" s="160"/>
+      <c r="BC27" s="160"/>
+      <c r="BD27" s="160"/>
+      <c r="BE27" s="160"/>
+      <c r="BF27" s="160"/>
+      <c r="BG27" s="160"/>
+      <c r="BH27" s="160"/>
+      <c r="BI27" s="160"/>
+      <c r="BJ27" s="160"/>
+      <c r="BK27" s="160"/>
+      <c r="BL27" s="160"/>
+      <c r="BM27" s="160"/>
+      <c r="BN27" s="160"/>
+      <c r="BO27" s="160"/>
+      <c r="BP27" s="160"/>
+      <c r="BQ27" s="160"/>
+      <c r="BR27" s="160"/>
+      <c r="BS27" s="160"/>
+      <c r="BT27" s="160"/>
+      <c r="BU27" s="160"/>
       <c r="BV27" s="26"/>
       <c r="BW27" s="26"/>
       <c r="BX27" s="26"/>
@@ -7386,77 +7446,77 @@
       <c r="DG28" s="4"/>
     </row>
     <row r="29" spans="2:111" ht="24.95" customHeight="1">
-      <c r="B29" s="136" t="s">
+      <c r="B29" s="193" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="137"/>
-      <c r="D29" s="137"/>
-      <c r="E29" s="137"/>
-      <c r="F29" s="137"/>
-      <c r="G29" s="137"/>
-      <c r="H29" s="137"/>
-      <c r="I29" s="137"/>
-      <c r="J29" s="137"/>
-      <c r="K29" s="137"/>
-      <c r="L29" s="137"/>
-      <c r="M29" s="137"/>
-      <c r="N29" s="137"/>
-      <c r="O29" s="137"/>
-      <c r="P29" s="137"/>
-      <c r="Q29" s="137"/>
-      <c r="R29" s="137"/>
-      <c r="S29" s="137"/>
-      <c r="T29" s="137"/>
-      <c r="U29" s="137"/>
-      <c r="V29" s="137"/>
-      <c r="W29" s="137"/>
-      <c r="X29" s="137"/>
-      <c r="Y29" s="137"/>
-      <c r="Z29" s="137"/>
-      <c r="AA29" s="137"/>
-      <c r="AB29" s="137"/>
-      <c r="AC29" s="137"/>
-      <c r="AD29" s="137"/>
-      <c r="AE29" s="137"/>
-      <c r="AF29" s="137"/>
-      <c r="AG29" s="137"/>
-      <c r="AH29" s="137"/>
-      <c r="AI29" s="138"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="138"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="138"/>
+      <c r="K29" s="138"/>
+      <c r="L29" s="138"/>
+      <c r="M29" s="138"/>
+      <c r="N29" s="138"/>
+      <c r="O29" s="138"/>
+      <c r="P29" s="138"/>
+      <c r="Q29" s="138"/>
+      <c r="R29" s="138"/>
+      <c r="S29" s="138"/>
+      <c r="T29" s="138"/>
+      <c r="U29" s="138"/>
+      <c r="V29" s="138"/>
+      <c r="W29" s="138"/>
+      <c r="X29" s="138"/>
+      <c r="Y29" s="138"/>
+      <c r="Z29" s="138"/>
+      <c r="AA29" s="138"/>
+      <c r="AB29" s="138"/>
+      <c r="AC29" s="138"/>
+      <c r="AD29" s="138"/>
+      <c r="AE29" s="138"/>
+      <c r="AF29" s="138"/>
+      <c r="AG29" s="138"/>
+      <c r="AH29" s="138"/>
+      <c r="AI29" s="194"/>
       <c r="AM29" s="4"/>
-      <c r="AN29" s="137"/>
-      <c r="AO29" s="137"/>
-      <c r="AP29" s="137"/>
-      <c r="AQ29" s="137"/>
-      <c r="AR29" s="137"/>
-      <c r="AS29" s="137"/>
-      <c r="AT29" s="137"/>
-      <c r="AU29" s="137"/>
-      <c r="AV29" s="137"/>
-      <c r="AW29" s="137"/>
-      <c r="AX29" s="137"/>
-      <c r="AY29" s="137"/>
-      <c r="AZ29" s="137"/>
-      <c r="BA29" s="137"/>
-      <c r="BB29" s="137"/>
-      <c r="BC29" s="137"/>
-      <c r="BD29" s="137"/>
-      <c r="BE29" s="137"/>
-      <c r="BF29" s="137"/>
-      <c r="BG29" s="137"/>
-      <c r="BH29" s="137"/>
-      <c r="BI29" s="137"/>
-      <c r="BJ29" s="137"/>
-      <c r="BK29" s="137"/>
-      <c r="BL29" s="137"/>
-      <c r="BM29" s="137"/>
-      <c r="BN29" s="137"/>
-      <c r="BO29" s="137"/>
-      <c r="BP29" s="137"/>
-      <c r="BQ29" s="137"/>
-      <c r="BR29" s="137"/>
-      <c r="BS29" s="137"/>
-      <c r="BT29" s="137"/>
-      <c r="BU29" s="137"/>
+      <c r="AN29" s="138"/>
+      <c r="AO29" s="138"/>
+      <c r="AP29" s="138"/>
+      <c r="AQ29" s="138"/>
+      <c r="AR29" s="138"/>
+      <c r="AS29" s="138"/>
+      <c r="AT29" s="138"/>
+      <c r="AU29" s="138"/>
+      <c r="AV29" s="138"/>
+      <c r="AW29" s="138"/>
+      <c r="AX29" s="138"/>
+      <c r="AY29" s="138"/>
+      <c r="AZ29" s="138"/>
+      <c r="BA29" s="138"/>
+      <c r="BB29" s="138"/>
+      <c r="BC29" s="138"/>
+      <c r="BD29" s="138"/>
+      <c r="BE29" s="138"/>
+      <c r="BF29" s="138"/>
+      <c r="BG29" s="138"/>
+      <c r="BH29" s="138"/>
+      <c r="BI29" s="138"/>
+      <c r="BJ29" s="138"/>
+      <c r="BK29" s="138"/>
+      <c r="BL29" s="138"/>
+      <c r="BM29" s="138"/>
+      <c r="BN29" s="138"/>
+      <c r="BO29" s="138"/>
+      <c r="BP29" s="138"/>
+      <c r="BQ29" s="138"/>
+      <c r="BR29" s="138"/>
+      <c r="BS29" s="138"/>
+      <c r="BT29" s="138"/>
+      <c r="BU29" s="138"/>
       <c r="BV29" s="4"/>
       <c r="BW29" s="4"/>
       <c r="BX29" s="4"/>
@@ -7684,24 +7744,118 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <dataConsolidate/>
   <mergeCells count="154">
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="BF5:BI5"/>
-    <mergeCell ref="BJ5:BM5"/>
-    <mergeCell ref="BN5:BQ5"/>
-    <mergeCell ref="BR5:BU5"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="BF6:BI6"/>
-    <mergeCell ref="BJ6:BM6"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="X5:AA5"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="AF5:AI5"/>
-    <mergeCell ref="BE5:BE6"/>
-    <mergeCell ref="BN6:BQ6"/>
-    <mergeCell ref="BR6:BU6"/>
+    <mergeCell ref="B29:AI29"/>
+    <mergeCell ref="AN29:BU29"/>
+    <mergeCell ref="BE23:BM23"/>
+    <mergeCell ref="BN23:BU23"/>
+    <mergeCell ref="B25:AI25"/>
+    <mergeCell ref="AN25:BU25"/>
+    <mergeCell ref="B27:AI27"/>
+    <mergeCell ref="AN27:BU27"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="J23:R23"/>
+    <mergeCell ref="S23:AA23"/>
+    <mergeCell ref="AB23:AI23"/>
+    <mergeCell ref="AN23:AU23"/>
+    <mergeCell ref="AV23:BD23"/>
+    <mergeCell ref="BE21:BM21"/>
+    <mergeCell ref="BN21:BU21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:R22"/>
+    <mergeCell ref="S22:AA22"/>
+    <mergeCell ref="AB22:AI22"/>
+    <mergeCell ref="AN22:AU22"/>
+    <mergeCell ref="AV22:BD22"/>
+    <mergeCell ref="BE22:BM22"/>
+    <mergeCell ref="BN22:BU22"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="J21:R21"/>
+    <mergeCell ref="S21:AA21"/>
+    <mergeCell ref="AB21:AI21"/>
+    <mergeCell ref="AN21:AU21"/>
+    <mergeCell ref="AV21:BD21"/>
+    <mergeCell ref="BE19:BM19"/>
+    <mergeCell ref="BN19:BU19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="J20:R20"/>
+    <mergeCell ref="S20:AA20"/>
+    <mergeCell ref="AB20:AI20"/>
+    <mergeCell ref="AN20:AU20"/>
+    <mergeCell ref="AV20:BD20"/>
+    <mergeCell ref="BE20:BM20"/>
+    <mergeCell ref="BN20:BU20"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="J19:R19"/>
+    <mergeCell ref="S19:AA19"/>
+    <mergeCell ref="AB19:AI19"/>
+    <mergeCell ref="AN19:AU19"/>
+    <mergeCell ref="AV19:BD19"/>
+    <mergeCell ref="BE17:BM17"/>
+    <mergeCell ref="BN17:BU17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:R18"/>
+    <mergeCell ref="S18:AA18"/>
+    <mergeCell ref="AB18:AI18"/>
+    <mergeCell ref="AN18:AU18"/>
+    <mergeCell ref="AV18:BD18"/>
+    <mergeCell ref="BE18:BM18"/>
+    <mergeCell ref="BN18:BU18"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:R17"/>
+    <mergeCell ref="S17:AA17"/>
+    <mergeCell ref="AB17:AI17"/>
+    <mergeCell ref="AN17:AU17"/>
+    <mergeCell ref="AV17:BD17"/>
+    <mergeCell ref="BE15:BM15"/>
+    <mergeCell ref="BN15:BU15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:R16"/>
+    <mergeCell ref="S16:AA16"/>
+    <mergeCell ref="AB16:AI16"/>
+    <mergeCell ref="AN16:AU16"/>
+    <mergeCell ref="AV16:BD16"/>
+    <mergeCell ref="BE16:BM16"/>
+    <mergeCell ref="BN16:BU16"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:R15"/>
+    <mergeCell ref="S15:AA15"/>
+    <mergeCell ref="AB15:AI15"/>
+    <mergeCell ref="AN15:AU15"/>
+    <mergeCell ref="AV15:BD15"/>
+    <mergeCell ref="BE13:BM13"/>
+    <mergeCell ref="BN13:BU13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:R14"/>
+    <mergeCell ref="S14:AA14"/>
+    <mergeCell ref="AB14:AI14"/>
+    <mergeCell ref="AN14:AU14"/>
+    <mergeCell ref="AV14:BD14"/>
+    <mergeCell ref="BE14:BM14"/>
+    <mergeCell ref="BN14:BU14"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:R13"/>
+    <mergeCell ref="S13:AA13"/>
+    <mergeCell ref="AB13:AI13"/>
+    <mergeCell ref="AN13:AU13"/>
+    <mergeCell ref="AV13:BD13"/>
+    <mergeCell ref="B12:AI12"/>
+    <mergeCell ref="AN12:BU12"/>
+    <mergeCell ref="AQ10:BD10"/>
+    <mergeCell ref="BE10:BF10"/>
+    <mergeCell ref="BG10:BM10"/>
+    <mergeCell ref="BN10:BU10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="AB11:AI11"/>
+    <mergeCell ref="AN11:AP11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="AB10:AI10"/>
+    <mergeCell ref="AN10:AP10"/>
     <mergeCell ref="B7:AI7"/>
     <mergeCell ref="AN7:BU7"/>
     <mergeCell ref="B8:D8"/>
@@ -7726,118 +7880,24 @@
     <mergeCell ref="U9:AA9"/>
     <mergeCell ref="AB9:AE9"/>
     <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B12:AI12"/>
-    <mergeCell ref="AN12:BU12"/>
-    <mergeCell ref="AQ10:BD10"/>
-    <mergeCell ref="BE10:BF10"/>
-    <mergeCell ref="BG10:BM10"/>
-    <mergeCell ref="BN10:BU10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:AA11"/>
-    <mergeCell ref="AB11:AI11"/>
-    <mergeCell ref="AN11:AP11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="AB10:AI10"/>
-    <mergeCell ref="AN10:AP10"/>
-    <mergeCell ref="BE13:BM13"/>
-    <mergeCell ref="BN13:BU13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:R14"/>
-    <mergeCell ref="S14:AA14"/>
-    <mergeCell ref="AB14:AI14"/>
-    <mergeCell ref="AN14:AU14"/>
-    <mergeCell ref="AV14:BD14"/>
-    <mergeCell ref="BE14:BM14"/>
-    <mergeCell ref="BN14:BU14"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:R13"/>
-    <mergeCell ref="S13:AA13"/>
-    <mergeCell ref="AB13:AI13"/>
-    <mergeCell ref="AN13:AU13"/>
-    <mergeCell ref="AV13:BD13"/>
-    <mergeCell ref="BE15:BM15"/>
-    <mergeCell ref="BN15:BU15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:R16"/>
-    <mergeCell ref="S16:AA16"/>
-    <mergeCell ref="AB16:AI16"/>
-    <mergeCell ref="AN16:AU16"/>
-    <mergeCell ref="AV16:BD16"/>
-    <mergeCell ref="BE16:BM16"/>
-    <mergeCell ref="BN16:BU16"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:R15"/>
-    <mergeCell ref="S15:AA15"/>
-    <mergeCell ref="AB15:AI15"/>
-    <mergeCell ref="AN15:AU15"/>
-    <mergeCell ref="AV15:BD15"/>
-    <mergeCell ref="BE17:BM17"/>
-    <mergeCell ref="BN17:BU17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J18:R18"/>
-    <mergeCell ref="S18:AA18"/>
-    <mergeCell ref="AB18:AI18"/>
-    <mergeCell ref="AN18:AU18"/>
-    <mergeCell ref="AV18:BD18"/>
-    <mergeCell ref="BE18:BM18"/>
-    <mergeCell ref="BN18:BU18"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:R17"/>
-    <mergeCell ref="S17:AA17"/>
-    <mergeCell ref="AB17:AI17"/>
-    <mergeCell ref="AN17:AU17"/>
-    <mergeCell ref="AV17:BD17"/>
-    <mergeCell ref="BE19:BM19"/>
-    <mergeCell ref="BN19:BU19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J20:R20"/>
-    <mergeCell ref="S20:AA20"/>
-    <mergeCell ref="AB20:AI20"/>
-    <mergeCell ref="AN20:AU20"/>
-    <mergeCell ref="AV20:BD20"/>
-    <mergeCell ref="BE20:BM20"/>
-    <mergeCell ref="BN20:BU20"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="J19:R19"/>
-    <mergeCell ref="S19:AA19"/>
-    <mergeCell ref="AB19:AI19"/>
-    <mergeCell ref="AN19:AU19"/>
-    <mergeCell ref="AV19:BD19"/>
-    <mergeCell ref="BE21:BM21"/>
-    <mergeCell ref="BN21:BU21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:R22"/>
-    <mergeCell ref="S22:AA22"/>
-    <mergeCell ref="AB22:AI22"/>
-    <mergeCell ref="AN22:AU22"/>
-    <mergeCell ref="AV22:BD22"/>
-    <mergeCell ref="BE22:BM22"/>
-    <mergeCell ref="BN22:BU22"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="J21:R21"/>
-    <mergeCell ref="S21:AA21"/>
-    <mergeCell ref="AB21:AI21"/>
-    <mergeCell ref="AN21:AU21"/>
-    <mergeCell ref="AV21:BD21"/>
-    <mergeCell ref="B29:AI29"/>
-    <mergeCell ref="AN29:BU29"/>
-    <mergeCell ref="BE23:BM23"/>
-    <mergeCell ref="BN23:BU23"/>
-    <mergeCell ref="B25:AI25"/>
-    <mergeCell ref="AN25:BU25"/>
-    <mergeCell ref="B27:AI27"/>
-    <mergeCell ref="AN27:BU27"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="J23:R23"/>
-    <mergeCell ref="S23:AA23"/>
-    <mergeCell ref="AB23:AI23"/>
-    <mergeCell ref="AN23:AU23"/>
-    <mergeCell ref="AV23:BD23"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="BF5:BI5"/>
+    <mergeCell ref="BJ5:BM5"/>
+    <mergeCell ref="BN5:BQ5"/>
+    <mergeCell ref="BR5:BU5"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="BF6:BI6"/>
+    <mergeCell ref="BJ6:BM6"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="BE5:BE6"/>
+    <mergeCell ref="BN6:BQ6"/>
+    <mergeCell ref="BR6:BU6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
@@ -7860,11 +7920,117 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="211" t="s">
+        <v>546</v>
+      </c>
+      <c r="C2" s="211"/>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="212" t="s">
+        <v>539</v>
+      </c>
+      <c r="C4" s="97" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="212" t="s">
+        <v>540</v>
+      </c>
+      <c r="C5" s="97" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="212" t="s">
+        <v>541</v>
+      </c>
+      <c r="C6" s="97" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="33">
+      <c r="B7" s="212" t="s">
+        <v>542</v>
+      </c>
+      <c r="C7" s="213" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="212" t="s">
+        <v>547</v>
+      </c>
+      <c r="C8" s="213" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="33">
+      <c r="B9" s="212" t="s">
+        <v>548</v>
+      </c>
+      <c r="C9" s="213" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="99">
+      <c r="B10" s="212" t="s">
+        <v>543</v>
+      </c>
+      <c r="C10" s="213" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="33">
+      <c r="B11" s="212" t="s">
+        <v>544</v>
+      </c>
+      <c r="C11" s="213" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="212" t="s">
+        <v>545</v>
+      </c>
+      <c r="C12" s="97" t="s">
+        <v>556</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:L368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A338" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A338" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G346" sqref="G346"/>
     </sheetView>
   </sheetViews>
@@ -20982,7 +21148,7 @@
     </row>
     <row r="356" spans="1:12" ht="18.75">
       <c r="A356" s="77">
-        <f>RANK(G356,$G$356:$G$368)</f>
+        <f t="shared" ref="A356:A368" si="60">RANK(G356,$G$356:$G$368)</f>
         <v>1</v>
       </c>
       <c r="B356" s="58" t="s">
@@ -20998,11 +21164,11 @@
         <v>226</v>
       </c>
       <c r="F356" s="86">
-        <f>SUM(C356:E356)</f>
+        <f t="shared" ref="F356:F368" si="61">SUM(C356:E356)</f>
         <v>668</v>
       </c>
       <c r="G356" s="87">
-        <f>F356/COUNTA(C356:E356)</f>
+        <f t="shared" ref="G356:G368" si="62">F356/COUNTA(C356:E356)</f>
         <v>222.66666666666666</v>
       </c>
       <c r="H356" s="58" t="s">
@@ -21027,7 +21193,7 @@
     </row>
     <row r="357" spans="1:12" ht="18.75">
       <c r="A357" s="77">
-        <f>RANK(G357,$G$356:$G$368)</f>
+        <f t="shared" si="60"/>
         <v>2</v>
       </c>
       <c r="B357" s="61" t="s">
@@ -21043,11 +21209,11 @@
         <v>232</v>
       </c>
       <c r="F357" s="63">
-        <f>SUM(C357:E357)</f>
+        <f t="shared" si="61"/>
         <v>640</v>
       </c>
       <c r="G357" s="87">
-        <f>F357/COUNTA(C357:E357)</f>
+        <f t="shared" si="62"/>
         <v>213.33333333333334</v>
       </c>
       <c r="H357" s="61" t="s">
@@ -21072,7 +21238,7 @@
     </row>
     <row r="358" spans="1:12" ht="18.75">
       <c r="A358" s="77">
-        <f>RANK(G358,$G$356:$G$368)</f>
+        <f t="shared" si="60"/>
         <v>3</v>
       </c>
       <c r="B358" s="65" t="s">
@@ -21088,11 +21254,11 @@
         <v>206</v>
       </c>
       <c r="F358" s="69">
-        <f>SUM(C358:E358)</f>
+        <f t="shared" si="61"/>
         <v>615</v>
       </c>
       <c r="G358" s="87">
-        <f>F358/COUNTA(C358:E358)</f>
+        <f t="shared" si="62"/>
         <v>205</v>
       </c>
       <c r="H358" s="65" t="s">
@@ -21117,7 +21283,7 @@
     </row>
     <row r="359" spans="1:12" ht="18.75">
       <c r="A359" s="77">
-        <f>RANK(G359,$G$356:$G$368)</f>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="B359" s="58" t="s">
@@ -21133,11 +21299,11 @@
         <v>175</v>
       </c>
       <c r="F359" s="69">
-        <f>SUM(C359:E359)</f>
+        <f t="shared" si="61"/>
         <v>596</v>
       </c>
       <c r="G359" s="87">
-        <f>F359/COUNTA(C359:E359)</f>
+        <f t="shared" si="62"/>
         <v>198.66666666666666</v>
       </c>
       <c r="H359" s="58" t="s">
@@ -21162,7 +21328,7 @@
     </row>
     <row r="360" spans="1:12" ht="18.75">
       <c r="A360" s="77">
-        <f>RANK(G360,$G$356:$G$368)</f>
+        <f t="shared" si="60"/>
         <v>5</v>
       </c>
       <c r="B360" s="58" t="s">
@@ -21178,11 +21344,11 @@
         <v>199</v>
       </c>
       <c r="F360" s="69">
-        <f>SUM(C360:E360)</f>
+        <f t="shared" si="61"/>
         <v>592</v>
       </c>
       <c r="G360" s="87">
-        <f>F360/COUNTA(C360:E360)</f>
+        <f t="shared" si="62"/>
         <v>197.33333333333334</v>
       </c>
       <c r="H360" s="58" t="s">
@@ -21207,7 +21373,7 @@
     </row>
     <row r="361" spans="1:12" ht="18.75">
       <c r="A361" s="77">
-        <f>RANK(G361,$G$356:$G$368)</f>
+        <f t="shared" si="60"/>
         <v>6</v>
       </c>
       <c r="B361" s="65" t="s">
@@ -21223,11 +21389,11 @@
         <v>217</v>
       </c>
       <c r="F361" s="69">
-        <f>SUM(C361:E361)</f>
+        <f t="shared" si="61"/>
         <v>590</v>
       </c>
       <c r="G361" s="87">
-        <f>F361/COUNTA(C361:E361)</f>
+        <f t="shared" si="62"/>
         <v>196.66666666666666</v>
       </c>
       <c r="H361" s="65" t="s">
@@ -21252,7 +21418,7 @@
     </row>
     <row r="362" spans="1:12" ht="18.75">
       <c r="A362" s="77">
-        <f>RANK(G362,$G$356:$G$368)</f>
+        <f t="shared" si="60"/>
         <v>7</v>
       </c>
       <c r="B362" s="65" t="s">
@@ -21268,11 +21434,11 @@
         <v>211</v>
       </c>
       <c r="F362" s="69">
-        <f>SUM(C362:E362)</f>
+        <f t="shared" si="61"/>
         <v>545</v>
       </c>
       <c r="G362" s="87">
-        <f>F362/COUNTA(C362:E362)</f>
+        <f t="shared" si="62"/>
         <v>181.66666666666666</v>
       </c>
       <c r="H362" s="65" t="s">
@@ -21297,7 +21463,7 @@
     </row>
     <row r="363" spans="1:12" ht="18.75">
       <c r="A363" s="77">
-        <f>RANK(G363,$G$356:$G$368)</f>
+        <f t="shared" si="60"/>
         <v>8</v>
       </c>
       <c r="B363" s="65" t="s">
@@ -21313,11 +21479,11 @@
         <v>193</v>
       </c>
       <c r="F363" s="69">
-        <f>SUM(C363:E363)</f>
+        <f t="shared" si="61"/>
         <v>531</v>
       </c>
       <c r="G363" s="87">
-        <f>F363/COUNTA(C363:E363)</f>
+        <f t="shared" si="62"/>
         <v>177</v>
       </c>
       <c r="H363" s="65" t="s">
@@ -21342,7 +21508,7 @@
     </row>
     <row r="364" spans="1:12" ht="18.75">
       <c r="A364" s="77">
-        <f>RANK(G364,$G$356:$G$368)</f>
+        <f t="shared" si="60"/>
         <v>9</v>
       </c>
       <c r="B364" s="58" t="s">
@@ -21358,11 +21524,11 @@
         <v>179</v>
       </c>
       <c r="F364" s="69">
-        <f>SUM(C364:E364)</f>
+        <f t="shared" si="61"/>
         <v>517</v>
       </c>
       <c r="G364" s="87">
-        <f>F364/COUNTA(C364:E364)</f>
+        <f t="shared" si="62"/>
         <v>172.33333333333334</v>
       </c>
       <c r="H364" s="58" t="s">
@@ -21387,7 +21553,7 @@
     </row>
     <row r="365" spans="1:12" ht="18.75">
       <c r="A365" s="77">
-        <f>RANK(G365,$G$356:$G$368)</f>
+        <f t="shared" si="60"/>
         <v>10</v>
       </c>
       <c r="B365" s="58" t="s">
@@ -21403,11 +21569,11 @@
         <v>166</v>
       </c>
       <c r="F365" s="63">
-        <f>SUM(C365:E365)</f>
+        <f t="shared" si="61"/>
         <v>499</v>
       </c>
       <c r="G365" s="87">
-        <f>F365/COUNTA(C365:E365)</f>
+        <f t="shared" si="62"/>
         <v>166.33333333333334</v>
       </c>
       <c r="H365" s="58" t="s">
@@ -21432,7 +21598,7 @@
     </row>
     <row r="366" spans="1:12" ht="18.75">
       <c r="A366" s="77">
-        <f>RANK(G366,$G$356:$G$368)</f>
+        <f t="shared" si="60"/>
         <v>11</v>
       </c>
       <c r="B366" s="58" t="s">
@@ -21448,11 +21614,11 @@
         <v>159</v>
       </c>
       <c r="F366" s="63">
-        <f>SUM(C366:E366)</f>
+        <f t="shared" si="61"/>
         <v>496</v>
       </c>
       <c r="G366" s="87">
-        <f>F366/COUNTA(C366:E366)</f>
+        <f t="shared" si="62"/>
         <v>165.33333333333334</v>
       </c>
       <c r="H366" s="58" t="s">
@@ -21477,7 +21643,7 @@
     </row>
     <row r="367" spans="1:12" ht="18.75">
       <c r="A367" s="77">
-        <f>RANK(G367,$G$356:$G$368)</f>
+        <f t="shared" si="60"/>
         <v>12</v>
       </c>
       <c r="B367" s="58" t="s">
@@ -21493,11 +21659,11 @@
         <v>188</v>
       </c>
       <c r="F367" s="63">
-        <f>SUM(C367:E367)</f>
+        <f t="shared" si="61"/>
         <v>482</v>
       </c>
       <c r="G367" s="87">
-        <f>F367/COUNTA(C367:E367)</f>
+        <f t="shared" si="62"/>
         <v>160.66666666666666</v>
       </c>
       <c r="H367" s="58" t="s">
@@ -21522,7 +21688,7 @@
     </row>
     <row r="368" spans="1:12" ht="18.75">
       <c r="A368" s="77">
-        <f>RANK(G368,$G$356:$G$368)</f>
+        <f t="shared" si="60"/>
         <v>13</v>
       </c>
       <c r="B368" s="58" t="s">
@@ -21538,11 +21704,11 @@
         <v>187</v>
       </c>
       <c r="F368" s="69">
-        <f>SUM(C368:E368)</f>
+        <f t="shared" si="61"/>
         <v>445</v>
       </c>
       <c r="G368" s="87">
-        <f>F368/COUNTA(C368:E368)</f>
+        <f t="shared" si="62"/>
         <v>148.33333333333334</v>
       </c>
       <c r="H368" s="58" t="s">
@@ -21570,12 +21736,10 @@
     <sortCondition ref="A355"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="A302:L302"/>
-    <mergeCell ref="A282:L282"/>
-    <mergeCell ref="A264:L264"/>
-    <mergeCell ref="A247:L247"/>
-    <mergeCell ref="A354:L354"/>
-    <mergeCell ref="A336:L336"/>
+    <mergeCell ref="A230:L230"/>
+    <mergeCell ref="A211:L211"/>
+    <mergeCell ref="A318:L318"/>
+    <mergeCell ref="A191:L191"/>
     <mergeCell ref="A170:L170"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A19:L19"/>
@@ -21587,29 +21751,31 @@
     <mergeCell ref="A121:L121"/>
     <mergeCell ref="A98:L98"/>
     <mergeCell ref="A82:L82"/>
-    <mergeCell ref="A230:L230"/>
-    <mergeCell ref="A211:L211"/>
-    <mergeCell ref="A318:L318"/>
-    <mergeCell ref="A191:L191"/>
+    <mergeCell ref="A302:L302"/>
+    <mergeCell ref="A282:L282"/>
+    <mergeCell ref="A264:L264"/>
+    <mergeCell ref="A247:L247"/>
+    <mergeCell ref="A354:L354"/>
+    <mergeCell ref="A336:L336"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C4:E15 C21:E31 C36:E45 C50:E63 C68:E79 C84:E95 C100:E117 C123:E135 C140:E151 C156:E167 C172:E188 C193:E208 C213:E227 C232:E244 C249:E261 C266:E279 C284:E299 C304:E315 C320:E333 C338:E351 C356:E368">
-    <cfRule type="cellIs" dxfId="6" priority="423" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="423" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F15 F21:F31 F36:F45 F50:F63 F68:F79 F84:F95 F100:F117 F123:F135 F140:F151 F156:F167 F172:F188 F193:F208 F213:F227 F232:F244 F249:F261 F266:F279 F284:F299 F304:F315 F320:F333 F338:F351 F356:F368">
-    <cfRule type="cellIs" dxfId="5" priority="422" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="422" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G15 G21:G31 G36:G45 G50:G63 G68:G79 G84:G95 G100:G117 G123:G135 G140:G151 G156:G167 G172:G188 G193:G208 G213:G227 G232:G244 G249:G261 G266:G279 G284:G299 G304:G315 G320:G333 G338:G351 G356:G368">
-    <cfRule type="cellIs" dxfId="4" priority="421" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="421" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K15 K21:K31 K36:K45 K50:K63 K68:K79 K84:K95 K100:K117 K123:K135 K140:K151 K156:K167 K172:K188 K193:K208 K213:K227 K249:K261 K232:K244 K266:K279 K284:K299 K304:K315 K320:K333 K338:K351 K356:K368">
-    <cfRule type="cellIs" dxfId="3" priority="420" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="420" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25807,82 +25973,82 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C3:E13 C19:E32 C36:E46 C50:E59 C64:E74 C80:E91 C97:E105">
-    <cfRule type="cellIs" dxfId="42" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="16" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F13 F19:F32 F36:F46 F50:F59 F64:F74 F80:F91 F97:F105">
-    <cfRule type="cellIs" dxfId="41" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="15" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G13 G19:G32 G36:G46 G50:G59 G64:G74 G80:G91 G97:G105">
-    <cfRule type="cellIs" dxfId="40" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="14" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K13 K19:K32 K36:K46 K50:K59 K64:K74 K80:K91 K97:K105">
-    <cfRule type="cellIs" dxfId="39" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="13" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C110:E118">
-    <cfRule type="cellIs" dxfId="38" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="12" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F110:F118">
-    <cfRule type="cellIs" dxfId="37" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G110:G118">
-    <cfRule type="cellIs" dxfId="36" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="10" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K110:K118">
-    <cfRule type="cellIs" dxfId="35" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="9" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C119:E119">
-    <cfRule type="cellIs" dxfId="34" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119">
-    <cfRule type="cellIs" dxfId="33" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G119">
-    <cfRule type="cellIs" dxfId="32" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K119">
-    <cfRule type="cellIs" dxfId="31" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C120:E120">
-    <cfRule type="cellIs" dxfId="30" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120">
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G120">
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K120">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28184,7 +28350,7 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:AC22">
-    <cfRule type="cellIs" dxfId="26" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="20" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29379,12 +29545,12 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:L28 I29:L29">
-    <cfRule type="cellIs" dxfId="25" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:L29">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29466,10 +29632,10 @@
       <c r="V2" s="101"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="203">
+      <c r="A3" s="207">
         <v>1</v>
       </c>
-      <c r="B3" s="204" t="s">
+      <c r="B3" s="203" t="s">
         <v>119</v>
       </c>
       <c r="C3" s="96" t="s">
@@ -29514,8 +29680,8 @@
       <c r="V3" s="101"/>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="203"/>
-      <c r="B4" s="204"/>
+      <c r="A4" s="207"/>
+      <c r="B4" s="203"/>
       <c r="C4" s="96" t="s">
         <v>121</v>
       </c>
@@ -29558,8 +29724,8 @@
       <c r="V4" s="101"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="203"/>
-      <c r="B5" s="204"/>
+      <c r="A5" s="207"/>
+      <c r="B5" s="203"/>
       <c r="C5" s="96" t="s">
         <v>122</v>
       </c>
@@ -29596,10 +29762,10 @@
       <c r="V5" s="101"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="203">
+      <c r="A6" s="207">
         <v>2</v>
       </c>
-      <c r="B6" s="204" t="s">
+      <c r="B6" s="203" t="s">
         <v>123</v>
       </c>
       <c r="C6" s="96" t="s">
@@ -29637,8 +29803,8 @@
       <c r="V6" s="101"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="203"/>
-      <c r="B7" s="204"/>
+      <c r="A7" s="207"/>
+      <c r="B7" s="203"/>
       <c r="C7" s="96" t="s">
         <v>124</v>
       </c>
@@ -29674,8 +29840,8 @@
       <c r="V7" s="101"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="203"/>
-      <c r="B8" s="204"/>
+      <c r="A8" s="207"/>
+      <c r="B8" s="203"/>
       <c r="C8" s="96" t="s">
         <v>125</v>
       </c>
@@ -29711,10 +29877,10 @@
       <c r="V8" s="101"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="203">
+      <c r="A9" s="207">
         <v>3</v>
       </c>
-      <c r="B9" s="204" t="s">
+      <c r="B9" s="203" t="s">
         <v>126</v>
       </c>
       <c r="C9" s="96" t="s">
@@ -29739,15 +29905,15 @@
       <c r="I9" s="96">
         <v>3</v>
       </c>
-      <c r="K9" s="204" t="s">
+      <c r="K9" s="203" t="s">
         <v>139</v>
       </c>
-      <c r="L9" s="204"/>
-      <c r="M9" s="204"/>
-      <c r="N9" s="204"/>
-      <c r="O9" s="204"/>
-      <c r="P9" s="204"/>
-      <c r="Q9" s="204"/>
+      <c r="L9" s="203"/>
+      <c r="M9" s="203"/>
+      <c r="N9" s="203"/>
+      <c r="O9" s="203"/>
+      <c r="P9" s="203"/>
+      <c r="Q9" s="203"/>
       <c r="R9" s="101"/>
       <c r="S9" s="101"/>
       <c r="T9" s="101"/>
@@ -29755,8 +29921,8 @@
       <c r="V9" s="101"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="203"/>
-      <c r="B10" s="204"/>
+      <c r="A10" s="207"/>
+      <c r="B10" s="203"/>
       <c r="C10" s="96" t="s">
         <v>120</v>
       </c>
@@ -29779,13 +29945,13 @@
       <c r="I10" s="96">
         <v>3</v>
       </c>
-      <c r="K10" s="204"/>
-      <c r="L10" s="204"/>
-      <c r="M10" s="204"/>
-      <c r="N10" s="204"/>
-      <c r="O10" s="204"/>
-      <c r="P10" s="204"/>
-      <c r="Q10" s="204"/>
+      <c r="K10" s="203"/>
+      <c r="L10" s="203"/>
+      <c r="M10" s="203"/>
+      <c r="N10" s="203"/>
+      <c r="O10" s="203"/>
+      <c r="P10" s="203"/>
+      <c r="Q10" s="203"/>
       <c r="R10" s="101"/>
       <c r="S10" s="101"/>
       <c r="T10" s="101"/>
@@ -29793,8 +29959,8 @@
       <c r="V10" s="101"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="203"/>
-      <c r="B11" s="204"/>
+      <c r="A11" s="207"/>
+      <c r="B11" s="203"/>
       <c r="C11" s="96" t="s">
         <v>125</v>
       </c>
@@ -29845,10 +30011,10 @@
       <c r="V11" s="101"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="203">
+      <c r="A12" s="207">
         <v>4</v>
       </c>
-      <c r="B12" s="204" t="s">
+      <c r="B12" s="203" t="s">
         <v>127</v>
       </c>
       <c r="C12" s="96" t="s">
@@ -29907,8 +30073,8 @@
       <c r="V12" s="101"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="203"/>
-      <c r="B13" s="204"/>
+      <c r="A13" s="207"/>
+      <c r="B13" s="203"/>
       <c r="C13" s="96" t="s">
         <v>124</v>
       </c>
@@ -29965,8 +30131,8 @@
       <c r="V13" s="101"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="203"/>
-      <c r="B14" s="204"/>
+      <c r="A14" s="207"/>
+      <c r="B14" s="203"/>
       <c r="C14" s="96" t="s">
         <v>125</v>
       </c>
@@ -30023,10 +30189,10 @@
       <c r="V14" s="101"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="203">
+      <c r="A15" s="207">
         <v>5</v>
       </c>
-      <c r="B15" s="204" t="s">
+      <c r="B15" s="203" t="s">
         <v>128</v>
       </c>
       <c r="C15" s="96" t="s">
@@ -30085,8 +30251,8 @@
       <c r="V15" s="101"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="203"/>
-      <c r="B16" s="204"/>
+      <c r="A16" s="207"/>
+      <c r="B16" s="203"/>
       <c r="C16" s="96" t="s">
         <v>121</v>
       </c>
@@ -30143,8 +30309,8 @@
       <c r="V16" s="101"/>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="203"/>
-      <c r="B17" s="204"/>
+      <c r="A17" s="207"/>
+      <c r="B17" s="203"/>
       <c r="C17" s="96" t="s">
         <v>125</v>
       </c>
@@ -30201,10 +30367,10 @@
       <c r="V17" s="101"/>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="203">
+      <c r="A18" s="207">
         <v>6</v>
       </c>
-      <c r="B18" s="204" t="s">
+      <c r="B18" s="203" t="s">
         <v>129</v>
       </c>
       <c r="C18" s="96" t="s">
@@ -30263,8 +30429,8 @@
       <c r="V18" s="101"/>
     </row>
     <row r="19" spans="1:22">
-      <c r="A19" s="203"/>
-      <c r="B19" s="204"/>
+      <c r="A19" s="207"/>
+      <c r="B19" s="203"/>
       <c r="C19" s="96" t="s">
         <v>120</v>
       </c>
@@ -30299,9 +30465,9 @@
         <f ca="1">SUM(N12:N18)</f>
         <v>42</v>
       </c>
-      <c r="O19" s="205"/>
-      <c r="P19" s="206"/>
-      <c r="Q19" s="207"/>
+      <c r="O19" s="204"/>
+      <c r="P19" s="205"/>
+      <c r="Q19" s="206"/>
       <c r="R19" s="101"/>
       <c r="S19" s="101"/>
       <c r="T19" s="101"/>
@@ -30309,8 +30475,8 @@
       <c r="V19" s="101"/>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="203"/>
-      <c r="B20" s="204"/>
+      <c r="A20" s="207"/>
+      <c r="B20" s="203"/>
       <c r="C20" s="96" t="s">
         <v>125</v>
       </c>
@@ -30346,10 +30512,10 @@
       <c r="V20" s="101"/>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="203">
+      <c r="A21" s="207">
         <v>7</v>
       </c>
-      <c r="B21" s="204" t="s">
+      <c r="B21" s="203" t="s">
         <v>140</v>
       </c>
       <c r="C21" s="96" t="s">
@@ -30387,8 +30553,8 @@
       <c r="V21" s="101"/>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="203"/>
-      <c r="B22" s="204"/>
+      <c r="A22" s="207"/>
+      <c r="B22" s="203"/>
       <c r="C22" s="96" t="s">
         <v>142</v>
       </c>
@@ -30424,8 +30590,8 @@
       <c r="V22" s="101"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="203"/>
-      <c r="B23" s="204"/>
+      <c r="A23" s="207"/>
+      <c r="B23" s="203"/>
       <c r="C23" s="96" t="s">
         <v>143</v>
       </c>
@@ -30461,10 +30627,10 @@
       <c r="V23" s="101"/>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="203">
+      <c r="A24" s="207">
         <v>8</v>
       </c>
-      <c r="B24" s="204" t="s">
+      <c r="B24" s="203" t="s">
         <v>145</v>
       </c>
       <c r="C24" s="96" t="s">
@@ -30502,8 +30668,8 @@
       <c r="V24" s="101"/>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="203"/>
-      <c r="B25" s="204"/>
+      <c r="A25" s="207"/>
+      <c r="B25" s="203"/>
       <c r="C25" s="96" t="s">
         <v>147</v>
       </c>
@@ -30539,8 +30705,8 @@
       <c r="V25" s="101"/>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="203"/>
-      <c r="B26" s="204"/>
+      <c r="A26" s="207"/>
+      <c r="B26" s="203"/>
       <c r="C26" s="96" t="s">
         <v>148</v>
       </c>
@@ -30577,10 +30743,10 @@
       <c r="V26" s="101"/>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="203">
+      <c r="A27" s="207">
         <v>9</v>
       </c>
-      <c r="B27" s="204" t="s">
+      <c r="B27" s="203" t="s">
         <v>152</v>
       </c>
       <c r="C27" s="96" t="s">
@@ -30619,8 +30785,8 @@
       <c r="V27" s="101"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="203"/>
-      <c r="B28" s="204"/>
+      <c r="A28" s="207"/>
+      <c r="B28" s="203"/>
       <c r="C28" s="96" t="s">
         <v>154</v>
       </c>
@@ -30657,8 +30823,8 @@
       <c r="V28" s="101"/>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="203"/>
-      <c r="B29" s="204"/>
+      <c r="A29" s="207"/>
+      <c r="B29" s="203"/>
       <c r="C29" s="96" t="s">
         <v>155</v>
       </c>
@@ -30745,15 +30911,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K9:Q10"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="K19:L19"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="A12:A14"/>
@@ -30766,15 +30923,24 @@
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="B24:B26"/>
+    <mergeCell ref="K9:Q10"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="K19:L19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D3:F29">
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G30">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
       <formula>599.99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30852,10 +31018,10 @@
       <c r="R2" s="101"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="203">
+      <c r="A3" s="207">
         <v>1</v>
       </c>
-      <c r="B3" s="204" t="s">
+      <c r="B3" s="203" t="s">
         <v>123</v>
       </c>
       <c r="C3" s="96" t="s">
@@ -30896,8 +31062,8 @@
       <c r="R3" s="101"/>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="203"/>
-      <c r="B4" s="204"/>
+      <c r="A4" s="207"/>
+      <c r="B4" s="203"/>
       <c r="C4" s="96" t="s">
         <v>188</v>
       </c>
@@ -30936,8 +31102,8 @@
       <c r="R4" s="101"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="203"/>
-      <c r="B5" s="204"/>
+      <c r="A5" s="207"/>
+      <c r="B5" s="203"/>
       <c r="C5" s="96" t="s">
         <v>187</v>
       </c>
@@ -30970,10 +31136,10 @@
       <c r="R5" s="101"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="203">
+      <c r="A6" s="207">
         <v>2</v>
       </c>
-      <c r="B6" s="204" t="s">
+      <c r="B6" s="203" t="s">
         <v>152</v>
       </c>
       <c r="C6" s="96" t="s">
@@ -31011,8 +31177,8 @@
       <c r="V6" s="101"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="203"/>
-      <c r="B7" s="204"/>
+      <c r="A7" s="207"/>
+      <c r="B7" s="203"/>
       <c r="C7" s="96" t="s">
         <v>189</v>
       </c>
@@ -31048,8 +31214,8 @@
       <c r="V7" s="101"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="203"/>
-      <c r="B8" s="204"/>
+      <c r="A8" s="207"/>
+      <c r="B8" s="203"/>
       <c r="C8" s="96" t="s">
         <v>190</v>
       </c>
@@ -31085,10 +31251,10 @@
       <c r="V8" s="101"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="203">
+      <c r="A9" s="207">
         <v>3</v>
       </c>
-      <c r="B9" s="204" t="s">
+      <c r="B9" s="203" t="s">
         <v>192</v>
       </c>
       <c r="C9" s="96" t="s">
@@ -31113,15 +31279,15 @@
       <c r="I9" s="96">
         <v>1</v>
       </c>
-      <c r="K9" s="204" t="s">
+      <c r="K9" s="203" t="s">
         <v>139</v>
       </c>
-      <c r="L9" s="204"/>
-      <c r="M9" s="204"/>
-      <c r="N9" s="204"/>
-      <c r="O9" s="204"/>
-      <c r="P9" s="204"/>
-      <c r="Q9" s="204"/>
+      <c r="L9" s="203"/>
+      <c r="M9" s="203"/>
+      <c r="N9" s="203"/>
+      <c r="O9" s="203"/>
+      <c r="P9" s="203"/>
+      <c r="Q9" s="203"/>
       <c r="R9" s="101"/>
       <c r="S9" s="101"/>
       <c r="T9" s="101"/>
@@ -31129,8 +31295,8 @@
       <c r="V9" s="101"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="203"/>
-      <c r="B10" s="204"/>
+      <c r="A10" s="207"/>
+      <c r="B10" s="203"/>
       <c r="C10" s="96" t="s">
         <v>189</v>
       </c>
@@ -31153,13 +31319,13 @@
       <c r="I10" s="96">
         <v>1</v>
       </c>
-      <c r="K10" s="204"/>
-      <c r="L10" s="204"/>
-      <c r="M10" s="204"/>
-      <c r="N10" s="204"/>
-      <c r="O10" s="204"/>
-      <c r="P10" s="204"/>
-      <c r="Q10" s="204"/>
+      <c r="K10" s="203"/>
+      <c r="L10" s="203"/>
+      <c r="M10" s="203"/>
+      <c r="N10" s="203"/>
+      <c r="O10" s="203"/>
+      <c r="P10" s="203"/>
+      <c r="Q10" s="203"/>
       <c r="R10" s="101"/>
       <c r="S10" s="101"/>
       <c r="T10" s="101"/>
@@ -31167,8 +31333,8 @@
       <c r="V10" s="101"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="203"/>
-      <c r="B11" s="204"/>
+      <c r="A11" s="207"/>
+      <c r="B11" s="203"/>
       <c r="C11" s="96" t="s">
         <v>190</v>
       </c>
@@ -31219,10 +31385,10 @@
       <c r="V11" s="101"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="203">
+      <c r="A12" s="207">
         <v>4</v>
       </c>
-      <c r="B12" s="204" t="s">
+      <c r="B12" s="203" t="s">
         <v>193</v>
       </c>
       <c r="C12" s="96" t="s">
@@ -31281,8 +31447,8 @@
       <c r="V12" s="101"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="203"/>
-      <c r="B13" s="204"/>
+      <c r="A13" s="207"/>
+      <c r="B13" s="203"/>
       <c r="C13" s="96" t="s">
         <v>189</v>
       </c>
@@ -31339,8 +31505,8 @@
       <c r="V13" s="101"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="203"/>
-      <c r="B14" s="204"/>
+      <c r="A14" s="207"/>
+      <c r="B14" s="203"/>
       <c r="C14" s="96" t="s">
         <v>190</v>
       </c>
@@ -31397,10 +31563,10 @@
       <c r="V14" s="101"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="203">
+      <c r="A15" s="207">
         <v>5</v>
       </c>
-      <c r="B15" s="204" t="s">
+      <c r="B15" s="203" t="s">
         <v>194</v>
       </c>
       <c r="C15" s="96" t="s">
@@ -31459,8 +31625,8 @@
       <c r="V15" s="101"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="203"/>
-      <c r="B16" s="204"/>
+      <c r="A16" s="207"/>
+      <c r="B16" s="203"/>
       <c r="C16" s="96" t="s">
         <v>189</v>
       </c>
@@ -31517,8 +31683,8 @@
       <c r="V16" s="101"/>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="203"/>
-      <c r="B17" s="204"/>
+      <c r="A17" s="207"/>
+      <c r="B17" s="203"/>
       <c r="C17" s="96" t="s">
         <v>190</v>
       </c>
@@ -31553,9 +31719,9 @@
         <f ca="1">SUM(N12:N16)</f>
         <v>42</v>
       </c>
-      <c r="O17" s="205"/>
-      <c r="P17" s="206"/>
-      <c r="Q17" s="207"/>
+      <c r="O17" s="204"/>
+      <c r="P17" s="205"/>
+      <c r="Q17" s="206"/>
       <c r="R17" s="101"/>
       <c r="S17" s="101"/>
       <c r="T17" s="101"/>
@@ -31563,10 +31729,10 @@
       <c r="V17" s="101"/>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="203">
+      <c r="A18" s="207">
         <v>6</v>
       </c>
-      <c r="B18" s="204" t="s">
+      <c r="B18" s="203" t="s">
         <v>129</v>
       </c>
       <c r="C18" s="96" t="s">
@@ -31604,8 +31770,8 @@
       <c r="V18" s="101"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="203"/>
-      <c r="B19" s="204"/>
+      <c r="A19" s="207"/>
+      <c r="B19" s="203"/>
       <c r="C19" s="96" t="s">
         <v>189</v>
       </c>
@@ -31641,8 +31807,8 @@
       <c r="V19" s="101"/>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="203"/>
-      <c r="B20" s="204"/>
+      <c r="A20" s="207"/>
+      <c r="B20" s="203"/>
       <c r="C20" s="96" t="s">
         <v>190</v>
       </c>
@@ -31678,10 +31844,10 @@
       <c r="V20" s="101"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="203">
+      <c r="A21" s="207">
         <v>7</v>
       </c>
-      <c r="B21" s="204" t="s">
+      <c r="B21" s="203" t="s">
         <v>119</v>
       </c>
       <c r="C21" s="96" t="s">
@@ -31717,8 +31883,8 @@
       <c r="V21" s="101"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="203"/>
-      <c r="B22" s="204"/>
+      <c r="A22" s="207"/>
+      <c r="B22" s="203"/>
       <c r="C22" s="96" t="s">
         <v>188</v>
       </c>
@@ -31751,8 +31917,8 @@
       <c r="V22" s="101"/>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" s="203"/>
-      <c r="B23" s="204"/>
+      <c r="A23" s="207"/>
+      <c r="B23" s="203"/>
       <c r="C23" s="96" t="s">
         <v>189</v>
       </c>
@@ -31783,10 +31949,10 @@
       <c r="V23" s="101"/>
     </row>
     <row r="24" spans="1:23">
-      <c r="A24" s="203">
+      <c r="A24" s="207">
         <v>8</v>
       </c>
-      <c r="B24" s="204" t="s">
+      <c r="B24" s="203" t="s">
         <v>145</v>
       </c>
       <c r="C24" s="96" t="s">
@@ -31820,8 +31986,8 @@
       <c r="V24" s="101"/>
     </row>
     <row r="25" spans="1:23">
-      <c r="A25" s="203"/>
-      <c r="B25" s="204"/>
+      <c r="A25" s="207"/>
+      <c r="B25" s="203"/>
       <c r="C25" s="96" t="s">
         <v>101</v>
       </c>
@@ -31854,8 +32020,8 @@
       <c r="W25" s="114"/>
     </row>
     <row r="26" spans="1:23">
-      <c r="A26" s="203"/>
-      <c r="B26" s="204"/>
+      <c r="A26" s="207"/>
+      <c r="B26" s="203"/>
       <c r="C26" s="96" t="s">
         <v>102</v>
       </c>
@@ -31892,10 +32058,10 @@
       <c r="W26" s="114"/>
     </row>
     <row r="27" spans="1:23">
-      <c r="A27" s="203">
+      <c r="A27" s="207">
         <v>9</v>
       </c>
-      <c r="B27" s="204" t="s">
+      <c r="B27" s="203" t="s">
         <v>128</v>
       </c>
       <c r="C27" s="96" t="s">
@@ -31934,8 +32100,8 @@
       <c r="W27" s="114"/>
     </row>
     <row r="28" spans="1:23">
-      <c r="A28" s="203"/>
-      <c r="B28" s="204"/>
+      <c r="A28" s="207"/>
+      <c r="B28" s="203"/>
       <c r="C28" s="96" t="s">
         <v>101</v>
       </c>
@@ -31972,8 +32138,8 @@
       <c r="V28" s="101"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="203"/>
-      <c r="B29" s="204"/>
+      <c r="A29" s="207"/>
+      <c r="B29" s="203"/>
       <c r="C29" s="96" t="s">
         <v>102</v>
       </c>
@@ -32042,6 +32208,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="K17:L17"/>
@@ -32057,21 +32229,15 @@
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D3:F29">
-    <cfRule type="cellIs" dxfId="21" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G30">
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="greaterThan">
       <formula>599.99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35253,27 +35419,27 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F25:G28 B4:S24 H25:S33">
-    <cfRule type="cellIs" dxfId="19" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="15" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:S25">
-    <cfRule type="cellIs" dxfId="18" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="12" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:S28">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:G33">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:S33">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
